--- a/学习进度.xlsx
+++ b/学习进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laohangdeche/Library/Mobile Documents/com~apple~CloudDocs/个人/学习笔记/Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB3990A-98AF-AD4B-B3D9-54537E2D6F7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A666793F-0216-C848-97E4-0C1D31FB5E6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="460" windowWidth="28300" windowHeight="16900" xr2:uid="{C7784454-BD36-8040-9BFE-2AD014209B0B}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="1777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="1777">
   <si>
     <t>01_Java语言发展史</t>
   </si>
@@ -5635,9 +5635,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5645,6 +5642,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5965,8 +5965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01128F9A-3AE1-6541-A247-7E828F31667C}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -5996,7 +5996,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-08-28</v>
+        <v>截至2020-08-31</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -6007,14 +6007,16 @@
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D2" s="25"/>
       <c r="F2" s="12" t="s">
         <v>1003</v>
       </c>
       <c r="G2" s="12">
         <f>COUNTIF(C2:C1000,"ok")</f>
-        <v>69</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1">
@@ -6024,14 +6026,16 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D3" s="25"/>
       <c r="F3" s="12" t="s">
         <v>1004</v>
       </c>
       <c r="G3" s="12">
         <f>COUNTBLANK(C2:C1000)</f>
-        <v>930</v>
+        <v>792</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1">
@@ -6041,14 +6045,16 @@
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D4" s="25"/>
       <c r="F4" s="12" t="s">
         <v>1005</v>
       </c>
       <c r="G4" s="15">
         <f>G2/(G2+G3)</f>
-        <v>6.9069069069069067E-2</v>
+        <v>0.2072072072072072</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1">
@@ -6058,7 +6064,9 @@
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:7" customFormat="1">
@@ -6068,7 +6076,9 @@
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D6" s="25"/>
       <c r="F6" s="10"/>
     </row>
@@ -6079,7 +6089,9 @@
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D7" s="25"/>
       <c r="F7" s="8"/>
     </row>
@@ -6090,7 +6102,9 @@
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:7" customFormat="1">
@@ -6100,7 +6114,9 @@
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D9" s="25"/>
       <c r="F9" s="11"/>
     </row>
@@ -6111,7 +6127,9 @@
       <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:7" customFormat="1">
@@ -6121,7 +6139,9 @@
       <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:7" customFormat="1">
@@ -6131,7 +6151,9 @@
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:7" customFormat="1">
@@ -6141,7 +6163,9 @@
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D13" s="25"/>
     </row>
     <row r="14" spans="1:7" customFormat="1">
@@ -6151,7 +6175,9 @@
       <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D14" s="25"/>
     </row>
     <row r="15" spans="1:7" customFormat="1">
@@ -6161,7 +6187,9 @@
       <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:7" customFormat="1">
@@ -6171,7 +6199,9 @@
       <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D16" s="25"/>
     </row>
     <row r="17" spans="1:4" customFormat="1">
@@ -6181,7 +6211,9 @@
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D17" s="25"/>
     </row>
     <row r="18" spans="1:4" customFormat="1">
@@ -6191,7 +6223,9 @@
       <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D18" s="25"/>
     </row>
     <row r="19" spans="1:4" customFormat="1">
@@ -6201,7 +6235,9 @@
       <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:4" customFormat="1">
@@ -6211,7 +6247,9 @@
       <c r="B20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D20" s="25"/>
     </row>
     <row r="21" spans="1:4" customFormat="1">
@@ -6221,7 +6259,9 @@
       <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:4" customFormat="1">
@@ -6231,7 +6271,9 @@
       <c r="B22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D22" s="25"/>
     </row>
     <row r="23" spans="1:4" customFormat="1">
@@ -6241,7 +6283,9 @@
       <c r="B23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D23" s="25"/>
     </row>
     <row r="24" spans="1:4" customFormat="1">
@@ -6251,7 +6295,9 @@
       <c r="B24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D24" s="25"/>
     </row>
     <row r="25" spans="1:4" customFormat="1">
@@ -6261,7 +6307,9 @@
       <c r="B25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D25" s="25"/>
     </row>
     <row r="26" spans="1:4" customFormat="1">
@@ -6271,7 +6319,9 @@
       <c r="B26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:4" customFormat="1">
@@ -6281,7 +6331,9 @@
       <c r="B27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D27" s="25"/>
     </row>
     <row r="28" spans="1:4" customFormat="1">
@@ -6291,7 +6343,9 @@
       <c r="B28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:4" customFormat="1">
@@ -6301,7 +6355,9 @@
       <c r="B29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:4" customFormat="1">
@@ -6311,7 +6367,9 @@
       <c r="B30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D30" s="25"/>
     </row>
     <row r="31" spans="1:4" customFormat="1">
@@ -6321,7 +6379,9 @@
       <c r="B31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D31" s="25"/>
     </row>
     <row r="32" spans="1:4" customFormat="1">
@@ -6331,7 +6391,9 @@
       <c r="B32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D32" s="25"/>
     </row>
     <row r="33" spans="1:4" customFormat="1">
@@ -6341,7 +6403,9 @@
       <c r="B33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D33" s="25"/>
     </row>
     <row r="34" spans="1:4" customFormat="1">
@@ -6351,7 +6415,9 @@
       <c r="B34" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D34" s="25"/>
     </row>
     <row r="35" spans="1:4" customFormat="1">
@@ -6361,7 +6427,9 @@
       <c r="B35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D35" s="25"/>
     </row>
     <row r="36" spans="1:4" customFormat="1">
@@ -6371,7 +6439,9 @@
       <c r="B36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D36" s="25"/>
     </row>
     <row r="37" spans="1:4" customFormat="1">
@@ -6381,7 +6451,9 @@
       <c r="B37" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D37" s="25"/>
     </row>
     <row r="38" spans="1:4" customFormat="1">
@@ -6391,7 +6463,9 @@
       <c r="B38" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D38" s="25"/>
     </row>
     <row r="39" spans="1:4" customFormat="1">
@@ -6401,7 +6475,9 @@
       <c r="B39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D39" s="25"/>
     </row>
     <row r="40" spans="1:4" customFormat="1">
@@ -6411,7 +6487,9 @@
       <c r="B40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D40" s="25"/>
     </row>
     <row r="41" spans="1:4" customFormat="1">
@@ -6421,7 +6499,9 @@
       <c r="B41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D41" s="25"/>
     </row>
     <row r="42" spans="1:4" customFormat="1">
@@ -6431,7 +6511,9 @@
       <c r="B42" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D42" s="25"/>
     </row>
     <row r="43" spans="1:4" customFormat="1">
@@ -6441,7 +6523,9 @@
       <c r="B43" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D43" s="25"/>
     </row>
     <row r="44" spans="1:4" customFormat="1">
@@ -6451,7 +6535,9 @@
       <c r="B44" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D44" s="25"/>
     </row>
     <row r="45" spans="1:4" customFormat="1">
@@ -6461,7 +6547,9 @@
       <c r="B45" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D45" s="25"/>
     </row>
     <row r="46" spans="1:4" customFormat="1">
@@ -6471,7 +6559,9 @@
       <c r="B46" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D46" s="25"/>
     </row>
     <row r="47" spans="1:4" customFormat="1">
@@ -6481,7 +6571,9 @@
       <c r="B47" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D47" s="25"/>
     </row>
     <row r="48" spans="1:4" customFormat="1">
@@ -6491,7 +6583,9 @@
       <c r="B48" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D48" s="25"/>
     </row>
     <row r="49" spans="1:4" customFormat="1">
@@ -6501,7 +6595,9 @@
       <c r="B49" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D49" s="25"/>
     </row>
     <row r="50" spans="1:4" customFormat="1">
@@ -6511,7 +6607,9 @@
       <c r="B50" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D50" s="25"/>
     </row>
     <row r="51" spans="1:4" customFormat="1">
@@ -6521,7 +6619,9 @@
       <c r="B51" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D51" s="25"/>
     </row>
     <row r="52" spans="1:4" customFormat="1">
@@ -6531,7 +6631,9 @@
       <c r="B52" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D52" s="25"/>
     </row>
     <row r="53" spans="1:4" customFormat="1">
@@ -6541,7 +6643,9 @@
       <c r="B53" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D53" s="25"/>
     </row>
     <row r="54" spans="1:4" customFormat="1">
@@ -6551,7 +6655,9 @@
       <c r="B54" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D54" s="25"/>
     </row>
     <row r="55" spans="1:4" customFormat="1">
@@ -6561,7 +6667,9 @@
       <c r="B55" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D55" s="25"/>
     </row>
     <row r="56" spans="1:4" customFormat="1">
@@ -6571,7 +6679,9 @@
       <c r="B56" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D56" s="25"/>
     </row>
     <row r="57" spans="1:4" customFormat="1">
@@ -6581,7 +6691,9 @@
       <c r="B57" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="2"/>
+      <c r="C57" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D57" s="25"/>
     </row>
     <row r="58" spans="1:4" customFormat="1">
@@ -6591,7 +6703,9 @@
       <c r="B58" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D58" s="25"/>
     </row>
     <row r="59" spans="1:4" customFormat="1">
@@ -6601,7 +6715,9 @@
       <c r="B59" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D59" s="25"/>
     </row>
     <row r="60" spans="1:4" customFormat="1">
@@ -6611,7 +6727,9 @@
       <c r="B60" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D60" s="25"/>
     </row>
     <row r="61" spans="1:4" customFormat="1">
@@ -6621,7 +6739,9 @@
       <c r="B61" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D61" s="25"/>
     </row>
     <row r="62" spans="1:4" customFormat="1">
@@ -6631,7 +6751,9 @@
       <c r="B62" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D62" s="25"/>
     </row>
     <row r="63" spans="1:4" customFormat="1">
@@ -6641,7 +6763,9 @@
       <c r="B63" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D63" s="25"/>
     </row>
     <row r="64" spans="1:4" customFormat="1">
@@ -6651,7 +6775,9 @@
       <c r="B64" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D64" s="25"/>
     </row>
     <row r="65" spans="1:4" customFormat="1">
@@ -6661,7 +6787,9 @@
       <c r="B65" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D65" s="25"/>
     </row>
     <row r="66" spans="1:4" customFormat="1">
@@ -6671,7 +6799,9 @@
       <c r="B66" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="2"/>
+      <c r="C66" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D66" s="25"/>
     </row>
     <row r="67" spans="1:4" customFormat="1">
@@ -6681,7 +6811,9 @@
       <c r="B67" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D67" s="25"/>
     </row>
     <row r="68" spans="1:4" customFormat="1">
@@ -6691,7 +6823,9 @@
       <c r="B68" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D68" s="25"/>
     </row>
     <row r="69" spans="1:4" customFormat="1">
@@ -6701,7 +6835,9 @@
       <c r="B69" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D69" s="25"/>
     </row>
     <row r="70" spans="1:4" customFormat="1">
@@ -6711,7 +6847,9 @@
       <c r="B70" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D70" s="25"/>
     </row>
     <row r="71" spans="1:4" customFormat="1">
@@ -6721,7 +6859,9 @@
       <c r="B71" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D71" s="25"/>
     </row>
     <row r="72" spans="1:4" customFormat="1">
@@ -6731,7 +6871,9 @@
       <c r="B72" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="2"/>
+      <c r="C72" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D72" s="25"/>
     </row>
     <row r="73" spans="1:4" customFormat="1">
@@ -6741,7 +6883,9 @@
       <c r="B73" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="2"/>
+      <c r="C73" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D73" s="25"/>
     </row>
     <row r="74" spans="1:4" customFormat="1">
@@ -6751,7 +6895,9 @@
       <c r="B74" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="2"/>
+      <c r="C74" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D74" s="25"/>
     </row>
     <row r="75" spans="1:4" customFormat="1">
@@ -6761,7 +6907,9 @@
       <c r="B75" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D75" s="25"/>
     </row>
     <row r="76" spans="1:4" customFormat="1">
@@ -6771,7 +6919,9 @@
       <c r="B76" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="2"/>
+      <c r="C76" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D76" s="25"/>
     </row>
     <row r="77" spans="1:4" customFormat="1">
@@ -6781,7 +6931,9 @@
       <c r="B77" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D77" s="25"/>
     </row>
     <row r="78" spans="1:4" customFormat="1">
@@ -6791,7 +6943,9 @@
       <c r="B78" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="2"/>
+      <c r="C78" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D78" s="25"/>
     </row>
     <row r="79" spans="1:4" customFormat="1">
@@ -6801,7 +6955,9 @@
       <c r="B79" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="2"/>
+      <c r="C79" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D79" s="25"/>
     </row>
     <row r="80" spans="1:4" customFormat="1">
@@ -6811,7 +6967,9 @@
       <c r="B80" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="2"/>
+      <c r="C80" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D80" s="25"/>
     </row>
     <row r="81" spans="1:4" customFormat="1">
@@ -6821,7 +6979,9 @@
       <c r="B81" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="2"/>
+      <c r="C81" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D81" s="25"/>
     </row>
     <row r="82" spans="1:4" customFormat="1">
@@ -6831,7 +6991,9 @@
       <c r="B82" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="2"/>
+      <c r="C82" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D82" s="25"/>
     </row>
     <row r="83" spans="1:4" customFormat="1">
@@ -6841,7 +7003,9 @@
       <c r="B83" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C83" s="2"/>
+      <c r="C83" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D83" s="25"/>
     </row>
     <row r="84" spans="1:4" customFormat="1">
@@ -6851,7 +7015,9 @@
       <c r="B84" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="2"/>
+      <c r="C84" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D84" s="25"/>
     </row>
     <row r="85" spans="1:4" customFormat="1">
@@ -6861,7 +7027,9 @@
       <c r="B85" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="2"/>
+      <c r="C85" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D85" s="25"/>
     </row>
     <row r="86" spans="1:4" customFormat="1">
@@ -6871,7 +7039,9 @@
       <c r="B86" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="2"/>
+      <c r="C86" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D86" s="25"/>
     </row>
     <row r="87" spans="1:4" customFormat="1">
@@ -6881,7 +7051,9 @@
       <c r="B87" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="2"/>
+      <c r="C87" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D87" s="25"/>
     </row>
     <row r="88" spans="1:4" customFormat="1">
@@ -6891,7 +7063,9 @@
       <c r="B88" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="2"/>
+      <c r="C88" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D88" s="25"/>
     </row>
     <row r="89" spans="1:4" customFormat="1">
@@ -6901,7 +7075,9 @@
       <c r="B89" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="2"/>
+      <c r="C89" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D89" s="25"/>
     </row>
     <row r="90" spans="1:4" customFormat="1">
@@ -6911,7 +7087,9 @@
       <c r="B90" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="2"/>
+      <c r="C90" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D90" s="25"/>
     </row>
     <row r="91" spans="1:4" customFormat="1">
@@ -6921,7 +7099,9 @@
       <c r="B91" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="2"/>
+      <c r="C91" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D91" s="25"/>
     </row>
     <row r="92" spans="1:4" customFormat="1">
@@ -6931,7 +7111,9 @@
       <c r="B92" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="2"/>
+      <c r="C92" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D92" s="25"/>
     </row>
     <row r="93" spans="1:4" customFormat="1">
@@ -6941,7 +7123,9 @@
       <c r="B93" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="2"/>
+      <c r="C93" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D93" s="25"/>
     </row>
     <row r="94" spans="1:4" customFormat="1">
@@ -6951,7 +7135,9 @@
       <c r="B94" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="2"/>
+      <c r="C94" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D94" s="25"/>
     </row>
     <row r="95" spans="1:4" customFormat="1">
@@ -6961,7 +7147,9 @@
       <c r="B95" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="2"/>
+      <c r="C95" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D95" s="25"/>
     </row>
     <row r="96" spans="1:4" customFormat="1">
@@ -6971,7 +7159,9 @@
       <c r="B96" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="2"/>
+      <c r="C96" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D96" s="25"/>
     </row>
     <row r="97" spans="1:4" customFormat="1">
@@ -6981,7 +7171,9 @@
       <c r="B97" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C97" s="2"/>
+      <c r="C97" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D97" s="25"/>
     </row>
     <row r="98" spans="1:4" customFormat="1">
@@ -6991,7 +7183,9 @@
       <c r="B98" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D98" s="25"/>
     </row>
     <row r="99" spans="1:4" customFormat="1">
@@ -7001,7 +7195,9 @@
       <c r="B99" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C99" s="2"/>
+      <c r="C99" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D99" s="25"/>
     </row>
     <row r="100" spans="1:4" customFormat="1">
@@ -7011,7 +7207,9 @@
       <c r="B100" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C100" s="2"/>
+      <c r="C100" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D100" s="25"/>
     </row>
     <row r="101" spans="1:4" customFormat="1">
@@ -7021,7 +7219,9 @@
       <c r="B101" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C101" s="2"/>
+      <c r="C101" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D101" s="25"/>
     </row>
     <row r="102" spans="1:4" customFormat="1">
@@ -7031,7 +7231,9 @@
       <c r="B102" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C102" s="2"/>
+      <c r="C102" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D102" s="25"/>
     </row>
     <row r="103" spans="1:4" customFormat="1">
@@ -7041,7 +7243,9 @@
       <c r="B103" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C103" s="2"/>
+      <c r="C103" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D103" s="25"/>
     </row>
     <row r="104" spans="1:4" customFormat="1">
@@ -7051,7 +7255,9 @@
       <c r="B104" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C104" s="2"/>
+      <c r="C104" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D104" s="25"/>
     </row>
     <row r="105" spans="1:4" customFormat="1">
@@ -7061,7 +7267,9 @@
       <c r="B105" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C105" s="2"/>
+      <c r="C105" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D105" s="25"/>
     </row>
     <row r="106" spans="1:4" customFormat="1">
@@ -7071,7 +7279,9 @@
       <c r="B106" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C106" s="2"/>
+      <c r="C106" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D106" s="25"/>
     </row>
     <row r="107" spans="1:4" customFormat="1">
@@ -7081,7 +7291,9 @@
       <c r="B107" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C107" s="2"/>
+      <c r="C107" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D107" s="25"/>
     </row>
     <row r="108" spans="1:4" customFormat="1">
@@ -7091,7 +7303,9 @@
       <c r="B108" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C108" s="2"/>
+      <c r="C108" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D108" s="25"/>
     </row>
     <row r="109" spans="1:4" customFormat="1">
@@ -7101,7 +7315,9 @@
       <c r="B109" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C109" s="2"/>
+      <c r="C109" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D109" s="25"/>
     </row>
     <row r="110" spans="1:4" customFormat="1">
@@ -7111,7 +7327,9 @@
       <c r="B110" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C110" s="2"/>
+      <c r="C110" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D110" s="25"/>
     </row>
     <row r="111" spans="1:4" customFormat="1">
@@ -7121,7 +7339,9 @@
       <c r="B111" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C111" s="2"/>
+      <c r="C111" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D111" s="25"/>
     </row>
     <row r="112" spans="1:4" customFormat="1">
@@ -7131,7 +7351,9 @@
       <c r="B112" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C112" s="2"/>
+      <c r="C112" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D112" s="25"/>
     </row>
     <row r="113" spans="1:6" customFormat="1">
@@ -7141,7 +7363,9 @@
       <c r="B113" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C113" s="2"/>
+      <c r="C113" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D113" s="25"/>
     </row>
     <row r="114" spans="1:6" customFormat="1">
@@ -7151,7 +7375,9 @@
       <c r="B114" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C114" s="2"/>
+      <c r="C114" s="2" t="s">
+        <v>1002</v>
+      </c>
       <c r="D114" s="25"/>
     </row>
     <row r="115" spans="1:6" customFormat="1">
@@ -8140,8 +8366,12 @@
       <c r="B184" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C184" s="2"/>
-      <c r="D184" s="25"/>
+      <c r="C184" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D184" s="25">
+        <v>44073</v>
+      </c>
     </row>
     <row r="185" spans="1:4" customFormat="1">
       <c r="A185" s="2">
@@ -8150,8 +8380,12 @@
       <c r="B185" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C185" s="2"/>
-      <c r="D185" s="25"/>
+      <c r="C185" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D185" s="25">
+        <v>44073</v>
+      </c>
     </row>
     <row r="186" spans="1:4" customFormat="1">
       <c r="A186" s="2">
@@ -8160,8 +8394,12 @@
       <c r="B186" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C186" s="2"/>
-      <c r="D186" s="25"/>
+      <c r="C186" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D186" s="25">
+        <v>44073</v>
+      </c>
     </row>
     <row r="187" spans="1:4" customFormat="1">
       <c r="A187" s="2">
@@ -8170,8 +8408,12 @@
       <c r="B187" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C187" s="2"/>
-      <c r="D187" s="25"/>
+      <c r="C187" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D187" s="25">
+        <v>44073</v>
+      </c>
     </row>
     <row r="188" spans="1:4" customFormat="1">
       <c r="A188" s="2">
@@ -8180,8 +8422,12 @@
       <c r="B188" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C188" s="2"/>
-      <c r="D188" s="25"/>
+      <c r="C188" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D188" s="25">
+        <v>44073</v>
+      </c>
     </row>
     <row r="189" spans="1:4" customFormat="1">
       <c r="A189" s="2">
@@ -8190,8 +8436,12 @@
       <c r="B189" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C189" s="2"/>
-      <c r="D189" s="25"/>
+      <c r="C189" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D189" s="25">
+        <v>44073</v>
+      </c>
     </row>
     <row r="190" spans="1:4" customFormat="1">
       <c r="A190" s="2">
@@ -8200,8 +8450,12 @@
       <c r="B190" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C190" s="2"/>
-      <c r="D190" s="25"/>
+      <c r="C190" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D190" s="25">
+        <v>44073</v>
+      </c>
     </row>
     <row r="191" spans="1:4" customFormat="1">
       <c r="A191" s="2">
@@ -8210,8 +8464,12 @@
       <c r="B191" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C191" s="2"/>
-      <c r="D191" s="25"/>
+      <c r="C191" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D191" s="25">
+        <v>44073</v>
+      </c>
     </row>
     <row r="192" spans="1:4" customFormat="1">
       <c r="A192" s="2">
@@ -8220,8 +8478,12 @@
       <c r="B192" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C192" s="2"/>
-      <c r="D192" s="25"/>
+      <c r="C192" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D192" s="25">
+        <v>44073</v>
+      </c>
     </row>
     <row r="193" spans="1:4" customFormat="1">
       <c r="A193" s="2">
@@ -8230,8 +8492,12 @@
       <c r="B193" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C193" s="2"/>
-      <c r="D193" s="25"/>
+      <c r="C193" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D193" s="25">
+        <v>44073</v>
+      </c>
     </row>
     <row r="194" spans="1:4" customFormat="1">
       <c r="A194" s="2">
@@ -8240,8 +8506,12 @@
       <c r="B194" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C194" s="2"/>
-      <c r="D194" s="25"/>
+      <c r="C194" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D194" s="25">
+        <v>44073</v>
+      </c>
     </row>
     <row r="195" spans="1:4" customFormat="1">
       <c r="A195" s="2">
@@ -8250,8 +8520,12 @@
       <c r="B195" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C195" s="2"/>
-      <c r="D195" s="25"/>
+      <c r="C195" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D195" s="25">
+        <v>44073</v>
+      </c>
     </row>
     <row r="196" spans="1:4" customFormat="1">
       <c r="A196" s="2">
@@ -8260,8 +8534,12 @@
       <c r="B196" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C196" s="2"/>
-      <c r="D196" s="25"/>
+      <c r="C196" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D196" s="25">
+        <v>44073</v>
+      </c>
     </row>
     <row r="197" spans="1:4" customFormat="1">
       <c r="A197" s="2">
@@ -8270,8 +8548,12 @@
       <c r="B197" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C197" s="2"/>
-      <c r="D197" s="25"/>
+      <c r="C197" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D197" s="25">
+        <v>44073</v>
+      </c>
     </row>
     <row r="198" spans="1:4" customFormat="1">
       <c r="A198" s="2">
@@ -8280,8 +8562,12 @@
       <c r="B198" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C198" s="2"/>
-      <c r="D198" s="25"/>
+      <c r="C198" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D198" s="25">
+        <v>44073</v>
+      </c>
     </row>
     <row r="199" spans="1:4" customFormat="1">
       <c r="A199" s="2">
@@ -8290,8 +8576,12 @@
       <c r="B199" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C199" s="2"/>
-      <c r="D199" s="25"/>
+      <c r="C199" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D199" s="25">
+        <v>44073</v>
+      </c>
     </row>
     <row r="200" spans="1:4" customFormat="1">
       <c r="A200" s="2">
@@ -8300,8 +8590,12 @@
       <c r="B200" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C200" s="2"/>
-      <c r="D200" s="25"/>
+      <c r="C200" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D200" s="25">
+        <v>44073</v>
+      </c>
     </row>
     <row r="201" spans="1:4" customFormat="1">
       <c r="A201" s="2">
@@ -8310,8 +8604,12 @@
       <c r="B201" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C201" s="2"/>
-      <c r="D201" s="25"/>
+      <c r="C201" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D201" s="25">
+        <v>44073</v>
+      </c>
     </row>
     <row r="202" spans="1:4" customFormat="1">
       <c r="A202" s="2">
@@ -8320,8 +8618,12 @@
       <c r="B202" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C202" s="2"/>
-      <c r="D202" s="25"/>
+      <c r="C202" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D202" s="25">
+        <v>44073</v>
+      </c>
     </row>
     <row r="203" spans="1:4" customFormat="1">
       <c r="A203" s="2">
@@ -8330,8 +8632,12 @@
       <c r="B203" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C203" s="2"/>
-      <c r="D203" s="25"/>
+      <c r="C203" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D203" s="25">
+        <v>44073</v>
+      </c>
     </row>
     <row r="204" spans="1:4" customFormat="1">
       <c r="A204" s="2">
@@ -8340,8 +8646,12 @@
       <c r="B204" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C204" s="2"/>
-      <c r="D204" s="25"/>
+      <c r="C204" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D204" s="25">
+        <v>44073</v>
+      </c>
     </row>
     <row r="205" spans="1:4" customFormat="1">
       <c r="A205" s="2">
@@ -8350,8 +8660,12 @@
       <c r="B205" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C205" s="2"/>
-      <c r="D205" s="25"/>
+      <c r="C205" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D205" s="25">
+        <v>44073</v>
+      </c>
     </row>
     <row r="206" spans="1:4" customFormat="1">
       <c r="A206" s="2">
@@ -8360,8 +8674,12 @@
       <c r="B206" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C206" s="2"/>
-      <c r="D206" s="25"/>
+      <c r="C206" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D206" s="25">
+        <v>44073</v>
+      </c>
     </row>
     <row r="207" spans="1:4" customFormat="1">
       <c r="A207" s="2">
@@ -8370,8 +8688,12 @@
       <c r="B207" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C207" s="2"/>
-      <c r="D207" s="25"/>
+      <c r="C207" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D207" s="25">
+        <v>44073</v>
+      </c>
     </row>
     <row r="208" spans="1:4" customFormat="1">
       <c r="A208" s="2">
@@ -8380,8 +8702,12 @@
       <c r="B208" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C208" s="2"/>
-      <c r="D208" s="25"/>
+      <c r="C208" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D208" s="25">
+        <v>44073</v>
+      </c>
     </row>
     <row r="209" spans="1:4" customFormat="1">
       <c r="A209" s="2">
@@ -16390,12 +16716,12 @@
       </c>
       <c r="H1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-08-28</v>
+        <v>截至2020-08-31</v>
       </c>
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" customFormat="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>1762</v>
       </c>
       <c r="B2" s="20">
@@ -16418,7 +16744,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" customFormat="1">
-      <c r="A3" s="28"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="20">
         <v>1.2</v>
       </c>
@@ -16439,7 +16765,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" customFormat="1">
-      <c r="A4" s="28"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="20" t="s">
         <v>1007</v>
       </c>
@@ -16460,7 +16786,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" customFormat="1">
-      <c r="A5" s="28"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="20" t="s">
         <v>1008</v>
       </c>
@@ -16474,7 +16800,7 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:9" customFormat="1">
-      <c r="A6" s="28"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="20" t="s">
         <v>1009</v>
       </c>
@@ -16489,7 +16815,7 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:9" customFormat="1">
-      <c r="A7" s="28"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="20" t="s">
         <v>1010</v>
       </c>
@@ -16504,7 +16830,7 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9" customFormat="1">
-      <c r="A8" s="28"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="20" t="s">
         <v>1011</v>
       </c>
@@ -16518,7 +16844,7 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:9" customFormat="1">
-      <c r="A9" s="28"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="20" t="s">
         <v>1012</v>
       </c>
@@ -16533,7 +16859,7 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:9" customFormat="1">
-      <c r="A10" s="28"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="20" t="s">
         <v>1013</v>
       </c>
@@ -16547,7 +16873,7 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:9" customFormat="1">
-      <c r="A11" s="28"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="20" t="s">
         <v>1014</v>
       </c>
@@ -16561,7 +16887,7 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:9" customFormat="1">
-      <c r="A12" s="28"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="20" t="s">
         <v>1015</v>
       </c>
@@ -16575,7 +16901,7 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:9" customFormat="1">
-      <c r="A13" s="28"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="20" t="s">
         <v>1016</v>
       </c>
@@ -16589,7 +16915,7 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:9" customFormat="1">
-      <c r="A14" s="28"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="20" t="s">
         <v>1017</v>
       </c>
@@ -16603,7 +16929,7 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:9" customFormat="1">
-      <c r="A15" s="28"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="20">
         <v>1.3</v>
       </c>
@@ -16617,7 +16943,7 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:9" customFormat="1">
-      <c r="A16" s="28"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="20">
         <v>1.4</v>
       </c>
@@ -16631,7 +16957,7 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" customFormat="1">
-      <c r="A17" s="28"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="20">
         <v>1.5</v>
       </c>
@@ -16645,7 +16971,7 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" customFormat="1">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="31" t="s">
         <v>1763</v>
       </c>
       <c r="B18" s="20">
@@ -16661,7 +16987,7 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" customFormat="1">
-      <c r="A19" s="28"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="20" t="s">
         <v>1018</v>
       </c>
@@ -16675,7 +17001,7 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" customFormat="1">
-      <c r="A20" s="28"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="20" t="s">
         <v>1019</v>
       </c>
@@ -16689,7 +17015,7 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" customFormat="1">
-      <c r="A21" s="28"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="20" t="s">
         <v>1020</v>
       </c>
@@ -16703,7 +17029,7 @@
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" customFormat="1">
-      <c r="A22" s="28"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="20">
         <v>2.2000000000000002</v>
       </c>
@@ -16717,7 +17043,7 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" customFormat="1">
-      <c r="A23" s="28"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="20">
         <v>2.2999999999999998</v>
       </c>
@@ -16731,7 +17057,7 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" customFormat="1">
-      <c r="A24" s="28"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="20">
         <v>2.4</v>
       </c>
@@ -16745,7 +17071,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" customFormat="1">
-      <c r="A25" s="28"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="20">
         <v>2.5</v>
       </c>
@@ -16759,7 +17085,7 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" customFormat="1">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="31" t="s">
         <v>1773</v>
       </c>
       <c r="B26" s="20">
@@ -16775,7 +17101,7 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" customFormat="1">
-      <c r="A27" s="28"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="20">
         <v>3.2</v>
       </c>
@@ -16789,7 +17115,7 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" customFormat="1">
-      <c r="A28" s="28"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="20">
         <v>3.3</v>
       </c>
@@ -16803,7 +17129,7 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" customFormat="1">
-      <c r="A29" s="28"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="20" t="s">
         <v>1021</v>
       </c>
@@ -16817,7 +17143,7 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" customFormat="1">
-      <c r="A30" s="28"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="20" t="s">
         <v>1022</v>
       </c>
@@ -16831,7 +17157,7 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" customFormat="1">
-      <c r="A31" s="28"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="20" t="s">
         <v>1023</v>
       </c>
@@ -16845,7 +17171,7 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" customFormat="1">
-      <c r="A32" s="28"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="20" t="s">
         <v>1024</v>
       </c>
@@ -16859,7 +17185,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" customFormat="1">
-      <c r="A33" s="28"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="20" t="s">
         <v>1025</v>
       </c>
@@ -16873,7 +17199,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" customFormat="1">
-      <c r="A34" s="28"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="20">
         <v>3.4</v>
       </c>
@@ -16887,7 +17213,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" customFormat="1">
-      <c r="A35" s="28"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="20" t="s">
         <v>1026</v>
       </c>
@@ -16901,7 +17227,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" customFormat="1">
-      <c r="A36" s="28"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="20" t="s">
         <v>1027</v>
       </c>
@@ -16915,7 +17241,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" customFormat="1">
-      <c r="A37" s="28"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="20">
         <v>3.5</v>
       </c>
@@ -16929,7 +17255,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" customFormat="1">
-      <c r="A38" s="28"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="20" t="s">
         <v>1028</v>
       </c>
@@ -16943,7 +17269,7 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" customFormat="1">
-      <c r="A39" s="28"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="20" t="s">
         <v>1029</v>
       </c>
@@ -16957,7 +17283,7 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" customFormat="1">
-      <c r="A40" s="28"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="20" t="s">
         <v>1030</v>
       </c>
@@ -16971,7 +17297,7 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" customFormat="1">
-      <c r="A41" s="28"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="20" t="s">
         <v>1031</v>
       </c>
@@ -16985,7 +17311,7 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" customFormat="1">
-      <c r="A42" s="28"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="20" t="s">
         <v>1032</v>
       </c>
@@ -16999,7 +17325,7 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" customFormat="1">
-      <c r="A43" s="28"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="20" t="s">
         <v>1033</v>
       </c>
@@ -17013,7 +17339,7 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" customFormat="1">
-      <c r="A44" s="28"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="20" t="s">
         <v>1034</v>
       </c>
@@ -17027,7 +17353,7 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" customFormat="1">
-      <c r="A45" s="28"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="20" t="s">
         <v>1035</v>
       </c>
@@ -17041,7 +17367,7 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" customFormat="1">
-      <c r="A46" s="28"/>
+      <c r="A46" s="31"/>
       <c r="B46" s="20" t="s">
         <v>1036</v>
       </c>
@@ -17055,7 +17381,7 @@
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" customFormat="1">
-      <c r="A47" s="28"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="20">
         <v>3.6</v>
       </c>
@@ -17069,7 +17395,7 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" customFormat="1">
-      <c r="A48" s="28"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="20" t="s">
         <v>1037</v>
       </c>
@@ -17083,7 +17409,7 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" customFormat="1">
-      <c r="A49" s="28"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="20" t="s">
         <v>1038</v>
       </c>
@@ -17097,7 +17423,7 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" customFormat="1">
-      <c r="A50" s="28"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="20" t="s">
         <v>1039</v>
       </c>
@@ -17111,7 +17437,7 @@
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" customFormat="1">
-      <c r="A51" s="28"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="20" t="s">
         <v>1040</v>
       </c>
@@ -17125,7 +17451,7 @@
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" customFormat="1">
-      <c r="A52" s="28"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="20" t="s">
         <v>1041</v>
       </c>
@@ -17139,7 +17465,7 @@
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" customFormat="1">
-      <c r="A53" s="28"/>
+      <c r="A53" s="31"/>
       <c r="B53" s="20" t="s">
         <v>1042</v>
       </c>
@@ -17153,7 +17479,7 @@
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" customFormat="1">
-      <c r="A54" s="28"/>
+      <c r="A54" s="31"/>
       <c r="B54" s="20" t="s">
         <v>1043</v>
       </c>
@@ -17167,7 +17493,7 @@
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" customFormat="1">
-      <c r="A55" s="28"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="20" t="s">
         <v>1044</v>
       </c>
@@ -17181,7 +17507,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" customFormat="1">
-      <c r="A56" s="28"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="20" t="s">
         <v>1045</v>
       </c>
@@ -17195,7 +17521,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" customFormat="1">
-      <c r="A57" s="28"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="20">
         <v>3.7</v>
       </c>
@@ -17209,7 +17535,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" customFormat="1">
-      <c r="A58" s="28"/>
+      <c r="A58" s="31"/>
       <c r="B58" s="20" t="s">
         <v>1046</v>
       </c>
@@ -17223,7 +17549,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" customFormat="1">
-      <c r="A59" s="28"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="20" t="s">
         <v>1047</v>
       </c>
@@ -17237,7 +17563,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" customFormat="1">
-      <c r="A60" s="28"/>
+      <c r="A60" s="31"/>
       <c r="B60" s="20" t="s">
         <v>1048</v>
       </c>
@@ -17251,7 +17577,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" customFormat="1">
-      <c r="A61" s="28"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="20">
         <v>3.8</v>
       </c>
@@ -17265,7 +17591,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" customFormat="1">
-      <c r="A62" s="28"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="20" t="s">
         <v>1049</v>
       </c>
@@ -17279,7 +17605,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" customFormat="1">
-      <c r="A63" s="28"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="20" t="s">
         <v>1050</v>
       </c>
@@ -17293,7 +17619,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" customFormat="1">
-      <c r="A64" s="28"/>
+      <c r="A64" s="31"/>
       <c r="B64" s="20" t="s">
         <v>1051</v>
       </c>
@@ -17307,7 +17633,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" customFormat="1">
-      <c r="A65" s="28"/>
+      <c r="A65" s="31"/>
       <c r="B65" s="20" t="s">
         <v>1052</v>
       </c>
@@ -17321,7 +17647,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" customFormat="1">
-      <c r="A66" s="28"/>
+      <c r="A66" s="31"/>
       <c r="B66" s="20" t="s">
         <v>1053</v>
       </c>
@@ -17335,7 +17661,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" customFormat="1">
-      <c r="A67" s="28"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="20" t="s">
         <v>1054</v>
       </c>
@@ -17349,7 +17675,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" customFormat="1">
-      <c r="A68" s="28"/>
+      <c r="A68" s="31"/>
       <c r="B68" s="20">
         <v>3.9</v>
       </c>
@@ -17363,7 +17689,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" customFormat="1">
-      <c r="A69" s="28"/>
+      <c r="A69" s="31"/>
       <c r="B69" s="20">
         <v>3.1</v>
       </c>
@@ -17377,7 +17703,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" customFormat="1">
-      <c r="A70" s="28"/>
+      <c r="A70" s="31"/>
       <c r="B70" s="20" t="s">
         <v>1055</v>
       </c>
@@ -17391,7 +17717,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" customFormat="1">
-      <c r="A71" s="28"/>
+      <c r="A71" s="31"/>
       <c r="B71" s="20" t="s">
         <v>1056</v>
       </c>
@@ -17405,7 +17731,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" customFormat="1">
-      <c r="A72" s="28"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="20" t="s">
         <v>1057</v>
       </c>
@@ -17419,7 +17745,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" customFormat="1">
-      <c r="A73" s="28"/>
+      <c r="A73" s="31"/>
       <c r="B73" s="20" t="s">
         <v>1058</v>
       </c>
@@ -17433,7 +17759,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" customFormat="1">
-      <c r="A74" s="28"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="20" t="s">
         <v>1059</v>
       </c>
@@ -17447,7 +17773,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" customFormat="1">
-      <c r="A75" s="28"/>
+      <c r="A75" s="31"/>
       <c r="B75" s="20" t="s">
         <v>1060</v>
       </c>
@@ -17461,7 +17787,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" customFormat="1">
-      <c r="A76" s="28"/>
+      <c r="A76" s="31"/>
       <c r="B76" s="20" t="s">
         <v>1061</v>
       </c>
@@ -17475,7 +17801,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" customFormat="1">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="31" t="s">
         <v>1774</v>
       </c>
       <c r="B77" s="20">
@@ -17491,7 +17817,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" customFormat="1">
-      <c r="A78" s="28"/>
+      <c r="A78" s="31"/>
       <c r="B78" s="20" t="s">
         <v>1062</v>
       </c>
@@ -17505,7 +17831,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" customFormat="1">
-      <c r="A79" s="28"/>
+      <c r="A79" s="31"/>
       <c r="B79" s="20" t="s">
         <v>1063</v>
       </c>
@@ -17519,7 +17845,7 @@
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" customFormat="1">
-      <c r="A80" s="28"/>
+      <c r="A80" s="31"/>
       <c r="B80" s="20" t="s">
         <v>1064</v>
       </c>
@@ -17533,7 +17859,7 @@
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" customFormat="1">
-      <c r="A81" s="28"/>
+      <c r="A81" s="31"/>
       <c r="B81" s="20" t="s">
         <v>1065</v>
       </c>
@@ -17547,7 +17873,7 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" customFormat="1">
-      <c r="A82" s="28"/>
+      <c r="A82" s="31"/>
       <c r="B82" s="20">
         <v>4.2</v>
       </c>
@@ -17561,7 +17887,7 @@
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" customFormat="1">
-      <c r="A83" s="28"/>
+      <c r="A83" s="31"/>
       <c r="B83" s="20" t="s">
         <v>1066</v>
       </c>
@@ -17575,7 +17901,7 @@
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" customFormat="1">
-      <c r="A84" s="28"/>
+      <c r="A84" s="31"/>
       <c r="B84" s="20" t="s">
         <v>1067</v>
       </c>
@@ -17589,7 +17915,7 @@
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" customFormat="1">
-      <c r="A85" s="28"/>
+      <c r="A85" s="31"/>
       <c r="B85" s="20" t="s">
         <v>1068</v>
       </c>
@@ -17603,7 +17929,7 @@
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" customFormat="1">
-      <c r="A86" s="28"/>
+      <c r="A86" s="31"/>
       <c r="B86" s="20">
         <v>4.3</v>
       </c>
@@ -17617,7 +17943,7 @@
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" customFormat="1">
-      <c r="A87" s="28"/>
+      <c r="A87" s="31"/>
       <c r="B87" s="20" t="s">
         <v>1069</v>
       </c>
@@ -17631,7 +17957,7 @@
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" customFormat="1">
-      <c r="A88" s="28"/>
+      <c r="A88" s="31"/>
       <c r="B88" s="20" t="s">
         <v>1070</v>
       </c>
@@ -17645,7 +17971,7 @@
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" customFormat="1">
-      <c r="A89" s="28"/>
+      <c r="A89" s="31"/>
       <c r="B89" s="20" t="s">
         <v>1071</v>
       </c>
@@ -17659,7 +17985,7 @@
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" customFormat="1">
-      <c r="A90" s="28"/>
+      <c r="A90" s="31"/>
       <c r="B90" s="20" t="s">
         <v>1072</v>
       </c>
@@ -17673,7 +17999,7 @@
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" customFormat="1">
-      <c r="A91" s="28"/>
+      <c r="A91" s="31"/>
       <c r="B91" s="20" t="s">
         <v>1073</v>
       </c>
@@ -17687,7 +18013,7 @@
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" customFormat="1">
-      <c r="A92" s="28"/>
+      <c r="A92" s="31"/>
       <c r="B92" s="20" t="s">
         <v>1074</v>
       </c>
@@ -17701,7 +18027,7 @@
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" customFormat="1">
-      <c r="A93" s="28"/>
+      <c r="A93" s="31"/>
       <c r="B93" s="20" t="s">
         <v>1075</v>
       </c>
@@ -17715,7 +18041,7 @@
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" customFormat="1">
-      <c r="A94" s="28"/>
+      <c r="A94" s="31"/>
       <c r="B94" s="20" t="s">
         <v>1076</v>
       </c>
@@ -17729,7 +18055,7 @@
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" customFormat="1">
-      <c r="A95" s="28"/>
+      <c r="A95" s="31"/>
       <c r="B95" s="20" t="s">
         <v>1077</v>
       </c>
@@ -17743,7 +18069,7 @@
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" customFormat="1">
-      <c r="A96" s="28"/>
+      <c r="A96" s="31"/>
       <c r="B96" s="20">
         <v>4.4000000000000004</v>
       </c>
@@ -17757,7 +18083,7 @@
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" customFormat="1">
-      <c r="A97" s="28"/>
+      <c r="A97" s="31"/>
       <c r="B97" s="20" t="s">
         <v>1078</v>
       </c>
@@ -17771,7 +18097,7 @@
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" customFormat="1">
-      <c r="A98" s="28"/>
+      <c r="A98" s="31"/>
       <c r="B98" s="20" t="s">
         <v>1079</v>
       </c>
@@ -17785,7 +18111,7 @@
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" customFormat="1">
-      <c r="A99" s="28"/>
+      <c r="A99" s="31"/>
       <c r="B99" s="20" t="s">
         <v>1080</v>
       </c>
@@ -17799,7 +18125,7 @@
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" customFormat="1">
-      <c r="A100" s="28"/>
+      <c r="A100" s="31"/>
       <c r="B100" s="20" t="s">
         <v>1081</v>
       </c>
@@ -17813,7 +18139,7 @@
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" customFormat="1">
-      <c r="A101" s="28"/>
+      <c r="A101" s="31"/>
       <c r="B101" s="20" t="s">
         <v>1082</v>
       </c>
@@ -17827,7 +18153,7 @@
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" customFormat="1">
-      <c r="A102" s="28"/>
+      <c r="A102" s="31"/>
       <c r="B102" s="20">
         <v>4.5</v>
       </c>
@@ -17841,7 +18167,7 @@
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" customFormat="1">
-      <c r="A103" s="28"/>
+      <c r="A103" s="31"/>
       <c r="B103" s="20">
         <v>4.5999999999999996</v>
       </c>
@@ -17855,7 +18181,7 @@
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" customFormat="1">
-      <c r="A104" s="28"/>
+      <c r="A104" s="31"/>
       <c r="B104" s="20" t="s">
         <v>1083</v>
       </c>
@@ -17869,7 +18195,7 @@
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" customFormat="1">
-      <c r="A105" s="28"/>
+      <c r="A105" s="31"/>
       <c r="B105" s="20" t="s">
         <v>1084</v>
       </c>
@@ -17883,7 +18209,7 @@
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" customFormat="1">
-      <c r="A106" s="28"/>
+      <c r="A106" s="31"/>
       <c r="B106" s="20" t="s">
         <v>1085</v>
       </c>
@@ -17897,7 +18223,7 @@
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" customFormat="1">
-      <c r="A107" s="28"/>
+      <c r="A107" s="31"/>
       <c r="B107" s="20" t="s">
         <v>1086</v>
       </c>
@@ -17911,7 +18237,7 @@
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" customFormat="1">
-      <c r="A108" s="28"/>
+      <c r="A108" s="31"/>
       <c r="B108" s="20" t="s">
         <v>1087</v>
       </c>
@@ -17925,7 +18251,7 @@
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" customFormat="1">
-      <c r="A109" s="28"/>
+      <c r="A109" s="31"/>
       <c r="B109" s="20" t="s">
         <v>1088</v>
       </c>
@@ -17939,7 +18265,7 @@
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" customFormat="1">
-      <c r="A110" s="28"/>
+      <c r="A110" s="31"/>
       <c r="B110" s="20" t="s">
         <v>1089</v>
       </c>
@@ -17953,7 +18279,7 @@
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" customFormat="1">
-      <c r="A111" s="28"/>
+      <c r="A111" s="31"/>
       <c r="B111" s="20" t="s">
         <v>1090</v>
       </c>
@@ -17967,7 +18293,7 @@
       <c r="F111" s="9"/>
     </row>
     <row r="112" spans="1:6" customFormat="1">
-      <c r="A112" s="28"/>
+      <c r="A112" s="31"/>
       <c r="B112" s="20">
         <v>4.7</v>
       </c>
@@ -17981,7 +18307,7 @@
       <c r="F112" s="9"/>
     </row>
     <row r="113" spans="1:8" customFormat="1">
-      <c r="A113" s="28"/>
+      <c r="A113" s="31"/>
       <c r="B113" s="20" t="s">
         <v>1091</v>
       </c>
@@ -17995,7 +18321,7 @@
       <c r="F113" s="9"/>
     </row>
     <row r="114" spans="1:8" customFormat="1">
-      <c r="A114" s="28"/>
+      <c r="A114" s="31"/>
       <c r="B114" s="20" t="s">
         <v>1092</v>
       </c>
@@ -18009,7 +18335,7 @@
       <c r="F114" s="9"/>
     </row>
     <row r="115" spans="1:8" customFormat="1">
-      <c r="A115" s="28"/>
+      <c r="A115" s="31"/>
       <c r="B115" s="20" t="s">
         <v>1093</v>
       </c>
@@ -18023,7 +18349,7 @@
       <c r="F115" s="9"/>
     </row>
     <row r="116" spans="1:8" customFormat="1">
-      <c r="A116" s="28"/>
+      <c r="A116" s="31"/>
       <c r="B116" s="20" t="s">
         <v>1094</v>
       </c>
@@ -18038,7 +18364,7 @@
       <c r="H116" s="7"/>
     </row>
     <row r="117" spans="1:8" customFormat="1">
-      <c r="A117" s="28"/>
+      <c r="A117" s="31"/>
       <c r="B117" s="20">
         <v>4.8</v>
       </c>
@@ -18053,7 +18379,7 @@
       <c r="H117" s="7"/>
     </row>
     <row r="118" spans="1:8" customFormat="1">
-      <c r="A118" s="28"/>
+      <c r="A118" s="31"/>
       <c r="B118" s="20" t="s">
         <v>1095</v>
       </c>
@@ -18068,7 +18394,7 @@
       <c r="H118" s="7"/>
     </row>
     <row r="119" spans="1:8" customFormat="1">
-      <c r="A119" s="28"/>
+      <c r="A119" s="31"/>
       <c r="B119" s="20">
         <v>4.9000000000000004</v>
       </c>
@@ -18083,7 +18409,7 @@
       <c r="H119" s="7"/>
     </row>
     <row r="120" spans="1:8" customFormat="1">
-      <c r="A120" s="28"/>
+      <c r="A120" s="31"/>
       <c r="B120" s="20" t="s">
         <v>1096</v>
       </c>
@@ -18098,7 +18424,7 @@
       <c r="H120" s="7"/>
     </row>
     <row r="121" spans="1:8" customFormat="1">
-      <c r="A121" s="28"/>
+      <c r="A121" s="31"/>
       <c r="B121" s="20" t="s">
         <v>1097</v>
       </c>
@@ -18113,7 +18439,7 @@
       <c r="H121" s="7"/>
     </row>
     <row r="122" spans="1:8" customFormat="1">
-      <c r="A122" s="28"/>
+      <c r="A122" s="31"/>
       <c r="B122" s="20" t="s">
         <v>1098</v>
       </c>
@@ -18128,7 +18454,7 @@
       <c r="H122" s="7"/>
     </row>
     <row r="123" spans="1:8" customFormat="1">
-      <c r="A123" s="28"/>
+      <c r="A123" s="31"/>
       <c r="B123" s="20" t="s">
         <v>1099</v>
       </c>
@@ -18143,7 +18469,7 @@
       <c r="H123" s="7"/>
     </row>
     <row r="124" spans="1:8" customFormat="1">
-      <c r="A124" s="28"/>
+      <c r="A124" s="31"/>
       <c r="B124" s="20" t="s">
         <v>1100</v>
       </c>
@@ -18158,7 +18484,7 @@
       <c r="H124" s="7"/>
     </row>
     <row r="125" spans="1:8" customFormat="1">
-      <c r="A125" s="28"/>
+      <c r="A125" s="31"/>
       <c r="B125" s="20" t="s">
         <v>1101</v>
       </c>
@@ -18173,7 +18499,7 @@
       <c r="H125" s="7"/>
     </row>
     <row r="126" spans="1:8" customFormat="1">
-      <c r="A126" s="28"/>
+      <c r="A126" s="31"/>
       <c r="B126" s="20" t="s">
         <v>1102</v>
       </c>
@@ -18188,7 +18514,7 @@
       <c r="H126" s="7"/>
     </row>
     <row r="127" spans="1:8" customFormat="1">
-      <c r="A127" s="28"/>
+      <c r="A127" s="31"/>
       <c r="B127" s="21">
         <v>4.0999999999999996</v>
       </c>
@@ -18203,7 +18529,7 @@
       <c r="H127" s="7"/>
     </row>
     <row r="128" spans="1:8" customFormat="1">
-      <c r="A128" s="28" t="s">
+      <c r="A128" s="31" t="s">
         <v>1775</v>
       </c>
       <c r="B128" s="20">
@@ -18219,7 +18545,7 @@
       <c r="F128" s="6"/>
     </row>
     <row r="129" spans="1:6" customFormat="1">
-      <c r="A129" s="28"/>
+      <c r="A129" s="31"/>
       <c r="B129" s="20" t="s">
         <v>1103</v>
       </c>
@@ -18233,7 +18559,7 @@
       <c r="F129" s="6"/>
     </row>
     <row r="130" spans="1:6" customFormat="1">
-      <c r="A130" s="28"/>
+      <c r="A130" s="31"/>
       <c r="B130" s="20" t="s">
         <v>1104</v>
       </c>
@@ -18247,7 +18573,7 @@
       <c r="F130" s="6"/>
     </row>
     <row r="131" spans="1:6" customFormat="1">
-      <c r="A131" s="28"/>
+      <c r="A131" s="31"/>
       <c r="B131" s="20" t="s">
         <v>1105</v>
       </c>
@@ -18261,7 +18587,7 @@
       <c r="F131" s="6"/>
     </row>
     <row r="132" spans="1:6" customFormat="1">
-      <c r="A132" s="28"/>
+      <c r="A132" s="31"/>
       <c r="B132" s="20" t="s">
         <v>1106</v>
       </c>
@@ -18275,7 +18601,7 @@
       <c r="F132" s="6"/>
     </row>
     <row r="133" spans="1:6" customFormat="1">
-      <c r="A133" s="28"/>
+      <c r="A133" s="31"/>
       <c r="B133" s="20" t="s">
         <v>1107</v>
       </c>
@@ -18289,7 +18615,7 @@
       <c r="F133" s="6"/>
     </row>
     <row r="134" spans="1:6" customFormat="1">
-      <c r="A134" s="28"/>
+      <c r="A134" s="31"/>
       <c r="B134" s="20" t="s">
         <v>1108</v>
       </c>
@@ -18303,7 +18629,7 @@
       <c r="F134" s="6"/>
     </row>
     <row r="135" spans="1:6" customFormat="1">
-      <c r="A135" s="28"/>
+      <c r="A135" s="31"/>
       <c r="B135" s="20" t="s">
         <v>1109</v>
       </c>
@@ -18317,7 +18643,7 @@
       <c r="F135" s="6"/>
     </row>
     <row r="136" spans="1:6" customFormat="1">
-      <c r="A136" s="28"/>
+      <c r="A136" s="31"/>
       <c r="B136" s="20" t="s">
         <v>1110</v>
       </c>
@@ -18331,7 +18657,7 @@
       <c r="F136" s="6"/>
     </row>
     <row r="137" spans="1:6" customFormat="1">
-      <c r="A137" s="28"/>
+      <c r="A137" s="31"/>
       <c r="B137" s="20" t="s">
         <v>1111</v>
       </c>
@@ -18345,7 +18671,7 @@
       <c r="F137" s="6"/>
     </row>
     <row r="138" spans="1:6" customFormat="1">
-      <c r="A138" s="28"/>
+      <c r="A138" s="31"/>
       <c r="B138" s="20" t="s">
         <v>1112</v>
       </c>
@@ -18359,7 +18685,7 @@
       <c r="F138" s="6"/>
     </row>
     <row r="139" spans="1:6" customFormat="1">
-      <c r="A139" s="28"/>
+      <c r="A139" s="31"/>
       <c r="B139" s="20">
         <v>5.2</v>
       </c>
@@ -18373,7 +18699,7 @@
       <c r="F139" s="6"/>
     </row>
     <row r="140" spans="1:6" customFormat="1">
-      <c r="A140" s="28"/>
+      <c r="A140" s="31"/>
       <c r="B140" s="20" t="s">
         <v>1113</v>
       </c>
@@ -18387,7 +18713,7 @@
       <c r="F140" s="6"/>
     </row>
     <row r="141" spans="1:6" customFormat="1">
-      <c r="A141" s="28"/>
+      <c r="A141" s="31"/>
       <c r="B141" s="20" t="s">
         <v>1114</v>
       </c>
@@ -18401,7 +18727,7 @@
       <c r="F141" s="6"/>
     </row>
     <row r="142" spans="1:6" customFormat="1">
-      <c r="A142" s="28"/>
+      <c r="A142" s="31"/>
       <c r="B142" s="20" t="s">
         <v>1115</v>
       </c>
@@ -18415,7 +18741,7 @@
       <c r="F142" s="6"/>
     </row>
     <row r="143" spans="1:6" customFormat="1">
-      <c r="A143" s="28"/>
+      <c r="A143" s="31"/>
       <c r="B143" s="20" t="s">
         <v>1116</v>
       </c>
@@ -18429,7 +18755,7 @@
       <c r="F143" s="6"/>
     </row>
     <row r="144" spans="1:6" customFormat="1">
-      <c r="A144" s="28"/>
+      <c r="A144" s="31"/>
       <c r="B144" s="20">
         <v>5.3</v>
       </c>
@@ -18443,7 +18769,7 @@
       <c r="F144" s="6"/>
     </row>
     <row r="145" spans="1:6" customFormat="1">
-      <c r="A145" s="28"/>
+      <c r="A145" s="31"/>
       <c r="B145" s="20" t="s">
         <v>1117</v>
       </c>
@@ -18457,7 +18783,7 @@
       <c r="F145" s="6"/>
     </row>
     <row r="146" spans="1:6" customFormat="1">
-      <c r="A146" s="28"/>
+      <c r="A146" s="31"/>
       <c r="B146" s="20" t="s">
         <v>1118</v>
       </c>
@@ -18471,7 +18797,7 @@
       <c r="F146" s="6"/>
     </row>
     <row r="147" spans="1:6" customFormat="1">
-      <c r="A147" s="28"/>
+      <c r="A147" s="31"/>
       <c r="B147" s="20">
         <v>5.4</v>
       </c>
@@ -18485,7 +18811,7 @@
       <c r="F147" s="6"/>
     </row>
     <row r="148" spans="1:6" customFormat="1">
-      <c r="A148" s="28"/>
+      <c r="A148" s="31"/>
       <c r="B148" s="20">
         <v>5.5</v>
       </c>
@@ -18499,7 +18825,7 @@
       <c r="F148" s="6"/>
     </row>
     <row r="149" spans="1:6" customFormat="1">
-      <c r="A149" s="28"/>
+      <c r="A149" s="31"/>
       <c r="B149" s="20">
         <v>5.6</v>
       </c>
@@ -18513,7 +18839,7 @@
       <c r="F149" s="6"/>
     </row>
     <row r="150" spans="1:6" customFormat="1">
-      <c r="A150" s="28"/>
+      <c r="A150" s="31"/>
       <c r="B150" s="20">
         <v>5.7</v>
       </c>
@@ -18527,7 +18853,7 @@
       <c r="F150" s="6"/>
     </row>
     <row r="151" spans="1:6" customFormat="1">
-      <c r="A151" s="28"/>
+      <c r="A151" s="31"/>
       <c r="B151" s="20" t="s">
         <v>1119</v>
       </c>
@@ -18541,7 +18867,7 @@
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="1:6" customFormat="1">
-      <c r="A152" s="28"/>
+      <c r="A152" s="31"/>
       <c r="B152" s="20" t="s">
         <v>1120</v>
       </c>
@@ -18555,7 +18881,7 @@
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:6" customFormat="1">
-      <c r="A153" s="28"/>
+      <c r="A153" s="31"/>
       <c r="B153" s="20" t="s">
         <v>1121</v>
       </c>
@@ -18569,7 +18895,7 @@
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" customFormat="1">
-      <c r="A154" s="28"/>
+      <c r="A154" s="31"/>
       <c r="B154" s="20" t="s">
         <v>1122</v>
       </c>
@@ -18583,7 +18909,7 @@
       <c r="F154" s="2"/>
     </row>
     <row r="155" spans="1:6" customFormat="1">
-      <c r="A155" s="28"/>
+      <c r="A155" s="31"/>
       <c r="B155" s="20" t="s">
         <v>1123</v>
       </c>
@@ -18597,7 +18923,7 @@
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" customFormat="1">
-      <c r="A156" s="28"/>
+      <c r="A156" s="31"/>
       <c r="B156" s="20" t="s">
         <v>1124</v>
       </c>
@@ -18611,7 +18937,7 @@
       <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:6" customFormat="1">
-      <c r="A157" s="28"/>
+      <c r="A157" s="31"/>
       <c r="B157" s="20">
         <v>5.8</v>
       </c>
@@ -18625,7 +18951,7 @@
       <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:6" customFormat="1">
-      <c r="A158" s="28" t="s">
+      <c r="A158" s="31" t="s">
         <v>1772</v>
       </c>
       <c r="B158" s="20">
@@ -18641,7 +18967,7 @@
       <c r="F158" s="2"/>
     </row>
     <row r="159" spans="1:6" customFormat="1">
-      <c r="A159" s="28"/>
+      <c r="A159" s="31"/>
       <c r="B159" s="20" t="s">
         <v>1125</v>
       </c>
@@ -18655,7 +18981,7 @@
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" customFormat="1">
-      <c r="A160" s="28"/>
+      <c r="A160" s="31"/>
       <c r="B160" s="20" t="s">
         <v>1126</v>
       </c>
@@ -18669,7 +18995,7 @@
       <c r="F160" s="2"/>
     </row>
     <row r="161" spans="1:6" customFormat="1">
-      <c r="A161" s="28"/>
+      <c r="A161" s="31"/>
       <c r="B161" s="20" t="s">
         <v>1127</v>
       </c>
@@ -18683,7 +19009,7 @@
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" customFormat="1">
-      <c r="A162" s="28"/>
+      <c r="A162" s="31"/>
       <c r="B162" s="20" t="s">
         <v>1128</v>
       </c>
@@ -18697,7 +19023,7 @@
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:6" customFormat="1">
-      <c r="A163" s="28"/>
+      <c r="A163" s="31"/>
       <c r="B163" s="20" t="s">
         <v>1129</v>
       </c>
@@ -18711,7 +19037,7 @@
       <c r="F163" s="2"/>
     </row>
     <row r="164" spans="1:6" customFormat="1">
-      <c r="A164" s="28"/>
+      <c r="A164" s="31"/>
       <c r="B164" s="20" t="s">
         <v>1130</v>
       </c>
@@ -18725,7 +19051,7 @@
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" customFormat="1">
-      <c r="A165" s="28"/>
+      <c r="A165" s="31"/>
       <c r="B165" s="20">
         <v>6.2</v>
       </c>
@@ -18739,7 +19065,7 @@
       <c r="F165" s="2"/>
     </row>
     <row r="166" spans="1:6" customFormat="1">
-      <c r="A166" s="28"/>
+      <c r="A166" s="31"/>
       <c r="B166" s="20" t="s">
         <v>1131</v>
       </c>
@@ -18753,7 +19079,7 @@
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" customFormat="1">
-      <c r="A167" s="28"/>
+      <c r="A167" s="31"/>
       <c r="B167" s="20" t="s">
         <v>1132</v>
       </c>
@@ -18767,7 +19093,7 @@
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="1:6" customFormat="1">
-      <c r="A168" s="28"/>
+      <c r="A168" s="31"/>
       <c r="B168" s="20" t="s">
         <v>1133</v>
       </c>
@@ -18781,7 +19107,7 @@
       <c r="F168" s="2"/>
     </row>
     <row r="169" spans="1:6" customFormat="1">
-      <c r="A169" s="28"/>
+      <c r="A169" s="31"/>
       <c r="B169" s="20">
         <v>6.3</v>
       </c>
@@ -18795,7 +19121,7 @@
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" customFormat="1">
-      <c r="A170" s="28"/>
+      <c r="A170" s="31"/>
       <c r="B170" s="20" t="s">
         <v>1134</v>
       </c>
@@ -18809,7 +19135,7 @@
       <c r="F170" s="2"/>
     </row>
     <row r="171" spans="1:6" customFormat="1">
-      <c r="A171" s="28"/>
+      <c r="A171" s="31"/>
       <c r="B171" s="20" t="s">
         <v>1135</v>
       </c>
@@ -18823,7 +19149,7 @@
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" customFormat="1">
-      <c r="A172" s="28"/>
+      <c r="A172" s="31"/>
       <c r="B172" s="20" t="s">
         <v>1136</v>
       </c>
@@ -18837,7 +19163,7 @@
       <c r="F172" s="2"/>
     </row>
     <row r="173" spans="1:6" customFormat="1">
-      <c r="A173" s="28"/>
+      <c r="A173" s="31"/>
       <c r="B173" s="20" t="s">
         <v>1137</v>
       </c>
@@ -18851,7 +19177,7 @@
       <c r="F173" s="2"/>
     </row>
     <row r="174" spans="1:6" customFormat="1">
-      <c r="A174" s="28"/>
+      <c r="A174" s="31"/>
       <c r="B174" s="20" t="s">
         <v>1138</v>
       </c>
@@ -18865,7 +19191,7 @@
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" customFormat="1">
-      <c r="A175" s="28"/>
+      <c r="A175" s="31"/>
       <c r="B175" s="20" t="s">
         <v>1139</v>
       </c>
@@ -18879,7 +19205,7 @@
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="1:6" customFormat="1">
-      <c r="A176" s="28"/>
+      <c r="A176" s="31"/>
       <c r="B176" s="20" t="s">
         <v>1140</v>
       </c>
@@ -18893,7 +19219,7 @@
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" customFormat="1">
-      <c r="A177" s="28"/>
+      <c r="A177" s="31"/>
       <c r="B177" s="20" t="s">
         <v>1141</v>
       </c>
@@ -18907,7 +19233,7 @@
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:6" customFormat="1">
-      <c r="A178" s="28"/>
+      <c r="A178" s="31"/>
       <c r="B178" s="20">
         <v>6.4</v>
       </c>
@@ -18921,7 +19247,7 @@
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:6" customFormat="1">
-      <c r="A179" s="28"/>
+      <c r="A179" s="31"/>
       <c r="B179" s="20" t="s">
         <v>1142</v>
       </c>
@@ -18935,7 +19261,7 @@
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" customFormat="1">
-      <c r="A180" s="28"/>
+      <c r="A180" s="31"/>
       <c r="B180" s="20" t="s">
         <v>1143</v>
       </c>
@@ -18949,7 +19275,7 @@
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6" customFormat="1">
-      <c r="A181" s="28"/>
+      <c r="A181" s="31"/>
       <c r="B181" s="20" t="s">
         <v>1144</v>
       </c>
@@ -18963,7 +19289,7 @@
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" customFormat="1">
-      <c r="A182" s="28"/>
+      <c r="A182" s="31"/>
       <c r="B182" s="20" t="s">
         <v>1145</v>
       </c>
@@ -18977,7 +19303,7 @@
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:6" customFormat="1">
-      <c r="A183" s="28"/>
+      <c r="A183" s="31"/>
       <c r="B183" s="20" t="s">
         <v>1146</v>
       </c>
@@ -18991,7 +19317,7 @@
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6" customFormat="1">
-      <c r="A184" s="28"/>
+      <c r="A184" s="31"/>
       <c r="B184" s="20" t="s">
         <v>1147</v>
       </c>
@@ -19005,7 +19331,7 @@
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:6" customFormat="1">
-      <c r="A185" s="28"/>
+      <c r="A185" s="31"/>
       <c r="B185" s="20" t="s">
         <v>1148</v>
       </c>
@@ -19019,7 +19345,7 @@
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" customFormat="1">
-      <c r="A186" s="28"/>
+      <c r="A186" s="31"/>
       <c r="B186" s="20">
         <v>6.5</v>
       </c>
@@ -19033,7 +19359,7 @@
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="1:6" customFormat="1">
-      <c r="A187" s="28"/>
+      <c r="A187" s="31"/>
       <c r="B187" s="20" t="s">
         <v>1149</v>
       </c>
@@ -19047,7 +19373,7 @@
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" customFormat="1">
-      <c r="A188" s="28"/>
+      <c r="A188" s="31"/>
       <c r="B188" s="20" t="s">
         <v>1150</v>
       </c>
@@ -19061,7 +19387,7 @@
       <c r="F188" s="2"/>
     </row>
     <row r="189" spans="1:6" customFormat="1">
-      <c r="A189" s="28"/>
+      <c r="A189" s="31"/>
       <c r="B189" s="20" t="s">
         <v>1151</v>
       </c>
@@ -19075,7 +19401,7 @@
       <c r="F189" s="2"/>
     </row>
     <row r="190" spans="1:6" customFormat="1">
-      <c r="A190" s="28" t="s">
+      <c r="A190" s="31" t="s">
         <v>1771</v>
       </c>
       <c r="B190" s="20">
@@ -19091,7 +19417,7 @@
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" customFormat="1">
-      <c r="A191" s="28"/>
+      <c r="A191" s="31"/>
       <c r="B191" s="20" t="s">
         <v>1152</v>
       </c>
@@ -19105,7 +19431,7 @@
       <c r="F191" s="2"/>
     </row>
     <row r="192" spans="1:6" customFormat="1">
-      <c r="A192" s="28"/>
+      <c r="A192" s="31"/>
       <c r="B192" s="20" t="s">
         <v>1153</v>
       </c>
@@ -19119,7 +19445,7 @@
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" customFormat="1">
-      <c r="A193" s="28"/>
+      <c r="A193" s="31"/>
       <c r="B193" s="20" t="s">
         <v>1154</v>
       </c>
@@ -19133,7 +19459,7 @@
       <c r="F193" s="2"/>
     </row>
     <row r="194" spans="1:6" customFormat="1">
-      <c r="A194" s="28"/>
+      <c r="A194" s="31"/>
       <c r="B194" s="20" t="s">
         <v>1155</v>
       </c>
@@ -19147,7 +19473,7 @@
       <c r="F194" s="2"/>
     </row>
     <row r="195" spans="1:6" customFormat="1">
-      <c r="A195" s="28"/>
+      <c r="A195" s="31"/>
       <c r="B195" s="20">
         <v>7.2</v>
       </c>
@@ -19161,7 +19487,7 @@
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" customFormat="1">
-      <c r="A196" s="28"/>
+      <c r="A196" s="31"/>
       <c r="B196" s="20" t="s">
         <v>1156</v>
       </c>
@@ -19175,7 +19501,7 @@
       <c r="F196" s="2"/>
     </row>
     <row r="197" spans="1:6" customFormat="1">
-      <c r="A197" s="28"/>
+      <c r="A197" s="31"/>
       <c r="B197" s="20" t="s">
         <v>1157</v>
       </c>
@@ -19189,7 +19515,7 @@
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" customFormat="1">
-      <c r="A198" s="28"/>
+      <c r="A198" s="31"/>
       <c r="B198" s="20" t="s">
         <v>1158</v>
       </c>
@@ -19203,7 +19529,7 @@
       <c r="F198" s="2"/>
     </row>
     <row r="199" spans="1:6" customFormat="1">
-      <c r="A199" s="28"/>
+      <c r="A199" s="31"/>
       <c r="B199" s="20" t="s">
         <v>1159</v>
       </c>
@@ -19217,7 +19543,7 @@
       <c r="F199" s="2"/>
     </row>
     <row r="200" spans="1:6" customFormat="1">
-      <c r="A200" s="28"/>
+      <c r="A200" s="31"/>
       <c r="B200" s="20" t="s">
         <v>1160</v>
       </c>
@@ -19231,7 +19557,7 @@
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" customFormat="1">
-      <c r="A201" s="28"/>
+      <c r="A201" s="31"/>
       <c r="B201" s="20" t="s">
         <v>1161</v>
       </c>
@@ -19245,7 +19571,7 @@
       <c r="F201" s="2"/>
     </row>
     <row r="202" spans="1:6" customFormat="1">
-      <c r="A202" s="28"/>
+      <c r="A202" s="31"/>
       <c r="B202" s="20">
         <v>7.3</v>
       </c>
@@ -19259,7 +19585,7 @@
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:6" customFormat="1">
-      <c r="A203" s="28"/>
+      <c r="A203" s="31"/>
       <c r="B203" s="20">
         <v>7.4</v>
       </c>
@@ -19273,7 +19599,7 @@
       <c r="F203" s="2"/>
     </row>
     <row r="204" spans="1:6" customFormat="1">
-      <c r="A204" s="28"/>
+      <c r="A204" s="31"/>
       <c r="B204" s="20" t="s">
         <v>1162</v>
       </c>
@@ -19287,7 +19613,7 @@
       <c r="F204" s="2"/>
     </row>
     <row r="205" spans="1:6" customFormat="1">
-      <c r="A205" s="28"/>
+      <c r="A205" s="31"/>
       <c r="B205" s="20" t="s">
         <v>1163</v>
       </c>
@@ -19301,7 +19627,7 @@
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" customFormat="1">
-      <c r="A206" s="28"/>
+      <c r="A206" s="31"/>
       <c r="B206" s="20" t="s">
         <v>1164</v>
       </c>
@@ -19315,7 +19641,7 @@
       <c r="F206" s="2"/>
     </row>
     <row r="207" spans="1:6" customFormat="1">
-      <c r="A207" s="28"/>
+      <c r="A207" s="31"/>
       <c r="B207" s="20" t="s">
         <v>1165</v>
       </c>
@@ -19329,7 +19655,7 @@
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" customFormat="1">
-      <c r="A208" s="28"/>
+      <c r="A208" s="31"/>
       <c r="B208" s="20">
         <v>7.5</v>
       </c>
@@ -19343,7 +19669,7 @@
       <c r="F208" s="2"/>
     </row>
     <row r="209" spans="1:6" customFormat="1">
-      <c r="A209" s="28"/>
+      <c r="A209" s="31"/>
       <c r="B209" s="20" t="s">
         <v>1166</v>
       </c>
@@ -19357,7 +19683,7 @@
       <c r="F209" s="2"/>
     </row>
     <row r="210" spans="1:6" customFormat="1">
-      <c r="A210" s="28"/>
+      <c r="A210" s="31"/>
       <c r="B210" s="20" t="s">
         <v>1167</v>
       </c>
@@ -19371,7 +19697,7 @@
       <c r="F210" s="2"/>
     </row>
     <row r="211" spans="1:6" customFormat="1">
-      <c r="A211" s="28"/>
+      <c r="A211" s="31"/>
       <c r="B211" s="20" t="s">
         <v>1168</v>
       </c>
@@ -19385,7 +19711,7 @@
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" customFormat="1">
-      <c r="A212" s="28"/>
+      <c r="A212" s="31"/>
       <c r="B212" s="20" t="s">
         <v>1169</v>
       </c>
@@ -19399,7 +19725,7 @@
       <c r="F212" s="2"/>
     </row>
     <row r="213" spans="1:6" customFormat="1">
-      <c r="A213" s="28"/>
+      <c r="A213" s="31"/>
       <c r="B213" s="20" t="s">
         <v>1170</v>
       </c>
@@ -19413,7 +19739,7 @@
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" customFormat="1">
-      <c r="A214" s="28"/>
+      <c r="A214" s="31"/>
       <c r="B214" s="20" t="s">
         <v>1171</v>
       </c>
@@ -19427,7 +19753,7 @@
       <c r="F214" s="2"/>
     </row>
     <row r="215" spans="1:6" customFormat="1">
-      <c r="A215" s="28"/>
+      <c r="A215" s="31"/>
       <c r="B215" s="20" t="s">
         <v>1172</v>
       </c>
@@ -19441,7 +19767,7 @@
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:6" customFormat="1">
-      <c r="A216" s="28"/>
+      <c r="A216" s="31"/>
       <c r="B216" s="20" t="s">
         <v>1173</v>
       </c>
@@ -19455,7 +19781,7 @@
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" customFormat="1">
-      <c r="A217" s="28"/>
+      <c r="A217" s="31"/>
       <c r="B217" s="20">
         <v>7.6</v>
       </c>
@@ -19469,7 +19795,7 @@
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:6" customFormat="1">
-      <c r="A218" s="28" t="s">
+      <c r="A218" s="31" t="s">
         <v>1770</v>
       </c>
       <c r="B218" s="20">
@@ -19485,7 +19811,7 @@
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" customFormat="1">
-      <c r="A219" s="28"/>
+      <c r="A219" s="31"/>
       <c r="B219" s="20" t="s">
         <v>1174</v>
       </c>
@@ -19499,7 +19825,7 @@
       <c r="F219" s="2"/>
     </row>
     <row r="220" spans="1:6" customFormat="1">
-      <c r="A220" s="28"/>
+      <c r="A220" s="31"/>
       <c r="B220" s="20" t="s">
         <v>1175</v>
       </c>
@@ -19513,7 +19839,7 @@
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="1:6" customFormat="1">
-      <c r="A221" s="28"/>
+      <c r="A221" s="31"/>
       <c r="B221" s="20">
         <v>8.1999999999999993</v>
       </c>
@@ -19527,7 +19853,7 @@
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" customFormat="1">
-      <c r="A222" s="28"/>
+      <c r="A222" s="31"/>
       <c r="B222" s="20">
         <v>8.3000000000000007</v>
       </c>
@@ -19541,7 +19867,7 @@
       <c r="F222" s="2"/>
     </row>
     <row r="223" spans="1:6" customFormat="1">
-      <c r="A223" s="28"/>
+      <c r="A223" s="31"/>
       <c r="B223" s="20">
         <v>8.4</v>
       </c>
@@ -19555,7 +19881,7 @@
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" customFormat="1">
-      <c r="A224" s="28"/>
+      <c r="A224" s="31"/>
       <c r="B224" s="20">
         <v>8.5</v>
       </c>
@@ -19569,7 +19895,7 @@
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:6" customFormat="1">
-      <c r="A225" s="28"/>
+      <c r="A225" s="31"/>
       <c r="B225" s="20" t="s">
         <v>1176</v>
       </c>
@@ -19583,7 +19909,7 @@
       <c r="F225" s="2"/>
     </row>
     <row r="226" spans="1:6" customFormat="1">
-      <c r="A226" s="28"/>
+      <c r="A226" s="31"/>
       <c r="B226" s="20" t="s">
         <v>1177</v>
       </c>
@@ -19597,7 +19923,7 @@
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" customFormat="1">
-      <c r="A227" s="28"/>
+      <c r="A227" s="31"/>
       <c r="B227" s="20" t="s">
         <v>1178</v>
       </c>
@@ -19611,7 +19937,7 @@
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:6" customFormat="1">
-      <c r="A228" s="28"/>
+      <c r="A228" s="31"/>
       <c r="B228" s="20" t="s">
         <v>1179</v>
       </c>
@@ -19625,7 +19951,7 @@
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" customFormat="1">
-      <c r="A229" s="28"/>
+      <c r="A229" s="31"/>
       <c r="B229" s="20">
         <v>8.6</v>
       </c>
@@ -19639,7 +19965,7 @@
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="1:6" customFormat="1">
-      <c r="A230" s="28"/>
+      <c r="A230" s="31"/>
       <c r="B230" s="20" t="s">
         <v>1180</v>
       </c>
@@ -19653,7 +19979,7 @@
       <c r="F230" s="2"/>
     </row>
     <row r="231" spans="1:6" customFormat="1">
-      <c r="A231" s="28"/>
+      <c r="A231" s="31"/>
       <c r="B231" s="20" t="s">
         <v>1181</v>
       </c>
@@ -19667,7 +19993,7 @@
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" customFormat="1">
-      <c r="A232" s="28"/>
+      <c r="A232" s="31"/>
       <c r="B232" s="20" t="s">
         <v>1182</v>
       </c>
@@ -19681,7 +20007,7 @@
       <c r="F232" s="2"/>
     </row>
     <row r="233" spans="1:6" customFormat="1">
-      <c r="A233" s="28"/>
+      <c r="A233" s="31"/>
       <c r="B233" s="20" t="s">
         <v>1183</v>
       </c>
@@ -19695,7 +20021,7 @@
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" customFormat="1">
-      <c r="A234" s="28"/>
+      <c r="A234" s="31"/>
       <c r="B234" s="20" t="s">
         <v>1184</v>
       </c>
@@ -19709,7 +20035,7 @@
       <c r="F234" s="2"/>
     </row>
     <row r="235" spans="1:6" customFormat="1">
-      <c r="A235" s="28"/>
+      <c r="A235" s="31"/>
       <c r="B235" s="20" t="s">
         <v>1185</v>
       </c>
@@ -19723,7 +20049,7 @@
       <c r="F235" s="2"/>
     </row>
     <row r="236" spans="1:6" customFormat="1">
-      <c r="A236" s="28"/>
+      <c r="A236" s="31"/>
       <c r="B236" s="20" t="s">
         <v>1186</v>
       </c>
@@ -19737,7 +20063,7 @@
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:6" customFormat="1">
-      <c r="A237" s="28"/>
+      <c r="A237" s="31"/>
       <c r="B237" s="20" t="s">
         <v>1187</v>
       </c>
@@ -19751,7 +20077,7 @@
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" customFormat="1">
-      <c r="A238" s="28"/>
+      <c r="A238" s="31"/>
       <c r="B238" s="20" t="s">
         <v>1188</v>
       </c>
@@ -19765,7 +20091,7 @@
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:6" customFormat="1">
-      <c r="A239" s="28"/>
+      <c r="A239" s="31"/>
       <c r="B239" s="20" t="s">
         <v>1189</v>
       </c>
@@ -19779,7 +20105,7 @@
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" customFormat="1">
-      <c r="A240" s="28"/>
+      <c r="A240" s="31"/>
       <c r="B240" s="20">
         <v>8.6999999999999993</v>
       </c>
@@ -19793,7 +20119,7 @@
       <c r="F240" s="2"/>
     </row>
     <row r="241" spans="1:6" customFormat="1">
-      <c r="A241" s="28"/>
+      <c r="A241" s="31"/>
       <c r="B241" s="20">
         <v>8.8000000000000007</v>
       </c>
@@ -19807,7 +20133,7 @@
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="1:6" customFormat="1">
-      <c r="A242" s="28"/>
+      <c r="A242" s="31"/>
       <c r="B242" s="20" t="s">
         <v>1190</v>
       </c>
@@ -19821,7 +20147,7 @@
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" customFormat="1">
-      <c r="A243" s="28"/>
+      <c r="A243" s="31"/>
       <c r="B243" s="20" t="s">
         <v>1191</v>
       </c>
@@ -19835,7 +20161,7 @@
       <c r="F243" s="2"/>
     </row>
     <row r="244" spans="1:6" customFormat="1">
-      <c r="A244" s="28"/>
+      <c r="A244" s="31"/>
       <c r="B244" s="20" t="s">
         <v>1192</v>
       </c>
@@ -19849,7 +20175,7 @@
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" customFormat="1">
-      <c r="A245" s="28"/>
+      <c r="A245" s="31"/>
       <c r="B245" s="20" t="s">
         <v>1193</v>
       </c>
@@ -19863,7 +20189,7 @@
       <c r="F245" s="2"/>
     </row>
     <row r="246" spans="1:6" customFormat="1">
-      <c r="A246" s="28"/>
+      <c r="A246" s="31"/>
       <c r="B246" s="20">
         <v>8.9</v>
       </c>
@@ -19877,7 +20203,7 @@
       <c r="F246" s="2"/>
     </row>
     <row r="247" spans="1:6" customFormat="1">
-      <c r="A247" s="28"/>
+      <c r="A247" s="31"/>
       <c r="B247" s="20" t="s">
         <v>1194</v>
       </c>
@@ -19891,7 +20217,7 @@
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" customFormat="1">
-      <c r="A248" s="28"/>
+      <c r="A248" s="31"/>
       <c r="B248" s="20" t="s">
         <v>1195</v>
       </c>
@@ -19905,7 +20231,7 @@
       <c r="F248" s="2"/>
     </row>
     <row r="249" spans="1:6" customFormat="1">
-      <c r="A249" s="28"/>
+      <c r="A249" s="31"/>
       <c r="B249" s="20" t="s">
         <v>1196</v>
       </c>
@@ -19919,7 +20245,7 @@
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" customFormat="1">
-      <c r="A250" s="28" t="s">
+      <c r="A250" s="31" t="s">
         <v>1768</v>
       </c>
       <c r="B250" s="20">
@@ -19935,7 +20261,7 @@
       <c r="F250" s="2"/>
     </row>
     <row r="251" spans="1:6" customFormat="1">
-      <c r="A251" s="28"/>
+      <c r="A251" s="31"/>
       <c r="B251" s="20" t="s">
         <v>1197</v>
       </c>
@@ -19949,7 +20275,7 @@
       <c r="F251" s="2"/>
     </row>
     <row r="252" spans="1:6" customFormat="1">
-      <c r="A252" s="28"/>
+      <c r="A252" s="31"/>
       <c r="B252" s="20" t="s">
         <v>1198</v>
       </c>
@@ -19963,7 +20289,7 @@
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" customFormat="1">
-      <c r="A253" s="28"/>
+      <c r="A253" s="31"/>
       <c r="B253" s="20" t="s">
         <v>1199</v>
       </c>
@@ -19977,7 +20303,7 @@
       <c r="F253" s="2"/>
     </row>
     <row r="254" spans="1:6" customFormat="1">
-      <c r="A254" s="28"/>
+      <c r="A254" s="31"/>
       <c r="B254" s="20" t="s">
         <v>1200</v>
       </c>
@@ -19991,7 +20317,7 @@
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" customFormat="1">
-      <c r="A255" s="28"/>
+      <c r="A255" s="31"/>
       <c r="B255" s="20" t="s">
         <v>1201</v>
       </c>
@@ -20005,7 +20331,7 @@
       <c r="F255" s="2"/>
     </row>
     <row r="256" spans="1:6" customFormat="1">
-      <c r="A256" s="28"/>
+      <c r="A256" s="31"/>
       <c r="B256" s="20">
         <v>9.1999999999999993</v>
       </c>
@@ -20019,7 +20345,7 @@
       <c r="F256" s="2"/>
     </row>
     <row r="257" spans="1:6" customFormat="1">
-      <c r="A257" s="28"/>
+      <c r="A257" s="31"/>
       <c r="B257" s="20" t="s">
         <v>1202</v>
       </c>
@@ -20033,7 +20359,7 @@
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" customFormat="1">
-      <c r="A258" s="28"/>
+      <c r="A258" s="31"/>
       <c r="B258" s="20" t="s">
         <v>1203</v>
       </c>
@@ -20047,7 +20373,7 @@
       <c r="F258" s="2"/>
     </row>
     <row r="259" spans="1:6" customFormat="1">
-      <c r="A259" s="28"/>
+      <c r="A259" s="31"/>
       <c r="B259" s="20" t="s">
         <v>1204</v>
       </c>
@@ -20061,7 +20387,7 @@
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" customFormat="1">
-      <c r="A260" s="28"/>
+      <c r="A260" s="31"/>
       <c r="B260" s="20" t="s">
         <v>1205</v>
       </c>
@@ -20075,7 +20401,7 @@
       <c r="F260" s="2"/>
     </row>
     <row r="261" spans="1:6" customFormat="1">
-      <c r="A261" s="28"/>
+      <c r="A261" s="31"/>
       <c r="B261" s="20" t="s">
         <v>1206</v>
       </c>
@@ -20089,7 +20415,7 @@
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="1:6" customFormat="1">
-      <c r="A262" s="28"/>
+      <c r="A262" s="31"/>
       <c r="B262" s="20" t="s">
         <v>1207</v>
       </c>
@@ -20103,7 +20429,7 @@
       <c r="F262" s="2"/>
     </row>
     <row r="263" spans="1:6" customFormat="1">
-      <c r="A263" s="28"/>
+      <c r="A263" s="31"/>
       <c r="B263" s="20">
         <v>9.3000000000000007</v>
       </c>
@@ -20117,7 +20443,7 @@
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" customFormat="1">
-      <c r="A264" s="28"/>
+      <c r="A264" s="31"/>
       <c r="B264" s="20" t="s">
         <v>1208</v>
       </c>
@@ -20131,7 +20457,7 @@
       <c r="F264" s="2"/>
     </row>
     <row r="265" spans="1:6" customFormat="1">
-      <c r="A265" s="28"/>
+      <c r="A265" s="31"/>
       <c r="B265" s="20" t="s">
         <v>1209</v>
       </c>
@@ -20145,7 +20471,7 @@
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" customFormat="1">
-      <c r="A266" s="28"/>
+      <c r="A266" s="31"/>
       <c r="B266" s="20" t="s">
         <v>1210</v>
       </c>
@@ -20159,7 +20485,7 @@
       <c r="F266" s="2"/>
     </row>
     <row r="267" spans="1:6" customFormat="1">
-      <c r="A267" s="28"/>
+      <c r="A267" s="31"/>
       <c r="B267" s="20" t="s">
         <v>1211</v>
       </c>
@@ -20173,7 +20499,7 @@
       <c r="F267" s="2"/>
     </row>
     <row r="268" spans="1:6" customFormat="1">
-      <c r="A268" s="28"/>
+      <c r="A268" s="31"/>
       <c r="B268" s="20" t="s">
         <v>1212</v>
       </c>
@@ -20187,7 +20513,7 @@
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6" customFormat="1">
-      <c r="A269" s="28"/>
+      <c r="A269" s="31"/>
       <c r="B269" s="20" t="s">
         <v>1213</v>
       </c>
@@ -20201,7 +20527,7 @@
       <c r="F269" s="2"/>
     </row>
     <row r="270" spans="1:6" customFormat="1">
-      <c r="A270" s="28"/>
+      <c r="A270" s="31"/>
       <c r="B270" s="20" t="s">
         <v>1214</v>
       </c>
@@ -20215,7 +20541,7 @@
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="1:6" customFormat="1">
-      <c r="A271" s="28"/>
+      <c r="A271" s="31"/>
       <c r="B271" s="20">
         <v>9.4</v>
       </c>
@@ -20229,7 +20555,7 @@
       <c r="F271" s="2"/>
     </row>
     <row r="272" spans="1:6" customFormat="1">
-      <c r="A272" s="28"/>
+      <c r="A272" s="31"/>
       <c r="B272" s="20" t="s">
         <v>1215</v>
       </c>
@@ -20243,7 +20569,7 @@
       <c r="F272" s="2"/>
     </row>
     <row r="273" spans="1:6" customFormat="1">
-      <c r="A273" s="28"/>
+      <c r="A273" s="31"/>
       <c r="B273" s="20" t="s">
         <v>1216</v>
       </c>
@@ -20257,7 +20583,7 @@
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" customFormat="1">
-      <c r="A274" s="28"/>
+      <c r="A274" s="31"/>
       <c r="B274" s="20" t="s">
         <v>1217</v>
       </c>
@@ -20271,7 +20597,7 @@
       <c r="F274" s="2"/>
     </row>
     <row r="275" spans="1:6" customFormat="1">
-      <c r="A275" s="28"/>
+      <c r="A275" s="31"/>
       <c r="B275" s="20" t="s">
         <v>1218</v>
       </c>
@@ -20285,7 +20611,7 @@
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" customFormat="1">
-      <c r="A276" s="28"/>
+      <c r="A276" s="31"/>
       <c r="B276" s="20" t="s">
         <v>1219</v>
       </c>
@@ -20299,7 +20625,7 @@
       <c r="F276" s="2"/>
     </row>
     <row r="277" spans="1:6" customFormat="1">
-      <c r="A277" s="28"/>
+      <c r="A277" s="31"/>
       <c r="B277" s="20" t="s">
         <v>1220</v>
       </c>
@@ -20313,7 +20639,7 @@
       <c r="F277" s="2"/>
     </row>
     <row r="278" spans="1:6" customFormat="1">
-      <c r="A278" s="28"/>
+      <c r="A278" s="31"/>
       <c r="B278" s="20">
         <v>9.5</v>
       </c>
@@ -20327,7 +20653,7 @@
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" customFormat="1">
-      <c r="A279" s="28"/>
+      <c r="A279" s="31"/>
       <c r="B279" s="20" t="s">
         <v>1221</v>
       </c>
@@ -20341,7 +20667,7 @@
       <c r="F279" s="2"/>
     </row>
     <row r="280" spans="1:6" customFormat="1">
-      <c r="A280" s="28"/>
+      <c r="A280" s="31"/>
       <c r="B280" s="20" t="s">
         <v>1222</v>
       </c>
@@ -20355,7 +20681,7 @@
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" customFormat="1">
-      <c r="A281" s="28"/>
+      <c r="A281" s="31"/>
       <c r="B281" s="20" t="s">
         <v>1223</v>
       </c>
@@ -20369,7 +20695,7 @@
       <c r="F281" s="2"/>
     </row>
     <row r="282" spans="1:6" customFormat="1">
-      <c r="A282" s="28"/>
+      <c r="A282" s="31"/>
       <c r="B282" s="20" t="s">
         <v>1224</v>
       </c>
@@ -20383,7 +20709,7 @@
       <c r="F282" s="2"/>
     </row>
     <row r="283" spans="1:6" customFormat="1">
-      <c r="A283" s="28"/>
+      <c r="A283" s="31"/>
       <c r="B283" s="20" t="s">
         <v>1225</v>
       </c>
@@ -20397,7 +20723,7 @@
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" customFormat="1">
-      <c r="A284" s="28"/>
+      <c r="A284" s="31"/>
       <c r="B284" s="20" t="s">
         <v>1226</v>
       </c>
@@ -20411,7 +20737,7 @@
       <c r="F284" s="2"/>
     </row>
     <row r="285" spans="1:6" customFormat="1">
-      <c r="A285" s="28"/>
+      <c r="A285" s="31"/>
       <c r="B285" s="20">
         <v>9.6</v>
       </c>
@@ -20425,7 +20751,7 @@
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6" customFormat="1">
-      <c r="A286" s="28"/>
+      <c r="A286" s="31"/>
       <c r="B286" s="20" t="s">
         <v>1227</v>
       </c>
@@ -20439,7 +20765,7 @@
       <c r="F286" s="2"/>
     </row>
     <row r="287" spans="1:6" customFormat="1">
-      <c r="A287" s="28"/>
+      <c r="A287" s="31"/>
       <c r="B287" s="20" t="s">
         <v>1228</v>
       </c>
@@ -20453,7 +20779,7 @@
       <c r="F287" s="2"/>
     </row>
     <row r="288" spans="1:6" customFormat="1">
-      <c r="A288" s="28"/>
+      <c r="A288" s="31"/>
       <c r="B288" s="20" t="s">
         <v>1229</v>
       </c>
@@ -20467,7 +20793,7 @@
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="1:6" customFormat="1">
-      <c r="A289" s="28"/>
+      <c r="A289" s="31"/>
       <c r="B289" s="20" t="s">
         <v>1230</v>
       </c>
@@ -20481,7 +20807,7 @@
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" customFormat="1">
-      <c r="A290" s="28"/>
+      <c r="A290" s="31"/>
       <c r="B290" s="20" t="s">
         <v>1231</v>
       </c>
@@ -20495,7 +20821,7 @@
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="1:6" customFormat="1">
-      <c r="A291" s="28" t="s">
+      <c r="A291" s="31" t="s">
         <v>1769</v>
       </c>
       <c r="B291" s="20">
@@ -20511,7 +20837,7 @@
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:6" customFormat="1">
-      <c r="A292" s="28"/>
+      <c r="A292" s="31"/>
       <c r="B292" s="20">
         <v>10.199999999999999</v>
       </c>
@@ -20525,7 +20851,7 @@
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="1:6" customFormat="1">
-      <c r="A293" s="28"/>
+      <c r="A293" s="31"/>
       <c r="B293" s="20">
         <v>10.3</v>
       </c>
@@ -20539,7 +20865,7 @@
       <c r="F293" s="2"/>
     </row>
     <row r="294" spans="1:6" customFormat="1">
-      <c r="A294" s="28"/>
+      <c r="A294" s="31"/>
       <c r="B294" s="20" t="s">
         <v>1232</v>
       </c>
@@ -20553,7 +20879,7 @@
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" customFormat="1">
-      <c r="A295" s="28"/>
+      <c r="A295" s="31"/>
       <c r="B295" s="20" t="s">
         <v>1233</v>
       </c>
@@ -20567,7 +20893,7 @@
       <c r="F295" s="2"/>
     </row>
     <row r="296" spans="1:6" customFormat="1">
-      <c r="A296" s="28"/>
+      <c r="A296" s="31"/>
       <c r="B296" s="20">
         <v>10.4</v>
       </c>
@@ -20581,7 +20907,7 @@
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6" customFormat="1">
-      <c r="A297" s="28"/>
+      <c r="A297" s="31"/>
       <c r="B297" s="20">
         <v>10.5</v>
       </c>
@@ -20595,7 +20921,7 @@
       <c r="F297" s="2"/>
     </row>
     <row r="298" spans="1:6" customFormat="1">
-      <c r="A298" s="28"/>
+      <c r="A298" s="31"/>
       <c r="B298" s="20">
         <v>10.6</v>
       </c>
@@ -20609,7 +20935,7 @@
       <c r="F298" s="2"/>
     </row>
     <row r="299" spans="1:6" customFormat="1">
-      <c r="A299" s="28"/>
+      <c r="A299" s="31"/>
       <c r="B299" s="20">
         <v>10.7</v>
       </c>
@@ -20623,7 +20949,7 @@
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6" customFormat="1">
-      <c r="A300" s="28"/>
+      <c r="A300" s="31"/>
       <c r="B300" s="20">
         <v>10.8</v>
       </c>
@@ -20637,7 +20963,7 @@
       <c r="F300" s="2"/>
     </row>
     <row r="301" spans="1:6" customFormat="1">
-      <c r="A301" s="28" t="s">
+      <c r="A301" s="31" t="s">
         <v>1767</v>
       </c>
       <c r="B301" s="20">
@@ -20653,7 +20979,7 @@
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6" customFormat="1">
-      <c r="A302" s="28"/>
+      <c r="A302" s="31"/>
       <c r="B302" s="20" t="s">
         <v>1234</v>
       </c>
@@ -20667,7 +20993,7 @@
       <c r="F302" s="2"/>
     </row>
     <row r="303" spans="1:6" customFormat="1">
-      <c r="A303" s="28"/>
+      <c r="A303" s="31"/>
       <c r="B303" s="20" t="s">
         <v>1235</v>
       </c>
@@ -20681,7 +21007,7 @@
       <c r="F303" s="2"/>
     </row>
     <row r="304" spans="1:6" customFormat="1">
-      <c r="A304" s="28"/>
+      <c r="A304" s="31"/>
       <c r="B304" s="20" t="s">
         <v>1236</v>
       </c>
@@ -20695,7 +21021,7 @@
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6" customFormat="1">
-      <c r="A305" s="28"/>
+      <c r="A305" s="31"/>
       <c r="B305" s="20" t="s">
         <v>1237</v>
       </c>
@@ -20709,7 +21035,7 @@
       <c r="F305" s="2"/>
     </row>
     <row r="306" spans="1:6" customFormat="1">
-      <c r="A306" s="28"/>
+      <c r="A306" s="31"/>
       <c r="B306" s="20">
         <v>11.2</v>
       </c>
@@ -20723,7 +21049,7 @@
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6" customFormat="1">
-      <c r="A307" s="28"/>
+      <c r="A307" s="31"/>
       <c r="B307" s="20">
         <v>11.3</v>
       </c>
@@ -20737,7 +21063,7 @@
       <c r="F307" s="2"/>
     </row>
     <row r="308" spans="1:6" customFormat="1">
-      <c r="A308" s="28"/>
+      <c r="A308" s="31"/>
       <c r="B308" s="20">
         <v>11.4</v>
       </c>
@@ -20751,7 +21077,7 @@
       <c r="F308" s="2"/>
     </row>
     <row r="309" spans="1:6" customFormat="1">
-      <c r="A309" s="28"/>
+      <c r="A309" s="31"/>
       <c r="B309" s="20" t="s">
         <v>1238</v>
       </c>
@@ -20765,7 +21091,7 @@
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6" customFormat="1">
-      <c r="A310" s="28" t="s">
+      <c r="A310" s="31" t="s">
         <v>1766</v>
       </c>
       <c r="B310" s="20">
@@ -20781,7 +21107,7 @@
       <c r="F310" s="2"/>
     </row>
     <row r="311" spans="1:6" customFormat="1">
-      <c r="A311" s="28"/>
+      <c r="A311" s="31"/>
       <c r="B311" s="20" t="s">
         <v>1239</v>
       </c>
@@ -20795,7 +21121,7 @@
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6" customFormat="1">
-      <c r="A312" s="28"/>
+      <c r="A312" s="31"/>
       <c r="B312" s="20" t="s">
         <v>1240</v>
       </c>
@@ -20809,7 +21135,7 @@
       <c r="F312" s="2"/>
     </row>
     <row r="313" spans="1:6" customFormat="1">
-      <c r="A313" s="28"/>
+      <c r="A313" s="31"/>
       <c r="B313" s="20" t="s">
         <v>1241</v>
       </c>
@@ -20823,7 +21149,7 @@
       <c r="F313" s="2"/>
     </row>
     <row r="314" spans="1:6" customFormat="1">
-      <c r="A314" s="28"/>
+      <c r="A314" s="31"/>
       <c r="B314" s="20">
         <v>12.2</v>
       </c>
@@ -20837,7 +21163,7 @@
       <c r="F314" s="2"/>
     </row>
     <row r="315" spans="1:6" customFormat="1">
-      <c r="A315" s="28"/>
+      <c r="A315" s="31"/>
       <c r="B315" s="20" t="s">
         <v>1242</v>
       </c>
@@ -20851,7 +21177,7 @@
       <c r="F315" s="2"/>
     </row>
     <row r="316" spans="1:6" customFormat="1">
-      <c r="A316" s="28"/>
+      <c r="A316" s="31"/>
       <c r="B316" s="20" t="s">
         <v>1243</v>
       </c>
@@ -20865,7 +21191,7 @@
       <c r="F316" s="2"/>
     </row>
     <row r="317" spans="1:6" customFormat="1">
-      <c r="A317" s="28"/>
+      <c r="A317" s="31"/>
       <c r="B317" s="20">
         <v>12.3</v>
       </c>
@@ -20879,7 +21205,7 @@
       <c r="F317" s="2"/>
     </row>
     <row r="318" spans="1:6" customFormat="1">
-      <c r="A318" s="28"/>
+      <c r="A318" s="31"/>
       <c r="B318" s="20" t="s">
         <v>1244</v>
       </c>
@@ -20893,7 +21219,7 @@
       <c r="F318" s="2"/>
     </row>
     <row r="319" spans="1:6" customFormat="1">
-      <c r="A319" s="28"/>
+      <c r="A319" s="31"/>
       <c r="B319" s="20" t="s">
         <v>1245</v>
       </c>
@@ -20907,7 +21233,7 @@
       <c r="F319" s="2"/>
     </row>
     <row r="320" spans="1:6" customFormat="1">
-      <c r="A320" s="28"/>
+      <c r="A320" s="31"/>
       <c r="B320" s="20" t="s">
         <v>1246</v>
       </c>
@@ -20921,7 +21247,7 @@
       <c r="F320" s="2"/>
     </row>
     <row r="321" spans="1:6" customFormat="1">
-      <c r="A321" s="28"/>
+      <c r="A321" s="31"/>
       <c r="B321" s="20" t="s">
         <v>1247</v>
       </c>
@@ -20935,7 +21261,7 @@
       <c r="F321" s="2"/>
     </row>
     <row r="322" spans="1:6" customFormat="1">
-      <c r="A322" s="28"/>
+      <c r="A322" s="31"/>
       <c r="B322" s="20" t="s">
         <v>1248</v>
       </c>
@@ -20949,7 +21275,7 @@
       <c r="F322" s="2"/>
     </row>
     <row r="323" spans="1:6" customFormat="1">
-      <c r="A323" s="28"/>
+      <c r="A323" s="31"/>
       <c r="B323" s="20">
         <v>12.4</v>
       </c>
@@ -20963,7 +21289,7 @@
       <c r="F323" s="2"/>
     </row>
     <row r="324" spans="1:6" customFormat="1">
-      <c r="A324" s="28"/>
+      <c r="A324" s="31"/>
       <c r="B324" s="20" t="s">
         <v>1249</v>
       </c>
@@ -20977,7 +21303,7 @@
       <c r="F324" s="2"/>
     </row>
     <row r="325" spans="1:6" customFormat="1">
-      <c r="A325" s="28"/>
+      <c r="A325" s="31"/>
       <c r="B325" s="20" t="s">
         <v>1250</v>
       </c>
@@ -20991,7 +21317,7 @@
       <c r="F325" s="2"/>
     </row>
     <row r="326" spans="1:6" customFormat="1">
-      <c r="A326" s="28"/>
+      <c r="A326" s="31"/>
       <c r="B326" s="20" t="s">
         <v>1251</v>
       </c>
@@ -21005,7 +21331,7 @@
       <c r="F326" s="2"/>
     </row>
     <row r="327" spans="1:6" customFormat="1">
-      <c r="A327" s="28"/>
+      <c r="A327" s="31"/>
       <c r="B327" s="20" t="s">
         <v>1252</v>
       </c>
@@ -21019,7 +21345,7 @@
       <c r="F327" s="2"/>
     </row>
     <row r="328" spans="1:6" customFormat="1">
-      <c r="A328" s="28"/>
+      <c r="A328" s="31"/>
       <c r="B328" s="20" t="s">
         <v>1253</v>
       </c>
@@ -21033,7 +21359,7 @@
       <c r="F328" s="2"/>
     </row>
     <row r="329" spans="1:6" customFormat="1">
-      <c r="A329" s="28"/>
+      <c r="A329" s="31"/>
       <c r="B329" s="20">
         <v>12.5</v>
       </c>
@@ -21047,7 +21373,7 @@
       <c r="F329" s="2"/>
     </row>
     <row r="330" spans="1:6" customFormat="1">
-      <c r="A330" s="28"/>
+      <c r="A330" s="31"/>
       <c r="B330" s="20" t="s">
         <v>1254</v>
       </c>
@@ -21061,7 +21387,7 @@
       <c r="F330" s="2"/>
     </row>
     <row r="331" spans="1:6" customFormat="1">
-      <c r="A331" s="28"/>
+      <c r="A331" s="31"/>
       <c r="B331" s="20" t="s">
         <v>1255</v>
       </c>
@@ -21075,7 +21401,7 @@
       <c r="F331" s="2"/>
     </row>
     <row r="332" spans="1:6" customFormat="1">
-      <c r="A332" s="28"/>
+      <c r="A332" s="31"/>
       <c r="B332" s="20" t="s">
         <v>1256</v>
       </c>
@@ -21089,7 +21415,7 @@
       <c r="F332" s="2"/>
     </row>
     <row r="333" spans="1:6" customFormat="1">
-      <c r="A333" s="28"/>
+      <c r="A333" s="31"/>
       <c r="B333" s="20" t="s">
         <v>1257</v>
       </c>
@@ -21103,7 +21429,7 @@
       <c r="F333" s="2"/>
     </row>
     <row r="334" spans="1:6" customFormat="1">
-      <c r="A334" s="28"/>
+      <c r="A334" s="31"/>
       <c r="B334" s="20" t="s">
         <v>1258</v>
       </c>
@@ -21117,7 +21443,7 @@
       <c r="F334" s="2"/>
     </row>
     <row r="335" spans="1:6" customFormat="1">
-      <c r="A335" s="28"/>
+      <c r="A335" s="31"/>
       <c r="B335" s="20" t="s">
         <v>1259</v>
       </c>
@@ -21131,7 +21457,7 @@
       <c r="F335" s="2"/>
     </row>
     <row r="336" spans="1:6" customFormat="1">
-      <c r="A336" s="28"/>
+      <c r="A336" s="31"/>
       <c r="B336" s="20" t="s">
         <v>1260</v>
       </c>
@@ -21145,7 +21471,7 @@
       <c r="F336" s="2"/>
     </row>
     <row r="337" spans="1:6" customFormat="1">
-      <c r="A337" s="28"/>
+      <c r="A337" s="31"/>
       <c r="B337" s="20" t="s">
         <v>1261</v>
       </c>
@@ -21159,7 +21485,7 @@
       <c r="F337" s="2"/>
     </row>
     <row r="338" spans="1:6" customFormat="1">
-      <c r="A338" s="28"/>
+      <c r="A338" s="31"/>
       <c r="B338" s="20">
         <v>12.6</v>
       </c>
@@ -21173,7 +21499,7 @@
       <c r="F338" s="2"/>
     </row>
     <row r="339" spans="1:6" customFormat="1">
-      <c r="A339" s="28"/>
+      <c r="A339" s="31"/>
       <c r="B339" s="20" t="s">
         <v>1262</v>
       </c>
@@ -21187,7 +21513,7 @@
       <c r="F339" s="2"/>
     </row>
     <row r="340" spans="1:6" customFormat="1">
-      <c r="A340" s="28"/>
+      <c r="A340" s="31"/>
       <c r="B340" s="20" t="s">
         <v>1263</v>
       </c>
@@ -21201,7 +21527,7 @@
       <c r="F340" s="2"/>
     </row>
     <row r="341" spans="1:6" customFormat="1">
-      <c r="A341" s="28"/>
+      <c r="A341" s="31"/>
       <c r="B341" s="20" t="s">
         <v>1264</v>
       </c>
@@ -21215,7 +21541,7 @@
       <c r="F341" s="2"/>
     </row>
     <row r="342" spans="1:6" customFormat="1">
-      <c r="A342" s="28"/>
+      <c r="A342" s="31"/>
       <c r="B342" s="20" t="s">
         <v>1265</v>
       </c>
@@ -21229,7 +21555,7 @@
       <c r="F342" s="2"/>
     </row>
     <row r="343" spans="1:6" customFormat="1">
-      <c r="A343" s="28"/>
+      <c r="A343" s="31"/>
       <c r="B343" s="20" t="s">
         <v>1266</v>
       </c>
@@ -21243,7 +21569,7 @@
       <c r="F343" s="2"/>
     </row>
     <row r="344" spans="1:6" customFormat="1">
-      <c r="A344" s="28"/>
+      <c r="A344" s="31"/>
       <c r="B344" s="20">
         <v>12.7</v>
       </c>
@@ -21257,7 +21583,7 @@
       <c r="F344" s="2"/>
     </row>
     <row r="345" spans="1:6" customFormat="1">
-      <c r="A345" s="28"/>
+      <c r="A345" s="31"/>
       <c r="B345" s="20" t="s">
         <v>1267</v>
       </c>
@@ -21271,7 +21597,7 @@
       <c r="F345" s="2"/>
     </row>
     <row r="346" spans="1:6" customFormat="1">
-      <c r="A346" s="28"/>
+      <c r="A346" s="31"/>
       <c r="B346" s="20" t="s">
         <v>1268</v>
       </c>
@@ -21285,7 +21611,7 @@
       <c r="F346" s="2"/>
     </row>
     <row r="347" spans="1:6" customFormat="1">
-      <c r="A347" s="28"/>
+      <c r="A347" s="31"/>
       <c r="B347" s="20" t="s">
         <v>1269</v>
       </c>
@@ -21299,7 +21625,7 @@
       <c r="F347" s="2"/>
     </row>
     <row r="348" spans="1:6" customFormat="1">
-      <c r="A348" s="28"/>
+      <c r="A348" s="31"/>
       <c r="B348" s="20" t="s">
         <v>1270</v>
       </c>
@@ -21313,7 +21639,7 @@
       <c r="F348" s="2"/>
     </row>
     <row r="349" spans="1:6" customFormat="1">
-      <c r="A349" s="28"/>
+      <c r="A349" s="31"/>
       <c r="B349" s="20" t="s">
         <v>1271</v>
       </c>
@@ -21327,7 +21653,7 @@
       <c r="F349" s="2"/>
     </row>
     <row r="350" spans="1:6" customFormat="1">
-      <c r="A350" s="28"/>
+      <c r="A350" s="31"/>
       <c r="B350" s="20">
         <v>12.8</v>
       </c>
@@ -21341,7 +21667,7 @@
       <c r="F350" s="2"/>
     </row>
     <row r="351" spans="1:6" customFormat="1">
-      <c r="A351" s="28"/>
+      <c r="A351" s="31"/>
       <c r="B351" s="20" t="s">
         <v>1272</v>
       </c>
@@ -21355,7 +21681,7 @@
       <c r="F351" s="2"/>
     </row>
     <row r="352" spans="1:6" customFormat="1">
-      <c r="A352" s="28"/>
+      <c r="A352" s="31"/>
       <c r="B352" s="20" t="s">
         <v>1273</v>
       </c>
@@ -21369,7 +21695,7 @@
       <c r="F352" s="2"/>
     </row>
     <row r="353" spans="1:6" customFormat="1">
-      <c r="A353" s="28" t="s">
+      <c r="A353" s="31" t="s">
         <v>1765</v>
       </c>
       <c r="B353" s="20">
@@ -21385,7 +21711,7 @@
       <c r="F353" s="2"/>
     </row>
     <row r="354" spans="1:6" customFormat="1">
-      <c r="A354" s="28"/>
+      <c r="A354" s="31"/>
       <c r="B354" s="20" t="s">
         <v>1274</v>
       </c>
@@ -21399,7 +21725,7 @@
       <c r="F354" s="2"/>
     </row>
     <row r="355" spans="1:6" customFormat="1">
-      <c r="A355" s="28"/>
+      <c r="A355" s="31"/>
       <c r="B355" s="20" t="s">
         <v>1275</v>
       </c>
@@ -21413,7 +21739,7 @@
       <c r="F355" s="2"/>
     </row>
     <row r="356" spans="1:6" customFormat="1">
-      <c r="A356" s="28"/>
+      <c r="A356" s="31"/>
       <c r="B356" s="20" t="s">
         <v>1276</v>
       </c>
@@ -21427,7 +21753,7 @@
       <c r="F356" s="2"/>
     </row>
     <row r="357" spans="1:6" customFormat="1">
-      <c r="A357" s="28"/>
+      <c r="A357" s="31"/>
       <c r="B357" s="20" t="s">
         <v>1277</v>
       </c>
@@ -21441,7 +21767,7 @@
       <c r="F357" s="2"/>
     </row>
     <row r="358" spans="1:6" customFormat="1">
-      <c r="A358" s="28"/>
+      <c r="A358" s="31"/>
       <c r="B358" s="20" t="s">
         <v>1278</v>
       </c>
@@ -21455,7 +21781,7 @@
       <c r="F358" s="2"/>
     </row>
     <row r="359" spans="1:6" customFormat="1">
-      <c r="A359" s="28"/>
+      <c r="A359" s="31"/>
       <c r="B359" s="20">
         <v>13.2</v>
       </c>
@@ -21469,7 +21795,7 @@
       <c r="F359" s="2"/>
     </row>
     <row r="360" spans="1:6" customFormat="1">
-      <c r="A360" s="28"/>
+      <c r="A360" s="31"/>
       <c r="B360" s="20" t="s">
         <v>1279</v>
       </c>
@@ -21483,7 +21809,7 @@
       <c r="F360" s="2"/>
     </row>
     <row r="361" spans="1:6" customFormat="1">
-      <c r="A361" s="28"/>
+      <c r="A361" s="31"/>
       <c r="B361" s="20" t="s">
         <v>1280</v>
       </c>
@@ -21497,7 +21823,7 @@
       <c r="F361" s="2"/>
     </row>
     <row r="362" spans="1:6" customFormat="1">
-      <c r="A362" s="28"/>
+      <c r="A362" s="31"/>
       <c r="B362" s="20">
         <v>13.3</v>
       </c>
@@ -21511,7 +21837,7 @@
       <c r="F362" s="2"/>
     </row>
     <row r="363" spans="1:6" customFormat="1">
-      <c r="A363" s="28"/>
+      <c r="A363" s="31"/>
       <c r="B363" s="20">
         <v>13.4</v>
       </c>
@@ -21525,7 +21851,7 @@
       <c r="F363" s="2"/>
     </row>
     <row r="364" spans="1:6" customFormat="1">
-      <c r="A364" s="28"/>
+      <c r="A364" s="31"/>
       <c r="B364" s="20" t="s">
         <v>1281</v>
       </c>
@@ -21539,7 +21865,7 @@
       <c r="F364" s="2"/>
     </row>
     <row r="365" spans="1:6" customFormat="1">
-      <c r="A365" s="28"/>
+      <c r="A365" s="31"/>
       <c r="B365" s="20" t="s">
         <v>1282</v>
       </c>
@@ -21553,7 +21879,7 @@
       <c r="F365" s="2"/>
     </row>
     <row r="366" spans="1:6" customFormat="1">
-      <c r="A366" s="28"/>
+      <c r="A366" s="31"/>
       <c r="B366" s="20" t="s">
         <v>1283</v>
       </c>
@@ -21567,7 +21893,7 @@
       <c r="F366" s="2"/>
     </row>
     <row r="367" spans="1:6" customFormat="1">
-      <c r="A367" s="28"/>
+      <c r="A367" s="31"/>
       <c r="B367" s="20" t="s">
         <v>1284</v>
       </c>
@@ -21581,7 +21907,7 @@
       <c r="F367" s="2"/>
     </row>
     <row r="368" spans="1:6" customFormat="1">
-      <c r="A368" s="28"/>
+      <c r="A368" s="31"/>
       <c r="B368" s="20" t="s">
         <v>1285</v>
       </c>
@@ -21595,7 +21921,7 @@
       <c r="F368" s="2"/>
     </row>
     <row r="369" spans="1:6" customFormat="1">
-      <c r="A369" s="28"/>
+      <c r="A369" s="31"/>
       <c r="B369" s="20" t="s">
         <v>1286</v>
       </c>
@@ -21609,7 +21935,7 @@
       <c r="F369" s="2"/>
     </row>
     <row r="370" spans="1:6" customFormat="1">
-      <c r="A370" s="28"/>
+      <c r="A370" s="31"/>
       <c r="B370" s="20" t="s">
         <v>1287</v>
       </c>
@@ -21623,7 +21949,7 @@
       <c r="F370" s="2"/>
     </row>
     <row r="371" spans="1:6" customFormat="1">
-      <c r="A371" s="28"/>
+      <c r="A371" s="31"/>
       <c r="B371" s="20" t="s">
         <v>1288</v>
       </c>
@@ -21637,7 +21963,7 @@
       <c r="F371" s="2"/>
     </row>
     <row r="372" spans="1:6" customFormat="1">
-      <c r="A372" s="28"/>
+      <c r="A372" s="31"/>
       <c r="B372" s="20" t="s">
         <v>1289</v>
       </c>
@@ -21651,7 +21977,7 @@
       <c r="F372" s="2"/>
     </row>
     <row r="373" spans="1:6" customFormat="1">
-      <c r="A373" s="28"/>
+      <c r="A373" s="31"/>
       <c r="B373" s="20">
         <v>13.5</v>
       </c>
@@ -21665,7 +21991,7 @@
       <c r="F373" s="2"/>
     </row>
     <row r="374" spans="1:6" customFormat="1">
-      <c r="A374" s="28"/>
+      <c r="A374" s="31"/>
       <c r="B374" s="20" t="s">
         <v>1290</v>
       </c>
@@ -21679,7 +22005,7 @@
       <c r="F374" s="2"/>
     </row>
     <row r="375" spans="1:6" customFormat="1">
-      <c r="A375" s="28"/>
+      <c r="A375" s="31"/>
       <c r="B375" s="20" t="s">
         <v>1291</v>
       </c>
@@ -21693,7 +22019,7 @@
       <c r="F375" s="2"/>
     </row>
     <row r="376" spans="1:6" customFormat="1">
-      <c r="A376" s="29" t="s">
+      <c r="A376" s="28" t="s">
         <v>1764</v>
       </c>
       <c r="B376" s="20">
@@ -21709,7 +22035,7 @@
       <c r="F376" s="2"/>
     </row>
     <row r="377" spans="1:6" customFormat="1">
-      <c r="A377" s="30"/>
+      <c r="A377" s="29"/>
       <c r="B377" s="20" t="s">
         <v>1292</v>
       </c>
@@ -21723,7 +22049,7 @@
       <c r="F377" s="2"/>
     </row>
     <row r="378" spans="1:6" customFormat="1">
-      <c r="A378" s="30"/>
+      <c r="A378" s="29"/>
       <c r="B378" s="20">
         <v>14.2</v>
       </c>
@@ -21737,7 +22063,7 @@
       <c r="F378" s="2"/>
     </row>
     <row r="379" spans="1:6" customFormat="1">
-      <c r="A379" s="30"/>
+      <c r="A379" s="29"/>
       <c r="B379" s="20">
         <v>14.3</v>
       </c>
@@ -21751,7 +22077,7 @@
       <c r="F379" s="2"/>
     </row>
     <row r="380" spans="1:6" customFormat="1">
-      <c r="A380" s="30"/>
+      <c r="A380" s="29"/>
       <c r="B380" s="20" t="s">
         <v>1293</v>
       </c>
@@ -21765,7 +22091,7 @@
       <c r="F380" s="2"/>
     </row>
     <row r="381" spans="1:6" customFormat="1">
-      <c r="A381" s="30"/>
+      <c r="A381" s="29"/>
       <c r="B381" s="20" t="s">
         <v>1294</v>
       </c>
@@ -21779,7 +22105,7 @@
       <c r="F381" s="2"/>
     </row>
     <row r="382" spans="1:6" customFormat="1">
-      <c r="A382" s="30"/>
+      <c r="A382" s="29"/>
       <c r="B382" s="20" t="s">
         <v>1295</v>
       </c>
@@ -21793,7 +22119,7 @@
       <c r="F382" s="2"/>
     </row>
     <row r="383" spans="1:6" customFormat="1">
-      <c r="A383" s="30"/>
+      <c r="A383" s="29"/>
       <c r="B383" s="20" t="s">
         <v>1296</v>
       </c>
@@ -21807,7 +22133,7 @@
       <c r="F383" s="2"/>
     </row>
     <row r="384" spans="1:6" customFormat="1">
-      <c r="A384" s="30"/>
+      <c r="A384" s="29"/>
       <c r="B384" s="20">
         <v>14.4</v>
       </c>
@@ -21821,7 +22147,7 @@
       <c r="F384" s="2"/>
     </row>
     <row r="385" spans="1:6" customFormat="1">
-      <c r="A385" s="30"/>
+      <c r="A385" s="29"/>
       <c r="B385" s="20" t="s">
         <v>1297</v>
       </c>
@@ -21835,7 +22161,7 @@
       <c r="F385" s="2"/>
     </row>
     <row r="386" spans="1:6" customFormat="1">
-      <c r="A386" s="30"/>
+      <c r="A386" s="29"/>
       <c r="B386" s="20" t="s">
         <v>1298</v>
       </c>
@@ -21849,7 +22175,7 @@
       <c r="F386" s="2"/>
     </row>
     <row r="387" spans="1:6" customFormat="1">
-      <c r="A387" s="30"/>
+      <c r="A387" s="29"/>
       <c r="B387" s="20" t="s">
         <v>1299</v>
       </c>
@@ -21863,7 +22189,7 @@
       <c r="F387" s="2"/>
     </row>
     <row r="388" spans="1:6" customFormat="1">
-      <c r="A388" s="30"/>
+      <c r="A388" s="29"/>
       <c r="B388" s="20">
         <v>14.5</v>
       </c>
@@ -21877,7 +22203,7 @@
       <c r="F388" s="2"/>
     </row>
     <row r="389" spans="1:6" customFormat="1">
-      <c r="A389" s="30"/>
+      <c r="A389" s="29"/>
       <c r="B389" s="20" t="s">
         <v>1300</v>
       </c>
@@ -21891,7 +22217,7 @@
       <c r="F389" s="2"/>
     </row>
     <row r="390" spans="1:6" customFormat="1">
-      <c r="A390" s="30"/>
+      <c r="A390" s="29"/>
       <c r="B390" s="20" t="s">
         <v>1301</v>
       </c>
@@ -21905,7 +22231,7 @@
       <c r="F390" s="2"/>
     </row>
     <row r="391" spans="1:6" customFormat="1">
-      <c r="A391" s="30"/>
+      <c r="A391" s="29"/>
       <c r="B391" s="20" t="s">
         <v>1302</v>
       </c>
@@ -21919,7 +22245,7 @@
       <c r="F391" s="2"/>
     </row>
     <row r="392" spans="1:6" customFormat="1">
-      <c r="A392" s="30"/>
+      <c r="A392" s="29"/>
       <c r="B392" s="20" t="s">
         <v>1303</v>
       </c>
@@ -21933,7 +22259,7 @@
       <c r="F392" s="2"/>
     </row>
     <row r="393" spans="1:6" customFormat="1">
-      <c r="A393" s="30"/>
+      <c r="A393" s="29"/>
       <c r="B393" s="20" t="s">
         <v>1304</v>
       </c>
@@ -21947,7 +22273,7 @@
       <c r="F393" s="2"/>
     </row>
     <row r="394" spans="1:6" customFormat="1">
-      <c r="A394" s="30"/>
+      <c r="A394" s="29"/>
       <c r="B394" s="20" t="s">
         <v>1305</v>
       </c>
@@ -21961,7 +22287,7 @@
       <c r="F394" s="2"/>
     </row>
     <row r="395" spans="1:6" customFormat="1">
-      <c r="A395" s="30"/>
+      <c r="A395" s="29"/>
       <c r="B395" s="20" t="s">
         <v>1306</v>
       </c>
@@ -21975,7 +22301,7 @@
       <c r="F395" s="2"/>
     </row>
     <row r="396" spans="1:6" customFormat="1">
-      <c r="A396" s="30"/>
+      <c r="A396" s="29"/>
       <c r="B396" s="20" t="s">
         <v>1307</v>
       </c>
@@ -21989,7 +22315,7 @@
       <c r="F396" s="2"/>
     </row>
     <row r="397" spans="1:6" customFormat="1">
-      <c r="A397" s="30"/>
+      <c r="A397" s="29"/>
       <c r="B397" s="20" t="s">
         <v>1308</v>
       </c>
@@ -22003,7 +22329,7 @@
       <c r="F397" s="2"/>
     </row>
     <row r="398" spans="1:6" customFormat="1">
-      <c r="A398" s="30"/>
+      <c r="A398" s="29"/>
       <c r="B398" s="20" t="s">
         <v>1309</v>
       </c>
@@ -22017,7 +22343,7 @@
       <c r="F398" s="2"/>
     </row>
     <row r="399" spans="1:6" customFormat="1">
-      <c r="A399" s="30"/>
+      <c r="A399" s="29"/>
       <c r="B399" s="20" t="s">
         <v>1310</v>
       </c>
@@ -22031,7 +22357,7 @@
       <c r="F399" s="2"/>
     </row>
     <row r="400" spans="1:6" customFormat="1">
-      <c r="A400" s="30"/>
+      <c r="A400" s="29"/>
       <c r="B400" s="20" t="s">
         <v>1311</v>
       </c>
@@ -22045,7 +22371,7 @@
       <c r="F400" s="2"/>
     </row>
     <row r="401" spans="1:6" customFormat="1">
-      <c r="A401" s="30"/>
+      <c r="A401" s="29"/>
       <c r="B401" s="20" t="s">
         <v>1312</v>
       </c>
@@ -22059,7 +22385,7 @@
       <c r="F401" s="2"/>
     </row>
     <row r="402" spans="1:6" customFormat="1">
-      <c r="A402" s="30"/>
+      <c r="A402" s="29"/>
       <c r="B402" s="20" t="s">
         <v>1313</v>
       </c>
@@ -22073,7 +22399,7 @@
       <c r="F402" s="2"/>
     </row>
     <row r="403" spans="1:6" customFormat="1">
-      <c r="A403" s="30"/>
+      <c r="A403" s="29"/>
       <c r="B403" s="20" t="s">
         <v>1314</v>
       </c>
@@ -22087,7 +22413,7 @@
       <c r="F403" s="2"/>
     </row>
     <row r="404" spans="1:6" customFormat="1">
-      <c r="A404" s="30"/>
+      <c r="A404" s="29"/>
       <c r="B404" s="20">
         <v>14.6</v>
       </c>
@@ -22101,7 +22427,7 @@
       <c r="F404" s="2"/>
     </row>
     <row r="405" spans="1:6" customFormat="1">
-      <c r="A405" s="30"/>
+      <c r="A405" s="29"/>
       <c r="B405" s="20">
         <v>14.7</v>
       </c>
@@ -22115,7 +22441,7 @@
       <c r="F405" s="2"/>
     </row>
     <row r="406" spans="1:6" customFormat="1">
-      <c r="A406" s="30"/>
+      <c r="A406" s="29"/>
       <c r="B406" s="20" t="s">
         <v>1315</v>
       </c>
@@ -22129,7 +22455,7 @@
       <c r="F406" s="2"/>
     </row>
     <row r="407" spans="1:6" customFormat="1">
-      <c r="A407" s="30"/>
+      <c r="A407" s="29"/>
       <c r="B407" s="20" t="s">
         <v>1316</v>
       </c>
@@ -22143,7 +22469,7 @@
       <c r="F407" s="2"/>
     </row>
     <row r="408" spans="1:6" customFormat="1">
-      <c r="A408" s="30"/>
+      <c r="A408" s="29"/>
       <c r="B408" s="20" t="s">
         <v>1317</v>
       </c>
@@ -22157,7 +22483,7 @@
       <c r="F408" s="2"/>
     </row>
     <row r="409" spans="1:6" customFormat="1">
-      <c r="A409" s="30"/>
+      <c r="A409" s="29"/>
       <c r="B409" s="20" t="s">
         <v>1318</v>
       </c>
@@ -22171,7 +22497,7 @@
       <c r="F409" s="2"/>
     </row>
     <row r="410" spans="1:6" customFormat="1">
-      <c r="A410" s="30"/>
+      <c r="A410" s="29"/>
       <c r="B410" s="20" t="s">
         <v>1319</v>
       </c>
@@ -22185,7 +22511,7 @@
       <c r="F410" s="2"/>
     </row>
     <row r="411" spans="1:6" customFormat="1">
-      <c r="A411" s="30"/>
+      <c r="A411" s="29"/>
       <c r="B411" s="20" t="s">
         <v>1320</v>
       </c>
@@ -22199,7 +22525,7 @@
       <c r="F411" s="2"/>
     </row>
     <row r="412" spans="1:6" customFormat="1">
-      <c r="A412" s="30"/>
+      <c r="A412" s="29"/>
       <c r="B412" s="20" t="s">
         <v>1321</v>
       </c>
@@ -22213,7 +22539,7 @@
       <c r="F412" s="2"/>
     </row>
     <row r="413" spans="1:6" customFormat="1">
-      <c r="A413" s="30"/>
+      <c r="A413" s="29"/>
       <c r="B413" s="20">
         <v>14.8</v>
       </c>
@@ -22227,7 +22553,7 @@
       <c r="F413" s="2"/>
     </row>
     <row r="414" spans="1:6" customFormat="1">
-      <c r="A414" s="30"/>
+      <c r="A414" s="29"/>
       <c r="B414" s="20">
         <v>14.9</v>
       </c>
@@ -22241,7 +22567,7 @@
       <c r="F414" s="2"/>
     </row>
     <row r="415" spans="1:6" customFormat="1">
-      <c r="A415" s="30"/>
+      <c r="A415" s="29"/>
       <c r="B415" s="20" t="s">
         <v>1322</v>
       </c>
@@ -22255,7 +22581,7 @@
       <c r="F415" s="2"/>
     </row>
     <row r="416" spans="1:6" customFormat="1">
-      <c r="A416" s="30"/>
+      <c r="A416" s="29"/>
       <c r="B416" s="20" t="s">
         <v>1323</v>
       </c>
@@ -22269,7 +22595,7 @@
       <c r="F416" s="2"/>
     </row>
     <row r="417" spans="1:6" customFormat="1">
-      <c r="A417" s="30"/>
+      <c r="A417" s="29"/>
       <c r="B417" s="20" t="s">
         <v>1324</v>
       </c>
@@ -22283,7 +22609,7 @@
       <c r="F417" s="2"/>
     </row>
     <row r="418" spans="1:6" customFormat="1">
-      <c r="A418" s="30"/>
+      <c r="A418" s="29"/>
       <c r="B418" s="20" t="s">
         <v>1325</v>
       </c>
@@ -22297,7 +22623,7 @@
       <c r="F418" s="2"/>
     </row>
     <row r="419" spans="1:6" customFormat="1">
-      <c r="A419" s="30"/>
+      <c r="A419" s="29"/>
       <c r="B419" s="20" t="s">
         <v>1326</v>
       </c>
@@ -22311,7 +22637,7 @@
       <c r="F419" s="2"/>
     </row>
     <row r="420" spans="1:6" customFormat="1">
-      <c r="A420" s="30"/>
+      <c r="A420" s="29"/>
       <c r="B420" s="20">
         <v>14.1</v>
       </c>
@@ -22325,7 +22651,7 @@
       <c r="F420" s="2"/>
     </row>
     <row r="421" spans="1:6" customFormat="1">
-      <c r="A421" s="30"/>
+      <c r="A421" s="29"/>
       <c r="B421" s="20" t="s">
         <v>1327</v>
       </c>
@@ -22339,7 +22665,7 @@
       <c r="F421" s="2"/>
     </row>
     <row r="422" spans="1:6" customFormat="1">
-      <c r="A422" s="30"/>
+      <c r="A422" s="29"/>
       <c r="B422" s="20" t="s">
         <v>1328</v>
       </c>
@@ -22353,7 +22679,7 @@
       <c r="F422" s="2"/>
     </row>
     <row r="423" spans="1:6" customFormat="1">
-      <c r="A423" s="30"/>
+      <c r="A423" s="29"/>
       <c r="B423" s="20" t="s">
         <v>1329</v>
       </c>
@@ -22367,7 +22693,7 @@
       <c r="F423" s="2"/>
     </row>
     <row r="424" spans="1:6" customFormat="1">
-      <c r="A424" s="30"/>
+      <c r="A424" s="29"/>
       <c r="B424" s="20" t="s">
         <v>1330</v>
       </c>
@@ -22381,7 +22707,7 @@
       <c r="F424" s="2"/>
     </row>
     <row r="425" spans="1:6" customFormat="1">
-      <c r="A425" s="30"/>
+      <c r="A425" s="29"/>
       <c r="B425" s="20" t="s">
         <v>1331</v>
       </c>
@@ -22395,7 +22721,7 @@
       <c r="F425" s="2"/>
     </row>
     <row r="426" spans="1:6" customFormat="1">
-      <c r="A426" s="30"/>
+      <c r="A426" s="29"/>
       <c r="B426" s="20">
         <v>14.11</v>
       </c>
@@ -22409,7 +22735,7 @@
       <c r="F426" s="2"/>
     </row>
     <row r="427" spans="1:6" customFormat="1">
-      <c r="A427" s="30"/>
+      <c r="A427" s="29"/>
       <c r="B427" s="20" t="s">
         <v>1332</v>
       </c>
@@ -22423,7 +22749,7 @@
       <c r="F427" s="2"/>
     </row>
     <row r="428" spans="1:6" customFormat="1">
-      <c r="A428" s="30"/>
+      <c r="A428" s="29"/>
       <c r="B428" s="20" t="s">
         <v>1333</v>
       </c>
@@ -22437,7 +22763,7 @@
       <c r="F428" s="2"/>
     </row>
     <row r="429" spans="1:6" customFormat="1">
-      <c r="A429" s="31"/>
+      <c r="A429" s="30"/>
       <c r="B429" s="20" t="s">
         <v>1334</v>
       </c>
@@ -22503,12 +22829,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A376:A429"/>
-    <mergeCell ref="A353:A375"/>
-    <mergeCell ref="A310:A352"/>
-    <mergeCell ref="A301:A309"/>
-    <mergeCell ref="A250:A290"/>
-    <mergeCell ref="A291:A300"/>
     <mergeCell ref="A77:A127"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A25"/>
@@ -22517,6 +22837,12 @@
     <mergeCell ref="A128:A157"/>
     <mergeCell ref="A190:A217"/>
     <mergeCell ref="A158:A189"/>
+    <mergeCell ref="A376:A429"/>
+    <mergeCell ref="A353:A375"/>
+    <mergeCell ref="A310:A352"/>
+    <mergeCell ref="A301:A309"/>
+    <mergeCell ref="A250:A290"/>
+    <mergeCell ref="A291:A300"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I4">

--- a/学习进度.xlsx
+++ b/学习进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laohangdeche/Library/Mobile Documents/com~apple~CloudDocs/个人/学习笔记/Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A666793F-0216-C848-97E4-0C1D31FB5E6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597F0862-14C8-2F46-8121-8440A8D5F95A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="460" windowWidth="28300" windowHeight="16900" xr2:uid="{C7784454-BD36-8040-9BFE-2AD014209B0B}"/>
   </bookViews>
@@ -5965,8 +5965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01128F9A-3AE1-6541-A247-7E828F31667C}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="B207" sqref="B207"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A977" workbookViewId="0">
+      <selection activeCell="C986" sqref="C986"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/学习进度.xlsx
+++ b/学习进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laohangdeche/Library/Mobile Documents/com~apple~CloudDocs/个人/学习笔记/Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890A22CE-06CD-204F-9E76-7E643E54FA97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE19101B-2AFD-1C49-9D08-79E6CDA35C0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="460" windowWidth="28300" windowHeight="16900" xr2:uid="{C7784454-BD36-8040-9BFE-2AD014209B0B}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="1339">
   <si>
     <t>01_Java语言发展史</t>
   </si>
@@ -4321,9 +4321,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4331,6 +4328,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4652,7 +4652,8 @@
   <dimension ref="A1:G562"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B210" sqref="B210"/>
+      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G256" sqref="G256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4682,7 +4683,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-01</v>
+        <v>截至2020-09-02</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -4702,7 +4703,7 @@
       </c>
       <c r="G2" s="12">
         <f>COUNTIF(C2:C562,"ok")</f>
-        <v>225</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1">
@@ -4721,7 +4722,7 @@
       </c>
       <c r="G3" s="12">
         <f>COUNTBLANK(C2:C562)</f>
-        <v>336</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1">
@@ -4740,7 +4741,7 @@
       </c>
       <c r="G4" s="15">
         <f>G2/(G2+G3)</f>
-        <v>0.40106951871657753</v>
+        <v>0.44206773618538325</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1">
@@ -7654,8 +7655,12 @@
       <c r="B227" s="5" t="s">
         <v>1104</v>
       </c>
-      <c r="C227" s="2"/>
-      <c r="D227" s="25"/>
+      <c r="C227" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D227" s="25">
+        <v>44076</v>
+      </c>
     </row>
     <row r="228" spans="1:4" customFormat="1">
       <c r="A228" s="2">
@@ -7664,8 +7669,12 @@
       <c r="B228" s="5" t="s">
         <v>1105</v>
       </c>
-      <c r="C228" s="2"/>
-      <c r="D228" s="25"/>
+      <c r="C228" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D228" s="25">
+        <v>44076</v>
+      </c>
     </row>
     <row r="229" spans="1:4" customFormat="1">
       <c r="A229" s="2">
@@ -7674,8 +7683,12 @@
       <c r="B229" s="5" t="s">
         <v>1106</v>
       </c>
-      <c r="C229" s="2"/>
-      <c r="D229" s="25"/>
+      <c r="C229" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D229" s="25">
+        <v>44076</v>
+      </c>
     </row>
     <row r="230" spans="1:4" customFormat="1">
       <c r="A230" s="2">
@@ -7684,8 +7697,12 @@
       <c r="B230" s="5" t="s">
         <v>1107</v>
       </c>
-      <c r="C230" s="2"/>
-      <c r="D230" s="25"/>
+      <c r="C230" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D230" s="25">
+        <v>44076</v>
+      </c>
     </row>
     <row r="231" spans="1:4" customFormat="1">
       <c r="A231" s="2">
@@ -7694,8 +7711,12 @@
       <c r="B231" s="5" t="s">
         <v>1108</v>
       </c>
-      <c r="C231" s="2"/>
-      <c r="D231" s="25"/>
+      <c r="C231" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D231" s="25">
+        <v>44076</v>
+      </c>
     </row>
     <row r="232" spans="1:4" customFormat="1">
       <c r="A232" s="2">
@@ -7704,8 +7725,12 @@
       <c r="B232" s="5" t="s">
         <v>1109</v>
       </c>
-      <c r="C232" s="2"/>
-      <c r="D232" s="25"/>
+      <c r="C232" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D232" s="25">
+        <v>44076</v>
+      </c>
     </row>
     <row r="233" spans="1:4" customFormat="1">
       <c r="A233" s="2">
@@ -7714,8 +7739,12 @@
       <c r="B233" s="5" t="s">
         <v>1110</v>
       </c>
-      <c r="C233" s="2"/>
-      <c r="D233" s="25"/>
+      <c r="C233" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D233" s="25">
+        <v>44076</v>
+      </c>
     </row>
     <row r="234" spans="1:4" customFormat="1">
       <c r="A234" s="2">
@@ -7724,8 +7753,12 @@
       <c r="B234" s="5" t="s">
         <v>1111</v>
       </c>
-      <c r="C234" s="2"/>
-      <c r="D234" s="25"/>
+      <c r="C234" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D234" s="25">
+        <v>44076</v>
+      </c>
     </row>
     <row r="235" spans="1:4" customFormat="1">
       <c r="A235" s="2">
@@ -7734,8 +7767,12 @@
       <c r="B235" s="5" t="s">
         <v>1112</v>
       </c>
-      <c r="C235" s="2"/>
-      <c r="D235" s="25"/>
+      <c r="C235" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D235" s="25">
+        <v>44076</v>
+      </c>
     </row>
     <row r="236" spans="1:4" customFormat="1">
       <c r="A236" s="2">
@@ -7744,8 +7781,12 @@
       <c r="B236" s="5" t="s">
         <v>1113</v>
       </c>
-      <c r="C236" s="2"/>
-      <c r="D236" s="25"/>
+      <c r="C236" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D236" s="25">
+        <v>44076</v>
+      </c>
     </row>
     <row r="237" spans="1:4" customFormat="1">
       <c r="A237" s="2">
@@ -7754,8 +7795,12 @@
       <c r="B237" s="5" t="s">
         <v>1114</v>
       </c>
-      <c r="C237" s="2"/>
-      <c r="D237" s="25"/>
+      <c r="C237" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D237" s="25">
+        <v>44076</v>
+      </c>
     </row>
     <row r="238" spans="1:4" customFormat="1">
       <c r="A238" s="2">
@@ -7764,8 +7809,12 @@
       <c r="B238" s="5" t="s">
         <v>1115</v>
       </c>
-      <c r="C238" s="2"/>
-      <c r="D238" s="25"/>
+      <c r="C238" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D238" s="25">
+        <v>44076</v>
+      </c>
     </row>
     <row r="239" spans="1:4" customFormat="1">
       <c r="A239" s="2">
@@ -7774,8 +7823,12 @@
       <c r="B239" s="5" t="s">
         <v>1116</v>
       </c>
-      <c r="C239" s="2"/>
-      <c r="D239" s="25"/>
+      <c r="C239" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D239" s="25">
+        <v>44076</v>
+      </c>
     </row>
     <row r="240" spans="1:4" customFormat="1">
       <c r="A240" s="2">
@@ -7784,8 +7837,12 @@
       <c r="B240" s="5" t="s">
         <v>1117</v>
       </c>
-      <c r="C240" s="2"/>
-      <c r="D240" s="25"/>
+      <c r="C240" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D240" s="25">
+        <v>44076</v>
+      </c>
     </row>
     <row r="241" spans="1:4" customFormat="1">
       <c r="A241" s="2">
@@ -7794,8 +7851,12 @@
       <c r="B241" s="5" t="s">
         <v>1118</v>
       </c>
-      <c r="C241" s="2"/>
-      <c r="D241" s="25"/>
+      <c r="C241" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D241" s="25">
+        <v>44076</v>
+      </c>
     </row>
     <row r="242" spans="1:4" customFormat="1">
       <c r="A242" s="2">
@@ -7804,8 +7865,12 @@
       <c r="B242" s="5" t="s">
         <v>1119</v>
       </c>
-      <c r="C242" s="2"/>
-      <c r="D242" s="25"/>
+      <c r="C242" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D242" s="25">
+        <v>44076</v>
+      </c>
     </row>
     <row r="243" spans="1:4" customFormat="1">
       <c r="A243" s="2">
@@ -7814,8 +7879,12 @@
       <c r="B243" s="5" t="s">
         <v>1120</v>
       </c>
-      <c r="C243" s="2"/>
-      <c r="D243" s="25"/>
+      <c r="C243" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D243" s="25">
+        <v>44076</v>
+      </c>
     </row>
     <row r="244" spans="1:4" customFormat="1">
       <c r="A244" s="2">
@@ -7824,8 +7893,12 @@
       <c r="B244" s="5" t="s">
         <v>1121</v>
       </c>
-      <c r="C244" s="2"/>
-      <c r="D244" s="25"/>
+      <c r="C244" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D244" s="25">
+        <v>44076</v>
+      </c>
     </row>
     <row r="245" spans="1:4" customFormat="1">
       <c r="A245" s="2">
@@ -7834,8 +7907,12 @@
       <c r="B245" s="5" t="s">
         <v>1122</v>
       </c>
-      <c r="C245" s="2"/>
-      <c r="D245" s="25"/>
+      <c r="C245" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D245" s="25">
+        <v>44076</v>
+      </c>
     </row>
     <row r="246" spans="1:4" customFormat="1">
       <c r="A246" s="2">
@@ -7844,8 +7921,12 @@
       <c r="B246" s="5" t="s">
         <v>1123</v>
       </c>
-      <c r="C246" s="2"/>
-      <c r="D246" s="25"/>
+      <c r="C246" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D246" s="25">
+        <v>44076</v>
+      </c>
     </row>
     <row r="247" spans="1:4" customFormat="1">
       <c r="A247" s="2">
@@ -7854,8 +7935,12 @@
       <c r="B247" s="5" t="s">
         <v>1124</v>
       </c>
-      <c r="C247" s="2"/>
-      <c r="D247" s="25"/>
+      <c r="C247" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D247" s="25">
+        <v>44076</v>
+      </c>
     </row>
     <row r="248" spans="1:4" customFormat="1">
       <c r="A248" s="2">
@@ -7864,8 +7949,12 @@
       <c r="B248" s="5" t="s">
         <v>1125</v>
       </c>
-      <c r="C248" s="2"/>
-      <c r="D248" s="25"/>
+      <c r="C248" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D248" s="25">
+        <v>44076</v>
+      </c>
     </row>
     <row r="249" spans="1:4" customFormat="1">
       <c r="A249" s="2">
@@ -7874,8 +7963,12 @@
       <c r="B249" s="5" t="s">
         <v>1126</v>
       </c>
-      <c r="C249" s="2"/>
-      <c r="D249" s="25"/>
+      <c r="C249" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D249" s="25">
+        <v>44076</v>
+      </c>
     </row>
     <row r="250" spans="1:4" customFormat="1">
       <c r="A250" s="2">
@@ -11094,12 +11187,12 @@
       </c>
       <c r="H1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-01</v>
+        <v>截至2020-09-02</v>
       </c>
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" customFormat="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>1016</v>
       </c>
       <c r="B2" s="20">
@@ -11122,7 +11215,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" customFormat="1">
-      <c r="A3" s="28"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="20">
         <v>1.2</v>
       </c>
@@ -11143,7 +11236,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" customFormat="1">
-      <c r="A4" s="28"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="20" t="s">
         <v>261</v>
       </c>
@@ -11164,7 +11257,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" customFormat="1">
-      <c r="A5" s="28"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="20" t="s">
         <v>262</v>
       </c>
@@ -11178,7 +11271,7 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:9" customFormat="1">
-      <c r="A6" s="28"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="20" t="s">
         <v>263</v>
       </c>
@@ -11193,7 +11286,7 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:9" customFormat="1">
-      <c r="A7" s="28"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="20" t="s">
         <v>264</v>
       </c>
@@ -11208,7 +11301,7 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9" customFormat="1">
-      <c r="A8" s="28"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="20" t="s">
         <v>265</v>
       </c>
@@ -11222,7 +11315,7 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:9" customFormat="1">
-      <c r="A9" s="28"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="20" t="s">
         <v>266</v>
       </c>
@@ -11237,7 +11330,7 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:9" customFormat="1">
-      <c r="A10" s="28"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="20" t="s">
         <v>267</v>
       </c>
@@ -11251,7 +11344,7 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:9" customFormat="1">
-      <c r="A11" s="28"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="20" t="s">
         <v>268</v>
       </c>
@@ -11265,7 +11358,7 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:9" customFormat="1">
-      <c r="A12" s="28"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="20" t="s">
         <v>269</v>
       </c>
@@ -11279,7 +11372,7 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:9" customFormat="1">
-      <c r="A13" s="28"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="20" t="s">
         <v>270</v>
       </c>
@@ -11293,7 +11386,7 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:9" customFormat="1">
-      <c r="A14" s="28"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="20" t="s">
         <v>271</v>
       </c>
@@ -11307,7 +11400,7 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:9" customFormat="1">
-      <c r="A15" s="28"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="20">
         <v>1.3</v>
       </c>
@@ -11321,7 +11414,7 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:9" customFormat="1">
-      <c r="A16" s="28"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="20">
         <v>1.4</v>
       </c>
@@ -11335,7 +11428,7 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" customFormat="1">
-      <c r="A17" s="28"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="20">
         <v>1.5</v>
       </c>
@@ -11349,7 +11442,7 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" customFormat="1">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="31" t="s">
         <v>1017</v>
       </c>
       <c r="B18" s="20">
@@ -11365,7 +11458,7 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" customFormat="1">
-      <c r="A19" s="28"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="20" t="s">
         <v>272</v>
       </c>
@@ -11379,7 +11472,7 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" customFormat="1">
-      <c r="A20" s="28"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="20" t="s">
         <v>273</v>
       </c>
@@ -11393,7 +11486,7 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" customFormat="1">
-      <c r="A21" s="28"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="20" t="s">
         <v>274</v>
       </c>
@@ -11407,7 +11500,7 @@
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" customFormat="1">
-      <c r="A22" s="28"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="20">
         <v>2.2000000000000002</v>
       </c>
@@ -11421,7 +11514,7 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" customFormat="1">
-      <c r="A23" s="28"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="20">
         <v>2.2999999999999998</v>
       </c>
@@ -11435,7 +11528,7 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" customFormat="1">
-      <c r="A24" s="28"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="20">
         <v>2.4</v>
       </c>
@@ -11449,7 +11542,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" customFormat="1">
-      <c r="A25" s="28"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="20">
         <v>2.5</v>
       </c>
@@ -11463,7 +11556,7 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" customFormat="1">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="31" t="s">
         <v>1027</v>
       </c>
       <c r="B26" s="20">
@@ -11479,7 +11572,7 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" customFormat="1">
-      <c r="A27" s="28"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="20">
         <v>3.2</v>
       </c>
@@ -11493,7 +11586,7 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" customFormat="1">
-      <c r="A28" s="28"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="20">
         <v>3.3</v>
       </c>
@@ -11507,7 +11600,7 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" customFormat="1">
-      <c r="A29" s="28"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="20" t="s">
         <v>275</v>
       </c>
@@ -11521,7 +11614,7 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" customFormat="1">
-      <c r="A30" s="28"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="20" t="s">
         <v>276</v>
       </c>
@@ -11535,7 +11628,7 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" customFormat="1">
-      <c r="A31" s="28"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="20" t="s">
         <v>277</v>
       </c>
@@ -11549,7 +11642,7 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" customFormat="1">
-      <c r="A32" s="28"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="20" t="s">
         <v>278</v>
       </c>
@@ -11563,7 +11656,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" customFormat="1">
-      <c r="A33" s="28"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="20" t="s">
         <v>279</v>
       </c>
@@ -11577,7 +11670,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" customFormat="1">
-      <c r="A34" s="28"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="20">
         <v>3.4</v>
       </c>
@@ -11591,7 +11684,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" customFormat="1">
-      <c r="A35" s="28"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="20" t="s">
         <v>280</v>
       </c>
@@ -11605,7 +11698,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" customFormat="1">
-      <c r="A36" s="28"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="20" t="s">
         <v>281</v>
       </c>
@@ -11619,7 +11712,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" customFormat="1">
-      <c r="A37" s="28"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="20">
         <v>3.5</v>
       </c>
@@ -11633,7 +11726,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" customFormat="1">
-      <c r="A38" s="28"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="20" t="s">
         <v>282</v>
       </c>
@@ -11647,7 +11740,7 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" customFormat="1">
-      <c r="A39" s="28"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="20" t="s">
         <v>283</v>
       </c>
@@ -11661,7 +11754,7 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" customFormat="1">
-      <c r="A40" s="28"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="20" t="s">
         <v>284</v>
       </c>
@@ -11675,7 +11768,7 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" customFormat="1">
-      <c r="A41" s="28"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="20" t="s">
         <v>285</v>
       </c>
@@ -11689,7 +11782,7 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" customFormat="1">
-      <c r="A42" s="28"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="20" t="s">
         <v>286</v>
       </c>
@@ -11703,7 +11796,7 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" customFormat="1">
-      <c r="A43" s="28"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="20" t="s">
         <v>287</v>
       </c>
@@ -11717,7 +11810,7 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" customFormat="1">
-      <c r="A44" s="28"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="20" t="s">
         <v>288</v>
       </c>
@@ -11731,7 +11824,7 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" customFormat="1">
-      <c r="A45" s="28"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="20" t="s">
         <v>289</v>
       </c>
@@ -11745,7 +11838,7 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" customFormat="1">
-      <c r="A46" s="28"/>
+      <c r="A46" s="31"/>
       <c r="B46" s="20" t="s">
         <v>290</v>
       </c>
@@ -11759,7 +11852,7 @@
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" customFormat="1">
-      <c r="A47" s="28"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="20">
         <v>3.6</v>
       </c>
@@ -11773,7 +11866,7 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" customFormat="1">
-      <c r="A48" s="28"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="20" t="s">
         <v>291</v>
       </c>
@@ -11787,7 +11880,7 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" customFormat="1">
-      <c r="A49" s="28"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="20" t="s">
         <v>292</v>
       </c>
@@ -11801,7 +11894,7 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" customFormat="1">
-      <c r="A50" s="28"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="20" t="s">
         <v>293</v>
       </c>
@@ -11815,7 +11908,7 @@
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" customFormat="1">
-      <c r="A51" s="28"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="20" t="s">
         <v>294</v>
       </c>
@@ -11829,7 +11922,7 @@
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" customFormat="1">
-      <c r="A52" s="28"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="20" t="s">
         <v>295</v>
       </c>
@@ -11843,7 +11936,7 @@
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" customFormat="1">
-      <c r="A53" s="28"/>
+      <c r="A53" s="31"/>
       <c r="B53" s="20" t="s">
         <v>296</v>
       </c>
@@ -11857,7 +11950,7 @@
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" customFormat="1">
-      <c r="A54" s="28"/>
+      <c r="A54" s="31"/>
       <c r="B54" s="20" t="s">
         <v>297</v>
       </c>
@@ -11871,7 +11964,7 @@
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" customFormat="1">
-      <c r="A55" s="28"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="20" t="s">
         <v>298</v>
       </c>
@@ -11885,7 +11978,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" customFormat="1">
-      <c r="A56" s="28"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="20" t="s">
         <v>299</v>
       </c>
@@ -11899,7 +11992,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" customFormat="1">
-      <c r="A57" s="28"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="20">
         <v>3.7</v>
       </c>
@@ -11913,7 +12006,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" customFormat="1">
-      <c r="A58" s="28"/>
+      <c r="A58" s="31"/>
       <c r="B58" s="20" t="s">
         <v>300</v>
       </c>
@@ -11927,7 +12020,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" customFormat="1">
-      <c r="A59" s="28"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="20" t="s">
         <v>301</v>
       </c>
@@ -11941,7 +12034,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" customFormat="1">
-      <c r="A60" s="28"/>
+      <c r="A60" s="31"/>
       <c r="B60" s="20" t="s">
         <v>302</v>
       </c>
@@ -11955,7 +12048,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" customFormat="1">
-      <c r="A61" s="28"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="20">
         <v>3.8</v>
       </c>
@@ -11969,7 +12062,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" customFormat="1">
-      <c r="A62" s="28"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="20" t="s">
         <v>303</v>
       </c>
@@ -11983,7 +12076,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" customFormat="1">
-      <c r="A63" s="28"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="20" t="s">
         <v>304</v>
       </c>
@@ -11997,7 +12090,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" customFormat="1">
-      <c r="A64" s="28"/>
+      <c r="A64" s="31"/>
       <c r="B64" s="20" t="s">
         <v>305</v>
       </c>
@@ -12011,7 +12104,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" customFormat="1">
-      <c r="A65" s="28"/>
+      <c r="A65" s="31"/>
       <c r="B65" s="20" t="s">
         <v>306</v>
       </c>
@@ -12025,7 +12118,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" customFormat="1">
-      <c r="A66" s="28"/>
+      <c r="A66" s="31"/>
       <c r="B66" s="20" t="s">
         <v>307</v>
       </c>
@@ -12039,7 +12132,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" customFormat="1">
-      <c r="A67" s="28"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="20" t="s">
         <v>308</v>
       </c>
@@ -12053,7 +12146,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" customFormat="1">
-      <c r="A68" s="28"/>
+      <c r="A68" s="31"/>
       <c r="B68" s="20">
         <v>3.9</v>
       </c>
@@ -12067,7 +12160,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" customFormat="1">
-      <c r="A69" s="28"/>
+      <c r="A69" s="31"/>
       <c r="B69" s="20">
         <v>3.1</v>
       </c>
@@ -12081,7 +12174,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" customFormat="1">
-      <c r="A70" s="28"/>
+      <c r="A70" s="31"/>
       <c r="B70" s="20" t="s">
         <v>309</v>
       </c>
@@ -12095,7 +12188,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" customFormat="1">
-      <c r="A71" s="28"/>
+      <c r="A71" s="31"/>
       <c r="B71" s="20" t="s">
         <v>310</v>
       </c>
@@ -12109,7 +12202,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" customFormat="1">
-      <c r="A72" s="28"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="20" t="s">
         <v>311</v>
       </c>
@@ -12123,7 +12216,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" customFormat="1">
-      <c r="A73" s="28"/>
+      <c r="A73" s="31"/>
       <c r="B73" s="20" t="s">
         <v>312</v>
       </c>
@@ -12137,7 +12230,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" customFormat="1">
-      <c r="A74" s="28"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="20" t="s">
         <v>313</v>
       </c>
@@ -12151,7 +12244,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" customFormat="1">
-      <c r="A75" s="28"/>
+      <c r="A75" s="31"/>
       <c r="B75" s="20" t="s">
         <v>314</v>
       </c>
@@ -12165,7 +12258,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" customFormat="1">
-      <c r="A76" s="28"/>
+      <c r="A76" s="31"/>
       <c r="B76" s="20" t="s">
         <v>315</v>
       </c>
@@ -12179,7 +12272,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" customFormat="1">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="31" t="s">
         <v>1028</v>
       </c>
       <c r="B77" s="20">
@@ -12195,7 +12288,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" customFormat="1">
-      <c r="A78" s="28"/>
+      <c r="A78" s="31"/>
       <c r="B78" s="20" t="s">
         <v>316</v>
       </c>
@@ -12209,7 +12302,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" customFormat="1">
-      <c r="A79" s="28"/>
+      <c r="A79" s="31"/>
       <c r="B79" s="20" t="s">
         <v>317</v>
       </c>
@@ -12223,7 +12316,7 @@
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" customFormat="1">
-      <c r="A80" s="28"/>
+      <c r="A80" s="31"/>
       <c r="B80" s="20" t="s">
         <v>318</v>
       </c>
@@ -12237,7 +12330,7 @@
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" customFormat="1">
-      <c r="A81" s="28"/>
+      <c r="A81" s="31"/>
       <c r="B81" s="20" t="s">
         <v>319</v>
       </c>
@@ -12251,7 +12344,7 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" customFormat="1">
-      <c r="A82" s="28"/>
+      <c r="A82" s="31"/>
       <c r="B82" s="20">
         <v>4.2</v>
       </c>
@@ -12265,7 +12358,7 @@
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" customFormat="1">
-      <c r="A83" s="28"/>
+      <c r="A83" s="31"/>
       <c r="B83" s="20" t="s">
         <v>320</v>
       </c>
@@ -12279,7 +12372,7 @@
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" customFormat="1">
-      <c r="A84" s="28"/>
+      <c r="A84" s="31"/>
       <c r="B84" s="20" t="s">
         <v>321</v>
       </c>
@@ -12293,7 +12386,7 @@
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" customFormat="1">
-      <c r="A85" s="28"/>
+      <c r="A85" s="31"/>
       <c r="B85" s="20" t="s">
         <v>322</v>
       </c>
@@ -12307,7 +12400,7 @@
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" customFormat="1">
-      <c r="A86" s="28"/>
+      <c r="A86" s="31"/>
       <c r="B86" s="20">
         <v>4.3</v>
       </c>
@@ -12321,7 +12414,7 @@
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" customFormat="1">
-      <c r="A87" s="28"/>
+      <c r="A87" s="31"/>
       <c r="B87" s="20" t="s">
         <v>323</v>
       </c>
@@ -12335,7 +12428,7 @@
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" customFormat="1">
-      <c r="A88" s="28"/>
+      <c r="A88" s="31"/>
       <c r="B88" s="20" t="s">
         <v>324</v>
       </c>
@@ -12349,7 +12442,7 @@
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" customFormat="1">
-      <c r="A89" s="28"/>
+      <c r="A89" s="31"/>
       <c r="B89" s="20" t="s">
         <v>325</v>
       </c>
@@ -12363,7 +12456,7 @@
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" customFormat="1">
-      <c r="A90" s="28"/>
+      <c r="A90" s="31"/>
       <c r="B90" s="20" t="s">
         <v>326</v>
       </c>
@@ -12377,7 +12470,7 @@
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" customFormat="1">
-      <c r="A91" s="28"/>
+      <c r="A91" s="31"/>
       <c r="B91" s="20" t="s">
         <v>327</v>
       </c>
@@ -12391,7 +12484,7 @@
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" customFormat="1">
-      <c r="A92" s="28"/>
+      <c r="A92" s="31"/>
       <c r="B92" s="20" t="s">
         <v>328</v>
       </c>
@@ -12405,7 +12498,7 @@
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" customFormat="1">
-      <c r="A93" s="28"/>
+      <c r="A93" s="31"/>
       <c r="B93" s="20" t="s">
         <v>329</v>
       </c>
@@ -12419,7 +12512,7 @@
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" customFormat="1">
-      <c r="A94" s="28"/>
+      <c r="A94" s="31"/>
       <c r="B94" s="20" t="s">
         <v>330</v>
       </c>
@@ -12433,7 +12526,7 @@
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" customFormat="1">
-      <c r="A95" s="28"/>
+      <c r="A95" s="31"/>
       <c r="B95" s="20" t="s">
         <v>331</v>
       </c>
@@ -12447,7 +12540,7 @@
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" customFormat="1">
-      <c r="A96" s="28"/>
+      <c r="A96" s="31"/>
       <c r="B96" s="20">
         <v>4.4000000000000004</v>
       </c>
@@ -12461,7 +12554,7 @@
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" customFormat="1">
-      <c r="A97" s="28"/>
+      <c r="A97" s="31"/>
       <c r="B97" s="20" t="s">
         <v>332</v>
       </c>
@@ -12475,7 +12568,7 @@
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" customFormat="1">
-      <c r="A98" s="28"/>
+      <c r="A98" s="31"/>
       <c r="B98" s="20" t="s">
         <v>333</v>
       </c>
@@ -12489,7 +12582,7 @@
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" customFormat="1">
-      <c r="A99" s="28"/>
+      <c r="A99" s="31"/>
       <c r="B99" s="20" t="s">
         <v>334</v>
       </c>
@@ -12503,7 +12596,7 @@
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" customFormat="1">
-      <c r="A100" s="28"/>
+      <c r="A100" s="31"/>
       <c r="B100" s="20" t="s">
         <v>335</v>
       </c>
@@ -12517,7 +12610,7 @@
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" customFormat="1">
-      <c r="A101" s="28"/>
+      <c r="A101" s="31"/>
       <c r="B101" s="20" t="s">
         <v>336</v>
       </c>
@@ -12531,7 +12624,7 @@
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" customFormat="1">
-      <c r="A102" s="28"/>
+      <c r="A102" s="31"/>
       <c r="B102" s="20">
         <v>4.5</v>
       </c>
@@ -12545,7 +12638,7 @@
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" customFormat="1">
-      <c r="A103" s="28"/>
+      <c r="A103" s="31"/>
       <c r="B103" s="20">
         <v>4.5999999999999996</v>
       </c>
@@ -12559,7 +12652,7 @@
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" customFormat="1">
-      <c r="A104" s="28"/>
+      <c r="A104" s="31"/>
       <c r="B104" s="20" t="s">
         <v>337</v>
       </c>
@@ -12573,7 +12666,7 @@
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" customFormat="1">
-      <c r="A105" s="28"/>
+      <c r="A105" s="31"/>
       <c r="B105" s="20" t="s">
         <v>338</v>
       </c>
@@ -12587,7 +12680,7 @@
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" customFormat="1">
-      <c r="A106" s="28"/>
+      <c r="A106" s="31"/>
       <c r="B106" s="20" t="s">
         <v>339</v>
       </c>
@@ -12601,7 +12694,7 @@
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" customFormat="1">
-      <c r="A107" s="28"/>
+      <c r="A107" s="31"/>
       <c r="B107" s="20" t="s">
         <v>340</v>
       </c>
@@ -12615,7 +12708,7 @@
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" customFormat="1">
-      <c r="A108" s="28"/>
+      <c r="A108" s="31"/>
       <c r="B108" s="20" t="s">
         <v>341</v>
       </c>
@@ -12629,7 +12722,7 @@
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" customFormat="1">
-      <c r="A109" s="28"/>
+      <c r="A109" s="31"/>
       <c r="B109" s="20" t="s">
         <v>342</v>
       </c>
@@ -12643,7 +12736,7 @@
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" customFormat="1">
-      <c r="A110" s="28"/>
+      <c r="A110" s="31"/>
       <c r="B110" s="20" t="s">
         <v>343</v>
       </c>
@@ -12657,7 +12750,7 @@
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" customFormat="1">
-      <c r="A111" s="28"/>
+      <c r="A111" s="31"/>
       <c r="B111" s="20" t="s">
         <v>344</v>
       </c>
@@ -12671,7 +12764,7 @@
       <c r="F111" s="9"/>
     </row>
     <row r="112" spans="1:6" customFormat="1">
-      <c r="A112" s="28"/>
+      <c r="A112" s="31"/>
       <c r="B112" s="20">
         <v>4.7</v>
       </c>
@@ -12685,7 +12778,7 @@
       <c r="F112" s="9"/>
     </row>
     <row r="113" spans="1:8" customFormat="1">
-      <c r="A113" s="28"/>
+      <c r="A113" s="31"/>
       <c r="B113" s="20" t="s">
         <v>345</v>
       </c>
@@ -12699,7 +12792,7 @@
       <c r="F113" s="9"/>
     </row>
     <row r="114" spans="1:8" customFormat="1">
-      <c r="A114" s="28"/>
+      <c r="A114" s="31"/>
       <c r="B114" s="20" t="s">
         <v>346</v>
       </c>
@@ -12713,7 +12806,7 @@
       <c r="F114" s="9"/>
     </row>
     <row r="115" spans="1:8" customFormat="1">
-      <c r="A115" s="28"/>
+      <c r="A115" s="31"/>
       <c r="B115" s="20" t="s">
         <v>347</v>
       </c>
@@ -12727,7 +12820,7 @@
       <c r="F115" s="9"/>
     </row>
     <row r="116" spans="1:8" customFormat="1">
-      <c r="A116" s="28"/>
+      <c r="A116" s="31"/>
       <c r="B116" s="20" t="s">
         <v>348</v>
       </c>
@@ -12742,7 +12835,7 @@
       <c r="H116" s="7"/>
     </row>
     <row r="117" spans="1:8" customFormat="1">
-      <c r="A117" s="28"/>
+      <c r="A117" s="31"/>
       <c r="B117" s="20">
         <v>4.8</v>
       </c>
@@ -12757,7 +12850,7 @@
       <c r="H117" s="7"/>
     </row>
     <row r="118" spans="1:8" customFormat="1">
-      <c r="A118" s="28"/>
+      <c r="A118" s="31"/>
       <c r="B118" s="20" t="s">
         <v>349</v>
       </c>
@@ -12772,7 +12865,7 @@
       <c r="H118" s="7"/>
     </row>
     <row r="119" spans="1:8" customFormat="1">
-      <c r="A119" s="28"/>
+      <c r="A119" s="31"/>
       <c r="B119" s="20">
         <v>4.9000000000000004</v>
       </c>
@@ -12787,7 +12880,7 @@
       <c r="H119" s="7"/>
     </row>
     <row r="120" spans="1:8" customFormat="1">
-      <c r="A120" s="28"/>
+      <c r="A120" s="31"/>
       <c r="B120" s="20" t="s">
         <v>350</v>
       </c>
@@ -12802,7 +12895,7 @@
       <c r="H120" s="7"/>
     </row>
     <row r="121" spans="1:8" customFormat="1">
-      <c r="A121" s="28"/>
+      <c r="A121" s="31"/>
       <c r="B121" s="20" t="s">
         <v>351</v>
       </c>
@@ -12817,7 +12910,7 @@
       <c r="H121" s="7"/>
     </row>
     <row r="122" spans="1:8" customFormat="1">
-      <c r="A122" s="28"/>
+      <c r="A122" s="31"/>
       <c r="B122" s="20" t="s">
         <v>352</v>
       </c>
@@ -12832,7 +12925,7 @@
       <c r="H122" s="7"/>
     </row>
     <row r="123" spans="1:8" customFormat="1">
-      <c r="A123" s="28"/>
+      <c r="A123" s="31"/>
       <c r="B123" s="20" t="s">
         <v>353</v>
       </c>
@@ -12847,7 +12940,7 @@
       <c r="H123" s="7"/>
     </row>
     <row r="124" spans="1:8" customFormat="1">
-      <c r="A124" s="28"/>
+      <c r="A124" s="31"/>
       <c r="B124" s="20" t="s">
         <v>354</v>
       </c>
@@ -12862,7 +12955,7 @@
       <c r="H124" s="7"/>
     </row>
     <row r="125" spans="1:8" customFormat="1">
-      <c r="A125" s="28"/>
+      <c r="A125" s="31"/>
       <c r="B125" s="20" t="s">
         <v>355</v>
       </c>
@@ -12877,7 +12970,7 @@
       <c r="H125" s="7"/>
     </row>
     <row r="126" spans="1:8" customFormat="1">
-      <c r="A126" s="28"/>
+      <c r="A126" s="31"/>
       <c r="B126" s="20" t="s">
         <v>356</v>
       </c>
@@ -12892,7 +12985,7 @@
       <c r="H126" s="7"/>
     </row>
     <row r="127" spans="1:8" customFormat="1">
-      <c r="A127" s="28"/>
+      <c r="A127" s="31"/>
       <c r="B127" s="21">
         <v>4.0999999999999996</v>
       </c>
@@ -12907,7 +13000,7 @@
       <c r="H127" s="7"/>
     </row>
     <row r="128" spans="1:8" customFormat="1">
-      <c r="A128" s="28" t="s">
+      <c r="A128" s="31" t="s">
         <v>1029</v>
       </c>
       <c r="B128" s="20">
@@ -12923,7 +13016,7 @@
       <c r="F128" s="6"/>
     </row>
     <row r="129" spans="1:6" customFormat="1">
-      <c r="A129" s="28"/>
+      <c r="A129" s="31"/>
       <c r="B129" s="20" t="s">
         <v>357</v>
       </c>
@@ -12937,7 +13030,7 @@
       <c r="F129" s="6"/>
     </row>
     <row r="130" spans="1:6" customFormat="1">
-      <c r="A130" s="28"/>
+      <c r="A130" s="31"/>
       <c r="B130" s="20" t="s">
         <v>358</v>
       </c>
@@ -12951,7 +13044,7 @@
       <c r="F130" s="6"/>
     </row>
     <row r="131" spans="1:6" customFormat="1">
-      <c r="A131" s="28"/>
+      <c r="A131" s="31"/>
       <c r="B131" s="20" t="s">
         <v>359</v>
       </c>
@@ -12965,7 +13058,7 @@
       <c r="F131" s="6"/>
     </row>
     <row r="132" spans="1:6" customFormat="1">
-      <c r="A132" s="28"/>
+      <c r="A132" s="31"/>
       <c r="B132" s="20" t="s">
         <v>360</v>
       </c>
@@ -12979,7 +13072,7 @@
       <c r="F132" s="6"/>
     </row>
     <row r="133" spans="1:6" customFormat="1">
-      <c r="A133" s="28"/>
+      <c r="A133" s="31"/>
       <c r="B133" s="20" t="s">
         <v>361</v>
       </c>
@@ -12993,7 +13086,7 @@
       <c r="F133" s="6"/>
     </row>
     <row r="134" spans="1:6" customFormat="1">
-      <c r="A134" s="28"/>
+      <c r="A134" s="31"/>
       <c r="B134" s="20" t="s">
         <v>362</v>
       </c>
@@ -13007,7 +13100,7 @@
       <c r="F134" s="6"/>
     </row>
     <row r="135" spans="1:6" customFormat="1">
-      <c r="A135" s="28"/>
+      <c r="A135" s="31"/>
       <c r="B135" s="20" t="s">
         <v>363</v>
       </c>
@@ -13021,7 +13114,7 @@
       <c r="F135" s="6"/>
     </row>
     <row r="136" spans="1:6" customFormat="1">
-      <c r="A136" s="28"/>
+      <c r="A136" s="31"/>
       <c r="B136" s="20" t="s">
         <v>364</v>
       </c>
@@ -13035,7 +13128,7 @@
       <c r="F136" s="6"/>
     </row>
     <row r="137" spans="1:6" customFormat="1">
-      <c r="A137" s="28"/>
+      <c r="A137" s="31"/>
       <c r="B137" s="20" t="s">
         <v>365</v>
       </c>
@@ -13049,7 +13142,7 @@
       <c r="F137" s="6"/>
     </row>
     <row r="138" spans="1:6" customFormat="1">
-      <c r="A138" s="28"/>
+      <c r="A138" s="31"/>
       <c r="B138" s="20" t="s">
         <v>366</v>
       </c>
@@ -13063,7 +13156,7 @@
       <c r="F138" s="6"/>
     </row>
     <row r="139" spans="1:6" customFormat="1">
-      <c r="A139" s="28"/>
+      <c r="A139" s="31"/>
       <c r="B139" s="20">
         <v>5.2</v>
       </c>
@@ -13077,7 +13170,7 @@
       <c r="F139" s="6"/>
     </row>
     <row r="140" spans="1:6" customFormat="1">
-      <c r="A140" s="28"/>
+      <c r="A140" s="31"/>
       <c r="B140" s="20" t="s">
         <v>367</v>
       </c>
@@ -13091,7 +13184,7 @@
       <c r="F140" s="6"/>
     </row>
     <row r="141" spans="1:6" customFormat="1">
-      <c r="A141" s="28"/>
+      <c r="A141" s="31"/>
       <c r="B141" s="20" t="s">
         <v>368</v>
       </c>
@@ -13105,7 +13198,7 @@
       <c r="F141" s="6"/>
     </row>
     <row r="142" spans="1:6" customFormat="1">
-      <c r="A142" s="28"/>
+      <c r="A142" s="31"/>
       <c r="B142" s="20" t="s">
         <v>369</v>
       </c>
@@ -13119,7 +13212,7 @@
       <c r="F142" s="6"/>
     </row>
     <row r="143" spans="1:6" customFormat="1">
-      <c r="A143" s="28"/>
+      <c r="A143" s="31"/>
       <c r="B143" s="20" t="s">
         <v>370</v>
       </c>
@@ -13133,7 +13226,7 @@
       <c r="F143" s="6"/>
     </row>
     <row r="144" spans="1:6" customFormat="1">
-      <c r="A144" s="28"/>
+      <c r="A144" s="31"/>
       <c r="B144" s="20">
         <v>5.3</v>
       </c>
@@ -13147,7 +13240,7 @@
       <c r="F144" s="6"/>
     </row>
     <row r="145" spans="1:6" customFormat="1">
-      <c r="A145" s="28"/>
+      <c r="A145" s="31"/>
       <c r="B145" s="20" t="s">
         <v>371</v>
       </c>
@@ -13161,7 +13254,7 @@
       <c r="F145" s="6"/>
     </row>
     <row r="146" spans="1:6" customFormat="1">
-      <c r="A146" s="28"/>
+      <c r="A146" s="31"/>
       <c r="B146" s="20" t="s">
         <v>372</v>
       </c>
@@ -13175,7 +13268,7 @@
       <c r="F146" s="6"/>
     </row>
     <row r="147" spans="1:6" customFormat="1">
-      <c r="A147" s="28"/>
+      <c r="A147" s="31"/>
       <c r="B147" s="20">
         <v>5.4</v>
       </c>
@@ -13189,7 +13282,7 @@
       <c r="F147" s="6"/>
     </row>
     <row r="148" spans="1:6" customFormat="1">
-      <c r="A148" s="28"/>
+      <c r="A148" s="31"/>
       <c r="B148" s="20">
         <v>5.5</v>
       </c>
@@ -13203,7 +13296,7 @@
       <c r="F148" s="6"/>
     </row>
     <row r="149" spans="1:6" customFormat="1">
-      <c r="A149" s="28"/>
+      <c r="A149" s="31"/>
       <c r="B149" s="20">
         <v>5.6</v>
       </c>
@@ -13217,7 +13310,7 @@
       <c r="F149" s="6"/>
     </row>
     <row r="150" spans="1:6" customFormat="1">
-      <c r="A150" s="28"/>
+      <c r="A150" s="31"/>
       <c r="B150" s="20">
         <v>5.7</v>
       </c>
@@ -13231,7 +13324,7 @@
       <c r="F150" s="6"/>
     </row>
     <row r="151" spans="1:6" customFormat="1">
-      <c r="A151" s="28"/>
+      <c r="A151" s="31"/>
       <c r="B151" s="20" t="s">
         <v>373</v>
       </c>
@@ -13245,7 +13338,7 @@
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="1:6" customFormat="1">
-      <c r="A152" s="28"/>
+      <c r="A152" s="31"/>
       <c r="B152" s="20" t="s">
         <v>374</v>
       </c>
@@ -13259,7 +13352,7 @@
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:6" customFormat="1">
-      <c r="A153" s="28"/>
+      <c r="A153" s="31"/>
       <c r="B153" s="20" t="s">
         <v>375</v>
       </c>
@@ -13273,7 +13366,7 @@
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" customFormat="1">
-      <c r="A154" s="28"/>
+      <c r="A154" s="31"/>
       <c r="B154" s="20" t="s">
         <v>376</v>
       </c>
@@ -13287,7 +13380,7 @@
       <c r="F154" s="2"/>
     </row>
     <row r="155" spans="1:6" customFormat="1">
-      <c r="A155" s="28"/>
+      <c r="A155" s="31"/>
       <c r="B155" s="20" t="s">
         <v>377</v>
       </c>
@@ -13301,7 +13394,7 @@
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" customFormat="1">
-      <c r="A156" s="28"/>
+      <c r="A156" s="31"/>
       <c r="B156" s="20" t="s">
         <v>378</v>
       </c>
@@ -13315,7 +13408,7 @@
       <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:6" customFormat="1">
-      <c r="A157" s="28"/>
+      <c r="A157" s="31"/>
       <c r="B157" s="20">
         <v>5.8</v>
       </c>
@@ -13329,7 +13422,7 @@
       <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:6" customFormat="1">
-      <c r="A158" s="28" t="s">
+      <c r="A158" s="31" t="s">
         <v>1026</v>
       </c>
       <c r="B158" s="20">
@@ -13345,7 +13438,7 @@
       <c r="F158" s="2"/>
     </row>
     <row r="159" spans="1:6" customFormat="1">
-      <c r="A159" s="28"/>
+      <c r="A159" s="31"/>
       <c r="B159" s="20" t="s">
         <v>379</v>
       </c>
@@ -13359,7 +13452,7 @@
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" customFormat="1">
-      <c r="A160" s="28"/>
+      <c r="A160" s="31"/>
       <c r="B160" s="20" t="s">
         <v>380</v>
       </c>
@@ -13373,7 +13466,7 @@
       <c r="F160" s="2"/>
     </row>
     <row r="161" spans="1:6" customFormat="1">
-      <c r="A161" s="28"/>
+      <c r="A161" s="31"/>
       <c r="B161" s="20" t="s">
         <v>381</v>
       </c>
@@ -13387,7 +13480,7 @@
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" customFormat="1">
-      <c r="A162" s="28"/>
+      <c r="A162" s="31"/>
       <c r="B162" s="20" t="s">
         <v>382</v>
       </c>
@@ -13401,7 +13494,7 @@
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:6" customFormat="1">
-      <c r="A163" s="28"/>
+      <c r="A163" s="31"/>
       <c r="B163" s="20" t="s">
         <v>383</v>
       </c>
@@ -13415,7 +13508,7 @@
       <c r="F163" s="2"/>
     </row>
     <row r="164" spans="1:6" customFormat="1">
-      <c r="A164" s="28"/>
+      <c r="A164" s="31"/>
       <c r="B164" s="20" t="s">
         <v>384</v>
       </c>
@@ -13429,7 +13522,7 @@
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" customFormat="1">
-      <c r="A165" s="28"/>
+      <c r="A165" s="31"/>
       <c r="B165" s="20">
         <v>6.2</v>
       </c>
@@ -13443,7 +13536,7 @@
       <c r="F165" s="2"/>
     </row>
     <row r="166" spans="1:6" customFormat="1">
-      <c r="A166" s="28"/>
+      <c r="A166" s="31"/>
       <c r="B166" s="20" t="s">
         <v>385</v>
       </c>
@@ -13457,7 +13550,7 @@
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" customFormat="1">
-      <c r="A167" s="28"/>
+      <c r="A167" s="31"/>
       <c r="B167" s="20" t="s">
         <v>386</v>
       </c>
@@ -13471,7 +13564,7 @@
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="1:6" customFormat="1">
-      <c r="A168" s="28"/>
+      <c r="A168" s="31"/>
       <c r="B168" s="20" t="s">
         <v>387</v>
       </c>
@@ -13485,7 +13578,7 @@
       <c r="F168" s="2"/>
     </row>
     <row r="169" spans="1:6" customFormat="1">
-      <c r="A169" s="28"/>
+      <c r="A169" s="31"/>
       <c r="B169" s="20">
         <v>6.3</v>
       </c>
@@ -13499,7 +13592,7 @@
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" customFormat="1">
-      <c r="A170" s="28"/>
+      <c r="A170" s="31"/>
       <c r="B170" s="20" t="s">
         <v>388</v>
       </c>
@@ -13513,7 +13606,7 @@
       <c r="F170" s="2"/>
     </row>
     <row r="171" spans="1:6" customFormat="1">
-      <c r="A171" s="28"/>
+      <c r="A171" s="31"/>
       <c r="B171" s="20" t="s">
         <v>389</v>
       </c>
@@ -13527,7 +13620,7 @@
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" customFormat="1">
-      <c r="A172" s="28"/>
+      <c r="A172" s="31"/>
       <c r="B172" s="20" t="s">
         <v>390</v>
       </c>
@@ -13541,7 +13634,7 @@
       <c r="F172" s="2"/>
     </row>
     <row r="173" spans="1:6" customFormat="1">
-      <c r="A173" s="28"/>
+      <c r="A173" s="31"/>
       <c r="B173" s="20" t="s">
         <v>391</v>
       </c>
@@ -13555,7 +13648,7 @@
       <c r="F173" s="2"/>
     </row>
     <row r="174" spans="1:6" customFormat="1">
-      <c r="A174" s="28"/>
+      <c r="A174" s="31"/>
       <c r="B174" s="20" t="s">
         <v>392</v>
       </c>
@@ -13569,7 +13662,7 @@
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" customFormat="1">
-      <c r="A175" s="28"/>
+      <c r="A175" s="31"/>
       <c r="B175" s="20" t="s">
         <v>393</v>
       </c>
@@ -13583,7 +13676,7 @@
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="1:6" customFormat="1">
-      <c r="A176" s="28"/>
+      <c r="A176" s="31"/>
       <c r="B176" s="20" t="s">
         <v>394</v>
       </c>
@@ -13597,7 +13690,7 @@
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" customFormat="1">
-      <c r="A177" s="28"/>
+      <c r="A177" s="31"/>
       <c r="B177" s="20" t="s">
         <v>395</v>
       </c>
@@ -13611,7 +13704,7 @@
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:6" customFormat="1">
-      <c r="A178" s="28"/>
+      <c r="A178" s="31"/>
       <c r="B178" s="20">
         <v>6.4</v>
       </c>
@@ -13625,7 +13718,7 @@
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:6" customFormat="1">
-      <c r="A179" s="28"/>
+      <c r="A179" s="31"/>
       <c r="B179" s="20" t="s">
         <v>396</v>
       </c>
@@ -13639,7 +13732,7 @@
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" customFormat="1">
-      <c r="A180" s="28"/>
+      <c r="A180" s="31"/>
       <c r="B180" s="20" t="s">
         <v>397</v>
       </c>
@@ -13653,7 +13746,7 @@
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6" customFormat="1">
-      <c r="A181" s="28"/>
+      <c r="A181" s="31"/>
       <c r="B181" s="20" t="s">
         <v>398</v>
       </c>
@@ -13667,7 +13760,7 @@
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" customFormat="1">
-      <c r="A182" s="28"/>
+      <c r="A182" s="31"/>
       <c r="B182" s="20" t="s">
         <v>399</v>
       </c>
@@ -13681,7 +13774,7 @@
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:6" customFormat="1">
-      <c r="A183" s="28"/>
+      <c r="A183" s="31"/>
       <c r="B183" s="20" t="s">
         <v>400</v>
       </c>
@@ -13695,7 +13788,7 @@
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6" customFormat="1">
-      <c r="A184" s="28"/>
+      <c r="A184" s="31"/>
       <c r="B184" s="20" t="s">
         <v>401</v>
       </c>
@@ -13709,7 +13802,7 @@
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:6" customFormat="1">
-      <c r="A185" s="28"/>
+      <c r="A185" s="31"/>
       <c r="B185" s="20" t="s">
         <v>402</v>
       </c>
@@ -13723,7 +13816,7 @@
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" customFormat="1">
-      <c r="A186" s="28"/>
+      <c r="A186" s="31"/>
       <c r="B186" s="20">
         <v>6.5</v>
       </c>
@@ -13737,7 +13830,7 @@
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="1:6" customFormat="1">
-      <c r="A187" s="28"/>
+      <c r="A187" s="31"/>
       <c r="B187" s="20" t="s">
         <v>403</v>
       </c>
@@ -13751,7 +13844,7 @@
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" customFormat="1">
-      <c r="A188" s="28"/>
+      <c r="A188" s="31"/>
       <c r="B188" s="20" t="s">
         <v>404</v>
       </c>
@@ -13765,7 +13858,7 @@
       <c r="F188" s="2"/>
     </row>
     <row r="189" spans="1:6" customFormat="1">
-      <c r="A189" s="28"/>
+      <c r="A189" s="31"/>
       <c r="B189" s="20" t="s">
         <v>405</v>
       </c>
@@ -13779,7 +13872,7 @@
       <c r="F189" s="2"/>
     </row>
     <row r="190" spans="1:6" customFormat="1">
-      <c r="A190" s="28" t="s">
+      <c r="A190" s="31" t="s">
         <v>1025</v>
       </c>
       <c r="B190" s="20">
@@ -13795,7 +13888,7 @@
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" customFormat="1">
-      <c r="A191" s="28"/>
+      <c r="A191" s="31"/>
       <c r="B191" s="20" t="s">
         <v>406</v>
       </c>
@@ -13809,7 +13902,7 @@
       <c r="F191" s="2"/>
     </row>
     <row r="192" spans="1:6" customFormat="1">
-      <c r="A192" s="28"/>
+      <c r="A192" s="31"/>
       <c r="B192" s="20" t="s">
         <v>407</v>
       </c>
@@ -13823,7 +13916,7 @@
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" customFormat="1">
-      <c r="A193" s="28"/>
+      <c r="A193" s="31"/>
       <c r="B193" s="20" t="s">
         <v>408</v>
       </c>
@@ -13837,7 +13930,7 @@
       <c r="F193" s="2"/>
     </row>
     <row r="194" spans="1:6" customFormat="1">
-      <c r="A194" s="28"/>
+      <c r="A194" s="31"/>
       <c r="B194" s="20" t="s">
         <v>409</v>
       </c>
@@ -13851,7 +13944,7 @@
       <c r="F194" s="2"/>
     </row>
     <row r="195" spans="1:6" customFormat="1">
-      <c r="A195" s="28"/>
+      <c r="A195" s="31"/>
       <c r="B195" s="20">
         <v>7.2</v>
       </c>
@@ -13865,7 +13958,7 @@
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" customFormat="1">
-      <c r="A196" s="28"/>
+      <c r="A196" s="31"/>
       <c r="B196" s="20" t="s">
         <v>410</v>
       </c>
@@ -13879,7 +13972,7 @@
       <c r="F196" s="2"/>
     </row>
     <row r="197" spans="1:6" customFormat="1">
-      <c r="A197" s="28"/>
+      <c r="A197" s="31"/>
       <c r="B197" s="20" t="s">
         <v>411</v>
       </c>
@@ -13893,7 +13986,7 @@
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" customFormat="1">
-      <c r="A198" s="28"/>
+      <c r="A198" s="31"/>
       <c r="B198" s="20" t="s">
         <v>412</v>
       </c>
@@ -13907,7 +14000,7 @@
       <c r="F198" s="2"/>
     </row>
     <row r="199" spans="1:6" customFormat="1">
-      <c r="A199" s="28"/>
+      <c r="A199" s="31"/>
       <c r="B199" s="20" t="s">
         <v>413</v>
       </c>
@@ -13921,7 +14014,7 @@
       <c r="F199" s="2"/>
     </row>
     <row r="200" spans="1:6" customFormat="1">
-      <c r="A200" s="28"/>
+      <c r="A200" s="31"/>
       <c r="B200" s="20" t="s">
         <v>414</v>
       </c>
@@ -13935,7 +14028,7 @@
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" customFormat="1">
-      <c r="A201" s="28"/>
+      <c r="A201" s="31"/>
       <c r="B201" s="20" t="s">
         <v>415</v>
       </c>
@@ -13949,7 +14042,7 @@
       <c r="F201" s="2"/>
     </row>
     <row r="202" spans="1:6" customFormat="1">
-      <c r="A202" s="28"/>
+      <c r="A202" s="31"/>
       <c r="B202" s="20">
         <v>7.3</v>
       </c>
@@ -13963,7 +14056,7 @@
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:6" customFormat="1">
-      <c r="A203" s="28"/>
+      <c r="A203" s="31"/>
       <c r="B203" s="20">
         <v>7.4</v>
       </c>
@@ -13977,7 +14070,7 @@
       <c r="F203" s="2"/>
     </row>
     <row r="204" spans="1:6" customFormat="1">
-      <c r="A204" s="28"/>
+      <c r="A204" s="31"/>
       <c r="B204" s="20" t="s">
         <v>416</v>
       </c>
@@ -13991,7 +14084,7 @@
       <c r="F204" s="2"/>
     </row>
     <row r="205" spans="1:6" customFormat="1">
-      <c r="A205" s="28"/>
+      <c r="A205" s="31"/>
       <c r="B205" s="20" t="s">
         <v>417</v>
       </c>
@@ -14005,7 +14098,7 @@
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" customFormat="1">
-      <c r="A206" s="28"/>
+      <c r="A206" s="31"/>
       <c r="B206" s="20" t="s">
         <v>418</v>
       </c>
@@ -14019,7 +14112,7 @@
       <c r="F206" s="2"/>
     </row>
     <row r="207" spans="1:6" customFormat="1">
-      <c r="A207" s="28"/>
+      <c r="A207" s="31"/>
       <c r="B207" s="20" t="s">
         <v>419</v>
       </c>
@@ -14033,7 +14126,7 @@
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" customFormat="1">
-      <c r="A208" s="28"/>
+      <c r="A208" s="31"/>
       <c r="B208" s="20">
         <v>7.5</v>
       </c>
@@ -14047,7 +14140,7 @@
       <c r="F208" s="2"/>
     </row>
     <row r="209" spans="1:6" customFormat="1">
-      <c r="A209" s="28"/>
+      <c r="A209" s="31"/>
       <c r="B209" s="20" t="s">
         <v>420</v>
       </c>
@@ -14061,7 +14154,7 @@
       <c r="F209" s="2"/>
     </row>
     <row r="210" spans="1:6" customFormat="1">
-      <c r="A210" s="28"/>
+      <c r="A210" s="31"/>
       <c r="B210" s="20" t="s">
         <v>421</v>
       </c>
@@ -14075,7 +14168,7 @@
       <c r="F210" s="2"/>
     </row>
     <row r="211" spans="1:6" customFormat="1">
-      <c r="A211" s="28"/>
+      <c r="A211" s="31"/>
       <c r="B211" s="20" t="s">
         <v>422</v>
       </c>
@@ -14089,7 +14182,7 @@
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" customFormat="1">
-      <c r="A212" s="28"/>
+      <c r="A212" s="31"/>
       <c r="B212" s="20" t="s">
         <v>423</v>
       </c>
@@ -14103,7 +14196,7 @@
       <c r="F212" s="2"/>
     </row>
     <row r="213" spans="1:6" customFormat="1">
-      <c r="A213" s="28"/>
+      <c r="A213" s="31"/>
       <c r="B213" s="20" t="s">
         <v>424</v>
       </c>
@@ -14117,7 +14210,7 @@
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" customFormat="1">
-      <c r="A214" s="28"/>
+      <c r="A214" s="31"/>
       <c r="B214" s="20" t="s">
         <v>425</v>
       </c>
@@ -14131,7 +14224,7 @@
       <c r="F214" s="2"/>
     </row>
     <row r="215" spans="1:6" customFormat="1">
-      <c r="A215" s="28"/>
+      <c r="A215" s="31"/>
       <c r="B215" s="20" t="s">
         <v>426</v>
       </c>
@@ -14145,7 +14238,7 @@
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:6" customFormat="1">
-      <c r="A216" s="28"/>
+      <c r="A216" s="31"/>
       <c r="B216" s="20" t="s">
         <v>427</v>
       </c>
@@ -14159,7 +14252,7 @@
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" customFormat="1">
-      <c r="A217" s="28"/>
+      <c r="A217" s="31"/>
       <c r="B217" s="20">
         <v>7.6</v>
       </c>
@@ -14173,7 +14266,7 @@
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:6" customFormat="1">
-      <c r="A218" s="28" t="s">
+      <c r="A218" s="31" t="s">
         <v>1024</v>
       </c>
       <c r="B218" s="20">
@@ -14189,7 +14282,7 @@
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" customFormat="1">
-      <c r="A219" s="28"/>
+      <c r="A219" s="31"/>
       <c r="B219" s="20" t="s">
         <v>428</v>
       </c>
@@ -14203,7 +14296,7 @@
       <c r="F219" s="2"/>
     </row>
     <row r="220" spans="1:6" customFormat="1">
-      <c r="A220" s="28"/>
+      <c r="A220" s="31"/>
       <c r="B220" s="20" t="s">
         <v>429</v>
       </c>
@@ -14217,7 +14310,7 @@
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="1:6" customFormat="1">
-      <c r="A221" s="28"/>
+      <c r="A221" s="31"/>
       <c r="B221" s="20">
         <v>8.1999999999999993</v>
       </c>
@@ -14231,7 +14324,7 @@
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" customFormat="1">
-      <c r="A222" s="28"/>
+      <c r="A222" s="31"/>
       <c r="B222" s="20">
         <v>8.3000000000000007</v>
       </c>
@@ -14245,7 +14338,7 @@
       <c r="F222" s="2"/>
     </row>
     <row r="223" spans="1:6" customFormat="1">
-      <c r="A223" s="28"/>
+      <c r="A223" s="31"/>
       <c r="B223" s="20">
         <v>8.4</v>
       </c>
@@ -14259,7 +14352,7 @@
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" customFormat="1">
-      <c r="A224" s="28"/>
+      <c r="A224" s="31"/>
       <c r="B224" s="20">
         <v>8.5</v>
       </c>
@@ -14273,7 +14366,7 @@
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:6" customFormat="1">
-      <c r="A225" s="28"/>
+      <c r="A225" s="31"/>
       <c r="B225" s="20" t="s">
         <v>430</v>
       </c>
@@ -14287,7 +14380,7 @@
       <c r="F225" s="2"/>
     </row>
     <row r="226" spans="1:6" customFormat="1">
-      <c r="A226" s="28"/>
+      <c r="A226" s="31"/>
       <c r="B226" s="20" t="s">
         <v>431</v>
       </c>
@@ -14301,7 +14394,7 @@
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" customFormat="1">
-      <c r="A227" s="28"/>
+      <c r="A227" s="31"/>
       <c r="B227" s="20" t="s">
         <v>432</v>
       </c>
@@ -14315,7 +14408,7 @@
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:6" customFormat="1">
-      <c r="A228" s="28"/>
+      <c r="A228" s="31"/>
       <c r="B228" s="20" t="s">
         <v>433</v>
       </c>
@@ -14329,7 +14422,7 @@
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" customFormat="1">
-      <c r="A229" s="28"/>
+      <c r="A229" s="31"/>
       <c r="B229" s="20">
         <v>8.6</v>
       </c>
@@ -14343,7 +14436,7 @@
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="1:6" customFormat="1">
-      <c r="A230" s="28"/>
+      <c r="A230" s="31"/>
       <c r="B230" s="20" t="s">
         <v>434</v>
       </c>
@@ -14357,7 +14450,7 @@
       <c r="F230" s="2"/>
     </row>
     <row r="231" spans="1:6" customFormat="1">
-      <c r="A231" s="28"/>
+      <c r="A231" s="31"/>
       <c r="B231" s="20" t="s">
         <v>435</v>
       </c>
@@ -14371,7 +14464,7 @@
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" customFormat="1">
-      <c r="A232" s="28"/>
+      <c r="A232" s="31"/>
       <c r="B232" s="20" t="s">
         <v>436</v>
       </c>
@@ -14385,7 +14478,7 @@
       <c r="F232" s="2"/>
     </row>
     <row r="233" spans="1:6" customFormat="1">
-      <c r="A233" s="28"/>
+      <c r="A233" s="31"/>
       <c r="B233" s="20" t="s">
         <v>437</v>
       </c>
@@ -14399,7 +14492,7 @@
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" customFormat="1">
-      <c r="A234" s="28"/>
+      <c r="A234" s="31"/>
       <c r="B234" s="20" t="s">
         <v>438</v>
       </c>
@@ -14413,7 +14506,7 @@
       <c r="F234" s="2"/>
     </row>
     <row r="235" spans="1:6" customFormat="1">
-      <c r="A235" s="28"/>
+      <c r="A235" s="31"/>
       <c r="B235" s="20" t="s">
         <v>439</v>
       </c>
@@ -14427,7 +14520,7 @@
       <c r="F235" s="2"/>
     </row>
     <row r="236" spans="1:6" customFormat="1">
-      <c r="A236" s="28"/>
+      <c r="A236" s="31"/>
       <c r="B236" s="20" t="s">
         <v>440</v>
       </c>
@@ -14441,7 +14534,7 @@
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:6" customFormat="1">
-      <c r="A237" s="28"/>
+      <c r="A237" s="31"/>
       <c r="B237" s="20" t="s">
         <v>441</v>
       </c>
@@ -14455,7 +14548,7 @@
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" customFormat="1">
-      <c r="A238" s="28"/>
+      <c r="A238" s="31"/>
       <c r="B238" s="20" t="s">
         <v>442</v>
       </c>
@@ -14469,7 +14562,7 @@
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:6" customFormat="1">
-      <c r="A239" s="28"/>
+      <c r="A239" s="31"/>
       <c r="B239" s="20" t="s">
         <v>443</v>
       </c>
@@ -14483,7 +14576,7 @@
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" customFormat="1">
-      <c r="A240" s="28"/>
+      <c r="A240" s="31"/>
       <c r="B240" s="20">
         <v>8.6999999999999993</v>
       </c>
@@ -14497,7 +14590,7 @@
       <c r="F240" s="2"/>
     </row>
     <row r="241" spans="1:6" customFormat="1">
-      <c r="A241" s="28"/>
+      <c r="A241" s="31"/>
       <c r="B241" s="20">
         <v>8.8000000000000007</v>
       </c>
@@ -14511,7 +14604,7 @@
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="1:6" customFormat="1">
-      <c r="A242" s="28"/>
+      <c r="A242" s="31"/>
       <c r="B242" s="20" t="s">
         <v>444</v>
       </c>
@@ -14525,7 +14618,7 @@
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" customFormat="1">
-      <c r="A243" s="28"/>
+      <c r="A243" s="31"/>
       <c r="B243" s="20" t="s">
         <v>445</v>
       </c>
@@ -14539,7 +14632,7 @@
       <c r="F243" s="2"/>
     </row>
     <row r="244" spans="1:6" customFormat="1">
-      <c r="A244" s="28"/>
+      <c r="A244" s="31"/>
       <c r="B244" s="20" t="s">
         <v>446</v>
       </c>
@@ -14553,7 +14646,7 @@
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" customFormat="1">
-      <c r="A245" s="28"/>
+      <c r="A245" s="31"/>
       <c r="B245" s="20" t="s">
         <v>447</v>
       </c>
@@ -14567,7 +14660,7 @@
       <c r="F245" s="2"/>
     </row>
     <row r="246" spans="1:6" customFormat="1">
-      <c r="A246" s="28"/>
+      <c r="A246" s="31"/>
       <c r="B246" s="20">
         <v>8.9</v>
       </c>
@@ -14581,7 +14674,7 @@
       <c r="F246" s="2"/>
     </row>
     <row r="247" spans="1:6" customFormat="1">
-      <c r="A247" s="28"/>
+      <c r="A247" s="31"/>
       <c r="B247" s="20" t="s">
         <v>448</v>
       </c>
@@ -14595,7 +14688,7 @@
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" customFormat="1">
-      <c r="A248" s="28"/>
+      <c r="A248" s="31"/>
       <c r="B248" s="20" t="s">
         <v>449</v>
       </c>
@@ -14609,7 +14702,7 @@
       <c r="F248" s="2"/>
     </row>
     <row r="249" spans="1:6" customFormat="1">
-      <c r="A249" s="28"/>
+      <c r="A249" s="31"/>
       <c r="B249" s="20" t="s">
         <v>450</v>
       </c>
@@ -14623,7 +14716,7 @@
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" customFormat="1">
-      <c r="A250" s="28" t="s">
+      <c r="A250" s="31" t="s">
         <v>1022</v>
       </c>
       <c r="B250" s="20">
@@ -14639,7 +14732,7 @@
       <c r="F250" s="2"/>
     </row>
     <row r="251" spans="1:6" customFormat="1">
-      <c r="A251" s="28"/>
+      <c r="A251" s="31"/>
       <c r="B251" s="20" t="s">
         <v>451</v>
       </c>
@@ -14653,7 +14746,7 @@
       <c r="F251" s="2"/>
     </row>
     <row r="252" spans="1:6" customFormat="1">
-      <c r="A252" s="28"/>
+      <c r="A252" s="31"/>
       <c r="B252" s="20" t="s">
         <v>452</v>
       </c>
@@ -14667,7 +14760,7 @@
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" customFormat="1">
-      <c r="A253" s="28"/>
+      <c r="A253" s="31"/>
       <c r="B253" s="20" t="s">
         <v>453</v>
       </c>
@@ -14681,7 +14774,7 @@
       <c r="F253" s="2"/>
     </row>
     <row r="254" spans="1:6" customFormat="1">
-      <c r="A254" s="28"/>
+      <c r="A254" s="31"/>
       <c r="B254" s="20" t="s">
         <v>454</v>
       </c>
@@ -14695,7 +14788,7 @@
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" customFormat="1">
-      <c r="A255" s="28"/>
+      <c r="A255" s="31"/>
       <c r="B255" s="20" t="s">
         <v>455</v>
       </c>
@@ -14709,7 +14802,7 @@
       <c r="F255" s="2"/>
     </row>
     <row r="256" spans="1:6" customFormat="1">
-      <c r="A256" s="28"/>
+      <c r="A256" s="31"/>
       <c r="B256" s="20">
         <v>9.1999999999999993</v>
       </c>
@@ -14723,7 +14816,7 @@
       <c r="F256" s="2"/>
     </row>
     <row r="257" spans="1:6" customFormat="1">
-      <c r="A257" s="28"/>
+      <c r="A257" s="31"/>
       <c r="B257" s="20" t="s">
         <v>456</v>
       </c>
@@ -14737,7 +14830,7 @@
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" customFormat="1">
-      <c r="A258" s="28"/>
+      <c r="A258" s="31"/>
       <c r="B258" s="20" t="s">
         <v>457</v>
       </c>
@@ -14751,7 +14844,7 @@
       <c r="F258" s="2"/>
     </row>
     <row r="259" spans="1:6" customFormat="1">
-      <c r="A259" s="28"/>
+      <c r="A259" s="31"/>
       <c r="B259" s="20" t="s">
         <v>458</v>
       </c>
@@ -14765,7 +14858,7 @@
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" customFormat="1">
-      <c r="A260" s="28"/>
+      <c r="A260" s="31"/>
       <c r="B260" s="20" t="s">
         <v>459</v>
       </c>
@@ -14779,7 +14872,7 @@
       <c r="F260" s="2"/>
     </row>
     <row r="261" spans="1:6" customFormat="1">
-      <c r="A261" s="28"/>
+      <c r="A261" s="31"/>
       <c r="B261" s="20" t="s">
         <v>460</v>
       </c>
@@ -14793,7 +14886,7 @@
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="1:6" customFormat="1">
-      <c r="A262" s="28"/>
+      <c r="A262" s="31"/>
       <c r="B262" s="20" t="s">
         <v>461</v>
       </c>
@@ -14807,7 +14900,7 @@
       <c r="F262" s="2"/>
     </row>
     <row r="263" spans="1:6" customFormat="1">
-      <c r="A263" s="28"/>
+      <c r="A263" s="31"/>
       <c r="B263" s="20">
         <v>9.3000000000000007</v>
       </c>
@@ -14821,7 +14914,7 @@
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" customFormat="1">
-      <c r="A264" s="28"/>
+      <c r="A264" s="31"/>
       <c r="B264" s="20" t="s">
         <v>462</v>
       </c>
@@ -14835,7 +14928,7 @@
       <c r="F264" s="2"/>
     </row>
     <row r="265" spans="1:6" customFormat="1">
-      <c r="A265" s="28"/>
+      <c r="A265" s="31"/>
       <c r="B265" s="20" t="s">
         <v>463</v>
       </c>
@@ -14849,7 +14942,7 @@
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" customFormat="1">
-      <c r="A266" s="28"/>
+      <c r="A266" s="31"/>
       <c r="B266" s="20" t="s">
         <v>464</v>
       </c>
@@ -14863,7 +14956,7 @@
       <c r="F266" s="2"/>
     </row>
     <row r="267" spans="1:6" customFormat="1">
-      <c r="A267" s="28"/>
+      <c r="A267" s="31"/>
       <c r="B267" s="20" t="s">
         <v>465</v>
       </c>
@@ -14877,7 +14970,7 @@
       <c r="F267" s="2"/>
     </row>
     <row r="268" spans="1:6" customFormat="1">
-      <c r="A268" s="28"/>
+      <c r="A268" s="31"/>
       <c r="B268" s="20" t="s">
         <v>466</v>
       </c>
@@ -14891,7 +14984,7 @@
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6" customFormat="1">
-      <c r="A269" s="28"/>
+      <c r="A269" s="31"/>
       <c r="B269" s="20" t="s">
         <v>467</v>
       </c>
@@ -14905,7 +14998,7 @@
       <c r="F269" s="2"/>
     </row>
     <row r="270" spans="1:6" customFormat="1">
-      <c r="A270" s="28"/>
+      <c r="A270" s="31"/>
       <c r="B270" s="20" t="s">
         <v>468</v>
       </c>
@@ -14919,7 +15012,7 @@
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="1:6" customFormat="1">
-      <c r="A271" s="28"/>
+      <c r="A271" s="31"/>
       <c r="B271" s="20">
         <v>9.4</v>
       </c>
@@ -14933,7 +15026,7 @@
       <c r="F271" s="2"/>
     </row>
     <row r="272" spans="1:6" customFormat="1">
-      <c r="A272" s="28"/>
+      <c r="A272" s="31"/>
       <c r="B272" s="20" t="s">
         <v>469</v>
       </c>
@@ -14947,7 +15040,7 @@
       <c r="F272" s="2"/>
     </row>
     <row r="273" spans="1:6" customFormat="1">
-      <c r="A273" s="28"/>
+      <c r="A273" s="31"/>
       <c r="B273" s="20" t="s">
         <v>470</v>
       </c>
@@ -14961,7 +15054,7 @@
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" customFormat="1">
-      <c r="A274" s="28"/>
+      <c r="A274" s="31"/>
       <c r="B274" s="20" t="s">
         <v>471</v>
       </c>
@@ -14975,7 +15068,7 @@
       <c r="F274" s="2"/>
     </row>
     <row r="275" spans="1:6" customFormat="1">
-      <c r="A275" s="28"/>
+      <c r="A275" s="31"/>
       <c r="B275" s="20" t="s">
         <v>472</v>
       </c>
@@ -14989,7 +15082,7 @@
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" customFormat="1">
-      <c r="A276" s="28"/>
+      <c r="A276" s="31"/>
       <c r="B276" s="20" t="s">
         <v>473</v>
       </c>
@@ -15003,7 +15096,7 @@
       <c r="F276" s="2"/>
     </row>
     <row r="277" spans="1:6" customFormat="1">
-      <c r="A277" s="28"/>
+      <c r="A277" s="31"/>
       <c r="B277" s="20" t="s">
         <v>474</v>
       </c>
@@ -15017,7 +15110,7 @@
       <c r="F277" s="2"/>
     </row>
     <row r="278" spans="1:6" customFormat="1">
-      <c r="A278" s="28"/>
+      <c r="A278" s="31"/>
       <c r="B278" s="20">
         <v>9.5</v>
       </c>
@@ -15031,7 +15124,7 @@
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" customFormat="1">
-      <c r="A279" s="28"/>
+      <c r="A279" s="31"/>
       <c r="B279" s="20" t="s">
         <v>475</v>
       </c>
@@ -15045,7 +15138,7 @@
       <c r="F279" s="2"/>
     </row>
     <row r="280" spans="1:6" customFormat="1">
-      <c r="A280" s="28"/>
+      <c r="A280" s="31"/>
       <c r="B280" s="20" t="s">
         <v>476</v>
       </c>
@@ -15059,7 +15152,7 @@
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" customFormat="1">
-      <c r="A281" s="28"/>
+      <c r="A281" s="31"/>
       <c r="B281" s="20" t="s">
         <v>477</v>
       </c>
@@ -15073,7 +15166,7 @@
       <c r="F281" s="2"/>
     </row>
     <row r="282" spans="1:6" customFormat="1">
-      <c r="A282" s="28"/>
+      <c r="A282" s="31"/>
       <c r="B282" s="20" t="s">
         <v>478</v>
       </c>
@@ -15087,7 +15180,7 @@
       <c r="F282" s="2"/>
     </row>
     <row r="283" spans="1:6" customFormat="1">
-      <c r="A283" s="28"/>
+      <c r="A283" s="31"/>
       <c r="B283" s="20" t="s">
         <v>479</v>
       </c>
@@ -15101,7 +15194,7 @@
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" customFormat="1">
-      <c r="A284" s="28"/>
+      <c r="A284" s="31"/>
       <c r="B284" s="20" t="s">
         <v>480</v>
       </c>
@@ -15115,7 +15208,7 @@
       <c r="F284" s="2"/>
     </row>
     <row r="285" spans="1:6" customFormat="1">
-      <c r="A285" s="28"/>
+      <c r="A285" s="31"/>
       <c r="B285" s="20">
         <v>9.6</v>
       </c>
@@ -15129,7 +15222,7 @@
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6" customFormat="1">
-      <c r="A286" s="28"/>
+      <c r="A286" s="31"/>
       <c r="B286" s="20" t="s">
         <v>481</v>
       </c>
@@ -15143,7 +15236,7 @@
       <c r="F286" s="2"/>
     </row>
     <row r="287" spans="1:6" customFormat="1">
-      <c r="A287" s="28"/>
+      <c r="A287" s="31"/>
       <c r="B287" s="20" t="s">
         <v>482</v>
       </c>
@@ -15157,7 +15250,7 @@
       <c r="F287" s="2"/>
     </row>
     <row r="288" spans="1:6" customFormat="1">
-      <c r="A288" s="28"/>
+      <c r="A288" s="31"/>
       <c r="B288" s="20" t="s">
         <v>483</v>
       </c>
@@ -15171,7 +15264,7 @@
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="1:6" customFormat="1">
-      <c r="A289" s="28"/>
+      <c r="A289" s="31"/>
       <c r="B289" s="20" t="s">
         <v>484</v>
       </c>
@@ -15185,7 +15278,7 @@
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" customFormat="1">
-      <c r="A290" s="28"/>
+      <c r="A290" s="31"/>
       <c r="B290" s="20" t="s">
         <v>485</v>
       </c>
@@ -15199,7 +15292,7 @@
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="1:6" customFormat="1">
-      <c r="A291" s="28" t="s">
+      <c r="A291" s="31" t="s">
         <v>1023</v>
       </c>
       <c r="B291" s="20">
@@ -15215,7 +15308,7 @@
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:6" customFormat="1">
-      <c r="A292" s="28"/>
+      <c r="A292" s="31"/>
       <c r="B292" s="20">
         <v>10.199999999999999</v>
       </c>
@@ -15229,7 +15322,7 @@
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="1:6" customFormat="1">
-      <c r="A293" s="28"/>
+      <c r="A293" s="31"/>
       <c r="B293" s="20">
         <v>10.3</v>
       </c>
@@ -15243,7 +15336,7 @@
       <c r="F293" s="2"/>
     </row>
     <row r="294" spans="1:6" customFormat="1">
-      <c r="A294" s="28"/>
+      <c r="A294" s="31"/>
       <c r="B294" s="20" t="s">
         <v>486</v>
       </c>
@@ -15257,7 +15350,7 @@
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" customFormat="1">
-      <c r="A295" s="28"/>
+      <c r="A295" s="31"/>
       <c r="B295" s="20" t="s">
         <v>487</v>
       </c>
@@ -15271,7 +15364,7 @@
       <c r="F295" s="2"/>
     </row>
     <row r="296" spans="1:6" customFormat="1">
-      <c r="A296" s="28"/>
+      <c r="A296" s="31"/>
       <c r="B296" s="20">
         <v>10.4</v>
       </c>
@@ -15285,7 +15378,7 @@
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6" customFormat="1">
-      <c r="A297" s="28"/>
+      <c r="A297" s="31"/>
       <c r="B297" s="20">
         <v>10.5</v>
       </c>
@@ -15299,7 +15392,7 @@
       <c r="F297" s="2"/>
     </row>
     <row r="298" spans="1:6" customFormat="1">
-      <c r="A298" s="28"/>
+      <c r="A298" s="31"/>
       <c r="B298" s="20">
         <v>10.6</v>
       </c>
@@ -15313,7 +15406,7 @@
       <c r="F298" s="2"/>
     </row>
     <row r="299" spans="1:6" customFormat="1">
-      <c r="A299" s="28"/>
+      <c r="A299" s="31"/>
       <c r="B299" s="20">
         <v>10.7</v>
       </c>
@@ -15327,7 +15420,7 @@
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6" customFormat="1">
-      <c r="A300" s="28"/>
+      <c r="A300" s="31"/>
       <c r="B300" s="20">
         <v>10.8</v>
       </c>
@@ -15341,7 +15434,7 @@
       <c r="F300" s="2"/>
     </row>
     <row r="301" spans="1:6" customFormat="1">
-      <c r="A301" s="28" t="s">
+      <c r="A301" s="31" t="s">
         <v>1021</v>
       </c>
       <c r="B301" s="20">
@@ -15357,7 +15450,7 @@
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6" customFormat="1">
-      <c r="A302" s="28"/>
+      <c r="A302" s="31"/>
       <c r="B302" s="20" t="s">
         <v>488</v>
       </c>
@@ -15371,7 +15464,7 @@
       <c r="F302" s="2"/>
     </row>
     <row r="303" spans="1:6" customFormat="1">
-      <c r="A303" s="28"/>
+      <c r="A303" s="31"/>
       <c r="B303" s="20" t="s">
         <v>489</v>
       </c>
@@ -15385,7 +15478,7 @@
       <c r="F303" s="2"/>
     </row>
     <row r="304" spans="1:6" customFormat="1">
-      <c r="A304" s="28"/>
+      <c r="A304" s="31"/>
       <c r="B304" s="20" t="s">
         <v>490</v>
       </c>
@@ -15399,7 +15492,7 @@
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6" customFormat="1">
-      <c r="A305" s="28"/>
+      <c r="A305" s="31"/>
       <c r="B305" s="20" t="s">
         <v>491</v>
       </c>
@@ -15413,7 +15506,7 @@
       <c r="F305" s="2"/>
     </row>
     <row r="306" spans="1:6" customFormat="1">
-      <c r="A306" s="28"/>
+      <c r="A306" s="31"/>
       <c r="B306" s="20">
         <v>11.2</v>
       </c>
@@ -15427,7 +15520,7 @@
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6" customFormat="1">
-      <c r="A307" s="28"/>
+      <c r="A307" s="31"/>
       <c r="B307" s="20">
         <v>11.3</v>
       </c>
@@ -15441,7 +15534,7 @@
       <c r="F307" s="2"/>
     </row>
     <row r="308" spans="1:6" customFormat="1">
-      <c r="A308" s="28"/>
+      <c r="A308" s="31"/>
       <c r="B308" s="20">
         <v>11.4</v>
       </c>
@@ -15455,7 +15548,7 @@
       <c r="F308" s="2"/>
     </row>
     <row r="309" spans="1:6" customFormat="1">
-      <c r="A309" s="28"/>
+      <c r="A309" s="31"/>
       <c r="B309" s="20" t="s">
         <v>492</v>
       </c>
@@ -15469,7 +15562,7 @@
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6" customFormat="1">
-      <c r="A310" s="28" t="s">
+      <c r="A310" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="B310" s="20">
@@ -15485,7 +15578,7 @@
       <c r="F310" s="2"/>
     </row>
     <row r="311" spans="1:6" customFormat="1">
-      <c r="A311" s="28"/>
+      <c r="A311" s="31"/>
       <c r="B311" s="20" t="s">
         <v>493</v>
       </c>
@@ -15499,7 +15592,7 @@
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6" customFormat="1">
-      <c r="A312" s="28"/>
+      <c r="A312" s="31"/>
       <c r="B312" s="20" t="s">
         <v>494</v>
       </c>
@@ -15513,7 +15606,7 @@
       <c r="F312" s="2"/>
     </row>
     <row r="313" spans="1:6" customFormat="1">
-      <c r="A313" s="28"/>
+      <c r="A313" s="31"/>
       <c r="B313" s="20" t="s">
         <v>495</v>
       </c>
@@ -15527,7 +15620,7 @@
       <c r="F313" s="2"/>
     </row>
     <row r="314" spans="1:6" customFormat="1">
-      <c r="A314" s="28"/>
+      <c r="A314" s="31"/>
       <c r="B314" s="20">
         <v>12.2</v>
       </c>
@@ -15541,7 +15634,7 @@
       <c r="F314" s="2"/>
     </row>
     <row r="315" spans="1:6" customFormat="1">
-      <c r="A315" s="28"/>
+      <c r="A315" s="31"/>
       <c r="B315" s="20" t="s">
         <v>496</v>
       </c>
@@ -15555,7 +15648,7 @@
       <c r="F315" s="2"/>
     </row>
     <row r="316" spans="1:6" customFormat="1">
-      <c r="A316" s="28"/>
+      <c r="A316" s="31"/>
       <c r="B316" s="20" t="s">
         <v>497</v>
       </c>
@@ -15569,7 +15662,7 @@
       <c r="F316" s="2"/>
     </row>
     <row r="317" spans="1:6" customFormat="1">
-      <c r="A317" s="28"/>
+      <c r="A317" s="31"/>
       <c r="B317" s="20">
         <v>12.3</v>
       </c>
@@ -15583,7 +15676,7 @@
       <c r="F317" s="2"/>
     </row>
     <row r="318" spans="1:6" customFormat="1">
-      <c r="A318" s="28"/>
+      <c r="A318" s="31"/>
       <c r="B318" s="20" t="s">
         <v>498</v>
       </c>
@@ -15597,7 +15690,7 @@
       <c r="F318" s="2"/>
     </row>
     <row r="319" spans="1:6" customFormat="1">
-      <c r="A319" s="28"/>
+      <c r="A319" s="31"/>
       <c r="B319" s="20" t="s">
         <v>499</v>
       </c>
@@ -15611,7 +15704,7 @@
       <c r="F319" s="2"/>
     </row>
     <row r="320" spans="1:6" customFormat="1">
-      <c r="A320" s="28"/>
+      <c r="A320" s="31"/>
       <c r="B320" s="20" t="s">
         <v>500</v>
       </c>
@@ -15625,7 +15718,7 @@
       <c r="F320" s="2"/>
     </row>
     <row r="321" spans="1:6" customFormat="1">
-      <c r="A321" s="28"/>
+      <c r="A321" s="31"/>
       <c r="B321" s="20" t="s">
         <v>501</v>
       </c>
@@ -15639,7 +15732,7 @@
       <c r="F321" s="2"/>
     </row>
     <row r="322" spans="1:6" customFormat="1">
-      <c r="A322" s="28"/>
+      <c r="A322" s="31"/>
       <c r="B322" s="20" t="s">
         <v>502</v>
       </c>
@@ -15653,7 +15746,7 @@
       <c r="F322" s="2"/>
     </row>
     <row r="323" spans="1:6" customFormat="1">
-      <c r="A323" s="28"/>
+      <c r="A323" s="31"/>
       <c r="B323" s="20">
         <v>12.4</v>
       </c>
@@ -15667,7 +15760,7 @@
       <c r="F323" s="2"/>
     </row>
     <row r="324" spans="1:6" customFormat="1">
-      <c r="A324" s="28"/>
+      <c r="A324" s="31"/>
       <c r="B324" s="20" t="s">
         <v>503</v>
       </c>
@@ -15681,7 +15774,7 @@
       <c r="F324" s="2"/>
     </row>
     <row r="325" spans="1:6" customFormat="1">
-      <c r="A325" s="28"/>
+      <c r="A325" s="31"/>
       <c r="B325" s="20" t="s">
         <v>504</v>
       </c>
@@ -15695,7 +15788,7 @@
       <c r="F325" s="2"/>
     </row>
     <row r="326" spans="1:6" customFormat="1">
-      <c r="A326" s="28"/>
+      <c r="A326" s="31"/>
       <c r="B326" s="20" t="s">
         <v>505</v>
       </c>
@@ -15709,7 +15802,7 @@
       <c r="F326" s="2"/>
     </row>
     <row r="327" spans="1:6" customFormat="1">
-      <c r="A327" s="28"/>
+      <c r="A327" s="31"/>
       <c r="B327" s="20" t="s">
         <v>506</v>
       </c>
@@ -15723,7 +15816,7 @@
       <c r="F327" s="2"/>
     </row>
     <row r="328" spans="1:6" customFormat="1">
-      <c r="A328" s="28"/>
+      <c r="A328" s="31"/>
       <c r="B328" s="20" t="s">
         <v>507</v>
       </c>
@@ -15737,7 +15830,7 @@
       <c r="F328" s="2"/>
     </row>
     <row r="329" spans="1:6" customFormat="1">
-      <c r="A329" s="28"/>
+      <c r="A329" s="31"/>
       <c r="B329" s="20">
         <v>12.5</v>
       </c>
@@ -15751,7 +15844,7 @@
       <c r="F329" s="2"/>
     </row>
     <row r="330" spans="1:6" customFormat="1">
-      <c r="A330" s="28"/>
+      <c r="A330" s="31"/>
       <c r="B330" s="20" t="s">
         <v>508</v>
       </c>
@@ -15765,7 +15858,7 @@
       <c r="F330" s="2"/>
     </row>
     <row r="331" spans="1:6" customFormat="1">
-      <c r="A331" s="28"/>
+      <c r="A331" s="31"/>
       <c r="B331" s="20" t="s">
         <v>509</v>
       </c>
@@ -15779,7 +15872,7 @@
       <c r="F331" s="2"/>
     </row>
     <row r="332" spans="1:6" customFormat="1">
-      <c r="A332" s="28"/>
+      <c r="A332" s="31"/>
       <c r="B332" s="20" t="s">
         <v>510</v>
       </c>
@@ -15793,7 +15886,7 @@
       <c r="F332" s="2"/>
     </row>
     <row r="333" spans="1:6" customFormat="1">
-      <c r="A333" s="28"/>
+      <c r="A333" s="31"/>
       <c r="B333" s="20" t="s">
         <v>511</v>
       </c>
@@ -15807,7 +15900,7 @@
       <c r="F333" s="2"/>
     </row>
     <row r="334" spans="1:6" customFormat="1">
-      <c r="A334" s="28"/>
+      <c r="A334" s="31"/>
       <c r="B334" s="20" t="s">
         <v>512</v>
       </c>
@@ -15821,7 +15914,7 @@
       <c r="F334" s="2"/>
     </row>
     <row r="335" spans="1:6" customFormat="1">
-      <c r="A335" s="28"/>
+      <c r="A335" s="31"/>
       <c r="B335" s="20" t="s">
         <v>513</v>
       </c>
@@ -15835,7 +15928,7 @@
       <c r="F335" s="2"/>
     </row>
     <row r="336" spans="1:6" customFormat="1">
-      <c r="A336" s="28"/>
+      <c r="A336" s="31"/>
       <c r="B336" s="20" t="s">
         <v>514</v>
       </c>
@@ -15849,7 +15942,7 @@
       <c r="F336" s="2"/>
     </row>
     <row r="337" spans="1:6" customFormat="1">
-      <c r="A337" s="28"/>
+      <c r="A337" s="31"/>
       <c r="B337" s="20" t="s">
         <v>515</v>
       </c>
@@ -15863,7 +15956,7 @@
       <c r="F337" s="2"/>
     </row>
     <row r="338" spans="1:6" customFormat="1">
-      <c r="A338" s="28"/>
+      <c r="A338" s="31"/>
       <c r="B338" s="20">
         <v>12.6</v>
       </c>
@@ -15877,7 +15970,7 @@
       <c r="F338" s="2"/>
     </row>
     <row r="339" spans="1:6" customFormat="1">
-      <c r="A339" s="28"/>
+      <c r="A339" s="31"/>
       <c r="B339" s="20" t="s">
         <v>516</v>
       </c>
@@ -15891,7 +15984,7 @@
       <c r="F339" s="2"/>
     </row>
     <row r="340" spans="1:6" customFormat="1">
-      <c r="A340" s="28"/>
+      <c r="A340" s="31"/>
       <c r="B340" s="20" t="s">
         <v>517</v>
       </c>
@@ -15905,7 +15998,7 @@
       <c r="F340" s="2"/>
     </row>
     <row r="341" spans="1:6" customFormat="1">
-      <c r="A341" s="28"/>
+      <c r="A341" s="31"/>
       <c r="B341" s="20" t="s">
         <v>518</v>
       </c>
@@ -15919,7 +16012,7 @@
       <c r="F341" s="2"/>
     </row>
     <row r="342" spans="1:6" customFormat="1">
-      <c r="A342" s="28"/>
+      <c r="A342" s="31"/>
       <c r="B342" s="20" t="s">
         <v>519</v>
       </c>
@@ -15933,7 +16026,7 @@
       <c r="F342" s="2"/>
     </row>
     <row r="343" spans="1:6" customFormat="1">
-      <c r="A343" s="28"/>
+      <c r="A343" s="31"/>
       <c r="B343" s="20" t="s">
         <v>520</v>
       </c>
@@ -15947,7 +16040,7 @@
       <c r="F343" s="2"/>
     </row>
     <row r="344" spans="1:6" customFormat="1">
-      <c r="A344" s="28"/>
+      <c r="A344" s="31"/>
       <c r="B344" s="20">
         <v>12.7</v>
       </c>
@@ -15961,7 +16054,7 @@
       <c r="F344" s="2"/>
     </row>
     <row r="345" spans="1:6" customFormat="1">
-      <c r="A345" s="28"/>
+      <c r="A345" s="31"/>
       <c r="B345" s="20" t="s">
         <v>521</v>
       </c>
@@ -15975,7 +16068,7 @@
       <c r="F345" s="2"/>
     </row>
     <row r="346" spans="1:6" customFormat="1">
-      <c r="A346" s="28"/>
+      <c r="A346" s="31"/>
       <c r="B346" s="20" t="s">
         <v>522</v>
       </c>
@@ -15989,7 +16082,7 @@
       <c r="F346" s="2"/>
     </row>
     <row r="347" spans="1:6" customFormat="1">
-      <c r="A347" s="28"/>
+      <c r="A347" s="31"/>
       <c r="B347" s="20" t="s">
         <v>523</v>
       </c>
@@ -16003,7 +16096,7 @@
       <c r="F347" s="2"/>
     </row>
     <row r="348" spans="1:6" customFormat="1">
-      <c r="A348" s="28"/>
+      <c r="A348" s="31"/>
       <c r="B348" s="20" t="s">
         <v>524</v>
       </c>
@@ -16017,7 +16110,7 @@
       <c r="F348" s="2"/>
     </row>
     <row r="349" spans="1:6" customFormat="1">
-      <c r="A349" s="28"/>
+      <c r="A349" s="31"/>
       <c r="B349" s="20" t="s">
         <v>525</v>
       </c>
@@ -16031,7 +16124,7 @@
       <c r="F349" s="2"/>
     </row>
     <row r="350" spans="1:6" customFormat="1">
-      <c r="A350" s="28"/>
+      <c r="A350" s="31"/>
       <c r="B350" s="20">
         <v>12.8</v>
       </c>
@@ -16045,7 +16138,7 @@
       <c r="F350" s="2"/>
     </row>
     <row r="351" spans="1:6" customFormat="1">
-      <c r="A351" s="28"/>
+      <c r="A351" s="31"/>
       <c r="B351" s="20" t="s">
         <v>526</v>
       </c>
@@ -16059,7 +16152,7 @@
       <c r="F351" s="2"/>
     </row>
     <row r="352" spans="1:6" customFormat="1">
-      <c r="A352" s="28"/>
+      <c r="A352" s="31"/>
       <c r="B352" s="20" t="s">
         <v>527</v>
       </c>
@@ -16073,7 +16166,7 @@
       <c r="F352" s="2"/>
     </row>
     <row r="353" spans="1:6" customFormat="1">
-      <c r="A353" s="28" t="s">
+      <c r="A353" s="31" t="s">
         <v>1019</v>
       </c>
       <c r="B353" s="20">
@@ -16089,7 +16182,7 @@
       <c r="F353" s="2"/>
     </row>
     <row r="354" spans="1:6" customFormat="1">
-      <c r="A354" s="28"/>
+      <c r="A354" s="31"/>
       <c r="B354" s="20" t="s">
         <v>528</v>
       </c>
@@ -16103,7 +16196,7 @@
       <c r="F354" s="2"/>
     </row>
     <row r="355" spans="1:6" customFormat="1">
-      <c r="A355" s="28"/>
+      <c r="A355" s="31"/>
       <c r="B355" s="20" t="s">
         <v>529</v>
       </c>
@@ -16117,7 +16210,7 @@
       <c r="F355" s="2"/>
     </row>
     <row r="356" spans="1:6" customFormat="1">
-      <c r="A356" s="28"/>
+      <c r="A356" s="31"/>
       <c r="B356" s="20" t="s">
         <v>530</v>
       </c>
@@ -16131,7 +16224,7 @@
       <c r="F356" s="2"/>
     </row>
     <row r="357" spans="1:6" customFormat="1">
-      <c r="A357" s="28"/>
+      <c r="A357" s="31"/>
       <c r="B357" s="20" t="s">
         <v>531</v>
       </c>
@@ -16145,7 +16238,7 @@
       <c r="F357" s="2"/>
     </row>
     <row r="358" spans="1:6" customFormat="1">
-      <c r="A358" s="28"/>
+      <c r="A358" s="31"/>
       <c r="B358" s="20" t="s">
         <v>532</v>
       </c>
@@ -16159,7 +16252,7 @@
       <c r="F358" s="2"/>
     </row>
     <row r="359" spans="1:6" customFormat="1">
-      <c r="A359" s="28"/>
+      <c r="A359" s="31"/>
       <c r="B359" s="20">
         <v>13.2</v>
       </c>
@@ -16173,7 +16266,7 @@
       <c r="F359" s="2"/>
     </row>
     <row r="360" spans="1:6" customFormat="1">
-      <c r="A360" s="28"/>
+      <c r="A360" s="31"/>
       <c r="B360" s="20" t="s">
         <v>533</v>
       </c>
@@ -16187,7 +16280,7 @@
       <c r="F360" s="2"/>
     </row>
     <row r="361" spans="1:6" customFormat="1">
-      <c r="A361" s="28"/>
+      <c r="A361" s="31"/>
       <c r="B361" s="20" t="s">
         <v>534</v>
       </c>
@@ -16201,7 +16294,7 @@
       <c r="F361" s="2"/>
     </row>
     <row r="362" spans="1:6" customFormat="1">
-      <c r="A362" s="28"/>
+      <c r="A362" s="31"/>
       <c r="B362" s="20">
         <v>13.3</v>
       </c>
@@ -16215,7 +16308,7 @@
       <c r="F362" s="2"/>
     </row>
     <row r="363" spans="1:6" customFormat="1">
-      <c r="A363" s="28"/>
+      <c r="A363" s="31"/>
       <c r="B363" s="20">
         <v>13.4</v>
       </c>
@@ -16229,7 +16322,7 @@
       <c r="F363" s="2"/>
     </row>
     <row r="364" spans="1:6" customFormat="1">
-      <c r="A364" s="28"/>
+      <c r="A364" s="31"/>
       <c r="B364" s="20" t="s">
         <v>535</v>
       </c>
@@ -16243,7 +16336,7 @@
       <c r="F364" s="2"/>
     </row>
     <row r="365" spans="1:6" customFormat="1">
-      <c r="A365" s="28"/>
+      <c r="A365" s="31"/>
       <c r="B365" s="20" t="s">
         <v>536</v>
       </c>
@@ -16257,7 +16350,7 @@
       <c r="F365" s="2"/>
     </row>
     <row r="366" spans="1:6" customFormat="1">
-      <c r="A366" s="28"/>
+      <c r="A366" s="31"/>
       <c r="B366" s="20" t="s">
         <v>537</v>
       </c>
@@ -16271,7 +16364,7 @@
       <c r="F366" s="2"/>
     </row>
     <row r="367" spans="1:6" customFormat="1">
-      <c r="A367" s="28"/>
+      <c r="A367" s="31"/>
       <c r="B367" s="20" t="s">
         <v>538</v>
       </c>
@@ -16285,7 +16378,7 @@
       <c r="F367" s="2"/>
     </row>
     <row r="368" spans="1:6" customFormat="1">
-      <c r="A368" s="28"/>
+      <c r="A368" s="31"/>
       <c r="B368" s="20" t="s">
         <v>539</v>
       </c>
@@ -16299,7 +16392,7 @@
       <c r="F368" s="2"/>
     </row>
     <row r="369" spans="1:6" customFormat="1">
-      <c r="A369" s="28"/>
+      <c r="A369" s="31"/>
       <c r="B369" s="20" t="s">
         <v>540</v>
       </c>
@@ -16313,7 +16406,7 @@
       <c r="F369" s="2"/>
     </row>
     <row r="370" spans="1:6" customFormat="1">
-      <c r="A370" s="28"/>
+      <c r="A370" s="31"/>
       <c r="B370" s="20" t="s">
         <v>541</v>
       </c>
@@ -16327,7 +16420,7 @@
       <c r="F370" s="2"/>
     </row>
     <row r="371" spans="1:6" customFormat="1">
-      <c r="A371" s="28"/>
+      <c r="A371" s="31"/>
       <c r="B371" s="20" t="s">
         <v>542</v>
       </c>
@@ -16341,7 +16434,7 @@
       <c r="F371" s="2"/>
     </row>
     <row r="372" spans="1:6" customFormat="1">
-      <c r="A372" s="28"/>
+      <c r="A372" s="31"/>
       <c r="B372" s="20" t="s">
         <v>543</v>
       </c>
@@ -16355,7 +16448,7 @@
       <c r="F372" s="2"/>
     </row>
     <row r="373" spans="1:6" customFormat="1">
-      <c r="A373" s="28"/>
+      <c r="A373" s="31"/>
       <c r="B373" s="20">
         <v>13.5</v>
       </c>
@@ -16369,7 +16462,7 @@
       <c r="F373" s="2"/>
     </row>
     <row r="374" spans="1:6" customFormat="1">
-      <c r="A374" s="28"/>
+      <c r="A374" s="31"/>
       <c r="B374" s="20" t="s">
         <v>544</v>
       </c>
@@ -16383,7 +16476,7 @@
       <c r="F374" s="2"/>
     </row>
     <row r="375" spans="1:6" customFormat="1">
-      <c r="A375" s="28"/>
+      <c r="A375" s="31"/>
       <c r="B375" s="20" t="s">
         <v>545</v>
       </c>
@@ -16397,7 +16490,7 @@
       <c r="F375" s="2"/>
     </row>
     <row r="376" spans="1:6" customFormat="1">
-      <c r="A376" s="29" t="s">
+      <c r="A376" s="28" t="s">
         <v>1018</v>
       </c>
       <c r="B376" s="20">
@@ -16413,7 +16506,7 @@
       <c r="F376" s="2"/>
     </row>
     <row r="377" spans="1:6" customFormat="1">
-      <c r="A377" s="30"/>
+      <c r="A377" s="29"/>
       <c r="B377" s="20" t="s">
         <v>546</v>
       </c>
@@ -16427,7 +16520,7 @@
       <c r="F377" s="2"/>
     </row>
     <row r="378" spans="1:6" customFormat="1">
-      <c r="A378" s="30"/>
+      <c r="A378" s="29"/>
       <c r="B378" s="20">
         <v>14.2</v>
       </c>
@@ -16441,7 +16534,7 @@
       <c r="F378" s="2"/>
     </row>
     <row r="379" spans="1:6" customFormat="1">
-      <c r="A379" s="30"/>
+      <c r="A379" s="29"/>
       <c r="B379" s="20">
         <v>14.3</v>
       </c>
@@ -16455,7 +16548,7 @@
       <c r="F379" s="2"/>
     </row>
     <row r="380" spans="1:6" customFormat="1">
-      <c r="A380" s="30"/>
+      <c r="A380" s="29"/>
       <c r="B380" s="20" t="s">
         <v>547</v>
       </c>
@@ -16469,7 +16562,7 @@
       <c r="F380" s="2"/>
     </row>
     <row r="381" spans="1:6" customFormat="1">
-      <c r="A381" s="30"/>
+      <c r="A381" s="29"/>
       <c r="B381" s="20" t="s">
         <v>548</v>
       </c>
@@ -16483,7 +16576,7 @@
       <c r="F381" s="2"/>
     </row>
     <row r="382" spans="1:6" customFormat="1">
-      <c r="A382" s="30"/>
+      <c r="A382" s="29"/>
       <c r="B382" s="20" t="s">
         <v>549</v>
       </c>
@@ -16497,7 +16590,7 @@
       <c r="F382" s="2"/>
     </row>
     <row r="383" spans="1:6" customFormat="1">
-      <c r="A383" s="30"/>
+      <c r="A383" s="29"/>
       <c r="B383" s="20" t="s">
         <v>550</v>
       </c>
@@ -16511,7 +16604,7 @@
       <c r="F383" s="2"/>
     </row>
     <row r="384" spans="1:6" customFormat="1">
-      <c r="A384" s="30"/>
+      <c r="A384" s="29"/>
       <c r="B384" s="20">
         <v>14.4</v>
       </c>
@@ -16525,7 +16618,7 @@
       <c r="F384" s="2"/>
     </row>
     <row r="385" spans="1:6" customFormat="1">
-      <c r="A385" s="30"/>
+      <c r="A385" s="29"/>
       <c r="B385" s="20" t="s">
         <v>551</v>
       </c>
@@ -16539,7 +16632,7 @@
       <c r="F385" s="2"/>
     </row>
     <row r="386" spans="1:6" customFormat="1">
-      <c r="A386" s="30"/>
+      <c r="A386" s="29"/>
       <c r="B386" s="20" t="s">
         <v>552</v>
       </c>
@@ -16553,7 +16646,7 @@
       <c r="F386" s="2"/>
     </row>
     <row r="387" spans="1:6" customFormat="1">
-      <c r="A387" s="30"/>
+      <c r="A387" s="29"/>
       <c r="B387" s="20" t="s">
         <v>553</v>
       </c>
@@ -16567,7 +16660,7 @@
       <c r="F387" s="2"/>
     </row>
     <row r="388" spans="1:6" customFormat="1">
-      <c r="A388" s="30"/>
+      <c r="A388" s="29"/>
       <c r="B388" s="20">
         <v>14.5</v>
       </c>
@@ -16581,7 +16674,7 @@
       <c r="F388" s="2"/>
     </row>
     <row r="389" spans="1:6" customFormat="1">
-      <c r="A389" s="30"/>
+      <c r="A389" s="29"/>
       <c r="B389" s="20" t="s">
         <v>554</v>
       </c>
@@ -16595,7 +16688,7 @@
       <c r="F389" s="2"/>
     </row>
     <row r="390" spans="1:6" customFormat="1">
-      <c r="A390" s="30"/>
+      <c r="A390" s="29"/>
       <c r="B390" s="20" t="s">
         <v>555</v>
       </c>
@@ -16609,7 +16702,7 @@
       <c r="F390" s="2"/>
     </row>
     <row r="391" spans="1:6" customFormat="1">
-      <c r="A391" s="30"/>
+      <c r="A391" s="29"/>
       <c r="B391" s="20" t="s">
         <v>556</v>
       </c>
@@ -16623,7 +16716,7 @@
       <c r="F391" s="2"/>
     </row>
     <row r="392" spans="1:6" customFormat="1">
-      <c r="A392" s="30"/>
+      <c r="A392" s="29"/>
       <c r="B392" s="20" t="s">
         <v>557</v>
       </c>
@@ -16637,7 +16730,7 @@
       <c r="F392" s="2"/>
     </row>
     <row r="393" spans="1:6" customFormat="1">
-      <c r="A393" s="30"/>
+      <c r="A393" s="29"/>
       <c r="B393" s="20" t="s">
         <v>558</v>
       </c>
@@ -16651,7 +16744,7 @@
       <c r="F393" s="2"/>
     </row>
     <row r="394" spans="1:6" customFormat="1">
-      <c r="A394" s="30"/>
+      <c r="A394" s="29"/>
       <c r="B394" s="20" t="s">
         <v>559</v>
       </c>
@@ -16665,7 +16758,7 @@
       <c r="F394" s="2"/>
     </row>
     <row r="395" spans="1:6" customFormat="1">
-      <c r="A395" s="30"/>
+      <c r="A395" s="29"/>
       <c r="B395" s="20" t="s">
         <v>560</v>
       </c>
@@ -16679,7 +16772,7 @@
       <c r="F395" s="2"/>
     </row>
     <row r="396" spans="1:6" customFormat="1">
-      <c r="A396" s="30"/>
+      <c r="A396" s="29"/>
       <c r="B396" s="20" t="s">
         <v>561</v>
       </c>
@@ -16693,7 +16786,7 @@
       <c r="F396" s="2"/>
     </row>
     <row r="397" spans="1:6" customFormat="1">
-      <c r="A397" s="30"/>
+      <c r="A397" s="29"/>
       <c r="B397" s="20" t="s">
         <v>562</v>
       </c>
@@ -16707,7 +16800,7 @@
       <c r="F397" s="2"/>
     </row>
     <row r="398" spans="1:6" customFormat="1">
-      <c r="A398" s="30"/>
+      <c r="A398" s="29"/>
       <c r="B398" s="20" t="s">
         <v>563</v>
       </c>
@@ -16721,7 +16814,7 @@
       <c r="F398" s="2"/>
     </row>
     <row r="399" spans="1:6" customFormat="1">
-      <c r="A399" s="30"/>
+      <c r="A399" s="29"/>
       <c r="B399" s="20" t="s">
         <v>564</v>
       </c>
@@ -16735,7 +16828,7 @@
       <c r="F399" s="2"/>
     </row>
     <row r="400" spans="1:6" customFormat="1">
-      <c r="A400" s="30"/>
+      <c r="A400" s="29"/>
       <c r="B400" s="20" t="s">
         <v>565</v>
       </c>
@@ -16749,7 +16842,7 @@
       <c r="F400" s="2"/>
     </row>
     <row r="401" spans="1:6" customFormat="1">
-      <c r="A401" s="30"/>
+      <c r="A401" s="29"/>
       <c r="B401" s="20" t="s">
         <v>566</v>
       </c>
@@ -16763,7 +16856,7 @@
       <c r="F401" s="2"/>
     </row>
     <row r="402" spans="1:6" customFormat="1">
-      <c r="A402" s="30"/>
+      <c r="A402" s="29"/>
       <c r="B402" s="20" t="s">
         <v>567</v>
       </c>
@@ -16777,7 +16870,7 @@
       <c r="F402" s="2"/>
     </row>
     <row r="403" spans="1:6" customFormat="1">
-      <c r="A403" s="30"/>
+      <c r="A403" s="29"/>
       <c r="B403" s="20" t="s">
         <v>568</v>
       </c>
@@ -16791,7 +16884,7 @@
       <c r="F403" s="2"/>
     </row>
     <row r="404" spans="1:6" customFormat="1">
-      <c r="A404" s="30"/>
+      <c r="A404" s="29"/>
       <c r="B404" s="20">
         <v>14.6</v>
       </c>
@@ -16805,7 +16898,7 @@
       <c r="F404" s="2"/>
     </row>
     <row r="405" spans="1:6" customFormat="1">
-      <c r="A405" s="30"/>
+      <c r="A405" s="29"/>
       <c r="B405" s="20">
         <v>14.7</v>
       </c>
@@ -16819,7 +16912,7 @@
       <c r="F405" s="2"/>
     </row>
     <row r="406" spans="1:6" customFormat="1">
-      <c r="A406" s="30"/>
+      <c r="A406" s="29"/>
       <c r="B406" s="20" t="s">
         <v>569</v>
       </c>
@@ -16833,7 +16926,7 @@
       <c r="F406" s="2"/>
     </row>
     <row r="407" spans="1:6" customFormat="1">
-      <c r="A407" s="30"/>
+      <c r="A407" s="29"/>
       <c r="B407" s="20" t="s">
         <v>570</v>
       </c>
@@ -16847,7 +16940,7 @@
       <c r="F407" s="2"/>
     </row>
     <row r="408" spans="1:6" customFormat="1">
-      <c r="A408" s="30"/>
+      <c r="A408" s="29"/>
       <c r="B408" s="20" t="s">
         <v>571</v>
       </c>
@@ -16861,7 +16954,7 @@
       <c r="F408" s="2"/>
     </row>
     <row r="409" spans="1:6" customFormat="1">
-      <c r="A409" s="30"/>
+      <c r="A409" s="29"/>
       <c r="B409" s="20" t="s">
         <v>572</v>
       </c>
@@ -16875,7 +16968,7 @@
       <c r="F409" s="2"/>
     </row>
     <row r="410" spans="1:6" customFormat="1">
-      <c r="A410" s="30"/>
+      <c r="A410" s="29"/>
       <c r="B410" s="20" t="s">
         <v>573</v>
       </c>
@@ -16889,7 +16982,7 @@
       <c r="F410" s="2"/>
     </row>
     <row r="411" spans="1:6" customFormat="1">
-      <c r="A411" s="30"/>
+      <c r="A411" s="29"/>
       <c r="B411" s="20" t="s">
         <v>574</v>
       </c>
@@ -16903,7 +16996,7 @@
       <c r="F411" s="2"/>
     </row>
     <row r="412" spans="1:6" customFormat="1">
-      <c r="A412" s="30"/>
+      <c r="A412" s="29"/>
       <c r="B412" s="20" t="s">
         <v>575</v>
       </c>
@@ -16917,7 +17010,7 @@
       <c r="F412" s="2"/>
     </row>
     <row r="413" spans="1:6" customFormat="1">
-      <c r="A413" s="30"/>
+      <c r="A413" s="29"/>
       <c r="B413" s="20">
         <v>14.8</v>
       </c>
@@ -16931,7 +17024,7 @@
       <c r="F413" s="2"/>
     </row>
     <row r="414" spans="1:6" customFormat="1">
-      <c r="A414" s="30"/>
+      <c r="A414" s="29"/>
       <c r="B414" s="20">
         <v>14.9</v>
       </c>
@@ -16945,7 +17038,7 @@
       <c r="F414" s="2"/>
     </row>
     <row r="415" spans="1:6" customFormat="1">
-      <c r="A415" s="30"/>
+      <c r="A415" s="29"/>
       <c r="B415" s="20" t="s">
         <v>576</v>
       </c>
@@ -16959,7 +17052,7 @@
       <c r="F415" s="2"/>
     </row>
     <row r="416" spans="1:6" customFormat="1">
-      <c r="A416" s="30"/>
+      <c r="A416" s="29"/>
       <c r="B416" s="20" t="s">
         <v>577</v>
       </c>
@@ -16973,7 +17066,7 @@
       <c r="F416" s="2"/>
     </row>
     <row r="417" spans="1:6" customFormat="1">
-      <c r="A417" s="30"/>
+      <c r="A417" s="29"/>
       <c r="B417" s="20" t="s">
         <v>578</v>
       </c>
@@ -16987,7 +17080,7 @@
       <c r="F417" s="2"/>
     </row>
     <row r="418" spans="1:6" customFormat="1">
-      <c r="A418" s="30"/>
+      <c r="A418" s="29"/>
       <c r="B418" s="20" t="s">
         <v>579</v>
       </c>
@@ -17001,7 +17094,7 @@
       <c r="F418" s="2"/>
     </row>
     <row r="419" spans="1:6" customFormat="1">
-      <c r="A419" s="30"/>
+      <c r="A419" s="29"/>
       <c r="B419" s="20" t="s">
         <v>580</v>
       </c>
@@ -17015,7 +17108,7 @@
       <c r="F419" s="2"/>
     </row>
     <row r="420" spans="1:6" customFormat="1">
-      <c r="A420" s="30"/>
+      <c r="A420" s="29"/>
       <c r="B420" s="20">
         <v>14.1</v>
       </c>
@@ -17029,7 +17122,7 @@
       <c r="F420" s="2"/>
     </row>
     <row r="421" spans="1:6" customFormat="1">
-      <c r="A421" s="30"/>
+      <c r="A421" s="29"/>
       <c r="B421" s="20" t="s">
         <v>581</v>
       </c>
@@ -17043,7 +17136,7 @@
       <c r="F421" s="2"/>
     </row>
     <row r="422" spans="1:6" customFormat="1">
-      <c r="A422" s="30"/>
+      <c r="A422" s="29"/>
       <c r="B422" s="20" t="s">
         <v>582</v>
       </c>
@@ -17057,7 +17150,7 @@
       <c r="F422" s="2"/>
     </row>
     <row r="423" spans="1:6" customFormat="1">
-      <c r="A423" s="30"/>
+      <c r="A423" s="29"/>
       <c r="B423" s="20" t="s">
         <v>583</v>
       </c>
@@ -17071,7 +17164,7 @@
       <c r="F423" s="2"/>
     </row>
     <row r="424" spans="1:6" customFormat="1">
-      <c r="A424" s="30"/>
+      <c r="A424" s="29"/>
       <c r="B424" s="20" t="s">
         <v>584</v>
       </c>
@@ -17085,7 +17178,7 @@
       <c r="F424" s="2"/>
     </row>
     <row r="425" spans="1:6" customFormat="1">
-      <c r="A425" s="30"/>
+      <c r="A425" s="29"/>
       <c r="B425" s="20" t="s">
         <v>585</v>
       </c>
@@ -17099,7 +17192,7 @@
       <c r="F425" s="2"/>
     </row>
     <row r="426" spans="1:6" customFormat="1">
-      <c r="A426" s="30"/>
+      <c r="A426" s="29"/>
       <c r="B426" s="20">
         <v>14.11</v>
       </c>
@@ -17113,7 +17206,7 @@
       <c r="F426" s="2"/>
     </row>
     <row r="427" spans="1:6" customFormat="1">
-      <c r="A427" s="30"/>
+      <c r="A427" s="29"/>
       <c r="B427" s="20" t="s">
         <v>586</v>
       </c>
@@ -17127,7 +17220,7 @@
       <c r="F427" s="2"/>
     </row>
     <row r="428" spans="1:6" customFormat="1">
-      <c r="A428" s="30"/>
+      <c r="A428" s="29"/>
       <c r="B428" s="20" t="s">
         <v>587</v>
       </c>
@@ -17141,7 +17234,7 @@
       <c r="F428" s="2"/>
     </row>
     <row r="429" spans="1:6" customFormat="1">
-      <c r="A429" s="31"/>
+      <c r="A429" s="30"/>
       <c r="B429" s="20" t="s">
         <v>588</v>
       </c>
@@ -17207,12 +17300,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A376:A429"/>
-    <mergeCell ref="A353:A375"/>
-    <mergeCell ref="A310:A352"/>
-    <mergeCell ref="A301:A309"/>
-    <mergeCell ref="A250:A290"/>
-    <mergeCell ref="A291:A300"/>
     <mergeCell ref="A77:A127"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A25"/>
@@ -17221,6 +17308,12 @@
     <mergeCell ref="A128:A157"/>
     <mergeCell ref="A190:A217"/>
     <mergeCell ref="A158:A189"/>
+    <mergeCell ref="A376:A429"/>
+    <mergeCell ref="A353:A375"/>
+    <mergeCell ref="A310:A352"/>
+    <mergeCell ref="A301:A309"/>
+    <mergeCell ref="A250:A290"/>
+    <mergeCell ref="A291:A300"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I4">

--- a/学习进度.xlsx
+++ b/学习进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laohangdeche/Library/Mobile Documents/com~apple~CloudDocs/个人/学习笔记/Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE19101B-2AFD-1C49-9D08-79E6CDA35C0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B348CAF-BFDA-944C-92E9-E13E504B7D9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="460" windowWidth="28300" windowHeight="16900" xr2:uid="{C7784454-BD36-8040-9BFE-2AD014209B0B}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="1339">
   <si>
     <t>01_Java语言发展史</t>
   </si>
@@ -4321,6 +4321,9 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4328,9 +4331,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4652,8 +4652,8 @@
   <dimension ref="A1:G562"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G256" sqref="G256"/>
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G185" activeCellId="1" sqref="G191 G185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4683,7 +4683,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-02</v>
+        <v>截至2020-09-03</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="G2" s="12">
         <f>COUNTIF(C2:C562,"ok")</f>
-        <v>248</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="G3" s="12">
         <f>COUNTBLANK(C2:C562)</f>
-        <v>313</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="G4" s="15">
         <f>G2/(G2+G3)</f>
-        <v>0.44206773618538325</v>
+        <v>0.47593582887700536</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1">
@@ -7977,8 +7977,12 @@
       <c r="B250" s="5" t="s">
         <v>1127</v>
       </c>
-      <c r="C250" s="2"/>
-      <c r="D250" s="25"/>
+      <c r="C250" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D250" s="25">
+        <v>44077</v>
+      </c>
     </row>
     <row r="251" spans="1:4" customFormat="1">
       <c r="A251" s="2">
@@ -7987,8 +7991,12 @@
       <c r="B251" s="5" t="s">
         <v>1128</v>
       </c>
-      <c r="C251" s="2"/>
-      <c r="D251" s="25"/>
+      <c r="C251" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D251" s="25">
+        <v>44077</v>
+      </c>
     </row>
     <row r="252" spans="1:4" customFormat="1">
       <c r="A252" s="2">
@@ -7997,8 +8005,12 @@
       <c r="B252" s="5" t="s">
         <v>1129</v>
       </c>
-      <c r="C252" s="2"/>
-      <c r="D252" s="25"/>
+      <c r="C252" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D252" s="25">
+        <v>44077</v>
+      </c>
     </row>
     <row r="253" spans="1:4" customFormat="1">
       <c r="A253" s="2">
@@ -8007,8 +8019,12 @@
       <c r="B253" s="5" t="s">
         <v>1130</v>
       </c>
-      <c r="C253" s="2"/>
-      <c r="D253" s="25"/>
+      <c r="C253" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D253" s="25">
+        <v>44077</v>
+      </c>
     </row>
     <row r="254" spans="1:4" customFormat="1">
       <c r="A254" s="2">
@@ -8017,8 +8033,12 @@
       <c r="B254" s="5" t="s">
         <v>1131</v>
       </c>
-      <c r="C254" s="2"/>
-      <c r="D254" s="25"/>
+      <c r="C254" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D254" s="25">
+        <v>44077</v>
+      </c>
     </row>
     <row r="255" spans="1:4" customFormat="1">
       <c r="A255" s="2">
@@ -8027,8 +8047,12 @@
       <c r="B255" s="5" t="s">
         <v>1132</v>
       </c>
-      <c r="C255" s="2"/>
-      <c r="D255" s="25"/>
+      <c r="C255" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D255" s="25">
+        <v>44077</v>
+      </c>
     </row>
     <row r="256" spans="1:4" customFormat="1">
       <c r="A256" s="2">
@@ -8037,8 +8061,12 @@
       <c r="B256" s="5" t="s">
         <v>1133</v>
       </c>
-      <c r="C256" s="2"/>
-      <c r="D256" s="25"/>
+      <c r="C256" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D256" s="25">
+        <v>44077</v>
+      </c>
     </row>
     <row r="257" spans="1:4" customFormat="1">
       <c r="A257" s="2">
@@ -8047,8 +8075,12 @@
       <c r="B257" s="5" t="s">
         <v>1134</v>
       </c>
-      <c r="C257" s="2"/>
-      <c r="D257" s="25"/>
+      <c r="C257" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D257" s="25">
+        <v>44077</v>
+      </c>
     </row>
     <row r="258" spans="1:4" customFormat="1">
       <c r="A258" s="2">
@@ -8057,8 +8089,12 @@
       <c r="B258" s="5" t="s">
         <v>1135</v>
       </c>
-      <c r="C258" s="2"/>
-      <c r="D258" s="25"/>
+      <c r="C258" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D258" s="25">
+        <v>44077</v>
+      </c>
     </row>
     <row r="259" spans="1:4" customFormat="1">
       <c r="A259" s="2">
@@ -8067,8 +8103,12 @@
       <c r="B259" s="5" t="s">
         <v>1136</v>
       </c>
-      <c r="C259" s="2"/>
-      <c r="D259" s="25"/>
+      <c r="C259" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D259" s="25">
+        <v>44077</v>
+      </c>
     </row>
     <row r="260" spans="1:4" customFormat="1">
       <c r="A260" s="2">
@@ -8077,8 +8117,12 @@
       <c r="B260" s="5" t="s">
         <v>1137</v>
       </c>
-      <c r="C260" s="2"/>
-      <c r="D260" s="25"/>
+      <c r="C260" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D260" s="25">
+        <v>44077</v>
+      </c>
     </row>
     <row r="261" spans="1:4" customFormat="1">
       <c r="A261" s="2">
@@ -8087,8 +8131,12 @@
       <c r="B261" s="5" t="s">
         <v>1138</v>
       </c>
-      <c r="C261" s="2"/>
-      <c r="D261" s="25"/>
+      <c r="C261" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D261" s="25">
+        <v>44077</v>
+      </c>
     </row>
     <row r="262" spans="1:4" customFormat="1">
       <c r="A262" s="2">
@@ -8097,8 +8145,12 @@
       <c r="B262" s="5" t="s">
         <v>1139</v>
       </c>
-      <c r="C262" s="2"/>
-      <c r="D262" s="25"/>
+      <c r="C262" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D262" s="25">
+        <v>44077</v>
+      </c>
     </row>
     <row r="263" spans="1:4" customFormat="1">
       <c r="A263" s="2">
@@ -8107,8 +8159,12 @@
       <c r="B263" s="5" t="s">
         <v>1140</v>
       </c>
-      <c r="C263" s="2"/>
-      <c r="D263" s="25"/>
+      <c r="C263" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D263" s="25">
+        <v>44077</v>
+      </c>
     </row>
     <row r="264" spans="1:4" customFormat="1">
       <c r="A264" s="2">
@@ -8117,8 +8173,12 @@
       <c r="B264" s="5" t="s">
         <v>1141</v>
       </c>
-      <c r="C264" s="2"/>
-      <c r="D264" s="25"/>
+      <c r="C264" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D264" s="25">
+        <v>44077</v>
+      </c>
     </row>
     <row r="265" spans="1:4" customFormat="1">
       <c r="A265" s="2">
@@ -8127,8 +8187,12 @@
       <c r="B265" s="5" t="s">
         <v>1142</v>
       </c>
-      <c r="C265" s="2"/>
-      <c r="D265" s="25"/>
+      <c r="C265" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D265" s="25">
+        <v>44077</v>
+      </c>
     </row>
     <row r="266" spans="1:4" customFormat="1">
       <c r="A266" s="2">
@@ -8137,8 +8201,12 @@
       <c r="B266" s="5" t="s">
         <v>1143</v>
       </c>
-      <c r="C266" s="2"/>
-      <c r="D266" s="25"/>
+      <c r="C266" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D266" s="25">
+        <v>44077</v>
+      </c>
     </row>
     <row r="267" spans="1:4" customFormat="1">
       <c r="A267" s="2">
@@ -8147,8 +8215,12 @@
       <c r="B267" s="5" t="s">
         <v>1144</v>
       </c>
-      <c r="C267" s="2"/>
-      <c r="D267" s="25"/>
+      <c r="C267" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D267" s="25">
+        <v>44077</v>
+      </c>
     </row>
     <row r="268" spans="1:4" customFormat="1">
       <c r="A268" s="2">
@@ -8157,8 +8229,12 @@
       <c r="B268" s="5" t="s">
         <v>1145</v>
       </c>
-      <c r="C268" s="2"/>
-      <c r="D268" s="25"/>
+      <c r="C268" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D268" s="25">
+        <v>44077</v>
+      </c>
     </row>
     <row r="269" spans="1:4" customFormat="1">
       <c r="A269" s="2">
@@ -11187,12 +11263,12 @@
       </c>
       <c r="H1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-02</v>
+        <v>截至2020-09-03</v>
       </c>
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" customFormat="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
         <v>1016</v>
       </c>
       <c r="B2" s="20">
@@ -11215,7 +11291,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" customFormat="1">
-      <c r="A3" s="31"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="20">
         <v>1.2</v>
       </c>
@@ -11236,7 +11312,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" customFormat="1">
-      <c r="A4" s="31"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="20" t="s">
         <v>261</v>
       </c>
@@ -11257,7 +11333,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" customFormat="1">
-      <c r="A5" s="31"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="20" t="s">
         <v>262</v>
       </c>
@@ -11271,7 +11347,7 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:9" customFormat="1">
-      <c r="A6" s="31"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="20" t="s">
         <v>263</v>
       </c>
@@ -11286,7 +11362,7 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:9" customFormat="1">
-      <c r="A7" s="31"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="20" t="s">
         <v>264</v>
       </c>
@@ -11301,7 +11377,7 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9" customFormat="1">
-      <c r="A8" s="31"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="20" t="s">
         <v>265</v>
       </c>
@@ -11315,7 +11391,7 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:9" customFormat="1">
-      <c r="A9" s="31"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="20" t="s">
         <v>266</v>
       </c>
@@ -11330,7 +11406,7 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:9" customFormat="1">
-      <c r="A10" s="31"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="20" t="s">
         <v>267</v>
       </c>
@@ -11344,7 +11420,7 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:9" customFormat="1">
-      <c r="A11" s="31"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="20" t="s">
         <v>268</v>
       </c>
@@ -11358,7 +11434,7 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:9" customFormat="1">
-      <c r="A12" s="31"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="20" t="s">
         <v>269</v>
       </c>
@@ -11372,7 +11448,7 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:9" customFormat="1">
-      <c r="A13" s="31"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="20" t="s">
         <v>270</v>
       </c>
@@ -11386,7 +11462,7 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:9" customFormat="1">
-      <c r="A14" s="31"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="20" t="s">
         <v>271</v>
       </c>
@@ -11400,7 +11476,7 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:9" customFormat="1">
-      <c r="A15" s="31"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="20">
         <v>1.3</v>
       </c>
@@ -11414,7 +11490,7 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:9" customFormat="1">
-      <c r="A16" s="31"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="20">
         <v>1.4</v>
       </c>
@@ -11428,7 +11504,7 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" customFormat="1">
-      <c r="A17" s="31"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="20">
         <v>1.5</v>
       </c>
@@ -11442,7 +11518,7 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" customFormat="1">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="28" t="s">
         <v>1017</v>
       </c>
       <c r="B18" s="20">
@@ -11458,7 +11534,7 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" customFormat="1">
-      <c r="A19" s="31"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="20" t="s">
         <v>272</v>
       </c>
@@ -11472,7 +11548,7 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" customFormat="1">
-      <c r="A20" s="31"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="20" t="s">
         <v>273</v>
       </c>
@@ -11486,7 +11562,7 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" customFormat="1">
-      <c r="A21" s="31"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="20" t="s">
         <v>274</v>
       </c>
@@ -11500,7 +11576,7 @@
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" customFormat="1">
-      <c r="A22" s="31"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="20">
         <v>2.2000000000000002</v>
       </c>
@@ -11514,7 +11590,7 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" customFormat="1">
-      <c r="A23" s="31"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="20">
         <v>2.2999999999999998</v>
       </c>
@@ -11528,7 +11604,7 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" customFormat="1">
-      <c r="A24" s="31"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="20">
         <v>2.4</v>
       </c>
@@ -11542,7 +11618,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" customFormat="1">
-      <c r="A25" s="31"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="20">
         <v>2.5</v>
       </c>
@@ -11556,7 +11632,7 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" customFormat="1">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="28" t="s">
         <v>1027</v>
       </c>
       <c r="B26" s="20">
@@ -11572,7 +11648,7 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" customFormat="1">
-      <c r="A27" s="31"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="20">
         <v>3.2</v>
       </c>
@@ -11586,7 +11662,7 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" customFormat="1">
-      <c r="A28" s="31"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="20">
         <v>3.3</v>
       </c>
@@ -11600,7 +11676,7 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" customFormat="1">
-      <c r="A29" s="31"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="20" t="s">
         <v>275</v>
       </c>
@@ -11614,7 +11690,7 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" customFormat="1">
-      <c r="A30" s="31"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="20" t="s">
         <v>276</v>
       </c>
@@ -11628,7 +11704,7 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" customFormat="1">
-      <c r="A31" s="31"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="20" t="s">
         <v>277</v>
       </c>
@@ -11642,7 +11718,7 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" customFormat="1">
-      <c r="A32" s="31"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="20" t="s">
         <v>278</v>
       </c>
@@ -11656,7 +11732,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" customFormat="1">
-      <c r="A33" s="31"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="20" t="s">
         <v>279</v>
       </c>
@@ -11670,7 +11746,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" customFormat="1">
-      <c r="A34" s="31"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="20">
         <v>3.4</v>
       </c>
@@ -11684,7 +11760,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" customFormat="1">
-      <c r="A35" s="31"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="20" t="s">
         <v>280</v>
       </c>
@@ -11698,7 +11774,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" customFormat="1">
-      <c r="A36" s="31"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="20" t="s">
         <v>281</v>
       </c>
@@ -11712,7 +11788,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" customFormat="1">
-      <c r="A37" s="31"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="20">
         <v>3.5</v>
       </c>
@@ -11726,7 +11802,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" customFormat="1">
-      <c r="A38" s="31"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="20" t="s">
         <v>282</v>
       </c>
@@ -11740,7 +11816,7 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" customFormat="1">
-      <c r="A39" s="31"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="20" t="s">
         <v>283</v>
       </c>
@@ -11754,7 +11830,7 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" customFormat="1">
-      <c r="A40" s="31"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="20" t="s">
         <v>284</v>
       </c>
@@ -11768,7 +11844,7 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" customFormat="1">
-      <c r="A41" s="31"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="20" t="s">
         <v>285</v>
       </c>
@@ -11782,7 +11858,7 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" customFormat="1">
-      <c r="A42" s="31"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="20" t="s">
         <v>286</v>
       </c>
@@ -11796,7 +11872,7 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" customFormat="1">
-      <c r="A43" s="31"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="20" t="s">
         <v>287</v>
       </c>
@@ -11810,7 +11886,7 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" customFormat="1">
-      <c r="A44" s="31"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="20" t="s">
         <v>288</v>
       </c>
@@ -11824,7 +11900,7 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" customFormat="1">
-      <c r="A45" s="31"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="20" t="s">
         <v>289</v>
       </c>
@@ -11838,7 +11914,7 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" customFormat="1">
-      <c r="A46" s="31"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="20" t="s">
         <v>290</v>
       </c>
@@ -11852,7 +11928,7 @@
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" customFormat="1">
-      <c r="A47" s="31"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="20">
         <v>3.6</v>
       </c>
@@ -11866,7 +11942,7 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" customFormat="1">
-      <c r="A48" s="31"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="20" t="s">
         <v>291</v>
       </c>
@@ -11880,7 +11956,7 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" customFormat="1">
-      <c r="A49" s="31"/>
+      <c r="A49" s="28"/>
       <c r="B49" s="20" t="s">
         <v>292</v>
       </c>
@@ -11894,7 +11970,7 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" customFormat="1">
-      <c r="A50" s="31"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="20" t="s">
         <v>293</v>
       </c>
@@ -11908,7 +11984,7 @@
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" customFormat="1">
-      <c r="A51" s="31"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="20" t="s">
         <v>294</v>
       </c>
@@ -11922,7 +11998,7 @@
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" customFormat="1">
-      <c r="A52" s="31"/>
+      <c r="A52" s="28"/>
       <c r="B52" s="20" t="s">
         <v>295</v>
       </c>
@@ -11936,7 +12012,7 @@
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" customFormat="1">
-      <c r="A53" s="31"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="20" t="s">
         <v>296</v>
       </c>
@@ -11950,7 +12026,7 @@
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" customFormat="1">
-      <c r="A54" s="31"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="20" t="s">
         <v>297</v>
       </c>
@@ -11964,7 +12040,7 @@
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" customFormat="1">
-      <c r="A55" s="31"/>
+      <c r="A55" s="28"/>
       <c r="B55" s="20" t="s">
         <v>298</v>
       </c>
@@ -11978,7 +12054,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" customFormat="1">
-      <c r="A56" s="31"/>
+      <c r="A56" s="28"/>
       <c r="B56" s="20" t="s">
         <v>299</v>
       </c>
@@ -11992,7 +12068,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" customFormat="1">
-      <c r="A57" s="31"/>
+      <c r="A57" s="28"/>
       <c r="B57" s="20">
         <v>3.7</v>
       </c>
@@ -12006,7 +12082,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" customFormat="1">
-      <c r="A58" s="31"/>
+      <c r="A58" s="28"/>
       <c r="B58" s="20" t="s">
         <v>300</v>
       </c>
@@ -12020,7 +12096,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" customFormat="1">
-      <c r="A59" s="31"/>
+      <c r="A59" s="28"/>
       <c r="B59" s="20" t="s">
         <v>301</v>
       </c>
@@ -12034,7 +12110,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" customFormat="1">
-      <c r="A60" s="31"/>
+      <c r="A60" s="28"/>
       <c r="B60" s="20" t="s">
         <v>302</v>
       </c>
@@ -12048,7 +12124,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" customFormat="1">
-      <c r="A61" s="31"/>
+      <c r="A61" s="28"/>
       <c r="B61" s="20">
         <v>3.8</v>
       </c>
@@ -12062,7 +12138,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" customFormat="1">
-      <c r="A62" s="31"/>
+      <c r="A62" s="28"/>
       <c r="B62" s="20" t="s">
         <v>303</v>
       </c>
@@ -12076,7 +12152,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" customFormat="1">
-      <c r="A63" s="31"/>
+      <c r="A63" s="28"/>
       <c r="B63" s="20" t="s">
         <v>304</v>
       </c>
@@ -12090,7 +12166,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" customFormat="1">
-      <c r="A64" s="31"/>
+      <c r="A64" s="28"/>
       <c r="B64" s="20" t="s">
         <v>305</v>
       </c>
@@ -12104,7 +12180,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" customFormat="1">
-      <c r="A65" s="31"/>
+      <c r="A65" s="28"/>
       <c r="B65" s="20" t="s">
         <v>306</v>
       </c>
@@ -12118,7 +12194,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" customFormat="1">
-      <c r="A66" s="31"/>
+      <c r="A66" s="28"/>
       <c r="B66" s="20" t="s">
         <v>307</v>
       </c>
@@ -12132,7 +12208,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" customFormat="1">
-      <c r="A67" s="31"/>
+      <c r="A67" s="28"/>
       <c r="B67" s="20" t="s">
         <v>308</v>
       </c>
@@ -12146,7 +12222,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" customFormat="1">
-      <c r="A68" s="31"/>
+      <c r="A68" s="28"/>
       <c r="B68" s="20">
         <v>3.9</v>
       </c>
@@ -12160,7 +12236,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" customFormat="1">
-      <c r="A69" s="31"/>
+      <c r="A69" s="28"/>
       <c r="B69" s="20">
         <v>3.1</v>
       </c>
@@ -12174,7 +12250,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" customFormat="1">
-      <c r="A70" s="31"/>
+      <c r="A70" s="28"/>
       <c r="B70" s="20" t="s">
         <v>309</v>
       </c>
@@ -12188,7 +12264,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" customFormat="1">
-      <c r="A71" s="31"/>
+      <c r="A71" s="28"/>
       <c r="B71" s="20" t="s">
         <v>310</v>
       </c>
@@ -12202,7 +12278,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" customFormat="1">
-      <c r="A72" s="31"/>
+      <c r="A72" s="28"/>
       <c r="B72" s="20" t="s">
         <v>311</v>
       </c>
@@ -12216,7 +12292,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" customFormat="1">
-      <c r="A73" s="31"/>
+      <c r="A73" s="28"/>
       <c r="B73" s="20" t="s">
         <v>312</v>
       </c>
@@ -12230,7 +12306,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" customFormat="1">
-      <c r="A74" s="31"/>
+      <c r="A74" s="28"/>
       <c r="B74" s="20" t="s">
         <v>313</v>
       </c>
@@ -12244,7 +12320,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" customFormat="1">
-      <c r="A75" s="31"/>
+      <c r="A75" s="28"/>
       <c r="B75" s="20" t="s">
         <v>314</v>
       </c>
@@ -12258,7 +12334,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" customFormat="1">
-      <c r="A76" s="31"/>
+      <c r="A76" s="28"/>
       <c r="B76" s="20" t="s">
         <v>315</v>
       </c>
@@ -12272,7 +12348,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" customFormat="1">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="28" t="s">
         <v>1028</v>
       </c>
       <c r="B77" s="20">
@@ -12288,7 +12364,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" customFormat="1">
-      <c r="A78" s="31"/>
+      <c r="A78" s="28"/>
       <c r="B78" s="20" t="s">
         <v>316</v>
       </c>
@@ -12302,7 +12378,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" customFormat="1">
-      <c r="A79" s="31"/>
+      <c r="A79" s="28"/>
       <c r="B79" s="20" t="s">
         <v>317</v>
       </c>
@@ -12316,7 +12392,7 @@
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" customFormat="1">
-      <c r="A80" s="31"/>
+      <c r="A80" s="28"/>
       <c r="B80" s="20" t="s">
         <v>318</v>
       </c>
@@ -12330,7 +12406,7 @@
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" customFormat="1">
-      <c r="A81" s="31"/>
+      <c r="A81" s="28"/>
       <c r="B81" s="20" t="s">
         <v>319</v>
       </c>
@@ -12344,7 +12420,7 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" customFormat="1">
-      <c r="A82" s="31"/>
+      <c r="A82" s="28"/>
       <c r="B82" s="20">
         <v>4.2</v>
       </c>
@@ -12358,7 +12434,7 @@
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" customFormat="1">
-      <c r="A83" s="31"/>
+      <c r="A83" s="28"/>
       <c r="B83" s="20" t="s">
         <v>320</v>
       </c>
@@ -12372,7 +12448,7 @@
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" customFormat="1">
-      <c r="A84" s="31"/>
+      <c r="A84" s="28"/>
       <c r="B84" s="20" t="s">
         <v>321</v>
       </c>
@@ -12386,7 +12462,7 @@
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" customFormat="1">
-      <c r="A85" s="31"/>
+      <c r="A85" s="28"/>
       <c r="B85" s="20" t="s">
         <v>322</v>
       </c>
@@ -12400,7 +12476,7 @@
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" customFormat="1">
-      <c r="A86" s="31"/>
+      <c r="A86" s="28"/>
       <c r="B86" s="20">
         <v>4.3</v>
       </c>
@@ -12414,7 +12490,7 @@
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" customFormat="1">
-      <c r="A87" s="31"/>
+      <c r="A87" s="28"/>
       <c r="B87" s="20" t="s">
         <v>323</v>
       </c>
@@ -12428,7 +12504,7 @@
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" customFormat="1">
-      <c r="A88" s="31"/>
+      <c r="A88" s="28"/>
       <c r="B88" s="20" t="s">
         <v>324</v>
       </c>
@@ -12442,7 +12518,7 @@
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" customFormat="1">
-      <c r="A89" s="31"/>
+      <c r="A89" s="28"/>
       <c r="B89" s="20" t="s">
         <v>325</v>
       </c>
@@ -12456,7 +12532,7 @@
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" customFormat="1">
-      <c r="A90" s="31"/>
+      <c r="A90" s="28"/>
       <c r="B90" s="20" t="s">
         <v>326</v>
       </c>
@@ -12470,7 +12546,7 @@
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" customFormat="1">
-      <c r="A91" s="31"/>
+      <c r="A91" s="28"/>
       <c r="B91" s="20" t="s">
         <v>327</v>
       </c>
@@ -12484,7 +12560,7 @@
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" customFormat="1">
-      <c r="A92" s="31"/>
+      <c r="A92" s="28"/>
       <c r="B92" s="20" t="s">
         <v>328</v>
       </c>
@@ -12498,7 +12574,7 @@
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" customFormat="1">
-      <c r="A93" s="31"/>
+      <c r="A93" s="28"/>
       <c r="B93" s="20" t="s">
         <v>329</v>
       </c>
@@ -12512,7 +12588,7 @@
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" customFormat="1">
-      <c r="A94" s="31"/>
+      <c r="A94" s="28"/>
       <c r="B94" s="20" t="s">
         <v>330</v>
       </c>
@@ -12526,7 +12602,7 @@
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" customFormat="1">
-      <c r="A95" s="31"/>
+      <c r="A95" s="28"/>
       <c r="B95" s="20" t="s">
         <v>331</v>
       </c>
@@ -12540,7 +12616,7 @@
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" customFormat="1">
-      <c r="A96" s="31"/>
+      <c r="A96" s="28"/>
       <c r="B96" s="20">
         <v>4.4000000000000004</v>
       </c>
@@ -12554,7 +12630,7 @@
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" customFormat="1">
-      <c r="A97" s="31"/>
+      <c r="A97" s="28"/>
       <c r="B97" s="20" t="s">
         <v>332</v>
       </c>
@@ -12568,7 +12644,7 @@
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" customFormat="1">
-      <c r="A98" s="31"/>
+      <c r="A98" s="28"/>
       <c r="B98" s="20" t="s">
         <v>333</v>
       </c>
@@ -12582,7 +12658,7 @@
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" customFormat="1">
-      <c r="A99" s="31"/>
+      <c r="A99" s="28"/>
       <c r="B99" s="20" t="s">
         <v>334</v>
       </c>
@@ -12596,7 +12672,7 @@
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" customFormat="1">
-      <c r="A100" s="31"/>
+      <c r="A100" s="28"/>
       <c r="B100" s="20" t="s">
         <v>335</v>
       </c>
@@ -12610,7 +12686,7 @@
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" customFormat="1">
-      <c r="A101" s="31"/>
+      <c r="A101" s="28"/>
       <c r="B101" s="20" t="s">
         <v>336</v>
       </c>
@@ -12624,7 +12700,7 @@
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" customFormat="1">
-      <c r="A102" s="31"/>
+      <c r="A102" s="28"/>
       <c r="B102" s="20">
         <v>4.5</v>
       </c>
@@ -12638,7 +12714,7 @@
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" customFormat="1">
-      <c r="A103" s="31"/>
+      <c r="A103" s="28"/>
       <c r="B103" s="20">
         <v>4.5999999999999996</v>
       </c>
@@ -12652,7 +12728,7 @@
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" customFormat="1">
-      <c r="A104" s="31"/>
+      <c r="A104" s="28"/>
       <c r="B104" s="20" t="s">
         <v>337</v>
       </c>
@@ -12666,7 +12742,7 @@
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" customFormat="1">
-      <c r="A105" s="31"/>
+      <c r="A105" s="28"/>
       <c r="B105" s="20" t="s">
         <v>338</v>
       </c>
@@ -12680,7 +12756,7 @@
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" customFormat="1">
-      <c r="A106" s="31"/>
+      <c r="A106" s="28"/>
       <c r="B106" s="20" t="s">
         <v>339</v>
       </c>
@@ -12694,7 +12770,7 @@
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" customFormat="1">
-      <c r="A107" s="31"/>
+      <c r="A107" s="28"/>
       <c r="B107" s="20" t="s">
         <v>340</v>
       </c>
@@ -12708,7 +12784,7 @@
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" customFormat="1">
-      <c r="A108" s="31"/>
+      <c r="A108" s="28"/>
       <c r="B108" s="20" t="s">
         <v>341</v>
       </c>
@@ -12722,7 +12798,7 @@
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" customFormat="1">
-      <c r="A109" s="31"/>
+      <c r="A109" s="28"/>
       <c r="B109" s="20" t="s">
         <v>342</v>
       </c>
@@ -12736,7 +12812,7 @@
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" customFormat="1">
-      <c r="A110" s="31"/>
+      <c r="A110" s="28"/>
       <c r="B110" s="20" t="s">
         <v>343</v>
       </c>
@@ -12750,7 +12826,7 @@
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" customFormat="1">
-      <c r="A111" s="31"/>
+      <c r="A111" s="28"/>
       <c r="B111" s="20" t="s">
         <v>344</v>
       </c>
@@ -12764,7 +12840,7 @@
       <c r="F111" s="9"/>
     </row>
     <row r="112" spans="1:6" customFormat="1">
-      <c r="A112" s="31"/>
+      <c r="A112" s="28"/>
       <c r="B112" s="20">
         <v>4.7</v>
       </c>
@@ -12778,7 +12854,7 @@
       <c r="F112" s="9"/>
     </row>
     <row r="113" spans="1:8" customFormat="1">
-      <c r="A113" s="31"/>
+      <c r="A113" s="28"/>
       <c r="B113" s="20" t="s">
         <v>345</v>
       </c>
@@ -12792,7 +12868,7 @@
       <c r="F113" s="9"/>
     </row>
     <row r="114" spans="1:8" customFormat="1">
-      <c r="A114" s="31"/>
+      <c r="A114" s="28"/>
       <c r="B114" s="20" t="s">
         <v>346</v>
       </c>
@@ -12806,7 +12882,7 @@
       <c r="F114" s="9"/>
     </row>
     <row r="115" spans="1:8" customFormat="1">
-      <c r="A115" s="31"/>
+      <c r="A115" s="28"/>
       <c r="B115" s="20" t="s">
         <v>347</v>
       </c>
@@ -12820,7 +12896,7 @@
       <c r="F115" s="9"/>
     </row>
     <row r="116" spans="1:8" customFormat="1">
-      <c r="A116" s="31"/>
+      <c r="A116" s="28"/>
       <c r="B116" s="20" t="s">
         <v>348</v>
       </c>
@@ -12835,7 +12911,7 @@
       <c r="H116" s="7"/>
     </row>
     <row r="117" spans="1:8" customFormat="1">
-      <c r="A117" s="31"/>
+      <c r="A117" s="28"/>
       <c r="B117" s="20">
         <v>4.8</v>
       </c>
@@ -12850,7 +12926,7 @@
       <c r="H117" s="7"/>
     </row>
     <row r="118" spans="1:8" customFormat="1">
-      <c r="A118" s="31"/>
+      <c r="A118" s="28"/>
       <c r="B118" s="20" t="s">
         <v>349</v>
       </c>
@@ -12865,7 +12941,7 @@
       <c r="H118" s="7"/>
     </row>
     <row r="119" spans="1:8" customFormat="1">
-      <c r="A119" s="31"/>
+      <c r="A119" s="28"/>
       <c r="B119" s="20">
         <v>4.9000000000000004</v>
       </c>
@@ -12880,7 +12956,7 @@
       <c r="H119" s="7"/>
     </row>
     <row r="120" spans="1:8" customFormat="1">
-      <c r="A120" s="31"/>
+      <c r="A120" s="28"/>
       <c r="B120" s="20" t="s">
         <v>350</v>
       </c>
@@ -12895,7 +12971,7 @@
       <c r="H120" s="7"/>
     </row>
     <row r="121" spans="1:8" customFormat="1">
-      <c r="A121" s="31"/>
+      <c r="A121" s="28"/>
       <c r="B121" s="20" t="s">
         <v>351</v>
       </c>
@@ -12910,7 +12986,7 @@
       <c r="H121" s="7"/>
     </row>
     <row r="122" spans="1:8" customFormat="1">
-      <c r="A122" s="31"/>
+      <c r="A122" s="28"/>
       <c r="B122" s="20" t="s">
         <v>352</v>
       </c>
@@ -12925,7 +13001,7 @@
       <c r="H122" s="7"/>
     </row>
     <row r="123" spans="1:8" customFormat="1">
-      <c r="A123" s="31"/>
+      <c r="A123" s="28"/>
       <c r="B123" s="20" t="s">
         <v>353</v>
       </c>
@@ -12940,7 +13016,7 @@
       <c r="H123" s="7"/>
     </row>
     <row r="124" spans="1:8" customFormat="1">
-      <c r="A124" s="31"/>
+      <c r="A124" s="28"/>
       <c r="B124" s="20" t="s">
         <v>354</v>
       </c>
@@ -12955,7 +13031,7 @@
       <c r="H124" s="7"/>
     </row>
     <row r="125" spans="1:8" customFormat="1">
-      <c r="A125" s="31"/>
+      <c r="A125" s="28"/>
       <c r="B125" s="20" t="s">
         <v>355</v>
       </c>
@@ -12970,7 +13046,7 @@
       <c r="H125" s="7"/>
     </row>
     <row r="126" spans="1:8" customFormat="1">
-      <c r="A126" s="31"/>
+      <c r="A126" s="28"/>
       <c r="B126" s="20" t="s">
         <v>356</v>
       </c>
@@ -12985,7 +13061,7 @@
       <c r="H126" s="7"/>
     </row>
     <row r="127" spans="1:8" customFormat="1">
-      <c r="A127" s="31"/>
+      <c r="A127" s="28"/>
       <c r="B127" s="21">
         <v>4.0999999999999996</v>
       </c>
@@ -13000,7 +13076,7 @@
       <c r="H127" s="7"/>
     </row>
     <row r="128" spans="1:8" customFormat="1">
-      <c r="A128" s="31" t="s">
+      <c r="A128" s="28" t="s">
         <v>1029</v>
       </c>
       <c r="B128" s="20">
@@ -13016,7 +13092,7 @@
       <c r="F128" s="6"/>
     </row>
     <row r="129" spans="1:6" customFormat="1">
-      <c r="A129" s="31"/>
+      <c r="A129" s="28"/>
       <c r="B129" s="20" t="s">
         <v>357</v>
       </c>
@@ -13030,7 +13106,7 @@
       <c r="F129" s="6"/>
     </row>
     <row r="130" spans="1:6" customFormat="1">
-      <c r="A130" s="31"/>
+      <c r="A130" s="28"/>
       <c r="B130" s="20" t="s">
         <v>358</v>
       </c>
@@ -13044,7 +13120,7 @@
       <c r="F130" s="6"/>
     </row>
     <row r="131" spans="1:6" customFormat="1">
-      <c r="A131" s="31"/>
+      <c r="A131" s="28"/>
       <c r="B131" s="20" t="s">
         <v>359</v>
       </c>
@@ -13058,7 +13134,7 @@
       <c r="F131" s="6"/>
     </row>
     <row r="132" spans="1:6" customFormat="1">
-      <c r="A132" s="31"/>
+      <c r="A132" s="28"/>
       <c r="B132" s="20" t="s">
         <v>360</v>
       </c>
@@ -13072,7 +13148,7 @@
       <c r="F132" s="6"/>
     </row>
     <row r="133" spans="1:6" customFormat="1">
-      <c r="A133" s="31"/>
+      <c r="A133" s="28"/>
       <c r="B133" s="20" t="s">
         <v>361</v>
       </c>
@@ -13086,7 +13162,7 @@
       <c r="F133" s="6"/>
     </row>
     <row r="134" spans="1:6" customFormat="1">
-      <c r="A134" s="31"/>
+      <c r="A134" s="28"/>
       <c r="B134" s="20" t="s">
         <v>362</v>
       </c>
@@ -13100,7 +13176,7 @@
       <c r="F134" s="6"/>
     </row>
     <row r="135" spans="1:6" customFormat="1">
-      <c r="A135" s="31"/>
+      <c r="A135" s="28"/>
       <c r="B135" s="20" t="s">
         <v>363</v>
       </c>
@@ -13114,7 +13190,7 @@
       <c r="F135" s="6"/>
     </row>
     <row r="136" spans="1:6" customFormat="1">
-      <c r="A136" s="31"/>
+      <c r="A136" s="28"/>
       <c r="B136" s="20" t="s">
         <v>364</v>
       </c>
@@ -13128,7 +13204,7 @@
       <c r="F136" s="6"/>
     </row>
     <row r="137" spans="1:6" customFormat="1">
-      <c r="A137" s="31"/>
+      <c r="A137" s="28"/>
       <c r="B137" s="20" t="s">
         <v>365</v>
       </c>
@@ -13142,7 +13218,7 @@
       <c r="F137" s="6"/>
     </row>
     <row r="138" spans="1:6" customFormat="1">
-      <c r="A138" s="31"/>
+      <c r="A138" s="28"/>
       <c r="B138" s="20" t="s">
         <v>366</v>
       </c>
@@ -13156,7 +13232,7 @@
       <c r="F138" s="6"/>
     </row>
     <row r="139" spans="1:6" customFormat="1">
-      <c r="A139" s="31"/>
+      <c r="A139" s="28"/>
       <c r="B139" s="20">
         <v>5.2</v>
       </c>
@@ -13170,7 +13246,7 @@
       <c r="F139" s="6"/>
     </row>
     <row r="140" spans="1:6" customFormat="1">
-      <c r="A140" s="31"/>
+      <c r="A140" s="28"/>
       <c r="B140" s="20" t="s">
         <v>367</v>
       </c>
@@ -13184,7 +13260,7 @@
       <c r="F140" s="6"/>
     </row>
     <row r="141" spans="1:6" customFormat="1">
-      <c r="A141" s="31"/>
+      <c r="A141" s="28"/>
       <c r="B141" s="20" t="s">
         <v>368</v>
       </c>
@@ -13198,7 +13274,7 @@
       <c r="F141" s="6"/>
     </row>
     <row r="142" spans="1:6" customFormat="1">
-      <c r="A142" s="31"/>
+      <c r="A142" s="28"/>
       <c r="B142" s="20" t="s">
         <v>369</v>
       </c>
@@ -13212,7 +13288,7 @@
       <c r="F142" s="6"/>
     </row>
     <row r="143" spans="1:6" customFormat="1">
-      <c r="A143" s="31"/>
+      <c r="A143" s="28"/>
       <c r="B143" s="20" t="s">
         <v>370</v>
       </c>
@@ -13226,7 +13302,7 @@
       <c r="F143" s="6"/>
     </row>
     <row r="144" spans="1:6" customFormat="1">
-      <c r="A144" s="31"/>
+      <c r="A144" s="28"/>
       <c r="B144" s="20">
         <v>5.3</v>
       </c>
@@ -13240,7 +13316,7 @@
       <c r="F144" s="6"/>
     </row>
     <row r="145" spans="1:6" customFormat="1">
-      <c r="A145" s="31"/>
+      <c r="A145" s="28"/>
       <c r="B145" s="20" t="s">
         <v>371</v>
       </c>
@@ -13254,7 +13330,7 @@
       <c r="F145" s="6"/>
     </row>
     <row r="146" spans="1:6" customFormat="1">
-      <c r="A146" s="31"/>
+      <c r="A146" s="28"/>
       <c r="B146" s="20" t="s">
         <v>372</v>
       </c>
@@ -13268,7 +13344,7 @@
       <c r="F146" s="6"/>
     </row>
     <row r="147" spans="1:6" customFormat="1">
-      <c r="A147" s="31"/>
+      <c r="A147" s="28"/>
       <c r="B147" s="20">
         <v>5.4</v>
       </c>
@@ -13282,7 +13358,7 @@
       <c r="F147" s="6"/>
     </row>
     <row r="148" spans="1:6" customFormat="1">
-      <c r="A148" s="31"/>
+      <c r="A148" s="28"/>
       <c r="B148" s="20">
         <v>5.5</v>
       </c>
@@ -13296,7 +13372,7 @@
       <c r="F148" s="6"/>
     </row>
     <row r="149" spans="1:6" customFormat="1">
-      <c r="A149" s="31"/>
+      <c r="A149" s="28"/>
       <c r="B149" s="20">
         <v>5.6</v>
       </c>
@@ -13310,7 +13386,7 @@
       <c r="F149" s="6"/>
     </row>
     <row r="150" spans="1:6" customFormat="1">
-      <c r="A150" s="31"/>
+      <c r="A150" s="28"/>
       <c r="B150" s="20">
         <v>5.7</v>
       </c>
@@ -13324,7 +13400,7 @@
       <c r="F150" s="6"/>
     </row>
     <row r="151" spans="1:6" customFormat="1">
-      <c r="A151" s="31"/>
+      <c r="A151" s="28"/>
       <c r="B151" s="20" t="s">
         <v>373</v>
       </c>
@@ -13338,7 +13414,7 @@
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="1:6" customFormat="1">
-      <c r="A152" s="31"/>
+      <c r="A152" s="28"/>
       <c r="B152" s="20" t="s">
         <v>374</v>
       </c>
@@ -13352,7 +13428,7 @@
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:6" customFormat="1">
-      <c r="A153" s="31"/>
+      <c r="A153" s="28"/>
       <c r="B153" s="20" t="s">
         <v>375</v>
       </c>
@@ -13366,7 +13442,7 @@
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" customFormat="1">
-      <c r="A154" s="31"/>
+      <c r="A154" s="28"/>
       <c r="B154" s="20" t="s">
         <v>376</v>
       </c>
@@ -13380,7 +13456,7 @@
       <c r="F154" s="2"/>
     </row>
     <row r="155" spans="1:6" customFormat="1">
-      <c r="A155" s="31"/>
+      <c r="A155" s="28"/>
       <c r="B155" s="20" t="s">
         <v>377</v>
       </c>
@@ -13394,7 +13470,7 @@
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" customFormat="1">
-      <c r="A156" s="31"/>
+      <c r="A156" s="28"/>
       <c r="B156" s="20" t="s">
         <v>378</v>
       </c>
@@ -13408,7 +13484,7 @@
       <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:6" customFormat="1">
-      <c r="A157" s="31"/>
+      <c r="A157" s="28"/>
       <c r="B157" s="20">
         <v>5.8</v>
       </c>
@@ -13422,7 +13498,7 @@
       <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:6" customFormat="1">
-      <c r="A158" s="31" t="s">
+      <c r="A158" s="28" t="s">
         <v>1026</v>
       </c>
       <c r="B158" s="20">
@@ -13438,7 +13514,7 @@
       <c r="F158" s="2"/>
     </row>
     <row r="159" spans="1:6" customFormat="1">
-      <c r="A159" s="31"/>
+      <c r="A159" s="28"/>
       <c r="B159" s="20" t="s">
         <v>379</v>
       </c>
@@ -13452,7 +13528,7 @@
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" customFormat="1">
-      <c r="A160" s="31"/>
+      <c r="A160" s="28"/>
       <c r="B160" s="20" t="s">
         <v>380</v>
       </c>
@@ -13466,7 +13542,7 @@
       <c r="F160" s="2"/>
     </row>
     <row r="161" spans="1:6" customFormat="1">
-      <c r="A161" s="31"/>
+      <c r="A161" s="28"/>
       <c r="B161" s="20" t="s">
         <v>381</v>
       </c>
@@ -13480,7 +13556,7 @@
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" customFormat="1">
-      <c r="A162" s="31"/>
+      <c r="A162" s="28"/>
       <c r="B162" s="20" t="s">
         <v>382</v>
       </c>
@@ -13494,7 +13570,7 @@
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:6" customFormat="1">
-      <c r="A163" s="31"/>
+      <c r="A163" s="28"/>
       <c r="B163" s="20" t="s">
         <v>383</v>
       </c>
@@ -13508,7 +13584,7 @@
       <c r="F163" s="2"/>
     </row>
     <row r="164" spans="1:6" customFormat="1">
-      <c r="A164" s="31"/>
+      <c r="A164" s="28"/>
       <c r="B164" s="20" t="s">
         <v>384</v>
       </c>
@@ -13522,7 +13598,7 @@
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" customFormat="1">
-      <c r="A165" s="31"/>
+      <c r="A165" s="28"/>
       <c r="B165" s="20">
         <v>6.2</v>
       </c>
@@ -13536,7 +13612,7 @@
       <c r="F165" s="2"/>
     </row>
     <row r="166" spans="1:6" customFormat="1">
-      <c r="A166" s="31"/>
+      <c r="A166" s="28"/>
       <c r="B166" s="20" t="s">
         <v>385</v>
       </c>
@@ -13550,7 +13626,7 @@
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" customFormat="1">
-      <c r="A167" s="31"/>
+      <c r="A167" s="28"/>
       <c r="B167" s="20" t="s">
         <v>386</v>
       </c>
@@ -13564,7 +13640,7 @@
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="1:6" customFormat="1">
-      <c r="A168" s="31"/>
+      <c r="A168" s="28"/>
       <c r="B168" s="20" t="s">
         <v>387</v>
       </c>
@@ -13578,7 +13654,7 @@
       <c r="F168" s="2"/>
     </row>
     <row r="169" spans="1:6" customFormat="1">
-      <c r="A169" s="31"/>
+      <c r="A169" s="28"/>
       <c r="B169" s="20">
         <v>6.3</v>
       </c>
@@ -13592,7 +13668,7 @@
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" customFormat="1">
-      <c r="A170" s="31"/>
+      <c r="A170" s="28"/>
       <c r="B170" s="20" t="s">
         <v>388</v>
       </c>
@@ -13606,7 +13682,7 @@
       <c r="F170" s="2"/>
     </row>
     <row r="171" spans="1:6" customFormat="1">
-      <c r="A171" s="31"/>
+      <c r="A171" s="28"/>
       <c r="B171" s="20" t="s">
         <v>389</v>
       </c>
@@ -13620,7 +13696,7 @@
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" customFormat="1">
-      <c r="A172" s="31"/>
+      <c r="A172" s="28"/>
       <c r="B172" s="20" t="s">
         <v>390</v>
       </c>
@@ -13634,7 +13710,7 @@
       <c r="F172" s="2"/>
     </row>
     <row r="173" spans="1:6" customFormat="1">
-      <c r="A173" s="31"/>
+      <c r="A173" s="28"/>
       <c r="B173" s="20" t="s">
         <v>391</v>
       </c>
@@ -13648,7 +13724,7 @@
       <c r="F173" s="2"/>
     </row>
     <row r="174" spans="1:6" customFormat="1">
-      <c r="A174" s="31"/>
+      <c r="A174" s="28"/>
       <c r="B174" s="20" t="s">
         <v>392</v>
       </c>
@@ -13662,7 +13738,7 @@
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" customFormat="1">
-      <c r="A175" s="31"/>
+      <c r="A175" s="28"/>
       <c r="B175" s="20" t="s">
         <v>393</v>
       </c>
@@ -13676,7 +13752,7 @@
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="1:6" customFormat="1">
-      <c r="A176" s="31"/>
+      <c r="A176" s="28"/>
       <c r="B176" s="20" t="s">
         <v>394</v>
       </c>
@@ -13690,7 +13766,7 @@
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" customFormat="1">
-      <c r="A177" s="31"/>
+      <c r="A177" s="28"/>
       <c r="B177" s="20" t="s">
         <v>395</v>
       </c>
@@ -13704,7 +13780,7 @@
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:6" customFormat="1">
-      <c r="A178" s="31"/>
+      <c r="A178" s="28"/>
       <c r="B178" s="20">
         <v>6.4</v>
       </c>
@@ -13718,7 +13794,7 @@
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:6" customFormat="1">
-      <c r="A179" s="31"/>
+      <c r="A179" s="28"/>
       <c r="B179" s="20" t="s">
         <v>396</v>
       </c>
@@ -13732,7 +13808,7 @@
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" customFormat="1">
-      <c r="A180" s="31"/>
+      <c r="A180" s="28"/>
       <c r="B180" s="20" t="s">
         <v>397</v>
       </c>
@@ -13746,7 +13822,7 @@
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6" customFormat="1">
-      <c r="A181" s="31"/>
+      <c r="A181" s="28"/>
       <c r="B181" s="20" t="s">
         <v>398</v>
       </c>
@@ -13760,7 +13836,7 @@
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" customFormat="1">
-      <c r="A182" s="31"/>
+      <c r="A182" s="28"/>
       <c r="B182" s="20" t="s">
         <v>399</v>
       </c>
@@ -13774,7 +13850,7 @@
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:6" customFormat="1">
-      <c r="A183" s="31"/>
+      <c r="A183" s="28"/>
       <c r="B183" s="20" t="s">
         <v>400</v>
       </c>
@@ -13788,7 +13864,7 @@
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6" customFormat="1">
-      <c r="A184" s="31"/>
+      <c r="A184" s="28"/>
       <c r="B184" s="20" t="s">
         <v>401</v>
       </c>
@@ -13802,7 +13878,7 @@
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:6" customFormat="1">
-      <c r="A185" s="31"/>
+      <c r="A185" s="28"/>
       <c r="B185" s="20" t="s">
         <v>402</v>
       </c>
@@ -13816,7 +13892,7 @@
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" customFormat="1">
-      <c r="A186" s="31"/>
+      <c r="A186" s="28"/>
       <c r="B186" s="20">
         <v>6.5</v>
       </c>
@@ -13830,7 +13906,7 @@
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="1:6" customFormat="1">
-      <c r="A187" s="31"/>
+      <c r="A187" s="28"/>
       <c r="B187" s="20" t="s">
         <v>403</v>
       </c>
@@ -13844,7 +13920,7 @@
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" customFormat="1">
-      <c r="A188" s="31"/>
+      <c r="A188" s="28"/>
       <c r="B188" s="20" t="s">
         <v>404</v>
       </c>
@@ -13858,7 +13934,7 @@
       <c r="F188" s="2"/>
     </row>
     <row r="189" spans="1:6" customFormat="1">
-      <c r="A189" s="31"/>
+      <c r="A189" s="28"/>
       <c r="B189" s="20" t="s">
         <v>405</v>
       </c>
@@ -13872,7 +13948,7 @@
       <c r="F189" s="2"/>
     </row>
     <row r="190" spans="1:6" customFormat="1">
-      <c r="A190" s="31" t="s">
+      <c r="A190" s="28" t="s">
         <v>1025</v>
       </c>
       <c r="B190" s="20">
@@ -13888,7 +13964,7 @@
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" customFormat="1">
-      <c r="A191" s="31"/>
+      <c r="A191" s="28"/>
       <c r="B191" s="20" t="s">
         <v>406</v>
       </c>
@@ -13902,7 +13978,7 @@
       <c r="F191" s="2"/>
     </row>
     <row r="192" spans="1:6" customFormat="1">
-      <c r="A192" s="31"/>
+      <c r="A192" s="28"/>
       <c r="B192" s="20" t="s">
         <v>407</v>
       </c>
@@ -13916,7 +13992,7 @@
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" customFormat="1">
-      <c r="A193" s="31"/>
+      <c r="A193" s="28"/>
       <c r="B193" s="20" t="s">
         <v>408</v>
       </c>
@@ -13930,7 +14006,7 @@
       <c r="F193" s="2"/>
     </row>
     <row r="194" spans="1:6" customFormat="1">
-      <c r="A194" s="31"/>
+      <c r="A194" s="28"/>
       <c r="B194" s="20" t="s">
         <v>409</v>
       </c>
@@ -13944,7 +14020,7 @@
       <c r="F194" s="2"/>
     </row>
     <row r="195" spans="1:6" customFormat="1">
-      <c r="A195" s="31"/>
+      <c r="A195" s="28"/>
       <c r="B195" s="20">
         <v>7.2</v>
       </c>
@@ -13958,7 +14034,7 @@
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" customFormat="1">
-      <c r="A196" s="31"/>
+      <c r="A196" s="28"/>
       <c r="B196" s="20" t="s">
         <v>410</v>
       </c>
@@ -13972,7 +14048,7 @@
       <c r="F196" s="2"/>
     </row>
     <row r="197" spans="1:6" customFormat="1">
-      <c r="A197" s="31"/>
+      <c r="A197" s="28"/>
       <c r="B197" s="20" t="s">
         <v>411</v>
       </c>
@@ -13986,7 +14062,7 @@
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" customFormat="1">
-      <c r="A198" s="31"/>
+      <c r="A198" s="28"/>
       <c r="B198" s="20" t="s">
         <v>412</v>
       </c>
@@ -14000,7 +14076,7 @@
       <c r="F198" s="2"/>
     </row>
     <row r="199" spans="1:6" customFormat="1">
-      <c r="A199" s="31"/>
+      <c r="A199" s="28"/>
       <c r="B199" s="20" t="s">
         <v>413</v>
       </c>
@@ -14014,7 +14090,7 @@
       <c r="F199" s="2"/>
     </row>
     <row r="200" spans="1:6" customFormat="1">
-      <c r="A200" s="31"/>
+      <c r="A200" s="28"/>
       <c r="B200" s="20" t="s">
         <v>414</v>
       </c>
@@ -14028,7 +14104,7 @@
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" customFormat="1">
-      <c r="A201" s="31"/>
+      <c r="A201" s="28"/>
       <c r="B201" s="20" t="s">
         <v>415</v>
       </c>
@@ -14042,7 +14118,7 @@
       <c r="F201" s="2"/>
     </row>
     <row r="202" spans="1:6" customFormat="1">
-      <c r="A202" s="31"/>
+      <c r="A202" s="28"/>
       <c r="B202" s="20">
         <v>7.3</v>
       </c>
@@ -14056,7 +14132,7 @@
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:6" customFormat="1">
-      <c r="A203" s="31"/>
+      <c r="A203" s="28"/>
       <c r="B203" s="20">
         <v>7.4</v>
       </c>
@@ -14070,7 +14146,7 @@
       <c r="F203" s="2"/>
     </row>
     <row r="204" spans="1:6" customFormat="1">
-      <c r="A204" s="31"/>
+      <c r="A204" s="28"/>
       <c r="B204" s="20" t="s">
         <v>416</v>
       </c>
@@ -14084,7 +14160,7 @@
       <c r="F204" s="2"/>
     </row>
     <row r="205" spans="1:6" customFormat="1">
-      <c r="A205" s="31"/>
+      <c r="A205" s="28"/>
       <c r="B205" s="20" t="s">
         <v>417</v>
       </c>
@@ -14098,7 +14174,7 @@
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" customFormat="1">
-      <c r="A206" s="31"/>
+      <c r="A206" s="28"/>
       <c r="B206" s="20" t="s">
         <v>418</v>
       </c>
@@ -14112,7 +14188,7 @@
       <c r="F206" s="2"/>
     </row>
     <row r="207" spans="1:6" customFormat="1">
-      <c r="A207" s="31"/>
+      <c r="A207" s="28"/>
       <c r="B207" s="20" t="s">
         <v>419</v>
       </c>
@@ -14126,7 +14202,7 @@
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" customFormat="1">
-      <c r="A208" s="31"/>
+      <c r="A208" s="28"/>
       <c r="B208" s="20">
         <v>7.5</v>
       </c>
@@ -14140,7 +14216,7 @@
       <c r="F208" s="2"/>
     </row>
     <row r="209" spans="1:6" customFormat="1">
-      <c r="A209" s="31"/>
+      <c r="A209" s="28"/>
       <c r="B209" s="20" t="s">
         <v>420</v>
       </c>
@@ -14154,7 +14230,7 @@
       <c r="F209" s="2"/>
     </row>
     <row r="210" spans="1:6" customFormat="1">
-      <c r="A210" s="31"/>
+      <c r="A210" s="28"/>
       <c r="B210" s="20" t="s">
         <v>421</v>
       </c>
@@ -14168,7 +14244,7 @@
       <c r="F210" s="2"/>
     </row>
     <row r="211" spans="1:6" customFormat="1">
-      <c r="A211" s="31"/>
+      <c r="A211" s="28"/>
       <c r="B211" s="20" t="s">
         <v>422</v>
       </c>
@@ -14182,7 +14258,7 @@
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" customFormat="1">
-      <c r="A212" s="31"/>
+      <c r="A212" s="28"/>
       <c r="B212" s="20" t="s">
         <v>423</v>
       </c>
@@ -14196,7 +14272,7 @@
       <c r="F212" s="2"/>
     </row>
     <row r="213" spans="1:6" customFormat="1">
-      <c r="A213" s="31"/>
+      <c r="A213" s="28"/>
       <c r="B213" s="20" t="s">
         <v>424</v>
       </c>
@@ -14210,7 +14286,7 @@
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" customFormat="1">
-      <c r="A214" s="31"/>
+      <c r="A214" s="28"/>
       <c r="B214" s="20" t="s">
         <v>425</v>
       </c>
@@ -14224,7 +14300,7 @@
       <c r="F214" s="2"/>
     </row>
     <row r="215" spans="1:6" customFormat="1">
-      <c r="A215" s="31"/>
+      <c r="A215" s="28"/>
       <c r="B215" s="20" t="s">
         <v>426</v>
       </c>
@@ -14238,7 +14314,7 @@
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:6" customFormat="1">
-      <c r="A216" s="31"/>
+      <c r="A216" s="28"/>
       <c r="B216" s="20" t="s">
         <v>427</v>
       </c>
@@ -14252,7 +14328,7 @@
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" customFormat="1">
-      <c r="A217" s="31"/>
+      <c r="A217" s="28"/>
       <c r="B217" s="20">
         <v>7.6</v>
       </c>
@@ -14266,7 +14342,7 @@
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:6" customFormat="1">
-      <c r="A218" s="31" t="s">
+      <c r="A218" s="28" t="s">
         <v>1024</v>
       </c>
       <c r="B218" s="20">
@@ -14282,7 +14358,7 @@
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" customFormat="1">
-      <c r="A219" s="31"/>
+      <c r="A219" s="28"/>
       <c r="B219" s="20" t="s">
         <v>428</v>
       </c>
@@ -14296,7 +14372,7 @@
       <c r="F219" s="2"/>
     </row>
     <row r="220" spans="1:6" customFormat="1">
-      <c r="A220" s="31"/>
+      <c r="A220" s="28"/>
       <c r="B220" s="20" t="s">
         <v>429</v>
       </c>
@@ -14310,7 +14386,7 @@
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="1:6" customFormat="1">
-      <c r="A221" s="31"/>
+      <c r="A221" s="28"/>
       <c r="B221" s="20">
         <v>8.1999999999999993</v>
       </c>
@@ -14324,7 +14400,7 @@
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" customFormat="1">
-      <c r="A222" s="31"/>
+      <c r="A222" s="28"/>
       <c r="B222" s="20">
         <v>8.3000000000000007</v>
       </c>
@@ -14338,7 +14414,7 @@
       <c r="F222" s="2"/>
     </row>
     <row r="223" spans="1:6" customFormat="1">
-      <c r="A223" s="31"/>
+      <c r="A223" s="28"/>
       <c r="B223" s="20">
         <v>8.4</v>
       </c>
@@ -14352,7 +14428,7 @@
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" customFormat="1">
-      <c r="A224" s="31"/>
+      <c r="A224" s="28"/>
       <c r="B224" s="20">
         <v>8.5</v>
       </c>
@@ -14366,7 +14442,7 @@
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:6" customFormat="1">
-      <c r="A225" s="31"/>
+      <c r="A225" s="28"/>
       <c r="B225" s="20" t="s">
         <v>430</v>
       </c>
@@ -14380,7 +14456,7 @@
       <c r="F225" s="2"/>
     </row>
     <row r="226" spans="1:6" customFormat="1">
-      <c r="A226" s="31"/>
+      <c r="A226" s="28"/>
       <c r="B226" s="20" t="s">
         <v>431</v>
       </c>
@@ -14394,7 +14470,7 @@
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" customFormat="1">
-      <c r="A227" s="31"/>
+      <c r="A227" s="28"/>
       <c r="B227" s="20" t="s">
         <v>432</v>
       </c>
@@ -14408,7 +14484,7 @@
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:6" customFormat="1">
-      <c r="A228" s="31"/>
+      <c r="A228" s="28"/>
       <c r="B228" s="20" t="s">
         <v>433</v>
       </c>
@@ -14422,7 +14498,7 @@
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" customFormat="1">
-      <c r="A229" s="31"/>
+      <c r="A229" s="28"/>
       <c r="B229" s="20">
         <v>8.6</v>
       </c>
@@ -14436,7 +14512,7 @@
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="1:6" customFormat="1">
-      <c r="A230" s="31"/>
+      <c r="A230" s="28"/>
       <c r="B230" s="20" t="s">
         <v>434</v>
       </c>
@@ -14450,7 +14526,7 @@
       <c r="F230" s="2"/>
     </row>
     <row r="231" spans="1:6" customFormat="1">
-      <c r="A231" s="31"/>
+      <c r="A231" s="28"/>
       <c r="B231" s="20" t="s">
         <v>435</v>
       </c>
@@ -14464,7 +14540,7 @@
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" customFormat="1">
-      <c r="A232" s="31"/>
+      <c r="A232" s="28"/>
       <c r="B232" s="20" t="s">
         <v>436</v>
       </c>
@@ -14478,7 +14554,7 @@
       <c r="F232" s="2"/>
     </row>
     <row r="233" spans="1:6" customFormat="1">
-      <c r="A233" s="31"/>
+      <c r="A233" s="28"/>
       <c r="B233" s="20" t="s">
         <v>437</v>
       </c>
@@ -14492,7 +14568,7 @@
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" customFormat="1">
-      <c r="A234" s="31"/>
+      <c r="A234" s="28"/>
       <c r="B234" s="20" t="s">
         <v>438</v>
       </c>
@@ -14506,7 +14582,7 @@
       <c r="F234" s="2"/>
     </row>
     <row r="235" spans="1:6" customFormat="1">
-      <c r="A235" s="31"/>
+      <c r="A235" s="28"/>
       <c r="B235" s="20" t="s">
         <v>439</v>
       </c>
@@ -14520,7 +14596,7 @@
       <c r="F235" s="2"/>
     </row>
     <row r="236" spans="1:6" customFormat="1">
-      <c r="A236" s="31"/>
+      <c r="A236" s="28"/>
       <c r="B236" s="20" t="s">
         <v>440</v>
       </c>
@@ -14534,7 +14610,7 @@
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:6" customFormat="1">
-      <c r="A237" s="31"/>
+      <c r="A237" s="28"/>
       <c r="B237" s="20" t="s">
         <v>441</v>
       </c>
@@ -14548,7 +14624,7 @@
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" customFormat="1">
-      <c r="A238" s="31"/>
+      <c r="A238" s="28"/>
       <c r="B238" s="20" t="s">
         <v>442</v>
       </c>
@@ -14562,7 +14638,7 @@
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:6" customFormat="1">
-      <c r="A239" s="31"/>
+      <c r="A239" s="28"/>
       <c r="B239" s="20" t="s">
         <v>443</v>
       </c>
@@ -14576,7 +14652,7 @@
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" customFormat="1">
-      <c r="A240" s="31"/>
+      <c r="A240" s="28"/>
       <c r="B240" s="20">
         <v>8.6999999999999993</v>
       </c>
@@ -14590,7 +14666,7 @@
       <c r="F240" s="2"/>
     </row>
     <row r="241" spans="1:6" customFormat="1">
-      <c r="A241" s="31"/>
+      <c r="A241" s="28"/>
       <c r="B241" s="20">
         <v>8.8000000000000007</v>
       </c>
@@ -14604,7 +14680,7 @@
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="1:6" customFormat="1">
-      <c r="A242" s="31"/>
+      <c r="A242" s="28"/>
       <c r="B242" s="20" t="s">
         <v>444</v>
       </c>
@@ -14618,7 +14694,7 @@
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" customFormat="1">
-      <c r="A243" s="31"/>
+      <c r="A243" s="28"/>
       <c r="B243" s="20" t="s">
         <v>445</v>
       </c>
@@ -14632,7 +14708,7 @@
       <c r="F243" s="2"/>
     </row>
     <row r="244" spans="1:6" customFormat="1">
-      <c r="A244" s="31"/>
+      <c r="A244" s="28"/>
       <c r="B244" s="20" t="s">
         <v>446</v>
       </c>
@@ -14646,7 +14722,7 @@
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" customFormat="1">
-      <c r="A245" s="31"/>
+      <c r="A245" s="28"/>
       <c r="B245" s="20" t="s">
         <v>447</v>
       </c>
@@ -14660,7 +14736,7 @@
       <c r="F245" s="2"/>
     </row>
     <row r="246" spans="1:6" customFormat="1">
-      <c r="A246" s="31"/>
+      <c r="A246" s="28"/>
       <c r="B246" s="20">
         <v>8.9</v>
       </c>
@@ -14674,7 +14750,7 @@
       <c r="F246" s="2"/>
     </row>
     <row r="247" spans="1:6" customFormat="1">
-      <c r="A247" s="31"/>
+      <c r="A247" s="28"/>
       <c r="B247" s="20" t="s">
         <v>448</v>
       </c>
@@ -14688,7 +14764,7 @@
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" customFormat="1">
-      <c r="A248" s="31"/>
+      <c r="A248" s="28"/>
       <c r="B248" s="20" t="s">
         <v>449</v>
       </c>
@@ -14702,7 +14778,7 @@
       <c r="F248" s="2"/>
     </row>
     <row r="249" spans="1:6" customFormat="1">
-      <c r="A249" s="31"/>
+      <c r="A249" s="28"/>
       <c r="B249" s="20" t="s">
         <v>450</v>
       </c>
@@ -14716,7 +14792,7 @@
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" customFormat="1">
-      <c r="A250" s="31" t="s">
+      <c r="A250" s="28" t="s">
         <v>1022</v>
       </c>
       <c r="B250" s="20">
@@ -14732,7 +14808,7 @@
       <c r="F250" s="2"/>
     </row>
     <row r="251" spans="1:6" customFormat="1">
-      <c r="A251" s="31"/>
+      <c r="A251" s="28"/>
       <c r="B251" s="20" t="s">
         <v>451</v>
       </c>
@@ -14746,7 +14822,7 @@
       <c r="F251" s="2"/>
     </row>
     <row r="252" spans="1:6" customFormat="1">
-      <c r="A252" s="31"/>
+      <c r="A252" s="28"/>
       <c r="B252" s="20" t="s">
         <v>452</v>
       </c>
@@ -14760,7 +14836,7 @@
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" customFormat="1">
-      <c r="A253" s="31"/>
+      <c r="A253" s="28"/>
       <c r="B253" s="20" t="s">
         <v>453</v>
       </c>
@@ -14774,7 +14850,7 @@
       <c r="F253" s="2"/>
     </row>
     <row r="254" spans="1:6" customFormat="1">
-      <c r="A254" s="31"/>
+      <c r="A254" s="28"/>
       <c r="B254" s="20" t="s">
         <v>454</v>
       </c>
@@ -14788,7 +14864,7 @@
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" customFormat="1">
-      <c r="A255" s="31"/>
+      <c r="A255" s="28"/>
       <c r="B255" s="20" t="s">
         <v>455</v>
       </c>
@@ -14802,7 +14878,7 @@
       <c r="F255" s="2"/>
     </row>
     <row r="256" spans="1:6" customFormat="1">
-      <c r="A256" s="31"/>
+      <c r="A256" s="28"/>
       <c r="B256" s="20">
         <v>9.1999999999999993</v>
       </c>
@@ -14816,7 +14892,7 @@
       <c r="F256" s="2"/>
     </row>
     <row r="257" spans="1:6" customFormat="1">
-      <c r="A257" s="31"/>
+      <c r="A257" s="28"/>
       <c r="B257" s="20" t="s">
         <v>456</v>
       </c>
@@ -14830,7 +14906,7 @@
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" customFormat="1">
-      <c r="A258" s="31"/>
+      <c r="A258" s="28"/>
       <c r="B258" s="20" t="s">
         <v>457</v>
       </c>
@@ -14844,7 +14920,7 @@
       <c r="F258" s="2"/>
     </row>
     <row r="259" spans="1:6" customFormat="1">
-      <c r="A259" s="31"/>
+      <c r="A259" s="28"/>
       <c r="B259" s="20" t="s">
         <v>458</v>
       </c>
@@ -14858,7 +14934,7 @@
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" customFormat="1">
-      <c r="A260" s="31"/>
+      <c r="A260" s="28"/>
       <c r="B260" s="20" t="s">
         <v>459</v>
       </c>
@@ -14872,7 +14948,7 @@
       <c r="F260" s="2"/>
     </row>
     <row r="261" spans="1:6" customFormat="1">
-      <c r="A261" s="31"/>
+      <c r="A261" s="28"/>
       <c r="B261" s="20" t="s">
         <v>460</v>
       </c>
@@ -14886,7 +14962,7 @@
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="1:6" customFormat="1">
-      <c r="A262" s="31"/>
+      <c r="A262" s="28"/>
       <c r="B262" s="20" t="s">
         <v>461</v>
       </c>
@@ -14900,7 +14976,7 @@
       <c r="F262" s="2"/>
     </row>
     <row r="263" spans="1:6" customFormat="1">
-      <c r="A263" s="31"/>
+      <c r="A263" s="28"/>
       <c r="B263" s="20">
         <v>9.3000000000000007</v>
       </c>
@@ -14914,7 +14990,7 @@
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" customFormat="1">
-      <c r="A264" s="31"/>
+      <c r="A264" s="28"/>
       <c r="B264" s="20" t="s">
         <v>462</v>
       </c>
@@ -14928,7 +15004,7 @@
       <c r="F264" s="2"/>
     </row>
     <row r="265" spans="1:6" customFormat="1">
-      <c r="A265" s="31"/>
+      <c r="A265" s="28"/>
       <c r="B265" s="20" t="s">
         <v>463</v>
       </c>
@@ -14942,7 +15018,7 @@
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" customFormat="1">
-      <c r="A266" s="31"/>
+      <c r="A266" s="28"/>
       <c r="B266" s="20" t="s">
         <v>464</v>
       </c>
@@ -14956,7 +15032,7 @@
       <c r="F266" s="2"/>
     </row>
     <row r="267" spans="1:6" customFormat="1">
-      <c r="A267" s="31"/>
+      <c r="A267" s="28"/>
       <c r="B267" s="20" t="s">
         <v>465</v>
       </c>
@@ -14970,7 +15046,7 @@
       <c r="F267" s="2"/>
     </row>
     <row r="268" spans="1:6" customFormat="1">
-      <c r="A268" s="31"/>
+      <c r="A268" s="28"/>
       <c r="B268" s="20" t="s">
         <v>466</v>
       </c>
@@ -14984,7 +15060,7 @@
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6" customFormat="1">
-      <c r="A269" s="31"/>
+      <c r="A269" s="28"/>
       <c r="B269" s="20" t="s">
         <v>467</v>
       </c>
@@ -14998,7 +15074,7 @@
       <c r="F269" s="2"/>
     </row>
     <row r="270" spans="1:6" customFormat="1">
-      <c r="A270" s="31"/>
+      <c r="A270" s="28"/>
       <c r="B270" s="20" t="s">
         <v>468</v>
       </c>
@@ -15012,7 +15088,7 @@
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="1:6" customFormat="1">
-      <c r="A271" s="31"/>
+      <c r="A271" s="28"/>
       <c r="B271" s="20">
         <v>9.4</v>
       </c>
@@ -15026,7 +15102,7 @@
       <c r="F271" s="2"/>
     </row>
     <row r="272" spans="1:6" customFormat="1">
-      <c r="A272" s="31"/>
+      <c r="A272" s="28"/>
       <c r="B272" s="20" t="s">
         <v>469</v>
       </c>
@@ -15040,7 +15116,7 @@
       <c r="F272" s="2"/>
     </row>
     <row r="273" spans="1:6" customFormat="1">
-      <c r="A273" s="31"/>
+      <c r="A273" s="28"/>
       <c r="B273" s="20" t="s">
         <v>470</v>
       </c>
@@ -15054,7 +15130,7 @@
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" customFormat="1">
-      <c r="A274" s="31"/>
+      <c r="A274" s="28"/>
       <c r="B274" s="20" t="s">
         <v>471</v>
       </c>
@@ -15068,7 +15144,7 @@
       <c r="F274" s="2"/>
     </row>
     <row r="275" spans="1:6" customFormat="1">
-      <c r="A275" s="31"/>
+      <c r="A275" s="28"/>
       <c r="B275" s="20" t="s">
         <v>472</v>
       </c>
@@ -15082,7 +15158,7 @@
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" customFormat="1">
-      <c r="A276" s="31"/>
+      <c r="A276" s="28"/>
       <c r="B276" s="20" t="s">
         <v>473</v>
       </c>
@@ -15096,7 +15172,7 @@
       <c r="F276" s="2"/>
     </row>
     <row r="277" spans="1:6" customFormat="1">
-      <c r="A277" s="31"/>
+      <c r="A277" s="28"/>
       <c r="B277" s="20" t="s">
         <v>474</v>
       </c>
@@ -15110,7 +15186,7 @@
       <c r="F277" s="2"/>
     </row>
     <row r="278" spans="1:6" customFormat="1">
-      <c r="A278" s="31"/>
+      <c r="A278" s="28"/>
       <c r="B278" s="20">
         <v>9.5</v>
       </c>
@@ -15124,7 +15200,7 @@
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" customFormat="1">
-      <c r="A279" s="31"/>
+      <c r="A279" s="28"/>
       <c r="B279" s="20" t="s">
         <v>475</v>
       </c>
@@ -15138,7 +15214,7 @@
       <c r="F279" s="2"/>
     </row>
     <row r="280" spans="1:6" customFormat="1">
-      <c r="A280" s="31"/>
+      <c r="A280" s="28"/>
       <c r="B280" s="20" t="s">
         <v>476</v>
       </c>
@@ -15152,7 +15228,7 @@
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" customFormat="1">
-      <c r="A281" s="31"/>
+      <c r="A281" s="28"/>
       <c r="B281" s="20" t="s">
         <v>477</v>
       </c>
@@ -15166,7 +15242,7 @@
       <c r="F281" s="2"/>
     </row>
     <row r="282" spans="1:6" customFormat="1">
-      <c r="A282" s="31"/>
+      <c r="A282" s="28"/>
       <c r="B282" s="20" t="s">
         <v>478</v>
       </c>
@@ -15180,7 +15256,7 @@
       <c r="F282" s="2"/>
     </row>
     <row r="283" spans="1:6" customFormat="1">
-      <c r="A283" s="31"/>
+      <c r="A283" s="28"/>
       <c r="B283" s="20" t="s">
         <v>479</v>
       </c>
@@ -15194,7 +15270,7 @@
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" customFormat="1">
-      <c r="A284" s="31"/>
+      <c r="A284" s="28"/>
       <c r="B284" s="20" t="s">
         <v>480</v>
       </c>
@@ -15208,7 +15284,7 @@
       <c r="F284" s="2"/>
     </row>
     <row r="285" spans="1:6" customFormat="1">
-      <c r="A285" s="31"/>
+      <c r="A285" s="28"/>
       <c r="B285" s="20">
         <v>9.6</v>
       </c>
@@ -15222,7 +15298,7 @@
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6" customFormat="1">
-      <c r="A286" s="31"/>
+      <c r="A286" s="28"/>
       <c r="B286" s="20" t="s">
         <v>481</v>
       </c>
@@ -15236,7 +15312,7 @@
       <c r="F286" s="2"/>
     </row>
     <row r="287" spans="1:6" customFormat="1">
-      <c r="A287" s="31"/>
+      <c r="A287" s="28"/>
       <c r="B287" s="20" t="s">
         <v>482</v>
       </c>
@@ -15250,7 +15326,7 @@
       <c r="F287" s="2"/>
     </row>
     <row r="288" spans="1:6" customFormat="1">
-      <c r="A288" s="31"/>
+      <c r="A288" s="28"/>
       <c r="B288" s="20" t="s">
         <v>483</v>
       </c>
@@ -15264,7 +15340,7 @@
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="1:6" customFormat="1">
-      <c r="A289" s="31"/>
+      <c r="A289" s="28"/>
       <c r="B289" s="20" t="s">
         <v>484</v>
       </c>
@@ -15278,7 +15354,7 @@
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" customFormat="1">
-      <c r="A290" s="31"/>
+      <c r="A290" s="28"/>
       <c r="B290" s="20" t="s">
         <v>485</v>
       </c>
@@ -15292,7 +15368,7 @@
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="1:6" customFormat="1">
-      <c r="A291" s="31" t="s">
+      <c r="A291" s="28" t="s">
         <v>1023</v>
       </c>
       <c r="B291" s="20">
@@ -15308,7 +15384,7 @@
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:6" customFormat="1">
-      <c r="A292" s="31"/>
+      <c r="A292" s="28"/>
       <c r="B292" s="20">
         <v>10.199999999999999</v>
       </c>
@@ -15322,7 +15398,7 @@
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="1:6" customFormat="1">
-      <c r="A293" s="31"/>
+      <c r="A293" s="28"/>
       <c r="B293" s="20">
         <v>10.3</v>
       </c>
@@ -15336,7 +15412,7 @@
       <c r="F293" s="2"/>
     </row>
     <row r="294" spans="1:6" customFormat="1">
-      <c r="A294" s="31"/>
+      <c r="A294" s="28"/>
       <c r="B294" s="20" t="s">
         <v>486</v>
       </c>
@@ -15350,7 +15426,7 @@
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" customFormat="1">
-      <c r="A295" s="31"/>
+      <c r="A295" s="28"/>
       <c r="B295" s="20" t="s">
         <v>487</v>
       </c>
@@ -15364,7 +15440,7 @@
       <c r="F295" s="2"/>
     </row>
     <row r="296" spans="1:6" customFormat="1">
-      <c r="A296" s="31"/>
+      <c r="A296" s="28"/>
       <c r="B296" s="20">
         <v>10.4</v>
       </c>
@@ -15378,7 +15454,7 @@
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6" customFormat="1">
-      <c r="A297" s="31"/>
+      <c r="A297" s="28"/>
       <c r="B297" s="20">
         <v>10.5</v>
       </c>
@@ -15392,7 +15468,7 @@
       <c r="F297" s="2"/>
     </row>
     <row r="298" spans="1:6" customFormat="1">
-      <c r="A298" s="31"/>
+      <c r="A298" s="28"/>
       <c r="B298" s="20">
         <v>10.6</v>
       </c>
@@ -15406,7 +15482,7 @@
       <c r="F298" s="2"/>
     </row>
     <row r="299" spans="1:6" customFormat="1">
-      <c r="A299" s="31"/>
+      <c r="A299" s="28"/>
       <c r="B299" s="20">
         <v>10.7</v>
       </c>
@@ -15420,7 +15496,7 @@
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6" customFormat="1">
-      <c r="A300" s="31"/>
+      <c r="A300" s="28"/>
       <c r="B300" s="20">
         <v>10.8</v>
       </c>
@@ -15434,7 +15510,7 @@
       <c r="F300" s="2"/>
     </row>
     <row r="301" spans="1:6" customFormat="1">
-      <c r="A301" s="31" t="s">
+      <c r="A301" s="28" t="s">
         <v>1021</v>
       </c>
       <c r="B301" s="20">
@@ -15450,7 +15526,7 @@
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6" customFormat="1">
-      <c r="A302" s="31"/>
+      <c r="A302" s="28"/>
       <c r="B302" s="20" t="s">
         <v>488</v>
       </c>
@@ -15464,7 +15540,7 @@
       <c r="F302" s="2"/>
     </row>
     <row r="303" spans="1:6" customFormat="1">
-      <c r="A303" s="31"/>
+      <c r="A303" s="28"/>
       <c r="B303" s="20" t="s">
         <v>489</v>
       </c>
@@ -15478,7 +15554,7 @@
       <c r="F303" s="2"/>
     </row>
     <row r="304" spans="1:6" customFormat="1">
-      <c r="A304" s="31"/>
+      <c r="A304" s="28"/>
       <c r="B304" s="20" t="s">
         <v>490</v>
       </c>
@@ -15492,7 +15568,7 @@
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6" customFormat="1">
-      <c r="A305" s="31"/>
+      <c r="A305" s="28"/>
       <c r="B305" s="20" t="s">
         <v>491</v>
       </c>
@@ -15506,7 +15582,7 @@
       <c r="F305" s="2"/>
     </row>
     <row r="306" spans="1:6" customFormat="1">
-      <c r="A306" s="31"/>
+      <c r="A306" s="28"/>
       <c r="B306" s="20">
         <v>11.2</v>
       </c>
@@ -15520,7 +15596,7 @@
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6" customFormat="1">
-      <c r="A307" s="31"/>
+      <c r="A307" s="28"/>
       <c r="B307" s="20">
         <v>11.3</v>
       </c>
@@ -15534,7 +15610,7 @@
       <c r="F307" s="2"/>
     </row>
     <row r="308" spans="1:6" customFormat="1">
-      <c r="A308" s="31"/>
+      <c r="A308" s="28"/>
       <c r="B308" s="20">
         <v>11.4</v>
       </c>
@@ -15548,7 +15624,7 @@
       <c r="F308" s="2"/>
     </row>
     <row r="309" spans="1:6" customFormat="1">
-      <c r="A309" s="31"/>
+      <c r="A309" s="28"/>
       <c r="B309" s="20" t="s">
         <v>492</v>
       </c>
@@ -15562,7 +15638,7 @@
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6" customFormat="1">
-      <c r="A310" s="31" t="s">
+      <c r="A310" s="28" t="s">
         <v>1020</v>
       </c>
       <c r="B310" s="20">
@@ -15578,7 +15654,7 @@
       <c r="F310" s="2"/>
     </row>
     <row r="311" spans="1:6" customFormat="1">
-      <c r="A311" s="31"/>
+      <c r="A311" s="28"/>
       <c r="B311" s="20" t="s">
         <v>493</v>
       </c>
@@ -15592,7 +15668,7 @@
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6" customFormat="1">
-      <c r="A312" s="31"/>
+      <c r="A312" s="28"/>
       <c r="B312" s="20" t="s">
         <v>494</v>
       </c>
@@ -15606,7 +15682,7 @@
       <c r="F312" s="2"/>
     </row>
     <row r="313" spans="1:6" customFormat="1">
-      <c r="A313" s="31"/>
+      <c r="A313" s="28"/>
       <c r="B313" s="20" t="s">
         <v>495</v>
       </c>
@@ -15620,7 +15696,7 @@
       <c r="F313" s="2"/>
     </row>
     <row r="314" spans="1:6" customFormat="1">
-      <c r="A314" s="31"/>
+      <c r="A314" s="28"/>
       <c r="B314" s="20">
         <v>12.2</v>
       </c>
@@ -15634,7 +15710,7 @@
       <c r="F314" s="2"/>
     </row>
     <row r="315" spans="1:6" customFormat="1">
-      <c r="A315" s="31"/>
+      <c r="A315" s="28"/>
       <c r="B315" s="20" t="s">
         <v>496</v>
       </c>
@@ -15648,7 +15724,7 @@
       <c r="F315" s="2"/>
     </row>
     <row r="316" spans="1:6" customFormat="1">
-      <c r="A316" s="31"/>
+      <c r="A316" s="28"/>
       <c r="B316" s="20" t="s">
         <v>497</v>
       </c>
@@ -15662,7 +15738,7 @@
       <c r="F316" s="2"/>
     </row>
     <row r="317" spans="1:6" customFormat="1">
-      <c r="A317" s="31"/>
+      <c r="A317" s="28"/>
       <c r="B317" s="20">
         <v>12.3</v>
       </c>
@@ -15676,7 +15752,7 @@
       <c r="F317" s="2"/>
     </row>
     <row r="318" spans="1:6" customFormat="1">
-      <c r="A318" s="31"/>
+      <c r="A318" s="28"/>
       <c r="B318" s="20" t="s">
         <v>498</v>
       </c>
@@ -15690,7 +15766,7 @@
       <c r="F318" s="2"/>
     </row>
     <row r="319" spans="1:6" customFormat="1">
-      <c r="A319" s="31"/>
+      <c r="A319" s="28"/>
       <c r="B319" s="20" t="s">
         <v>499</v>
       </c>
@@ -15704,7 +15780,7 @@
       <c r="F319" s="2"/>
     </row>
     <row r="320" spans="1:6" customFormat="1">
-      <c r="A320" s="31"/>
+      <c r="A320" s="28"/>
       <c r="B320" s="20" t="s">
         <v>500</v>
       </c>
@@ -15718,7 +15794,7 @@
       <c r="F320" s="2"/>
     </row>
     <row r="321" spans="1:6" customFormat="1">
-      <c r="A321" s="31"/>
+      <c r="A321" s="28"/>
       <c r="B321" s="20" t="s">
         <v>501</v>
       </c>
@@ -15732,7 +15808,7 @@
       <c r="F321" s="2"/>
     </row>
     <row r="322" spans="1:6" customFormat="1">
-      <c r="A322" s="31"/>
+      <c r="A322" s="28"/>
       <c r="B322" s="20" t="s">
         <v>502</v>
       </c>
@@ -15746,7 +15822,7 @@
       <c r="F322" s="2"/>
     </row>
     <row r="323" spans="1:6" customFormat="1">
-      <c r="A323" s="31"/>
+      <c r="A323" s="28"/>
       <c r="B323" s="20">
         <v>12.4</v>
       </c>
@@ -15760,7 +15836,7 @@
       <c r="F323" s="2"/>
     </row>
     <row r="324" spans="1:6" customFormat="1">
-      <c r="A324" s="31"/>
+      <c r="A324" s="28"/>
       <c r="B324" s="20" t="s">
         <v>503</v>
       </c>
@@ -15774,7 +15850,7 @@
       <c r="F324" s="2"/>
     </row>
     <row r="325" spans="1:6" customFormat="1">
-      <c r="A325" s="31"/>
+      <c r="A325" s="28"/>
       <c r="B325" s="20" t="s">
         <v>504</v>
       </c>
@@ -15788,7 +15864,7 @@
       <c r="F325" s="2"/>
     </row>
     <row r="326" spans="1:6" customFormat="1">
-      <c r="A326" s="31"/>
+      <c r="A326" s="28"/>
       <c r="B326" s="20" t="s">
         <v>505</v>
       </c>
@@ -15802,7 +15878,7 @@
       <c r="F326" s="2"/>
     </row>
     <row r="327" spans="1:6" customFormat="1">
-      <c r="A327" s="31"/>
+      <c r="A327" s="28"/>
       <c r="B327" s="20" t="s">
         <v>506</v>
       </c>
@@ -15816,7 +15892,7 @@
       <c r="F327" s="2"/>
     </row>
     <row r="328" spans="1:6" customFormat="1">
-      <c r="A328" s="31"/>
+      <c r="A328" s="28"/>
       <c r="B328" s="20" t="s">
         <v>507</v>
       </c>
@@ -15830,7 +15906,7 @@
       <c r="F328" s="2"/>
     </row>
     <row r="329" spans="1:6" customFormat="1">
-      <c r="A329" s="31"/>
+      <c r="A329" s="28"/>
       <c r="B329" s="20">
         <v>12.5</v>
       </c>
@@ -15844,7 +15920,7 @@
       <c r="F329" s="2"/>
     </row>
     <row r="330" spans="1:6" customFormat="1">
-      <c r="A330" s="31"/>
+      <c r="A330" s="28"/>
       <c r="B330" s="20" t="s">
         <v>508</v>
       </c>
@@ -15858,7 +15934,7 @@
       <c r="F330" s="2"/>
     </row>
     <row r="331" spans="1:6" customFormat="1">
-      <c r="A331" s="31"/>
+      <c r="A331" s="28"/>
       <c r="B331" s="20" t="s">
         <v>509</v>
       </c>
@@ -15872,7 +15948,7 @@
       <c r="F331" s="2"/>
     </row>
     <row r="332" spans="1:6" customFormat="1">
-      <c r="A332" s="31"/>
+      <c r="A332" s="28"/>
       <c r="B332" s="20" t="s">
         <v>510</v>
       </c>
@@ -15886,7 +15962,7 @@
       <c r="F332" s="2"/>
     </row>
     <row r="333" spans="1:6" customFormat="1">
-      <c r="A333" s="31"/>
+      <c r="A333" s="28"/>
       <c r="B333" s="20" t="s">
         <v>511</v>
       </c>
@@ -15900,7 +15976,7 @@
       <c r="F333" s="2"/>
     </row>
     <row r="334" spans="1:6" customFormat="1">
-      <c r="A334" s="31"/>
+      <c r="A334" s="28"/>
       <c r="B334" s="20" t="s">
         <v>512</v>
       </c>
@@ -15914,7 +15990,7 @@
       <c r="F334" s="2"/>
     </row>
     <row r="335" spans="1:6" customFormat="1">
-      <c r="A335" s="31"/>
+      <c r="A335" s="28"/>
       <c r="B335" s="20" t="s">
         <v>513</v>
       </c>
@@ -15928,7 +16004,7 @@
       <c r="F335" s="2"/>
     </row>
     <row r="336" spans="1:6" customFormat="1">
-      <c r="A336" s="31"/>
+      <c r="A336" s="28"/>
       <c r="B336" s="20" t="s">
         <v>514</v>
       </c>
@@ -15942,7 +16018,7 @@
       <c r="F336" s="2"/>
     </row>
     <row r="337" spans="1:6" customFormat="1">
-      <c r="A337" s="31"/>
+      <c r="A337" s="28"/>
       <c r="B337" s="20" t="s">
         <v>515</v>
       </c>
@@ -15956,7 +16032,7 @@
       <c r="F337" s="2"/>
     </row>
     <row r="338" spans="1:6" customFormat="1">
-      <c r="A338" s="31"/>
+      <c r="A338" s="28"/>
       <c r="B338" s="20">
         <v>12.6</v>
       </c>
@@ -15970,7 +16046,7 @@
       <c r="F338" s="2"/>
     </row>
     <row r="339" spans="1:6" customFormat="1">
-      <c r="A339" s="31"/>
+      <c r="A339" s="28"/>
       <c r="B339" s="20" t="s">
         <v>516</v>
       </c>
@@ -15984,7 +16060,7 @@
       <c r="F339" s="2"/>
     </row>
     <row r="340" spans="1:6" customFormat="1">
-      <c r="A340" s="31"/>
+      <c r="A340" s="28"/>
       <c r="B340" s="20" t="s">
         <v>517</v>
       </c>
@@ -15998,7 +16074,7 @@
       <c r="F340" s="2"/>
     </row>
     <row r="341" spans="1:6" customFormat="1">
-      <c r="A341" s="31"/>
+      <c r="A341" s="28"/>
       <c r="B341" s="20" t="s">
         <v>518</v>
       </c>
@@ -16012,7 +16088,7 @@
       <c r="F341" s="2"/>
     </row>
     <row r="342" spans="1:6" customFormat="1">
-      <c r="A342" s="31"/>
+      <c r="A342" s="28"/>
       <c r="B342" s="20" t="s">
         <v>519</v>
       </c>
@@ -16026,7 +16102,7 @@
       <c r="F342" s="2"/>
     </row>
     <row r="343" spans="1:6" customFormat="1">
-      <c r="A343" s="31"/>
+      <c r="A343" s="28"/>
       <c r="B343" s="20" t="s">
         <v>520</v>
       </c>
@@ -16040,7 +16116,7 @@
       <c r="F343" s="2"/>
     </row>
     <row r="344" spans="1:6" customFormat="1">
-      <c r="A344" s="31"/>
+      <c r="A344" s="28"/>
       <c r="B344" s="20">
         <v>12.7</v>
       </c>
@@ -16054,7 +16130,7 @@
       <c r="F344" s="2"/>
     </row>
     <row r="345" spans="1:6" customFormat="1">
-      <c r="A345" s="31"/>
+      <c r="A345" s="28"/>
       <c r="B345" s="20" t="s">
         <v>521</v>
       </c>
@@ -16068,7 +16144,7 @@
       <c r="F345" s="2"/>
     </row>
     <row r="346" spans="1:6" customFormat="1">
-      <c r="A346" s="31"/>
+      <c r="A346" s="28"/>
       <c r="B346" s="20" t="s">
         <v>522</v>
       </c>
@@ -16082,7 +16158,7 @@
       <c r="F346" s="2"/>
     </row>
     <row r="347" spans="1:6" customFormat="1">
-      <c r="A347" s="31"/>
+      <c r="A347" s="28"/>
       <c r="B347" s="20" t="s">
         <v>523</v>
       </c>
@@ -16096,7 +16172,7 @@
       <c r="F347" s="2"/>
     </row>
     <row r="348" spans="1:6" customFormat="1">
-      <c r="A348" s="31"/>
+      <c r="A348" s="28"/>
       <c r="B348" s="20" t="s">
         <v>524</v>
       </c>
@@ -16110,7 +16186,7 @@
       <c r="F348" s="2"/>
     </row>
     <row r="349" spans="1:6" customFormat="1">
-      <c r="A349" s="31"/>
+      <c r="A349" s="28"/>
       <c r="B349" s="20" t="s">
         <v>525</v>
       </c>
@@ -16124,7 +16200,7 @@
       <c r="F349" s="2"/>
     </row>
     <row r="350" spans="1:6" customFormat="1">
-      <c r="A350" s="31"/>
+      <c r="A350" s="28"/>
       <c r="B350" s="20">
         <v>12.8</v>
       </c>
@@ -16138,7 +16214,7 @@
       <c r="F350" s="2"/>
     </row>
     <row r="351" spans="1:6" customFormat="1">
-      <c r="A351" s="31"/>
+      <c r="A351" s="28"/>
       <c r="B351" s="20" t="s">
         <v>526</v>
       </c>
@@ -16152,7 +16228,7 @@
       <c r="F351" s="2"/>
     </row>
     <row r="352" spans="1:6" customFormat="1">
-      <c r="A352" s="31"/>
+      <c r="A352" s="28"/>
       <c r="B352" s="20" t="s">
         <v>527</v>
       </c>
@@ -16166,7 +16242,7 @@
       <c r="F352" s="2"/>
     </row>
     <row r="353" spans="1:6" customFormat="1">
-      <c r="A353" s="31" t="s">
+      <c r="A353" s="28" t="s">
         <v>1019</v>
       </c>
       <c r="B353" s="20">
@@ -16182,7 +16258,7 @@
       <c r="F353" s="2"/>
     </row>
     <row r="354" spans="1:6" customFormat="1">
-      <c r="A354" s="31"/>
+      <c r="A354" s="28"/>
       <c r="B354" s="20" t="s">
         <v>528</v>
       </c>
@@ -16196,7 +16272,7 @@
       <c r="F354" s="2"/>
     </row>
     <row r="355" spans="1:6" customFormat="1">
-      <c r="A355" s="31"/>
+      <c r="A355" s="28"/>
       <c r="B355" s="20" t="s">
         <v>529</v>
       </c>
@@ -16210,7 +16286,7 @@
       <c r="F355" s="2"/>
     </row>
     <row r="356" spans="1:6" customFormat="1">
-      <c r="A356" s="31"/>
+      <c r="A356" s="28"/>
       <c r="B356" s="20" t="s">
         <v>530</v>
       </c>
@@ -16224,7 +16300,7 @@
       <c r="F356" s="2"/>
     </row>
     <row r="357" spans="1:6" customFormat="1">
-      <c r="A357" s="31"/>
+      <c r="A357" s="28"/>
       <c r="B357" s="20" t="s">
         <v>531</v>
       </c>
@@ -16238,7 +16314,7 @@
       <c r="F357" s="2"/>
     </row>
     <row r="358" spans="1:6" customFormat="1">
-      <c r="A358" s="31"/>
+      <c r="A358" s="28"/>
       <c r="B358" s="20" t="s">
         <v>532</v>
       </c>
@@ -16252,7 +16328,7 @@
       <c r="F358" s="2"/>
     </row>
     <row r="359" spans="1:6" customFormat="1">
-      <c r="A359" s="31"/>
+      <c r="A359" s="28"/>
       <c r="B359" s="20">
         <v>13.2</v>
       </c>
@@ -16266,7 +16342,7 @@
       <c r="F359" s="2"/>
     </row>
     <row r="360" spans="1:6" customFormat="1">
-      <c r="A360" s="31"/>
+      <c r="A360" s="28"/>
       <c r="B360" s="20" t="s">
         <v>533</v>
       </c>
@@ -16280,7 +16356,7 @@
       <c r="F360" s="2"/>
     </row>
     <row r="361" spans="1:6" customFormat="1">
-      <c r="A361" s="31"/>
+      <c r="A361" s="28"/>
       <c r="B361" s="20" t="s">
         <v>534</v>
       </c>
@@ -16294,7 +16370,7 @@
       <c r="F361" s="2"/>
     </row>
     <row r="362" spans="1:6" customFormat="1">
-      <c r="A362" s="31"/>
+      <c r="A362" s="28"/>
       <c r="B362" s="20">
         <v>13.3</v>
       </c>
@@ -16308,7 +16384,7 @@
       <c r="F362" s="2"/>
     </row>
     <row r="363" spans="1:6" customFormat="1">
-      <c r="A363" s="31"/>
+      <c r="A363" s="28"/>
       <c r="B363" s="20">
         <v>13.4</v>
       </c>
@@ -16322,7 +16398,7 @@
       <c r="F363" s="2"/>
     </row>
     <row r="364" spans="1:6" customFormat="1">
-      <c r="A364" s="31"/>
+      <c r="A364" s="28"/>
       <c r="B364" s="20" t="s">
         <v>535</v>
       </c>
@@ -16336,7 +16412,7 @@
       <c r="F364" s="2"/>
     </row>
     <row r="365" spans="1:6" customFormat="1">
-      <c r="A365" s="31"/>
+      <c r="A365" s="28"/>
       <c r="B365" s="20" t="s">
         <v>536</v>
       </c>
@@ -16350,7 +16426,7 @@
       <c r="F365" s="2"/>
     </row>
     <row r="366" spans="1:6" customFormat="1">
-      <c r="A366" s="31"/>
+      <c r="A366" s="28"/>
       <c r="B366" s="20" t="s">
         <v>537</v>
       </c>
@@ -16364,7 +16440,7 @@
       <c r="F366" s="2"/>
     </row>
     <row r="367" spans="1:6" customFormat="1">
-      <c r="A367" s="31"/>
+      <c r="A367" s="28"/>
       <c r="B367" s="20" t="s">
         <v>538</v>
       </c>
@@ -16378,7 +16454,7 @@
       <c r="F367" s="2"/>
     </row>
     <row r="368" spans="1:6" customFormat="1">
-      <c r="A368" s="31"/>
+      <c r="A368" s="28"/>
       <c r="B368" s="20" t="s">
         <v>539</v>
       </c>
@@ -16392,7 +16468,7 @@
       <c r="F368" s="2"/>
     </row>
     <row r="369" spans="1:6" customFormat="1">
-      <c r="A369" s="31"/>
+      <c r="A369" s="28"/>
       <c r="B369" s="20" t="s">
         <v>540</v>
       </c>
@@ -16406,7 +16482,7 @@
       <c r="F369" s="2"/>
     </row>
     <row r="370" spans="1:6" customFormat="1">
-      <c r="A370" s="31"/>
+      <c r="A370" s="28"/>
       <c r="B370" s="20" t="s">
         <v>541</v>
       </c>
@@ -16420,7 +16496,7 @@
       <c r="F370" s="2"/>
     </row>
     <row r="371" spans="1:6" customFormat="1">
-      <c r="A371" s="31"/>
+      <c r="A371" s="28"/>
       <c r="B371" s="20" t="s">
         <v>542</v>
       </c>
@@ -16434,7 +16510,7 @@
       <c r="F371" s="2"/>
     </row>
     <row r="372" spans="1:6" customFormat="1">
-      <c r="A372" s="31"/>
+      <c r="A372" s="28"/>
       <c r="B372" s="20" t="s">
         <v>543</v>
       </c>
@@ -16448,7 +16524,7 @@
       <c r="F372" s="2"/>
     </row>
     <row r="373" spans="1:6" customFormat="1">
-      <c r="A373" s="31"/>
+      <c r="A373" s="28"/>
       <c r="B373" s="20">
         <v>13.5</v>
       </c>
@@ -16462,7 +16538,7 @@
       <c r="F373" s="2"/>
     </row>
     <row r="374" spans="1:6" customFormat="1">
-      <c r="A374" s="31"/>
+      <c r="A374" s="28"/>
       <c r="B374" s="20" t="s">
         <v>544</v>
       </c>
@@ -16476,7 +16552,7 @@
       <c r="F374" s="2"/>
     </row>
     <row r="375" spans="1:6" customFormat="1">
-      <c r="A375" s="31"/>
+      <c r="A375" s="28"/>
       <c r="B375" s="20" t="s">
         <v>545</v>
       </c>
@@ -16490,7 +16566,7 @@
       <c r="F375" s="2"/>
     </row>
     <row r="376" spans="1:6" customFormat="1">
-      <c r="A376" s="28" t="s">
+      <c r="A376" s="29" t="s">
         <v>1018</v>
       </c>
       <c r="B376" s="20">
@@ -16506,7 +16582,7 @@
       <c r="F376" s="2"/>
     </row>
     <row r="377" spans="1:6" customFormat="1">
-      <c r="A377" s="29"/>
+      <c r="A377" s="30"/>
       <c r="B377" s="20" t="s">
         <v>546</v>
       </c>
@@ -16520,7 +16596,7 @@
       <c r="F377" s="2"/>
     </row>
     <row r="378" spans="1:6" customFormat="1">
-      <c r="A378" s="29"/>
+      <c r="A378" s="30"/>
       <c r="B378" s="20">
         <v>14.2</v>
       </c>
@@ -16534,7 +16610,7 @@
       <c r="F378" s="2"/>
     </row>
     <row r="379" spans="1:6" customFormat="1">
-      <c r="A379" s="29"/>
+      <c r="A379" s="30"/>
       <c r="B379" s="20">
         <v>14.3</v>
       </c>
@@ -16548,7 +16624,7 @@
       <c r="F379" s="2"/>
     </row>
     <row r="380" spans="1:6" customFormat="1">
-      <c r="A380" s="29"/>
+      <c r="A380" s="30"/>
       <c r="B380" s="20" t="s">
         <v>547</v>
       </c>
@@ -16562,7 +16638,7 @@
       <c r="F380" s="2"/>
     </row>
     <row r="381" spans="1:6" customFormat="1">
-      <c r="A381" s="29"/>
+      <c r="A381" s="30"/>
       <c r="B381" s="20" t="s">
         <v>548</v>
       </c>
@@ -16576,7 +16652,7 @@
       <c r="F381" s="2"/>
     </row>
     <row r="382" spans="1:6" customFormat="1">
-      <c r="A382" s="29"/>
+      <c r="A382" s="30"/>
       <c r="B382" s="20" t="s">
         <v>549</v>
       </c>
@@ -16590,7 +16666,7 @@
       <c r="F382" s="2"/>
     </row>
     <row r="383" spans="1:6" customFormat="1">
-      <c r="A383" s="29"/>
+      <c r="A383" s="30"/>
       <c r="B383" s="20" t="s">
         <v>550</v>
       </c>
@@ -16604,7 +16680,7 @@
       <c r="F383" s="2"/>
     </row>
     <row r="384" spans="1:6" customFormat="1">
-      <c r="A384" s="29"/>
+      <c r="A384" s="30"/>
       <c r="B384" s="20">
         <v>14.4</v>
       </c>
@@ -16618,7 +16694,7 @@
       <c r="F384" s="2"/>
     </row>
     <row r="385" spans="1:6" customFormat="1">
-      <c r="A385" s="29"/>
+      <c r="A385" s="30"/>
       <c r="B385" s="20" t="s">
         <v>551</v>
       </c>
@@ -16632,7 +16708,7 @@
       <c r="F385" s="2"/>
     </row>
     <row r="386" spans="1:6" customFormat="1">
-      <c r="A386" s="29"/>
+      <c r="A386" s="30"/>
       <c r="B386" s="20" t="s">
         <v>552</v>
       </c>
@@ -16646,7 +16722,7 @@
       <c r="F386" s="2"/>
     </row>
     <row r="387" spans="1:6" customFormat="1">
-      <c r="A387" s="29"/>
+      <c r="A387" s="30"/>
       <c r="B387" s="20" t="s">
         <v>553</v>
       </c>
@@ -16660,7 +16736,7 @@
       <c r="F387" s="2"/>
     </row>
     <row r="388" spans="1:6" customFormat="1">
-      <c r="A388" s="29"/>
+      <c r="A388" s="30"/>
       <c r="B388" s="20">
         <v>14.5</v>
       </c>
@@ -16674,7 +16750,7 @@
       <c r="F388" s="2"/>
     </row>
     <row r="389" spans="1:6" customFormat="1">
-      <c r="A389" s="29"/>
+      <c r="A389" s="30"/>
       <c r="B389" s="20" t="s">
         <v>554</v>
       </c>
@@ -16688,7 +16764,7 @@
       <c r="F389" s="2"/>
     </row>
     <row r="390" spans="1:6" customFormat="1">
-      <c r="A390" s="29"/>
+      <c r="A390" s="30"/>
       <c r="B390" s="20" t="s">
         <v>555</v>
       </c>
@@ -16702,7 +16778,7 @@
       <c r="F390" s="2"/>
     </row>
     <row r="391" spans="1:6" customFormat="1">
-      <c r="A391" s="29"/>
+      <c r="A391" s="30"/>
       <c r="B391" s="20" t="s">
         <v>556</v>
       </c>
@@ -16716,7 +16792,7 @@
       <c r="F391" s="2"/>
     </row>
     <row r="392" spans="1:6" customFormat="1">
-      <c r="A392" s="29"/>
+      <c r="A392" s="30"/>
       <c r="B392" s="20" t="s">
         <v>557</v>
       </c>
@@ -16730,7 +16806,7 @@
       <c r="F392" s="2"/>
     </row>
     <row r="393" spans="1:6" customFormat="1">
-      <c r="A393" s="29"/>
+      <c r="A393" s="30"/>
       <c r="B393" s="20" t="s">
         <v>558</v>
       </c>
@@ -16744,7 +16820,7 @@
       <c r="F393" s="2"/>
     </row>
     <row r="394" spans="1:6" customFormat="1">
-      <c r="A394" s="29"/>
+      <c r="A394" s="30"/>
       <c r="B394" s="20" t="s">
         <v>559</v>
       </c>
@@ -16758,7 +16834,7 @@
       <c r="F394" s="2"/>
     </row>
     <row r="395" spans="1:6" customFormat="1">
-      <c r="A395" s="29"/>
+      <c r="A395" s="30"/>
       <c r="B395" s="20" t="s">
         <v>560</v>
       </c>
@@ -16772,7 +16848,7 @@
       <c r="F395" s="2"/>
     </row>
     <row r="396" spans="1:6" customFormat="1">
-      <c r="A396" s="29"/>
+      <c r="A396" s="30"/>
       <c r="B396" s="20" t="s">
         <v>561</v>
       </c>
@@ -16786,7 +16862,7 @@
       <c r="F396" s="2"/>
     </row>
     <row r="397" spans="1:6" customFormat="1">
-      <c r="A397" s="29"/>
+      <c r="A397" s="30"/>
       <c r="B397" s="20" t="s">
         <v>562</v>
       </c>
@@ -16800,7 +16876,7 @@
       <c r="F397" s="2"/>
     </row>
     <row r="398" spans="1:6" customFormat="1">
-      <c r="A398" s="29"/>
+      <c r="A398" s="30"/>
       <c r="B398" s="20" t="s">
         <v>563</v>
       </c>
@@ -16814,7 +16890,7 @@
       <c r="F398" s="2"/>
     </row>
     <row r="399" spans="1:6" customFormat="1">
-      <c r="A399" s="29"/>
+      <c r="A399" s="30"/>
       <c r="B399" s="20" t="s">
         <v>564</v>
       </c>
@@ -16828,7 +16904,7 @@
       <c r="F399" s="2"/>
     </row>
     <row r="400" spans="1:6" customFormat="1">
-      <c r="A400" s="29"/>
+      <c r="A400" s="30"/>
       <c r="B400" s="20" t="s">
         <v>565</v>
       </c>
@@ -16842,7 +16918,7 @@
       <c r="F400" s="2"/>
     </row>
     <row r="401" spans="1:6" customFormat="1">
-      <c r="A401" s="29"/>
+      <c r="A401" s="30"/>
       <c r="B401" s="20" t="s">
         <v>566</v>
       </c>
@@ -16856,7 +16932,7 @@
       <c r="F401" s="2"/>
     </row>
     <row r="402" spans="1:6" customFormat="1">
-      <c r="A402" s="29"/>
+      <c r="A402" s="30"/>
       <c r="B402" s="20" t="s">
         <v>567</v>
       </c>
@@ -16870,7 +16946,7 @@
       <c r="F402" s="2"/>
     </row>
     <row r="403" spans="1:6" customFormat="1">
-      <c r="A403" s="29"/>
+      <c r="A403" s="30"/>
       <c r="B403" s="20" t="s">
         <v>568</v>
       </c>
@@ -16884,7 +16960,7 @@
       <c r="F403" s="2"/>
     </row>
     <row r="404" spans="1:6" customFormat="1">
-      <c r="A404" s="29"/>
+      <c r="A404" s="30"/>
       <c r="B404" s="20">
         <v>14.6</v>
       </c>
@@ -16898,7 +16974,7 @@
       <c r="F404" s="2"/>
     </row>
     <row r="405" spans="1:6" customFormat="1">
-      <c r="A405" s="29"/>
+      <c r="A405" s="30"/>
       <c r="B405" s="20">
         <v>14.7</v>
       </c>
@@ -16912,7 +16988,7 @@
       <c r="F405" s="2"/>
     </row>
     <row r="406" spans="1:6" customFormat="1">
-      <c r="A406" s="29"/>
+      <c r="A406" s="30"/>
       <c r="B406" s="20" t="s">
         <v>569</v>
       </c>
@@ -16926,7 +17002,7 @@
       <c r="F406" s="2"/>
     </row>
     <row r="407" spans="1:6" customFormat="1">
-      <c r="A407" s="29"/>
+      <c r="A407" s="30"/>
       <c r="B407" s="20" t="s">
         <v>570</v>
       </c>
@@ -16940,7 +17016,7 @@
       <c r="F407" s="2"/>
     </row>
     <row r="408" spans="1:6" customFormat="1">
-      <c r="A408" s="29"/>
+      <c r="A408" s="30"/>
       <c r="B408" s="20" t="s">
         <v>571</v>
       </c>
@@ -16954,7 +17030,7 @@
       <c r="F408" s="2"/>
     </row>
     <row r="409" spans="1:6" customFormat="1">
-      <c r="A409" s="29"/>
+      <c r="A409" s="30"/>
       <c r="B409" s="20" t="s">
         <v>572</v>
       </c>
@@ -16968,7 +17044,7 @@
       <c r="F409" s="2"/>
     </row>
     <row r="410" spans="1:6" customFormat="1">
-      <c r="A410" s="29"/>
+      <c r="A410" s="30"/>
       <c r="B410" s="20" t="s">
         <v>573</v>
       </c>
@@ -16982,7 +17058,7 @@
       <c r="F410" s="2"/>
     </row>
     <row r="411" spans="1:6" customFormat="1">
-      <c r="A411" s="29"/>
+      <c r="A411" s="30"/>
       <c r="B411" s="20" t="s">
         <v>574</v>
       </c>
@@ -16996,7 +17072,7 @@
       <c r="F411" s="2"/>
     </row>
     <row r="412" spans="1:6" customFormat="1">
-      <c r="A412" s="29"/>
+      <c r="A412" s="30"/>
       <c r="B412" s="20" t="s">
         <v>575</v>
       </c>
@@ -17010,7 +17086,7 @@
       <c r="F412" s="2"/>
     </row>
     <row r="413" spans="1:6" customFormat="1">
-      <c r="A413" s="29"/>
+      <c r="A413" s="30"/>
       <c r="B413" s="20">
         <v>14.8</v>
       </c>
@@ -17024,7 +17100,7 @@
       <c r="F413" s="2"/>
     </row>
     <row r="414" spans="1:6" customFormat="1">
-      <c r="A414" s="29"/>
+      <c r="A414" s="30"/>
       <c r="B414" s="20">
         <v>14.9</v>
       </c>
@@ -17038,7 +17114,7 @@
       <c r="F414" s="2"/>
     </row>
     <row r="415" spans="1:6" customFormat="1">
-      <c r="A415" s="29"/>
+      <c r="A415" s="30"/>
       <c r="B415" s="20" t="s">
         <v>576</v>
       </c>
@@ -17052,7 +17128,7 @@
       <c r="F415" s="2"/>
     </row>
     <row r="416" spans="1:6" customFormat="1">
-      <c r="A416" s="29"/>
+      <c r="A416" s="30"/>
       <c r="B416" s="20" t="s">
         <v>577</v>
       </c>
@@ -17066,7 +17142,7 @@
       <c r="F416" s="2"/>
     </row>
     <row r="417" spans="1:6" customFormat="1">
-      <c r="A417" s="29"/>
+      <c r="A417" s="30"/>
       <c r="B417" s="20" t="s">
         <v>578</v>
       </c>
@@ -17080,7 +17156,7 @@
       <c r="F417" s="2"/>
     </row>
     <row r="418" spans="1:6" customFormat="1">
-      <c r="A418" s="29"/>
+      <c r="A418" s="30"/>
       <c r="B418" s="20" t="s">
         <v>579</v>
       </c>
@@ -17094,7 +17170,7 @@
       <c r="F418" s="2"/>
     </row>
     <row r="419" spans="1:6" customFormat="1">
-      <c r="A419" s="29"/>
+      <c r="A419" s="30"/>
       <c r="B419" s="20" t="s">
         <v>580</v>
       </c>
@@ -17108,7 +17184,7 @@
       <c r="F419" s="2"/>
     </row>
     <row r="420" spans="1:6" customFormat="1">
-      <c r="A420" s="29"/>
+      <c r="A420" s="30"/>
       <c r="B420" s="20">
         <v>14.1</v>
       </c>
@@ -17122,7 +17198,7 @@
       <c r="F420" s="2"/>
     </row>
     <row r="421" spans="1:6" customFormat="1">
-      <c r="A421" s="29"/>
+      <c r="A421" s="30"/>
       <c r="B421" s="20" t="s">
         <v>581</v>
       </c>
@@ -17136,7 +17212,7 @@
       <c r="F421" s="2"/>
     </row>
     <row r="422" spans="1:6" customFormat="1">
-      <c r="A422" s="29"/>
+      <c r="A422" s="30"/>
       <c r="B422" s="20" t="s">
         <v>582</v>
       </c>
@@ -17150,7 +17226,7 @@
       <c r="F422" s="2"/>
     </row>
     <row r="423" spans="1:6" customFormat="1">
-      <c r="A423" s="29"/>
+      <c r="A423" s="30"/>
       <c r="B423" s="20" t="s">
         <v>583</v>
       </c>
@@ -17164,7 +17240,7 @@
       <c r="F423" s="2"/>
     </row>
     <row r="424" spans="1:6" customFormat="1">
-      <c r="A424" s="29"/>
+      <c r="A424" s="30"/>
       <c r="B424" s="20" t="s">
         <v>584</v>
       </c>
@@ -17178,7 +17254,7 @@
       <c r="F424" s="2"/>
     </row>
     <row r="425" spans="1:6" customFormat="1">
-      <c r="A425" s="29"/>
+      <c r="A425" s="30"/>
       <c r="B425" s="20" t="s">
         <v>585</v>
       </c>
@@ -17192,7 +17268,7 @@
       <c r="F425" s="2"/>
     </row>
     <row r="426" spans="1:6" customFormat="1">
-      <c r="A426" s="29"/>
+      <c r="A426" s="30"/>
       <c r="B426" s="20">
         <v>14.11</v>
       </c>
@@ -17206,7 +17282,7 @@
       <c r="F426" s="2"/>
     </row>
     <row r="427" spans="1:6" customFormat="1">
-      <c r="A427" s="29"/>
+      <c r="A427" s="30"/>
       <c r="B427" s="20" t="s">
         <v>586</v>
       </c>
@@ -17220,7 +17296,7 @@
       <c r="F427" s="2"/>
     </row>
     <row r="428" spans="1:6" customFormat="1">
-      <c r="A428" s="29"/>
+      <c r="A428" s="30"/>
       <c r="B428" s="20" t="s">
         <v>587</v>
       </c>
@@ -17234,7 +17310,7 @@
       <c r="F428" s="2"/>
     </row>
     <row r="429" spans="1:6" customFormat="1">
-      <c r="A429" s="30"/>
+      <c r="A429" s="31"/>
       <c r="B429" s="20" t="s">
         <v>588</v>
       </c>
@@ -17300,6 +17376,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A376:A429"/>
+    <mergeCell ref="A353:A375"/>
+    <mergeCell ref="A310:A352"/>
+    <mergeCell ref="A301:A309"/>
+    <mergeCell ref="A250:A290"/>
+    <mergeCell ref="A291:A300"/>
     <mergeCell ref="A77:A127"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A25"/>
@@ -17308,12 +17390,6 @@
     <mergeCell ref="A128:A157"/>
     <mergeCell ref="A190:A217"/>
     <mergeCell ref="A158:A189"/>
-    <mergeCell ref="A376:A429"/>
-    <mergeCell ref="A353:A375"/>
-    <mergeCell ref="A310:A352"/>
-    <mergeCell ref="A301:A309"/>
-    <mergeCell ref="A250:A290"/>
-    <mergeCell ref="A291:A300"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I4">

--- a/学习进度.xlsx
+++ b/学习进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laohangdeche/Library/Mobile Documents/com~apple~CloudDocs/个人/学习笔记/Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B348CAF-BFDA-944C-92E9-E13E504B7D9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6AD6CD-FF55-E643-BE9E-526D2CC531D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="460" windowWidth="28300" windowHeight="16900" xr2:uid="{C7784454-BD36-8040-9BFE-2AD014209B0B}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="1339">
   <si>
     <t>01_Java语言发展史</t>
   </si>
@@ -4321,9 +4321,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4331,6 +4328,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4652,8 +4652,8 @@
   <dimension ref="A1:G562"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G185" activeCellId="1" sqref="G191 G185"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B287" sqref="B287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4683,7 +4683,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-03</v>
+        <v>截至2020-09-04</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -4703,7 +4703,7 @@
       </c>
       <c r="G2" s="12">
         <f>COUNTIF(C2:C562,"ok")</f>
-        <v>267</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="G3" s="12">
         <f>COUNTBLANK(C2:C562)</f>
-        <v>294</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="G4" s="15">
         <f>G2/(G2+G3)</f>
-        <v>0.47593582887700536</v>
+        <v>0.51158645276292336</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1">
@@ -8243,8 +8243,12 @@
       <c r="B269" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C269" s="2"/>
-      <c r="D269" s="25"/>
+      <c r="C269" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D269" s="25">
+        <v>44078</v>
+      </c>
     </row>
     <row r="270" spans="1:4" customFormat="1">
       <c r="A270" s="2">
@@ -8253,8 +8257,12 @@
       <c r="B270" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C270" s="2"/>
-      <c r="D270" s="25"/>
+      <c r="C270" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D270" s="25">
+        <v>44078</v>
+      </c>
     </row>
     <row r="271" spans="1:4" customFormat="1">
       <c r="A271" s="2">
@@ -8263,8 +8271,12 @@
       <c r="B271" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C271" s="2"/>
-      <c r="D271" s="25"/>
+      <c r="C271" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D271" s="25">
+        <v>44078</v>
+      </c>
     </row>
     <row r="272" spans="1:4" customFormat="1">
       <c r="A272" s="2">
@@ -8273,8 +8285,12 @@
       <c r="B272" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C272" s="2"/>
-      <c r="D272" s="25"/>
+      <c r="C272" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D272" s="25">
+        <v>44078</v>
+      </c>
     </row>
     <row r="273" spans="1:4" customFormat="1">
       <c r="A273" s="2">
@@ -8283,8 +8299,12 @@
       <c r="B273" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C273" s="2"/>
-      <c r="D273" s="25"/>
+      <c r="C273" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D273" s="25">
+        <v>44078</v>
+      </c>
     </row>
     <row r="274" spans="1:4" customFormat="1">
       <c r="A274" s="2">
@@ -8293,8 +8313,12 @@
       <c r="B274" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C274" s="2"/>
-      <c r="D274" s="25"/>
+      <c r="C274" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D274" s="25">
+        <v>44078</v>
+      </c>
     </row>
     <row r="275" spans="1:4" customFormat="1">
       <c r="A275" s="2">
@@ -8303,8 +8327,12 @@
       <c r="B275" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C275" s="2"/>
-      <c r="D275" s="25"/>
+      <c r="C275" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D275" s="25">
+        <v>44078</v>
+      </c>
     </row>
     <row r="276" spans="1:4" customFormat="1">
       <c r="A276" s="2">
@@ -8313,8 +8341,12 @@
       <c r="B276" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C276" s="2"/>
-      <c r="D276" s="25"/>
+      <c r="C276" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D276" s="25">
+        <v>44078</v>
+      </c>
     </row>
     <row r="277" spans="1:4" customFormat="1">
       <c r="A277" s="2">
@@ -8323,8 +8355,12 @@
       <c r="B277" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C277" s="2"/>
-      <c r="D277" s="25"/>
+      <c r="C277" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D277" s="25">
+        <v>44078</v>
+      </c>
     </row>
     <row r="278" spans="1:4" customFormat="1">
       <c r="A278" s="2">
@@ -8333,8 +8369,12 @@
       <c r="B278" s="5" t="s">
         <v>1146</v>
       </c>
-      <c r="C278" s="2"/>
-      <c r="D278" s="25"/>
+      <c r="C278" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D278" s="25">
+        <v>44078</v>
+      </c>
     </row>
     <row r="279" spans="1:4" customFormat="1">
       <c r="A279" s="2">
@@ -8343,8 +8383,12 @@
       <c r="B279" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C279" s="2"/>
-      <c r="D279" s="25"/>
+      <c r="C279" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D279" s="25">
+        <v>44078</v>
+      </c>
     </row>
     <row r="280" spans="1:4" customFormat="1">
       <c r="A280" s="2">
@@ -8353,8 +8397,12 @@
       <c r="B280" s="5" t="s">
         <v>1147</v>
       </c>
-      <c r="C280" s="2"/>
-      <c r="D280" s="25"/>
+      <c r="C280" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D280" s="25">
+        <v>44078</v>
+      </c>
     </row>
     <row r="281" spans="1:4" customFormat="1">
       <c r="A281" s="2">
@@ -8363,8 +8411,12 @@
       <c r="B281" s="5" t="s">
         <v>1148</v>
       </c>
-      <c r="C281" s="2"/>
-      <c r="D281" s="25"/>
+      <c r="C281" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D281" s="25">
+        <v>44078</v>
+      </c>
     </row>
     <row r="282" spans="1:4" customFormat="1">
       <c r="A282" s="2">
@@ -8373,8 +8425,12 @@
       <c r="B282" s="5" t="s">
         <v>1149</v>
       </c>
-      <c r="C282" s="2"/>
-      <c r="D282" s="25"/>
+      <c r="C282" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D282" s="25">
+        <v>44078</v>
+      </c>
     </row>
     <row r="283" spans="1:4" customFormat="1">
       <c r="A283" s="2">
@@ -8383,8 +8439,12 @@
       <c r="B283" s="5" t="s">
         <v>1150</v>
       </c>
-      <c r="C283" s="2"/>
-      <c r="D283" s="25"/>
+      <c r="C283" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D283" s="25">
+        <v>44078</v>
+      </c>
     </row>
     <row r="284" spans="1:4" customFormat="1">
       <c r="A284" s="2">
@@ -8393,8 +8453,12 @@
       <c r="B284" s="5" t="s">
         <v>1151</v>
       </c>
-      <c r="C284" s="2"/>
-      <c r="D284" s="25"/>
+      <c r="C284" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D284" s="25">
+        <v>44078</v>
+      </c>
     </row>
     <row r="285" spans="1:4" customFormat="1">
       <c r="A285" s="2">
@@ -8403,8 +8467,12 @@
       <c r="B285" s="5" t="s">
         <v>1152</v>
       </c>
-      <c r="C285" s="2"/>
-      <c r="D285" s="25"/>
+      <c r="C285" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D285" s="25">
+        <v>44078</v>
+      </c>
     </row>
     <row r="286" spans="1:4" customFormat="1">
       <c r="A286" s="2">
@@ -8413,8 +8481,12 @@
       <c r="B286" s="5" t="s">
         <v>1153</v>
       </c>
-      <c r="C286" s="2"/>
-      <c r="D286" s="25"/>
+      <c r="C286" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D286" s="25">
+        <v>44078</v>
+      </c>
     </row>
     <row r="287" spans="1:4" customFormat="1">
       <c r="A287" s="2">
@@ -8423,8 +8495,12 @@
       <c r="B287" s="5" t="s">
         <v>1154</v>
       </c>
-      <c r="C287" s="2"/>
-      <c r="D287" s="25"/>
+      <c r="C287" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D287" s="25">
+        <v>44078</v>
+      </c>
     </row>
     <row r="288" spans="1:4" customFormat="1">
       <c r="A288" s="2">
@@ -8433,8 +8509,12 @@
       <c r="B288" s="5" t="s">
         <v>1155</v>
       </c>
-      <c r="C288" s="2"/>
-      <c r="D288" s="25"/>
+      <c r="C288" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D288" s="25">
+        <v>44078</v>
+      </c>
     </row>
     <row r="289" spans="1:4" customFormat="1">
       <c r="A289" s="2">
@@ -11263,12 +11343,12 @@
       </c>
       <c r="H1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-03</v>
+        <v>截至2020-09-04</v>
       </c>
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" customFormat="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>1016</v>
       </c>
       <c r="B2" s="20">
@@ -11291,7 +11371,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" customFormat="1">
-      <c r="A3" s="28"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="20">
         <v>1.2</v>
       </c>
@@ -11312,7 +11392,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" customFormat="1">
-      <c r="A4" s="28"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="20" t="s">
         <v>261</v>
       </c>
@@ -11333,7 +11413,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" customFormat="1">
-      <c r="A5" s="28"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="20" t="s">
         <v>262</v>
       </c>
@@ -11347,7 +11427,7 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:9" customFormat="1">
-      <c r="A6" s="28"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="20" t="s">
         <v>263</v>
       </c>
@@ -11362,7 +11442,7 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:9" customFormat="1">
-      <c r="A7" s="28"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="20" t="s">
         <v>264</v>
       </c>
@@ -11377,7 +11457,7 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9" customFormat="1">
-      <c r="A8" s="28"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="20" t="s">
         <v>265</v>
       </c>
@@ -11391,7 +11471,7 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:9" customFormat="1">
-      <c r="A9" s="28"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="20" t="s">
         <v>266</v>
       </c>
@@ -11406,7 +11486,7 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:9" customFormat="1">
-      <c r="A10" s="28"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="20" t="s">
         <v>267</v>
       </c>
@@ -11420,7 +11500,7 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:9" customFormat="1">
-      <c r="A11" s="28"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="20" t="s">
         <v>268</v>
       </c>
@@ -11434,7 +11514,7 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:9" customFormat="1">
-      <c r="A12" s="28"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="20" t="s">
         <v>269</v>
       </c>
@@ -11448,7 +11528,7 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:9" customFormat="1">
-      <c r="A13" s="28"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="20" t="s">
         <v>270</v>
       </c>
@@ -11462,7 +11542,7 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:9" customFormat="1">
-      <c r="A14" s="28"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="20" t="s">
         <v>271</v>
       </c>
@@ -11476,7 +11556,7 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:9" customFormat="1">
-      <c r="A15" s="28"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="20">
         <v>1.3</v>
       </c>
@@ -11490,7 +11570,7 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:9" customFormat="1">
-      <c r="A16" s="28"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="20">
         <v>1.4</v>
       </c>
@@ -11504,7 +11584,7 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" customFormat="1">
-      <c r="A17" s="28"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="20">
         <v>1.5</v>
       </c>
@@ -11518,7 +11598,7 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" customFormat="1">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="31" t="s">
         <v>1017</v>
       </c>
       <c r="B18" s="20">
@@ -11534,7 +11614,7 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" customFormat="1">
-      <c r="A19" s="28"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="20" t="s">
         <v>272</v>
       </c>
@@ -11548,7 +11628,7 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" customFormat="1">
-      <c r="A20" s="28"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="20" t="s">
         <v>273</v>
       </c>
@@ -11562,7 +11642,7 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" customFormat="1">
-      <c r="A21" s="28"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="20" t="s">
         <v>274</v>
       </c>
@@ -11576,7 +11656,7 @@
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" customFormat="1">
-      <c r="A22" s="28"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="20">
         <v>2.2000000000000002</v>
       </c>
@@ -11590,7 +11670,7 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" customFormat="1">
-      <c r="A23" s="28"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="20">
         <v>2.2999999999999998</v>
       </c>
@@ -11604,7 +11684,7 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" customFormat="1">
-      <c r="A24" s="28"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="20">
         <v>2.4</v>
       </c>
@@ -11618,7 +11698,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" customFormat="1">
-      <c r="A25" s="28"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="20">
         <v>2.5</v>
       </c>
@@ -11632,7 +11712,7 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" customFormat="1">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="31" t="s">
         <v>1027</v>
       </c>
       <c r="B26" s="20">
@@ -11648,7 +11728,7 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" customFormat="1">
-      <c r="A27" s="28"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="20">
         <v>3.2</v>
       </c>
@@ -11662,7 +11742,7 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" customFormat="1">
-      <c r="A28" s="28"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="20">
         <v>3.3</v>
       </c>
@@ -11676,7 +11756,7 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" customFormat="1">
-      <c r="A29" s="28"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="20" t="s">
         <v>275</v>
       </c>
@@ -11690,7 +11770,7 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" customFormat="1">
-      <c r="A30" s="28"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="20" t="s">
         <v>276</v>
       </c>
@@ -11704,7 +11784,7 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" customFormat="1">
-      <c r="A31" s="28"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="20" t="s">
         <v>277</v>
       </c>
@@ -11718,7 +11798,7 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" customFormat="1">
-      <c r="A32" s="28"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="20" t="s">
         <v>278</v>
       </c>
@@ -11732,7 +11812,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" customFormat="1">
-      <c r="A33" s="28"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="20" t="s">
         <v>279</v>
       </c>
@@ -11746,7 +11826,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" customFormat="1">
-      <c r="A34" s="28"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="20">
         <v>3.4</v>
       </c>
@@ -11760,7 +11840,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" customFormat="1">
-      <c r="A35" s="28"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="20" t="s">
         <v>280</v>
       </c>
@@ -11774,7 +11854,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" customFormat="1">
-      <c r="A36" s="28"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="20" t="s">
         <v>281</v>
       </c>
@@ -11788,7 +11868,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" customFormat="1">
-      <c r="A37" s="28"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="20">
         <v>3.5</v>
       </c>
@@ -11802,7 +11882,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" customFormat="1">
-      <c r="A38" s="28"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="20" t="s">
         <v>282</v>
       </c>
@@ -11816,7 +11896,7 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" customFormat="1">
-      <c r="A39" s="28"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="20" t="s">
         <v>283</v>
       </c>
@@ -11830,7 +11910,7 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" customFormat="1">
-      <c r="A40" s="28"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="20" t="s">
         <v>284</v>
       </c>
@@ -11844,7 +11924,7 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" customFormat="1">
-      <c r="A41" s="28"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="20" t="s">
         <v>285</v>
       </c>
@@ -11858,7 +11938,7 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" customFormat="1">
-      <c r="A42" s="28"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="20" t="s">
         <v>286</v>
       </c>
@@ -11872,7 +11952,7 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" customFormat="1">
-      <c r="A43" s="28"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="20" t="s">
         <v>287</v>
       </c>
@@ -11886,7 +11966,7 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" customFormat="1">
-      <c r="A44" s="28"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="20" t="s">
         <v>288</v>
       </c>
@@ -11900,7 +11980,7 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" customFormat="1">
-      <c r="A45" s="28"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="20" t="s">
         <v>289</v>
       </c>
@@ -11914,7 +11994,7 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" customFormat="1">
-      <c r="A46" s="28"/>
+      <c r="A46" s="31"/>
       <c r="B46" s="20" t="s">
         <v>290</v>
       </c>
@@ -11928,7 +12008,7 @@
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" customFormat="1">
-      <c r="A47" s="28"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="20">
         <v>3.6</v>
       </c>
@@ -11942,7 +12022,7 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" customFormat="1">
-      <c r="A48" s="28"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="20" t="s">
         <v>291</v>
       </c>
@@ -11956,7 +12036,7 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" customFormat="1">
-      <c r="A49" s="28"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="20" t="s">
         <v>292</v>
       </c>
@@ -11970,7 +12050,7 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" customFormat="1">
-      <c r="A50" s="28"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="20" t="s">
         <v>293</v>
       </c>
@@ -11984,7 +12064,7 @@
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" customFormat="1">
-      <c r="A51" s="28"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="20" t="s">
         <v>294</v>
       </c>
@@ -11998,7 +12078,7 @@
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" customFormat="1">
-      <c r="A52" s="28"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="20" t="s">
         <v>295</v>
       </c>
@@ -12012,7 +12092,7 @@
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" customFormat="1">
-      <c r="A53" s="28"/>
+      <c r="A53" s="31"/>
       <c r="B53" s="20" t="s">
         <v>296</v>
       </c>
@@ -12026,7 +12106,7 @@
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" customFormat="1">
-      <c r="A54" s="28"/>
+      <c r="A54" s="31"/>
       <c r="B54" s="20" t="s">
         <v>297</v>
       </c>
@@ -12040,7 +12120,7 @@
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" customFormat="1">
-      <c r="A55" s="28"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="20" t="s">
         <v>298</v>
       </c>
@@ -12054,7 +12134,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" customFormat="1">
-      <c r="A56" s="28"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="20" t="s">
         <v>299</v>
       </c>
@@ -12068,7 +12148,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" customFormat="1">
-      <c r="A57" s="28"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="20">
         <v>3.7</v>
       </c>
@@ -12082,7 +12162,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" customFormat="1">
-      <c r="A58" s="28"/>
+      <c r="A58" s="31"/>
       <c r="B58" s="20" t="s">
         <v>300</v>
       </c>
@@ -12096,7 +12176,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" customFormat="1">
-      <c r="A59" s="28"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="20" t="s">
         <v>301</v>
       </c>
@@ -12110,7 +12190,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" customFormat="1">
-      <c r="A60" s="28"/>
+      <c r="A60" s="31"/>
       <c r="B60" s="20" t="s">
         <v>302</v>
       </c>
@@ -12124,7 +12204,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" customFormat="1">
-      <c r="A61" s="28"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="20">
         <v>3.8</v>
       </c>
@@ -12138,7 +12218,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" customFormat="1">
-      <c r="A62" s="28"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="20" t="s">
         <v>303</v>
       </c>
@@ -12152,7 +12232,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" customFormat="1">
-      <c r="A63" s="28"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="20" t="s">
         <v>304</v>
       </c>
@@ -12166,7 +12246,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" customFormat="1">
-      <c r="A64" s="28"/>
+      <c r="A64" s="31"/>
       <c r="B64" s="20" t="s">
         <v>305</v>
       </c>
@@ -12180,7 +12260,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" customFormat="1">
-      <c r="A65" s="28"/>
+      <c r="A65" s="31"/>
       <c r="B65" s="20" t="s">
         <v>306</v>
       </c>
@@ -12194,7 +12274,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" customFormat="1">
-      <c r="A66" s="28"/>
+      <c r="A66" s="31"/>
       <c r="B66" s="20" t="s">
         <v>307</v>
       </c>
@@ -12208,7 +12288,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" customFormat="1">
-      <c r="A67" s="28"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="20" t="s">
         <v>308</v>
       </c>
@@ -12222,7 +12302,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" customFormat="1">
-      <c r="A68" s="28"/>
+      <c r="A68" s="31"/>
       <c r="B68" s="20">
         <v>3.9</v>
       </c>
@@ -12236,7 +12316,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" customFormat="1">
-      <c r="A69" s="28"/>
+      <c r="A69" s="31"/>
       <c r="B69" s="20">
         <v>3.1</v>
       </c>
@@ -12250,7 +12330,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" customFormat="1">
-      <c r="A70" s="28"/>
+      <c r="A70" s="31"/>
       <c r="B70" s="20" t="s">
         <v>309</v>
       </c>
@@ -12264,7 +12344,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" customFormat="1">
-      <c r="A71" s="28"/>
+      <c r="A71" s="31"/>
       <c r="B71" s="20" t="s">
         <v>310</v>
       </c>
@@ -12278,7 +12358,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" customFormat="1">
-      <c r="A72" s="28"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="20" t="s">
         <v>311</v>
       </c>
@@ -12292,7 +12372,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" customFormat="1">
-      <c r="A73" s="28"/>
+      <c r="A73" s="31"/>
       <c r="B73" s="20" t="s">
         <v>312</v>
       </c>
@@ -12306,7 +12386,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" customFormat="1">
-      <c r="A74" s="28"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="20" t="s">
         <v>313</v>
       </c>
@@ -12320,7 +12400,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" customFormat="1">
-      <c r="A75" s="28"/>
+      <c r="A75" s="31"/>
       <c r="B75" s="20" t="s">
         <v>314</v>
       </c>
@@ -12334,7 +12414,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" customFormat="1">
-      <c r="A76" s="28"/>
+      <c r="A76" s="31"/>
       <c r="B76" s="20" t="s">
         <v>315</v>
       </c>
@@ -12348,7 +12428,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" customFormat="1">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="31" t="s">
         <v>1028</v>
       </c>
       <c r="B77" s="20">
@@ -12364,7 +12444,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" customFormat="1">
-      <c r="A78" s="28"/>
+      <c r="A78" s="31"/>
       <c r="B78" s="20" t="s">
         <v>316</v>
       </c>
@@ -12378,7 +12458,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" customFormat="1">
-      <c r="A79" s="28"/>
+      <c r="A79" s="31"/>
       <c r="B79" s="20" t="s">
         <v>317</v>
       </c>
@@ -12392,7 +12472,7 @@
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" customFormat="1">
-      <c r="A80" s="28"/>
+      <c r="A80" s="31"/>
       <c r="B80" s="20" t="s">
         <v>318</v>
       </c>
@@ -12406,7 +12486,7 @@
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" customFormat="1">
-      <c r="A81" s="28"/>
+      <c r="A81" s="31"/>
       <c r="B81" s="20" t="s">
         <v>319</v>
       </c>
@@ -12420,7 +12500,7 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" customFormat="1">
-      <c r="A82" s="28"/>
+      <c r="A82" s="31"/>
       <c r="B82" s="20">
         <v>4.2</v>
       </c>
@@ -12434,7 +12514,7 @@
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" customFormat="1">
-      <c r="A83" s="28"/>
+      <c r="A83" s="31"/>
       <c r="B83" s="20" t="s">
         <v>320</v>
       </c>
@@ -12448,7 +12528,7 @@
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" customFormat="1">
-      <c r="A84" s="28"/>
+      <c r="A84" s="31"/>
       <c r="B84" s="20" t="s">
         <v>321</v>
       </c>
@@ -12462,7 +12542,7 @@
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" customFormat="1">
-      <c r="A85" s="28"/>
+      <c r="A85" s="31"/>
       <c r="B85" s="20" t="s">
         <v>322</v>
       </c>
@@ -12476,7 +12556,7 @@
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" customFormat="1">
-      <c r="A86" s="28"/>
+      <c r="A86" s="31"/>
       <c r="B86" s="20">
         <v>4.3</v>
       </c>
@@ -12490,7 +12570,7 @@
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" customFormat="1">
-      <c r="A87" s="28"/>
+      <c r="A87" s="31"/>
       <c r="B87" s="20" t="s">
         <v>323</v>
       </c>
@@ -12504,7 +12584,7 @@
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" customFormat="1">
-      <c r="A88" s="28"/>
+      <c r="A88" s="31"/>
       <c r="B88" s="20" t="s">
         <v>324</v>
       </c>
@@ -12518,7 +12598,7 @@
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" customFormat="1">
-      <c r="A89" s="28"/>
+      <c r="A89" s="31"/>
       <c r="B89" s="20" t="s">
         <v>325</v>
       </c>
@@ -12532,7 +12612,7 @@
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" customFormat="1">
-      <c r="A90" s="28"/>
+      <c r="A90" s="31"/>
       <c r="B90" s="20" t="s">
         <v>326</v>
       </c>
@@ -12546,7 +12626,7 @@
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" customFormat="1">
-      <c r="A91" s="28"/>
+      <c r="A91" s="31"/>
       <c r="B91" s="20" t="s">
         <v>327</v>
       </c>
@@ -12560,7 +12640,7 @@
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" customFormat="1">
-      <c r="A92" s="28"/>
+      <c r="A92" s="31"/>
       <c r="B92" s="20" t="s">
         <v>328</v>
       </c>
@@ -12574,7 +12654,7 @@
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" customFormat="1">
-      <c r="A93" s="28"/>
+      <c r="A93" s="31"/>
       <c r="B93" s="20" t="s">
         <v>329</v>
       </c>
@@ -12588,7 +12668,7 @@
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" customFormat="1">
-      <c r="A94" s="28"/>
+      <c r="A94" s="31"/>
       <c r="B94" s="20" t="s">
         <v>330</v>
       </c>
@@ -12602,7 +12682,7 @@
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" customFormat="1">
-      <c r="A95" s="28"/>
+      <c r="A95" s="31"/>
       <c r="B95" s="20" t="s">
         <v>331</v>
       </c>
@@ -12616,7 +12696,7 @@
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" customFormat="1">
-      <c r="A96" s="28"/>
+      <c r="A96" s="31"/>
       <c r="B96" s="20">
         <v>4.4000000000000004</v>
       </c>
@@ -12630,7 +12710,7 @@
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" customFormat="1">
-      <c r="A97" s="28"/>
+      <c r="A97" s="31"/>
       <c r="B97" s="20" t="s">
         <v>332</v>
       </c>
@@ -12644,7 +12724,7 @@
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" customFormat="1">
-      <c r="A98" s="28"/>
+      <c r="A98" s="31"/>
       <c r="B98" s="20" t="s">
         <v>333</v>
       </c>
@@ -12658,7 +12738,7 @@
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" customFormat="1">
-      <c r="A99" s="28"/>
+      <c r="A99" s="31"/>
       <c r="B99" s="20" t="s">
         <v>334</v>
       </c>
@@ -12672,7 +12752,7 @@
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" customFormat="1">
-      <c r="A100" s="28"/>
+      <c r="A100" s="31"/>
       <c r="B100" s="20" t="s">
         <v>335</v>
       </c>
@@ -12686,7 +12766,7 @@
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" customFormat="1">
-      <c r="A101" s="28"/>
+      <c r="A101" s="31"/>
       <c r="B101" s="20" t="s">
         <v>336</v>
       </c>
@@ -12700,7 +12780,7 @@
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" customFormat="1">
-      <c r="A102" s="28"/>
+      <c r="A102" s="31"/>
       <c r="B102" s="20">
         <v>4.5</v>
       </c>
@@ -12714,7 +12794,7 @@
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" customFormat="1">
-      <c r="A103" s="28"/>
+      <c r="A103" s="31"/>
       <c r="B103" s="20">
         <v>4.5999999999999996</v>
       </c>
@@ -12728,7 +12808,7 @@
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" customFormat="1">
-      <c r="A104" s="28"/>
+      <c r="A104" s="31"/>
       <c r="B104" s="20" t="s">
         <v>337</v>
       </c>
@@ -12742,7 +12822,7 @@
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" customFormat="1">
-      <c r="A105" s="28"/>
+      <c r="A105" s="31"/>
       <c r="B105" s="20" t="s">
         <v>338</v>
       </c>
@@ -12756,7 +12836,7 @@
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" customFormat="1">
-      <c r="A106" s="28"/>
+      <c r="A106" s="31"/>
       <c r="B106" s="20" t="s">
         <v>339</v>
       </c>
@@ -12770,7 +12850,7 @@
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" customFormat="1">
-      <c r="A107" s="28"/>
+      <c r="A107" s="31"/>
       <c r="B107" s="20" t="s">
         <v>340</v>
       </c>
@@ -12784,7 +12864,7 @@
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" customFormat="1">
-      <c r="A108" s="28"/>
+      <c r="A108" s="31"/>
       <c r="B108" s="20" t="s">
         <v>341</v>
       </c>
@@ -12798,7 +12878,7 @@
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" customFormat="1">
-      <c r="A109" s="28"/>
+      <c r="A109" s="31"/>
       <c r="B109" s="20" t="s">
         <v>342</v>
       </c>
@@ -12812,7 +12892,7 @@
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" customFormat="1">
-      <c r="A110" s="28"/>
+      <c r="A110" s="31"/>
       <c r="B110" s="20" t="s">
         <v>343</v>
       </c>
@@ -12826,7 +12906,7 @@
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" customFormat="1">
-      <c r="A111" s="28"/>
+      <c r="A111" s="31"/>
       <c r="B111" s="20" t="s">
         <v>344</v>
       </c>
@@ -12840,7 +12920,7 @@
       <c r="F111" s="9"/>
     </row>
     <row r="112" spans="1:6" customFormat="1">
-      <c r="A112" s="28"/>
+      <c r="A112" s="31"/>
       <c r="B112" s="20">
         <v>4.7</v>
       </c>
@@ -12854,7 +12934,7 @@
       <c r="F112" s="9"/>
     </row>
     <row r="113" spans="1:8" customFormat="1">
-      <c r="A113" s="28"/>
+      <c r="A113" s="31"/>
       <c r="B113" s="20" t="s">
         <v>345</v>
       </c>
@@ -12868,7 +12948,7 @@
       <c r="F113" s="9"/>
     </row>
     <row r="114" spans="1:8" customFormat="1">
-      <c r="A114" s="28"/>
+      <c r="A114" s="31"/>
       <c r="B114" s="20" t="s">
         <v>346</v>
       </c>
@@ -12882,7 +12962,7 @@
       <c r="F114" s="9"/>
     </row>
     <row r="115" spans="1:8" customFormat="1">
-      <c r="A115" s="28"/>
+      <c r="A115" s="31"/>
       <c r="B115" s="20" t="s">
         <v>347</v>
       </c>
@@ -12896,7 +12976,7 @@
       <c r="F115" s="9"/>
     </row>
     <row r="116" spans="1:8" customFormat="1">
-      <c r="A116" s="28"/>
+      <c r="A116" s="31"/>
       <c r="B116" s="20" t="s">
         <v>348</v>
       </c>
@@ -12911,7 +12991,7 @@
       <c r="H116" s="7"/>
     </row>
     <row r="117" spans="1:8" customFormat="1">
-      <c r="A117" s="28"/>
+      <c r="A117" s="31"/>
       <c r="B117" s="20">
         <v>4.8</v>
       </c>
@@ -12926,7 +13006,7 @@
       <c r="H117" s="7"/>
     </row>
     <row r="118" spans="1:8" customFormat="1">
-      <c r="A118" s="28"/>
+      <c r="A118" s="31"/>
       <c r="B118" s="20" t="s">
         <v>349</v>
       </c>
@@ -12941,7 +13021,7 @@
       <c r="H118" s="7"/>
     </row>
     <row r="119" spans="1:8" customFormat="1">
-      <c r="A119" s="28"/>
+      <c r="A119" s="31"/>
       <c r="B119" s="20">
         <v>4.9000000000000004</v>
       </c>
@@ -12956,7 +13036,7 @@
       <c r="H119" s="7"/>
     </row>
     <row r="120" spans="1:8" customFormat="1">
-      <c r="A120" s="28"/>
+      <c r="A120" s="31"/>
       <c r="B120" s="20" t="s">
         <v>350</v>
       </c>
@@ -12971,7 +13051,7 @@
       <c r="H120" s="7"/>
     </row>
     <row r="121" spans="1:8" customFormat="1">
-      <c r="A121" s="28"/>
+      <c r="A121" s="31"/>
       <c r="B121" s="20" t="s">
         <v>351</v>
       </c>
@@ -12986,7 +13066,7 @@
       <c r="H121" s="7"/>
     </row>
     <row r="122" spans="1:8" customFormat="1">
-      <c r="A122" s="28"/>
+      <c r="A122" s="31"/>
       <c r="B122" s="20" t="s">
         <v>352</v>
       </c>
@@ -13001,7 +13081,7 @@
       <c r="H122" s="7"/>
     </row>
     <row r="123" spans="1:8" customFormat="1">
-      <c r="A123" s="28"/>
+      <c r="A123" s="31"/>
       <c r="B123" s="20" t="s">
         <v>353</v>
       </c>
@@ -13016,7 +13096,7 @@
       <c r="H123" s="7"/>
     </row>
     <row r="124" spans="1:8" customFormat="1">
-      <c r="A124" s="28"/>
+      <c r="A124" s="31"/>
       <c r="B124" s="20" t="s">
         <v>354</v>
       </c>
@@ -13031,7 +13111,7 @@
       <c r="H124" s="7"/>
     </row>
     <row r="125" spans="1:8" customFormat="1">
-      <c r="A125" s="28"/>
+      <c r="A125" s="31"/>
       <c r="B125" s="20" t="s">
         <v>355</v>
       </c>
@@ -13046,7 +13126,7 @@
       <c r="H125" s="7"/>
     </row>
     <row r="126" spans="1:8" customFormat="1">
-      <c r="A126" s="28"/>
+      <c r="A126" s="31"/>
       <c r="B126" s="20" t="s">
         <v>356</v>
       </c>
@@ -13061,7 +13141,7 @@
       <c r="H126" s="7"/>
     </row>
     <row r="127" spans="1:8" customFormat="1">
-      <c r="A127" s="28"/>
+      <c r="A127" s="31"/>
       <c r="B127" s="21">
         <v>4.0999999999999996</v>
       </c>
@@ -13076,7 +13156,7 @@
       <c r="H127" s="7"/>
     </row>
     <row r="128" spans="1:8" customFormat="1">
-      <c r="A128" s="28" t="s">
+      <c r="A128" s="31" t="s">
         <v>1029</v>
       </c>
       <c r="B128" s="20">
@@ -13092,7 +13172,7 @@
       <c r="F128" s="6"/>
     </row>
     <row r="129" spans="1:6" customFormat="1">
-      <c r="A129" s="28"/>
+      <c r="A129" s="31"/>
       <c r="B129" s="20" t="s">
         <v>357</v>
       </c>
@@ -13106,7 +13186,7 @@
       <c r="F129" s="6"/>
     </row>
     <row r="130" spans="1:6" customFormat="1">
-      <c r="A130" s="28"/>
+      <c r="A130" s="31"/>
       <c r="B130" s="20" t="s">
         <v>358</v>
       </c>
@@ -13120,7 +13200,7 @@
       <c r="F130" s="6"/>
     </row>
     <row r="131" spans="1:6" customFormat="1">
-      <c r="A131" s="28"/>
+      <c r="A131" s="31"/>
       <c r="B131" s="20" t="s">
         <v>359</v>
       </c>
@@ -13134,7 +13214,7 @@
       <c r="F131" s="6"/>
     </row>
     <row r="132" spans="1:6" customFormat="1">
-      <c r="A132" s="28"/>
+      <c r="A132" s="31"/>
       <c r="B132" s="20" t="s">
         <v>360</v>
       </c>
@@ -13148,7 +13228,7 @@
       <c r="F132" s="6"/>
     </row>
     <row r="133" spans="1:6" customFormat="1">
-      <c r="A133" s="28"/>
+      <c r="A133" s="31"/>
       <c r="B133" s="20" t="s">
         <v>361</v>
       </c>
@@ -13162,7 +13242,7 @@
       <c r="F133" s="6"/>
     </row>
     <row r="134" spans="1:6" customFormat="1">
-      <c r="A134" s="28"/>
+      <c r="A134" s="31"/>
       <c r="B134" s="20" t="s">
         <v>362</v>
       </c>
@@ -13176,7 +13256,7 @@
       <c r="F134" s="6"/>
     </row>
     <row r="135" spans="1:6" customFormat="1">
-      <c r="A135" s="28"/>
+      <c r="A135" s="31"/>
       <c r="B135" s="20" t="s">
         <v>363</v>
       </c>
@@ -13190,7 +13270,7 @@
       <c r="F135" s="6"/>
     </row>
     <row r="136" spans="1:6" customFormat="1">
-      <c r="A136" s="28"/>
+      <c r="A136" s="31"/>
       <c r="B136" s="20" t="s">
         <v>364</v>
       </c>
@@ -13204,7 +13284,7 @@
       <c r="F136" s="6"/>
     </row>
     <row r="137" spans="1:6" customFormat="1">
-      <c r="A137" s="28"/>
+      <c r="A137" s="31"/>
       <c r="B137" s="20" t="s">
         <v>365</v>
       </c>
@@ -13218,7 +13298,7 @@
       <c r="F137" s="6"/>
     </row>
     <row r="138" spans="1:6" customFormat="1">
-      <c r="A138" s="28"/>
+      <c r="A138" s="31"/>
       <c r="B138" s="20" t="s">
         <v>366</v>
       </c>
@@ -13232,7 +13312,7 @@
       <c r="F138" s="6"/>
     </row>
     <row r="139" spans="1:6" customFormat="1">
-      <c r="A139" s="28"/>
+      <c r="A139" s="31"/>
       <c r="B139" s="20">
         <v>5.2</v>
       </c>
@@ -13246,7 +13326,7 @@
       <c r="F139" s="6"/>
     </row>
     <row r="140" spans="1:6" customFormat="1">
-      <c r="A140" s="28"/>
+      <c r="A140" s="31"/>
       <c r="B140" s="20" t="s">
         <v>367</v>
       </c>
@@ -13260,7 +13340,7 @@
       <c r="F140" s="6"/>
     </row>
     <row r="141" spans="1:6" customFormat="1">
-      <c r="A141" s="28"/>
+      <c r="A141" s="31"/>
       <c r="B141" s="20" t="s">
         <v>368</v>
       </c>
@@ -13274,7 +13354,7 @@
       <c r="F141" s="6"/>
     </row>
     <row r="142" spans="1:6" customFormat="1">
-      <c r="A142" s="28"/>
+      <c r="A142" s="31"/>
       <c r="B142" s="20" t="s">
         <v>369</v>
       </c>
@@ -13288,7 +13368,7 @@
       <c r="F142" s="6"/>
     </row>
     <row r="143" spans="1:6" customFormat="1">
-      <c r="A143" s="28"/>
+      <c r="A143" s="31"/>
       <c r="B143" s="20" t="s">
         <v>370</v>
       </c>
@@ -13302,7 +13382,7 @@
       <c r="F143" s="6"/>
     </row>
     <row r="144" spans="1:6" customFormat="1">
-      <c r="A144" s="28"/>
+      <c r="A144" s="31"/>
       <c r="B144" s="20">
         <v>5.3</v>
       </c>
@@ -13316,7 +13396,7 @@
       <c r="F144" s="6"/>
     </row>
     <row r="145" spans="1:6" customFormat="1">
-      <c r="A145" s="28"/>
+      <c r="A145" s="31"/>
       <c r="B145" s="20" t="s">
         <v>371</v>
       </c>
@@ -13330,7 +13410,7 @@
       <c r="F145" s="6"/>
     </row>
     <row r="146" spans="1:6" customFormat="1">
-      <c r="A146" s="28"/>
+      <c r="A146" s="31"/>
       <c r="B146" s="20" t="s">
         <v>372</v>
       </c>
@@ -13344,7 +13424,7 @@
       <c r="F146" s="6"/>
     </row>
     <row r="147" spans="1:6" customFormat="1">
-      <c r="A147" s="28"/>
+      <c r="A147" s="31"/>
       <c r="B147" s="20">
         <v>5.4</v>
       </c>
@@ -13358,7 +13438,7 @@
       <c r="F147" s="6"/>
     </row>
     <row r="148" spans="1:6" customFormat="1">
-      <c r="A148" s="28"/>
+      <c r="A148" s="31"/>
       <c r="B148" s="20">
         <v>5.5</v>
       </c>
@@ -13372,7 +13452,7 @@
       <c r="F148" s="6"/>
     </row>
     <row r="149" spans="1:6" customFormat="1">
-      <c r="A149" s="28"/>
+      <c r="A149" s="31"/>
       <c r="B149" s="20">
         <v>5.6</v>
       </c>
@@ -13386,7 +13466,7 @@
       <c r="F149" s="6"/>
     </row>
     <row r="150" spans="1:6" customFormat="1">
-      <c r="A150" s="28"/>
+      <c r="A150" s="31"/>
       <c r="B150" s="20">
         <v>5.7</v>
       </c>
@@ -13400,7 +13480,7 @@
       <c r="F150" s="6"/>
     </row>
     <row r="151" spans="1:6" customFormat="1">
-      <c r="A151" s="28"/>
+      <c r="A151" s="31"/>
       <c r="B151" s="20" t="s">
         <v>373</v>
       </c>
@@ -13414,7 +13494,7 @@
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="1:6" customFormat="1">
-      <c r="A152" s="28"/>
+      <c r="A152" s="31"/>
       <c r="B152" s="20" t="s">
         <v>374</v>
       </c>
@@ -13428,7 +13508,7 @@
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:6" customFormat="1">
-      <c r="A153" s="28"/>
+      <c r="A153" s="31"/>
       <c r="B153" s="20" t="s">
         <v>375</v>
       </c>
@@ -13442,7 +13522,7 @@
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" customFormat="1">
-      <c r="A154" s="28"/>
+      <c r="A154" s="31"/>
       <c r="B154" s="20" t="s">
         <v>376</v>
       </c>
@@ -13456,7 +13536,7 @@
       <c r="F154" s="2"/>
     </row>
     <row r="155" spans="1:6" customFormat="1">
-      <c r="A155" s="28"/>
+      <c r="A155" s="31"/>
       <c r="B155" s="20" t="s">
         <v>377</v>
       </c>
@@ -13470,7 +13550,7 @@
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" customFormat="1">
-      <c r="A156" s="28"/>
+      <c r="A156" s="31"/>
       <c r="B156" s="20" t="s">
         <v>378</v>
       </c>
@@ -13484,7 +13564,7 @@
       <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:6" customFormat="1">
-      <c r="A157" s="28"/>
+      <c r="A157" s="31"/>
       <c r="B157" s="20">
         <v>5.8</v>
       </c>
@@ -13498,7 +13578,7 @@
       <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:6" customFormat="1">
-      <c r="A158" s="28" t="s">
+      <c r="A158" s="31" t="s">
         <v>1026</v>
       </c>
       <c r="B158" s="20">
@@ -13514,7 +13594,7 @@
       <c r="F158" s="2"/>
     </row>
     <row r="159" spans="1:6" customFormat="1">
-      <c r="A159" s="28"/>
+      <c r="A159" s="31"/>
       <c r="B159" s="20" t="s">
         <v>379</v>
       </c>
@@ -13528,7 +13608,7 @@
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" customFormat="1">
-      <c r="A160" s="28"/>
+      <c r="A160" s="31"/>
       <c r="B160" s="20" t="s">
         <v>380</v>
       </c>
@@ -13542,7 +13622,7 @@
       <c r="F160" s="2"/>
     </row>
     <row r="161" spans="1:6" customFormat="1">
-      <c r="A161" s="28"/>
+      <c r="A161" s="31"/>
       <c r="B161" s="20" t="s">
         <v>381</v>
       </c>
@@ -13556,7 +13636,7 @@
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" customFormat="1">
-      <c r="A162" s="28"/>
+      <c r="A162" s="31"/>
       <c r="B162" s="20" t="s">
         <v>382</v>
       </c>
@@ -13570,7 +13650,7 @@
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:6" customFormat="1">
-      <c r="A163" s="28"/>
+      <c r="A163" s="31"/>
       <c r="B163" s="20" t="s">
         <v>383</v>
       </c>
@@ -13584,7 +13664,7 @@
       <c r="F163" s="2"/>
     </row>
     <row r="164" spans="1:6" customFormat="1">
-      <c r="A164" s="28"/>
+      <c r="A164" s="31"/>
       <c r="B164" s="20" t="s">
         <v>384</v>
       </c>
@@ -13598,7 +13678,7 @@
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" customFormat="1">
-      <c r="A165" s="28"/>
+      <c r="A165" s="31"/>
       <c r="B165" s="20">
         <v>6.2</v>
       </c>
@@ -13612,7 +13692,7 @@
       <c r="F165" s="2"/>
     </row>
     <row r="166" spans="1:6" customFormat="1">
-      <c r="A166" s="28"/>
+      <c r="A166" s="31"/>
       <c r="B166" s="20" t="s">
         <v>385</v>
       </c>
@@ -13626,7 +13706,7 @@
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" customFormat="1">
-      <c r="A167" s="28"/>
+      <c r="A167" s="31"/>
       <c r="B167" s="20" t="s">
         <v>386</v>
       </c>
@@ -13640,7 +13720,7 @@
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="1:6" customFormat="1">
-      <c r="A168" s="28"/>
+      <c r="A168" s="31"/>
       <c r="B168" s="20" t="s">
         <v>387</v>
       </c>
@@ -13654,7 +13734,7 @@
       <c r="F168" s="2"/>
     </row>
     <row r="169" spans="1:6" customFormat="1">
-      <c r="A169" s="28"/>
+      <c r="A169" s="31"/>
       <c r="B169" s="20">
         <v>6.3</v>
       </c>
@@ -13668,7 +13748,7 @@
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" customFormat="1">
-      <c r="A170" s="28"/>
+      <c r="A170" s="31"/>
       <c r="B170" s="20" t="s">
         <v>388</v>
       </c>
@@ -13682,7 +13762,7 @@
       <c r="F170" s="2"/>
     </row>
     <row r="171" spans="1:6" customFormat="1">
-      <c r="A171" s="28"/>
+      <c r="A171" s="31"/>
       <c r="B171" s="20" t="s">
         <v>389</v>
       </c>
@@ -13696,7 +13776,7 @@
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" customFormat="1">
-      <c r="A172" s="28"/>
+      <c r="A172" s="31"/>
       <c r="B172" s="20" t="s">
         <v>390</v>
       </c>
@@ -13710,7 +13790,7 @@
       <c r="F172" s="2"/>
     </row>
     <row r="173" spans="1:6" customFormat="1">
-      <c r="A173" s="28"/>
+      <c r="A173" s="31"/>
       <c r="B173" s="20" t="s">
         <v>391</v>
       </c>
@@ -13724,7 +13804,7 @@
       <c r="F173" s="2"/>
     </row>
     <row r="174" spans="1:6" customFormat="1">
-      <c r="A174" s="28"/>
+      <c r="A174" s="31"/>
       <c r="B174" s="20" t="s">
         <v>392</v>
       </c>
@@ -13738,7 +13818,7 @@
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" customFormat="1">
-      <c r="A175" s="28"/>
+      <c r="A175" s="31"/>
       <c r="B175" s="20" t="s">
         <v>393</v>
       </c>
@@ -13752,7 +13832,7 @@
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="1:6" customFormat="1">
-      <c r="A176" s="28"/>
+      <c r="A176" s="31"/>
       <c r="B176" s="20" t="s">
         <v>394</v>
       </c>
@@ -13766,7 +13846,7 @@
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" customFormat="1">
-      <c r="A177" s="28"/>
+      <c r="A177" s="31"/>
       <c r="B177" s="20" t="s">
         <v>395</v>
       </c>
@@ -13780,7 +13860,7 @@
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:6" customFormat="1">
-      <c r="A178" s="28"/>
+      <c r="A178" s="31"/>
       <c r="B178" s="20">
         <v>6.4</v>
       </c>
@@ -13794,7 +13874,7 @@
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:6" customFormat="1">
-      <c r="A179" s="28"/>
+      <c r="A179" s="31"/>
       <c r="B179" s="20" t="s">
         <v>396</v>
       </c>
@@ -13808,7 +13888,7 @@
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" customFormat="1">
-      <c r="A180" s="28"/>
+      <c r="A180" s="31"/>
       <c r="B180" s="20" t="s">
         <v>397</v>
       </c>
@@ -13822,7 +13902,7 @@
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6" customFormat="1">
-      <c r="A181" s="28"/>
+      <c r="A181" s="31"/>
       <c r="B181" s="20" t="s">
         <v>398</v>
       </c>
@@ -13836,7 +13916,7 @@
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" customFormat="1">
-      <c r="A182" s="28"/>
+      <c r="A182" s="31"/>
       <c r="B182" s="20" t="s">
         <v>399</v>
       </c>
@@ -13850,7 +13930,7 @@
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:6" customFormat="1">
-      <c r="A183" s="28"/>
+      <c r="A183" s="31"/>
       <c r="B183" s="20" t="s">
         <v>400</v>
       </c>
@@ -13864,7 +13944,7 @@
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6" customFormat="1">
-      <c r="A184" s="28"/>
+      <c r="A184" s="31"/>
       <c r="B184" s="20" t="s">
         <v>401</v>
       </c>
@@ -13878,7 +13958,7 @@
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:6" customFormat="1">
-      <c r="A185" s="28"/>
+      <c r="A185" s="31"/>
       <c r="B185" s="20" t="s">
         <v>402</v>
       </c>
@@ -13892,7 +13972,7 @@
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" customFormat="1">
-      <c r="A186" s="28"/>
+      <c r="A186" s="31"/>
       <c r="B186" s="20">
         <v>6.5</v>
       </c>
@@ -13906,7 +13986,7 @@
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="1:6" customFormat="1">
-      <c r="A187" s="28"/>
+      <c r="A187" s="31"/>
       <c r="B187" s="20" t="s">
         <v>403</v>
       </c>
@@ -13920,7 +14000,7 @@
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" customFormat="1">
-      <c r="A188" s="28"/>
+      <c r="A188" s="31"/>
       <c r="B188" s="20" t="s">
         <v>404</v>
       </c>
@@ -13934,7 +14014,7 @@
       <c r="F188" s="2"/>
     </row>
     <row r="189" spans="1:6" customFormat="1">
-      <c r="A189" s="28"/>
+      <c r="A189" s="31"/>
       <c r="B189" s="20" t="s">
         <v>405</v>
       </c>
@@ -13948,7 +14028,7 @@
       <c r="F189" s="2"/>
     </row>
     <row r="190" spans="1:6" customFormat="1">
-      <c r="A190" s="28" t="s">
+      <c r="A190" s="31" t="s">
         <v>1025</v>
       </c>
       <c r="B190" s="20">
@@ -13964,7 +14044,7 @@
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" customFormat="1">
-      <c r="A191" s="28"/>
+      <c r="A191" s="31"/>
       <c r="B191" s="20" t="s">
         <v>406</v>
       </c>
@@ -13978,7 +14058,7 @@
       <c r="F191" s="2"/>
     </row>
     <row r="192" spans="1:6" customFormat="1">
-      <c r="A192" s="28"/>
+      <c r="A192" s="31"/>
       <c r="B192" s="20" t="s">
         <v>407</v>
       </c>
@@ -13992,7 +14072,7 @@
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" customFormat="1">
-      <c r="A193" s="28"/>
+      <c r="A193" s="31"/>
       <c r="B193" s="20" t="s">
         <v>408</v>
       </c>
@@ -14006,7 +14086,7 @@
       <c r="F193" s="2"/>
     </row>
     <row r="194" spans="1:6" customFormat="1">
-      <c r="A194" s="28"/>
+      <c r="A194" s="31"/>
       <c r="B194" s="20" t="s">
         <v>409</v>
       </c>
@@ -14020,7 +14100,7 @@
       <c r="F194" s="2"/>
     </row>
     <row r="195" spans="1:6" customFormat="1">
-      <c r="A195" s="28"/>
+      <c r="A195" s="31"/>
       <c r="B195" s="20">
         <v>7.2</v>
       </c>
@@ -14034,7 +14114,7 @@
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" customFormat="1">
-      <c r="A196" s="28"/>
+      <c r="A196" s="31"/>
       <c r="B196" s="20" t="s">
         <v>410</v>
       </c>
@@ -14048,7 +14128,7 @@
       <c r="F196" s="2"/>
     </row>
     <row r="197" spans="1:6" customFormat="1">
-      <c r="A197" s="28"/>
+      <c r="A197" s="31"/>
       <c r="B197" s="20" t="s">
         <v>411</v>
       </c>
@@ -14062,7 +14142,7 @@
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" customFormat="1">
-      <c r="A198" s="28"/>
+      <c r="A198" s="31"/>
       <c r="B198" s="20" t="s">
         <v>412</v>
       </c>
@@ -14076,7 +14156,7 @@
       <c r="F198" s="2"/>
     </row>
     <row r="199" spans="1:6" customFormat="1">
-      <c r="A199" s="28"/>
+      <c r="A199" s="31"/>
       <c r="B199" s="20" t="s">
         <v>413</v>
       </c>
@@ -14090,7 +14170,7 @@
       <c r="F199" s="2"/>
     </row>
     <row r="200" spans="1:6" customFormat="1">
-      <c r="A200" s="28"/>
+      <c r="A200" s="31"/>
       <c r="B200" s="20" t="s">
         <v>414</v>
       </c>
@@ -14104,7 +14184,7 @@
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" customFormat="1">
-      <c r="A201" s="28"/>
+      <c r="A201" s="31"/>
       <c r="B201" s="20" t="s">
         <v>415</v>
       </c>
@@ -14118,7 +14198,7 @@
       <c r="F201" s="2"/>
     </row>
     <row r="202" spans="1:6" customFormat="1">
-      <c r="A202" s="28"/>
+      <c r="A202" s="31"/>
       <c r="B202" s="20">
         <v>7.3</v>
       </c>
@@ -14132,7 +14212,7 @@
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:6" customFormat="1">
-      <c r="A203" s="28"/>
+      <c r="A203" s="31"/>
       <c r="B203" s="20">
         <v>7.4</v>
       </c>
@@ -14146,7 +14226,7 @@
       <c r="F203" s="2"/>
     </row>
     <row r="204" spans="1:6" customFormat="1">
-      <c r="A204" s="28"/>
+      <c r="A204" s="31"/>
       <c r="B204" s="20" t="s">
         <v>416</v>
       </c>
@@ -14160,7 +14240,7 @@
       <c r="F204" s="2"/>
     </row>
     <row r="205" spans="1:6" customFormat="1">
-      <c r="A205" s="28"/>
+      <c r="A205" s="31"/>
       <c r="B205" s="20" t="s">
         <v>417</v>
       </c>
@@ -14174,7 +14254,7 @@
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" customFormat="1">
-      <c r="A206" s="28"/>
+      <c r="A206" s="31"/>
       <c r="B206" s="20" t="s">
         <v>418</v>
       </c>
@@ -14188,7 +14268,7 @@
       <c r="F206" s="2"/>
     </row>
     <row r="207" spans="1:6" customFormat="1">
-      <c r="A207" s="28"/>
+      <c r="A207" s="31"/>
       <c r="B207" s="20" t="s">
         <v>419</v>
       </c>
@@ -14202,7 +14282,7 @@
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" customFormat="1">
-      <c r="A208" s="28"/>
+      <c r="A208" s="31"/>
       <c r="B208" s="20">
         <v>7.5</v>
       </c>
@@ -14216,7 +14296,7 @@
       <c r="F208" s="2"/>
     </row>
     <row r="209" spans="1:6" customFormat="1">
-      <c r="A209" s="28"/>
+      <c r="A209" s="31"/>
       <c r="B209" s="20" t="s">
         <v>420</v>
       </c>
@@ -14230,7 +14310,7 @@
       <c r="F209" s="2"/>
     </row>
     <row r="210" spans="1:6" customFormat="1">
-      <c r="A210" s="28"/>
+      <c r="A210" s="31"/>
       <c r="B210" s="20" t="s">
         <v>421</v>
       </c>
@@ -14244,7 +14324,7 @@
       <c r="F210" s="2"/>
     </row>
     <row r="211" spans="1:6" customFormat="1">
-      <c r="A211" s="28"/>
+      <c r="A211" s="31"/>
       <c r="B211" s="20" t="s">
         <v>422</v>
       </c>
@@ -14258,7 +14338,7 @@
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" customFormat="1">
-      <c r="A212" s="28"/>
+      <c r="A212" s="31"/>
       <c r="B212" s="20" t="s">
         <v>423</v>
       </c>
@@ -14272,7 +14352,7 @@
       <c r="F212" s="2"/>
     </row>
     <row r="213" spans="1:6" customFormat="1">
-      <c r="A213" s="28"/>
+      <c r="A213" s="31"/>
       <c r="B213" s="20" t="s">
         <v>424</v>
       </c>
@@ -14286,7 +14366,7 @@
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" customFormat="1">
-      <c r="A214" s="28"/>
+      <c r="A214" s="31"/>
       <c r="B214" s="20" t="s">
         <v>425</v>
       </c>
@@ -14300,7 +14380,7 @@
       <c r="F214" s="2"/>
     </row>
     <row r="215" spans="1:6" customFormat="1">
-      <c r="A215" s="28"/>
+      <c r="A215" s="31"/>
       <c r="B215" s="20" t="s">
         <v>426</v>
       </c>
@@ -14314,7 +14394,7 @@
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:6" customFormat="1">
-      <c r="A216" s="28"/>
+      <c r="A216" s="31"/>
       <c r="B216" s="20" t="s">
         <v>427</v>
       </c>
@@ -14328,7 +14408,7 @@
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" customFormat="1">
-      <c r="A217" s="28"/>
+      <c r="A217" s="31"/>
       <c r="B217" s="20">
         <v>7.6</v>
       </c>
@@ -14342,7 +14422,7 @@
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:6" customFormat="1">
-      <c r="A218" s="28" t="s">
+      <c r="A218" s="31" t="s">
         <v>1024</v>
       </c>
       <c r="B218" s="20">
@@ -14358,7 +14438,7 @@
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" customFormat="1">
-      <c r="A219" s="28"/>
+      <c r="A219" s="31"/>
       <c r="B219" s="20" t="s">
         <v>428</v>
       </c>
@@ -14372,7 +14452,7 @@
       <c r="F219" s="2"/>
     </row>
     <row r="220" spans="1:6" customFormat="1">
-      <c r="A220" s="28"/>
+      <c r="A220" s="31"/>
       <c r="B220" s="20" t="s">
         <v>429</v>
       </c>
@@ -14386,7 +14466,7 @@
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="1:6" customFormat="1">
-      <c r="A221" s="28"/>
+      <c r="A221" s="31"/>
       <c r="B221" s="20">
         <v>8.1999999999999993</v>
       </c>
@@ -14400,7 +14480,7 @@
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" customFormat="1">
-      <c r="A222" s="28"/>
+      <c r="A222" s="31"/>
       <c r="B222" s="20">
         <v>8.3000000000000007</v>
       </c>
@@ -14414,7 +14494,7 @@
       <c r="F222" s="2"/>
     </row>
     <row r="223" spans="1:6" customFormat="1">
-      <c r="A223" s="28"/>
+      <c r="A223" s="31"/>
       <c r="B223" s="20">
         <v>8.4</v>
       </c>
@@ -14428,7 +14508,7 @@
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" customFormat="1">
-      <c r="A224" s="28"/>
+      <c r="A224" s="31"/>
       <c r="B224" s="20">
         <v>8.5</v>
       </c>
@@ -14442,7 +14522,7 @@
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:6" customFormat="1">
-      <c r="A225" s="28"/>
+      <c r="A225" s="31"/>
       <c r="B225" s="20" t="s">
         <v>430</v>
       </c>
@@ -14456,7 +14536,7 @@
       <c r="F225" s="2"/>
     </row>
     <row r="226" spans="1:6" customFormat="1">
-      <c r="A226" s="28"/>
+      <c r="A226" s="31"/>
       <c r="B226" s="20" t="s">
         <v>431</v>
       </c>
@@ -14470,7 +14550,7 @@
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" customFormat="1">
-      <c r="A227" s="28"/>
+      <c r="A227" s="31"/>
       <c r="B227" s="20" t="s">
         <v>432</v>
       </c>
@@ -14484,7 +14564,7 @@
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:6" customFormat="1">
-      <c r="A228" s="28"/>
+      <c r="A228" s="31"/>
       <c r="B228" s="20" t="s">
         <v>433</v>
       </c>
@@ -14498,7 +14578,7 @@
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" customFormat="1">
-      <c r="A229" s="28"/>
+      <c r="A229" s="31"/>
       <c r="B229" s="20">
         <v>8.6</v>
       </c>
@@ -14512,7 +14592,7 @@
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="1:6" customFormat="1">
-      <c r="A230" s="28"/>
+      <c r="A230" s="31"/>
       <c r="B230" s="20" t="s">
         <v>434</v>
       </c>
@@ -14526,7 +14606,7 @@
       <c r="F230" s="2"/>
     </row>
     <row r="231" spans="1:6" customFormat="1">
-      <c r="A231" s="28"/>
+      <c r="A231" s="31"/>
       <c r="B231" s="20" t="s">
         <v>435</v>
       </c>
@@ -14540,7 +14620,7 @@
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" customFormat="1">
-      <c r="A232" s="28"/>
+      <c r="A232" s="31"/>
       <c r="B232" s="20" t="s">
         <v>436</v>
       </c>
@@ -14554,7 +14634,7 @@
       <c r="F232" s="2"/>
     </row>
     <row r="233" spans="1:6" customFormat="1">
-      <c r="A233" s="28"/>
+      <c r="A233" s="31"/>
       <c r="B233" s="20" t="s">
         <v>437</v>
       </c>
@@ -14568,7 +14648,7 @@
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" customFormat="1">
-      <c r="A234" s="28"/>
+      <c r="A234" s="31"/>
       <c r="B234" s="20" t="s">
         <v>438</v>
       </c>
@@ -14582,7 +14662,7 @@
       <c r="F234" s="2"/>
     </row>
     <row r="235" spans="1:6" customFormat="1">
-      <c r="A235" s="28"/>
+      <c r="A235" s="31"/>
       <c r="B235" s="20" t="s">
         <v>439</v>
       </c>
@@ -14596,7 +14676,7 @@
       <c r="F235" s="2"/>
     </row>
     <row r="236" spans="1:6" customFormat="1">
-      <c r="A236" s="28"/>
+      <c r="A236" s="31"/>
       <c r="B236" s="20" t="s">
         <v>440</v>
       </c>
@@ -14610,7 +14690,7 @@
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:6" customFormat="1">
-      <c r="A237" s="28"/>
+      <c r="A237" s="31"/>
       <c r="B237" s="20" t="s">
         <v>441</v>
       </c>
@@ -14624,7 +14704,7 @@
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" customFormat="1">
-      <c r="A238" s="28"/>
+      <c r="A238" s="31"/>
       <c r="B238" s="20" t="s">
         <v>442</v>
       </c>
@@ -14638,7 +14718,7 @@
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:6" customFormat="1">
-      <c r="A239" s="28"/>
+      <c r="A239" s="31"/>
       <c r="B239" s="20" t="s">
         <v>443</v>
       </c>
@@ -14652,7 +14732,7 @@
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" customFormat="1">
-      <c r="A240" s="28"/>
+      <c r="A240" s="31"/>
       <c r="B240" s="20">
         <v>8.6999999999999993</v>
       </c>
@@ -14666,7 +14746,7 @@
       <c r="F240" s="2"/>
     </row>
     <row r="241" spans="1:6" customFormat="1">
-      <c r="A241" s="28"/>
+      <c r="A241" s="31"/>
       <c r="B241" s="20">
         <v>8.8000000000000007</v>
       </c>
@@ -14680,7 +14760,7 @@
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="1:6" customFormat="1">
-      <c r="A242" s="28"/>
+      <c r="A242" s="31"/>
       <c r="B242" s="20" t="s">
         <v>444</v>
       </c>
@@ -14694,7 +14774,7 @@
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" customFormat="1">
-      <c r="A243" s="28"/>
+      <c r="A243" s="31"/>
       <c r="B243" s="20" t="s">
         <v>445</v>
       </c>
@@ -14708,7 +14788,7 @@
       <c r="F243" s="2"/>
     </row>
     <row r="244" spans="1:6" customFormat="1">
-      <c r="A244" s="28"/>
+      <c r="A244" s="31"/>
       <c r="B244" s="20" t="s">
         <v>446</v>
       </c>
@@ -14722,7 +14802,7 @@
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" customFormat="1">
-      <c r="A245" s="28"/>
+      <c r="A245" s="31"/>
       <c r="B245" s="20" t="s">
         <v>447</v>
       </c>
@@ -14736,7 +14816,7 @@
       <c r="F245" s="2"/>
     </row>
     <row r="246" spans="1:6" customFormat="1">
-      <c r="A246" s="28"/>
+      <c r="A246" s="31"/>
       <c r="B246" s="20">
         <v>8.9</v>
       </c>
@@ -14750,7 +14830,7 @@
       <c r="F246" s="2"/>
     </row>
     <row r="247" spans="1:6" customFormat="1">
-      <c r="A247" s="28"/>
+      <c r="A247" s="31"/>
       <c r="B247" s="20" t="s">
         <v>448</v>
       </c>
@@ -14764,7 +14844,7 @@
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" customFormat="1">
-      <c r="A248" s="28"/>
+      <c r="A248" s="31"/>
       <c r="B248" s="20" t="s">
         <v>449</v>
       </c>
@@ -14778,7 +14858,7 @@
       <c r="F248" s="2"/>
     </row>
     <row r="249" spans="1:6" customFormat="1">
-      <c r="A249" s="28"/>
+      <c r="A249" s="31"/>
       <c r="B249" s="20" t="s">
         <v>450</v>
       </c>
@@ -14792,7 +14872,7 @@
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" customFormat="1">
-      <c r="A250" s="28" t="s">
+      <c r="A250" s="31" t="s">
         <v>1022</v>
       </c>
       <c r="B250" s="20">
@@ -14808,7 +14888,7 @@
       <c r="F250" s="2"/>
     </row>
     <row r="251" spans="1:6" customFormat="1">
-      <c r="A251" s="28"/>
+      <c r="A251" s="31"/>
       <c r="B251" s="20" t="s">
         <v>451</v>
       </c>
@@ -14822,7 +14902,7 @@
       <c r="F251" s="2"/>
     </row>
     <row r="252" spans="1:6" customFormat="1">
-      <c r="A252" s="28"/>
+      <c r="A252" s="31"/>
       <c r="B252" s="20" t="s">
         <v>452</v>
       </c>
@@ -14836,7 +14916,7 @@
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" customFormat="1">
-      <c r="A253" s="28"/>
+      <c r="A253" s="31"/>
       <c r="B253" s="20" t="s">
         <v>453</v>
       </c>
@@ -14850,7 +14930,7 @@
       <c r="F253" s="2"/>
     </row>
     <row r="254" spans="1:6" customFormat="1">
-      <c r="A254" s="28"/>
+      <c r="A254" s="31"/>
       <c r="B254" s="20" t="s">
         <v>454</v>
       </c>
@@ -14864,7 +14944,7 @@
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" customFormat="1">
-      <c r="A255" s="28"/>
+      <c r="A255" s="31"/>
       <c r="B255" s="20" t="s">
         <v>455</v>
       </c>
@@ -14878,7 +14958,7 @@
       <c r="F255" s="2"/>
     </row>
     <row r="256" spans="1:6" customFormat="1">
-      <c r="A256" s="28"/>
+      <c r="A256" s="31"/>
       <c r="B256" s="20">
         <v>9.1999999999999993</v>
       </c>
@@ -14892,7 +14972,7 @@
       <c r="F256" s="2"/>
     </row>
     <row r="257" spans="1:6" customFormat="1">
-      <c r="A257" s="28"/>
+      <c r="A257" s="31"/>
       <c r="B257" s="20" t="s">
         <v>456</v>
       </c>
@@ -14906,7 +14986,7 @@
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" customFormat="1">
-      <c r="A258" s="28"/>
+      <c r="A258" s="31"/>
       <c r="B258" s="20" t="s">
         <v>457</v>
       </c>
@@ -14920,7 +15000,7 @@
       <c r="F258" s="2"/>
     </row>
     <row r="259" spans="1:6" customFormat="1">
-      <c r="A259" s="28"/>
+      <c r="A259" s="31"/>
       <c r="B259" s="20" t="s">
         <v>458</v>
       </c>
@@ -14934,7 +15014,7 @@
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" customFormat="1">
-      <c r="A260" s="28"/>
+      <c r="A260" s="31"/>
       <c r="B260" s="20" t="s">
         <v>459</v>
       </c>
@@ -14948,7 +15028,7 @@
       <c r="F260" s="2"/>
     </row>
     <row r="261" spans="1:6" customFormat="1">
-      <c r="A261" s="28"/>
+      <c r="A261" s="31"/>
       <c r="B261" s="20" t="s">
         <v>460</v>
       </c>
@@ -14962,7 +15042,7 @@
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="1:6" customFormat="1">
-      <c r="A262" s="28"/>
+      <c r="A262" s="31"/>
       <c r="B262" s="20" t="s">
         <v>461</v>
       </c>
@@ -14976,7 +15056,7 @@
       <c r="F262" s="2"/>
     </row>
     <row r="263" spans="1:6" customFormat="1">
-      <c r="A263" s="28"/>
+      <c r="A263" s="31"/>
       <c r="B263" s="20">
         <v>9.3000000000000007</v>
       </c>
@@ -14990,7 +15070,7 @@
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" customFormat="1">
-      <c r="A264" s="28"/>
+      <c r="A264" s="31"/>
       <c r="B264" s="20" t="s">
         <v>462</v>
       </c>
@@ -15004,7 +15084,7 @@
       <c r="F264" s="2"/>
     </row>
     <row r="265" spans="1:6" customFormat="1">
-      <c r="A265" s="28"/>
+      <c r="A265" s="31"/>
       <c r="B265" s="20" t="s">
         <v>463</v>
       </c>
@@ -15018,7 +15098,7 @@
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" customFormat="1">
-      <c r="A266" s="28"/>
+      <c r="A266" s="31"/>
       <c r="B266" s="20" t="s">
         <v>464</v>
       </c>
@@ -15032,7 +15112,7 @@
       <c r="F266" s="2"/>
     </row>
     <row r="267" spans="1:6" customFormat="1">
-      <c r="A267" s="28"/>
+      <c r="A267" s="31"/>
       <c r="B267" s="20" t="s">
         <v>465</v>
       </c>
@@ -15046,7 +15126,7 @@
       <c r="F267" s="2"/>
     </row>
     <row r="268" spans="1:6" customFormat="1">
-      <c r="A268" s="28"/>
+      <c r="A268" s="31"/>
       <c r="B268" s="20" t="s">
         <v>466</v>
       </c>
@@ -15060,7 +15140,7 @@
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6" customFormat="1">
-      <c r="A269" s="28"/>
+      <c r="A269" s="31"/>
       <c r="B269" s="20" t="s">
         <v>467</v>
       </c>
@@ -15074,7 +15154,7 @@
       <c r="F269" s="2"/>
     </row>
     <row r="270" spans="1:6" customFormat="1">
-      <c r="A270" s="28"/>
+      <c r="A270" s="31"/>
       <c r="B270" s="20" t="s">
         <v>468</v>
       </c>
@@ -15088,7 +15168,7 @@
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="1:6" customFormat="1">
-      <c r="A271" s="28"/>
+      <c r="A271" s="31"/>
       <c r="B271" s="20">
         <v>9.4</v>
       </c>
@@ -15102,7 +15182,7 @@
       <c r="F271" s="2"/>
     </row>
     <row r="272" spans="1:6" customFormat="1">
-      <c r="A272" s="28"/>
+      <c r="A272" s="31"/>
       <c r="B272" s="20" t="s">
         <v>469</v>
       </c>
@@ -15116,7 +15196,7 @@
       <c r="F272" s="2"/>
     </row>
     <row r="273" spans="1:6" customFormat="1">
-      <c r="A273" s="28"/>
+      <c r="A273" s="31"/>
       <c r="B273" s="20" t="s">
         <v>470</v>
       </c>
@@ -15130,7 +15210,7 @@
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" customFormat="1">
-      <c r="A274" s="28"/>
+      <c r="A274" s="31"/>
       <c r="B274" s="20" t="s">
         <v>471</v>
       </c>
@@ -15144,7 +15224,7 @@
       <c r="F274" s="2"/>
     </row>
     <row r="275" spans="1:6" customFormat="1">
-      <c r="A275" s="28"/>
+      <c r="A275" s="31"/>
       <c r="B275" s="20" t="s">
         <v>472</v>
       </c>
@@ -15158,7 +15238,7 @@
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" customFormat="1">
-      <c r="A276" s="28"/>
+      <c r="A276" s="31"/>
       <c r="B276" s="20" t="s">
         <v>473</v>
       </c>
@@ -15172,7 +15252,7 @@
       <c r="F276" s="2"/>
     </row>
     <row r="277" spans="1:6" customFormat="1">
-      <c r="A277" s="28"/>
+      <c r="A277" s="31"/>
       <c r="B277" s="20" t="s">
         <v>474</v>
       </c>
@@ -15186,7 +15266,7 @@
       <c r="F277" s="2"/>
     </row>
     <row r="278" spans="1:6" customFormat="1">
-      <c r="A278" s="28"/>
+      <c r="A278" s="31"/>
       <c r="B278" s="20">
         <v>9.5</v>
       </c>
@@ -15200,7 +15280,7 @@
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" customFormat="1">
-      <c r="A279" s="28"/>
+      <c r="A279" s="31"/>
       <c r="B279" s="20" t="s">
         <v>475</v>
       </c>
@@ -15214,7 +15294,7 @@
       <c r="F279" s="2"/>
     </row>
     <row r="280" spans="1:6" customFormat="1">
-      <c r="A280" s="28"/>
+      <c r="A280" s="31"/>
       <c r="B280" s="20" t="s">
         <v>476</v>
       </c>
@@ -15228,7 +15308,7 @@
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" customFormat="1">
-      <c r="A281" s="28"/>
+      <c r="A281" s="31"/>
       <c r="B281" s="20" t="s">
         <v>477</v>
       </c>
@@ -15242,7 +15322,7 @@
       <c r="F281" s="2"/>
     </row>
     <row r="282" spans="1:6" customFormat="1">
-      <c r="A282" s="28"/>
+      <c r="A282" s="31"/>
       <c r="B282" s="20" t="s">
         <v>478</v>
       </c>
@@ -15256,7 +15336,7 @@
       <c r="F282" s="2"/>
     </row>
     <row r="283" spans="1:6" customFormat="1">
-      <c r="A283" s="28"/>
+      <c r="A283" s="31"/>
       <c r="B283" s="20" t="s">
         <v>479</v>
       </c>
@@ -15270,7 +15350,7 @@
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" customFormat="1">
-      <c r="A284" s="28"/>
+      <c r="A284" s="31"/>
       <c r="B284" s="20" t="s">
         <v>480</v>
       </c>
@@ -15284,7 +15364,7 @@
       <c r="F284" s="2"/>
     </row>
     <row r="285" spans="1:6" customFormat="1">
-      <c r="A285" s="28"/>
+      <c r="A285" s="31"/>
       <c r="B285" s="20">
         <v>9.6</v>
       </c>
@@ -15298,7 +15378,7 @@
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6" customFormat="1">
-      <c r="A286" s="28"/>
+      <c r="A286" s="31"/>
       <c r="B286" s="20" t="s">
         <v>481</v>
       </c>
@@ -15312,7 +15392,7 @@
       <c r="F286" s="2"/>
     </row>
     <row r="287" spans="1:6" customFormat="1">
-      <c r="A287" s="28"/>
+      <c r="A287" s="31"/>
       <c r="B287" s="20" t="s">
         <v>482</v>
       </c>
@@ -15326,7 +15406,7 @@
       <c r="F287" s="2"/>
     </row>
     <row r="288" spans="1:6" customFormat="1">
-      <c r="A288" s="28"/>
+      <c r="A288" s="31"/>
       <c r="B288" s="20" t="s">
         <v>483</v>
       </c>
@@ -15340,7 +15420,7 @@
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="1:6" customFormat="1">
-      <c r="A289" s="28"/>
+      <c r="A289" s="31"/>
       <c r="B289" s="20" t="s">
         <v>484</v>
       </c>
@@ -15354,7 +15434,7 @@
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" customFormat="1">
-      <c r="A290" s="28"/>
+      <c r="A290" s="31"/>
       <c r="B290" s="20" t="s">
         <v>485</v>
       </c>
@@ -15368,7 +15448,7 @@
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="1:6" customFormat="1">
-      <c r="A291" s="28" t="s">
+      <c r="A291" s="31" t="s">
         <v>1023</v>
       </c>
       <c r="B291" s="20">
@@ -15384,7 +15464,7 @@
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:6" customFormat="1">
-      <c r="A292" s="28"/>
+      <c r="A292" s="31"/>
       <c r="B292" s="20">
         <v>10.199999999999999</v>
       </c>
@@ -15398,7 +15478,7 @@
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="1:6" customFormat="1">
-      <c r="A293" s="28"/>
+      <c r="A293" s="31"/>
       <c r="B293" s="20">
         <v>10.3</v>
       </c>
@@ -15412,7 +15492,7 @@
       <c r="F293" s="2"/>
     </row>
     <row r="294" spans="1:6" customFormat="1">
-      <c r="A294" s="28"/>
+      <c r="A294" s="31"/>
       <c r="B294" s="20" t="s">
         <v>486</v>
       </c>
@@ -15426,7 +15506,7 @@
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" customFormat="1">
-      <c r="A295" s="28"/>
+      <c r="A295" s="31"/>
       <c r="B295" s="20" t="s">
         <v>487</v>
       </c>
@@ -15440,7 +15520,7 @@
       <c r="F295" s="2"/>
     </row>
     <row r="296" spans="1:6" customFormat="1">
-      <c r="A296" s="28"/>
+      <c r="A296" s="31"/>
       <c r="B296" s="20">
         <v>10.4</v>
       </c>
@@ -15454,7 +15534,7 @@
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6" customFormat="1">
-      <c r="A297" s="28"/>
+      <c r="A297" s="31"/>
       <c r="B297" s="20">
         <v>10.5</v>
       </c>
@@ -15468,7 +15548,7 @@
       <c r="F297" s="2"/>
     </row>
     <row r="298" spans="1:6" customFormat="1">
-      <c r="A298" s="28"/>
+      <c r="A298" s="31"/>
       <c r="B298" s="20">
         <v>10.6</v>
       </c>
@@ -15482,7 +15562,7 @@
       <c r="F298" s="2"/>
     </row>
     <row r="299" spans="1:6" customFormat="1">
-      <c r="A299" s="28"/>
+      <c r="A299" s="31"/>
       <c r="B299" s="20">
         <v>10.7</v>
       </c>
@@ -15496,7 +15576,7 @@
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6" customFormat="1">
-      <c r="A300" s="28"/>
+      <c r="A300" s="31"/>
       <c r="B300" s="20">
         <v>10.8</v>
       </c>
@@ -15510,7 +15590,7 @@
       <c r="F300" s="2"/>
     </row>
     <row r="301" spans="1:6" customFormat="1">
-      <c r="A301" s="28" t="s">
+      <c r="A301" s="31" t="s">
         <v>1021</v>
       </c>
       <c r="B301" s="20">
@@ -15526,7 +15606,7 @@
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6" customFormat="1">
-      <c r="A302" s="28"/>
+      <c r="A302" s="31"/>
       <c r="B302" s="20" t="s">
         <v>488</v>
       </c>
@@ -15540,7 +15620,7 @@
       <c r="F302" s="2"/>
     </row>
     <row r="303" spans="1:6" customFormat="1">
-      <c r="A303" s="28"/>
+      <c r="A303" s="31"/>
       <c r="B303" s="20" t="s">
         <v>489</v>
       </c>
@@ -15554,7 +15634,7 @@
       <c r="F303" s="2"/>
     </row>
     <row r="304" spans="1:6" customFormat="1">
-      <c r="A304" s="28"/>
+      <c r="A304" s="31"/>
       <c r="B304" s="20" t="s">
         <v>490</v>
       </c>
@@ -15568,7 +15648,7 @@
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6" customFormat="1">
-      <c r="A305" s="28"/>
+      <c r="A305" s="31"/>
       <c r="B305" s="20" t="s">
         <v>491</v>
       </c>
@@ -15582,7 +15662,7 @@
       <c r="F305" s="2"/>
     </row>
     <row r="306" spans="1:6" customFormat="1">
-      <c r="A306" s="28"/>
+      <c r="A306" s="31"/>
       <c r="B306" s="20">
         <v>11.2</v>
       </c>
@@ -15596,7 +15676,7 @@
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6" customFormat="1">
-      <c r="A307" s="28"/>
+      <c r="A307" s="31"/>
       <c r="B307" s="20">
         <v>11.3</v>
       </c>
@@ -15610,7 +15690,7 @@
       <c r="F307" s="2"/>
     </row>
     <row r="308" spans="1:6" customFormat="1">
-      <c r="A308" s="28"/>
+      <c r="A308" s="31"/>
       <c r="B308" s="20">
         <v>11.4</v>
       </c>
@@ -15624,7 +15704,7 @@
       <c r="F308" s="2"/>
     </row>
     <row r="309" spans="1:6" customFormat="1">
-      <c r="A309" s="28"/>
+      <c r="A309" s="31"/>
       <c r="B309" s="20" t="s">
         <v>492</v>
       </c>
@@ -15638,7 +15718,7 @@
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6" customFormat="1">
-      <c r="A310" s="28" t="s">
+      <c r="A310" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="B310" s="20">
@@ -15654,7 +15734,7 @@
       <c r="F310" s="2"/>
     </row>
     <row r="311" spans="1:6" customFormat="1">
-      <c r="A311" s="28"/>
+      <c r="A311" s="31"/>
       <c r="B311" s="20" t="s">
         <v>493</v>
       </c>
@@ -15668,7 +15748,7 @@
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6" customFormat="1">
-      <c r="A312" s="28"/>
+      <c r="A312" s="31"/>
       <c r="B312" s="20" t="s">
         <v>494</v>
       </c>
@@ -15682,7 +15762,7 @@
       <c r="F312" s="2"/>
     </row>
     <row r="313" spans="1:6" customFormat="1">
-      <c r="A313" s="28"/>
+      <c r="A313" s="31"/>
       <c r="B313" s="20" t="s">
         <v>495</v>
       </c>
@@ -15696,7 +15776,7 @@
       <c r="F313" s="2"/>
     </row>
     <row r="314" spans="1:6" customFormat="1">
-      <c r="A314" s="28"/>
+      <c r="A314" s="31"/>
       <c r="B314" s="20">
         <v>12.2</v>
       </c>
@@ -15710,7 +15790,7 @@
       <c r="F314" s="2"/>
     </row>
     <row r="315" spans="1:6" customFormat="1">
-      <c r="A315" s="28"/>
+      <c r="A315" s="31"/>
       <c r="B315" s="20" t="s">
         <v>496</v>
       </c>
@@ -15724,7 +15804,7 @@
       <c r="F315" s="2"/>
     </row>
     <row r="316" spans="1:6" customFormat="1">
-      <c r="A316" s="28"/>
+      <c r="A316" s="31"/>
       <c r="B316" s="20" t="s">
         <v>497</v>
       </c>
@@ -15738,7 +15818,7 @@
       <c r="F316" s="2"/>
     </row>
     <row r="317" spans="1:6" customFormat="1">
-      <c r="A317" s="28"/>
+      <c r="A317" s="31"/>
       <c r="B317" s="20">
         <v>12.3</v>
       </c>
@@ -15752,7 +15832,7 @@
       <c r="F317" s="2"/>
     </row>
     <row r="318" spans="1:6" customFormat="1">
-      <c r="A318" s="28"/>
+      <c r="A318" s="31"/>
       <c r="B318" s="20" t="s">
         <v>498</v>
       </c>
@@ -15766,7 +15846,7 @@
       <c r="F318" s="2"/>
     </row>
     <row r="319" spans="1:6" customFormat="1">
-      <c r="A319" s="28"/>
+      <c r="A319" s="31"/>
       <c r="B319" s="20" t="s">
         <v>499</v>
       </c>
@@ -15780,7 +15860,7 @@
       <c r="F319" s="2"/>
     </row>
     <row r="320" spans="1:6" customFormat="1">
-      <c r="A320" s="28"/>
+      <c r="A320" s="31"/>
       <c r="B320" s="20" t="s">
         <v>500</v>
       </c>
@@ -15794,7 +15874,7 @@
       <c r="F320" s="2"/>
     </row>
     <row r="321" spans="1:6" customFormat="1">
-      <c r="A321" s="28"/>
+      <c r="A321" s="31"/>
       <c r="B321" s="20" t="s">
         <v>501</v>
       </c>
@@ -15808,7 +15888,7 @@
       <c r="F321" s="2"/>
     </row>
     <row r="322" spans="1:6" customFormat="1">
-      <c r="A322" s="28"/>
+      <c r="A322" s="31"/>
       <c r="B322" s="20" t="s">
         <v>502</v>
       </c>
@@ -15822,7 +15902,7 @@
       <c r="F322" s="2"/>
     </row>
     <row r="323" spans="1:6" customFormat="1">
-      <c r="A323" s="28"/>
+      <c r="A323" s="31"/>
       <c r="B323" s="20">
         <v>12.4</v>
       </c>
@@ -15836,7 +15916,7 @@
       <c r="F323" s="2"/>
     </row>
     <row r="324" spans="1:6" customFormat="1">
-      <c r="A324" s="28"/>
+      <c r="A324" s="31"/>
       <c r="B324" s="20" t="s">
         <v>503</v>
       </c>
@@ -15850,7 +15930,7 @@
       <c r="F324" s="2"/>
     </row>
     <row r="325" spans="1:6" customFormat="1">
-      <c r="A325" s="28"/>
+      <c r="A325" s="31"/>
       <c r="B325" s="20" t="s">
         <v>504</v>
       </c>
@@ -15864,7 +15944,7 @@
       <c r="F325" s="2"/>
     </row>
     <row r="326" spans="1:6" customFormat="1">
-      <c r="A326" s="28"/>
+      <c r="A326" s="31"/>
       <c r="B326" s="20" t="s">
         <v>505</v>
       </c>
@@ -15878,7 +15958,7 @@
       <c r="F326" s="2"/>
     </row>
     <row r="327" spans="1:6" customFormat="1">
-      <c r="A327" s="28"/>
+      <c r="A327" s="31"/>
       <c r="B327" s="20" t="s">
         <v>506</v>
       </c>
@@ -15892,7 +15972,7 @@
       <c r="F327" s="2"/>
     </row>
     <row r="328" spans="1:6" customFormat="1">
-      <c r="A328" s="28"/>
+      <c r="A328" s="31"/>
       <c r="B328" s="20" t="s">
         <v>507</v>
       </c>
@@ -15906,7 +15986,7 @@
       <c r="F328" s="2"/>
     </row>
     <row r="329" spans="1:6" customFormat="1">
-      <c r="A329" s="28"/>
+      <c r="A329" s="31"/>
       <c r="B329" s="20">
         <v>12.5</v>
       </c>
@@ -15920,7 +16000,7 @@
       <c r="F329" s="2"/>
     </row>
     <row r="330" spans="1:6" customFormat="1">
-      <c r="A330" s="28"/>
+      <c r="A330" s="31"/>
       <c r="B330" s="20" t="s">
         <v>508</v>
       </c>
@@ -15934,7 +16014,7 @@
       <c r="F330" s="2"/>
     </row>
     <row r="331" spans="1:6" customFormat="1">
-      <c r="A331" s="28"/>
+      <c r="A331" s="31"/>
       <c r="B331" s="20" t="s">
         <v>509</v>
       </c>
@@ -15948,7 +16028,7 @@
       <c r="F331" s="2"/>
     </row>
     <row r="332" spans="1:6" customFormat="1">
-      <c r="A332" s="28"/>
+      <c r="A332" s="31"/>
       <c r="B332" s="20" t="s">
         <v>510</v>
       </c>
@@ -15962,7 +16042,7 @@
       <c r="F332" s="2"/>
     </row>
     <row r="333" spans="1:6" customFormat="1">
-      <c r="A333" s="28"/>
+      <c r="A333" s="31"/>
       <c r="B333" s="20" t="s">
         <v>511</v>
       </c>
@@ -15976,7 +16056,7 @@
       <c r="F333" s="2"/>
     </row>
     <row r="334" spans="1:6" customFormat="1">
-      <c r="A334" s="28"/>
+      <c r="A334" s="31"/>
       <c r="B334" s="20" t="s">
         <v>512</v>
       </c>
@@ -15990,7 +16070,7 @@
       <c r="F334" s="2"/>
     </row>
     <row r="335" spans="1:6" customFormat="1">
-      <c r="A335" s="28"/>
+      <c r="A335" s="31"/>
       <c r="B335" s="20" t="s">
         <v>513</v>
       </c>
@@ -16004,7 +16084,7 @@
       <c r="F335" s="2"/>
     </row>
     <row r="336" spans="1:6" customFormat="1">
-      <c r="A336" s="28"/>
+      <c r="A336" s="31"/>
       <c r="B336" s="20" t="s">
         <v>514</v>
       </c>
@@ -16018,7 +16098,7 @@
       <c r="F336" s="2"/>
     </row>
     <row r="337" spans="1:6" customFormat="1">
-      <c r="A337" s="28"/>
+      <c r="A337" s="31"/>
       <c r="B337" s="20" t="s">
         <v>515</v>
       </c>
@@ -16032,7 +16112,7 @@
       <c r="F337" s="2"/>
     </row>
     <row r="338" spans="1:6" customFormat="1">
-      <c r="A338" s="28"/>
+      <c r="A338" s="31"/>
       <c r="B338" s="20">
         <v>12.6</v>
       </c>
@@ -16046,7 +16126,7 @@
       <c r="F338" s="2"/>
     </row>
     <row r="339" spans="1:6" customFormat="1">
-      <c r="A339" s="28"/>
+      <c r="A339" s="31"/>
       <c r="B339" s="20" t="s">
         <v>516</v>
       </c>
@@ -16060,7 +16140,7 @@
       <c r="F339" s="2"/>
     </row>
     <row r="340" spans="1:6" customFormat="1">
-      <c r="A340" s="28"/>
+      <c r="A340" s="31"/>
       <c r="B340" s="20" t="s">
         <v>517</v>
       </c>
@@ -16074,7 +16154,7 @@
       <c r="F340" s="2"/>
     </row>
     <row r="341" spans="1:6" customFormat="1">
-      <c r="A341" s="28"/>
+      <c r="A341" s="31"/>
       <c r="B341" s="20" t="s">
         <v>518</v>
       </c>
@@ -16088,7 +16168,7 @@
       <c r="F341" s="2"/>
     </row>
     <row r="342" spans="1:6" customFormat="1">
-      <c r="A342" s="28"/>
+      <c r="A342" s="31"/>
       <c r="B342" s="20" t="s">
         <v>519</v>
       </c>
@@ -16102,7 +16182,7 @@
       <c r="F342" s="2"/>
     </row>
     <row r="343" spans="1:6" customFormat="1">
-      <c r="A343" s="28"/>
+      <c r="A343" s="31"/>
       <c r="B343" s="20" t="s">
         <v>520</v>
       </c>
@@ -16116,7 +16196,7 @@
       <c r="F343" s="2"/>
     </row>
     <row r="344" spans="1:6" customFormat="1">
-      <c r="A344" s="28"/>
+      <c r="A344" s="31"/>
       <c r="B344" s="20">
         <v>12.7</v>
       </c>
@@ -16130,7 +16210,7 @@
       <c r="F344" s="2"/>
     </row>
     <row r="345" spans="1:6" customFormat="1">
-      <c r="A345" s="28"/>
+      <c r="A345" s="31"/>
       <c r="B345" s="20" t="s">
         <v>521</v>
       </c>
@@ -16144,7 +16224,7 @@
       <c r="F345" s="2"/>
     </row>
     <row r="346" spans="1:6" customFormat="1">
-      <c r="A346" s="28"/>
+      <c r="A346" s="31"/>
       <c r="B346" s="20" t="s">
         <v>522</v>
       </c>
@@ -16158,7 +16238,7 @@
       <c r="F346" s="2"/>
     </row>
     <row r="347" spans="1:6" customFormat="1">
-      <c r="A347" s="28"/>
+      <c r="A347" s="31"/>
       <c r="B347" s="20" t="s">
         <v>523</v>
       </c>
@@ -16172,7 +16252,7 @@
       <c r="F347" s="2"/>
     </row>
     <row r="348" spans="1:6" customFormat="1">
-      <c r="A348" s="28"/>
+      <c r="A348" s="31"/>
       <c r="B348" s="20" t="s">
         <v>524</v>
       </c>
@@ -16186,7 +16266,7 @@
       <c r="F348" s="2"/>
     </row>
     <row r="349" spans="1:6" customFormat="1">
-      <c r="A349" s="28"/>
+      <c r="A349" s="31"/>
       <c r="B349" s="20" t="s">
         <v>525</v>
       </c>
@@ -16200,7 +16280,7 @@
       <c r="F349" s="2"/>
     </row>
     <row r="350" spans="1:6" customFormat="1">
-      <c r="A350" s="28"/>
+      <c r="A350" s="31"/>
       <c r="B350" s="20">
         <v>12.8</v>
       </c>
@@ -16214,7 +16294,7 @@
       <c r="F350" s="2"/>
     </row>
     <row r="351" spans="1:6" customFormat="1">
-      <c r="A351" s="28"/>
+      <c r="A351" s="31"/>
       <c r="B351" s="20" t="s">
         <v>526</v>
       </c>
@@ -16228,7 +16308,7 @@
       <c r="F351" s="2"/>
     </row>
     <row r="352" spans="1:6" customFormat="1">
-      <c r="A352" s="28"/>
+      <c r="A352" s="31"/>
       <c r="B352" s="20" t="s">
         <v>527</v>
       </c>
@@ -16242,7 +16322,7 @@
       <c r="F352" s="2"/>
     </row>
     <row r="353" spans="1:6" customFormat="1">
-      <c r="A353" s="28" t="s">
+      <c r="A353" s="31" t="s">
         <v>1019</v>
       </c>
       <c r="B353" s="20">
@@ -16258,7 +16338,7 @@
       <c r="F353" s="2"/>
     </row>
     <row r="354" spans="1:6" customFormat="1">
-      <c r="A354" s="28"/>
+      <c r="A354" s="31"/>
       <c r="B354" s="20" t="s">
         <v>528</v>
       </c>
@@ -16272,7 +16352,7 @@
       <c r="F354" s="2"/>
     </row>
     <row r="355" spans="1:6" customFormat="1">
-      <c r="A355" s="28"/>
+      <c r="A355" s="31"/>
       <c r="B355" s="20" t="s">
         <v>529</v>
       </c>
@@ -16286,7 +16366,7 @@
       <c r="F355" s="2"/>
     </row>
     <row r="356" spans="1:6" customFormat="1">
-      <c r="A356" s="28"/>
+      <c r="A356" s="31"/>
       <c r="B356" s="20" t="s">
         <v>530</v>
       </c>
@@ -16300,7 +16380,7 @@
       <c r="F356" s="2"/>
     </row>
     <row r="357" spans="1:6" customFormat="1">
-      <c r="A357" s="28"/>
+      <c r="A357" s="31"/>
       <c r="B357" s="20" t="s">
         <v>531</v>
       </c>
@@ -16314,7 +16394,7 @@
       <c r="F357" s="2"/>
     </row>
     <row r="358" spans="1:6" customFormat="1">
-      <c r="A358" s="28"/>
+      <c r="A358" s="31"/>
       <c r="B358" s="20" t="s">
         <v>532</v>
       </c>
@@ -16328,7 +16408,7 @@
       <c r="F358" s="2"/>
     </row>
     <row r="359" spans="1:6" customFormat="1">
-      <c r="A359" s="28"/>
+      <c r="A359" s="31"/>
       <c r="B359" s="20">
         <v>13.2</v>
       </c>
@@ -16342,7 +16422,7 @@
       <c r="F359" s="2"/>
     </row>
     <row r="360" spans="1:6" customFormat="1">
-      <c r="A360" s="28"/>
+      <c r="A360" s="31"/>
       <c r="B360" s="20" t="s">
         <v>533</v>
       </c>
@@ -16356,7 +16436,7 @@
       <c r="F360" s="2"/>
     </row>
     <row r="361" spans="1:6" customFormat="1">
-      <c r="A361" s="28"/>
+      <c r="A361" s="31"/>
       <c r="B361" s="20" t="s">
         <v>534</v>
       </c>
@@ -16370,7 +16450,7 @@
       <c r="F361" s="2"/>
     </row>
     <row r="362" spans="1:6" customFormat="1">
-      <c r="A362" s="28"/>
+      <c r="A362" s="31"/>
       <c r="B362" s="20">
         <v>13.3</v>
       </c>
@@ -16384,7 +16464,7 @@
       <c r="F362" s="2"/>
     </row>
     <row r="363" spans="1:6" customFormat="1">
-      <c r="A363" s="28"/>
+      <c r="A363" s="31"/>
       <c r="B363" s="20">
         <v>13.4</v>
       </c>
@@ -16398,7 +16478,7 @@
       <c r="F363" s="2"/>
     </row>
     <row r="364" spans="1:6" customFormat="1">
-      <c r="A364" s="28"/>
+      <c r="A364" s="31"/>
       <c r="B364" s="20" t="s">
         <v>535</v>
       </c>
@@ -16412,7 +16492,7 @@
       <c r="F364" s="2"/>
     </row>
     <row r="365" spans="1:6" customFormat="1">
-      <c r="A365" s="28"/>
+      <c r="A365" s="31"/>
       <c r="B365" s="20" t="s">
         <v>536</v>
       </c>
@@ -16426,7 +16506,7 @@
       <c r="F365" s="2"/>
     </row>
     <row r="366" spans="1:6" customFormat="1">
-      <c r="A366" s="28"/>
+      <c r="A366" s="31"/>
       <c r="B366" s="20" t="s">
         <v>537</v>
       </c>
@@ -16440,7 +16520,7 @@
       <c r="F366" s="2"/>
     </row>
     <row r="367" spans="1:6" customFormat="1">
-      <c r="A367" s="28"/>
+      <c r="A367" s="31"/>
       <c r="B367" s="20" t="s">
         <v>538</v>
       </c>
@@ -16454,7 +16534,7 @@
       <c r="F367" s="2"/>
     </row>
     <row r="368" spans="1:6" customFormat="1">
-      <c r="A368" s="28"/>
+      <c r="A368" s="31"/>
       <c r="B368" s="20" t="s">
         <v>539</v>
       </c>
@@ -16468,7 +16548,7 @@
       <c r="F368" s="2"/>
     </row>
     <row r="369" spans="1:6" customFormat="1">
-      <c r="A369" s="28"/>
+      <c r="A369" s="31"/>
       <c r="B369" s="20" t="s">
         <v>540</v>
       </c>
@@ -16482,7 +16562,7 @@
       <c r="F369" s="2"/>
     </row>
     <row r="370" spans="1:6" customFormat="1">
-      <c r="A370" s="28"/>
+      <c r="A370" s="31"/>
       <c r="B370" s="20" t="s">
         <v>541</v>
       </c>
@@ -16496,7 +16576,7 @@
       <c r="F370" s="2"/>
     </row>
     <row r="371" spans="1:6" customFormat="1">
-      <c r="A371" s="28"/>
+      <c r="A371" s="31"/>
       <c r="B371" s="20" t="s">
         <v>542</v>
       </c>
@@ -16510,7 +16590,7 @@
       <c r="F371" s="2"/>
     </row>
     <row r="372" spans="1:6" customFormat="1">
-      <c r="A372" s="28"/>
+      <c r="A372" s="31"/>
       <c r="B372" s="20" t="s">
         <v>543</v>
       </c>
@@ -16524,7 +16604,7 @@
       <c r="F372" s="2"/>
     </row>
     <row r="373" spans="1:6" customFormat="1">
-      <c r="A373" s="28"/>
+      <c r="A373" s="31"/>
       <c r="B373" s="20">
         <v>13.5</v>
       </c>
@@ -16538,7 +16618,7 @@
       <c r="F373" s="2"/>
     </row>
     <row r="374" spans="1:6" customFormat="1">
-      <c r="A374" s="28"/>
+      <c r="A374" s="31"/>
       <c r="B374" s="20" t="s">
         <v>544</v>
       </c>
@@ -16552,7 +16632,7 @@
       <c r="F374" s="2"/>
     </row>
     <row r="375" spans="1:6" customFormat="1">
-      <c r="A375" s="28"/>
+      <c r="A375" s="31"/>
       <c r="B375" s="20" t="s">
         <v>545</v>
       </c>
@@ -16566,7 +16646,7 @@
       <c r="F375" s="2"/>
     </row>
     <row r="376" spans="1:6" customFormat="1">
-      <c r="A376" s="29" t="s">
+      <c r="A376" s="28" t="s">
         <v>1018</v>
       </c>
       <c r="B376" s="20">
@@ -16582,7 +16662,7 @@
       <c r="F376" s="2"/>
     </row>
     <row r="377" spans="1:6" customFormat="1">
-      <c r="A377" s="30"/>
+      <c r="A377" s="29"/>
       <c r="B377" s="20" t="s">
         <v>546</v>
       </c>
@@ -16596,7 +16676,7 @@
       <c r="F377" s="2"/>
     </row>
     <row r="378" spans="1:6" customFormat="1">
-      <c r="A378" s="30"/>
+      <c r="A378" s="29"/>
       <c r="B378" s="20">
         <v>14.2</v>
       </c>
@@ -16610,7 +16690,7 @@
       <c r="F378" s="2"/>
     </row>
     <row r="379" spans="1:6" customFormat="1">
-      <c r="A379" s="30"/>
+      <c r="A379" s="29"/>
       <c r="B379" s="20">
         <v>14.3</v>
       </c>
@@ -16624,7 +16704,7 @@
       <c r="F379" s="2"/>
     </row>
     <row r="380" spans="1:6" customFormat="1">
-      <c r="A380" s="30"/>
+      <c r="A380" s="29"/>
       <c r="B380" s="20" t="s">
         <v>547</v>
       </c>
@@ -16638,7 +16718,7 @@
       <c r="F380" s="2"/>
     </row>
     <row r="381" spans="1:6" customFormat="1">
-      <c r="A381" s="30"/>
+      <c r="A381" s="29"/>
       <c r="B381" s="20" t="s">
         <v>548</v>
       </c>
@@ -16652,7 +16732,7 @@
       <c r="F381" s="2"/>
     </row>
     <row r="382" spans="1:6" customFormat="1">
-      <c r="A382" s="30"/>
+      <c r="A382" s="29"/>
       <c r="B382" s="20" t="s">
         <v>549</v>
       </c>
@@ -16666,7 +16746,7 @@
       <c r="F382" s="2"/>
     </row>
     <row r="383" spans="1:6" customFormat="1">
-      <c r="A383" s="30"/>
+      <c r="A383" s="29"/>
       <c r="B383" s="20" t="s">
         <v>550</v>
       </c>
@@ -16680,7 +16760,7 @@
       <c r="F383" s="2"/>
     </row>
     <row r="384" spans="1:6" customFormat="1">
-      <c r="A384" s="30"/>
+      <c r="A384" s="29"/>
       <c r="B384" s="20">
         <v>14.4</v>
       </c>
@@ -16694,7 +16774,7 @@
       <c r="F384" s="2"/>
     </row>
     <row r="385" spans="1:6" customFormat="1">
-      <c r="A385" s="30"/>
+      <c r="A385" s="29"/>
       <c r="B385" s="20" t="s">
         <v>551</v>
       </c>
@@ -16708,7 +16788,7 @@
       <c r="F385" s="2"/>
     </row>
     <row r="386" spans="1:6" customFormat="1">
-      <c r="A386" s="30"/>
+      <c r="A386" s="29"/>
       <c r="B386" s="20" t="s">
         <v>552</v>
       </c>
@@ -16722,7 +16802,7 @@
       <c r="F386" s="2"/>
     </row>
     <row r="387" spans="1:6" customFormat="1">
-      <c r="A387" s="30"/>
+      <c r="A387" s="29"/>
       <c r="B387" s="20" t="s">
         <v>553</v>
       </c>
@@ -16736,7 +16816,7 @@
       <c r="F387" s="2"/>
     </row>
     <row r="388" spans="1:6" customFormat="1">
-      <c r="A388" s="30"/>
+      <c r="A388" s="29"/>
       <c r="B388" s="20">
         <v>14.5</v>
       </c>
@@ -16750,7 +16830,7 @@
       <c r="F388" s="2"/>
     </row>
     <row r="389" spans="1:6" customFormat="1">
-      <c r="A389" s="30"/>
+      <c r="A389" s="29"/>
       <c r="B389" s="20" t="s">
         <v>554</v>
       </c>
@@ -16764,7 +16844,7 @@
       <c r="F389" s="2"/>
     </row>
     <row r="390" spans="1:6" customFormat="1">
-      <c r="A390" s="30"/>
+      <c r="A390" s="29"/>
       <c r="B390" s="20" t="s">
         <v>555</v>
       </c>
@@ -16778,7 +16858,7 @@
       <c r="F390" s="2"/>
     </row>
     <row r="391" spans="1:6" customFormat="1">
-      <c r="A391" s="30"/>
+      <c r="A391" s="29"/>
       <c r="B391" s="20" t="s">
         <v>556</v>
       </c>
@@ -16792,7 +16872,7 @@
       <c r="F391" s="2"/>
     </row>
     <row r="392" spans="1:6" customFormat="1">
-      <c r="A392" s="30"/>
+      <c r="A392" s="29"/>
       <c r="B392" s="20" t="s">
         <v>557</v>
       </c>
@@ -16806,7 +16886,7 @@
       <c r="F392" s="2"/>
     </row>
     <row r="393" spans="1:6" customFormat="1">
-      <c r="A393" s="30"/>
+      <c r="A393" s="29"/>
       <c r="B393" s="20" t="s">
         <v>558</v>
       </c>
@@ -16820,7 +16900,7 @@
       <c r="F393" s="2"/>
     </row>
     <row r="394" spans="1:6" customFormat="1">
-      <c r="A394" s="30"/>
+      <c r="A394" s="29"/>
       <c r="B394" s="20" t="s">
         <v>559</v>
       </c>
@@ -16834,7 +16914,7 @@
       <c r="F394" s="2"/>
     </row>
     <row r="395" spans="1:6" customFormat="1">
-      <c r="A395" s="30"/>
+      <c r="A395" s="29"/>
       <c r="B395" s="20" t="s">
         <v>560</v>
       </c>
@@ -16848,7 +16928,7 @@
       <c r="F395" s="2"/>
     </row>
     <row r="396" spans="1:6" customFormat="1">
-      <c r="A396" s="30"/>
+      <c r="A396" s="29"/>
       <c r="B396" s="20" t="s">
         <v>561</v>
       </c>
@@ -16862,7 +16942,7 @@
       <c r="F396" s="2"/>
     </row>
     <row r="397" spans="1:6" customFormat="1">
-      <c r="A397" s="30"/>
+      <c r="A397" s="29"/>
       <c r="B397" s="20" t="s">
         <v>562</v>
       </c>
@@ -16876,7 +16956,7 @@
       <c r="F397" s="2"/>
     </row>
     <row r="398" spans="1:6" customFormat="1">
-      <c r="A398" s="30"/>
+      <c r="A398" s="29"/>
       <c r="B398" s="20" t="s">
         <v>563</v>
       </c>
@@ -16890,7 +16970,7 @@
       <c r="F398" s="2"/>
     </row>
     <row r="399" spans="1:6" customFormat="1">
-      <c r="A399" s="30"/>
+      <c r="A399" s="29"/>
       <c r="B399" s="20" t="s">
         <v>564</v>
       </c>
@@ -16904,7 +16984,7 @@
       <c r="F399" s="2"/>
     </row>
     <row r="400" spans="1:6" customFormat="1">
-      <c r="A400" s="30"/>
+      <c r="A400" s="29"/>
       <c r="B400" s="20" t="s">
         <v>565</v>
       </c>
@@ -16918,7 +16998,7 @@
       <c r="F400" s="2"/>
     </row>
     <row r="401" spans="1:6" customFormat="1">
-      <c r="A401" s="30"/>
+      <c r="A401" s="29"/>
       <c r="B401" s="20" t="s">
         <v>566</v>
       </c>
@@ -16932,7 +17012,7 @@
       <c r="F401" s="2"/>
     </row>
     <row r="402" spans="1:6" customFormat="1">
-      <c r="A402" s="30"/>
+      <c r="A402" s="29"/>
       <c r="B402" s="20" t="s">
         <v>567</v>
       </c>
@@ -16946,7 +17026,7 @@
       <c r="F402" s="2"/>
     </row>
     <row r="403" spans="1:6" customFormat="1">
-      <c r="A403" s="30"/>
+      <c r="A403" s="29"/>
       <c r="B403" s="20" t="s">
         <v>568</v>
       </c>
@@ -16960,7 +17040,7 @@
       <c r="F403" s="2"/>
     </row>
     <row r="404" spans="1:6" customFormat="1">
-      <c r="A404" s="30"/>
+      <c r="A404" s="29"/>
       <c r="B404" s="20">
         <v>14.6</v>
       </c>
@@ -16974,7 +17054,7 @@
       <c r="F404" s="2"/>
     </row>
     <row r="405" spans="1:6" customFormat="1">
-      <c r="A405" s="30"/>
+      <c r="A405" s="29"/>
       <c r="B405" s="20">
         <v>14.7</v>
       </c>
@@ -16988,7 +17068,7 @@
       <c r="F405" s="2"/>
     </row>
     <row r="406" spans="1:6" customFormat="1">
-      <c r="A406" s="30"/>
+      <c r="A406" s="29"/>
       <c r="B406" s="20" t="s">
         <v>569</v>
       </c>
@@ -17002,7 +17082,7 @@
       <c r="F406" s="2"/>
     </row>
     <row r="407" spans="1:6" customFormat="1">
-      <c r="A407" s="30"/>
+      <c r="A407" s="29"/>
       <c r="B407" s="20" t="s">
         <v>570</v>
       </c>
@@ -17016,7 +17096,7 @@
       <c r="F407" s="2"/>
     </row>
     <row r="408" spans="1:6" customFormat="1">
-      <c r="A408" s="30"/>
+      <c r="A408" s="29"/>
       <c r="B408" s="20" t="s">
         <v>571</v>
       </c>
@@ -17030,7 +17110,7 @@
       <c r="F408" s="2"/>
     </row>
     <row r="409" spans="1:6" customFormat="1">
-      <c r="A409" s="30"/>
+      <c r="A409" s="29"/>
       <c r="B409" s="20" t="s">
         <v>572</v>
       </c>
@@ -17044,7 +17124,7 @@
       <c r="F409" s="2"/>
     </row>
     <row r="410" spans="1:6" customFormat="1">
-      <c r="A410" s="30"/>
+      <c r="A410" s="29"/>
       <c r="B410" s="20" t="s">
         <v>573</v>
       </c>
@@ -17058,7 +17138,7 @@
       <c r="F410" s="2"/>
     </row>
     <row r="411" spans="1:6" customFormat="1">
-      <c r="A411" s="30"/>
+      <c r="A411" s="29"/>
       <c r="B411" s="20" t="s">
         <v>574</v>
       </c>
@@ -17072,7 +17152,7 @@
       <c r="F411" s="2"/>
     </row>
     <row r="412" spans="1:6" customFormat="1">
-      <c r="A412" s="30"/>
+      <c r="A412" s="29"/>
       <c r="B412" s="20" t="s">
         <v>575</v>
       </c>
@@ -17086,7 +17166,7 @@
       <c r="F412" s="2"/>
     </row>
     <row r="413" spans="1:6" customFormat="1">
-      <c r="A413" s="30"/>
+      <c r="A413" s="29"/>
       <c r="B413" s="20">
         <v>14.8</v>
       </c>
@@ -17100,7 +17180,7 @@
       <c r="F413" s="2"/>
     </row>
     <row r="414" spans="1:6" customFormat="1">
-      <c r="A414" s="30"/>
+      <c r="A414" s="29"/>
       <c r="B414" s="20">
         <v>14.9</v>
       </c>
@@ -17114,7 +17194,7 @@
       <c r="F414" s="2"/>
     </row>
     <row r="415" spans="1:6" customFormat="1">
-      <c r="A415" s="30"/>
+      <c r="A415" s="29"/>
       <c r="B415" s="20" t="s">
         <v>576</v>
       </c>
@@ -17128,7 +17208,7 @@
       <c r="F415" s="2"/>
     </row>
     <row r="416" spans="1:6" customFormat="1">
-      <c r="A416" s="30"/>
+      <c r="A416" s="29"/>
       <c r="B416" s="20" t="s">
         <v>577</v>
       </c>
@@ -17142,7 +17222,7 @@
       <c r="F416" s="2"/>
     </row>
     <row r="417" spans="1:6" customFormat="1">
-      <c r="A417" s="30"/>
+      <c r="A417" s="29"/>
       <c r="B417" s="20" t="s">
         <v>578</v>
       </c>
@@ -17156,7 +17236,7 @@
       <c r="F417" s="2"/>
     </row>
     <row r="418" spans="1:6" customFormat="1">
-      <c r="A418" s="30"/>
+      <c r="A418" s="29"/>
       <c r="B418" s="20" t="s">
         <v>579</v>
       </c>
@@ -17170,7 +17250,7 @@
       <c r="F418" s="2"/>
     </row>
     <row r="419" spans="1:6" customFormat="1">
-      <c r="A419" s="30"/>
+      <c r="A419" s="29"/>
       <c r="B419" s="20" t="s">
         <v>580</v>
       </c>
@@ -17184,7 +17264,7 @@
       <c r="F419" s="2"/>
     </row>
     <row r="420" spans="1:6" customFormat="1">
-      <c r="A420" s="30"/>
+      <c r="A420" s="29"/>
       <c r="B420" s="20">
         <v>14.1</v>
       </c>
@@ -17198,7 +17278,7 @@
       <c r="F420" s="2"/>
     </row>
     <row r="421" spans="1:6" customFormat="1">
-      <c r="A421" s="30"/>
+      <c r="A421" s="29"/>
       <c r="B421" s="20" t="s">
         <v>581</v>
       </c>
@@ -17212,7 +17292,7 @@
       <c r="F421" s="2"/>
     </row>
     <row r="422" spans="1:6" customFormat="1">
-      <c r="A422" s="30"/>
+      <c r="A422" s="29"/>
       <c r="B422" s="20" t="s">
         <v>582</v>
       </c>
@@ -17226,7 +17306,7 @@
       <c r="F422" s="2"/>
     </row>
     <row r="423" spans="1:6" customFormat="1">
-      <c r="A423" s="30"/>
+      <c r="A423" s="29"/>
       <c r="B423" s="20" t="s">
         <v>583</v>
       </c>
@@ -17240,7 +17320,7 @@
       <c r="F423" s="2"/>
     </row>
     <row r="424" spans="1:6" customFormat="1">
-      <c r="A424" s="30"/>
+      <c r="A424" s="29"/>
       <c r="B424" s="20" t="s">
         <v>584</v>
       </c>
@@ -17254,7 +17334,7 @@
       <c r="F424" s="2"/>
     </row>
     <row r="425" spans="1:6" customFormat="1">
-      <c r="A425" s="30"/>
+      <c r="A425" s="29"/>
       <c r="B425" s="20" t="s">
         <v>585</v>
       </c>
@@ -17268,7 +17348,7 @@
       <c r="F425" s="2"/>
     </row>
     <row r="426" spans="1:6" customFormat="1">
-      <c r="A426" s="30"/>
+      <c r="A426" s="29"/>
       <c r="B426" s="20">
         <v>14.11</v>
       </c>
@@ -17282,7 +17362,7 @@
       <c r="F426" s="2"/>
     </row>
     <row r="427" spans="1:6" customFormat="1">
-      <c r="A427" s="30"/>
+      <c r="A427" s="29"/>
       <c r="B427" s="20" t="s">
         <v>586</v>
       </c>
@@ -17296,7 +17376,7 @@
       <c r="F427" s="2"/>
     </row>
     <row r="428" spans="1:6" customFormat="1">
-      <c r="A428" s="30"/>
+      <c r="A428" s="29"/>
       <c r="B428" s="20" t="s">
         <v>587</v>
       </c>
@@ -17310,7 +17390,7 @@
       <c r="F428" s="2"/>
     </row>
     <row r="429" spans="1:6" customFormat="1">
-      <c r="A429" s="31"/>
+      <c r="A429" s="30"/>
       <c r="B429" s="20" t="s">
         <v>588</v>
       </c>
@@ -17376,12 +17456,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A376:A429"/>
-    <mergeCell ref="A353:A375"/>
-    <mergeCell ref="A310:A352"/>
-    <mergeCell ref="A301:A309"/>
-    <mergeCell ref="A250:A290"/>
-    <mergeCell ref="A291:A300"/>
     <mergeCell ref="A77:A127"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A25"/>
@@ -17390,6 +17464,12 @@
     <mergeCell ref="A128:A157"/>
     <mergeCell ref="A190:A217"/>
     <mergeCell ref="A158:A189"/>
+    <mergeCell ref="A376:A429"/>
+    <mergeCell ref="A353:A375"/>
+    <mergeCell ref="A310:A352"/>
+    <mergeCell ref="A301:A309"/>
+    <mergeCell ref="A250:A290"/>
+    <mergeCell ref="A291:A300"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I4">

--- a/学习进度.xlsx
+++ b/学习进度.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laohangdeche/Library/Mobile Documents/com~apple~CloudDocs/个人/学习笔记/Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6AD6CD-FF55-E643-BE9E-526D2CC531D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9913F79-CB07-7D45-90DB-A55C1A94D5F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="460" windowWidth="28300" windowHeight="16900" xr2:uid="{C7784454-BD36-8040-9BFE-2AD014209B0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Java基础" sheetId="1" r:id="rId1"/>
-    <sheet name="Java核心编程" sheetId="5" r:id="rId2"/>
-    <sheet name="概率论" sheetId="2" r:id="rId3"/>
-    <sheet name="线性代数" sheetId="3" r:id="rId4"/>
+    <sheet name="Spark" sheetId="6" r:id="rId2"/>
+    <sheet name="Java核心编程" sheetId="5" r:id="rId3"/>
+    <sheet name="概率论" sheetId="2" r:id="rId4"/>
+    <sheet name="线性代数" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="1566">
   <si>
     <t>01_Java语言发展史</t>
   </si>
@@ -4072,6 +4073,687 @@
   </si>
   <si>
     <t>01_数据库的备份和还原</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01_Spark概述_目标        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02_Spark概述_Spark是什么        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_Spark概述_Spark的特点        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">04_Spark概述_Spark的组成        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_Spark集群搭建_Spark集群结构        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_Spark集群搭建_Spark集群结构_扩展        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07_Spark环境搭建_下载和解压Spark安装包        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08_Spark环境搭建_配置HistoryServer        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09_Spark集群搭建_分发和启动        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10_Spark集群搭建_高可用配置        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11_Spark集群搭建_第一个案例        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12_Spark入门_代码编写方式        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13_Spark入门_SparkShell本地文件读取        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14_Spark入门_执行过程        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15_Spark入门_读取HDFS上的文件        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16_Spark入门_独立应用编写        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17_Spark入门_独立应用的运行方式        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18_RDD入门_RDD是什么        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19_RDD入门_SparkContext        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20_RDD入门_创建RDD的三种方式        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21_RDD入门_Map算子        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22_RDD入门_FlatMap算子        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23_RDD入门_ReduceByKey算子        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01_深入RDD_课程结构        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02_深入RDD_初始案例_步骤        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_深入RDD_初始案例_代码编写        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">04_深入RDD_问题_如何运行在集群中        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_深入RDD_问题_分解和容错        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_深入RDD_定义_出现的背景        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07_深入RDD_定义_RDD的特点        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08_深入RDD_定义_什么叫做弹性分布式数据集        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09_深入RDD_定义_五大属性        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10_RDD算子_分类        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11_RDD算子_转换_回顾        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12_RDD算子_转换_mapPartitions        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13_RDD算子_转换_Filter        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14_RDD算子_转换_Sample        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15_RDD算子_转换_mapValues        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16_RDD算子_转换_集合操作        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17_RDD算子_转换_groupByKey        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18_RDD算子_转换_combineByKey        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19_RDD算子_转换_foldByKey        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20_RDD算子_转换_aggregateByKey        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21_RDD算子_转换_join        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22_RDD算子_转换_排序        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23_RDD算子_转换_重分区        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24_RDD算子_转换_总结        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01_RDD算子_Action_reduce        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02_RDD算子_Action_foreach        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_RDD算子_Action_countByKey        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">04_RDD算子_Action_take        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_RDD算子_Action_总结        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_RDD算子_KV类型的支持        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07_RDD算子_数字型的支持        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08_阶段练习_需求介绍和明确步骤        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09_阶段练习_代码编写        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10_阶段练习_总结        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11_RDD的分区和Shuffle_介绍        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12_RDD的分区和Shuffle_查看分区        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13_RDD的分区和Shuffle_创建RDD时指定分区数        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14_RDD的分区和Shuffle_通过算子重分区        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15_RDD的分区和Shuffle_通过其他算子指定分区数        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16_RDD的分区和Shuffle_Shuffle过程扫盲        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17_RDD的缓存_缓存的意义_案例介绍        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18_RDD的缓存_缓存的意义_过程代码        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19_RDD的缓存_缓存的意义_结论        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20_RDD的缓存_缓存的API        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21_RDD的缓存_缓存级别        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22_Checkpoint_意义        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23_Checkpoint_使用        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01_Spark原理_概述和思路        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02_Spark原理_总体介绍_概要        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_Spark原理_总结介绍_案例编写        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">04_Spark原理_总体介绍_集群环境        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_Spark原理_总体介绍_逻辑执行图        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_Spark原理_总体介绍_物理执行图        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07_Spark原理_逻辑图_HadoopRDD的生成        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08_Spark原理_逻辑图_MapPartitionsRDD        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09_Spark原理_逻辑图_小结        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10_Spark原理_逻辑图_RDD之间的关系_一对一        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11_Spark原理_逻辑图_RDD之间的关系_多对一        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12_Spark原理_逻辑图_窄依赖_案例        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13_Spark原理_逻辑图_窄依赖_分析        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14_Spark原理_逻辑图_宽依赖_分析        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15_Spark原理_逻辑图_宽窄依赖判断        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16_Spark原理_逻辑图_窄依赖的分类_看源码        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17_Spark原理_逻辑图_窄依赖的分类_分析        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18_Spark原理_逻辑图_总结        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19_Spark原理_物理图_介绍        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20_Spark原理_物理图_Task设计        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21_Spark原理_物理图_Stage划分        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">22_Spark原理_物理图_案例总结        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23_Spark原理_运行过程_概念介绍        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">24_Spark原理_运行过程_Job和Stage的关系        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25_Spark原理_运行过程_Stage和Task的关系        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">26_Spark原理_运行过程_总结和流程        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">27_高级特性_闭包_概念        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28_高级特性_闭包_Spark闭包分发        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29_高级特性_累加器        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30_高级特性_广播        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01_SparkSQL是什么_命令式和声明式的区别        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02_SparkSQL是什么_历史和重要性        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_SparkSQL是什么_适用场景        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">04_SparkSQL初体验_命令式案例        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_SparkSQL初体验_Dataset和DataFrame        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_SparkSQL初体验_SQL案例        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07_扩展_Catalyst优化器_SparkSQL和RDD的区别        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08_扩展_Catalyst优化器_优化过程        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09_扩展_Catalyst优化器_查看计划        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10_Dataset介绍_Dataset是什么        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11_Dataset介绍_Dataset底层类型        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12_Dataset介绍_将Dataset转为同泛型的RDD        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13_DataFrame介绍_DataFrame是什么        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14_DataFrame介绍_创建_toDF        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15_DataFrame介绍_创建_read        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16_DataFrame介绍_操作        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17_Dataset和DataFrame的区别_区别        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18_Dataset和DataFrame的区别_Row对象        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01_SparkSQL读写_介绍        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02_SparkSQL读写_Reader        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_SparkSQL读写_Writer        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">04_SparkSQL读写_Parquet        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_SparkSQL读写_分区        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_SparkSQL读写_JSON        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07_SparkSQL读写_JSON小技巧        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08_SparkSQL读写_Hive_整合        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09_SparkSQL读写_Hive_创建Hive表        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10_SparkSQL读写_Hive_读取Hive表        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11_SparkSQL读写_Hive_SparkSQL创建Hive表        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12_SparkSQL读写_Hive_写入数据_配置        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13_SparkSQL读写_Hive_写入数据_编码和运行        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14_SparkSQL读写_JDBC_MySQL环境准备        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15_SparkSQL读写_JDBC_写入数据        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01_有类型转换_map        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02_有类型转换_transform_        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_有类型转换_as        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">04_有类型转换_filter        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_有类型转换_groupByKey        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_有类型转换_split_        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07_有类型转换_orderBy        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08_有类型转换_去重        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09_有类型转换_集合操作        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10_无类型转换_选择        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11_无类型转换_列操作        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12_无类型转换_groupBy        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13_Column对象_创建1        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14_Column对象_创建_有绑定        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15_Column对象_操作_别名和类型        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16_Column对象_操作_API        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17_缺失值处理_什么是缺失值        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18_缺失值处理_null&amp;NaN_读取文件        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19_缺失值处理_null&amp;NaN_处理        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20_缺失值处理_字符串缺失值        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01_聚合操作_groupBy_数据读取        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02_聚合操作_groupBy_聚合操作        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_聚合操作_多维聚合_需求介绍        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">04_聚合操作_多维聚合_编写代码        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_聚合操作_多维聚合_rollup        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_聚合操作_多维聚合_rollup案例        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07_聚合操作_多维聚合_cube        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08_聚合操作_多维聚合_cubeSQL        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09_聚合操作_多维聚合_GroupedDataset        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10_连接操作_入门_介绍        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11_连接操作_入门_案例        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12_连接操作_连接类型_cross        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13_连接操作_连接类型_inner        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14_连接操作_连接类型_fullouter        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15_连接操作_连接类型_left        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16_连接操作_连接类型_semi&amp;anti        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17_函数_UDF        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18_函数_窗口1        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19_函数_窗口2        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01_项目分析_业务场景        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02_项目分析_流程分析        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_工程搭建_创建        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">04_工程搭建_读取数据        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_数据清洗_思路和步骤        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_数据清洗_创建Trip类        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07_数据清洗_包装Row处理空值        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08_数据清洗_数据转换        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09_数据清洗_异常处理_Either        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10_数据清洗_异常处理_完成逻辑        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11_数据清洗_转换完成        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12_数据清洗_剪除反常数据_统计分布        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13_数据清洗_剪除反常数据        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14_行政区信息_介绍        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15_行政区信息_JSON解析        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16_行政区信息_GeoJSON介绍        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17_行政区信息_JSON解析实现        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18_行政区信息_Geometry实现        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19_行政区统计_功能实现        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20_会话统计_得出结果        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01_SparkStreaming介绍_场景        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02_SparkStreaming介绍_流计算和批计算的区别        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_SparkStreaming介绍_架构        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">04_SparkStreaming介绍_特点        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_SparkStreaming案例_Socket回顾        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_SparkStreaming案例_Netcat        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07_SparkStreaming案例_创建工程        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08_SparkStreaming案例_代码编写        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09_SparkStreaming案例_运行        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10_SparkStreaming案例_解释说明        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11_SparkStreaming原理_问题提出        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12_SparkStreaming原理_DStream的有向无环图        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13_SparkStreaming原理_DStream的静态和动态        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14_SparkStreaming原理_Receiver        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15_SparkStreaming原理_容错        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01_Structured_介绍_历史更迭        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02_Structured_介绍_序列化更迭        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">03_Structured_介绍_对比        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">04_Structured_案例_介绍        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">05_Structured_案例_代码编写        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06_Structured_案例_运行和总结        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07_Structured_体系结构_无限扩展的表        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08_Structured_体系结构        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">09_Structured_Source_HDFS_案例介绍        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10_Structured_Source_HDFS_生成并上传文件到HDFS        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11_Structured_Source_HDFS_Spark代码        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12_Structured_Source_Kafka_回顾        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13_Structured_Source_Kafka_整合        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14_Structured_Source_Kafka_需求        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15_Structured_Source_Kafka_连接        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16_Structured_Sink_HDFS        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17_Structured_Sink_Kafka        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">18_Structured_Sink_Foreach        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19_Structured_Sink_Trigger        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20_Structured_Sink_容错语义 </t>
   </si>
 </sst>
 </file>
@@ -4652,8 +5334,8 @@
   <dimension ref="A1:G562"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B287" sqref="B287"/>
+      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C306" sqref="C306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4683,7 +5365,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-04</v>
+        <v>截至2020-09-08</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -4703,7 +5385,7 @@
       </c>
       <c r="G2" s="12">
         <f>COUNTIF(C2:C562,"ok")</f>
-        <v>287</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1">
@@ -4722,7 +5404,7 @@
       </c>
       <c r="G3" s="12">
         <f>COUNTBLANK(C2:C562)</f>
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1">
@@ -4741,7 +5423,7 @@
       </c>
       <c r="G4" s="15">
         <f>G2/(G2+G3)</f>
-        <v>0.51158645276292336</v>
+        <v>0.54188948306595364</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1">
@@ -8523,8 +9205,12 @@
       <c r="B289" s="5" t="s">
         <v>1156</v>
       </c>
-      <c r="C289" s="2"/>
-      <c r="D289" s="25"/>
+      <c r="C289" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D289" s="25">
+        <v>44082</v>
+      </c>
     </row>
     <row r="290" spans="1:4" customFormat="1">
       <c r="A290" s="2">
@@ -8533,8 +9219,12 @@
       <c r="B290" s="5" t="s">
         <v>1157</v>
       </c>
-      <c r="C290" s="2"/>
-      <c r="D290" s="25"/>
+      <c r="C290" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D290" s="25">
+        <v>44082</v>
+      </c>
     </row>
     <row r="291" spans="1:4" customFormat="1">
       <c r="A291" s="2">
@@ -8543,8 +9233,12 @@
       <c r="B291" s="5" t="s">
         <v>1158</v>
       </c>
-      <c r="C291" s="2"/>
-      <c r="D291" s="25"/>
+      <c r="C291" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D291" s="25">
+        <v>44082</v>
+      </c>
     </row>
     <row r="292" spans="1:4" customFormat="1">
       <c r="A292" s="2">
@@ -8553,8 +9247,12 @@
       <c r="B292" s="5" t="s">
         <v>1159</v>
       </c>
-      <c r="C292" s="2"/>
-      <c r="D292" s="25"/>
+      <c r="C292" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D292" s="25">
+        <v>44082</v>
+      </c>
     </row>
     <row r="293" spans="1:4" customFormat="1">
       <c r="A293" s="2">
@@ -8563,8 +9261,12 @@
       <c r="B293" s="5" t="s">
         <v>1160</v>
       </c>
-      <c r="C293" s="2"/>
-      <c r="D293" s="25"/>
+      <c r="C293" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D293" s="25">
+        <v>44082</v>
+      </c>
     </row>
     <row r="294" spans="1:4" customFormat="1">
       <c r="A294" s="2">
@@ -8573,8 +9275,12 @@
       <c r="B294" s="5" t="s">
         <v>1161</v>
       </c>
-      <c r="C294" s="2"/>
-      <c r="D294" s="25"/>
+      <c r="C294" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D294" s="25">
+        <v>44082</v>
+      </c>
     </row>
     <row r="295" spans="1:4" customFormat="1">
       <c r="A295" s="2">
@@ -8583,8 +9289,12 @@
       <c r="B295" s="5" t="s">
         <v>1162</v>
       </c>
-      <c r="C295" s="2"/>
-      <c r="D295" s="25"/>
+      <c r="C295" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D295" s="25">
+        <v>44082</v>
+      </c>
     </row>
     <row r="296" spans="1:4" customFormat="1">
       <c r="A296" s="2">
@@ -8593,8 +9303,12 @@
       <c r="B296" s="5" t="s">
         <v>1163</v>
       </c>
-      <c r="C296" s="2"/>
-      <c r="D296" s="25"/>
+      <c r="C296" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D296" s="25">
+        <v>44082</v>
+      </c>
     </row>
     <row r="297" spans="1:4" customFormat="1">
       <c r="A297" s="2">
@@ -8603,8 +9317,12 @@
       <c r="B297" s="5" t="s">
         <v>1164</v>
       </c>
-      <c r="C297" s="2"/>
-      <c r="D297" s="25"/>
+      <c r="C297" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D297" s="25">
+        <v>44082</v>
+      </c>
     </row>
     <row r="298" spans="1:4" customFormat="1">
       <c r="A298" s="2">
@@ -8613,8 +9331,12 @@
       <c r="B298" s="5" t="s">
         <v>1165</v>
       </c>
-      <c r="C298" s="2"/>
-      <c r="D298" s="25"/>
+      <c r="C298" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D298" s="25">
+        <v>44082</v>
+      </c>
     </row>
     <row r="299" spans="1:4" customFormat="1">
       <c r="A299" s="2">
@@ -8623,8 +9345,12 @@
       <c r="B299" s="5" t="s">
         <v>1166</v>
       </c>
-      <c r="C299" s="2"/>
-      <c r="D299" s="25"/>
+      <c r="C299" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D299" s="25">
+        <v>44082</v>
+      </c>
     </row>
     <row r="300" spans="1:4" customFormat="1">
       <c r="A300" s="2">
@@ -8633,8 +9359,12 @@
       <c r="B300" s="5" t="s">
         <v>1167</v>
       </c>
-      <c r="C300" s="2"/>
-      <c r="D300" s="25"/>
+      <c r="C300" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D300" s="25">
+        <v>44082</v>
+      </c>
     </row>
     <row r="301" spans="1:4" customFormat="1">
       <c r="A301" s="2">
@@ -8643,8 +9373,12 @@
       <c r="B301" s="5" t="s">
         <v>1168</v>
       </c>
-      <c r="C301" s="2"/>
-      <c r="D301" s="25"/>
+      <c r="C301" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D301" s="25">
+        <v>44082</v>
+      </c>
     </row>
     <row r="302" spans="1:4" customFormat="1">
       <c r="A302" s="2">
@@ -8653,8 +9387,12 @@
       <c r="B302" s="5" t="s">
         <v>1169</v>
       </c>
-      <c r="C302" s="2"/>
-      <c r="D302" s="25"/>
+      <c r="C302" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D302" s="25">
+        <v>44082</v>
+      </c>
     </row>
     <row r="303" spans="1:4" customFormat="1">
       <c r="A303" s="2">
@@ -8663,8 +9401,12 @@
       <c r="B303" s="5" t="s">
         <v>1170</v>
       </c>
-      <c r="C303" s="2"/>
-      <c r="D303" s="25"/>
+      <c r="C303" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D303" s="25">
+        <v>44082</v>
+      </c>
     </row>
     <row r="304" spans="1:4" customFormat="1">
       <c r="A304" s="2">
@@ -8673,8 +9415,12 @@
       <c r="B304" s="5" t="s">
         <v>1171</v>
       </c>
-      <c r="C304" s="2"/>
-      <c r="D304" s="25"/>
+      <c r="C304" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D304" s="25">
+        <v>44082</v>
+      </c>
     </row>
     <row r="305" spans="1:4" customFormat="1">
       <c r="A305" s="2">
@@ -8683,8 +9429,12 @@
       <c r="B305" s="5" t="s">
         <v>1172</v>
       </c>
-      <c r="C305" s="2"/>
-      <c r="D305" s="25"/>
+      <c r="C305" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D305" s="25">
+        <v>44082</v>
+      </c>
     </row>
     <row r="306" spans="1:4" customFormat="1">
       <c r="A306" s="2">
@@ -11301,6 +12051,2403 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF5B619-3545-AF40-ABC5-70C839FBC52B}">
+  <dimension ref="A1:G228"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="27"/>
+    <col min="5" max="5" width="10.7109375" style="14"/>
+    <col min="6" max="6" width="15.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="10.7109375" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F1" s="12" t="str">
+        <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
+        <v>截至2020-09-08</v>
+      </c>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" customFormat="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="25">
+        <v>44081</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2" s="12">
+        <f>COUNTIF(C2:C228,"ok")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" customFormat="1">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" s="25">
+        <v>44081</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="G3" s="12">
+        <f>COUNTBLANK(C2:C228)</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" customFormat="1">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="25"/>
+      <c r="F4" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G4" s="15">
+        <f>G2/(G2+G3)</f>
+        <v>8.8105726872246704E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" customFormat="1">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" customFormat="1">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="25"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" customFormat="1">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="25"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" customFormat="1">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" customFormat="1">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="25"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" customFormat="1">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:7" customFormat="1">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:7" customFormat="1">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" customFormat="1">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14" spans="1:7" customFormat="1">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" customFormat="1">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="1:7" customFormat="1">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="1:4" customFormat="1">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="1:4" customFormat="1">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:4" customFormat="1">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="1:4" customFormat="1">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="25"/>
+    </row>
+    <row r="21" spans="1:4" customFormat="1">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="1:4" customFormat="1">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" spans="1:4" customFormat="1">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:4" customFormat="1">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="25"/>
+    </row>
+    <row r="25" spans="1:4" customFormat="1">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="25"/>
+    </row>
+    <row r="26" spans="1:4" customFormat="1">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="25"/>
+    </row>
+    <row r="27" spans="1:4" customFormat="1">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="25"/>
+    </row>
+    <row r="28" spans="1:4" customFormat="1">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="25"/>
+    </row>
+    <row r="29" spans="1:4" customFormat="1">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="25"/>
+    </row>
+    <row r="30" spans="1:4" customFormat="1">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31" spans="1:4" customFormat="1">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" customFormat="1">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="25"/>
+    </row>
+    <row r="33" spans="1:4" customFormat="1">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="25"/>
+    </row>
+    <row r="34" spans="1:4" customFormat="1">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="25"/>
+    </row>
+    <row r="35" spans="1:4" customFormat="1">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="25"/>
+    </row>
+    <row r="36" spans="1:4" customFormat="1">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="25"/>
+    </row>
+    <row r="37" spans="1:4" customFormat="1">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="25"/>
+    </row>
+    <row r="38" spans="1:4" customFormat="1">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="25"/>
+    </row>
+    <row r="39" spans="1:4" customFormat="1">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="25"/>
+    </row>
+    <row r="40" spans="1:4" customFormat="1">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="25"/>
+    </row>
+    <row r="41" spans="1:4" customFormat="1">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="25"/>
+    </row>
+    <row r="42" spans="1:4" customFormat="1">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="25"/>
+    </row>
+    <row r="43" spans="1:4" customFormat="1">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="25"/>
+    </row>
+    <row r="44" spans="1:4" customFormat="1">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="25"/>
+    </row>
+    <row r="45" spans="1:4" customFormat="1">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="25"/>
+    </row>
+    <row r="46" spans="1:4" customFormat="1">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="25"/>
+    </row>
+    <row r="47" spans="1:4" customFormat="1">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="25"/>
+    </row>
+    <row r="48" spans="1:4" customFormat="1">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="25"/>
+    </row>
+    <row r="49" spans="1:4" customFormat="1">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="25"/>
+    </row>
+    <row r="50" spans="1:4" customFormat="1">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="25"/>
+    </row>
+    <row r="51" spans="1:4" customFormat="1">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="25"/>
+    </row>
+    <row r="52" spans="1:4" customFormat="1">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="25"/>
+    </row>
+    <row r="53" spans="1:4" customFormat="1">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="25"/>
+    </row>
+    <row r="54" spans="1:4" customFormat="1">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="25"/>
+    </row>
+    <row r="55" spans="1:4" customFormat="1">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="25"/>
+    </row>
+    <row r="56" spans="1:4" customFormat="1">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="25"/>
+    </row>
+    <row r="57" spans="1:4" customFormat="1">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="25"/>
+    </row>
+    <row r="58" spans="1:4" customFormat="1">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="25"/>
+    </row>
+    <row r="59" spans="1:4" customFormat="1">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="25"/>
+    </row>
+    <row r="60" spans="1:4" customFormat="1">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="25"/>
+    </row>
+    <row r="61" spans="1:4" customFormat="1">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="25"/>
+    </row>
+    <row r="62" spans="1:4" customFormat="1">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="25"/>
+    </row>
+    <row r="63" spans="1:4" customFormat="1">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="25"/>
+    </row>
+    <row r="64" spans="1:4" customFormat="1">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="25"/>
+    </row>
+    <row r="65" spans="1:4" customFormat="1">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="25"/>
+    </row>
+    <row r="66" spans="1:4" customFormat="1">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="25"/>
+    </row>
+    <row r="67" spans="1:4" customFormat="1">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="25"/>
+    </row>
+    <row r="68" spans="1:4" customFormat="1">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="25"/>
+    </row>
+    <row r="69" spans="1:4" customFormat="1">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="25"/>
+    </row>
+    <row r="70" spans="1:4" customFormat="1">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="25"/>
+    </row>
+    <row r="71" spans="1:4" customFormat="1">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="25"/>
+    </row>
+    <row r="72" spans="1:4" customFormat="1">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="25"/>
+    </row>
+    <row r="73" spans="1:4" customFormat="1">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="25"/>
+    </row>
+    <row r="74" spans="1:4" customFormat="1">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="25"/>
+    </row>
+    <row r="75" spans="1:4" customFormat="1">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="25"/>
+    </row>
+    <row r="76" spans="1:4" customFormat="1">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="25"/>
+    </row>
+    <row r="77" spans="1:4" customFormat="1">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="25"/>
+    </row>
+    <row r="78" spans="1:4" customFormat="1">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="25"/>
+    </row>
+    <row r="79" spans="1:4" customFormat="1">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="25"/>
+    </row>
+    <row r="80" spans="1:4" customFormat="1">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="25"/>
+    </row>
+    <row r="81" spans="1:4" customFormat="1">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="25"/>
+    </row>
+    <row r="82" spans="1:4" customFormat="1">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="25"/>
+    </row>
+    <row r="83" spans="1:4" customFormat="1">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="25"/>
+    </row>
+    <row r="84" spans="1:4" customFormat="1">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="25"/>
+    </row>
+    <row r="85" spans="1:4" customFormat="1">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="25"/>
+    </row>
+    <row r="86" spans="1:4" customFormat="1">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="25"/>
+    </row>
+    <row r="87" spans="1:4" customFormat="1">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="25"/>
+    </row>
+    <row r="88" spans="1:4" customFormat="1">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="25"/>
+    </row>
+    <row r="89" spans="1:4" customFormat="1">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="25"/>
+    </row>
+    <row r="90" spans="1:4" customFormat="1">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="25"/>
+    </row>
+    <row r="91" spans="1:4" customFormat="1">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="25"/>
+    </row>
+    <row r="92" spans="1:4" customFormat="1">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="25"/>
+    </row>
+    <row r="93" spans="1:4" customFormat="1">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="25"/>
+    </row>
+    <row r="94" spans="1:4" customFormat="1">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="25"/>
+    </row>
+    <row r="95" spans="1:4" customFormat="1">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="25"/>
+    </row>
+    <row r="96" spans="1:4" customFormat="1">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="25"/>
+    </row>
+    <row r="97" spans="1:4" customFormat="1">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="25"/>
+    </row>
+    <row r="98" spans="1:4" customFormat="1">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="25"/>
+    </row>
+    <row r="99" spans="1:4" customFormat="1">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="25"/>
+    </row>
+    <row r="100" spans="1:4" customFormat="1">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="25"/>
+    </row>
+    <row r="101" spans="1:4" customFormat="1">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="25"/>
+    </row>
+    <row r="102" spans="1:4" customFormat="1">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="25"/>
+    </row>
+    <row r="103" spans="1:4" customFormat="1">
+      <c r="A103" s="2">
+        <v>102</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="25"/>
+    </row>
+    <row r="104" spans="1:4" customFormat="1">
+      <c r="A104" s="2">
+        <v>103</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="25"/>
+    </row>
+    <row r="105" spans="1:4" customFormat="1">
+      <c r="A105" s="2">
+        <v>104</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="25"/>
+    </row>
+    <row r="106" spans="1:4" customFormat="1">
+      <c r="A106" s="2">
+        <v>105</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="25"/>
+    </row>
+    <row r="107" spans="1:4" customFormat="1">
+      <c r="A107" s="2">
+        <v>106</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="25"/>
+    </row>
+    <row r="108" spans="1:4" customFormat="1">
+      <c r="A108" s="2">
+        <v>107</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="25"/>
+    </row>
+    <row r="109" spans="1:4" customFormat="1">
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="25"/>
+    </row>
+    <row r="110" spans="1:4" customFormat="1">
+      <c r="A110" s="2">
+        <v>109</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="25"/>
+    </row>
+    <row r="111" spans="1:4" customFormat="1">
+      <c r="A111" s="2">
+        <v>110</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="25"/>
+    </row>
+    <row r="112" spans="1:4" customFormat="1">
+      <c r="A112" s="2">
+        <v>111</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="25"/>
+    </row>
+    <row r="113" spans="1:6" customFormat="1">
+      <c r="A113" s="2">
+        <v>112</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="25"/>
+    </row>
+    <row r="114" spans="1:6" customFormat="1">
+      <c r="A114" s="2">
+        <v>113</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="25"/>
+    </row>
+    <row r="115" spans="1:6" customFormat="1">
+      <c r="A115" s="2">
+        <v>114</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="26"/>
+    </row>
+    <row r="116" spans="1:6" customFormat="1">
+      <c r="A116" s="2">
+        <v>115</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="26"/>
+    </row>
+    <row r="117" spans="1:6" customFormat="1">
+      <c r="A117" s="2">
+        <v>116</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="26"/>
+    </row>
+    <row r="118" spans="1:6" customFormat="1">
+      <c r="A118" s="2">
+        <v>117</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="26"/>
+      <c r="F118" s="7"/>
+    </row>
+    <row r="119" spans="1:6" customFormat="1">
+      <c r="A119" s="2">
+        <v>118</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="26"/>
+      <c r="F119" s="7"/>
+    </row>
+    <row r="120" spans="1:6" customFormat="1">
+      <c r="A120" s="2">
+        <v>119</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="26"/>
+      <c r="F120" s="7"/>
+    </row>
+    <row r="121" spans="1:6" customFormat="1">
+      <c r="A121" s="2">
+        <v>120</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" s="26"/>
+      <c r="F121" s="7"/>
+    </row>
+    <row r="122" spans="1:6" customFormat="1">
+      <c r="A122" s="2">
+        <v>121</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="26"/>
+      <c r="F122" s="7"/>
+    </row>
+    <row r="123" spans="1:6" customFormat="1">
+      <c r="A123" s="2">
+        <v>122</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="26"/>
+      <c r="F123" s="7"/>
+    </row>
+    <row r="124" spans="1:6" customFormat="1">
+      <c r="A124" s="2">
+        <v>123</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" s="26"/>
+      <c r="F124" s="7"/>
+    </row>
+    <row r="125" spans="1:6" customFormat="1">
+      <c r="A125" s="2">
+        <v>124</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" s="26"/>
+      <c r="F125" s="7"/>
+    </row>
+    <row r="126" spans="1:6" customFormat="1">
+      <c r="A126" s="2">
+        <v>125</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" s="26"/>
+      <c r="F126" s="7"/>
+    </row>
+    <row r="127" spans="1:6" customFormat="1">
+      <c r="A127" s="2">
+        <v>126</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" s="25"/>
+      <c r="F127" s="7"/>
+    </row>
+    <row r="128" spans="1:6" customFormat="1">
+      <c r="A128" s="2">
+        <v>127</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" s="25"/>
+      <c r="F128" s="7"/>
+    </row>
+    <row r="129" spans="1:6" customFormat="1">
+      <c r="A129" s="2">
+        <v>128</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" s="25"/>
+      <c r="F129" s="7"/>
+    </row>
+    <row r="130" spans="1:6" customFormat="1">
+      <c r="A130" s="2">
+        <v>129</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="25"/>
+      <c r="F130" s="7"/>
+    </row>
+    <row r="131" spans="1:6" customFormat="1">
+      <c r="A131" s="2">
+        <v>130</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="25"/>
+    </row>
+    <row r="132" spans="1:6" customFormat="1">
+      <c r="A132" s="2">
+        <v>131</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="25"/>
+    </row>
+    <row r="133" spans="1:6" customFormat="1">
+      <c r="A133" s="2">
+        <v>132</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="25"/>
+    </row>
+    <row r="134" spans="1:6" customFormat="1">
+      <c r="A134" s="2">
+        <v>133</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="25"/>
+    </row>
+    <row r="135" spans="1:6" customFormat="1">
+      <c r="A135" s="2">
+        <v>134</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" s="25"/>
+    </row>
+    <row r="136" spans="1:6" customFormat="1">
+      <c r="A136" s="2">
+        <v>135</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" s="25"/>
+    </row>
+    <row r="137" spans="1:6" customFormat="1">
+      <c r="A137" s="2">
+        <v>136</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" s="25"/>
+    </row>
+    <row r="138" spans="1:6" customFormat="1">
+      <c r="A138" s="2">
+        <v>137</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" s="25"/>
+    </row>
+    <row r="139" spans="1:6" customFormat="1">
+      <c r="A139" s="2">
+        <v>138</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C139" s="2"/>
+      <c r="D139" s="25"/>
+    </row>
+    <row r="140" spans="1:6" customFormat="1">
+      <c r="A140" s="2">
+        <v>139</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" s="25"/>
+    </row>
+    <row r="141" spans="1:6" customFormat="1">
+      <c r="A141" s="2">
+        <v>140</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C141" s="2"/>
+      <c r="D141" s="25"/>
+    </row>
+    <row r="142" spans="1:6" customFormat="1">
+      <c r="A142" s="2">
+        <v>141</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C142" s="2"/>
+      <c r="D142" s="25"/>
+    </row>
+    <row r="143" spans="1:6" customFormat="1">
+      <c r="A143" s="2">
+        <v>142</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" s="25"/>
+    </row>
+    <row r="144" spans="1:6" customFormat="1">
+      <c r="A144" s="2">
+        <v>143</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C144" s="2"/>
+      <c r="D144" s="25"/>
+    </row>
+    <row r="145" spans="1:4" customFormat="1">
+      <c r="A145" s="2">
+        <v>144</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C145" s="2"/>
+      <c r="D145" s="25"/>
+    </row>
+    <row r="146" spans="1:4" customFormat="1">
+      <c r="A146" s="2">
+        <v>145</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" s="25"/>
+    </row>
+    <row r="147" spans="1:4" customFormat="1">
+      <c r="A147" s="2">
+        <v>146</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="25"/>
+    </row>
+    <row r="148" spans="1:4" customFormat="1">
+      <c r="A148" s="2">
+        <v>147</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" s="25"/>
+    </row>
+    <row r="149" spans="1:4" customFormat="1">
+      <c r="A149" s="2">
+        <v>148</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" s="25"/>
+    </row>
+    <row r="150" spans="1:4" customFormat="1">
+      <c r="A150" s="2">
+        <v>149</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" s="25"/>
+    </row>
+    <row r="151" spans="1:4" customFormat="1">
+      <c r="A151" s="2">
+        <v>150</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C151" s="2"/>
+      <c r="D151" s="25"/>
+    </row>
+    <row r="152" spans="1:4" customFormat="1">
+      <c r="A152" s="2">
+        <v>151</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C152" s="2"/>
+      <c r="D152" s="25"/>
+    </row>
+    <row r="153" spans="1:4" customFormat="1">
+      <c r="A153" s="2">
+        <v>152</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C153" s="2"/>
+      <c r="D153" s="25"/>
+    </row>
+    <row r="154" spans="1:4" customFormat="1">
+      <c r="A154" s="2">
+        <v>153</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="D154" s="25"/>
+    </row>
+    <row r="155" spans="1:4" customFormat="1">
+      <c r="A155" s="2">
+        <v>154</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" s="25"/>
+    </row>
+    <row r="156" spans="1:4" customFormat="1">
+      <c r="A156" s="2">
+        <v>155</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" s="25"/>
+    </row>
+    <row r="157" spans="1:4" customFormat="1">
+      <c r="A157" s="2">
+        <v>156</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" s="25"/>
+    </row>
+    <row r="158" spans="1:4" customFormat="1">
+      <c r="A158" s="2">
+        <v>157</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C158" s="2"/>
+      <c r="D158" s="25"/>
+    </row>
+    <row r="159" spans="1:4" customFormat="1">
+      <c r="A159" s="2">
+        <v>158</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C159" s="2"/>
+      <c r="D159" s="25"/>
+    </row>
+    <row r="160" spans="1:4" customFormat="1">
+      <c r="A160" s="2">
+        <v>159</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" s="25"/>
+    </row>
+    <row r="161" spans="1:4" customFormat="1">
+      <c r="A161" s="2">
+        <v>160</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C161" s="2"/>
+      <c r="D161" s="25"/>
+    </row>
+    <row r="162" spans="1:4" customFormat="1">
+      <c r="A162" s="2">
+        <v>161</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C162" s="2"/>
+      <c r="D162" s="25"/>
+    </row>
+    <row r="163" spans="1:4" customFormat="1">
+      <c r="A163" s="2">
+        <v>162</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C163" s="2"/>
+      <c r="D163" s="25"/>
+    </row>
+    <row r="164" spans="1:4" customFormat="1">
+      <c r="A164" s="2">
+        <v>163</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C164" s="2"/>
+      <c r="D164" s="25"/>
+    </row>
+    <row r="165" spans="1:4" customFormat="1">
+      <c r="A165" s="2">
+        <v>164</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C165" s="2"/>
+      <c r="D165" s="25"/>
+    </row>
+    <row r="166" spans="1:4" customFormat="1">
+      <c r="A166" s="2">
+        <v>165</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C166" s="2"/>
+      <c r="D166" s="25"/>
+    </row>
+    <row r="167" spans="1:4" customFormat="1">
+      <c r="A167" s="2">
+        <v>166</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C167" s="2"/>
+      <c r="D167" s="25"/>
+    </row>
+    <row r="168" spans="1:4" customFormat="1">
+      <c r="A168" s="2">
+        <v>167</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C168" s="2"/>
+      <c r="D168" s="25"/>
+    </row>
+    <row r="169" spans="1:4" customFormat="1">
+      <c r="A169" s="2">
+        <v>168</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C169" s="2"/>
+      <c r="D169" s="25"/>
+    </row>
+    <row r="170" spans="1:4" customFormat="1">
+      <c r="A170" s="2">
+        <v>169</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C170" s="2"/>
+      <c r="D170" s="25"/>
+    </row>
+    <row r="171" spans="1:4" customFormat="1">
+      <c r="A171" s="2">
+        <v>170</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C171" s="2"/>
+      <c r="D171" s="25"/>
+    </row>
+    <row r="172" spans="1:4" customFormat="1">
+      <c r="A172" s="2">
+        <v>171</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C172" s="2"/>
+      <c r="D172" s="25"/>
+    </row>
+    <row r="173" spans="1:4" customFormat="1">
+      <c r="A173" s="2">
+        <v>172</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C173" s="2"/>
+      <c r="D173" s="25"/>
+    </row>
+    <row r="174" spans="1:4" customFormat="1">
+      <c r="A174" s="2">
+        <v>173</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C174" s="2"/>
+      <c r="D174" s="25"/>
+    </row>
+    <row r="175" spans="1:4" customFormat="1">
+      <c r="A175" s="2">
+        <v>174</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C175" s="2"/>
+      <c r="D175" s="25"/>
+    </row>
+    <row r="176" spans="1:4" customFormat="1">
+      <c r="A176" s="2">
+        <v>175</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C176" s="2"/>
+      <c r="D176" s="25"/>
+    </row>
+    <row r="177" spans="1:4" customFormat="1">
+      <c r="A177" s="2">
+        <v>176</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C177" s="2"/>
+      <c r="D177" s="25"/>
+    </row>
+    <row r="178" spans="1:4" customFormat="1">
+      <c r="A178" s="2">
+        <v>177</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C178" s="2"/>
+      <c r="D178" s="25"/>
+    </row>
+    <row r="179" spans="1:4" customFormat="1">
+      <c r="A179" s="2">
+        <v>178</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C179" s="2"/>
+      <c r="D179" s="25"/>
+    </row>
+    <row r="180" spans="1:4" customFormat="1">
+      <c r="A180" s="2">
+        <v>179</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C180" s="2"/>
+      <c r="D180" s="25"/>
+    </row>
+    <row r="181" spans="1:4" customFormat="1">
+      <c r="A181" s="2">
+        <v>180</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C181" s="2"/>
+      <c r="D181" s="25"/>
+    </row>
+    <row r="182" spans="1:4" customFormat="1">
+      <c r="A182" s="2">
+        <v>181</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C182" s="2"/>
+      <c r="D182" s="25"/>
+    </row>
+    <row r="183" spans="1:4" customFormat="1">
+      <c r="A183" s="2">
+        <v>182</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C183" s="2"/>
+      <c r="D183" s="25"/>
+    </row>
+    <row r="184" spans="1:4" customFormat="1">
+      <c r="A184" s="2">
+        <v>183</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C184" s="2"/>
+      <c r="D184" s="25"/>
+    </row>
+    <row r="185" spans="1:4" customFormat="1">
+      <c r="A185" s="2">
+        <v>184</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C185" s="2"/>
+      <c r="D185" s="25"/>
+    </row>
+    <row r="186" spans="1:4" customFormat="1">
+      <c r="A186" s="2">
+        <v>185</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C186" s="2"/>
+      <c r="D186" s="25"/>
+    </row>
+    <row r="187" spans="1:4" customFormat="1">
+      <c r="A187" s="2">
+        <v>186</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C187" s="2"/>
+      <c r="D187" s="25"/>
+    </row>
+    <row r="188" spans="1:4" customFormat="1">
+      <c r="A188" s="2">
+        <v>187</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C188" s="2"/>
+      <c r="D188" s="25"/>
+    </row>
+    <row r="189" spans="1:4" customFormat="1">
+      <c r="A189" s="2">
+        <v>188</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C189" s="2"/>
+      <c r="D189" s="25"/>
+    </row>
+    <row r="190" spans="1:4" customFormat="1">
+      <c r="A190" s="2">
+        <v>189</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C190" s="2"/>
+      <c r="D190" s="25"/>
+    </row>
+    <row r="191" spans="1:4" customFormat="1">
+      <c r="A191" s="2">
+        <v>190</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C191" s="2"/>
+      <c r="D191" s="25"/>
+    </row>
+    <row r="192" spans="1:4" customFormat="1">
+      <c r="A192" s="2">
+        <v>191</v>
+      </c>
+      <c r="B192" s="5" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C192" s="2"/>
+      <c r="D192" s="25"/>
+    </row>
+    <row r="193" spans="1:4" customFormat="1">
+      <c r="A193" s="2">
+        <v>192</v>
+      </c>
+      <c r="B193" s="5" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C193" s="2"/>
+      <c r="D193" s="25"/>
+    </row>
+    <row r="194" spans="1:4" customFormat="1">
+      <c r="A194" s="2">
+        <v>193</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C194" s="2"/>
+      <c r="D194" s="25"/>
+    </row>
+    <row r="195" spans="1:4" customFormat="1">
+      <c r="A195" s="2">
+        <v>194</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C195" s="2"/>
+      <c r="D195" s="25"/>
+    </row>
+    <row r="196" spans="1:4" customFormat="1">
+      <c r="A196" s="2">
+        <v>195</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C196" s="2"/>
+      <c r="D196" s="25"/>
+    </row>
+    <row r="197" spans="1:4" customFormat="1">
+      <c r="A197" s="2">
+        <v>196</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C197" s="2"/>
+      <c r="D197" s="25"/>
+    </row>
+    <row r="198" spans="1:4" customFormat="1">
+      <c r="A198" s="2">
+        <v>197</v>
+      </c>
+      <c r="B198" s="5" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C198" s="2"/>
+      <c r="D198" s="25"/>
+    </row>
+    <row r="199" spans="1:4" customFormat="1">
+      <c r="A199" s="2">
+        <v>198</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C199" s="2"/>
+      <c r="D199" s="25"/>
+    </row>
+    <row r="200" spans="1:4" customFormat="1">
+      <c r="A200" s="2">
+        <v>199</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C200" s="2"/>
+      <c r="D200" s="25"/>
+    </row>
+    <row r="201" spans="1:4" customFormat="1">
+      <c r="A201" s="2">
+        <v>200</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C201" s="2"/>
+      <c r="D201" s="25"/>
+    </row>
+    <row r="202" spans="1:4" customFormat="1">
+      <c r="A202" s="2">
+        <v>201</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C202" s="2"/>
+      <c r="D202" s="25"/>
+    </row>
+    <row r="203" spans="1:4" customFormat="1">
+      <c r="A203" s="2">
+        <v>202</v>
+      </c>
+      <c r="B203" s="5" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C203" s="2"/>
+      <c r="D203" s="25"/>
+    </row>
+    <row r="204" spans="1:4" customFormat="1">
+      <c r="A204" s="2">
+        <v>203</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C204" s="2"/>
+      <c r="D204" s="25"/>
+    </row>
+    <row r="205" spans="1:4" customFormat="1">
+      <c r="A205" s="2">
+        <v>204</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C205" s="2"/>
+      <c r="D205" s="25"/>
+    </row>
+    <row r="206" spans="1:4" customFormat="1">
+      <c r="A206" s="2">
+        <v>205</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C206" s="2"/>
+      <c r="D206" s="25"/>
+    </row>
+    <row r="207" spans="1:4" customFormat="1">
+      <c r="A207" s="2">
+        <v>206</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C207" s="2"/>
+      <c r="D207" s="25"/>
+    </row>
+    <row r="208" spans="1:4" customFormat="1">
+      <c r="A208" s="2">
+        <v>207</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C208" s="2"/>
+      <c r="D208" s="25"/>
+    </row>
+    <row r="209" spans="1:4" customFormat="1">
+      <c r="A209" s="2">
+        <v>208</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C209" s="2"/>
+      <c r="D209" s="25"/>
+    </row>
+    <row r="210" spans="1:4" customFormat="1">
+      <c r="A210" s="2">
+        <v>209</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C210" s="2"/>
+      <c r="D210" s="25"/>
+    </row>
+    <row r="211" spans="1:4" customFormat="1">
+      <c r="A211" s="2">
+        <v>210</v>
+      </c>
+      <c r="B211" s="5" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C211" s="2"/>
+      <c r="D211" s="25"/>
+    </row>
+    <row r="212" spans="1:4" customFormat="1">
+      <c r="A212" s="2">
+        <v>211</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C212" s="2"/>
+      <c r="D212" s="25"/>
+    </row>
+    <row r="213" spans="1:4" customFormat="1">
+      <c r="A213" s="2">
+        <v>212</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C213" s="2"/>
+      <c r="D213" s="25"/>
+    </row>
+    <row r="214" spans="1:4" customFormat="1">
+      <c r="A214" s="2">
+        <v>213</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C214" s="2"/>
+      <c r="D214" s="25"/>
+    </row>
+    <row r="215" spans="1:4" customFormat="1">
+      <c r="A215" s="2">
+        <v>214</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C215" s="2"/>
+      <c r="D215" s="25"/>
+    </row>
+    <row r="216" spans="1:4" customFormat="1">
+      <c r="A216" s="2">
+        <v>215</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C216" s="2"/>
+      <c r="D216" s="25"/>
+    </row>
+    <row r="217" spans="1:4" customFormat="1">
+      <c r="A217" s="2">
+        <v>216</v>
+      </c>
+      <c r="B217" s="5" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C217" s="2"/>
+      <c r="D217" s="25"/>
+    </row>
+    <row r="218" spans="1:4" customFormat="1">
+      <c r="A218" s="2">
+        <v>217</v>
+      </c>
+      <c r="B218" s="5" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C218" s="2"/>
+      <c r="D218" s="25"/>
+    </row>
+    <row r="219" spans="1:4" customFormat="1">
+      <c r="A219" s="2">
+        <v>218</v>
+      </c>
+      <c r="B219" s="5" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C219" s="2"/>
+      <c r="D219" s="25"/>
+    </row>
+    <row r="220" spans="1:4" customFormat="1">
+      <c r="A220" s="2">
+        <v>219</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C220" s="2"/>
+      <c r="D220" s="25"/>
+    </row>
+    <row r="221" spans="1:4" customFormat="1">
+      <c r="A221" s="2">
+        <v>220</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C221" s="2"/>
+      <c r="D221" s="25"/>
+    </row>
+    <row r="222" spans="1:4" customFormat="1">
+      <c r="A222" s="2">
+        <v>221</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C222" s="2"/>
+      <c r="D222" s="25"/>
+    </row>
+    <row r="223" spans="1:4" customFormat="1">
+      <c r="A223" s="2">
+        <v>222</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C223" s="2"/>
+      <c r="D223" s="25"/>
+    </row>
+    <row r="224" spans="1:4" customFormat="1">
+      <c r="A224" s="2">
+        <v>223</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C224" s="2"/>
+      <c r="D224" s="25"/>
+    </row>
+    <row r="225" spans="1:4" customFormat="1">
+      <c r="A225" s="2">
+        <v>224</v>
+      </c>
+      <c r="B225" s="5" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C225" s="2"/>
+      <c r="D225" s="25"/>
+    </row>
+    <row r="226" spans="1:4" customFormat="1">
+      <c r="A226" s="2">
+        <v>225</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C226" s="2"/>
+      <c r="D226" s="25"/>
+    </row>
+    <row r="227" spans="1:4" customFormat="1">
+      <c r="A227" s="2">
+        <v>226</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C227" s="2"/>
+      <c r="D227" s="25"/>
+    </row>
+    <row r="228" spans="1:4" customFormat="1">
+      <c r="A228" s="2">
+        <v>227</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C228" s="2"/>
+      <c r="D228" s="25"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5D61DE59-507B-634E-8E80-9B7AF1D51419}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5D61DE59-507B-634E-8E80-9B7AF1D51419}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G4</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B513156E-A152-6C44-9A33-59A0466FF482}">
   <dimension ref="A1:I435"/>
   <sheetViews>
@@ -11343,7 +14490,7 @@
       </c>
       <c r="H1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-04</v>
+        <v>截至2020-09-08</v>
       </c>
       <c r="I1" s="12"/>
     </row>
@@ -17514,7 +20661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4E069A-EFE1-2D4B-99C5-FCB39F52AB0C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -17527,7 +20674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50189AD7-1618-6046-8462-82CF9C61B6BB}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/学习进度.xlsx
+++ b/学习进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laohangdeche/Library/Mobile Documents/com~apple~CloudDocs/个人/学习笔记/Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9913F79-CB07-7D45-90DB-A55C1A94D5F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF6CC62-38A7-B94C-AEA8-526631426BFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="460" windowWidth="28300" windowHeight="16900" xr2:uid="{C7784454-BD36-8040-9BFE-2AD014209B0B}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="1566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="1566">
   <si>
     <t>01_Java语言发展史</t>
   </si>
@@ -5334,8 +5334,8 @@
   <dimension ref="A1:G562"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A284" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C306" sqref="C306"/>
+      <pane ySplit="1" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F316" sqref="F316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-08</v>
+        <v>截至2020-09-09</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="G2" s="12">
         <f>COUNTIF(C2:C562,"ok")</f>
-        <v>304</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1">
@@ -5404,7 +5404,7 @@
       </c>
       <c r="G3" s="12">
         <f>COUNTBLANK(C2:C562)</f>
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="G4" s="15">
         <f>G2/(G2+G3)</f>
-        <v>0.54188948306595364</v>
+        <v>0.56149732620320858</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1">
@@ -9443,8 +9443,12 @@
       <c r="B306" s="5" t="s">
         <v>1173</v>
       </c>
-      <c r="C306" s="2"/>
-      <c r="D306" s="25"/>
+      <c r="C306" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D306" s="25">
+        <v>44082</v>
+      </c>
     </row>
     <row r="307" spans="1:4" customFormat="1">
       <c r="A307" s="2">
@@ -9453,8 +9457,12 @@
       <c r="B307" s="5" t="s">
         <v>1174</v>
       </c>
-      <c r="C307" s="2"/>
-      <c r="D307" s="25"/>
+      <c r="C307" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D307" s="25">
+        <v>44083</v>
+      </c>
     </row>
     <row r="308" spans="1:4" customFormat="1">
       <c r="A308" s="2">
@@ -9463,8 +9471,12 @@
       <c r="B308" s="5" t="s">
         <v>1175</v>
       </c>
-      <c r="C308" s="2"/>
-      <c r="D308" s="25"/>
+      <c r="C308" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D308" s="25">
+        <v>44083</v>
+      </c>
     </row>
     <row r="309" spans="1:4" customFormat="1">
       <c r="A309" s="2">
@@ -9473,8 +9485,12 @@
       <c r="B309" s="5" t="s">
         <v>1176</v>
       </c>
-      <c r="C309" s="2"/>
-      <c r="D309" s="25"/>
+      <c r="C309" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D309" s="25">
+        <v>44083</v>
+      </c>
     </row>
     <row r="310" spans="1:4" customFormat="1">
       <c r="A310" s="2">
@@ -9483,8 +9499,12 @@
       <c r="B310" s="5" t="s">
         <v>1177</v>
       </c>
-      <c r="C310" s="2"/>
-      <c r="D310" s="25"/>
+      <c r="C310" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D310" s="25">
+        <v>44083</v>
+      </c>
     </row>
     <row r="311" spans="1:4" customFormat="1">
       <c r="A311" s="2">
@@ -9493,8 +9513,12 @@
       <c r="B311" s="5" t="s">
         <v>1178</v>
       </c>
-      <c r="C311" s="2"/>
-      <c r="D311" s="25"/>
+      <c r="C311" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D311" s="25">
+        <v>44083</v>
+      </c>
     </row>
     <row r="312" spans="1:4" customFormat="1">
       <c r="A312" s="2">
@@ -9503,8 +9527,12 @@
       <c r="B312" s="5" t="s">
         <v>1179</v>
       </c>
-      <c r="C312" s="2"/>
-      <c r="D312" s="25"/>
+      <c r="C312" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D312" s="25">
+        <v>44083</v>
+      </c>
     </row>
     <row r="313" spans="1:4" customFormat="1">
       <c r="A313" s="2">
@@ -9513,8 +9541,12 @@
       <c r="B313" s="5" t="s">
         <v>1180</v>
       </c>
-      <c r="C313" s="2"/>
-      <c r="D313" s="25"/>
+      <c r="C313" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D313" s="25">
+        <v>44083</v>
+      </c>
     </row>
     <row r="314" spans="1:4" customFormat="1">
       <c r="A314" s="2">
@@ -9523,8 +9555,12 @@
       <c r="B314" s="5" t="s">
         <v>1181</v>
       </c>
-      <c r="C314" s="2"/>
-      <c r="D314" s="25"/>
+      <c r="C314" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D314" s="25">
+        <v>44083</v>
+      </c>
     </row>
     <row r="315" spans="1:4" customFormat="1">
       <c r="A315" s="2">
@@ -9533,8 +9569,12 @@
       <c r="B315" s="5" t="s">
         <v>1182</v>
       </c>
-      <c r="C315" s="2"/>
-      <c r="D315" s="25"/>
+      <c r="C315" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D315" s="25">
+        <v>44083</v>
+      </c>
     </row>
     <row r="316" spans="1:4" customFormat="1">
       <c r="A316" s="2">
@@ -9543,8 +9583,12 @@
       <c r="B316" s="5" t="s">
         <v>1183</v>
       </c>
-      <c r="C316" s="2"/>
-      <c r="D316" s="25"/>
+      <c r="C316" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D316" s="25">
+        <v>44083</v>
+      </c>
     </row>
     <row r="317" spans="1:4" customFormat="1">
       <c r="A317" s="2">
@@ -12085,7 +12129,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-08</v>
+        <v>截至2020-09-09</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -14490,7 +14534,7 @@
       </c>
       <c r="H1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-08</v>
+        <v>截至2020-09-09</v>
       </c>
       <c r="I1" s="12"/>
     </row>

--- a/学习进度.xlsx
+++ b/学习进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laohangdeche/Library/Mobile Documents/com~apple~CloudDocs/个人/学习笔记/Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBFE416-0647-AD45-AE44-B361B9AAF939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25E5755-2CE4-4449-BA66-0D51A9B9EF40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="460" windowWidth="28300" windowHeight="16900" activeTab="1" xr2:uid="{C7784454-BD36-8040-9BFE-2AD014209B0B}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="2293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="2293">
   <si>
     <t>01_Java语言发展史</t>
   </si>
@@ -7748,7 +7748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD3A9F5-E3B9-294E-94C4-D90EDC24648C}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
@@ -7792,7 +7794,7 @@
       </c>
       <c r="D2" s="2">
         <f>Java_尚硅谷!G2</f>
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2">
         <f>Java_尚硅谷!G3+Java_尚硅谷!G2</f>
@@ -7800,7 +7802,7 @@
       </c>
       <c r="F2" s="15">
         <f>D2/E2</f>
-        <v>5.7182705718270568E-2</v>
+        <v>0.10460251046025104</v>
       </c>
       <c r="G2" s="25">
         <f>MAX(Java_尚硅谷!D2:D718)</f>
@@ -7932,8 +7934,8 @@
   <dimension ref="A1:G718"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -7985,7 +7987,7 @@
       </c>
       <c r="G2" s="12">
         <f>COUNTIF(C2:C562,"ok")</f>
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1">
@@ -8006,7 +8008,7 @@
       </c>
       <c r="G3" s="12">
         <f>COUNTBLANK(C2:C718)</f>
-        <v>676</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1">
@@ -8027,7 +8029,7 @@
       </c>
       <c r="G4" s="15">
         <f>G2/(G2+G3)</f>
-        <v>5.7182705718270568E-2</v>
+        <v>0.10460251046025104</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1">
@@ -8449,7 +8451,9 @@
       <c r="C34" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D34" s="25"/>
+      <c r="D34" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="35" spans="1:4" customFormat="1">
       <c r="A35" s="2">
@@ -8461,7 +8465,9 @@
       <c r="C35" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D35" s="25"/>
+      <c r="D35" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="36" spans="1:4" customFormat="1">
       <c r="A36" s="2">
@@ -8473,7 +8479,9 @@
       <c r="C36" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D36" s="25"/>
+      <c r="D36" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="37" spans="1:4" customFormat="1">
       <c r="A37" s="2">
@@ -8485,7 +8493,9 @@
       <c r="C37" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D37" s="25"/>
+      <c r="D37" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="38" spans="1:4" customFormat="1">
       <c r="A38" s="2">
@@ -8497,7 +8507,9 @@
       <c r="C38" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D38" s="25"/>
+      <c r="D38" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="39" spans="1:4" customFormat="1">
       <c r="A39" s="2">
@@ -8509,7 +8521,9 @@
       <c r="C39" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D39" s="25"/>
+      <c r="D39" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="40" spans="1:4" customFormat="1">
       <c r="A40" s="2">
@@ -8521,7 +8535,9 @@
       <c r="C40" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D40" s="25"/>
+      <c r="D40" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="41" spans="1:4" customFormat="1">
       <c r="A41" s="2">
@@ -8533,7 +8549,9 @@
       <c r="C41" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D41" s="25"/>
+      <c r="D41" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="42" spans="1:4" customFormat="1">
       <c r="A42" s="2">
@@ -8545,7 +8563,9 @@
       <c r="C42" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D42" s="25"/>
+      <c r="D42" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="43" spans="1:4" customFormat="1">
       <c r="A43" s="2">
@@ -8554,8 +8574,12 @@
       <c r="B43" s="5" t="s">
         <v>1608</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="25"/>
+      <c r="C43" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="44" spans="1:4" customFormat="1">
       <c r="A44" s="2">
@@ -8564,8 +8588,12 @@
       <c r="B44" s="5" t="s">
         <v>1609</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="25"/>
+      <c r="C44" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D44" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="45" spans="1:4" customFormat="1">
       <c r="A45" s="2">
@@ -8574,8 +8602,12 @@
       <c r="B45" s="5" t="s">
         <v>1610</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="25"/>
+      <c r="C45" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D45" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="46" spans="1:4" customFormat="1">
       <c r="A46" s="2">
@@ -8584,8 +8616,12 @@
       <c r="B46" s="5" t="s">
         <v>1611</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="25"/>
+      <c r="C46" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D46" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="47" spans="1:4" customFormat="1">
       <c r="A47" s="2">
@@ -8594,8 +8630,12 @@
       <c r="B47" s="5" t="s">
         <v>1612</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="25"/>
+      <c r="C47" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D47" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="48" spans="1:4" customFormat="1">
       <c r="A48" s="2">
@@ -8604,8 +8644,12 @@
       <c r="B48" s="5" t="s">
         <v>1613</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="25"/>
+      <c r="C48" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D48" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="49" spans="1:4" customFormat="1">
       <c r="A49" s="2">
@@ -8614,8 +8658,12 @@
       <c r="B49" s="5" t="s">
         <v>1614</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="25"/>
+      <c r="C49" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D49" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="50" spans="1:4" customFormat="1">
       <c r="A50" s="2">
@@ -8624,8 +8672,12 @@
       <c r="B50" s="5" t="s">
         <v>1615</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="25"/>
+      <c r="C50" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D50" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="51" spans="1:4" customFormat="1">
       <c r="A51" s="2">
@@ -8634,8 +8686,12 @@
       <c r="B51" s="5" t="s">
         <v>1616</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="25"/>
+      <c r="C51" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D51" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="52" spans="1:4" customFormat="1">
       <c r="A52" s="2">
@@ -8644,8 +8700,12 @@
       <c r="B52" s="5" t="s">
         <v>1617</v>
       </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="25"/>
+      <c r="C52" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D52" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="53" spans="1:4" customFormat="1">
       <c r="A53" s="2">
@@ -8654,8 +8714,12 @@
       <c r="B53" s="5" t="s">
         <v>1618</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="25"/>
+      <c r="C53" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D53" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="54" spans="1:4" customFormat="1">
       <c r="A54" s="2">
@@ -8664,8 +8728,12 @@
       <c r="B54" s="5" t="s">
         <v>1619</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="25"/>
+      <c r="C54" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D54" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="55" spans="1:4" customFormat="1">
       <c r="A55" s="2">
@@ -8674,8 +8742,12 @@
       <c r="B55" s="5" t="s">
         <v>1620</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="25"/>
+      <c r="C55" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D55" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="56" spans="1:4" customFormat="1">
       <c r="A56" s="2">
@@ -8684,8 +8756,12 @@
       <c r="B56" s="5" t="s">
         <v>1621</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="25"/>
+      <c r="C56" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D56" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="57" spans="1:4" customFormat="1">
       <c r="A57" s="2">
@@ -8694,8 +8770,12 @@
       <c r="B57" s="5" t="s">
         <v>1622</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="25"/>
+      <c r="C57" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D57" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="58" spans="1:4" customFormat="1">
       <c r="A58" s="2">
@@ -8704,8 +8784,12 @@
       <c r="B58" s="5" t="s">
         <v>1623</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="25"/>
+      <c r="C58" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D58" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="59" spans="1:4" customFormat="1">
       <c r="A59" s="2">
@@ -8714,8 +8798,12 @@
       <c r="B59" s="5" t="s">
         <v>1624</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="25"/>
+      <c r="C59" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D59" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="60" spans="1:4" customFormat="1">
       <c r="A60" s="2">
@@ -8724,8 +8812,12 @@
       <c r="B60" s="5" t="s">
         <v>1625</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="25"/>
+      <c r="C60" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D60" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="61" spans="1:4" customFormat="1">
       <c r="A61" s="2">
@@ -8734,8 +8826,12 @@
       <c r="B61" s="5" t="s">
         <v>1626</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="25"/>
+      <c r="C61" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D61" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="62" spans="1:4" customFormat="1">
       <c r="A62" s="2">
@@ -8744,8 +8840,12 @@
       <c r="B62" s="5" t="s">
         <v>1627</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="25"/>
+      <c r="C62" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D62" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="63" spans="1:4" customFormat="1">
       <c r="A63" s="2">
@@ -8754,8 +8854,12 @@
       <c r="B63" s="5" t="s">
         <v>1628</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="25"/>
+      <c r="C63" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D63" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="64" spans="1:4" customFormat="1">
       <c r="A64" s="2">
@@ -8764,8 +8868,12 @@
       <c r="B64" s="5" t="s">
         <v>1629</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="25"/>
+      <c r="C64" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D64" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="65" spans="1:4" customFormat="1">
       <c r="A65" s="2">
@@ -8774,8 +8882,12 @@
       <c r="B65" s="5" t="s">
         <v>1630</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="25"/>
+      <c r="C65" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D65" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="66" spans="1:4" customFormat="1">
       <c r="A66" s="2">
@@ -8784,8 +8896,12 @@
       <c r="B66" s="5" t="s">
         <v>1631</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="25"/>
+      <c r="C66" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D66" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="67" spans="1:4" customFormat="1">
       <c r="A67" s="2">
@@ -8794,8 +8910,12 @@
       <c r="B67" s="5" t="s">
         <v>1632</v>
       </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="25"/>
+      <c r="C67" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D67" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="68" spans="1:4" customFormat="1">
       <c r="A68" s="2">
@@ -8804,8 +8924,12 @@
       <c r="B68" s="5" t="s">
         <v>1633</v>
       </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="25"/>
+      <c r="C68" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D68" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="69" spans="1:4" customFormat="1">
       <c r="A69" s="2">
@@ -8814,8 +8938,12 @@
       <c r="B69" s="5" t="s">
         <v>1634</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="25"/>
+      <c r="C69" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D69" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="70" spans="1:4" customFormat="1">
       <c r="A70" s="2">
@@ -8824,8 +8952,12 @@
       <c r="B70" s="5" t="s">
         <v>1635</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="25"/>
+      <c r="C70" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D70" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="71" spans="1:4" customFormat="1">
       <c r="A71" s="2">
@@ -8834,8 +8966,12 @@
       <c r="B71" s="5" t="s">
         <v>1636</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="25"/>
+      <c r="C71" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D71" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="72" spans="1:4" customFormat="1">
       <c r="A72" s="2">
@@ -8844,8 +8980,12 @@
       <c r="B72" s="5" t="s">
         <v>1637</v>
       </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="25"/>
+      <c r="C72" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D72" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="73" spans="1:4" customFormat="1">
       <c r="A73" s="2">
@@ -8854,8 +8994,12 @@
       <c r="B73" s="5" t="s">
         <v>1638</v>
       </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="25"/>
+      <c r="C73" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D73" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="74" spans="1:4" customFormat="1">
       <c r="A74" s="2">
@@ -8864,8 +9008,12 @@
       <c r="B74" s="5" t="s">
         <v>1639</v>
       </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="25"/>
+      <c r="C74" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D74" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="75" spans="1:4" customFormat="1">
       <c r="A75" s="2">
@@ -8874,8 +9022,12 @@
       <c r="B75" s="5" t="s">
         <v>1640</v>
       </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="25"/>
+      <c r="C75" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D75" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="76" spans="1:4" customFormat="1">
       <c r="A76" s="2">
@@ -8884,8 +9036,12 @@
       <c r="B76" s="5" t="s">
         <v>1641</v>
       </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="25"/>
+      <c r="C76" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D76" s="25">
+        <v>44084</v>
+      </c>
     </row>
     <row r="77" spans="1:4" customFormat="1">
       <c r="A77" s="2">

--- a/学习进度.xlsx
+++ b/学习进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laohangdeche/Library/Mobile Documents/com~apple~CloudDocs/个人/学习笔记/Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25E5755-2CE4-4449-BA66-0D51A9B9EF40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E439BE0F-3AB5-0C4B-A156-23B86B8E8A68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="460" windowWidth="28300" windowHeight="16900" activeTab="1" xr2:uid="{C7784454-BD36-8040-9BFE-2AD014209B0B}"/>
+    <workbookView xWindow="220" yWindow="460" windowWidth="28300" windowHeight="16900" xr2:uid="{C7784454-BD36-8040-9BFE-2AD014209B0B}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2726" uniqueCount="2293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="2293">
   <si>
     <t>01_Java语言发展史</t>
   </si>
@@ -6959,7 +6959,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6999,6 +6999,12 @@
       <color theme="1"/>
       <name val="MicrosoftYaHei"/>
       <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="MicrosoftYaHei"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -7114,7 +7120,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7199,8 +7205,8 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7211,7 +7217,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7748,8 +7757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD3A9F5-E3B9-294E-94C4-D90EDC24648C}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -7760,13 +7769,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="28" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="28" t="s">
         <v>2283</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="28" t="s">
         <v>2284</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -7794,7 +7803,7 @@
       </c>
       <c r="D2" s="2">
         <f>Java_尚硅谷!G2</f>
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2">
         <f>Java_尚硅谷!G3+Java_尚硅谷!G2</f>
@@ -7802,11 +7811,11 @@
       </c>
       <c r="F2" s="15">
         <f>D2/E2</f>
-        <v>0.10460251046025104</v>
+        <v>0.17573221757322174</v>
       </c>
       <c r="G2" s="25">
         <f>MAX(Java_尚硅谷!D2:D718)</f>
-        <v>44084</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7821,19 +7830,19 @@
       </c>
       <c r="D3" s="2">
         <f>Java_黑马!G2</f>
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E3" s="2">
         <f>Java_黑马!G2+Java_黑马!G3</f>
         <v>561</v>
       </c>
       <c r="F3" s="15">
-        <f t="shared" ref="F3:F6" si="0">D3/E3</f>
-        <v>0.57219251336898391</v>
+        <f t="shared" ref="F3:F4" si="0">D3/E3</f>
+        <v>0.57754010695187163</v>
       </c>
       <c r="G3" s="25">
         <f>MAX(Java_黑马!D2:D562)</f>
-        <v>44084</v>
+        <v>44085</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7933,9 +7942,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB657C6-0FE4-2342-8CC8-66427A454229}">
   <dimension ref="A1:G718"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A457" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B454" sqref="B454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -7965,7 +7974,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-10</v>
+        <v>截至2020-09-11</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -7987,7 +7996,7 @@
       </c>
       <c r="G2" s="12">
         <f>COUNTIF(C2:C562,"ok")</f>
-        <v>75</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1">
@@ -8008,7 +8017,7 @@
       </c>
       <c r="G3" s="12">
         <f>COUNTBLANK(C2:C718)</f>
-        <v>642</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1">
@@ -8029,7 +8038,7 @@
       </c>
       <c r="G4" s="15">
         <f>G2/(G2+G3)</f>
-        <v>0.10460251046025104</v>
+        <v>0.17573221757322174</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1">
@@ -9050,8 +9059,12 @@
       <c r="B77" s="5" t="s">
         <v>1642</v>
       </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="25"/>
+      <c r="C77" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D77" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="78" spans="1:4" customFormat="1">
       <c r="A78" s="2">
@@ -9060,8 +9073,12 @@
       <c r="B78" s="5" t="s">
         <v>1643</v>
       </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="25"/>
+      <c r="C78" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D78" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="79" spans="1:4" customFormat="1">
       <c r="A79" s="2">
@@ -9070,8 +9087,12 @@
       <c r="B79" s="5" t="s">
         <v>1644</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="25"/>
+      <c r="C79" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D79" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="80" spans="1:4" customFormat="1">
       <c r="A80" s="2">
@@ -9080,8 +9101,12 @@
       <c r="B80" s="5" t="s">
         <v>1645</v>
       </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="25"/>
+      <c r="C80" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D80" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="81" spans="1:4" customFormat="1">
       <c r="A81" s="2">
@@ -9090,8 +9115,12 @@
       <c r="B81" s="5" t="s">
         <v>1646</v>
       </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="25"/>
+      <c r="C81" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D81" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="82" spans="1:4" customFormat="1">
       <c r="A82" s="2">
@@ -9100,8 +9129,12 @@
       <c r="B82" s="5" t="s">
         <v>1647</v>
       </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="25"/>
+      <c r="C82" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D82" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="83" spans="1:4" customFormat="1">
       <c r="A83" s="2">
@@ -9110,8 +9143,12 @@
       <c r="B83" s="5" t="s">
         <v>1648</v>
       </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="25"/>
+      <c r="C83" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D83" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="84" spans="1:4" customFormat="1">
       <c r="A84" s="2">
@@ -9120,8 +9157,12 @@
       <c r="B84" s="5" t="s">
         <v>1649</v>
       </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="25"/>
+      <c r="C84" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D84" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="85" spans="1:4" customFormat="1">
       <c r="A85" s="2">
@@ -9130,8 +9171,12 @@
       <c r="B85" s="5" t="s">
         <v>1650</v>
       </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="25"/>
+      <c r="C85" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D85" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="86" spans="1:4" customFormat="1">
       <c r="A86" s="2">
@@ -9140,8 +9185,12 @@
       <c r="B86" s="5" t="s">
         <v>1651</v>
       </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="25"/>
+      <c r="C86" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D86" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="87" spans="1:4" customFormat="1">
       <c r="A87" s="2">
@@ -9150,8 +9199,12 @@
       <c r="B87" s="5" t="s">
         <v>1652</v>
       </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="25"/>
+      <c r="C87" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D87" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="88" spans="1:4" customFormat="1">
       <c r="A88" s="2">
@@ -9160,8 +9213,12 @@
       <c r="B88" s="5" t="s">
         <v>1653</v>
       </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="25"/>
+      <c r="C88" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D88" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="89" spans="1:4" customFormat="1">
       <c r="A89" s="2">
@@ -9170,8 +9227,12 @@
       <c r="B89" s="5" t="s">
         <v>1654</v>
       </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="25"/>
+      <c r="C89" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D89" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="90" spans="1:4" customFormat="1">
       <c r="A90" s="2">
@@ -9180,8 +9241,12 @@
       <c r="B90" s="5" t="s">
         <v>1655</v>
       </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="25"/>
+      <c r="C90" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D90" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="91" spans="1:4" customFormat="1">
       <c r="A91" s="2">
@@ -9190,8 +9255,12 @@
       <c r="B91" s="5" t="s">
         <v>1656</v>
       </c>
-      <c r="C91" s="2"/>
-      <c r="D91" s="25"/>
+      <c r="C91" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D91" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="92" spans="1:4" customFormat="1">
       <c r="A92" s="2">
@@ -9200,8 +9269,12 @@
       <c r="B92" s="5" t="s">
         <v>1657</v>
       </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="25"/>
+      <c r="C92" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D92" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="93" spans="1:4" customFormat="1">
       <c r="A93" s="2">
@@ -9210,8 +9283,12 @@
       <c r="B93" s="5" t="s">
         <v>1658</v>
       </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="25"/>
+      <c r="C93" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D93" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="94" spans="1:4" customFormat="1">
       <c r="A94" s="2">
@@ -9220,8 +9297,12 @@
       <c r="B94" s="5" t="s">
         <v>1659</v>
       </c>
-      <c r="C94" s="2"/>
-      <c r="D94" s="25"/>
+      <c r="C94" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D94" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="95" spans="1:4" customFormat="1">
       <c r="A95" s="2">
@@ -9230,8 +9311,12 @@
       <c r="B95" s="5" t="s">
         <v>1660</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="25"/>
+      <c r="C95" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D95" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="96" spans="1:4" customFormat="1">
       <c r="A96" s="2">
@@ -9240,8 +9325,12 @@
       <c r="B96" s="5" t="s">
         <v>1661</v>
       </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="25"/>
+      <c r="C96" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D96" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="97" spans="1:4" customFormat="1">
       <c r="A97" s="2">
@@ -9250,8 +9339,12 @@
       <c r="B97" s="5" t="s">
         <v>1662</v>
       </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="25"/>
+      <c r="C97" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D97" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="98" spans="1:4" customFormat="1">
       <c r="A98" s="2">
@@ -9260,8 +9353,12 @@
       <c r="B98" s="5" t="s">
         <v>1663</v>
       </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="25"/>
+      <c r="C98" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D98" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="99" spans="1:4" customFormat="1">
       <c r="A99" s="2">
@@ -9270,8 +9367,12 @@
       <c r="B99" s="5" t="s">
         <v>1664</v>
       </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="25"/>
+      <c r="C99" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D99" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="100" spans="1:4" customFormat="1">
       <c r="A100" s="2">
@@ -9280,8 +9381,12 @@
       <c r="B100" s="5" t="s">
         <v>1665</v>
       </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="25"/>
+      <c r="C100" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D100" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="101" spans="1:4" customFormat="1">
       <c r="A101" s="2">
@@ -9290,8 +9395,12 @@
       <c r="B101" s="5" t="s">
         <v>1666</v>
       </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="25"/>
+      <c r="C101" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D101" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="102" spans="1:4" customFormat="1">
       <c r="A102" s="2">
@@ -9300,8 +9409,12 @@
       <c r="B102" s="5" t="s">
         <v>1667</v>
       </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="25"/>
+      <c r="C102" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D102" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="103" spans="1:4" customFormat="1">
       <c r="A103" s="2">
@@ -9310,8 +9423,12 @@
       <c r="B103" s="5" t="s">
         <v>1668</v>
       </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="25"/>
+      <c r="C103" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D103" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="104" spans="1:4" customFormat="1">
       <c r="A104" s="2">
@@ -9320,8 +9437,12 @@
       <c r="B104" s="5" t="s">
         <v>1669</v>
       </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="25"/>
+      <c r="C104" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D104" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="105" spans="1:4" customFormat="1">
       <c r="A105" s="2">
@@ -9330,8 +9451,12 @@
       <c r="B105" s="5" t="s">
         <v>1670</v>
       </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="25"/>
+      <c r="C105" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D105" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="106" spans="1:4" customFormat="1">
       <c r="A106" s="2">
@@ -9340,8 +9465,12 @@
       <c r="B106" s="5" t="s">
         <v>1671</v>
       </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="25"/>
+      <c r="C106" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D106" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="107" spans="1:4" customFormat="1">
       <c r="A107" s="2">
@@ -9350,8 +9479,12 @@
       <c r="B107" s="5" t="s">
         <v>1672</v>
       </c>
-      <c r="C107" s="2"/>
-      <c r="D107" s="25"/>
+      <c r="C107" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D107" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="108" spans="1:4" customFormat="1">
       <c r="A108" s="2">
@@ -9360,8 +9493,12 @@
       <c r="B108" s="5" t="s">
         <v>1673</v>
       </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="25"/>
+      <c r="C108" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D108" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="109" spans="1:4" customFormat="1">
       <c r="A109" s="2">
@@ -9370,8 +9507,12 @@
       <c r="B109" s="5" t="s">
         <v>1674</v>
       </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="25"/>
+      <c r="C109" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D109" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="110" spans="1:4" customFormat="1">
       <c r="A110" s="2">
@@ -9380,8 +9521,12 @@
       <c r="B110" s="5" t="s">
         <v>1675</v>
       </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="25"/>
+      <c r="C110" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D110" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="111" spans="1:4" customFormat="1">
       <c r="A111" s="2">
@@ -9390,8 +9535,12 @@
       <c r="B111" s="5" t="s">
         <v>1676</v>
       </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="25"/>
+      <c r="C111" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D111" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="112" spans="1:4" customFormat="1">
       <c r="A112" s="2">
@@ -9400,8 +9549,12 @@
       <c r="B112" s="5" t="s">
         <v>1677</v>
       </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="25"/>
+      <c r="C112" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D112" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="113" spans="1:6" customFormat="1">
       <c r="A113" s="2">
@@ -9410,8 +9563,12 @@
       <c r="B113" s="5" t="s">
         <v>1678</v>
       </c>
-      <c r="C113" s="2"/>
-      <c r="D113" s="25"/>
+      <c r="C113" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D113" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="114" spans="1:6" customFormat="1">
       <c r="A114" s="2">
@@ -9420,8 +9577,12 @@
       <c r="B114" s="5" t="s">
         <v>1679</v>
       </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="25"/>
+      <c r="C114" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D114" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="115" spans="1:6" customFormat="1">
       <c r="A115" s="2">
@@ -9430,8 +9591,12 @@
       <c r="B115" s="5" t="s">
         <v>1680</v>
       </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="26"/>
+      <c r="C115" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D115" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="116" spans="1:6" customFormat="1">
       <c r="A116" s="2">
@@ -9440,8 +9605,12 @@
       <c r="B116" s="5" t="s">
         <v>1681</v>
       </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="26"/>
+      <c r="C116" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D116" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="117" spans="1:6" customFormat="1">
       <c r="A117" s="2">
@@ -9450,8 +9619,12 @@
       <c r="B117" s="5" t="s">
         <v>1682</v>
       </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="26"/>
+      <c r="C117" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D117" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="118" spans="1:6" customFormat="1">
       <c r="A118" s="2">
@@ -9460,8 +9633,12 @@
       <c r="B118" s="5" t="s">
         <v>1683</v>
       </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="26"/>
+      <c r="C118" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D118" s="25">
+        <v>44085</v>
+      </c>
       <c r="F118" s="7"/>
     </row>
     <row r="119" spans="1:6" customFormat="1">
@@ -9471,8 +9648,12 @@
       <c r="B119" s="5" t="s">
         <v>1684</v>
       </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="26"/>
+      <c r="C119" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D119" s="25">
+        <v>44085</v>
+      </c>
       <c r="F119" s="7"/>
     </row>
     <row r="120" spans="1:6" customFormat="1">
@@ -9482,8 +9663,12 @@
       <c r="B120" s="5" t="s">
         <v>1685</v>
       </c>
-      <c r="C120" s="2"/>
-      <c r="D120" s="26"/>
+      <c r="C120" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D120" s="25">
+        <v>44085</v>
+      </c>
       <c r="F120" s="7"/>
     </row>
     <row r="121" spans="1:6" customFormat="1">
@@ -9493,8 +9678,12 @@
       <c r="B121" s="5" t="s">
         <v>1686</v>
       </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="26"/>
+      <c r="C121" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D121" s="25">
+        <v>44085</v>
+      </c>
       <c r="F121" s="7"/>
     </row>
     <row r="122" spans="1:6" customFormat="1">
@@ -9504,30 +9693,42 @@
       <c r="B122" s="5" t="s">
         <v>1687</v>
       </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="26"/>
+      <c r="C122" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D122" s="25">
+        <v>44085</v>
+      </c>
       <c r="F122" s="7"/>
     </row>
     <row r="123" spans="1:6" customFormat="1">
       <c r="A123" s="2">
         <v>122</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="33" t="s">
         <v>1688</v>
       </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="26"/>
+      <c r="C123" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D123" s="25">
+        <v>44085</v>
+      </c>
       <c r="F123" s="7"/>
     </row>
     <row r="124" spans="1:6" customFormat="1">
       <c r="A124" s="2">
         <v>123</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="33" t="s">
         <v>1689</v>
       </c>
-      <c r="C124" s="2"/>
-      <c r="D124" s="26"/>
+      <c r="C124" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D124" s="25">
+        <v>44085</v>
+      </c>
       <c r="F124" s="7"/>
     </row>
     <row r="125" spans="1:6" customFormat="1">
@@ -9537,8 +9738,12 @@
       <c r="B125" s="5" t="s">
         <v>1690</v>
       </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="26"/>
+      <c r="C125" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D125" s="25">
+        <v>44085</v>
+      </c>
       <c r="F125" s="7"/>
     </row>
     <row r="126" spans="1:6" customFormat="1">
@@ -9548,8 +9753,12 @@
       <c r="B126" s="5" t="s">
         <v>1691</v>
       </c>
-      <c r="C126" s="2"/>
-      <c r="D126" s="26"/>
+      <c r="C126" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D126" s="25">
+        <v>44085</v>
+      </c>
       <c r="F126" s="7"/>
     </row>
     <row r="127" spans="1:6" customFormat="1">
@@ -9559,8 +9768,12 @@
       <c r="B127" s="5" t="s">
         <v>1692</v>
       </c>
-      <c r="C127" s="2"/>
-      <c r="D127" s="25"/>
+      <c r="C127" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D127" s="25">
+        <v>44085</v>
+      </c>
       <c r="F127" s="7"/>
     </row>
     <row r="128" spans="1:6" customFormat="1">
@@ -15526,8 +15739,8 @@
   <dimension ref="A1:G562"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B338" sqref="B338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -15557,7 +15770,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-10</v>
+        <v>截至2020-09-11</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -15577,7 +15790,7 @@
       </c>
       <c r="G2" s="12">
         <f>COUNTIF(C2:C562,"ok")</f>
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1">
@@ -15596,7 +15809,7 @@
       </c>
       <c r="G3" s="12">
         <f>COUNTBLANK(C2:C562)</f>
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1">
@@ -15615,7 +15828,7 @@
       </c>
       <c r="G4" s="15">
         <f>G2/(G2+G3)</f>
-        <v>0.57219251336898391</v>
+        <v>0.57754010695187163</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1">
@@ -19943,8 +20156,12 @@
       <c r="B330" s="5" t="s">
         <v>1196</v>
       </c>
-      <c r="C330" s="2"/>
-      <c r="D330" s="25"/>
+      <c r="C330" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D330" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="331" spans="1:4" customFormat="1">
       <c r="A331" s="2">
@@ -19953,8 +20170,12 @@
       <c r="B331" s="5" t="s">
         <v>1197</v>
       </c>
-      <c r="C331" s="2"/>
-      <c r="D331" s="25"/>
+      <c r="C331" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D331" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="332" spans="1:4" customFormat="1">
       <c r="A332" s="2">
@@ -19963,8 +20184,12 @@
       <c r="B332" s="5" t="s">
         <v>1198</v>
       </c>
-      <c r="C332" s="2"/>
-      <c r="D332" s="25"/>
+      <c r="C332" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D332" s="25">
+        <v>44085</v>
+      </c>
     </row>
     <row r="333" spans="1:4" customFormat="1">
       <c r="A333" s="2">
@@ -22346,7 +22571,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-10</v>
+        <v>截至2020-09-11</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -24752,12 +24977,12 @@
       </c>
       <c r="H1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-10</v>
+        <v>截至2020-09-11</v>
       </c>
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" customFormat="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="32" t="s">
         <v>1016</v>
       </c>
       <c r="B2" s="20">
@@ -24780,7 +25005,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" customFormat="1">
-      <c r="A3" s="28"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="20">
         <v>1.2</v>
       </c>
@@ -24801,7 +25026,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" customFormat="1">
-      <c r="A4" s="28"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="20" t="s">
         <v>261</v>
       </c>
@@ -24822,7 +25047,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" customFormat="1">
-      <c r="A5" s="28"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="20" t="s">
         <v>262</v>
       </c>
@@ -24836,7 +25061,7 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:9" customFormat="1">
-      <c r="A6" s="28"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="20" t="s">
         <v>263</v>
       </c>
@@ -24851,7 +25076,7 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:9" customFormat="1">
-      <c r="A7" s="28"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="20" t="s">
         <v>264</v>
       </c>
@@ -24866,7 +25091,7 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9" customFormat="1">
-      <c r="A8" s="28"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="20" t="s">
         <v>265</v>
       </c>
@@ -24880,7 +25105,7 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:9" customFormat="1">
-      <c r="A9" s="28"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="20" t="s">
         <v>266</v>
       </c>
@@ -24895,7 +25120,7 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:9" customFormat="1">
-      <c r="A10" s="28"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="20" t="s">
         <v>267</v>
       </c>
@@ -24909,7 +25134,7 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:9" customFormat="1">
-      <c r="A11" s="28"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="20" t="s">
         <v>268</v>
       </c>
@@ -24923,7 +25148,7 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:9" customFormat="1">
-      <c r="A12" s="28"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="20" t="s">
         <v>269</v>
       </c>
@@ -24937,7 +25162,7 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:9" customFormat="1">
-      <c r="A13" s="28"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="20" t="s">
         <v>270</v>
       </c>
@@ -24951,7 +25176,7 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:9" customFormat="1">
-      <c r="A14" s="28"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="20" t="s">
         <v>271</v>
       </c>
@@ -24965,7 +25190,7 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:9" customFormat="1">
-      <c r="A15" s="28"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="20">
         <v>1.3</v>
       </c>
@@ -24979,7 +25204,7 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:9" customFormat="1">
-      <c r="A16" s="28"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="20">
         <v>1.4</v>
       </c>
@@ -24993,7 +25218,7 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" customFormat="1">
-      <c r="A17" s="28"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="20">
         <v>1.5</v>
       </c>
@@ -25007,7 +25232,7 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" customFormat="1">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="32" t="s">
         <v>1017</v>
       </c>
       <c r="B18" s="20">
@@ -25023,7 +25248,7 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" customFormat="1">
-      <c r="A19" s="28"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="20" t="s">
         <v>272</v>
       </c>
@@ -25037,7 +25262,7 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" customFormat="1">
-      <c r="A20" s="28"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="20" t="s">
         <v>273</v>
       </c>
@@ -25051,7 +25276,7 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" customFormat="1">
-      <c r="A21" s="28"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="20" t="s">
         <v>274</v>
       </c>
@@ -25065,7 +25290,7 @@
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" customFormat="1">
-      <c r="A22" s="28"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="20">
         <v>2.2000000000000002</v>
       </c>
@@ -25079,7 +25304,7 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" customFormat="1">
-      <c r="A23" s="28"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="20">
         <v>2.2999999999999998</v>
       </c>
@@ -25093,7 +25318,7 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" customFormat="1">
-      <c r="A24" s="28"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="20">
         <v>2.4</v>
       </c>
@@ -25107,7 +25332,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" customFormat="1">
-      <c r="A25" s="28"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="20">
         <v>2.5</v>
       </c>
@@ -25121,7 +25346,7 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" customFormat="1">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="32" t="s">
         <v>1027</v>
       </c>
       <c r="B26" s="20">
@@ -25137,7 +25362,7 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" customFormat="1">
-      <c r="A27" s="28"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="20">
         <v>3.2</v>
       </c>
@@ -25151,7 +25376,7 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" customFormat="1">
-      <c r="A28" s="28"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="20">
         <v>3.3</v>
       </c>
@@ -25165,7 +25390,7 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" customFormat="1">
-      <c r="A29" s="28"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="20" t="s">
         <v>275</v>
       </c>
@@ -25179,7 +25404,7 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" customFormat="1">
-      <c r="A30" s="28"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="20" t="s">
         <v>276</v>
       </c>
@@ -25193,7 +25418,7 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" customFormat="1">
-      <c r="A31" s="28"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="20" t="s">
         <v>277</v>
       </c>
@@ -25207,7 +25432,7 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" customFormat="1">
-      <c r="A32" s="28"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="20" t="s">
         <v>278</v>
       </c>
@@ -25221,7 +25446,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" customFormat="1">
-      <c r="A33" s="28"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="20" t="s">
         <v>279</v>
       </c>
@@ -25235,7 +25460,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" customFormat="1">
-      <c r="A34" s="28"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="20">
         <v>3.4</v>
       </c>
@@ -25249,7 +25474,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" customFormat="1">
-      <c r="A35" s="28"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="20" t="s">
         <v>280</v>
       </c>
@@ -25263,7 +25488,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" customFormat="1">
-      <c r="A36" s="28"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="20" t="s">
         <v>281</v>
       </c>
@@ -25277,7 +25502,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" customFormat="1">
-      <c r="A37" s="28"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="20">
         <v>3.5</v>
       </c>
@@ -25291,7 +25516,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" customFormat="1">
-      <c r="A38" s="28"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="20" t="s">
         <v>282</v>
       </c>
@@ -25305,7 +25530,7 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" customFormat="1">
-      <c r="A39" s="28"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="20" t="s">
         <v>283</v>
       </c>
@@ -25319,7 +25544,7 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" customFormat="1">
-      <c r="A40" s="28"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="20" t="s">
         <v>284</v>
       </c>
@@ -25333,7 +25558,7 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" customFormat="1">
-      <c r="A41" s="28"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="20" t="s">
         <v>285</v>
       </c>
@@ -25347,7 +25572,7 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" customFormat="1">
-      <c r="A42" s="28"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="20" t="s">
         <v>286</v>
       </c>
@@ -25361,7 +25586,7 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" customFormat="1">
-      <c r="A43" s="28"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="20" t="s">
         <v>287</v>
       </c>
@@ -25375,7 +25600,7 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" customFormat="1">
-      <c r="A44" s="28"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="20" t="s">
         <v>288</v>
       </c>
@@ -25389,7 +25614,7 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" customFormat="1">
-      <c r="A45" s="28"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="20" t="s">
         <v>289</v>
       </c>
@@ -25403,7 +25628,7 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" customFormat="1">
-      <c r="A46" s="28"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="20" t="s">
         <v>290</v>
       </c>
@@ -25417,7 +25642,7 @@
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" customFormat="1">
-      <c r="A47" s="28"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="20">
         <v>3.6</v>
       </c>
@@ -25431,7 +25656,7 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" customFormat="1">
-      <c r="A48" s="28"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="20" t="s">
         <v>291</v>
       </c>
@@ -25445,7 +25670,7 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" customFormat="1">
-      <c r="A49" s="28"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="20" t="s">
         <v>292</v>
       </c>
@@ -25459,7 +25684,7 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" customFormat="1">
-      <c r="A50" s="28"/>
+      <c r="A50" s="32"/>
       <c r="B50" s="20" t="s">
         <v>293</v>
       </c>
@@ -25473,7 +25698,7 @@
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" customFormat="1">
-      <c r="A51" s="28"/>
+      <c r="A51" s="32"/>
       <c r="B51" s="20" t="s">
         <v>294</v>
       </c>
@@ -25487,7 +25712,7 @@
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" customFormat="1">
-      <c r="A52" s="28"/>
+      <c r="A52" s="32"/>
       <c r="B52" s="20" t="s">
         <v>295</v>
       </c>
@@ -25501,7 +25726,7 @@
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" customFormat="1">
-      <c r="A53" s="28"/>
+      <c r="A53" s="32"/>
       <c r="B53" s="20" t="s">
         <v>296</v>
       </c>
@@ -25515,7 +25740,7 @@
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" customFormat="1">
-      <c r="A54" s="28"/>
+      <c r="A54" s="32"/>
       <c r="B54" s="20" t="s">
         <v>297</v>
       </c>
@@ -25529,7 +25754,7 @@
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" customFormat="1">
-      <c r="A55" s="28"/>
+      <c r="A55" s="32"/>
       <c r="B55" s="20" t="s">
         <v>298</v>
       </c>
@@ -25543,7 +25768,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" customFormat="1">
-      <c r="A56" s="28"/>
+      <c r="A56" s="32"/>
       <c r="B56" s="20" t="s">
         <v>299</v>
       </c>
@@ -25557,7 +25782,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" customFormat="1">
-      <c r="A57" s="28"/>
+      <c r="A57" s="32"/>
       <c r="B57" s="20">
         <v>3.7</v>
       </c>
@@ -25571,7 +25796,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" customFormat="1">
-      <c r="A58" s="28"/>
+      <c r="A58" s="32"/>
       <c r="B58" s="20" t="s">
         <v>300</v>
       </c>
@@ -25585,7 +25810,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" customFormat="1">
-      <c r="A59" s="28"/>
+      <c r="A59" s="32"/>
       <c r="B59" s="20" t="s">
         <v>301</v>
       </c>
@@ -25599,7 +25824,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" customFormat="1">
-      <c r="A60" s="28"/>
+      <c r="A60" s="32"/>
       <c r="B60" s="20" t="s">
         <v>302</v>
       </c>
@@ -25613,7 +25838,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" customFormat="1">
-      <c r="A61" s="28"/>
+      <c r="A61" s="32"/>
       <c r="B61" s="20">
         <v>3.8</v>
       </c>
@@ -25627,7 +25852,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" customFormat="1">
-      <c r="A62" s="28"/>
+      <c r="A62" s="32"/>
       <c r="B62" s="20" t="s">
         <v>303</v>
       </c>
@@ -25641,7 +25866,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" customFormat="1">
-      <c r="A63" s="28"/>
+      <c r="A63" s="32"/>
       <c r="B63" s="20" t="s">
         <v>304</v>
       </c>
@@ -25655,7 +25880,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" customFormat="1">
-      <c r="A64" s="28"/>
+      <c r="A64" s="32"/>
       <c r="B64" s="20" t="s">
         <v>305</v>
       </c>
@@ -25669,7 +25894,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" customFormat="1">
-      <c r="A65" s="28"/>
+      <c r="A65" s="32"/>
       <c r="B65" s="20" t="s">
         <v>306</v>
       </c>
@@ -25683,7 +25908,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" customFormat="1">
-      <c r="A66" s="28"/>
+      <c r="A66" s="32"/>
       <c r="B66" s="20" t="s">
         <v>307</v>
       </c>
@@ -25697,7 +25922,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" customFormat="1">
-      <c r="A67" s="28"/>
+      <c r="A67" s="32"/>
       <c r="B67" s="20" t="s">
         <v>308</v>
       </c>
@@ -25711,7 +25936,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" customFormat="1">
-      <c r="A68" s="28"/>
+      <c r="A68" s="32"/>
       <c r="B68" s="20">
         <v>3.9</v>
       </c>
@@ -25725,7 +25950,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" customFormat="1">
-      <c r="A69" s="28"/>
+      <c r="A69" s="32"/>
       <c r="B69" s="20">
         <v>3.1</v>
       </c>
@@ -25739,7 +25964,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" customFormat="1">
-      <c r="A70" s="28"/>
+      <c r="A70" s="32"/>
       <c r="B70" s="20" t="s">
         <v>309</v>
       </c>
@@ -25753,7 +25978,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" customFormat="1">
-      <c r="A71" s="28"/>
+      <c r="A71" s="32"/>
       <c r="B71" s="20" t="s">
         <v>310</v>
       </c>
@@ -25767,7 +25992,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" customFormat="1">
-      <c r="A72" s="28"/>
+      <c r="A72" s="32"/>
       <c r="B72" s="20" t="s">
         <v>311</v>
       </c>
@@ -25781,7 +26006,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" customFormat="1">
-      <c r="A73" s="28"/>
+      <c r="A73" s="32"/>
       <c r="B73" s="20" t="s">
         <v>312</v>
       </c>
@@ -25795,7 +26020,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" customFormat="1">
-      <c r="A74" s="28"/>
+      <c r="A74" s="32"/>
       <c r="B74" s="20" t="s">
         <v>313</v>
       </c>
@@ -25809,7 +26034,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" customFormat="1">
-      <c r="A75" s="28"/>
+      <c r="A75" s="32"/>
       <c r="B75" s="20" t="s">
         <v>314</v>
       </c>
@@ -25823,7 +26048,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" customFormat="1">
-      <c r="A76" s="28"/>
+      <c r="A76" s="32"/>
       <c r="B76" s="20" t="s">
         <v>315</v>
       </c>
@@ -25837,7 +26062,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" customFormat="1">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="32" t="s">
         <v>1028</v>
       </c>
       <c r="B77" s="20">
@@ -25853,7 +26078,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" customFormat="1">
-      <c r="A78" s="28"/>
+      <c r="A78" s="32"/>
       <c r="B78" s="20" t="s">
         <v>316</v>
       </c>
@@ -25867,7 +26092,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" customFormat="1">
-      <c r="A79" s="28"/>
+      <c r="A79" s="32"/>
       <c r="B79" s="20" t="s">
         <v>317</v>
       </c>
@@ -25881,7 +26106,7 @@
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" customFormat="1">
-      <c r="A80" s="28"/>
+      <c r="A80" s="32"/>
       <c r="B80" s="20" t="s">
         <v>318</v>
       </c>
@@ -25895,7 +26120,7 @@
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" customFormat="1">
-      <c r="A81" s="28"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="20" t="s">
         <v>319</v>
       </c>
@@ -25909,7 +26134,7 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" customFormat="1">
-      <c r="A82" s="28"/>
+      <c r="A82" s="32"/>
       <c r="B82" s="20">
         <v>4.2</v>
       </c>
@@ -25923,7 +26148,7 @@
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" customFormat="1">
-      <c r="A83" s="28"/>
+      <c r="A83" s="32"/>
       <c r="B83" s="20" t="s">
         <v>320</v>
       </c>
@@ -25937,7 +26162,7 @@
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" customFormat="1">
-      <c r="A84" s="28"/>
+      <c r="A84" s="32"/>
       <c r="B84" s="20" t="s">
         <v>321</v>
       </c>
@@ -25951,7 +26176,7 @@
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" customFormat="1">
-      <c r="A85" s="28"/>
+      <c r="A85" s="32"/>
       <c r="B85" s="20" t="s">
         <v>322</v>
       </c>
@@ -25965,7 +26190,7 @@
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" customFormat="1">
-      <c r="A86" s="28"/>
+      <c r="A86" s="32"/>
       <c r="B86" s="20">
         <v>4.3</v>
       </c>
@@ -25979,7 +26204,7 @@
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" customFormat="1">
-      <c r="A87" s="28"/>
+      <c r="A87" s="32"/>
       <c r="B87" s="20" t="s">
         <v>323</v>
       </c>
@@ -25993,7 +26218,7 @@
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" customFormat="1">
-      <c r="A88" s="28"/>
+      <c r="A88" s="32"/>
       <c r="B88" s="20" t="s">
         <v>324</v>
       </c>
@@ -26007,7 +26232,7 @@
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" customFormat="1">
-      <c r="A89" s="28"/>
+      <c r="A89" s="32"/>
       <c r="B89" s="20" t="s">
         <v>325</v>
       </c>
@@ -26021,7 +26246,7 @@
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" customFormat="1">
-      <c r="A90" s="28"/>
+      <c r="A90" s="32"/>
       <c r="B90" s="20" t="s">
         <v>326</v>
       </c>
@@ -26035,7 +26260,7 @@
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" customFormat="1">
-      <c r="A91" s="28"/>
+      <c r="A91" s="32"/>
       <c r="B91" s="20" t="s">
         <v>327</v>
       </c>
@@ -26049,7 +26274,7 @@
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" customFormat="1">
-      <c r="A92" s="28"/>
+      <c r="A92" s="32"/>
       <c r="B92" s="20" t="s">
         <v>328</v>
       </c>
@@ -26063,7 +26288,7 @@
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" customFormat="1">
-      <c r="A93" s="28"/>
+      <c r="A93" s="32"/>
       <c r="B93" s="20" t="s">
         <v>329</v>
       </c>
@@ -26077,7 +26302,7 @@
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" customFormat="1">
-      <c r="A94" s="28"/>
+      <c r="A94" s="32"/>
       <c r="B94" s="20" t="s">
         <v>330</v>
       </c>
@@ -26091,7 +26316,7 @@
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" customFormat="1">
-      <c r="A95" s="28"/>
+      <c r="A95" s="32"/>
       <c r="B95" s="20" t="s">
         <v>331</v>
       </c>
@@ -26105,7 +26330,7 @@
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" customFormat="1">
-      <c r="A96" s="28"/>
+      <c r="A96" s="32"/>
       <c r="B96" s="20">
         <v>4.4000000000000004</v>
       </c>
@@ -26119,7 +26344,7 @@
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" customFormat="1">
-      <c r="A97" s="28"/>
+      <c r="A97" s="32"/>
       <c r="B97" s="20" t="s">
         <v>332</v>
       </c>
@@ -26133,7 +26358,7 @@
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" customFormat="1">
-      <c r="A98" s="28"/>
+      <c r="A98" s="32"/>
       <c r="B98" s="20" t="s">
         <v>333</v>
       </c>
@@ -26147,7 +26372,7 @@
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" customFormat="1">
-      <c r="A99" s="28"/>
+      <c r="A99" s="32"/>
       <c r="B99" s="20" t="s">
         <v>334</v>
       </c>
@@ -26161,7 +26386,7 @@
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" customFormat="1">
-      <c r="A100" s="28"/>
+      <c r="A100" s="32"/>
       <c r="B100" s="20" t="s">
         <v>335</v>
       </c>
@@ -26175,7 +26400,7 @@
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" customFormat="1">
-      <c r="A101" s="28"/>
+      <c r="A101" s="32"/>
       <c r="B101" s="20" t="s">
         <v>336</v>
       </c>
@@ -26189,7 +26414,7 @@
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" customFormat="1">
-      <c r="A102" s="28"/>
+      <c r="A102" s="32"/>
       <c r="B102" s="20">
         <v>4.5</v>
       </c>
@@ -26203,7 +26428,7 @@
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" customFormat="1">
-      <c r="A103" s="28"/>
+      <c r="A103" s="32"/>
       <c r="B103" s="20">
         <v>4.5999999999999996</v>
       </c>
@@ -26217,7 +26442,7 @@
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" customFormat="1">
-      <c r="A104" s="28"/>
+      <c r="A104" s="32"/>
       <c r="B104" s="20" t="s">
         <v>337</v>
       </c>
@@ -26231,7 +26456,7 @@
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" customFormat="1">
-      <c r="A105" s="28"/>
+      <c r="A105" s="32"/>
       <c r="B105" s="20" t="s">
         <v>338</v>
       </c>
@@ -26245,7 +26470,7 @@
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" customFormat="1">
-      <c r="A106" s="28"/>
+      <c r="A106" s="32"/>
       <c r="B106" s="20" t="s">
         <v>339</v>
       </c>
@@ -26259,7 +26484,7 @@
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" customFormat="1">
-      <c r="A107" s="28"/>
+      <c r="A107" s="32"/>
       <c r="B107" s="20" t="s">
         <v>340</v>
       </c>
@@ -26273,7 +26498,7 @@
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" customFormat="1">
-      <c r="A108" s="28"/>
+      <c r="A108" s="32"/>
       <c r="B108" s="20" t="s">
         <v>341</v>
       </c>
@@ -26287,7 +26512,7 @@
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" customFormat="1">
-      <c r="A109" s="28"/>
+      <c r="A109" s="32"/>
       <c r="B109" s="20" t="s">
         <v>342</v>
       </c>
@@ -26301,7 +26526,7 @@
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" customFormat="1">
-      <c r="A110" s="28"/>
+      <c r="A110" s="32"/>
       <c r="B110" s="20" t="s">
         <v>343</v>
       </c>
@@ -26315,7 +26540,7 @@
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" customFormat="1">
-      <c r="A111" s="28"/>
+      <c r="A111" s="32"/>
       <c r="B111" s="20" t="s">
         <v>344</v>
       </c>
@@ -26329,7 +26554,7 @@
       <c r="F111" s="9"/>
     </row>
     <row r="112" spans="1:6" customFormat="1">
-      <c r="A112" s="28"/>
+      <c r="A112" s="32"/>
       <c r="B112" s="20">
         <v>4.7</v>
       </c>
@@ -26343,7 +26568,7 @@
       <c r="F112" s="9"/>
     </row>
     <row r="113" spans="1:8" customFormat="1">
-      <c r="A113" s="28"/>
+      <c r="A113" s="32"/>
       <c r="B113" s="20" t="s">
         <v>345</v>
       </c>
@@ -26357,7 +26582,7 @@
       <c r="F113" s="9"/>
     </row>
     <row r="114" spans="1:8" customFormat="1">
-      <c r="A114" s="28"/>
+      <c r="A114" s="32"/>
       <c r="B114" s="20" t="s">
         <v>346</v>
       </c>
@@ -26371,7 +26596,7 @@
       <c r="F114" s="9"/>
     </row>
     <row r="115" spans="1:8" customFormat="1">
-      <c r="A115" s="28"/>
+      <c r="A115" s="32"/>
       <c r="B115" s="20" t="s">
         <v>347</v>
       </c>
@@ -26385,7 +26610,7 @@
       <c r="F115" s="9"/>
     </row>
     <row r="116" spans="1:8" customFormat="1">
-      <c r="A116" s="28"/>
+      <c r="A116" s="32"/>
       <c r="B116" s="20" t="s">
         <v>348</v>
       </c>
@@ -26400,7 +26625,7 @@
       <c r="H116" s="7"/>
     </row>
     <row r="117" spans="1:8" customFormat="1">
-      <c r="A117" s="28"/>
+      <c r="A117" s="32"/>
       <c r="B117" s="20">
         <v>4.8</v>
       </c>
@@ -26415,7 +26640,7 @@
       <c r="H117" s="7"/>
     </row>
     <row r="118" spans="1:8" customFormat="1">
-      <c r="A118" s="28"/>
+      <c r="A118" s="32"/>
       <c r="B118" s="20" t="s">
         <v>349</v>
       </c>
@@ -26430,7 +26655,7 @@
       <c r="H118" s="7"/>
     </row>
     <row r="119" spans="1:8" customFormat="1">
-      <c r="A119" s="28"/>
+      <c r="A119" s="32"/>
       <c r="B119" s="20">
         <v>4.9000000000000004</v>
       </c>
@@ -26445,7 +26670,7 @@
       <c r="H119" s="7"/>
     </row>
     <row r="120" spans="1:8" customFormat="1">
-      <c r="A120" s="28"/>
+      <c r="A120" s="32"/>
       <c r="B120" s="20" t="s">
         <v>350</v>
       </c>
@@ -26460,7 +26685,7 @@
       <c r="H120" s="7"/>
     </row>
     <row r="121" spans="1:8" customFormat="1">
-      <c r="A121" s="28"/>
+      <c r="A121" s="32"/>
       <c r="B121" s="20" t="s">
         <v>351</v>
       </c>
@@ -26475,7 +26700,7 @@
       <c r="H121" s="7"/>
     </row>
     <row r="122" spans="1:8" customFormat="1">
-      <c r="A122" s="28"/>
+      <c r="A122" s="32"/>
       <c r="B122" s="20" t="s">
         <v>352</v>
       </c>
@@ -26490,7 +26715,7 @@
       <c r="H122" s="7"/>
     </row>
     <row r="123" spans="1:8" customFormat="1">
-      <c r="A123" s="28"/>
+      <c r="A123" s="32"/>
       <c r="B123" s="20" t="s">
         <v>353</v>
       </c>
@@ -26505,7 +26730,7 @@
       <c r="H123" s="7"/>
     </row>
     <row r="124" spans="1:8" customFormat="1">
-      <c r="A124" s="28"/>
+      <c r="A124" s="32"/>
       <c r="B124" s="20" t="s">
         <v>354</v>
       </c>
@@ -26520,7 +26745,7 @@
       <c r="H124" s="7"/>
     </row>
     <row r="125" spans="1:8" customFormat="1">
-      <c r="A125" s="28"/>
+      <c r="A125" s="32"/>
       <c r="B125" s="20" t="s">
         <v>355</v>
       </c>
@@ -26535,7 +26760,7 @@
       <c r="H125" s="7"/>
     </row>
     <row r="126" spans="1:8" customFormat="1">
-      <c r="A126" s="28"/>
+      <c r="A126" s="32"/>
       <c r="B126" s="20" t="s">
         <v>356</v>
       </c>
@@ -26550,7 +26775,7 @@
       <c r="H126" s="7"/>
     </row>
     <row r="127" spans="1:8" customFormat="1">
-      <c r="A127" s="28"/>
+      <c r="A127" s="32"/>
       <c r="B127" s="21">
         <v>4.0999999999999996</v>
       </c>
@@ -26565,7 +26790,7 @@
       <c r="H127" s="7"/>
     </row>
     <row r="128" spans="1:8" customFormat="1">
-      <c r="A128" s="28" t="s">
+      <c r="A128" s="32" t="s">
         <v>1029</v>
       </c>
       <c r="B128" s="20">
@@ -26581,7 +26806,7 @@
       <c r="F128" s="6"/>
     </row>
     <row r="129" spans="1:6" customFormat="1">
-      <c r="A129" s="28"/>
+      <c r="A129" s="32"/>
       <c r="B129" s="20" t="s">
         <v>357</v>
       </c>
@@ -26595,7 +26820,7 @@
       <c r="F129" s="6"/>
     </row>
     <row r="130" spans="1:6" customFormat="1">
-      <c r="A130" s="28"/>
+      <c r="A130" s="32"/>
       <c r="B130" s="20" t="s">
         <v>358</v>
       </c>
@@ -26609,7 +26834,7 @@
       <c r="F130" s="6"/>
     </row>
     <row r="131" spans="1:6" customFormat="1">
-      <c r="A131" s="28"/>
+      <c r="A131" s="32"/>
       <c r="B131" s="20" t="s">
         <v>359</v>
       </c>
@@ -26623,7 +26848,7 @@
       <c r="F131" s="6"/>
     </row>
     <row r="132" spans="1:6" customFormat="1">
-      <c r="A132" s="28"/>
+      <c r="A132" s="32"/>
       <c r="B132" s="20" t="s">
         <v>360</v>
       </c>
@@ -26637,7 +26862,7 @@
       <c r="F132" s="6"/>
     </row>
     <row r="133" spans="1:6" customFormat="1">
-      <c r="A133" s="28"/>
+      <c r="A133" s="32"/>
       <c r="B133" s="20" t="s">
         <v>361</v>
       </c>
@@ -26651,7 +26876,7 @@
       <c r="F133" s="6"/>
     </row>
     <row r="134" spans="1:6" customFormat="1">
-      <c r="A134" s="28"/>
+      <c r="A134" s="32"/>
       <c r="B134" s="20" t="s">
         <v>362</v>
       </c>
@@ -26665,7 +26890,7 @@
       <c r="F134" s="6"/>
     </row>
     <row r="135" spans="1:6" customFormat="1">
-      <c r="A135" s="28"/>
+      <c r="A135" s="32"/>
       <c r="B135" s="20" t="s">
         <v>363</v>
       </c>
@@ -26679,7 +26904,7 @@
       <c r="F135" s="6"/>
     </row>
     <row r="136" spans="1:6" customFormat="1">
-      <c r="A136" s="28"/>
+      <c r="A136" s="32"/>
       <c r="B136" s="20" t="s">
         <v>364</v>
       </c>
@@ -26693,7 +26918,7 @@
       <c r="F136" s="6"/>
     </row>
     <row r="137" spans="1:6" customFormat="1">
-      <c r="A137" s="28"/>
+      <c r="A137" s="32"/>
       <c r="B137" s="20" t="s">
         <v>365</v>
       </c>
@@ -26707,7 +26932,7 @@
       <c r="F137" s="6"/>
     </row>
     <row r="138" spans="1:6" customFormat="1">
-      <c r="A138" s="28"/>
+      <c r="A138" s="32"/>
       <c r="B138" s="20" t="s">
         <v>366</v>
       </c>
@@ -26721,7 +26946,7 @@
       <c r="F138" s="6"/>
     </row>
     <row r="139" spans="1:6" customFormat="1">
-      <c r="A139" s="28"/>
+      <c r="A139" s="32"/>
       <c r="B139" s="20">
         <v>5.2</v>
       </c>
@@ -26735,7 +26960,7 @@
       <c r="F139" s="6"/>
     </row>
     <row r="140" spans="1:6" customFormat="1">
-      <c r="A140" s="28"/>
+      <c r="A140" s="32"/>
       <c r="B140" s="20" t="s">
         <v>367</v>
       </c>
@@ -26749,7 +26974,7 @@
       <c r="F140" s="6"/>
     </row>
     <row r="141" spans="1:6" customFormat="1">
-      <c r="A141" s="28"/>
+      <c r="A141" s="32"/>
       <c r="B141" s="20" t="s">
         <v>368</v>
       </c>
@@ -26763,7 +26988,7 @@
       <c r="F141" s="6"/>
     </row>
     <row r="142" spans="1:6" customFormat="1">
-      <c r="A142" s="28"/>
+      <c r="A142" s="32"/>
       <c r="B142" s="20" t="s">
         <v>369</v>
       </c>
@@ -26777,7 +27002,7 @@
       <c r="F142" s="6"/>
     </row>
     <row r="143" spans="1:6" customFormat="1">
-      <c r="A143" s="28"/>
+      <c r="A143" s="32"/>
       <c r="B143" s="20" t="s">
         <v>370</v>
       </c>
@@ -26791,7 +27016,7 @@
       <c r="F143" s="6"/>
     </row>
     <row r="144" spans="1:6" customFormat="1">
-      <c r="A144" s="28"/>
+      <c r="A144" s="32"/>
       <c r="B144" s="20">
         <v>5.3</v>
       </c>
@@ -26805,7 +27030,7 @@
       <c r="F144" s="6"/>
     </row>
     <row r="145" spans="1:6" customFormat="1">
-      <c r="A145" s="28"/>
+      <c r="A145" s="32"/>
       <c r="B145" s="20" t="s">
         <v>371</v>
       </c>
@@ -26819,7 +27044,7 @@
       <c r="F145" s="6"/>
     </row>
     <row r="146" spans="1:6" customFormat="1">
-      <c r="A146" s="28"/>
+      <c r="A146" s="32"/>
       <c r="B146" s="20" t="s">
         <v>372</v>
       </c>
@@ -26833,7 +27058,7 @@
       <c r="F146" s="6"/>
     </row>
     <row r="147" spans="1:6" customFormat="1">
-      <c r="A147" s="28"/>
+      <c r="A147" s="32"/>
       <c r="B147" s="20">
         <v>5.4</v>
       </c>
@@ -26847,7 +27072,7 @@
       <c r="F147" s="6"/>
     </row>
     <row r="148" spans="1:6" customFormat="1">
-      <c r="A148" s="28"/>
+      <c r="A148" s="32"/>
       <c r="B148" s="20">
         <v>5.5</v>
       </c>
@@ -26861,7 +27086,7 @@
       <c r="F148" s="6"/>
     </row>
     <row r="149" spans="1:6" customFormat="1">
-      <c r="A149" s="28"/>
+      <c r="A149" s="32"/>
       <c r="B149" s="20">
         <v>5.6</v>
       </c>
@@ -26875,7 +27100,7 @@
       <c r="F149" s="6"/>
     </row>
     <row r="150" spans="1:6" customFormat="1">
-      <c r="A150" s="28"/>
+      <c r="A150" s="32"/>
       <c r="B150" s="20">
         <v>5.7</v>
       </c>
@@ -26889,7 +27114,7 @@
       <c r="F150" s="6"/>
     </row>
     <row r="151" spans="1:6" customFormat="1">
-      <c r="A151" s="28"/>
+      <c r="A151" s="32"/>
       <c r="B151" s="20" t="s">
         <v>373</v>
       </c>
@@ -26903,7 +27128,7 @@
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="1:6" customFormat="1">
-      <c r="A152" s="28"/>
+      <c r="A152" s="32"/>
       <c r="B152" s="20" t="s">
         <v>374</v>
       </c>
@@ -26917,7 +27142,7 @@
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:6" customFormat="1">
-      <c r="A153" s="28"/>
+      <c r="A153" s="32"/>
       <c r="B153" s="20" t="s">
         <v>375</v>
       </c>
@@ -26931,7 +27156,7 @@
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" customFormat="1">
-      <c r="A154" s="28"/>
+      <c r="A154" s="32"/>
       <c r="B154" s="20" t="s">
         <v>376</v>
       </c>
@@ -26945,7 +27170,7 @@
       <c r="F154" s="2"/>
     </row>
     <row r="155" spans="1:6" customFormat="1">
-      <c r="A155" s="28"/>
+      <c r="A155" s="32"/>
       <c r="B155" s="20" t="s">
         <v>377</v>
       </c>
@@ -26959,7 +27184,7 @@
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" customFormat="1">
-      <c r="A156" s="28"/>
+      <c r="A156" s="32"/>
       <c r="B156" s="20" t="s">
         <v>378</v>
       </c>
@@ -26973,7 +27198,7 @@
       <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:6" customFormat="1">
-      <c r="A157" s="28"/>
+      <c r="A157" s="32"/>
       <c r="B157" s="20">
         <v>5.8</v>
       </c>
@@ -26987,7 +27212,7 @@
       <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:6" customFormat="1">
-      <c r="A158" s="28" t="s">
+      <c r="A158" s="32" t="s">
         <v>1026</v>
       </c>
       <c r="B158" s="20">
@@ -27003,7 +27228,7 @@
       <c r="F158" s="2"/>
     </row>
     <row r="159" spans="1:6" customFormat="1">
-      <c r="A159" s="28"/>
+      <c r="A159" s="32"/>
       <c r="B159" s="20" t="s">
         <v>379</v>
       </c>
@@ -27017,7 +27242,7 @@
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" customFormat="1">
-      <c r="A160" s="28"/>
+      <c r="A160" s="32"/>
       <c r="B160" s="20" t="s">
         <v>380</v>
       </c>
@@ -27031,7 +27256,7 @@
       <c r="F160" s="2"/>
     </row>
     <row r="161" spans="1:6" customFormat="1">
-      <c r="A161" s="28"/>
+      <c r="A161" s="32"/>
       <c r="B161" s="20" t="s">
         <v>381</v>
       </c>
@@ -27045,7 +27270,7 @@
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" customFormat="1">
-      <c r="A162" s="28"/>
+      <c r="A162" s="32"/>
       <c r="B162" s="20" t="s">
         <v>382</v>
       </c>
@@ -27059,7 +27284,7 @@
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:6" customFormat="1">
-      <c r="A163" s="28"/>
+      <c r="A163" s="32"/>
       <c r="B163" s="20" t="s">
         <v>383</v>
       </c>
@@ -27073,7 +27298,7 @@
       <c r="F163" s="2"/>
     </row>
     <row r="164" spans="1:6" customFormat="1">
-      <c r="A164" s="28"/>
+      <c r="A164" s="32"/>
       <c r="B164" s="20" t="s">
         <v>384</v>
       </c>
@@ -27087,7 +27312,7 @@
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" customFormat="1">
-      <c r="A165" s="28"/>
+      <c r="A165" s="32"/>
       <c r="B165" s="20">
         <v>6.2</v>
       </c>
@@ -27101,7 +27326,7 @@
       <c r="F165" s="2"/>
     </row>
     <row r="166" spans="1:6" customFormat="1">
-      <c r="A166" s="28"/>
+      <c r="A166" s="32"/>
       <c r="B166" s="20" t="s">
         <v>385</v>
       </c>
@@ -27115,7 +27340,7 @@
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" customFormat="1">
-      <c r="A167" s="28"/>
+      <c r="A167" s="32"/>
       <c r="B167" s="20" t="s">
         <v>386</v>
       </c>
@@ -27129,7 +27354,7 @@
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="1:6" customFormat="1">
-      <c r="A168" s="28"/>
+      <c r="A168" s="32"/>
       <c r="B168" s="20" t="s">
         <v>387</v>
       </c>
@@ -27143,7 +27368,7 @@
       <c r="F168" s="2"/>
     </row>
     <row r="169" spans="1:6" customFormat="1">
-      <c r="A169" s="28"/>
+      <c r="A169" s="32"/>
       <c r="B169" s="20">
         <v>6.3</v>
       </c>
@@ -27157,7 +27382,7 @@
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" customFormat="1">
-      <c r="A170" s="28"/>
+      <c r="A170" s="32"/>
       <c r="B170" s="20" t="s">
         <v>388</v>
       </c>
@@ -27171,7 +27396,7 @@
       <c r="F170" s="2"/>
     </row>
     <row r="171" spans="1:6" customFormat="1">
-      <c r="A171" s="28"/>
+      <c r="A171" s="32"/>
       <c r="B171" s="20" t="s">
         <v>389</v>
       </c>
@@ -27185,7 +27410,7 @@
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" customFormat="1">
-      <c r="A172" s="28"/>
+      <c r="A172" s="32"/>
       <c r="B172" s="20" t="s">
         <v>390</v>
       </c>
@@ -27199,7 +27424,7 @@
       <c r="F172" s="2"/>
     </row>
     <row r="173" spans="1:6" customFormat="1">
-      <c r="A173" s="28"/>
+      <c r="A173" s="32"/>
       <c r="B173" s="20" t="s">
         <v>391</v>
       </c>
@@ -27213,7 +27438,7 @@
       <c r="F173" s="2"/>
     </row>
     <row r="174" spans="1:6" customFormat="1">
-      <c r="A174" s="28"/>
+      <c r="A174" s="32"/>
       <c r="B174" s="20" t="s">
         <v>392</v>
       </c>
@@ -27227,7 +27452,7 @@
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" customFormat="1">
-      <c r="A175" s="28"/>
+      <c r="A175" s="32"/>
       <c r="B175" s="20" t="s">
         <v>393</v>
       </c>
@@ -27241,7 +27466,7 @@
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="1:6" customFormat="1">
-      <c r="A176" s="28"/>
+      <c r="A176" s="32"/>
       <c r="B176" s="20" t="s">
         <v>394</v>
       </c>
@@ -27255,7 +27480,7 @@
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" customFormat="1">
-      <c r="A177" s="28"/>
+      <c r="A177" s="32"/>
       <c r="B177" s="20" t="s">
         <v>395</v>
       </c>
@@ -27269,7 +27494,7 @@
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:6" customFormat="1">
-      <c r="A178" s="28"/>
+      <c r="A178" s="32"/>
       <c r="B178" s="20">
         <v>6.4</v>
       </c>
@@ -27283,7 +27508,7 @@
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:6" customFormat="1">
-      <c r="A179" s="28"/>
+      <c r="A179" s="32"/>
       <c r="B179" s="20" t="s">
         <v>396</v>
       </c>
@@ -27297,7 +27522,7 @@
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" customFormat="1">
-      <c r="A180" s="28"/>
+      <c r="A180" s="32"/>
       <c r="B180" s="20" t="s">
         <v>397</v>
       </c>
@@ -27311,7 +27536,7 @@
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6" customFormat="1">
-      <c r="A181" s="28"/>
+      <c r="A181" s="32"/>
       <c r="B181" s="20" t="s">
         <v>398</v>
       </c>
@@ -27325,7 +27550,7 @@
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" customFormat="1">
-      <c r="A182" s="28"/>
+      <c r="A182" s="32"/>
       <c r="B182" s="20" t="s">
         <v>399</v>
       </c>
@@ -27339,7 +27564,7 @@
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:6" customFormat="1">
-      <c r="A183" s="28"/>
+      <c r="A183" s="32"/>
       <c r="B183" s="20" t="s">
         <v>400</v>
       </c>
@@ -27353,7 +27578,7 @@
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6" customFormat="1">
-      <c r="A184" s="28"/>
+      <c r="A184" s="32"/>
       <c r="B184" s="20" t="s">
         <v>401</v>
       </c>
@@ -27367,7 +27592,7 @@
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:6" customFormat="1">
-      <c r="A185" s="28"/>
+      <c r="A185" s="32"/>
       <c r="B185" s="20" t="s">
         <v>402</v>
       </c>
@@ -27381,7 +27606,7 @@
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" customFormat="1">
-      <c r="A186" s="28"/>
+      <c r="A186" s="32"/>
       <c r="B186" s="20">
         <v>6.5</v>
       </c>
@@ -27395,7 +27620,7 @@
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="1:6" customFormat="1">
-      <c r="A187" s="28"/>
+      <c r="A187" s="32"/>
       <c r="B187" s="20" t="s">
         <v>403</v>
       </c>
@@ -27409,7 +27634,7 @@
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" customFormat="1">
-      <c r="A188" s="28"/>
+      <c r="A188" s="32"/>
       <c r="B188" s="20" t="s">
         <v>404</v>
       </c>
@@ -27423,7 +27648,7 @@
       <c r="F188" s="2"/>
     </row>
     <row r="189" spans="1:6" customFormat="1">
-      <c r="A189" s="28"/>
+      <c r="A189" s="32"/>
       <c r="B189" s="20" t="s">
         <v>405</v>
       </c>
@@ -27437,7 +27662,7 @@
       <c r="F189" s="2"/>
     </row>
     <row r="190" spans="1:6" customFormat="1">
-      <c r="A190" s="28" t="s">
+      <c r="A190" s="32" t="s">
         <v>1025</v>
       </c>
       <c r="B190" s="20">
@@ -27453,7 +27678,7 @@
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" customFormat="1">
-      <c r="A191" s="28"/>
+      <c r="A191" s="32"/>
       <c r="B191" s="20" t="s">
         <v>406</v>
       </c>
@@ -27467,7 +27692,7 @@
       <c r="F191" s="2"/>
     </row>
     <row r="192" spans="1:6" customFormat="1">
-      <c r="A192" s="28"/>
+      <c r="A192" s="32"/>
       <c r="B192" s="20" t="s">
         <v>407</v>
       </c>
@@ -27481,7 +27706,7 @@
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" customFormat="1">
-      <c r="A193" s="28"/>
+      <c r="A193" s="32"/>
       <c r="B193" s="20" t="s">
         <v>408</v>
       </c>
@@ -27495,7 +27720,7 @@
       <c r="F193" s="2"/>
     </row>
     <row r="194" spans="1:6" customFormat="1">
-      <c r="A194" s="28"/>
+      <c r="A194" s="32"/>
       <c r="B194" s="20" t="s">
         <v>409</v>
       </c>
@@ -27509,7 +27734,7 @@
       <c r="F194" s="2"/>
     </row>
     <row r="195" spans="1:6" customFormat="1">
-      <c r="A195" s="28"/>
+      <c r="A195" s="32"/>
       <c r="B195" s="20">
         <v>7.2</v>
       </c>
@@ -27523,7 +27748,7 @@
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" customFormat="1">
-      <c r="A196" s="28"/>
+      <c r="A196" s="32"/>
       <c r="B196" s="20" t="s">
         <v>410</v>
       </c>
@@ -27537,7 +27762,7 @@
       <c r="F196" s="2"/>
     </row>
     <row r="197" spans="1:6" customFormat="1">
-      <c r="A197" s="28"/>
+      <c r="A197" s="32"/>
       <c r="B197" s="20" t="s">
         <v>411</v>
       </c>
@@ -27551,7 +27776,7 @@
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" customFormat="1">
-      <c r="A198" s="28"/>
+      <c r="A198" s="32"/>
       <c r="B198" s="20" t="s">
         <v>412</v>
       </c>
@@ -27565,7 +27790,7 @@
       <c r="F198" s="2"/>
     </row>
     <row r="199" spans="1:6" customFormat="1">
-      <c r="A199" s="28"/>
+      <c r="A199" s="32"/>
       <c r="B199" s="20" t="s">
         <v>413</v>
       </c>
@@ -27579,7 +27804,7 @@
       <c r="F199" s="2"/>
     </row>
     <row r="200" spans="1:6" customFormat="1">
-      <c r="A200" s="28"/>
+      <c r="A200" s="32"/>
       <c r="B200" s="20" t="s">
         <v>414</v>
       </c>
@@ -27593,7 +27818,7 @@
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" customFormat="1">
-      <c r="A201" s="28"/>
+      <c r="A201" s="32"/>
       <c r="B201" s="20" t="s">
         <v>415</v>
       </c>
@@ -27607,7 +27832,7 @@
       <c r="F201" s="2"/>
     </row>
     <row r="202" spans="1:6" customFormat="1">
-      <c r="A202" s="28"/>
+      <c r="A202" s="32"/>
       <c r="B202" s="20">
         <v>7.3</v>
       </c>
@@ -27621,7 +27846,7 @@
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:6" customFormat="1">
-      <c r="A203" s="28"/>
+      <c r="A203" s="32"/>
       <c r="B203" s="20">
         <v>7.4</v>
       </c>
@@ -27635,7 +27860,7 @@
       <c r="F203" s="2"/>
     </row>
     <row r="204" spans="1:6" customFormat="1">
-      <c r="A204" s="28"/>
+      <c r="A204" s="32"/>
       <c r="B204" s="20" t="s">
         <v>416</v>
       </c>
@@ -27649,7 +27874,7 @@
       <c r="F204" s="2"/>
     </row>
     <row r="205" spans="1:6" customFormat="1">
-      <c r="A205" s="28"/>
+      <c r="A205" s="32"/>
       <c r="B205" s="20" t="s">
         <v>417</v>
       </c>
@@ -27663,7 +27888,7 @@
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" customFormat="1">
-      <c r="A206" s="28"/>
+      <c r="A206" s="32"/>
       <c r="B206" s="20" t="s">
         <v>418</v>
       </c>
@@ -27677,7 +27902,7 @@
       <c r="F206" s="2"/>
     </row>
     <row r="207" spans="1:6" customFormat="1">
-      <c r="A207" s="28"/>
+      <c r="A207" s="32"/>
       <c r="B207" s="20" t="s">
         <v>419</v>
       </c>
@@ -27691,7 +27916,7 @@
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" customFormat="1">
-      <c r="A208" s="28"/>
+      <c r="A208" s="32"/>
       <c r="B208" s="20">
         <v>7.5</v>
       </c>
@@ -27705,7 +27930,7 @@
       <c r="F208" s="2"/>
     </row>
     <row r="209" spans="1:6" customFormat="1">
-      <c r="A209" s="28"/>
+      <c r="A209" s="32"/>
       <c r="B209" s="20" t="s">
         <v>420</v>
       </c>
@@ -27719,7 +27944,7 @@
       <c r="F209" s="2"/>
     </row>
     <row r="210" spans="1:6" customFormat="1">
-      <c r="A210" s="28"/>
+      <c r="A210" s="32"/>
       <c r="B210" s="20" t="s">
         <v>421</v>
       </c>
@@ -27733,7 +27958,7 @@
       <c r="F210" s="2"/>
     </row>
     <row r="211" spans="1:6" customFormat="1">
-      <c r="A211" s="28"/>
+      <c r="A211" s="32"/>
       <c r="B211" s="20" t="s">
         <v>422</v>
       </c>
@@ -27747,7 +27972,7 @@
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" customFormat="1">
-      <c r="A212" s="28"/>
+      <c r="A212" s="32"/>
       <c r="B212" s="20" t="s">
         <v>423</v>
       </c>
@@ -27761,7 +27986,7 @@
       <c r="F212" s="2"/>
     </row>
     <row r="213" spans="1:6" customFormat="1">
-      <c r="A213" s="28"/>
+      <c r="A213" s="32"/>
       <c r="B213" s="20" t="s">
         <v>424</v>
       </c>
@@ -27775,7 +28000,7 @@
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" customFormat="1">
-      <c r="A214" s="28"/>
+      <c r="A214" s="32"/>
       <c r="B214" s="20" t="s">
         <v>425</v>
       </c>
@@ -27789,7 +28014,7 @@
       <c r="F214" s="2"/>
     </row>
     <row r="215" spans="1:6" customFormat="1">
-      <c r="A215" s="28"/>
+      <c r="A215" s="32"/>
       <c r="B215" s="20" t="s">
         <v>426</v>
       </c>
@@ -27803,7 +28028,7 @@
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:6" customFormat="1">
-      <c r="A216" s="28"/>
+      <c r="A216" s="32"/>
       <c r="B216" s="20" t="s">
         <v>427</v>
       </c>
@@ -27817,7 +28042,7 @@
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" customFormat="1">
-      <c r="A217" s="28"/>
+      <c r="A217" s="32"/>
       <c r="B217" s="20">
         <v>7.6</v>
       </c>
@@ -27831,7 +28056,7 @@
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:6" customFormat="1">
-      <c r="A218" s="28" t="s">
+      <c r="A218" s="32" t="s">
         <v>1024</v>
       </c>
       <c r="B218" s="20">
@@ -27847,7 +28072,7 @@
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" customFormat="1">
-      <c r="A219" s="28"/>
+      <c r="A219" s="32"/>
       <c r="B219" s="20" t="s">
         <v>428</v>
       </c>
@@ -27861,7 +28086,7 @@
       <c r="F219" s="2"/>
     </row>
     <row r="220" spans="1:6" customFormat="1">
-      <c r="A220" s="28"/>
+      <c r="A220" s="32"/>
       <c r="B220" s="20" t="s">
         <v>429</v>
       </c>
@@ -27875,7 +28100,7 @@
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="1:6" customFormat="1">
-      <c r="A221" s="28"/>
+      <c r="A221" s="32"/>
       <c r="B221" s="20">
         <v>8.1999999999999993</v>
       </c>
@@ -27889,7 +28114,7 @@
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" customFormat="1">
-      <c r="A222" s="28"/>
+      <c r="A222" s="32"/>
       <c r="B222" s="20">
         <v>8.3000000000000007</v>
       </c>
@@ -27903,7 +28128,7 @@
       <c r="F222" s="2"/>
     </row>
     <row r="223" spans="1:6" customFormat="1">
-      <c r="A223" s="28"/>
+      <c r="A223" s="32"/>
       <c r="B223" s="20">
         <v>8.4</v>
       </c>
@@ -27917,7 +28142,7 @@
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" customFormat="1">
-      <c r="A224" s="28"/>
+      <c r="A224" s="32"/>
       <c r="B224" s="20">
         <v>8.5</v>
       </c>
@@ -27931,7 +28156,7 @@
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:6" customFormat="1">
-      <c r="A225" s="28"/>
+      <c r="A225" s="32"/>
       <c r="B225" s="20" t="s">
         <v>430</v>
       </c>
@@ -27945,7 +28170,7 @@
       <c r="F225" s="2"/>
     </row>
     <row r="226" spans="1:6" customFormat="1">
-      <c r="A226" s="28"/>
+      <c r="A226" s="32"/>
       <c r="B226" s="20" t="s">
         <v>431</v>
       </c>
@@ -27959,7 +28184,7 @@
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" customFormat="1">
-      <c r="A227" s="28"/>
+      <c r="A227" s="32"/>
       <c r="B227" s="20" t="s">
         <v>432</v>
       </c>
@@ -27973,7 +28198,7 @@
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:6" customFormat="1">
-      <c r="A228" s="28"/>
+      <c r="A228" s="32"/>
       <c r="B228" s="20" t="s">
         <v>433</v>
       </c>
@@ -27987,7 +28212,7 @@
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" customFormat="1">
-      <c r="A229" s="28"/>
+      <c r="A229" s="32"/>
       <c r="B229" s="20">
         <v>8.6</v>
       </c>
@@ -28001,7 +28226,7 @@
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="1:6" customFormat="1">
-      <c r="A230" s="28"/>
+      <c r="A230" s="32"/>
       <c r="B230" s="20" t="s">
         <v>434</v>
       </c>
@@ -28015,7 +28240,7 @@
       <c r="F230" s="2"/>
     </row>
     <row r="231" spans="1:6" customFormat="1">
-      <c r="A231" s="28"/>
+      <c r="A231" s="32"/>
       <c r="B231" s="20" t="s">
         <v>435</v>
       </c>
@@ -28029,7 +28254,7 @@
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" customFormat="1">
-      <c r="A232" s="28"/>
+      <c r="A232" s="32"/>
       <c r="B232" s="20" t="s">
         <v>436</v>
       </c>
@@ -28043,7 +28268,7 @@
       <c r="F232" s="2"/>
     </row>
     <row r="233" spans="1:6" customFormat="1">
-      <c r="A233" s="28"/>
+      <c r="A233" s="32"/>
       <c r="B233" s="20" t="s">
         <v>437</v>
       </c>
@@ -28057,7 +28282,7 @@
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" customFormat="1">
-      <c r="A234" s="28"/>
+      <c r="A234" s="32"/>
       <c r="B234" s="20" t="s">
         <v>438</v>
       </c>
@@ -28071,7 +28296,7 @@
       <c r="F234" s="2"/>
     </row>
     <row r="235" spans="1:6" customFormat="1">
-      <c r="A235" s="28"/>
+      <c r="A235" s="32"/>
       <c r="B235" s="20" t="s">
         <v>439</v>
       </c>
@@ -28085,7 +28310,7 @@
       <c r="F235" s="2"/>
     </row>
     <row r="236" spans="1:6" customFormat="1">
-      <c r="A236" s="28"/>
+      <c r="A236" s="32"/>
       <c r="B236" s="20" t="s">
         <v>440</v>
       </c>
@@ -28099,7 +28324,7 @@
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:6" customFormat="1">
-      <c r="A237" s="28"/>
+      <c r="A237" s="32"/>
       <c r="B237" s="20" t="s">
         <v>441</v>
       </c>
@@ -28113,7 +28338,7 @@
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" customFormat="1">
-      <c r="A238" s="28"/>
+      <c r="A238" s="32"/>
       <c r="B238" s="20" t="s">
         <v>442</v>
       </c>
@@ -28127,7 +28352,7 @@
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:6" customFormat="1">
-      <c r="A239" s="28"/>
+      <c r="A239" s="32"/>
       <c r="B239" s="20" t="s">
         <v>443</v>
       </c>
@@ -28141,7 +28366,7 @@
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" customFormat="1">
-      <c r="A240" s="28"/>
+      <c r="A240" s="32"/>
       <c r="B240" s="20">
         <v>8.6999999999999993</v>
       </c>
@@ -28155,7 +28380,7 @@
       <c r="F240" s="2"/>
     </row>
     <row r="241" spans="1:6" customFormat="1">
-      <c r="A241" s="28"/>
+      <c r="A241" s="32"/>
       <c r="B241" s="20">
         <v>8.8000000000000007</v>
       </c>
@@ -28169,7 +28394,7 @@
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="1:6" customFormat="1">
-      <c r="A242" s="28"/>
+      <c r="A242" s="32"/>
       <c r="B242" s="20" t="s">
         <v>444</v>
       </c>
@@ -28183,7 +28408,7 @@
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" customFormat="1">
-      <c r="A243" s="28"/>
+      <c r="A243" s="32"/>
       <c r="B243" s="20" t="s">
         <v>445</v>
       </c>
@@ -28197,7 +28422,7 @@
       <c r="F243" s="2"/>
     </row>
     <row r="244" spans="1:6" customFormat="1">
-      <c r="A244" s="28"/>
+      <c r="A244" s="32"/>
       <c r="B244" s="20" t="s">
         <v>446</v>
       </c>
@@ -28211,7 +28436,7 @@
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" customFormat="1">
-      <c r="A245" s="28"/>
+      <c r="A245" s="32"/>
       <c r="B245" s="20" t="s">
         <v>447</v>
       </c>
@@ -28225,7 +28450,7 @@
       <c r="F245" s="2"/>
     </row>
     <row r="246" spans="1:6" customFormat="1">
-      <c r="A246" s="28"/>
+      <c r="A246" s="32"/>
       <c r="B246" s="20">
         <v>8.9</v>
       </c>
@@ -28239,7 +28464,7 @@
       <c r="F246" s="2"/>
     </row>
     <row r="247" spans="1:6" customFormat="1">
-      <c r="A247" s="28"/>
+      <c r="A247" s="32"/>
       <c r="B247" s="20" t="s">
         <v>448</v>
       </c>
@@ -28253,7 +28478,7 @@
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" customFormat="1">
-      <c r="A248" s="28"/>
+      <c r="A248" s="32"/>
       <c r="B248" s="20" t="s">
         <v>449</v>
       </c>
@@ -28267,7 +28492,7 @@
       <c r="F248" s="2"/>
     </row>
     <row r="249" spans="1:6" customFormat="1">
-      <c r="A249" s="28"/>
+      <c r="A249" s="32"/>
       <c r="B249" s="20" t="s">
         <v>450</v>
       </c>
@@ -28281,7 +28506,7 @@
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" customFormat="1">
-      <c r="A250" s="28" t="s">
+      <c r="A250" s="32" t="s">
         <v>1022</v>
       </c>
       <c r="B250" s="20">
@@ -28297,7 +28522,7 @@
       <c r="F250" s="2"/>
     </row>
     <row r="251" spans="1:6" customFormat="1">
-      <c r="A251" s="28"/>
+      <c r="A251" s="32"/>
       <c r="B251" s="20" t="s">
         <v>451</v>
       </c>
@@ -28311,7 +28536,7 @@
       <c r="F251" s="2"/>
     </row>
     <row r="252" spans="1:6" customFormat="1">
-      <c r="A252" s="28"/>
+      <c r="A252" s="32"/>
       <c r="B252" s="20" t="s">
         <v>452</v>
       </c>
@@ -28325,7 +28550,7 @@
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" customFormat="1">
-      <c r="A253" s="28"/>
+      <c r="A253" s="32"/>
       <c r="B253" s="20" t="s">
         <v>453</v>
       </c>
@@ -28339,7 +28564,7 @@
       <c r="F253" s="2"/>
     </row>
     <row r="254" spans="1:6" customFormat="1">
-      <c r="A254" s="28"/>
+      <c r="A254" s="32"/>
       <c r="B254" s="20" t="s">
         <v>454</v>
       </c>
@@ -28353,7 +28578,7 @@
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" customFormat="1">
-      <c r="A255" s="28"/>
+      <c r="A255" s="32"/>
       <c r="B255" s="20" t="s">
         <v>455</v>
       </c>
@@ -28367,7 +28592,7 @@
       <c r="F255" s="2"/>
     </row>
     <row r="256" spans="1:6" customFormat="1">
-      <c r="A256" s="28"/>
+      <c r="A256" s="32"/>
       <c r="B256" s="20">
         <v>9.1999999999999993</v>
       </c>
@@ -28381,7 +28606,7 @@
       <c r="F256" s="2"/>
     </row>
     <row r="257" spans="1:6" customFormat="1">
-      <c r="A257" s="28"/>
+      <c r="A257" s="32"/>
       <c r="B257" s="20" t="s">
         <v>456</v>
       </c>
@@ -28395,7 +28620,7 @@
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" customFormat="1">
-      <c r="A258" s="28"/>
+      <c r="A258" s="32"/>
       <c r="B258" s="20" t="s">
         <v>457</v>
       </c>
@@ -28409,7 +28634,7 @@
       <c r="F258" s="2"/>
     </row>
     <row r="259" spans="1:6" customFormat="1">
-      <c r="A259" s="28"/>
+      <c r="A259" s="32"/>
       <c r="B259" s="20" t="s">
         <v>458</v>
       </c>
@@ -28423,7 +28648,7 @@
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" customFormat="1">
-      <c r="A260" s="28"/>
+      <c r="A260" s="32"/>
       <c r="B260" s="20" t="s">
         <v>459</v>
       </c>
@@ -28437,7 +28662,7 @@
       <c r="F260" s="2"/>
     </row>
     <row r="261" spans="1:6" customFormat="1">
-      <c r="A261" s="28"/>
+      <c r="A261" s="32"/>
       <c r="B261" s="20" t="s">
         <v>460</v>
       </c>
@@ -28451,7 +28676,7 @@
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="1:6" customFormat="1">
-      <c r="A262" s="28"/>
+      <c r="A262" s="32"/>
       <c r="B262" s="20" t="s">
         <v>461</v>
       </c>
@@ -28465,7 +28690,7 @@
       <c r="F262" s="2"/>
     </row>
     <row r="263" spans="1:6" customFormat="1">
-      <c r="A263" s="28"/>
+      <c r="A263" s="32"/>
       <c r="B263" s="20">
         <v>9.3000000000000007</v>
       </c>
@@ -28479,7 +28704,7 @@
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" customFormat="1">
-      <c r="A264" s="28"/>
+      <c r="A264" s="32"/>
       <c r="B264" s="20" t="s">
         <v>462</v>
       </c>
@@ -28493,7 +28718,7 @@
       <c r="F264" s="2"/>
     </row>
     <row r="265" spans="1:6" customFormat="1">
-      <c r="A265" s="28"/>
+      <c r="A265" s="32"/>
       <c r="B265" s="20" t="s">
         <v>463</v>
       </c>
@@ -28507,7 +28732,7 @@
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" customFormat="1">
-      <c r="A266" s="28"/>
+      <c r="A266" s="32"/>
       <c r="B266" s="20" t="s">
         <v>464</v>
       </c>
@@ -28521,7 +28746,7 @@
       <c r="F266" s="2"/>
     </row>
     <row r="267" spans="1:6" customFormat="1">
-      <c r="A267" s="28"/>
+      <c r="A267" s="32"/>
       <c r="B267" s="20" t="s">
         <v>465</v>
       </c>
@@ -28535,7 +28760,7 @@
       <c r="F267" s="2"/>
     </row>
     <row r="268" spans="1:6" customFormat="1">
-      <c r="A268" s="28"/>
+      <c r="A268" s="32"/>
       <c r="B268" s="20" t="s">
         <v>466</v>
       </c>
@@ -28549,7 +28774,7 @@
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6" customFormat="1">
-      <c r="A269" s="28"/>
+      <c r="A269" s="32"/>
       <c r="B269" s="20" t="s">
         <v>467</v>
       </c>
@@ -28563,7 +28788,7 @@
       <c r="F269" s="2"/>
     </row>
     <row r="270" spans="1:6" customFormat="1">
-      <c r="A270" s="28"/>
+      <c r="A270" s="32"/>
       <c r="B270" s="20" t="s">
         <v>468</v>
       </c>
@@ -28577,7 +28802,7 @@
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="1:6" customFormat="1">
-      <c r="A271" s="28"/>
+      <c r="A271" s="32"/>
       <c r="B271" s="20">
         <v>9.4</v>
       </c>
@@ -28591,7 +28816,7 @@
       <c r="F271" s="2"/>
     </row>
     <row r="272" spans="1:6" customFormat="1">
-      <c r="A272" s="28"/>
+      <c r="A272" s="32"/>
       <c r="B272" s="20" t="s">
         <v>469</v>
       </c>
@@ -28605,7 +28830,7 @@
       <c r="F272" s="2"/>
     </row>
     <row r="273" spans="1:6" customFormat="1">
-      <c r="A273" s="28"/>
+      <c r="A273" s="32"/>
       <c r="B273" s="20" t="s">
         <v>470</v>
       </c>
@@ -28619,7 +28844,7 @@
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" customFormat="1">
-      <c r="A274" s="28"/>
+      <c r="A274" s="32"/>
       <c r="B274" s="20" t="s">
         <v>471</v>
       </c>
@@ -28633,7 +28858,7 @@
       <c r="F274" s="2"/>
     </row>
     <row r="275" spans="1:6" customFormat="1">
-      <c r="A275" s="28"/>
+      <c r="A275" s="32"/>
       <c r="B275" s="20" t="s">
         <v>472</v>
       </c>
@@ -28647,7 +28872,7 @@
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" customFormat="1">
-      <c r="A276" s="28"/>
+      <c r="A276" s="32"/>
       <c r="B276" s="20" t="s">
         <v>473</v>
       </c>
@@ -28661,7 +28886,7 @@
       <c r="F276" s="2"/>
     </row>
     <row r="277" spans="1:6" customFormat="1">
-      <c r="A277" s="28"/>
+      <c r="A277" s="32"/>
       <c r="B277" s="20" t="s">
         <v>474</v>
       </c>
@@ -28675,7 +28900,7 @@
       <c r="F277" s="2"/>
     </row>
     <row r="278" spans="1:6" customFormat="1">
-      <c r="A278" s="28"/>
+      <c r="A278" s="32"/>
       <c r="B278" s="20">
         <v>9.5</v>
       </c>
@@ -28689,7 +28914,7 @@
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" customFormat="1">
-      <c r="A279" s="28"/>
+      <c r="A279" s="32"/>
       <c r="B279" s="20" t="s">
         <v>475</v>
       </c>
@@ -28703,7 +28928,7 @@
       <c r="F279" s="2"/>
     </row>
     <row r="280" spans="1:6" customFormat="1">
-      <c r="A280" s="28"/>
+      <c r="A280" s="32"/>
       <c r="B280" s="20" t="s">
         <v>476</v>
       </c>
@@ -28717,7 +28942,7 @@
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" customFormat="1">
-      <c r="A281" s="28"/>
+      <c r="A281" s="32"/>
       <c r="B281" s="20" t="s">
         <v>477</v>
       </c>
@@ -28731,7 +28956,7 @@
       <c r="F281" s="2"/>
     </row>
     <row r="282" spans="1:6" customFormat="1">
-      <c r="A282" s="28"/>
+      <c r="A282" s="32"/>
       <c r="B282" s="20" t="s">
         <v>478</v>
       </c>
@@ -28745,7 +28970,7 @@
       <c r="F282" s="2"/>
     </row>
     <row r="283" spans="1:6" customFormat="1">
-      <c r="A283" s="28"/>
+      <c r="A283" s="32"/>
       <c r="B283" s="20" t="s">
         <v>479</v>
       </c>
@@ -28759,7 +28984,7 @@
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" customFormat="1">
-      <c r="A284" s="28"/>
+      <c r="A284" s="32"/>
       <c r="B284" s="20" t="s">
         <v>480</v>
       </c>
@@ -28773,7 +28998,7 @@
       <c r="F284" s="2"/>
     </row>
     <row r="285" spans="1:6" customFormat="1">
-      <c r="A285" s="28"/>
+      <c r="A285" s="32"/>
       <c r="B285" s="20">
         <v>9.6</v>
       </c>
@@ -28787,7 +29012,7 @@
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6" customFormat="1">
-      <c r="A286" s="28"/>
+      <c r="A286" s="32"/>
       <c r="B286" s="20" t="s">
         <v>481</v>
       </c>
@@ -28801,7 +29026,7 @@
       <c r="F286" s="2"/>
     </row>
     <row r="287" spans="1:6" customFormat="1">
-      <c r="A287" s="28"/>
+      <c r="A287" s="32"/>
       <c r="B287" s="20" t="s">
         <v>482</v>
       </c>
@@ -28815,7 +29040,7 @@
       <c r="F287" s="2"/>
     </row>
     <row r="288" spans="1:6" customFormat="1">
-      <c r="A288" s="28"/>
+      <c r="A288" s="32"/>
       <c r="B288" s="20" t="s">
         <v>483</v>
       </c>
@@ -28829,7 +29054,7 @@
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="1:6" customFormat="1">
-      <c r="A289" s="28"/>
+      <c r="A289" s="32"/>
       <c r="B289" s="20" t="s">
         <v>484</v>
       </c>
@@ -28843,7 +29068,7 @@
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" customFormat="1">
-      <c r="A290" s="28"/>
+      <c r="A290" s="32"/>
       <c r="B290" s="20" t="s">
         <v>485</v>
       </c>
@@ -28857,7 +29082,7 @@
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="1:6" customFormat="1">
-      <c r="A291" s="28" t="s">
+      <c r="A291" s="32" t="s">
         <v>1023</v>
       </c>
       <c r="B291" s="20">
@@ -28873,7 +29098,7 @@
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:6" customFormat="1">
-      <c r="A292" s="28"/>
+      <c r="A292" s="32"/>
       <c r="B292" s="20">
         <v>10.199999999999999</v>
       </c>
@@ -28887,7 +29112,7 @@
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="1:6" customFormat="1">
-      <c r="A293" s="28"/>
+      <c r="A293" s="32"/>
       <c r="B293" s="20">
         <v>10.3</v>
       </c>
@@ -28901,7 +29126,7 @@
       <c r="F293" s="2"/>
     </row>
     <row r="294" spans="1:6" customFormat="1">
-      <c r="A294" s="28"/>
+      <c r="A294" s="32"/>
       <c r="B294" s="20" t="s">
         <v>486</v>
       </c>
@@ -28915,7 +29140,7 @@
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" customFormat="1">
-      <c r="A295" s="28"/>
+      <c r="A295" s="32"/>
       <c r="B295" s="20" t="s">
         <v>487</v>
       </c>
@@ -28929,7 +29154,7 @@
       <c r="F295" s="2"/>
     </row>
     <row r="296" spans="1:6" customFormat="1">
-      <c r="A296" s="28"/>
+      <c r="A296" s="32"/>
       <c r="B296" s="20">
         <v>10.4</v>
       </c>
@@ -28943,7 +29168,7 @@
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6" customFormat="1">
-      <c r="A297" s="28"/>
+      <c r="A297" s="32"/>
       <c r="B297" s="20">
         <v>10.5</v>
       </c>
@@ -28957,7 +29182,7 @@
       <c r="F297" s="2"/>
     </row>
     <row r="298" spans="1:6" customFormat="1">
-      <c r="A298" s="28"/>
+      <c r="A298" s="32"/>
       <c r="B298" s="20">
         <v>10.6</v>
       </c>
@@ -28971,7 +29196,7 @@
       <c r="F298" s="2"/>
     </row>
     <row r="299" spans="1:6" customFormat="1">
-      <c r="A299" s="28"/>
+      <c r="A299" s="32"/>
       <c r="B299" s="20">
         <v>10.7</v>
       </c>
@@ -28985,7 +29210,7 @@
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6" customFormat="1">
-      <c r="A300" s="28"/>
+      <c r="A300" s="32"/>
       <c r="B300" s="20">
         <v>10.8</v>
       </c>
@@ -28999,7 +29224,7 @@
       <c r="F300" s="2"/>
     </row>
     <row r="301" spans="1:6" customFormat="1">
-      <c r="A301" s="28" t="s">
+      <c r="A301" s="32" t="s">
         <v>1021</v>
       </c>
       <c r="B301" s="20">
@@ -29015,7 +29240,7 @@
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6" customFormat="1">
-      <c r="A302" s="28"/>
+      <c r="A302" s="32"/>
       <c r="B302" s="20" t="s">
         <v>488</v>
       </c>
@@ -29029,7 +29254,7 @@
       <c r="F302" s="2"/>
     </row>
     <row r="303" spans="1:6" customFormat="1">
-      <c r="A303" s="28"/>
+      <c r="A303" s="32"/>
       <c r="B303" s="20" t="s">
         <v>489</v>
       </c>
@@ -29043,7 +29268,7 @@
       <c r="F303" s="2"/>
     </row>
     <row r="304" spans="1:6" customFormat="1">
-      <c r="A304" s="28"/>
+      <c r="A304" s="32"/>
       <c r="B304" s="20" t="s">
         <v>490</v>
       </c>
@@ -29057,7 +29282,7 @@
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6" customFormat="1">
-      <c r="A305" s="28"/>
+      <c r="A305" s="32"/>
       <c r="B305" s="20" t="s">
         <v>491</v>
       </c>
@@ -29071,7 +29296,7 @@
       <c r="F305" s="2"/>
     </row>
     <row r="306" spans="1:6" customFormat="1">
-      <c r="A306" s="28"/>
+      <c r="A306" s="32"/>
       <c r="B306" s="20">
         <v>11.2</v>
       </c>
@@ -29085,7 +29310,7 @@
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6" customFormat="1">
-      <c r="A307" s="28"/>
+      <c r="A307" s="32"/>
       <c r="B307" s="20">
         <v>11.3</v>
       </c>
@@ -29099,7 +29324,7 @@
       <c r="F307" s="2"/>
     </row>
     <row r="308" spans="1:6" customFormat="1">
-      <c r="A308" s="28"/>
+      <c r="A308" s="32"/>
       <c r="B308" s="20">
         <v>11.4</v>
       </c>
@@ -29113,7 +29338,7 @@
       <c r="F308" s="2"/>
     </row>
     <row r="309" spans="1:6" customFormat="1">
-      <c r="A309" s="28"/>
+      <c r="A309" s="32"/>
       <c r="B309" s="20" t="s">
         <v>492</v>
       </c>
@@ -29127,7 +29352,7 @@
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6" customFormat="1">
-      <c r="A310" s="28" t="s">
+      <c r="A310" s="32" t="s">
         <v>1020</v>
       </c>
       <c r="B310" s="20">
@@ -29143,7 +29368,7 @@
       <c r="F310" s="2"/>
     </row>
     <row r="311" spans="1:6" customFormat="1">
-      <c r="A311" s="28"/>
+      <c r="A311" s="32"/>
       <c r="B311" s="20" t="s">
         <v>493</v>
       </c>
@@ -29157,7 +29382,7 @@
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6" customFormat="1">
-      <c r="A312" s="28"/>
+      <c r="A312" s="32"/>
       <c r="B312" s="20" t="s">
         <v>494</v>
       </c>
@@ -29171,7 +29396,7 @@
       <c r="F312" s="2"/>
     </row>
     <row r="313" spans="1:6" customFormat="1">
-      <c r="A313" s="28"/>
+      <c r="A313" s="32"/>
       <c r="B313" s="20" t="s">
         <v>495</v>
       </c>
@@ -29185,7 +29410,7 @@
       <c r="F313" s="2"/>
     </row>
     <row r="314" spans="1:6" customFormat="1">
-      <c r="A314" s="28"/>
+      <c r="A314" s="32"/>
       <c r="B314" s="20">
         <v>12.2</v>
       </c>
@@ -29199,7 +29424,7 @@
       <c r="F314" s="2"/>
     </row>
     <row r="315" spans="1:6" customFormat="1">
-      <c r="A315" s="28"/>
+      <c r="A315" s="32"/>
       <c r="B315" s="20" t="s">
         <v>496</v>
       </c>
@@ -29213,7 +29438,7 @@
       <c r="F315" s="2"/>
     </row>
     <row r="316" spans="1:6" customFormat="1">
-      <c r="A316" s="28"/>
+      <c r="A316" s="32"/>
       <c r="B316" s="20" t="s">
         <v>497</v>
       </c>
@@ -29227,7 +29452,7 @@
       <c r="F316" s="2"/>
     </row>
     <row r="317" spans="1:6" customFormat="1">
-      <c r="A317" s="28"/>
+      <c r="A317" s="32"/>
       <c r="B317" s="20">
         <v>12.3</v>
       </c>
@@ -29241,7 +29466,7 @@
       <c r="F317" s="2"/>
     </row>
     <row r="318" spans="1:6" customFormat="1">
-      <c r="A318" s="28"/>
+      <c r="A318" s="32"/>
       <c r="B318" s="20" t="s">
         <v>498</v>
       </c>
@@ -29255,7 +29480,7 @@
       <c r="F318" s="2"/>
     </row>
     <row r="319" spans="1:6" customFormat="1">
-      <c r="A319" s="28"/>
+      <c r="A319" s="32"/>
       <c r="B319" s="20" t="s">
         <v>499</v>
       </c>
@@ -29269,7 +29494,7 @@
       <c r="F319" s="2"/>
     </row>
     <row r="320" spans="1:6" customFormat="1">
-      <c r="A320" s="28"/>
+      <c r="A320" s="32"/>
       <c r="B320" s="20" t="s">
         <v>500</v>
       </c>
@@ -29283,7 +29508,7 @@
       <c r="F320" s="2"/>
     </row>
     <row r="321" spans="1:6" customFormat="1">
-      <c r="A321" s="28"/>
+      <c r="A321" s="32"/>
       <c r="B321" s="20" t="s">
         <v>501</v>
       </c>
@@ -29297,7 +29522,7 @@
       <c r="F321" s="2"/>
     </row>
     <row r="322" spans="1:6" customFormat="1">
-      <c r="A322" s="28"/>
+      <c r="A322" s="32"/>
       <c r="B322" s="20" t="s">
         <v>502</v>
       </c>
@@ -29311,7 +29536,7 @@
       <c r="F322" s="2"/>
     </row>
     <row r="323" spans="1:6" customFormat="1">
-      <c r="A323" s="28"/>
+      <c r="A323" s="32"/>
       <c r="B323" s="20">
         <v>12.4</v>
       </c>
@@ -29325,7 +29550,7 @@
       <c r="F323" s="2"/>
     </row>
     <row r="324" spans="1:6" customFormat="1">
-      <c r="A324" s="28"/>
+      <c r="A324" s="32"/>
       <c r="B324" s="20" t="s">
         <v>503</v>
       </c>
@@ -29339,7 +29564,7 @@
       <c r="F324" s="2"/>
     </row>
     <row r="325" spans="1:6" customFormat="1">
-      <c r="A325" s="28"/>
+      <c r="A325" s="32"/>
       <c r="B325" s="20" t="s">
         <v>504</v>
       </c>
@@ -29353,7 +29578,7 @@
       <c r="F325" s="2"/>
     </row>
     <row r="326" spans="1:6" customFormat="1">
-      <c r="A326" s="28"/>
+      <c r="A326" s="32"/>
       <c r="B326" s="20" t="s">
         <v>505</v>
       </c>
@@ -29367,7 +29592,7 @@
       <c r="F326" s="2"/>
     </row>
     <row r="327" spans="1:6" customFormat="1">
-      <c r="A327" s="28"/>
+      <c r="A327" s="32"/>
       <c r="B327" s="20" t="s">
         <v>506</v>
       </c>
@@ -29381,7 +29606,7 @@
       <c r="F327" s="2"/>
     </row>
     <row r="328" spans="1:6" customFormat="1">
-      <c r="A328" s="28"/>
+      <c r="A328" s="32"/>
       <c r="B328" s="20" t="s">
         <v>507</v>
       </c>
@@ -29395,7 +29620,7 @@
       <c r="F328" s="2"/>
     </row>
     <row r="329" spans="1:6" customFormat="1">
-      <c r="A329" s="28"/>
+      <c r="A329" s="32"/>
       <c r="B329" s="20">
         <v>12.5</v>
       </c>
@@ -29409,7 +29634,7 @@
       <c r="F329" s="2"/>
     </row>
     <row r="330" spans="1:6" customFormat="1">
-      <c r="A330" s="28"/>
+      <c r="A330" s="32"/>
       <c r="B330" s="20" t="s">
         <v>508</v>
       </c>
@@ -29423,7 +29648,7 @@
       <c r="F330" s="2"/>
     </row>
     <row r="331" spans="1:6" customFormat="1">
-      <c r="A331" s="28"/>
+      <c r="A331" s="32"/>
       <c r="B331" s="20" t="s">
         <v>509</v>
       </c>
@@ -29437,7 +29662,7 @@
       <c r="F331" s="2"/>
     </row>
     <row r="332" spans="1:6" customFormat="1">
-      <c r="A332" s="28"/>
+      <c r="A332" s="32"/>
       <c r="B332" s="20" t="s">
         <v>510</v>
       </c>
@@ -29451,7 +29676,7 @@
       <c r="F332" s="2"/>
     </row>
     <row r="333" spans="1:6" customFormat="1">
-      <c r="A333" s="28"/>
+      <c r="A333" s="32"/>
       <c r="B333" s="20" t="s">
         <v>511</v>
       </c>
@@ -29465,7 +29690,7 @@
       <c r="F333" s="2"/>
     </row>
     <row r="334" spans="1:6" customFormat="1">
-      <c r="A334" s="28"/>
+      <c r="A334" s="32"/>
       <c r="B334" s="20" t="s">
         <v>512</v>
       </c>
@@ -29479,7 +29704,7 @@
       <c r="F334" s="2"/>
     </row>
     <row r="335" spans="1:6" customFormat="1">
-      <c r="A335" s="28"/>
+      <c r="A335" s="32"/>
       <c r="B335" s="20" t="s">
         <v>513</v>
       </c>
@@ -29493,7 +29718,7 @@
       <c r="F335" s="2"/>
     </row>
     <row r="336" spans="1:6" customFormat="1">
-      <c r="A336" s="28"/>
+      <c r="A336" s="32"/>
       <c r="B336" s="20" t="s">
         <v>514</v>
       </c>
@@ -29507,7 +29732,7 @@
       <c r="F336" s="2"/>
     </row>
     <row r="337" spans="1:6" customFormat="1">
-      <c r="A337" s="28"/>
+      <c r="A337" s="32"/>
       <c r="B337" s="20" t="s">
         <v>515</v>
       </c>
@@ -29521,7 +29746,7 @@
       <c r="F337" s="2"/>
     </row>
     <row r="338" spans="1:6" customFormat="1">
-      <c r="A338" s="28"/>
+      <c r="A338" s="32"/>
       <c r="B338" s="20">
         <v>12.6</v>
       </c>
@@ -29535,7 +29760,7 @@
       <c r="F338" s="2"/>
     </row>
     <row r="339" spans="1:6" customFormat="1">
-      <c r="A339" s="28"/>
+      <c r="A339" s="32"/>
       <c r="B339" s="20" t="s">
         <v>516</v>
       </c>
@@ -29549,7 +29774,7 @@
       <c r="F339" s="2"/>
     </row>
     <row r="340" spans="1:6" customFormat="1">
-      <c r="A340" s="28"/>
+      <c r="A340" s="32"/>
       <c r="B340" s="20" t="s">
         <v>517</v>
       </c>
@@ -29563,7 +29788,7 @@
       <c r="F340" s="2"/>
     </row>
     <row r="341" spans="1:6" customFormat="1">
-      <c r="A341" s="28"/>
+      <c r="A341" s="32"/>
       <c r="B341" s="20" t="s">
         <v>518</v>
       </c>
@@ -29577,7 +29802,7 @@
       <c r="F341" s="2"/>
     </row>
     <row r="342" spans="1:6" customFormat="1">
-      <c r="A342" s="28"/>
+      <c r="A342" s="32"/>
       <c r="B342" s="20" t="s">
         <v>519</v>
       </c>
@@ -29591,7 +29816,7 @@
       <c r="F342" s="2"/>
     </row>
     <row r="343" spans="1:6" customFormat="1">
-      <c r="A343" s="28"/>
+      <c r="A343" s="32"/>
       <c r="B343" s="20" t="s">
         <v>520</v>
       </c>
@@ -29605,7 +29830,7 @@
       <c r="F343" s="2"/>
     </row>
     <row r="344" spans="1:6" customFormat="1">
-      <c r="A344" s="28"/>
+      <c r="A344" s="32"/>
       <c r="B344" s="20">
         <v>12.7</v>
       </c>
@@ -29619,7 +29844,7 @@
       <c r="F344" s="2"/>
     </row>
     <row r="345" spans="1:6" customFormat="1">
-      <c r="A345" s="28"/>
+      <c r="A345" s="32"/>
       <c r="B345" s="20" t="s">
         <v>521</v>
       </c>
@@ -29633,7 +29858,7 @@
       <c r="F345" s="2"/>
     </row>
     <row r="346" spans="1:6" customFormat="1">
-      <c r="A346" s="28"/>
+      <c r="A346" s="32"/>
       <c r="B346" s="20" t="s">
         <v>522</v>
       </c>
@@ -29647,7 +29872,7 @@
       <c r="F346" s="2"/>
     </row>
     <row r="347" spans="1:6" customFormat="1">
-      <c r="A347" s="28"/>
+      <c r="A347" s="32"/>
       <c r="B347" s="20" t="s">
         <v>523</v>
       </c>
@@ -29661,7 +29886,7 @@
       <c r="F347" s="2"/>
     </row>
     <row r="348" spans="1:6" customFormat="1">
-      <c r="A348" s="28"/>
+      <c r="A348" s="32"/>
       <c r="B348" s="20" t="s">
         <v>524</v>
       </c>
@@ -29675,7 +29900,7 @@
       <c r="F348" s="2"/>
     </row>
     <row r="349" spans="1:6" customFormat="1">
-      <c r="A349" s="28"/>
+      <c r="A349" s="32"/>
       <c r="B349" s="20" t="s">
         <v>525</v>
       </c>
@@ -29689,7 +29914,7 @@
       <c r="F349" s="2"/>
     </row>
     <row r="350" spans="1:6" customFormat="1">
-      <c r="A350" s="28"/>
+      <c r="A350" s="32"/>
       <c r="B350" s="20">
         <v>12.8</v>
       </c>
@@ -29703,7 +29928,7 @@
       <c r="F350" s="2"/>
     </row>
     <row r="351" spans="1:6" customFormat="1">
-      <c r="A351" s="28"/>
+      <c r="A351" s="32"/>
       <c r="B351" s="20" t="s">
         <v>526</v>
       </c>
@@ -29717,7 +29942,7 @@
       <c r="F351" s="2"/>
     </row>
     <row r="352" spans="1:6" customFormat="1">
-      <c r="A352" s="28"/>
+      <c r="A352" s="32"/>
       <c r="B352" s="20" t="s">
         <v>527</v>
       </c>
@@ -29731,7 +29956,7 @@
       <c r="F352" s="2"/>
     </row>
     <row r="353" spans="1:6" customFormat="1">
-      <c r="A353" s="28" t="s">
+      <c r="A353" s="32" t="s">
         <v>1019</v>
       </c>
       <c r="B353" s="20">
@@ -29747,7 +29972,7 @@
       <c r="F353" s="2"/>
     </row>
     <row r="354" spans="1:6" customFormat="1">
-      <c r="A354" s="28"/>
+      <c r="A354" s="32"/>
       <c r="B354" s="20" t="s">
         <v>528</v>
       </c>
@@ -29761,7 +29986,7 @@
       <c r="F354" s="2"/>
     </row>
     <row r="355" spans="1:6" customFormat="1">
-      <c r="A355" s="28"/>
+      <c r="A355" s="32"/>
       <c r="B355" s="20" t="s">
         <v>529</v>
       </c>
@@ -29775,7 +30000,7 @@
       <c r="F355" s="2"/>
     </row>
     <row r="356" spans="1:6" customFormat="1">
-      <c r="A356" s="28"/>
+      <c r="A356" s="32"/>
       <c r="B356" s="20" t="s">
         <v>530</v>
       </c>
@@ -29789,7 +30014,7 @@
       <c r="F356" s="2"/>
     </row>
     <row r="357" spans="1:6" customFormat="1">
-      <c r="A357" s="28"/>
+      <c r="A357" s="32"/>
       <c r="B357" s="20" t="s">
         <v>531</v>
       </c>
@@ -29803,7 +30028,7 @@
       <c r="F357" s="2"/>
     </row>
     <row r="358" spans="1:6" customFormat="1">
-      <c r="A358" s="28"/>
+      <c r="A358" s="32"/>
       <c r="B358" s="20" t="s">
         <v>532</v>
       </c>
@@ -29817,7 +30042,7 @@
       <c r="F358" s="2"/>
     </row>
     <row r="359" spans="1:6" customFormat="1">
-      <c r="A359" s="28"/>
+      <c r="A359" s="32"/>
       <c r="B359" s="20">
         <v>13.2</v>
       </c>
@@ -29831,7 +30056,7 @@
       <c r="F359" s="2"/>
     </row>
     <row r="360" spans="1:6" customFormat="1">
-      <c r="A360" s="28"/>
+      <c r="A360" s="32"/>
       <c r="B360" s="20" t="s">
         <v>533</v>
       </c>
@@ -29845,7 +30070,7 @@
       <c r="F360" s="2"/>
     </row>
     <row r="361" spans="1:6" customFormat="1">
-      <c r="A361" s="28"/>
+      <c r="A361" s="32"/>
       <c r="B361" s="20" t="s">
         <v>534</v>
       </c>
@@ -29859,7 +30084,7 @@
       <c r="F361" s="2"/>
     </row>
     <row r="362" spans="1:6" customFormat="1">
-      <c r="A362" s="28"/>
+      <c r="A362" s="32"/>
       <c r="B362" s="20">
         <v>13.3</v>
       </c>
@@ -29873,7 +30098,7 @@
       <c r="F362" s="2"/>
     </row>
     <row r="363" spans="1:6" customFormat="1">
-      <c r="A363" s="28"/>
+      <c r="A363" s="32"/>
       <c r="B363" s="20">
         <v>13.4</v>
       </c>
@@ -29887,7 +30112,7 @@
       <c r="F363" s="2"/>
     </row>
     <row r="364" spans="1:6" customFormat="1">
-      <c r="A364" s="28"/>
+      <c r="A364" s="32"/>
       <c r="B364" s="20" t="s">
         <v>535</v>
       </c>
@@ -29901,7 +30126,7 @@
       <c r="F364" s="2"/>
     </row>
     <row r="365" spans="1:6" customFormat="1">
-      <c r="A365" s="28"/>
+      <c r="A365" s="32"/>
       <c r="B365" s="20" t="s">
         <v>536</v>
       </c>
@@ -29915,7 +30140,7 @@
       <c r="F365" s="2"/>
     </row>
     <row r="366" spans="1:6" customFormat="1">
-      <c r="A366" s="28"/>
+      <c r="A366" s="32"/>
       <c r="B366" s="20" t="s">
         <v>537</v>
       </c>
@@ -29929,7 +30154,7 @@
       <c r="F366" s="2"/>
     </row>
     <row r="367" spans="1:6" customFormat="1">
-      <c r="A367" s="28"/>
+      <c r="A367" s="32"/>
       <c r="B367" s="20" t="s">
         <v>538</v>
       </c>
@@ -29943,7 +30168,7 @@
       <c r="F367" s="2"/>
     </row>
     <row r="368" spans="1:6" customFormat="1">
-      <c r="A368" s="28"/>
+      <c r="A368" s="32"/>
       <c r="B368" s="20" t="s">
         <v>539</v>
       </c>
@@ -29957,7 +30182,7 @@
       <c r="F368" s="2"/>
     </row>
     <row r="369" spans="1:6" customFormat="1">
-      <c r="A369" s="28"/>
+      <c r="A369" s="32"/>
       <c r="B369" s="20" t="s">
         <v>540</v>
       </c>
@@ -29971,7 +30196,7 @@
       <c r="F369" s="2"/>
     </row>
     <row r="370" spans="1:6" customFormat="1">
-      <c r="A370" s="28"/>
+      <c r="A370" s="32"/>
       <c r="B370" s="20" t="s">
         <v>541</v>
       </c>
@@ -29985,7 +30210,7 @@
       <c r="F370" s="2"/>
     </row>
     <row r="371" spans="1:6" customFormat="1">
-      <c r="A371" s="28"/>
+      <c r="A371" s="32"/>
       <c r="B371" s="20" t="s">
         <v>542</v>
       </c>
@@ -29999,7 +30224,7 @@
       <c r="F371" s="2"/>
     </row>
     <row r="372" spans="1:6" customFormat="1">
-      <c r="A372" s="28"/>
+      <c r="A372" s="32"/>
       <c r="B372" s="20" t="s">
         <v>543</v>
       </c>
@@ -30013,7 +30238,7 @@
       <c r="F372" s="2"/>
     </row>
     <row r="373" spans="1:6" customFormat="1">
-      <c r="A373" s="28"/>
+      <c r="A373" s="32"/>
       <c r="B373" s="20">
         <v>13.5</v>
       </c>
@@ -30027,7 +30252,7 @@
       <c r="F373" s="2"/>
     </row>
     <row r="374" spans="1:6" customFormat="1">
-      <c r="A374" s="28"/>
+      <c r="A374" s="32"/>
       <c r="B374" s="20" t="s">
         <v>544</v>
       </c>
@@ -30041,7 +30266,7 @@
       <c r="F374" s="2"/>
     </row>
     <row r="375" spans="1:6" customFormat="1">
-      <c r="A375" s="28"/>
+      <c r="A375" s="32"/>
       <c r="B375" s="20" t="s">
         <v>545</v>
       </c>
@@ -30865,12 +31090,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A376:A429"/>
-    <mergeCell ref="A353:A375"/>
-    <mergeCell ref="A310:A352"/>
-    <mergeCell ref="A301:A309"/>
-    <mergeCell ref="A250:A290"/>
-    <mergeCell ref="A291:A300"/>
     <mergeCell ref="A77:A127"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A25"/>
@@ -30879,6 +31098,12 @@
     <mergeCell ref="A128:A157"/>
     <mergeCell ref="A190:A217"/>
     <mergeCell ref="A158:A189"/>
+    <mergeCell ref="A376:A429"/>
+    <mergeCell ref="A353:A375"/>
+    <mergeCell ref="A310:A352"/>
+    <mergeCell ref="A301:A309"/>
+    <mergeCell ref="A250:A290"/>
+    <mergeCell ref="A291:A300"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I4">
@@ -30985,7 +31210,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-10</v>
+        <v>截至2020-09-11</v>
       </c>
       <c r="G1" s="12"/>
     </row>

--- a/学习进度.xlsx
+++ b/学习进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laohangdeche/Library/Mobile Documents/com~apple~CloudDocs/个人/学习笔记/Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E439BE0F-3AB5-0C4B-A156-23B86B8E8A68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA2F522-16FE-524C-9CAA-5B8AB47F1848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="460" windowWidth="28300" windowHeight="16900" xr2:uid="{C7784454-BD36-8040-9BFE-2AD014209B0B}"/>
+    <workbookView xWindow="220" yWindow="460" windowWidth="28300" windowHeight="16900" activeTab="1" xr2:uid="{C7784454-BD36-8040-9BFE-2AD014209B0B}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -7757,8 +7757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD3A9F5-E3B9-294E-94C4-D90EDC24648C}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -7942,9 +7942,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB657C6-0FE4-2342-8CC8-66427A454229}">
   <dimension ref="A1:G718"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A457" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B454" sqref="B454"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/学习进度.xlsx
+++ b/学习进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laohangdeche/Library/Mobile Documents/com~apple~CloudDocs/个人/学习笔记/Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA2F522-16FE-524C-9CAA-5B8AB47F1848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC438420-D7A9-064D-AA87-C2BA033E6861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="460" windowWidth="28300" windowHeight="16900" activeTab="1" xr2:uid="{C7784454-BD36-8040-9BFE-2AD014209B0B}"/>
+    <workbookView xWindow="220" yWindow="460" windowWidth="28300" windowHeight="16900" activeTab="2" xr2:uid="{C7784454-BD36-8040-9BFE-2AD014209B0B}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="2293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2785" uniqueCount="2293">
   <si>
     <t>01_Java语言发展史</t>
   </si>
@@ -7208,6 +7208,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7216,12 +7222,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7830,7 +7830,7 @@
       </c>
       <c r="D3" s="2">
         <f>Java_黑马!G2</f>
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E3" s="2">
         <f>Java_黑马!G2+Java_黑马!G3</f>
@@ -7838,11 +7838,11 @@
       </c>
       <c r="F3" s="15">
         <f t="shared" ref="F3:F4" si="0">D3/E3</f>
-        <v>0.57754010695187163</v>
+        <v>0.58645276292335113</v>
       </c>
       <c r="G3" s="25">
         <f>MAX(Java_黑马!D2:D562)</f>
-        <v>44085</v>
+        <v>44089</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7942,7 +7942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB657C6-0FE4-2342-8CC8-66427A454229}">
   <dimension ref="A1:G718"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
@@ -7974,7 +7974,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-11</v>
+        <v>截至2020-09-15</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -9705,7 +9705,7 @@
       <c r="A123" s="2">
         <v>122</v>
       </c>
-      <c r="B123" s="33" t="s">
+      <c r="B123" s="29" t="s">
         <v>1688</v>
       </c>
       <c r="C123" s="2" t="s">
@@ -9720,7 +9720,7 @@
       <c r="A124" s="2">
         <v>123</v>
       </c>
-      <c r="B124" s="33" t="s">
+      <c r="B124" s="29" t="s">
         <v>1689</v>
       </c>
       <c r="C124" s="2" t="s">
@@ -15738,9 +15738,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01128F9A-3AE1-6541-A247-7E828F31667C}">
   <dimension ref="A1:G562"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A320" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B338" sqref="B338"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D341" sqref="D341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -15770,7 +15770,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-11</v>
+        <v>截至2020-09-15</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -15790,7 +15790,7 @@
       </c>
       <c r="G2" s="12">
         <f>COUNTIF(C2:C562,"ok")</f>
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1">
@@ -15809,7 +15809,7 @@
       </c>
       <c r="G3" s="12">
         <f>COUNTBLANK(C2:C562)</f>
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1">
@@ -15828,7 +15828,7 @@
       </c>
       <c r="G4" s="15">
         <f>G2/(G2+G3)</f>
-        <v>0.57754010695187163</v>
+        <v>0.58645276292335113</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1">
@@ -20248,8 +20248,12 @@
       <c r="B338" s="5" t="s">
         <v>1204</v>
       </c>
-      <c r="C338" s="2"/>
-      <c r="D338" s="25"/>
+      <c r="C338" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D338" s="25">
+        <v>44089</v>
+      </c>
     </row>
     <row r="339" spans="1:4" customFormat="1">
       <c r="A339" s="2">
@@ -20258,8 +20262,12 @@
       <c r="B339" s="5" t="s">
         <v>1205</v>
       </c>
-      <c r="C339" s="2"/>
-      <c r="D339" s="25"/>
+      <c r="C339" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D339" s="25">
+        <v>44089</v>
+      </c>
     </row>
     <row r="340" spans="1:4" customFormat="1">
       <c r="A340" s="2">
@@ -20268,8 +20276,12 @@
       <c r="B340" s="5" t="s">
         <v>1206</v>
       </c>
-      <c r="C340" s="2"/>
-      <c r="D340" s="25"/>
+      <c r="C340" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D340" s="25">
+        <v>44089</v>
+      </c>
     </row>
     <row r="341" spans="1:4" customFormat="1">
       <c r="A341" s="2">
@@ -20278,8 +20290,12 @@
       <c r="B341" s="5" t="s">
         <v>1207</v>
       </c>
-      <c r="C341" s="2"/>
-      <c r="D341" s="25"/>
+      <c r="C341" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D341" s="25">
+        <v>44089</v>
+      </c>
     </row>
     <row r="342" spans="1:4" customFormat="1">
       <c r="A342" s="2">
@@ -20288,8 +20304,12 @@
       <c r="B342" s="5" t="s">
         <v>1208</v>
       </c>
-      <c r="C342" s="2"/>
-      <c r="D342" s="25"/>
+      <c r="C342" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D342" s="25">
+        <v>44089</v>
+      </c>
     </row>
     <row r="343" spans="1:4" customFormat="1">
       <c r="A343" s="2">
@@ -22571,7 +22591,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-11</v>
+        <v>截至2020-09-15</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -24977,12 +24997,12 @@
       </c>
       <c r="H1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-11</v>
+        <v>截至2020-09-15</v>
       </c>
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" customFormat="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>1016</v>
       </c>
       <c r="B2" s="20">
@@ -25005,7 +25025,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" customFormat="1">
-      <c r="A3" s="32"/>
+      <c r="A3" s="30"/>
       <c r="B3" s="20">
         <v>1.2</v>
       </c>
@@ -25026,7 +25046,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" customFormat="1">
-      <c r="A4" s="32"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="20" t="s">
         <v>261</v>
       </c>
@@ -25047,7 +25067,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" customFormat="1">
-      <c r="A5" s="32"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="20" t="s">
         <v>262</v>
       </c>
@@ -25061,7 +25081,7 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:9" customFormat="1">
-      <c r="A6" s="32"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="20" t="s">
         <v>263</v>
       </c>
@@ -25076,7 +25096,7 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:9" customFormat="1">
-      <c r="A7" s="32"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="20" t="s">
         <v>264</v>
       </c>
@@ -25091,7 +25111,7 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9" customFormat="1">
-      <c r="A8" s="32"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="20" t="s">
         <v>265</v>
       </c>
@@ -25105,7 +25125,7 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:9" customFormat="1">
-      <c r="A9" s="32"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="20" t="s">
         <v>266</v>
       </c>
@@ -25120,7 +25140,7 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:9" customFormat="1">
-      <c r="A10" s="32"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="20" t="s">
         <v>267</v>
       </c>
@@ -25134,7 +25154,7 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:9" customFormat="1">
-      <c r="A11" s="32"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="20" t="s">
         <v>268</v>
       </c>
@@ -25148,7 +25168,7 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:9" customFormat="1">
-      <c r="A12" s="32"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="20" t="s">
         <v>269</v>
       </c>
@@ -25162,7 +25182,7 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:9" customFormat="1">
-      <c r="A13" s="32"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="20" t="s">
         <v>270</v>
       </c>
@@ -25176,7 +25196,7 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:9" customFormat="1">
-      <c r="A14" s="32"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="20" t="s">
         <v>271</v>
       </c>
@@ -25190,7 +25210,7 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:9" customFormat="1">
-      <c r="A15" s="32"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="20">
         <v>1.3</v>
       </c>
@@ -25204,7 +25224,7 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:9" customFormat="1">
-      <c r="A16" s="32"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="20">
         <v>1.4</v>
       </c>
@@ -25218,7 +25238,7 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" customFormat="1">
-      <c r="A17" s="32"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="20">
         <v>1.5</v>
       </c>
@@ -25232,7 +25252,7 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" customFormat="1">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="30" t="s">
         <v>1017</v>
       </c>
       <c r="B18" s="20">
@@ -25248,7 +25268,7 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" customFormat="1">
-      <c r="A19" s="32"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="20" t="s">
         <v>272</v>
       </c>
@@ -25262,7 +25282,7 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" customFormat="1">
-      <c r="A20" s="32"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="20" t="s">
         <v>273</v>
       </c>
@@ -25276,7 +25296,7 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" customFormat="1">
-      <c r="A21" s="32"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="20" t="s">
         <v>274</v>
       </c>
@@ -25290,7 +25310,7 @@
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" customFormat="1">
-      <c r="A22" s="32"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="20">
         <v>2.2000000000000002</v>
       </c>
@@ -25304,7 +25324,7 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" customFormat="1">
-      <c r="A23" s="32"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="20">
         <v>2.2999999999999998</v>
       </c>
@@ -25318,7 +25338,7 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" customFormat="1">
-      <c r="A24" s="32"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="20">
         <v>2.4</v>
       </c>
@@ -25332,7 +25352,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" customFormat="1">
-      <c r="A25" s="32"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="20">
         <v>2.5</v>
       </c>
@@ -25346,7 +25366,7 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" customFormat="1">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="30" t="s">
         <v>1027</v>
       </c>
       <c r="B26" s="20">
@@ -25362,7 +25382,7 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" customFormat="1">
-      <c r="A27" s="32"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="20">
         <v>3.2</v>
       </c>
@@ -25376,7 +25396,7 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" customFormat="1">
-      <c r="A28" s="32"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="20">
         <v>3.3</v>
       </c>
@@ -25390,7 +25410,7 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" customFormat="1">
-      <c r="A29" s="32"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="20" t="s">
         <v>275</v>
       </c>
@@ -25404,7 +25424,7 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" customFormat="1">
-      <c r="A30" s="32"/>
+      <c r="A30" s="30"/>
       <c r="B30" s="20" t="s">
         <v>276</v>
       </c>
@@ -25418,7 +25438,7 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" customFormat="1">
-      <c r="A31" s="32"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="20" t="s">
         <v>277</v>
       </c>
@@ -25432,7 +25452,7 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" customFormat="1">
-      <c r="A32" s="32"/>
+      <c r="A32" s="30"/>
       <c r="B32" s="20" t="s">
         <v>278</v>
       </c>
@@ -25446,7 +25466,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" customFormat="1">
-      <c r="A33" s="32"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="20" t="s">
         <v>279</v>
       </c>
@@ -25460,7 +25480,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" customFormat="1">
-      <c r="A34" s="32"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="20">
         <v>3.4</v>
       </c>
@@ -25474,7 +25494,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" customFormat="1">
-      <c r="A35" s="32"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="20" t="s">
         <v>280</v>
       </c>
@@ -25488,7 +25508,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" customFormat="1">
-      <c r="A36" s="32"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="20" t="s">
         <v>281</v>
       </c>
@@ -25502,7 +25522,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" customFormat="1">
-      <c r="A37" s="32"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="20">
         <v>3.5</v>
       </c>
@@ -25516,7 +25536,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" customFormat="1">
-      <c r="A38" s="32"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="20" t="s">
         <v>282</v>
       </c>
@@ -25530,7 +25550,7 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" customFormat="1">
-      <c r="A39" s="32"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="20" t="s">
         <v>283</v>
       </c>
@@ -25544,7 +25564,7 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" customFormat="1">
-      <c r="A40" s="32"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="20" t="s">
         <v>284</v>
       </c>
@@ -25558,7 +25578,7 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" customFormat="1">
-      <c r="A41" s="32"/>
+      <c r="A41" s="30"/>
       <c r="B41" s="20" t="s">
         <v>285</v>
       </c>
@@ -25572,7 +25592,7 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" customFormat="1">
-      <c r="A42" s="32"/>
+      <c r="A42" s="30"/>
       <c r="B42" s="20" t="s">
         <v>286</v>
       </c>
@@ -25586,7 +25606,7 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" customFormat="1">
-      <c r="A43" s="32"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="20" t="s">
         <v>287</v>
       </c>
@@ -25600,7 +25620,7 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" customFormat="1">
-      <c r="A44" s="32"/>
+      <c r="A44" s="30"/>
       <c r="B44" s="20" t="s">
         <v>288</v>
       </c>
@@ -25614,7 +25634,7 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" customFormat="1">
-      <c r="A45" s="32"/>
+      <c r="A45" s="30"/>
       <c r="B45" s="20" t="s">
         <v>289</v>
       </c>
@@ -25628,7 +25648,7 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" customFormat="1">
-      <c r="A46" s="32"/>
+      <c r="A46" s="30"/>
       <c r="B46" s="20" t="s">
         <v>290</v>
       </c>
@@ -25642,7 +25662,7 @@
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" customFormat="1">
-      <c r="A47" s="32"/>
+      <c r="A47" s="30"/>
       <c r="B47" s="20">
         <v>3.6</v>
       </c>
@@ -25656,7 +25676,7 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" customFormat="1">
-      <c r="A48" s="32"/>
+      <c r="A48" s="30"/>
       <c r="B48" s="20" t="s">
         <v>291</v>
       </c>
@@ -25670,7 +25690,7 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" customFormat="1">
-      <c r="A49" s="32"/>
+      <c r="A49" s="30"/>
       <c r="B49" s="20" t="s">
         <v>292</v>
       </c>
@@ -25684,7 +25704,7 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" customFormat="1">
-      <c r="A50" s="32"/>
+      <c r="A50" s="30"/>
       <c r="B50" s="20" t="s">
         <v>293</v>
       </c>
@@ -25698,7 +25718,7 @@
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" customFormat="1">
-      <c r="A51" s="32"/>
+      <c r="A51" s="30"/>
       <c r="B51" s="20" t="s">
         <v>294</v>
       </c>
@@ -25712,7 +25732,7 @@
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" customFormat="1">
-      <c r="A52" s="32"/>
+      <c r="A52" s="30"/>
       <c r="B52" s="20" t="s">
         <v>295</v>
       </c>
@@ -25726,7 +25746,7 @@
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" customFormat="1">
-      <c r="A53" s="32"/>
+      <c r="A53" s="30"/>
       <c r="B53" s="20" t="s">
         <v>296</v>
       </c>
@@ -25740,7 +25760,7 @@
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" customFormat="1">
-      <c r="A54" s="32"/>
+      <c r="A54" s="30"/>
       <c r="B54" s="20" t="s">
         <v>297</v>
       </c>
@@ -25754,7 +25774,7 @@
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" customFormat="1">
-      <c r="A55" s="32"/>
+      <c r="A55" s="30"/>
       <c r="B55" s="20" t="s">
         <v>298</v>
       </c>
@@ -25768,7 +25788,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" customFormat="1">
-      <c r="A56" s="32"/>
+      <c r="A56" s="30"/>
       <c r="B56" s="20" t="s">
         <v>299</v>
       </c>
@@ -25782,7 +25802,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" customFormat="1">
-      <c r="A57" s="32"/>
+      <c r="A57" s="30"/>
       <c r="B57" s="20">
         <v>3.7</v>
       </c>
@@ -25796,7 +25816,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" customFormat="1">
-      <c r="A58" s="32"/>
+      <c r="A58" s="30"/>
       <c r="B58" s="20" t="s">
         <v>300</v>
       </c>
@@ -25810,7 +25830,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" customFormat="1">
-      <c r="A59" s="32"/>
+      <c r="A59" s="30"/>
       <c r="B59" s="20" t="s">
         <v>301</v>
       </c>
@@ -25824,7 +25844,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" customFormat="1">
-      <c r="A60" s="32"/>
+      <c r="A60" s="30"/>
       <c r="B60" s="20" t="s">
         <v>302</v>
       </c>
@@ -25838,7 +25858,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" customFormat="1">
-      <c r="A61" s="32"/>
+      <c r="A61" s="30"/>
       <c r="B61" s="20">
         <v>3.8</v>
       </c>
@@ -25852,7 +25872,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" customFormat="1">
-      <c r="A62" s="32"/>
+      <c r="A62" s="30"/>
       <c r="B62" s="20" t="s">
         <v>303</v>
       </c>
@@ -25866,7 +25886,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" customFormat="1">
-      <c r="A63" s="32"/>
+      <c r="A63" s="30"/>
       <c r="B63" s="20" t="s">
         <v>304</v>
       </c>
@@ -25880,7 +25900,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" customFormat="1">
-      <c r="A64" s="32"/>
+      <c r="A64" s="30"/>
       <c r="B64" s="20" t="s">
         <v>305</v>
       </c>
@@ -25894,7 +25914,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" customFormat="1">
-      <c r="A65" s="32"/>
+      <c r="A65" s="30"/>
       <c r="B65" s="20" t="s">
         <v>306</v>
       </c>
@@ -25908,7 +25928,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" customFormat="1">
-      <c r="A66" s="32"/>
+      <c r="A66" s="30"/>
       <c r="B66" s="20" t="s">
         <v>307</v>
       </c>
@@ -25922,7 +25942,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" customFormat="1">
-      <c r="A67" s="32"/>
+      <c r="A67" s="30"/>
       <c r="B67" s="20" t="s">
         <v>308</v>
       </c>
@@ -25936,7 +25956,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" customFormat="1">
-      <c r="A68" s="32"/>
+      <c r="A68" s="30"/>
       <c r="B68" s="20">
         <v>3.9</v>
       </c>
@@ -25950,7 +25970,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" customFormat="1">
-      <c r="A69" s="32"/>
+      <c r="A69" s="30"/>
       <c r="B69" s="20">
         <v>3.1</v>
       </c>
@@ -25964,7 +25984,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" customFormat="1">
-      <c r="A70" s="32"/>
+      <c r="A70" s="30"/>
       <c r="B70" s="20" t="s">
         <v>309</v>
       </c>
@@ -25978,7 +25998,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" customFormat="1">
-      <c r="A71" s="32"/>
+      <c r="A71" s="30"/>
       <c r="B71" s="20" t="s">
         <v>310</v>
       </c>
@@ -25992,7 +26012,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" customFormat="1">
-      <c r="A72" s="32"/>
+      <c r="A72" s="30"/>
       <c r="B72" s="20" t="s">
         <v>311</v>
       </c>
@@ -26006,7 +26026,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" customFormat="1">
-      <c r="A73" s="32"/>
+      <c r="A73" s="30"/>
       <c r="B73" s="20" t="s">
         <v>312</v>
       </c>
@@ -26020,7 +26040,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" customFormat="1">
-      <c r="A74" s="32"/>
+      <c r="A74" s="30"/>
       <c r="B74" s="20" t="s">
         <v>313</v>
       </c>
@@ -26034,7 +26054,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" customFormat="1">
-      <c r="A75" s="32"/>
+      <c r="A75" s="30"/>
       <c r="B75" s="20" t="s">
         <v>314</v>
       </c>
@@ -26048,7 +26068,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" customFormat="1">
-      <c r="A76" s="32"/>
+      <c r="A76" s="30"/>
       <c r="B76" s="20" t="s">
         <v>315</v>
       </c>
@@ -26062,7 +26082,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" customFormat="1">
-      <c r="A77" s="32" t="s">
+      <c r="A77" s="30" t="s">
         <v>1028</v>
       </c>
       <c r="B77" s="20">
@@ -26078,7 +26098,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" customFormat="1">
-      <c r="A78" s="32"/>
+      <c r="A78" s="30"/>
       <c r="B78" s="20" t="s">
         <v>316</v>
       </c>
@@ -26092,7 +26112,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" customFormat="1">
-      <c r="A79" s="32"/>
+      <c r="A79" s="30"/>
       <c r="B79" s="20" t="s">
         <v>317</v>
       </c>
@@ -26106,7 +26126,7 @@
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" customFormat="1">
-      <c r="A80" s="32"/>
+      <c r="A80" s="30"/>
       <c r="B80" s="20" t="s">
         <v>318</v>
       </c>
@@ -26120,7 +26140,7 @@
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" customFormat="1">
-      <c r="A81" s="32"/>
+      <c r="A81" s="30"/>
       <c r="B81" s="20" t="s">
         <v>319</v>
       </c>
@@ -26134,7 +26154,7 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" customFormat="1">
-      <c r="A82" s="32"/>
+      <c r="A82" s="30"/>
       <c r="B82" s="20">
         <v>4.2</v>
       </c>
@@ -26148,7 +26168,7 @@
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" customFormat="1">
-      <c r="A83" s="32"/>
+      <c r="A83" s="30"/>
       <c r="B83" s="20" t="s">
         <v>320</v>
       </c>
@@ -26162,7 +26182,7 @@
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" customFormat="1">
-      <c r="A84" s="32"/>
+      <c r="A84" s="30"/>
       <c r="B84" s="20" t="s">
         <v>321</v>
       </c>
@@ -26176,7 +26196,7 @@
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" customFormat="1">
-      <c r="A85" s="32"/>
+      <c r="A85" s="30"/>
       <c r="B85" s="20" t="s">
         <v>322</v>
       </c>
@@ -26190,7 +26210,7 @@
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" customFormat="1">
-      <c r="A86" s="32"/>
+      <c r="A86" s="30"/>
       <c r="B86" s="20">
         <v>4.3</v>
       </c>
@@ -26204,7 +26224,7 @@
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" customFormat="1">
-      <c r="A87" s="32"/>
+      <c r="A87" s="30"/>
       <c r="B87" s="20" t="s">
         <v>323</v>
       </c>
@@ -26218,7 +26238,7 @@
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" customFormat="1">
-      <c r="A88" s="32"/>
+      <c r="A88" s="30"/>
       <c r="B88" s="20" t="s">
         <v>324</v>
       </c>
@@ -26232,7 +26252,7 @@
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" customFormat="1">
-      <c r="A89" s="32"/>
+      <c r="A89" s="30"/>
       <c r="B89" s="20" t="s">
         <v>325</v>
       </c>
@@ -26246,7 +26266,7 @@
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" customFormat="1">
-      <c r="A90" s="32"/>
+      <c r="A90" s="30"/>
       <c r="B90" s="20" t="s">
         <v>326</v>
       </c>
@@ -26260,7 +26280,7 @@
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" customFormat="1">
-      <c r="A91" s="32"/>
+      <c r="A91" s="30"/>
       <c r="B91" s="20" t="s">
         <v>327</v>
       </c>
@@ -26274,7 +26294,7 @@
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" customFormat="1">
-      <c r="A92" s="32"/>
+      <c r="A92" s="30"/>
       <c r="B92" s="20" t="s">
         <v>328</v>
       </c>
@@ -26288,7 +26308,7 @@
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" customFormat="1">
-      <c r="A93" s="32"/>
+      <c r="A93" s="30"/>
       <c r="B93" s="20" t="s">
         <v>329</v>
       </c>
@@ -26302,7 +26322,7 @@
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" customFormat="1">
-      <c r="A94" s="32"/>
+      <c r="A94" s="30"/>
       <c r="B94" s="20" t="s">
         <v>330</v>
       </c>
@@ -26316,7 +26336,7 @@
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" customFormat="1">
-      <c r="A95" s="32"/>
+      <c r="A95" s="30"/>
       <c r="B95" s="20" t="s">
         <v>331</v>
       </c>
@@ -26330,7 +26350,7 @@
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" customFormat="1">
-      <c r="A96" s="32"/>
+      <c r="A96" s="30"/>
       <c r="B96" s="20">
         <v>4.4000000000000004</v>
       </c>
@@ -26344,7 +26364,7 @@
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" customFormat="1">
-      <c r="A97" s="32"/>
+      <c r="A97" s="30"/>
       <c r="B97" s="20" t="s">
         <v>332</v>
       </c>
@@ -26358,7 +26378,7 @@
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" customFormat="1">
-      <c r="A98" s="32"/>
+      <c r="A98" s="30"/>
       <c r="B98" s="20" t="s">
         <v>333</v>
       </c>
@@ -26372,7 +26392,7 @@
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" customFormat="1">
-      <c r="A99" s="32"/>
+      <c r="A99" s="30"/>
       <c r="B99" s="20" t="s">
         <v>334</v>
       </c>
@@ -26386,7 +26406,7 @@
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" customFormat="1">
-      <c r="A100" s="32"/>
+      <c r="A100" s="30"/>
       <c r="B100" s="20" t="s">
         <v>335</v>
       </c>
@@ -26400,7 +26420,7 @@
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" customFormat="1">
-      <c r="A101" s="32"/>
+      <c r="A101" s="30"/>
       <c r="B101" s="20" t="s">
         <v>336</v>
       </c>
@@ -26414,7 +26434,7 @@
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" customFormat="1">
-      <c r="A102" s="32"/>
+      <c r="A102" s="30"/>
       <c r="B102" s="20">
         <v>4.5</v>
       </c>
@@ -26428,7 +26448,7 @@
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" customFormat="1">
-      <c r="A103" s="32"/>
+      <c r="A103" s="30"/>
       <c r="B103" s="20">
         <v>4.5999999999999996</v>
       </c>
@@ -26442,7 +26462,7 @@
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" customFormat="1">
-      <c r="A104" s="32"/>
+      <c r="A104" s="30"/>
       <c r="B104" s="20" t="s">
         <v>337</v>
       </c>
@@ -26456,7 +26476,7 @@
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" customFormat="1">
-      <c r="A105" s="32"/>
+      <c r="A105" s="30"/>
       <c r="B105" s="20" t="s">
         <v>338</v>
       </c>
@@ -26470,7 +26490,7 @@
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" customFormat="1">
-      <c r="A106" s="32"/>
+      <c r="A106" s="30"/>
       <c r="B106" s="20" t="s">
         <v>339</v>
       </c>
@@ -26484,7 +26504,7 @@
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" customFormat="1">
-      <c r="A107" s="32"/>
+      <c r="A107" s="30"/>
       <c r="B107" s="20" t="s">
         <v>340</v>
       </c>
@@ -26498,7 +26518,7 @@
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" customFormat="1">
-      <c r="A108" s="32"/>
+      <c r="A108" s="30"/>
       <c r="B108" s="20" t="s">
         <v>341</v>
       </c>
@@ -26512,7 +26532,7 @@
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" customFormat="1">
-      <c r="A109" s="32"/>
+      <c r="A109" s="30"/>
       <c r="B109" s="20" t="s">
         <v>342</v>
       </c>
@@ -26526,7 +26546,7 @@
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" customFormat="1">
-      <c r="A110" s="32"/>
+      <c r="A110" s="30"/>
       <c r="B110" s="20" t="s">
         <v>343</v>
       </c>
@@ -26540,7 +26560,7 @@
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" customFormat="1">
-      <c r="A111" s="32"/>
+      <c r="A111" s="30"/>
       <c r="B111" s="20" t="s">
         <v>344</v>
       </c>
@@ -26554,7 +26574,7 @@
       <c r="F111" s="9"/>
     </row>
     <row r="112" spans="1:6" customFormat="1">
-      <c r="A112" s="32"/>
+      <c r="A112" s="30"/>
       <c r="B112" s="20">
         <v>4.7</v>
       </c>
@@ -26568,7 +26588,7 @@
       <c r="F112" s="9"/>
     </row>
     <row r="113" spans="1:8" customFormat="1">
-      <c r="A113" s="32"/>
+      <c r="A113" s="30"/>
       <c r="B113" s="20" t="s">
         <v>345</v>
       </c>
@@ -26582,7 +26602,7 @@
       <c r="F113" s="9"/>
     </row>
     <row r="114" spans="1:8" customFormat="1">
-      <c r="A114" s="32"/>
+      <c r="A114" s="30"/>
       <c r="B114" s="20" t="s">
         <v>346</v>
       </c>
@@ -26596,7 +26616,7 @@
       <c r="F114" s="9"/>
     </row>
     <row r="115" spans="1:8" customFormat="1">
-      <c r="A115" s="32"/>
+      <c r="A115" s="30"/>
       <c r="B115" s="20" t="s">
         <v>347</v>
       </c>
@@ -26610,7 +26630,7 @@
       <c r="F115" s="9"/>
     </row>
     <row r="116" spans="1:8" customFormat="1">
-      <c r="A116" s="32"/>
+      <c r="A116" s="30"/>
       <c r="B116" s="20" t="s">
         <v>348</v>
       </c>
@@ -26625,7 +26645,7 @@
       <c r="H116" s="7"/>
     </row>
     <row r="117" spans="1:8" customFormat="1">
-      <c r="A117" s="32"/>
+      <c r="A117" s="30"/>
       <c r="B117" s="20">
         <v>4.8</v>
       </c>
@@ -26640,7 +26660,7 @@
       <c r="H117" s="7"/>
     </row>
     <row r="118" spans="1:8" customFormat="1">
-      <c r="A118" s="32"/>
+      <c r="A118" s="30"/>
       <c r="B118" s="20" t="s">
         <v>349</v>
       </c>
@@ -26655,7 +26675,7 @@
       <c r="H118" s="7"/>
     </row>
     <row r="119" spans="1:8" customFormat="1">
-      <c r="A119" s="32"/>
+      <c r="A119" s="30"/>
       <c r="B119" s="20">
         <v>4.9000000000000004</v>
       </c>
@@ -26670,7 +26690,7 @@
       <c r="H119" s="7"/>
     </row>
     <row r="120" spans="1:8" customFormat="1">
-      <c r="A120" s="32"/>
+      <c r="A120" s="30"/>
       <c r="B120" s="20" t="s">
         <v>350</v>
       </c>
@@ -26685,7 +26705,7 @@
       <c r="H120" s="7"/>
     </row>
     <row r="121" spans="1:8" customFormat="1">
-      <c r="A121" s="32"/>
+      <c r="A121" s="30"/>
       <c r="B121" s="20" t="s">
         <v>351</v>
       </c>
@@ -26700,7 +26720,7 @@
       <c r="H121" s="7"/>
     </row>
     <row r="122" spans="1:8" customFormat="1">
-      <c r="A122" s="32"/>
+      <c r="A122" s="30"/>
       <c r="B122" s="20" t="s">
         <v>352</v>
       </c>
@@ -26715,7 +26735,7 @@
       <c r="H122" s="7"/>
     </row>
     <row r="123" spans="1:8" customFormat="1">
-      <c r="A123" s="32"/>
+      <c r="A123" s="30"/>
       <c r="B123" s="20" t="s">
         <v>353</v>
       </c>
@@ -26730,7 +26750,7 @@
       <c r="H123" s="7"/>
     </row>
     <row r="124" spans="1:8" customFormat="1">
-      <c r="A124" s="32"/>
+      <c r="A124" s="30"/>
       <c r="B124" s="20" t="s">
         <v>354</v>
       </c>
@@ -26745,7 +26765,7 @@
       <c r="H124" s="7"/>
     </row>
     <row r="125" spans="1:8" customFormat="1">
-      <c r="A125" s="32"/>
+      <c r="A125" s="30"/>
       <c r="B125" s="20" t="s">
         <v>355</v>
       </c>
@@ -26760,7 +26780,7 @@
       <c r="H125" s="7"/>
     </row>
     <row r="126" spans="1:8" customFormat="1">
-      <c r="A126" s="32"/>
+      <c r="A126" s="30"/>
       <c r="B126" s="20" t="s">
         <v>356</v>
       </c>
@@ -26775,7 +26795,7 @@
       <c r="H126" s="7"/>
     </row>
     <row r="127" spans="1:8" customFormat="1">
-      <c r="A127" s="32"/>
+      <c r="A127" s="30"/>
       <c r="B127" s="21">
         <v>4.0999999999999996</v>
       </c>
@@ -26790,7 +26810,7 @@
       <c r="H127" s="7"/>
     </row>
     <row r="128" spans="1:8" customFormat="1">
-      <c r="A128" s="32" t="s">
+      <c r="A128" s="30" t="s">
         <v>1029</v>
       </c>
       <c r="B128" s="20">
@@ -26806,7 +26826,7 @@
       <c r="F128" s="6"/>
     </row>
     <row r="129" spans="1:6" customFormat="1">
-      <c r="A129" s="32"/>
+      <c r="A129" s="30"/>
       <c r="B129" s="20" t="s">
         <v>357</v>
       </c>
@@ -26820,7 +26840,7 @@
       <c r="F129" s="6"/>
     </row>
     <row r="130" spans="1:6" customFormat="1">
-      <c r="A130" s="32"/>
+      <c r="A130" s="30"/>
       <c r="B130" s="20" t="s">
         <v>358</v>
       </c>
@@ -26834,7 +26854,7 @@
       <c r="F130" s="6"/>
     </row>
     <row r="131" spans="1:6" customFormat="1">
-      <c r="A131" s="32"/>
+      <c r="A131" s="30"/>
       <c r="B131" s="20" t="s">
         <v>359</v>
       </c>
@@ -26848,7 +26868,7 @@
       <c r="F131" s="6"/>
     </row>
     <row r="132" spans="1:6" customFormat="1">
-      <c r="A132" s="32"/>
+      <c r="A132" s="30"/>
       <c r="B132" s="20" t="s">
         <v>360</v>
       </c>
@@ -26862,7 +26882,7 @@
       <c r="F132" s="6"/>
     </row>
     <row r="133" spans="1:6" customFormat="1">
-      <c r="A133" s="32"/>
+      <c r="A133" s="30"/>
       <c r="B133" s="20" t="s">
         <v>361</v>
       </c>
@@ -26876,7 +26896,7 @@
       <c r="F133" s="6"/>
     </row>
     <row r="134" spans="1:6" customFormat="1">
-      <c r="A134" s="32"/>
+      <c r="A134" s="30"/>
       <c r="B134" s="20" t="s">
         <v>362</v>
       </c>
@@ -26890,7 +26910,7 @@
       <c r="F134" s="6"/>
     </row>
     <row r="135" spans="1:6" customFormat="1">
-      <c r="A135" s="32"/>
+      <c r="A135" s="30"/>
       <c r="B135" s="20" t="s">
         <v>363</v>
       </c>
@@ -26904,7 +26924,7 @@
       <c r="F135" s="6"/>
     </row>
     <row r="136" spans="1:6" customFormat="1">
-      <c r="A136" s="32"/>
+      <c r="A136" s="30"/>
       <c r="B136" s="20" t="s">
         <v>364</v>
       </c>
@@ -26918,7 +26938,7 @@
       <c r="F136" s="6"/>
     </row>
     <row r="137" spans="1:6" customFormat="1">
-      <c r="A137" s="32"/>
+      <c r="A137" s="30"/>
       <c r="B137" s="20" t="s">
         <v>365</v>
       </c>
@@ -26932,7 +26952,7 @@
       <c r="F137" s="6"/>
     </row>
     <row r="138" spans="1:6" customFormat="1">
-      <c r="A138" s="32"/>
+      <c r="A138" s="30"/>
       <c r="B138" s="20" t="s">
         <v>366</v>
       </c>
@@ -26946,7 +26966,7 @@
       <c r="F138" s="6"/>
     </row>
     <row r="139" spans="1:6" customFormat="1">
-      <c r="A139" s="32"/>
+      <c r="A139" s="30"/>
       <c r="B139" s="20">
         <v>5.2</v>
       </c>
@@ -26960,7 +26980,7 @@
       <c r="F139" s="6"/>
     </row>
     <row r="140" spans="1:6" customFormat="1">
-      <c r="A140" s="32"/>
+      <c r="A140" s="30"/>
       <c r="B140" s="20" t="s">
         <v>367</v>
       </c>
@@ -26974,7 +26994,7 @@
       <c r="F140" s="6"/>
     </row>
     <row r="141" spans="1:6" customFormat="1">
-      <c r="A141" s="32"/>
+      <c r="A141" s="30"/>
       <c r="B141" s="20" t="s">
         <v>368</v>
       </c>
@@ -26988,7 +27008,7 @@
       <c r="F141" s="6"/>
     </row>
     <row r="142" spans="1:6" customFormat="1">
-      <c r="A142" s="32"/>
+      <c r="A142" s="30"/>
       <c r="B142" s="20" t="s">
         <v>369</v>
       </c>
@@ -27002,7 +27022,7 @@
       <c r="F142" s="6"/>
     </row>
     <row r="143" spans="1:6" customFormat="1">
-      <c r="A143" s="32"/>
+      <c r="A143" s="30"/>
       <c r="B143" s="20" t="s">
         <v>370</v>
       </c>
@@ -27016,7 +27036,7 @@
       <c r="F143" s="6"/>
     </row>
     <row r="144" spans="1:6" customFormat="1">
-      <c r="A144" s="32"/>
+      <c r="A144" s="30"/>
       <c r="B144" s="20">
         <v>5.3</v>
       </c>
@@ -27030,7 +27050,7 @@
       <c r="F144" s="6"/>
     </row>
     <row r="145" spans="1:6" customFormat="1">
-      <c r="A145" s="32"/>
+      <c r="A145" s="30"/>
       <c r="B145" s="20" t="s">
         <v>371</v>
       </c>
@@ -27044,7 +27064,7 @@
       <c r="F145" s="6"/>
     </row>
     <row r="146" spans="1:6" customFormat="1">
-      <c r="A146" s="32"/>
+      <c r="A146" s="30"/>
       <c r="B146" s="20" t="s">
         <v>372</v>
       </c>
@@ -27058,7 +27078,7 @@
       <c r="F146" s="6"/>
     </row>
     <row r="147" spans="1:6" customFormat="1">
-      <c r="A147" s="32"/>
+      <c r="A147" s="30"/>
       <c r="B147" s="20">
         <v>5.4</v>
       </c>
@@ -27072,7 +27092,7 @@
       <c r="F147" s="6"/>
     </row>
     <row r="148" spans="1:6" customFormat="1">
-      <c r="A148" s="32"/>
+      <c r="A148" s="30"/>
       <c r="B148" s="20">
         <v>5.5</v>
       </c>
@@ -27086,7 +27106,7 @@
       <c r="F148" s="6"/>
     </row>
     <row r="149" spans="1:6" customFormat="1">
-      <c r="A149" s="32"/>
+      <c r="A149" s="30"/>
       <c r="B149" s="20">
         <v>5.6</v>
       </c>
@@ -27100,7 +27120,7 @@
       <c r="F149" s="6"/>
     </row>
     <row r="150" spans="1:6" customFormat="1">
-      <c r="A150" s="32"/>
+      <c r="A150" s="30"/>
       <c r="B150" s="20">
         <v>5.7</v>
       </c>
@@ -27114,7 +27134,7 @@
       <c r="F150" s="6"/>
     </row>
     <row r="151" spans="1:6" customFormat="1">
-      <c r="A151" s="32"/>
+      <c r="A151" s="30"/>
       <c r="B151" s="20" t="s">
         <v>373</v>
       </c>
@@ -27128,7 +27148,7 @@
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="1:6" customFormat="1">
-      <c r="A152" s="32"/>
+      <c r="A152" s="30"/>
       <c r="B152" s="20" t="s">
         <v>374</v>
       </c>
@@ -27142,7 +27162,7 @@
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:6" customFormat="1">
-      <c r="A153" s="32"/>
+      <c r="A153" s="30"/>
       <c r="B153" s="20" t="s">
         <v>375</v>
       </c>
@@ -27156,7 +27176,7 @@
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" customFormat="1">
-      <c r="A154" s="32"/>
+      <c r="A154" s="30"/>
       <c r="B154" s="20" t="s">
         <v>376</v>
       </c>
@@ -27170,7 +27190,7 @@
       <c r="F154" s="2"/>
     </row>
     <row r="155" spans="1:6" customFormat="1">
-      <c r="A155" s="32"/>
+      <c r="A155" s="30"/>
       <c r="B155" s="20" t="s">
         <v>377</v>
       </c>
@@ -27184,7 +27204,7 @@
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" customFormat="1">
-      <c r="A156" s="32"/>
+      <c r="A156" s="30"/>
       <c r="B156" s="20" t="s">
         <v>378</v>
       </c>
@@ -27198,7 +27218,7 @@
       <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:6" customFormat="1">
-      <c r="A157" s="32"/>
+      <c r="A157" s="30"/>
       <c r="B157" s="20">
         <v>5.8</v>
       </c>
@@ -27212,7 +27232,7 @@
       <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:6" customFormat="1">
-      <c r="A158" s="32" t="s">
+      <c r="A158" s="30" t="s">
         <v>1026</v>
       </c>
       <c r="B158" s="20">
@@ -27228,7 +27248,7 @@
       <c r="F158" s="2"/>
     </row>
     <row r="159" spans="1:6" customFormat="1">
-      <c r="A159" s="32"/>
+      <c r="A159" s="30"/>
       <c r="B159" s="20" t="s">
         <v>379</v>
       </c>
@@ -27242,7 +27262,7 @@
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" customFormat="1">
-      <c r="A160" s="32"/>
+      <c r="A160" s="30"/>
       <c r="B160" s="20" t="s">
         <v>380</v>
       </c>
@@ -27256,7 +27276,7 @@
       <c r="F160" s="2"/>
     </row>
     <row r="161" spans="1:6" customFormat="1">
-      <c r="A161" s="32"/>
+      <c r="A161" s="30"/>
       <c r="B161" s="20" t="s">
         <v>381</v>
       </c>
@@ -27270,7 +27290,7 @@
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" customFormat="1">
-      <c r="A162" s="32"/>
+      <c r="A162" s="30"/>
       <c r="B162" s="20" t="s">
         <v>382</v>
       </c>
@@ -27284,7 +27304,7 @@
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:6" customFormat="1">
-      <c r="A163" s="32"/>
+      <c r="A163" s="30"/>
       <c r="B163" s="20" t="s">
         <v>383</v>
       </c>
@@ -27298,7 +27318,7 @@
       <c r="F163" s="2"/>
     </row>
     <row r="164" spans="1:6" customFormat="1">
-      <c r="A164" s="32"/>
+      <c r="A164" s="30"/>
       <c r="B164" s="20" t="s">
         <v>384</v>
       </c>
@@ -27312,7 +27332,7 @@
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" customFormat="1">
-      <c r="A165" s="32"/>
+      <c r="A165" s="30"/>
       <c r="B165" s="20">
         <v>6.2</v>
       </c>
@@ -27326,7 +27346,7 @@
       <c r="F165" s="2"/>
     </row>
     <row r="166" spans="1:6" customFormat="1">
-      <c r="A166" s="32"/>
+      <c r="A166" s="30"/>
       <c r="B166" s="20" t="s">
         <v>385</v>
       </c>
@@ -27340,7 +27360,7 @@
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" customFormat="1">
-      <c r="A167" s="32"/>
+      <c r="A167" s="30"/>
       <c r="B167" s="20" t="s">
         <v>386</v>
       </c>
@@ -27354,7 +27374,7 @@
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="1:6" customFormat="1">
-      <c r="A168" s="32"/>
+      <c r="A168" s="30"/>
       <c r="B168" s="20" t="s">
         <v>387</v>
       </c>
@@ -27368,7 +27388,7 @@
       <c r="F168" s="2"/>
     </row>
     <row r="169" spans="1:6" customFormat="1">
-      <c r="A169" s="32"/>
+      <c r="A169" s="30"/>
       <c r="B169" s="20">
         <v>6.3</v>
       </c>
@@ -27382,7 +27402,7 @@
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" customFormat="1">
-      <c r="A170" s="32"/>
+      <c r="A170" s="30"/>
       <c r="B170" s="20" t="s">
         <v>388</v>
       </c>
@@ -27396,7 +27416,7 @@
       <c r="F170" s="2"/>
     </row>
     <row r="171" spans="1:6" customFormat="1">
-      <c r="A171" s="32"/>
+      <c r="A171" s="30"/>
       <c r="B171" s="20" t="s">
         <v>389</v>
       </c>
@@ -27410,7 +27430,7 @@
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" customFormat="1">
-      <c r="A172" s="32"/>
+      <c r="A172" s="30"/>
       <c r="B172" s="20" t="s">
         <v>390</v>
       </c>
@@ -27424,7 +27444,7 @@
       <c r="F172" s="2"/>
     </row>
     <row r="173" spans="1:6" customFormat="1">
-      <c r="A173" s="32"/>
+      <c r="A173" s="30"/>
       <c r="B173" s="20" t="s">
         <v>391</v>
       </c>
@@ -27438,7 +27458,7 @@
       <c r="F173" s="2"/>
     </row>
     <row r="174" spans="1:6" customFormat="1">
-      <c r="A174" s="32"/>
+      <c r="A174" s="30"/>
       <c r="B174" s="20" t="s">
         <v>392</v>
       </c>
@@ -27452,7 +27472,7 @@
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" customFormat="1">
-      <c r="A175" s="32"/>
+      <c r="A175" s="30"/>
       <c r="B175" s="20" t="s">
         <v>393</v>
       </c>
@@ -27466,7 +27486,7 @@
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="1:6" customFormat="1">
-      <c r="A176" s="32"/>
+      <c r="A176" s="30"/>
       <c r="B176" s="20" t="s">
         <v>394</v>
       </c>
@@ -27480,7 +27500,7 @@
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" customFormat="1">
-      <c r="A177" s="32"/>
+      <c r="A177" s="30"/>
       <c r="B177" s="20" t="s">
         <v>395</v>
       </c>
@@ -27494,7 +27514,7 @@
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:6" customFormat="1">
-      <c r="A178" s="32"/>
+      <c r="A178" s="30"/>
       <c r="B178" s="20">
         <v>6.4</v>
       </c>
@@ -27508,7 +27528,7 @@
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:6" customFormat="1">
-      <c r="A179" s="32"/>
+      <c r="A179" s="30"/>
       <c r="B179" s="20" t="s">
         <v>396</v>
       </c>
@@ -27522,7 +27542,7 @@
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" customFormat="1">
-      <c r="A180" s="32"/>
+      <c r="A180" s="30"/>
       <c r="B180" s="20" t="s">
         <v>397</v>
       </c>
@@ -27536,7 +27556,7 @@
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6" customFormat="1">
-      <c r="A181" s="32"/>
+      <c r="A181" s="30"/>
       <c r="B181" s="20" t="s">
         <v>398</v>
       </c>
@@ -27550,7 +27570,7 @@
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" customFormat="1">
-      <c r="A182" s="32"/>
+      <c r="A182" s="30"/>
       <c r="B182" s="20" t="s">
         <v>399</v>
       </c>
@@ -27564,7 +27584,7 @@
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:6" customFormat="1">
-      <c r="A183" s="32"/>
+      <c r="A183" s="30"/>
       <c r="B183" s="20" t="s">
         <v>400</v>
       </c>
@@ -27578,7 +27598,7 @@
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6" customFormat="1">
-      <c r="A184" s="32"/>
+      <c r="A184" s="30"/>
       <c r="B184" s="20" t="s">
         <v>401</v>
       </c>
@@ -27592,7 +27612,7 @@
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:6" customFormat="1">
-      <c r="A185" s="32"/>
+      <c r="A185" s="30"/>
       <c r="B185" s="20" t="s">
         <v>402</v>
       </c>
@@ -27606,7 +27626,7 @@
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" customFormat="1">
-      <c r="A186" s="32"/>
+      <c r="A186" s="30"/>
       <c r="B186" s="20">
         <v>6.5</v>
       </c>
@@ -27620,7 +27640,7 @@
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="1:6" customFormat="1">
-      <c r="A187" s="32"/>
+      <c r="A187" s="30"/>
       <c r="B187" s="20" t="s">
         <v>403</v>
       </c>
@@ -27634,7 +27654,7 @@
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" customFormat="1">
-      <c r="A188" s="32"/>
+      <c r="A188" s="30"/>
       <c r="B188" s="20" t="s">
         <v>404</v>
       </c>
@@ -27648,7 +27668,7 @@
       <c r="F188" s="2"/>
     </row>
     <row r="189" spans="1:6" customFormat="1">
-      <c r="A189" s="32"/>
+      <c r="A189" s="30"/>
       <c r="B189" s="20" t="s">
         <v>405</v>
       </c>
@@ -27662,7 +27682,7 @@
       <c r="F189" s="2"/>
     </row>
     <row r="190" spans="1:6" customFormat="1">
-      <c r="A190" s="32" t="s">
+      <c r="A190" s="30" t="s">
         <v>1025</v>
       </c>
       <c r="B190" s="20">
@@ -27678,7 +27698,7 @@
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" customFormat="1">
-      <c r="A191" s="32"/>
+      <c r="A191" s="30"/>
       <c r="B191" s="20" t="s">
         <v>406</v>
       </c>
@@ -27692,7 +27712,7 @@
       <c r="F191" s="2"/>
     </row>
     <row r="192" spans="1:6" customFormat="1">
-      <c r="A192" s="32"/>
+      <c r="A192" s="30"/>
       <c r="B192" s="20" t="s">
         <v>407</v>
       </c>
@@ -27706,7 +27726,7 @@
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" customFormat="1">
-      <c r="A193" s="32"/>
+      <c r="A193" s="30"/>
       <c r="B193" s="20" t="s">
         <v>408</v>
       </c>
@@ -27720,7 +27740,7 @@
       <c r="F193" s="2"/>
     </row>
     <row r="194" spans="1:6" customFormat="1">
-      <c r="A194" s="32"/>
+      <c r="A194" s="30"/>
       <c r="B194" s="20" t="s">
         <v>409</v>
       </c>
@@ -27734,7 +27754,7 @@
       <c r="F194" s="2"/>
     </row>
     <row r="195" spans="1:6" customFormat="1">
-      <c r="A195" s="32"/>
+      <c r="A195" s="30"/>
       <c r="B195" s="20">
         <v>7.2</v>
       </c>
@@ -27748,7 +27768,7 @@
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" customFormat="1">
-      <c r="A196" s="32"/>
+      <c r="A196" s="30"/>
       <c r="B196" s="20" t="s">
         <v>410</v>
       </c>
@@ -27762,7 +27782,7 @@
       <c r="F196" s="2"/>
     </row>
     <row r="197" spans="1:6" customFormat="1">
-      <c r="A197" s="32"/>
+      <c r="A197" s="30"/>
       <c r="B197" s="20" t="s">
         <v>411</v>
       </c>
@@ -27776,7 +27796,7 @@
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" customFormat="1">
-      <c r="A198" s="32"/>
+      <c r="A198" s="30"/>
       <c r="B198" s="20" t="s">
         <v>412</v>
       </c>
@@ -27790,7 +27810,7 @@
       <c r="F198" s="2"/>
     </row>
     <row r="199" spans="1:6" customFormat="1">
-      <c r="A199" s="32"/>
+      <c r="A199" s="30"/>
       <c r="B199" s="20" t="s">
         <v>413</v>
       </c>
@@ -27804,7 +27824,7 @@
       <c r="F199" s="2"/>
     </row>
     <row r="200" spans="1:6" customFormat="1">
-      <c r="A200" s="32"/>
+      <c r="A200" s="30"/>
       <c r="B200" s="20" t="s">
         <v>414</v>
       </c>
@@ -27818,7 +27838,7 @@
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" customFormat="1">
-      <c r="A201" s="32"/>
+      <c r="A201" s="30"/>
       <c r="B201" s="20" t="s">
         <v>415</v>
       </c>
@@ -27832,7 +27852,7 @@
       <c r="F201" s="2"/>
     </row>
     <row r="202" spans="1:6" customFormat="1">
-      <c r="A202" s="32"/>
+      <c r="A202" s="30"/>
       <c r="B202" s="20">
         <v>7.3</v>
       </c>
@@ -27846,7 +27866,7 @@
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:6" customFormat="1">
-      <c r="A203" s="32"/>
+      <c r="A203" s="30"/>
       <c r="B203" s="20">
         <v>7.4</v>
       </c>
@@ -27860,7 +27880,7 @@
       <c r="F203" s="2"/>
     </row>
     <row r="204" spans="1:6" customFormat="1">
-      <c r="A204" s="32"/>
+      <c r="A204" s="30"/>
       <c r="B204" s="20" t="s">
         <v>416</v>
       </c>
@@ -27874,7 +27894,7 @@
       <c r="F204" s="2"/>
     </row>
     <row r="205" spans="1:6" customFormat="1">
-      <c r="A205" s="32"/>
+      <c r="A205" s="30"/>
       <c r="B205" s="20" t="s">
         <v>417</v>
       </c>
@@ -27888,7 +27908,7 @@
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" customFormat="1">
-      <c r="A206" s="32"/>
+      <c r="A206" s="30"/>
       <c r="B206" s="20" t="s">
         <v>418</v>
       </c>
@@ -27902,7 +27922,7 @@
       <c r="F206" s="2"/>
     </row>
     <row r="207" spans="1:6" customFormat="1">
-      <c r="A207" s="32"/>
+      <c r="A207" s="30"/>
       <c r="B207" s="20" t="s">
         <v>419</v>
       </c>
@@ -27916,7 +27936,7 @@
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" customFormat="1">
-      <c r="A208" s="32"/>
+      <c r="A208" s="30"/>
       <c r="B208" s="20">
         <v>7.5</v>
       </c>
@@ -27930,7 +27950,7 @@
       <c r="F208" s="2"/>
     </row>
     <row r="209" spans="1:6" customFormat="1">
-      <c r="A209" s="32"/>
+      <c r="A209" s="30"/>
       <c r="B209" s="20" t="s">
         <v>420</v>
       </c>
@@ -27944,7 +27964,7 @@
       <c r="F209" s="2"/>
     </row>
     <row r="210" spans="1:6" customFormat="1">
-      <c r="A210" s="32"/>
+      <c r="A210" s="30"/>
       <c r="B210" s="20" t="s">
         <v>421</v>
       </c>
@@ -27958,7 +27978,7 @@
       <c r="F210" s="2"/>
     </row>
     <row r="211" spans="1:6" customFormat="1">
-      <c r="A211" s="32"/>
+      <c r="A211" s="30"/>
       <c r="B211" s="20" t="s">
         <v>422</v>
       </c>
@@ -27972,7 +27992,7 @@
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" customFormat="1">
-      <c r="A212" s="32"/>
+      <c r="A212" s="30"/>
       <c r="B212" s="20" t="s">
         <v>423</v>
       </c>
@@ -27986,7 +28006,7 @@
       <c r="F212" s="2"/>
     </row>
     <row r="213" spans="1:6" customFormat="1">
-      <c r="A213" s="32"/>
+      <c r="A213" s="30"/>
       <c r="B213" s="20" t="s">
         <v>424</v>
       </c>
@@ -28000,7 +28020,7 @@
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" customFormat="1">
-      <c r="A214" s="32"/>
+      <c r="A214" s="30"/>
       <c r="B214" s="20" t="s">
         <v>425</v>
       </c>
@@ -28014,7 +28034,7 @@
       <c r="F214" s="2"/>
     </row>
     <row r="215" spans="1:6" customFormat="1">
-      <c r="A215" s="32"/>
+      <c r="A215" s="30"/>
       <c r="B215" s="20" t="s">
         <v>426</v>
       </c>
@@ -28028,7 +28048,7 @@
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:6" customFormat="1">
-      <c r="A216" s="32"/>
+      <c r="A216" s="30"/>
       <c r="B216" s="20" t="s">
         <v>427</v>
       </c>
@@ -28042,7 +28062,7 @@
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" customFormat="1">
-      <c r="A217" s="32"/>
+      <c r="A217" s="30"/>
       <c r="B217" s="20">
         <v>7.6</v>
       </c>
@@ -28056,7 +28076,7 @@
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:6" customFormat="1">
-      <c r="A218" s="32" t="s">
+      <c r="A218" s="30" t="s">
         <v>1024</v>
       </c>
       <c r="B218" s="20">
@@ -28072,7 +28092,7 @@
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" customFormat="1">
-      <c r="A219" s="32"/>
+      <c r="A219" s="30"/>
       <c r="B219" s="20" t="s">
         <v>428</v>
       </c>
@@ -28086,7 +28106,7 @@
       <c r="F219" s="2"/>
     </row>
     <row r="220" spans="1:6" customFormat="1">
-      <c r="A220" s="32"/>
+      <c r="A220" s="30"/>
       <c r="B220" s="20" t="s">
         <v>429</v>
       </c>
@@ -28100,7 +28120,7 @@
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="1:6" customFormat="1">
-      <c r="A221" s="32"/>
+      <c r="A221" s="30"/>
       <c r="B221" s="20">
         <v>8.1999999999999993</v>
       </c>
@@ -28114,7 +28134,7 @@
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" customFormat="1">
-      <c r="A222" s="32"/>
+      <c r="A222" s="30"/>
       <c r="B222" s="20">
         <v>8.3000000000000007</v>
       </c>
@@ -28128,7 +28148,7 @@
       <c r="F222" s="2"/>
     </row>
     <row r="223" spans="1:6" customFormat="1">
-      <c r="A223" s="32"/>
+      <c r="A223" s="30"/>
       <c r="B223" s="20">
         <v>8.4</v>
       </c>
@@ -28142,7 +28162,7 @@
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" customFormat="1">
-      <c r="A224" s="32"/>
+      <c r="A224" s="30"/>
       <c r="B224" s="20">
         <v>8.5</v>
       </c>
@@ -28156,7 +28176,7 @@
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:6" customFormat="1">
-      <c r="A225" s="32"/>
+      <c r="A225" s="30"/>
       <c r="B225" s="20" t="s">
         <v>430</v>
       </c>
@@ -28170,7 +28190,7 @@
       <c r="F225" s="2"/>
     </row>
     <row r="226" spans="1:6" customFormat="1">
-      <c r="A226" s="32"/>
+      <c r="A226" s="30"/>
       <c r="B226" s="20" t="s">
         <v>431</v>
       </c>
@@ -28184,7 +28204,7 @@
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" customFormat="1">
-      <c r="A227" s="32"/>
+      <c r="A227" s="30"/>
       <c r="B227" s="20" t="s">
         <v>432</v>
       </c>
@@ -28198,7 +28218,7 @@
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:6" customFormat="1">
-      <c r="A228" s="32"/>
+      <c r="A228" s="30"/>
       <c r="B228" s="20" t="s">
         <v>433</v>
       </c>
@@ -28212,7 +28232,7 @@
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" customFormat="1">
-      <c r="A229" s="32"/>
+      <c r="A229" s="30"/>
       <c r="B229" s="20">
         <v>8.6</v>
       </c>
@@ -28226,7 +28246,7 @@
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="1:6" customFormat="1">
-      <c r="A230" s="32"/>
+      <c r="A230" s="30"/>
       <c r="B230" s="20" t="s">
         <v>434</v>
       </c>
@@ -28240,7 +28260,7 @@
       <c r="F230" s="2"/>
     </row>
     <row r="231" spans="1:6" customFormat="1">
-      <c r="A231" s="32"/>
+      <c r="A231" s="30"/>
       <c r="B231" s="20" t="s">
         <v>435</v>
       </c>
@@ -28254,7 +28274,7 @@
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" customFormat="1">
-      <c r="A232" s="32"/>
+      <c r="A232" s="30"/>
       <c r="B232" s="20" t="s">
         <v>436</v>
       </c>
@@ -28268,7 +28288,7 @@
       <c r="F232" s="2"/>
     </row>
     <row r="233" spans="1:6" customFormat="1">
-      <c r="A233" s="32"/>
+      <c r="A233" s="30"/>
       <c r="B233" s="20" t="s">
         <v>437</v>
       </c>
@@ -28282,7 +28302,7 @@
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" customFormat="1">
-      <c r="A234" s="32"/>
+      <c r="A234" s="30"/>
       <c r="B234" s="20" t="s">
         <v>438</v>
       </c>
@@ -28296,7 +28316,7 @@
       <c r="F234" s="2"/>
     </row>
     <row r="235" spans="1:6" customFormat="1">
-      <c r="A235" s="32"/>
+      <c r="A235" s="30"/>
       <c r="B235" s="20" t="s">
         <v>439</v>
       </c>
@@ -28310,7 +28330,7 @@
       <c r="F235" s="2"/>
     </row>
     <row r="236" spans="1:6" customFormat="1">
-      <c r="A236" s="32"/>
+      <c r="A236" s="30"/>
       <c r="B236" s="20" t="s">
         <v>440</v>
       </c>
@@ -28324,7 +28344,7 @@
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:6" customFormat="1">
-      <c r="A237" s="32"/>
+      <c r="A237" s="30"/>
       <c r="B237" s="20" t="s">
         <v>441</v>
       </c>
@@ -28338,7 +28358,7 @@
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" customFormat="1">
-      <c r="A238" s="32"/>
+      <c r="A238" s="30"/>
       <c r="B238" s="20" t="s">
         <v>442</v>
       </c>
@@ -28352,7 +28372,7 @@
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:6" customFormat="1">
-      <c r="A239" s="32"/>
+      <c r="A239" s="30"/>
       <c r="B239" s="20" t="s">
         <v>443</v>
       </c>
@@ -28366,7 +28386,7 @@
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" customFormat="1">
-      <c r="A240" s="32"/>
+      <c r="A240" s="30"/>
       <c r="B240" s="20">
         <v>8.6999999999999993</v>
       </c>
@@ -28380,7 +28400,7 @@
       <c r="F240" s="2"/>
     </row>
     <row r="241" spans="1:6" customFormat="1">
-      <c r="A241" s="32"/>
+      <c r="A241" s="30"/>
       <c r="B241" s="20">
         <v>8.8000000000000007</v>
       </c>
@@ -28394,7 +28414,7 @@
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="1:6" customFormat="1">
-      <c r="A242" s="32"/>
+      <c r="A242" s="30"/>
       <c r="B242" s="20" t="s">
         <v>444</v>
       </c>
@@ -28408,7 +28428,7 @@
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" customFormat="1">
-      <c r="A243" s="32"/>
+      <c r="A243" s="30"/>
       <c r="B243" s="20" t="s">
         <v>445</v>
       </c>
@@ -28422,7 +28442,7 @@
       <c r="F243" s="2"/>
     </row>
     <row r="244" spans="1:6" customFormat="1">
-      <c r="A244" s="32"/>
+      <c r="A244" s="30"/>
       <c r="B244" s="20" t="s">
         <v>446</v>
       </c>
@@ -28436,7 +28456,7 @@
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" customFormat="1">
-      <c r="A245" s="32"/>
+      <c r="A245" s="30"/>
       <c r="B245" s="20" t="s">
         <v>447</v>
       </c>
@@ -28450,7 +28470,7 @@
       <c r="F245" s="2"/>
     </row>
     <row r="246" spans="1:6" customFormat="1">
-      <c r="A246" s="32"/>
+      <c r="A246" s="30"/>
       <c r="B246" s="20">
         <v>8.9</v>
       </c>
@@ -28464,7 +28484,7 @@
       <c r="F246" s="2"/>
     </row>
     <row r="247" spans="1:6" customFormat="1">
-      <c r="A247" s="32"/>
+      <c r="A247" s="30"/>
       <c r="B247" s="20" t="s">
         <v>448</v>
       </c>
@@ -28478,7 +28498,7 @@
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" customFormat="1">
-      <c r="A248" s="32"/>
+      <c r="A248" s="30"/>
       <c r="B248" s="20" t="s">
         <v>449</v>
       </c>
@@ -28492,7 +28512,7 @@
       <c r="F248" s="2"/>
     </row>
     <row r="249" spans="1:6" customFormat="1">
-      <c r="A249" s="32"/>
+      <c r="A249" s="30"/>
       <c r="B249" s="20" t="s">
         <v>450</v>
       </c>
@@ -28506,7 +28526,7 @@
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" customFormat="1">
-      <c r="A250" s="32" t="s">
+      <c r="A250" s="30" t="s">
         <v>1022</v>
       </c>
       <c r="B250" s="20">
@@ -28522,7 +28542,7 @@
       <c r="F250" s="2"/>
     </row>
     <row r="251" spans="1:6" customFormat="1">
-      <c r="A251" s="32"/>
+      <c r="A251" s="30"/>
       <c r="B251" s="20" t="s">
         <v>451</v>
       </c>
@@ -28536,7 +28556,7 @@
       <c r="F251" s="2"/>
     </row>
     <row r="252" spans="1:6" customFormat="1">
-      <c r="A252" s="32"/>
+      <c r="A252" s="30"/>
       <c r="B252" s="20" t="s">
         <v>452</v>
       </c>
@@ -28550,7 +28570,7 @@
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" customFormat="1">
-      <c r="A253" s="32"/>
+      <c r="A253" s="30"/>
       <c r="B253" s="20" t="s">
         <v>453</v>
       </c>
@@ -28564,7 +28584,7 @@
       <c r="F253" s="2"/>
     </row>
     <row r="254" spans="1:6" customFormat="1">
-      <c r="A254" s="32"/>
+      <c r="A254" s="30"/>
       <c r="B254" s="20" t="s">
         <v>454</v>
       </c>
@@ -28578,7 +28598,7 @@
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" customFormat="1">
-      <c r="A255" s="32"/>
+      <c r="A255" s="30"/>
       <c r="B255" s="20" t="s">
         <v>455</v>
       </c>
@@ -28592,7 +28612,7 @@
       <c r="F255" s="2"/>
     </row>
     <row r="256" spans="1:6" customFormat="1">
-      <c r="A256" s="32"/>
+      <c r="A256" s="30"/>
       <c r="B256" s="20">
         <v>9.1999999999999993</v>
       </c>
@@ -28606,7 +28626,7 @@
       <c r="F256" s="2"/>
     </row>
     <row r="257" spans="1:6" customFormat="1">
-      <c r="A257" s="32"/>
+      <c r="A257" s="30"/>
       <c r="B257" s="20" t="s">
         <v>456</v>
       </c>
@@ -28620,7 +28640,7 @@
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" customFormat="1">
-      <c r="A258" s="32"/>
+      <c r="A258" s="30"/>
       <c r="B258" s="20" t="s">
         <v>457</v>
       </c>
@@ -28634,7 +28654,7 @@
       <c r="F258" s="2"/>
     </row>
     <row r="259" spans="1:6" customFormat="1">
-      <c r="A259" s="32"/>
+      <c r="A259" s="30"/>
       <c r="B259" s="20" t="s">
         <v>458</v>
       </c>
@@ -28648,7 +28668,7 @@
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" customFormat="1">
-      <c r="A260" s="32"/>
+      <c r="A260" s="30"/>
       <c r="B260" s="20" t="s">
         <v>459</v>
       </c>
@@ -28662,7 +28682,7 @@
       <c r="F260" s="2"/>
     </row>
     <row r="261" spans="1:6" customFormat="1">
-      <c r="A261" s="32"/>
+      <c r="A261" s="30"/>
       <c r="B261" s="20" t="s">
         <v>460</v>
       </c>
@@ -28676,7 +28696,7 @@
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="1:6" customFormat="1">
-      <c r="A262" s="32"/>
+      <c r="A262" s="30"/>
       <c r="B262" s="20" t="s">
         <v>461</v>
       </c>
@@ -28690,7 +28710,7 @@
       <c r="F262" s="2"/>
     </row>
     <row r="263" spans="1:6" customFormat="1">
-      <c r="A263" s="32"/>
+      <c r="A263" s="30"/>
       <c r="B263" s="20">
         <v>9.3000000000000007</v>
       </c>
@@ -28704,7 +28724,7 @@
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" customFormat="1">
-      <c r="A264" s="32"/>
+      <c r="A264" s="30"/>
       <c r="B264" s="20" t="s">
         <v>462</v>
       </c>
@@ -28718,7 +28738,7 @@
       <c r="F264" s="2"/>
     </row>
     <row r="265" spans="1:6" customFormat="1">
-      <c r="A265" s="32"/>
+      <c r="A265" s="30"/>
       <c r="B265" s="20" t="s">
         <v>463</v>
       </c>
@@ -28732,7 +28752,7 @@
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" customFormat="1">
-      <c r="A266" s="32"/>
+      <c r="A266" s="30"/>
       <c r="B266" s="20" t="s">
         <v>464</v>
       </c>
@@ -28746,7 +28766,7 @@
       <c r="F266" s="2"/>
     </row>
     <row r="267" spans="1:6" customFormat="1">
-      <c r="A267" s="32"/>
+      <c r="A267" s="30"/>
       <c r="B267" s="20" t="s">
         <v>465</v>
       </c>
@@ -28760,7 +28780,7 @@
       <c r="F267" s="2"/>
     </row>
     <row r="268" spans="1:6" customFormat="1">
-      <c r="A268" s="32"/>
+      <c r="A268" s="30"/>
       <c r="B268" s="20" t="s">
         <v>466</v>
       </c>
@@ -28774,7 +28794,7 @@
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6" customFormat="1">
-      <c r="A269" s="32"/>
+      <c r="A269" s="30"/>
       <c r="B269" s="20" t="s">
         <v>467</v>
       </c>
@@ -28788,7 +28808,7 @@
       <c r="F269" s="2"/>
     </row>
     <row r="270" spans="1:6" customFormat="1">
-      <c r="A270" s="32"/>
+      <c r="A270" s="30"/>
       <c r="B270" s="20" t="s">
         <v>468</v>
       </c>
@@ -28802,7 +28822,7 @@
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="1:6" customFormat="1">
-      <c r="A271" s="32"/>
+      <c r="A271" s="30"/>
       <c r="B271" s="20">
         <v>9.4</v>
       </c>
@@ -28816,7 +28836,7 @@
       <c r="F271" s="2"/>
     </row>
     <row r="272" spans="1:6" customFormat="1">
-      <c r="A272" s="32"/>
+      <c r="A272" s="30"/>
       <c r="B272" s="20" t="s">
         <v>469</v>
       </c>
@@ -28830,7 +28850,7 @@
       <c r="F272" s="2"/>
     </row>
     <row r="273" spans="1:6" customFormat="1">
-      <c r="A273" s="32"/>
+      <c r="A273" s="30"/>
       <c r="B273" s="20" t="s">
         <v>470</v>
       </c>
@@ -28844,7 +28864,7 @@
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" customFormat="1">
-      <c r="A274" s="32"/>
+      <c r="A274" s="30"/>
       <c r="B274" s="20" t="s">
         <v>471</v>
       </c>
@@ -28858,7 +28878,7 @@
       <c r="F274" s="2"/>
     </row>
     <row r="275" spans="1:6" customFormat="1">
-      <c r="A275" s="32"/>
+      <c r="A275" s="30"/>
       <c r="B275" s="20" t="s">
         <v>472</v>
       </c>
@@ -28872,7 +28892,7 @@
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" customFormat="1">
-      <c r="A276" s="32"/>
+      <c r="A276" s="30"/>
       <c r="B276" s="20" t="s">
         <v>473</v>
       </c>
@@ -28886,7 +28906,7 @@
       <c r="F276" s="2"/>
     </row>
     <row r="277" spans="1:6" customFormat="1">
-      <c r="A277" s="32"/>
+      <c r="A277" s="30"/>
       <c r="B277" s="20" t="s">
         <v>474</v>
       </c>
@@ -28900,7 +28920,7 @@
       <c r="F277" s="2"/>
     </row>
     <row r="278" spans="1:6" customFormat="1">
-      <c r="A278" s="32"/>
+      <c r="A278" s="30"/>
       <c r="B278" s="20">
         <v>9.5</v>
       </c>
@@ -28914,7 +28934,7 @@
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" customFormat="1">
-      <c r="A279" s="32"/>
+      <c r="A279" s="30"/>
       <c r="B279" s="20" t="s">
         <v>475</v>
       </c>
@@ -28928,7 +28948,7 @@
       <c r="F279" s="2"/>
     </row>
     <row r="280" spans="1:6" customFormat="1">
-      <c r="A280" s="32"/>
+      <c r="A280" s="30"/>
       <c r="B280" s="20" t="s">
         <v>476</v>
       </c>
@@ -28942,7 +28962,7 @@
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" customFormat="1">
-      <c r="A281" s="32"/>
+      <c r="A281" s="30"/>
       <c r="B281" s="20" t="s">
         <v>477</v>
       </c>
@@ -28956,7 +28976,7 @@
       <c r="F281" s="2"/>
     </row>
     <row r="282" spans="1:6" customFormat="1">
-      <c r="A282" s="32"/>
+      <c r="A282" s="30"/>
       <c r="B282" s="20" t="s">
         <v>478</v>
       </c>
@@ -28970,7 +28990,7 @@
       <c r="F282" s="2"/>
     </row>
     <row r="283" spans="1:6" customFormat="1">
-      <c r="A283" s="32"/>
+      <c r="A283" s="30"/>
       <c r="B283" s="20" t="s">
         <v>479</v>
       </c>
@@ -28984,7 +29004,7 @@
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" customFormat="1">
-      <c r="A284" s="32"/>
+      <c r="A284" s="30"/>
       <c r="B284" s="20" t="s">
         <v>480</v>
       </c>
@@ -28998,7 +29018,7 @@
       <c r="F284" s="2"/>
     </row>
     <row r="285" spans="1:6" customFormat="1">
-      <c r="A285" s="32"/>
+      <c r="A285" s="30"/>
       <c r="B285" s="20">
         <v>9.6</v>
       </c>
@@ -29012,7 +29032,7 @@
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6" customFormat="1">
-      <c r="A286" s="32"/>
+      <c r="A286" s="30"/>
       <c r="B286" s="20" t="s">
         <v>481</v>
       </c>
@@ -29026,7 +29046,7 @@
       <c r="F286" s="2"/>
     </row>
     <row r="287" spans="1:6" customFormat="1">
-      <c r="A287" s="32"/>
+      <c r="A287" s="30"/>
       <c r="B287" s="20" t="s">
         <v>482</v>
       </c>
@@ -29040,7 +29060,7 @@
       <c r="F287" s="2"/>
     </row>
     <row r="288" spans="1:6" customFormat="1">
-      <c r="A288" s="32"/>
+      <c r="A288" s="30"/>
       <c r="B288" s="20" t="s">
         <v>483</v>
       </c>
@@ -29054,7 +29074,7 @@
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="1:6" customFormat="1">
-      <c r="A289" s="32"/>
+      <c r="A289" s="30"/>
       <c r="B289" s="20" t="s">
         <v>484</v>
       </c>
@@ -29068,7 +29088,7 @@
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" customFormat="1">
-      <c r="A290" s="32"/>
+      <c r="A290" s="30"/>
       <c r="B290" s="20" t="s">
         <v>485</v>
       </c>
@@ -29082,7 +29102,7 @@
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="1:6" customFormat="1">
-      <c r="A291" s="32" t="s">
+      <c r="A291" s="30" t="s">
         <v>1023</v>
       </c>
       <c r="B291" s="20">
@@ -29098,7 +29118,7 @@
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:6" customFormat="1">
-      <c r="A292" s="32"/>
+      <c r="A292" s="30"/>
       <c r="B292" s="20">
         <v>10.199999999999999</v>
       </c>
@@ -29112,7 +29132,7 @@
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="1:6" customFormat="1">
-      <c r="A293" s="32"/>
+      <c r="A293" s="30"/>
       <c r="B293" s="20">
         <v>10.3</v>
       </c>
@@ -29126,7 +29146,7 @@
       <c r="F293" s="2"/>
     </row>
     <row r="294" spans="1:6" customFormat="1">
-      <c r="A294" s="32"/>
+      <c r="A294" s="30"/>
       <c r="B294" s="20" t="s">
         <v>486</v>
       </c>
@@ -29140,7 +29160,7 @@
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" customFormat="1">
-      <c r="A295" s="32"/>
+      <c r="A295" s="30"/>
       <c r="B295" s="20" t="s">
         <v>487</v>
       </c>
@@ -29154,7 +29174,7 @@
       <c r="F295" s="2"/>
     </row>
     <row r="296" spans="1:6" customFormat="1">
-      <c r="A296" s="32"/>
+      <c r="A296" s="30"/>
       <c r="B296" s="20">
         <v>10.4</v>
       </c>
@@ -29168,7 +29188,7 @@
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6" customFormat="1">
-      <c r="A297" s="32"/>
+      <c r="A297" s="30"/>
       <c r="B297" s="20">
         <v>10.5</v>
       </c>
@@ -29182,7 +29202,7 @@
       <c r="F297" s="2"/>
     </row>
     <row r="298" spans="1:6" customFormat="1">
-      <c r="A298" s="32"/>
+      <c r="A298" s="30"/>
       <c r="B298" s="20">
         <v>10.6</v>
       </c>
@@ -29196,7 +29216,7 @@
       <c r="F298" s="2"/>
     </row>
     <row r="299" spans="1:6" customFormat="1">
-      <c r="A299" s="32"/>
+      <c r="A299" s="30"/>
       <c r="B299" s="20">
         <v>10.7</v>
       </c>
@@ -29210,7 +29230,7 @@
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6" customFormat="1">
-      <c r="A300" s="32"/>
+      <c r="A300" s="30"/>
       <c r="B300" s="20">
         <v>10.8</v>
       </c>
@@ -29224,7 +29244,7 @@
       <c r="F300" s="2"/>
     </row>
     <row r="301" spans="1:6" customFormat="1">
-      <c r="A301" s="32" t="s">
+      <c r="A301" s="30" t="s">
         <v>1021</v>
       </c>
       <c r="B301" s="20">
@@ -29240,7 +29260,7 @@
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6" customFormat="1">
-      <c r="A302" s="32"/>
+      <c r="A302" s="30"/>
       <c r="B302" s="20" t="s">
         <v>488</v>
       </c>
@@ -29254,7 +29274,7 @@
       <c r="F302" s="2"/>
     </row>
     <row r="303" spans="1:6" customFormat="1">
-      <c r="A303" s="32"/>
+      <c r="A303" s="30"/>
       <c r="B303" s="20" t="s">
         <v>489</v>
       </c>
@@ -29268,7 +29288,7 @@
       <c r="F303" s="2"/>
     </row>
     <row r="304" spans="1:6" customFormat="1">
-      <c r="A304" s="32"/>
+      <c r="A304" s="30"/>
       <c r="B304" s="20" t="s">
         <v>490</v>
       </c>
@@ -29282,7 +29302,7 @@
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6" customFormat="1">
-      <c r="A305" s="32"/>
+      <c r="A305" s="30"/>
       <c r="B305" s="20" t="s">
         <v>491</v>
       </c>
@@ -29296,7 +29316,7 @@
       <c r="F305" s="2"/>
     </row>
     <row r="306" spans="1:6" customFormat="1">
-      <c r="A306" s="32"/>
+      <c r="A306" s="30"/>
       <c r="B306" s="20">
         <v>11.2</v>
       </c>
@@ -29310,7 +29330,7 @@
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6" customFormat="1">
-      <c r="A307" s="32"/>
+      <c r="A307" s="30"/>
       <c r="B307" s="20">
         <v>11.3</v>
       </c>
@@ -29324,7 +29344,7 @@
       <c r="F307" s="2"/>
     </row>
     <row r="308" spans="1:6" customFormat="1">
-      <c r="A308" s="32"/>
+      <c r="A308" s="30"/>
       <c r="B308" s="20">
         <v>11.4</v>
       </c>
@@ -29338,7 +29358,7 @@
       <c r="F308" s="2"/>
     </row>
     <row r="309" spans="1:6" customFormat="1">
-      <c r="A309" s="32"/>
+      <c r="A309" s="30"/>
       <c r="B309" s="20" t="s">
         <v>492</v>
       </c>
@@ -29352,7 +29372,7 @@
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6" customFormat="1">
-      <c r="A310" s="32" t="s">
+      <c r="A310" s="30" t="s">
         <v>1020</v>
       </c>
       <c r="B310" s="20">
@@ -29368,7 +29388,7 @@
       <c r="F310" s="2"/>
     </row>
     <row r="311" spans="1:6" customFormat="1">
-      <c r="A311" s="32"/>
+      <c r="A311" s="30"/>
       <c r="B311" s="20" t="s">
         <v>493</v>
       </c>
@@ -29382,7 +29402,7 @@
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6" customFormat="1">
-      <c r="A312" s="32"/>
+      <c r="A312" s="30"/>
       <c r="B312" s="20" t="s">
         <v>494</v>
       </c>
@@ -29396,7 +29416,7 @@
       <c r="F312" s="2"/>
     </row>
     <row r="313" spans="1:6" customFormat="1">
-      <c r="A313" s="32"/>
+      <c r="A313" s="30"/>
       <c r="B313" s="20" t="s">
         <v>495</v>
       </c>
@@ -29410,7 +29430,7 @@
       <c r="F313" s="2"/>
     </row>
     <row r="314" spans="1:6" customFormat="1">
-      <c r="A314" s="32"/>
+      <c r="A314" s="30"/>
       <c r="B314" s="20">
         <v>12.2</v>
       </c>
@@ -29424,7 +29444,7 @@
       <c r="F314" s="2"/>
     </row>
     <row r="315" spans="1:6" customFormat="1">
-      <c r="A315" s="32"/>
+      <c r="A315" s="30"/>
       <c r="B315" s="20" t="s">
         <v>496</v>
       </c>
@@ -29438,7 +29458,7 @@
       <c r="F315" s="2"/>
     </row>
     <row r="316" spans="1:6" customFormat="1">
-      <c r="A316" s="32"/>
+      <c r="A316" s="30"/>
       <c r="B316" s="20" t="s">
         <v>497</v>
       </c>
@@ -29452,7 +29472,7 @@
       <c r="F316" s="2"/>
     </row>
     <row r="317" spans="1:6" customFormat="1">
-      <c r="A317" s="32"/>
+      <c r="A317" s="30"/>
       <c r="B317" s="20">
         <v>12.3</v>
       </c>
@@ -29466,7 +29486,7 @@
       <c r="F317" s="2"/>
     </row>
     <row r="318" spans="1:6" customFormat="1">
-      <c r="A318" s="32"/>
+      <c r="A318" s="30"/>
       <c r="B318" s="20" t="s">
         <v>498</v>
       </c>
@@ -29480,7 +29500,7 @@
       <c r="F318" s="2"/>
     </row>
     <row r="319" spans="1:6" customFormat="1">
-      <c r="A319" s="32"/>
+      <c r="A319" s="30"/>
       <c r="B319" s="20" t="s">
         <v>499</v>
       </c>
@@ -29494,7 +29514,7 @@
       <c r="F319" s="2"/>
     </row>
     <row r="320" spans="1:6" customFormat="1">
-      <c r="A320" s="32"/>
+      <c r="A320" s="30"/>
       <c r="B320" s="20" t="s">
         <v>500</v>
       </c>
@@ -29508,7 +29528,7 @@
       <c r="F320" s="2"/>
     </row>
     <row r="321" spans="1:6" customFormat="1">
-      <c r="A321" s="32"/>
+      <c r="A321" s="30"/>
       <c r="B321" s="20" t="s">
         <v>501</v>
       </c>
@@ -29522,7 +29542,7 @@
       <c r="F321" s="2"/>
     </row>
     <row r="322" spans="1:6" customFormat="1">
-      <c r="A322" s="32"/>
+      <c r="A322" s="30"/>
       <c r="B322" s="20" t="s">
         <v>502</v>
       </c>
@@ -29536,7 +29556,7 @@
       <c r="F322" s="2"/>
     </row>
     <row r="323" spans="1:6" customFormat="1">
-      <c r="A323" s="32"/>
+      <c r="A323" s="30"/>
       <c r="B323" s="20">
         <v>12.4</v>
       </c>
@@ -29550,7 +29570,7 @@
       <c r="F323" s="2"/>
     </row>
     <row r="324" spans="1:6" customFormat="1">
-      <c r="A324" s="32"/>
+      <c r="A324" s="30"/>
       <c r="B324" s="20" t="s">
         <v>503</v>
       </c>
@@ -29564,7 +29584,7 @@
       <c r="F324" s="2"/>
     </row>
     <row r="325" spans="1:6" customFormat="1">
-      <c r="A325" s="32"/>
+      <c r="A325" s="30"/>
       <c r="B325" s="20" t="s">
         <v>504</v>
       </c>
@@ -29578,7 +29598,7 @@
       <c r="F325" s="2"/>
     </row>
     <row r="326" spans="1:6" customFormat="1">
-      <c r="A326" s="32"/>
+      <c r="A326" s="30"/>
       <c r="B326" s="20" t="s">
         <v>505</v>
       </c>
@@ -29592,7 +29612,7 @@
       <c r="F326" s="2"/>
     </row>
     <row r="327" spans="1:6" customFormat="1">
-      <c r="A327" s="32"/>
+      <c r="A327" s="30"/>
       <c r="B327" s="20" t="s">
         <v>506</v>
       </c>
@@ -29606,7 +29626,7 @@
       <c r="F327" s="2"/>
     </row>
     <row r="328" spans="1:6" customFormat="1">
-      <c r="A328" s="32"/>
+      <c r="A328" s="30"/>
       <c r="B328" s="20" t="s">
         <v>507</v>
       </c>
@@ -29620,7 +29640,7 @@
       <c r="F328" s="2"/>
     </row>
     <row r="329" spans="1:6" customFormat="1">
-      <c r="A329" s="32"/>
+      <c r="A329" s="30"/>
       <c r="B329" s="20">
         <v>12.5</v>
       </c>
@@ -29634,7 +29654,7 @@
       <c r="F329" s="2"/>
     </row>
     <row r="330" spans="1:6" customFormat="1">
-      <c r="A330" s="32"/>
+      <c r="A330" s="30"/>
       <c r="B330" s="20" t="s">
         <v>508</v>
       </c>
@@ -29648,7 +29668,7 @@
       <c r="F330" s="2"/>
     </row>
     <row r="331" spans="1:6" customFormat="1">
-      <c r="A331" s="32"/>
+      <c r="A331" s="30"/>
       <c r="B331" s="20" t="s">
         <v>509</v>
       </c>
@@ -29662,7 +29682,7 @@
       <c r="F331" s="2"/>
     </row>
     <row r="332" spans="1:6" customFormat="1">
-      <c r="A332" s="32"/>
+      <c r="A332" s="30"/>
       <c r="B332" s="20" t="s">
         <v>510</v>
       </c>
@@ -29676,7 +29696,7 @@
       <c r="F332" s="2"/>
     </row>
     <row r="333" spans="1:6" customFormat="1">
-      <c r="A333" s="32"/>
+      <c r="A333" s="30"/>
       <c r="B333" s="20" t="s">
         <v>511</v>
       </c>
@@ -29690,7 +29710,7 @@
       <c r="F333" s="2"/>
     </row>
     <row r="334" spans="1:6" customFormat="1">
-      <c r="A334" s="32"/>
+      <c r="A334" s="30"/>
       <c r="B334" s="20" t="s">
         <v>512</v>
       </c>
@@ -29704,7 +29724,7 @@
       <c r="F334" s="2"/>
     </row>
     <row r="335" spans="1:6" customFormat="1">
-      <c r="A335" s="32"/>
+      <c r="A335" s="30"/>
       <c r="B335" s="20" t="s">
         <v>513</v>
       </c>
@@ -29718,7 +29738,7 @@
       <c r="F335" s="2"/>
     </row>
     <row r="336" spans="1:6" customFormat="1">
-      <c r="A336" s="32"/>
+      <c r="A336" s="30"/>
       <c r="B336" s="20" t="s">
         <v>514</v>
       </c>
@@ -29732,7 +29752,7 @@
       <c r="F336" s="2"/>
     </row>
     <row r="337" spans="1:6" customFormat="1">
-      <c r="A337" s="32"/>
+      <c r="A337" s="30"/>
       <c r="B337" s="20" t="s">
         <v>515</v>
       </c>
@@ -29746,7 +29766,7 @@
       <c r="F337" s="2"/>
     </row>
     <row r="338" spans="1:6" customFormat="1">
-      <c r="A338" s="32"/>
+      <c r="A338" s="30"/>
       <c r="B338" s="20">
         <v>12.6</v>
       </c>
@@ -29760,7 +29780,7 @@
       <c r="F338" s="2"/>
     </row>
     <row r="339" spans="1:6" customFormat="1">
-      <c r="A339" s="32"/>
+      <c r="A339" s="30"/>
       <c r="B339" s="20" t="s">
         <v>516</v>
       </c>
@@ -29774,7 +29794,7 @@
       <c r="F339" s="2"/>
     </row>
     <row r="340" spans="1:6" customFormat="1">
-      <c r="A340" s="32"/>
+      <c r="A340" s="30"/>
       <c r="B340" s="20" t="s">
         <v>517</v>
       </c>
@@ -29788,7 +29808,7 @@
       <c r="F340" s="2"/>
     </row>
     <row r="341" spans="1:6" customFormat="1">
-      <c r="A341" s="32"/>
+      <c r="A341" s="30"/>
       <c r="B341" s="20" t="s">
         <v>518</v>
       </c>
@@ -29802,7 +29822,7 @@
       <c r="F341" s="2"/>
     </row>
     <row r="342" spans="1:6" customFormat="1">
-      <c r="A342" s="32"/>
+      <c r="A342" s="30"/>
       <c r="B342" s="20" t="s">
         <v>519</v>
       </c>
@@ -29816,7 +29836,7 @@
       <c r="F342" s="2"/>
     </row>
     <row r="343" spans="1:6" customFormat="1">
-      <c r="A343" s="32"/>
+      <c r="A343" s="30"/>
       <c r="B343" s="20" t="s">
         <v>520</v>
       </c>
@@ -29830,7 +29850,7 @@
       <c r="F343" s="2"/>
     </row>
     <row r="344" spans="1:6" customFormat="1">
-      <c r="A344" s="32"/>
+      <c r="A344" s="30"/>
       <c r="B344" s="20">
         <v>12.7</v>
       </c>
@@ -29844,7 +29864,7 @@
       <c r="F344" s="2"/>
     </row>
     <row r="345" spans="1:6" customFormat="1">
-      <c r="A345" s="32"/>
+      <c r="A345" s="30"/>
       <c r="B345" s="20" t="s">
         <v>521</v>
       </c>
@@ -29858,7 +29878,7 @@
       <c r="F345" s="2"/>
     </row>
     <row r="346" spans="1:6" customFormat="1">
-      <c r="A346" s="32"/>
+      <c r="A346" s="30"/>
       <c r="B346" s="20" t="s">
         <v>522</v>
       </c>
@@ -29872,7 +29892,7 @@
       <c r="F346" s="2"/>
     </row>
     <row r="347" spans="1:6" customFormat="1">
-      <c r="A347" s="32"/>
+      <c r="A347" s="30"/>
       <c r="B347" s="20" t="s">
         <v>523</v>
       </c>
@@ -29886,7 +29906,7 @@
       <c r="F347" s="2"/>
     </row>
     <row r="348" spans="1:6" customFormat="1">
-      <c r="A348" s="32"/>
+      <c r="A348" s="30"/>
       <c r="B348" s="20" t="s">
         <v>524</v>
       </c>
@@ -29900,7 +29920,7 @@
       <c r="F348" s="2"/>
     </row>
     <row r="349" spans="1:6" customFormat="1">
-      <c r="A349" s="32"/>
+      <c r="A349" s="30"/>
       <c r="B349" s="20" t="s">
         <v>525</v>
       </c>
@@ -29914,7 +29934,7 @@
       <c r="F349" s="2"/>
     </row>
     <row r="350" spans="1:6" customFormat="1">
-      <c r="A350" s="32"/>
+      <c r="A350" s="30"/>
       <c r="B350" s="20">
         <v>12.8</v>
       </c>
@@ -29928,7 +29948,7 @@
       <c r="F350" s="2"/>
     </row>
     <row r="351" spans="1:6" customFormat="1">
-      <c r="A351" s="32"/>
+      <c r="A351" s="30"/>
       <c r="B351" s="20" t="s">
         <v>526</v>
       </c>
@@ -29942,7 +29962,7 @@
       <c r="F351" s="2"/>
     </row>
     <row r="352" spans="1:6" customFormat="1">
-      <c r="A352" s="32"/>
+      <c r="A352" s="30"/>
       <c r="B352" s="20" t="s">
         <v>527</v>
       </c>
@@ -29956,7 +29976,7 @@
       <c r="F352" s="2"/>
     </row>
     <row r="353" spans="1:6" customFormat="1">
-      <c r="A353" s="32" t="s">
+      <c r="A353" s="30" t="s">
         <v>1019</v>
       </c>
       <c r="B353" s="20">
@@ -29972,7 +29992,7 @@
       <c r="F353" s="2"/>
     </row>
     <row r="354" spans="1:6" customFormat="1">
-      <c r="A354" s="32"/>
+      <c r="A354" s="30"/>
       <c r="B354" s="20" t="s">
         <v>528</v>
       </c>
@@ -29986,7 +30006,7 @@
       <c r="F354" s="2"/>
     </row>
     <row r="355" spans="1:6" customFormat="1">
-      <c r="A355" s="32"/>
+      <c r="A355" s="30"/>
       <c r="B355" s="20" t="s">
         <v>529</v>
       </c>
@@ -30000,7 +30020,7 @@
       <c r="F355" s="2"/>
     </row>
     <row r="356" spans="1:6" customFormat="1">
-      <c r="A356" s="32"/>
+      <c r="A356" s="30"/>
       <c r="B356" s="20" t="s">
         <v>530</v>
       </c>
@@ -30014,7 +30034,7 @@
       <c r="F356" s="2"/>
     </row>
     <row r="357" spans="1:6" customFormat="1">
-      <c r="A357" s="32"/>
+      <c r="A357" s="30"/>
       <c r="B357" s="20" t="s">
         <v>531</v>
       </c>
@@ -30028,7 +30048,7 @@
       <c r="F357" s="2"/>
     </row>
     <row r="358" spans="1:6" customFormat="1">
-      <c r="A358" s="32"/>
+      <c r="A358" s="30"/>
       <c r="B358" s="20" t="s">
         <v>532</v>
       </c>
@@ -30042,7 +30062,7 @@
       <c r="F358" s="2"/>
     </row>
     <row r="359" spans="1:6" customFormat="1">
-      <c r="A359" s="32"/>
+      <c r="A359" s="30"/>
       <c r="B359" s="20">
         <v>13.2</v>
       </c>
@@ -30056,7 +30076,7 @@
       <c r="F359" s="2"/>
     </row>
     <row r="360" spans="1:6" customFormat="1">
-      <c r="A360" s="32"/>
+      <c r="A360" s="30"/>
       <c r="B360" s="20" t="s">
         <v>533</v>
       </c>
@@ -30070,7 +30090,7 @@
       <c r="F360" s="2"/>
     </row>
     <row r="361" spans="1:6" customFormat="1">
-      <c r="A361" s="32"/>
+      <c r="A361" s="30"/>
       <c r="B361" s="20" t="s">
         <v>534</v>
       </c>
@@ -30084,7 +30104,7 @@
       <c r="F361" s="2"/>
     </row>
     <row r="362" spans="1:6" customFormat="1">
-      <c r="A362" s="32"/>
+      <c r="A362" s="30"/>
       <c r="B362" s="20">
         <v>13.3</v>
       </c>
@@ -30098,7 +30118,7 @@
       <c r="F362" s="2"/>
     </row>
     <row r="363" spans="1:6" customFormat="1">
-      <c r="A363" s="32"/>
+      <c r="A363" s="30"/>
       <c r="B363" s="20">
         <v>13.4</v>
       </c>
@@ -30112,7 +30132,7 @@
       <c r="F363" s="2"/>
     </row>
     <row r="364" spans="1:6" customFormat="1">
-      <c r="A364" s="32"/>
+      <c r="A364" s="30"/>
       <c r="B364" s="20" t="s">
         <v>535</v>
       </c>
@@ -30126,7 +30146,7 @@
       <c r="F364" s="2"/>
     </row>
     <row r="365" spans="1:6" customFormat="1">
-      <c r="A365" s="32"/>
+      <c r="A365" s="30"/>
       <c r="B365" s="20" t="s">
         <v>536</v>
       </c>
@@ -30140,7 +30160,7 @@
       <c r="F365" s="2"/>
     </row>
     <row r="366" spans="1:6" customFormat="1">
-      <c r="A366" s="32"/>
+      <c r="A366" s="30"/>
       <c r="B366" s="20" t="s">
         <v>537</v>
       </c>
@@ -30154,7 +30174,7 @@
       <c r="F366" s="2"/>
     </row>
     <row r="367" spans="1:6" customFormat="1">
-      <c r="A367" s="32"/>
+      <c r="A367" s="30"/>
       <c r="B367" s="20" t="s">
         <v>538</v>
       </c>
@@ -30168,7 +30188,7 @@
       <c r="F367" s="2"/>
     </row>
     <row r="368" spans="1:6" customFormat="1">
-      <c r="A368" s="32"/>
+      <c r="A368" s="30"/>
       <c r="B368" s="20" t="s">
         <v>539</v>
       </c>
@@ -30182,7 +30202,7 @@
       <c r="F368" s="2"/>
     </row>
     <row r="369" spans="1:6" customFormat="1">
-      <c r="A369" s="32"/>
+      <c r="A369" s="30"/>
       <c r="B369" s="20" t="s">
         <v>540</v>
       </c>
@@ -30196,7 +30216,7 @@
       <c r="F369" s="2"/>
     </row>
     <row r="370" spans="1:6" customFormat="1">
-      <c r="A370" s="32"/>
+      <c r="A370" s="30"/>
       <c r="B370" s="20" t="s">
         <v>541</v>
       </c>
@@ -30210,7 +30230,7 @@
       <c r="F370" s="2"/>
     </row>
     <row r="371" spans="1:6" customFormat="1">
-      <c r="A371" s="32"/>
+      <c r="A371" s="30"/>
       <c r="B371" s="20" t="s">
         <v>542</v>
       </c>
@@ -30224,7 +30244,7 @@
       <c r="F371" s="2"/>
     </row>
     <row r="372" spans="1:6" customFormat="1">
-      <c r="A372" s="32"/>
+      <c r="A372" s="30"/>
       <c r="B372" s="20" t="s">
         <v>543</v>
       </c>
@@ -30238,7 +30258,7 @@
       <c r="F372" s="2"/>
     </row>
     <row r="373" spans="1:6" customFormat="1">
-      <c r="A373" s="32"/>
+      <c r="A373" s="30"/>
       <c r="B373" s="20">
         <v>13.5</v>
       </c>
@@ -30252,7 +30272,7 @@
       <c r="F373" s="2"/>
     </row>
     <row r="374" spans="1:6" customFormat="1">
-      <c r="A374" s="32"/>
+      <c r="A374" s="30"/>
       <c r="B374" s="20" t="s">
         <v>544</v>
       </c>
@@ -30266,7 +30286,7 @@
       <c r="F374" s="2"/>
     </row>
     <row r="375" spans="1:6" customFormat="1">
-      <c r="A375" s="32"/>
+      <c r="A375" s="30"/>
       <c r="B375" s="20" t="s">
         <v>545</v>
       </c>
@@ -30280,7 +30300,7 @@
       <c r="F375" s="2"/>
     </row>
     <row r="376" spans="1:6" customFormat="1">
-      <c r="A376" s="29" t="s">
+      <c r="A376" s="31" t="s">
         <v>1018</v>
       </c>
       <c r="B376" s="20">
@@ -30296,7 +30316,7 @@
       <c r="F376" s="2"/>
     </row>
     <row r="377" spans="1:6" customFormat="1">
-      <c r="A377" s="30"/>
+      <c r="A377" s="32"/>
       <c r="B377" s="20" t="s">
         <v>546</v>
       </c>
@@ -30310,7 +30330,7 @@
       <c r="F377" s="2"/>
     </row>
     <row r="378" spans="1:6" customFormat="1">
-      <c r="A378" s="30"/>
+      <c r="A378" s="32"/>
       <c r="B378" s="20">
         <v>14.2</v>
       </c>
@@ -30324,7 +30344,7 @@
       <c r="F378" s="2"/>
     </row>
     <row r="379" spans="1:6" customFormat="1">
-      <c r="A379" s="30"/>
+      <c r="A379" s="32"/>
       <c r="B379" s="20">
         <v>14.3</v>
       </c>
@@ -30338,7 +30358,7 @@
       <c r="F379" s="2"/>
     </row>
     <row r="380" spans="1:6" customFormat="1">
-      <c r="A380" s="30"/>
+      <c r="A380" s="32"/>
       <c r="B380" s="20" t="s">
         <v>547</v>
       </c>
@@ -30352,7 +30372,7 @@
       <c r="F380" s="2"/>
     </row>
     <row r="381" spans="1:6" customFormat="1">
-      <c r="A381" s="30"/>
+      <c r="A381" s="32"/>
       <c r="B381" s="20" t="s">
         <v>548</v>
       </c>
@@ -30366,7 +30386,7 @@
       <c r="F381" s="2"/>
     </row>
     <row r="382" spans="1:6" customFormat="1">
-      <c r="A382" s="30"/>
+      <c r="A382" s="32"/>
       <c r="B382" s="20" t="s">
         <v>549</v>
       </c>
@@ -30380,7 +30400,7 @@
       <c r="F382" s="2"/>
     </row>
     <row r="383" spans="1:6" customFormat="1">
-      <c r="A383" s="30"/>
+      <c r="A383" s="32"/>
       <c r="B383" s="20" t="s">
         <v>550</v>
       </c>
@@ -30394,7 +30414,7 @@
       <c r="F383" s="2"/>
     </row>
     <row r="384" spans="1:6" customFormat="1">
-      <c r="A384" s="30"/>
+      <c r="A384" s="32"/>
       <c r="B384" s="20">
         <v>14.4</v>
       </c>
@@ -30408,7 +30428,7 @@
       <c r="F384" s="2"/>
     </row>
     <row r="385" spans="1:6" customFormat="1">
-      <c r="A385" s="30"/>
+      <c r="A385" s="32"/>
       <c r="B385" s="20" t="s">
         <v>551</v>
       </c>
@@ -30422,7 +30442,7 @@
       <c r="F385" s="2"/>
     </row>
     <row r="386" spans="1:6" customFormat="1">
-      <c r="A386" s="30"/>
+      <c r="A386" s="32"/>
       <c r="B386" s="20" t="s">
         <v>552</v>
       </c>
@@ -30436,7 +30456,7 @@
       <c r="F386" s="2"/>
     </row>
     <row r="387" spans="1:6" customFormat="1">
-      <c r="A387" s="30"/>
+      <c r="A387" s="32"/>
       <c r="B387" s="20" t="s">
         <v>553</v>
       </c>
@@ -30450,7 +30470,7 @@
       <c r="F387" s="2"/>
     </row>
     <row r="388" spans="1:6" customFormat="1">
-      <c r="A388" s="30"/>
+      <c r="A388" s="32"/>
       <c r="B388" s="20">
         <v>14.5</v>
       </c>
@@ -30464,7 +30484,7 @@
       <c r="F388" s="2"/>
     </row>
     <row r="389" spans="1:6" customFormat="1">
-      <c r="A389" s="30"/>
+      <c r="A389" s="32"/>
       <c r="B389" s="20" t="s">
         <v>554</v>
       </c>
@@ -30478,7 +30498,7 @@
       <c r="F389" s="2"/>
     </row>
     <row r="390" spans="1:6" customFormat="1">
-      <c r="A390" s="30"/>
+      <c r="A390" s="32"/>
       <c r="B390" s="20" t="s">
         <v>555</v>
       </c>
@@ -30492,7 +30512,7 @@
       <c r="F390" s="2"/>
     </row>
     <row r="391" spans="1:6" customFormat="1">
-      <c r="A391" s="30"/>
+      <c r="A391" s="32"/>
       <c r="B391" s="20" t="s">
         <v>556</v>
       </c>
@@ -30506,7 +30526,7 @@
       <c r="F391" s="2"/>
     </row>
     <row r="392" spans="1:6" customFormat="1">
-      <c r="A392" s="30"/>
+      <c r="A392" s="32"/>
       <c r="B392" s="20" t="s">
         <v>557</v>
       </c>
@@ -30520,7 +30540,7 @@
       <c r="F392" s="2"/>
     </row>
     <row r="393" spans="1:6" customFormat="1">
-      <c r="A393" s="30"/>
+      <c r="A393" s="32"/>
       <c r="B393" s="20" t="s">
         <v>558</v>
       </c>
@@ -30534,7 +30554,7 @@
       <c r="F393" s="2"/>
     </row>
     <row r="394" spans="1:6" customFormat="1">
-      <c r="A394" s="30"/>
+      <c r="A394" s="32"/>
       <c r="B394" s="20" t="s">
         <v>559</v>
       </c>
@@ -30548,7 +30568,7 @@
       <c r="F394" s="2"/>
     </row>
     <row r="395" spans="1:6" customFormat="1">
-      <c r="A395" s="30"/>
+      <c r="A395" s="32"/>
       <c r="B395" s="20" t="s">
         <v>560</v>
       </c>
@@ -30562,7 +30582,7 @@
       <c r="F395" s="2"/>
     </row>
     <row r="396" spans="1:6" customFormat="1">
-      <c r="A396" s="30"/>
+      <c r="A396" s="32"/>
       <c r="B396" s="20" t="s">
         <v>561</v>
       </c>
@@ -30576,7 +30596,7 @@
       <c r="F396" s="2"/>
     </row>
     <row r="397" spans="1:6" customFormat="1">
-      <c r="A397" s="30"/>
+      <c r="A397" s="32"/>
       <c r="B397" s="20" t="s">
         <v>562</v>
       </c>
@@ -30590,7 +30610,7 @@
       <c r="F397" s="2"/>
     </row>
     <row r="398" spans="1:6" customFormat="1">
-      <c r="A398" s="30"/>
+      <c r="A398" s="32"/>
       <c r="B398" s="20" t="s">
         <v>563</v>
       </c>
@@ -30604,7 +30624,7 @@
       <c r="F398" s="2"/>
     </row>
     <row r="399" spans="1:6" customFormat="1">
-      <c r="A399" s="30"/>
+      <c r="A399" s="32"/>
       <c r="B399" s="20" t="s">
         <v>564</v>
       </c>
@@ -30618,7 +30638,7 @@
       <c r="F399" s="2"/>
     </row>
     <row r="400" spans="1:6" customFormat="1">
-      <c r="A400" s="30"/>
+      <c r="A400" s="32"/>
       <c r="B400" s="20" t="s">
         <v>565</v>
       </c>
@@ -30632,7 +30652,7 @@
       <c r="F400" s="2"/>
     </row>
     <row r="401" spans="1:6" customFormat="1">
-      <c r="A401" s="30"/>
+      <c r="A401" s="32"/>
       <c r="B401" s="20" t="s">
         <v>566</v>
       </c>
@@ -30646,7 +30666,7 @@
       <c r="F401" s="2"/>
     </row>
     <row r="402" spans="1:6" customFormat="1">
-      <c r="A402" s="30"/>
+      <c r="A402" s="32"/>
       <c r="B402" s="20" t="s">
         <v>567</v>
       </c>
@@ -30660,7 +30680,7 @@
       <c r="F402" s="2"/>
     </row>
     <row r="403" spans="1:6" customFormat="1">
-      <c r="A403" s="30"/>
+      <c r="A403" s="32"/>
       <c r="B403" s="20" t="s">
         <v>568</v>
       </c>
@@ -30674,7 +30694,7 @@
       <c r="F403" s="2"/>
     </row>
     <row r="404" spans="1:6" customFormat="1">
-      <c r="A404" s="30"/>
+      <c r="A404" s="32"/>
       <c r="B404" s="20">
         <v>14.6</v>
       </c>
@@ -30688,7 +30708,7 @@
       <c r="F404" s="2"/>
     </row>
     <row r="405" spans="1:6" customFormat="1">
-      <c r="A405" s="30"/>
+      <c r="A405" s="32"/>
       <c r="B405" s="20">
         <v>14.7</v>
       </c>
@@ -30702,7 +30722,7 @@
       <c r="F405" s="2"/>
     </row>
     <row r="406" spans="1:6" customFormat="1">
-      <c r="A406" s="30"/>
+      <c r="A406" s="32"/>
       <c r="B406" s="20" t="s">
         <v>569</v>
       </c>
@@ -30716,7 +30736,7 @@
       <c r="F406" s="2"/>
     </row>
     <row r="407" spans="1:6" customFormat="1">
-      <c r="A407" s="30"/>
+      <c r="A407" s="32"/>
       <c r="B407" s="20" t="s">
         <v>570</v>
       </c>
@@ -30730,7 +30750,7 @@
       <c r="F407" s="2"/>
     </row>
     <row r="408" spans="1:6" customFormat="1">
-      <c r="A408" s="30"/>
+      <c r="A408" s="32"/>
       <c r="B408" s="20" t="s">
         <v>571</v>
       </c>
@@ -30744,7 +30764,7 @@
       <c r="F408" s="2"/>
     </row>
     <row r="409" spans="1:6" customFormat="1">
-      <c r="A409" s="30"/>
+      <c r="A409" s="32"/>
       <c r="B409" s="20" t="s">
         <v>572</v>
       </c>
@@ -30758,7 +30778,7 @@
       <c r="F409" s="2"/>
     </row>
     <row r="410" spans="1:6" customFormat="1">
-      <c r="A410" s="30"/>
+      <c r="A410" s="32"/>
       <c r="B410" s="20" t="s">
         <v>573</v>
       </c>
@@ -30772,7 +30792,7 @@
       <c r="F410" s="2"/>
     </row>
     <row r="411" spans="1:6" customFormat="1">
-      <c r="A411" s="30"/>
+      <c r="A411" s="32"/>
       <c r="B411" s="20" t="s">
         <v>574</v>
       </c>
@@ -30786,7 +30806,7 @@
       <c r="F411" s="2"/>
     </row>
     <row r="412" spans="1:6" customFormat="1">
-      <c r="A412" s="30"/>
+      <c r="A412" s="32"/>
       <c r="B412" s="20" t="s">
         <v>575</v>
       </c>
@@ -30800,7 +30820,7 @@
       <c r="F412" s="2"/>
     </row>
     <row r="413" spans="1:6" customFormat="1">
-      <c r="A413" s="30"/>
+      <c r="A413" s="32"/>
       <c r="B413" s="20">
         <v>14.8</v>
       </c>
@@ -30814,7 +30834,7 @@
       <c r="F413" s="2"/>
     </row>
     <row r="414" spans="1:6" customFormat="1">
-      <c r="A414" s="30"/>
+      <c r="A414" s="32"/>
       <c r="B414" s="20">
         <v>14.9</v>
       </c>
@@ -30828,7 +30848,7 @@
       <c r="F414" s="2"/>
     </row>
     <row r="415" spans="1:6" customFormat="1">
-      <c r="A415" s="30"/>
+      <c r="A415" s="32"/>
       <c r="B415" s="20" t="s">
         <v>576</v>
       </c>
@@ -30842,7 +30862,7 @@
       <c r="F415" s="2"/>
     </row>
     <row r="416" spans="1:6" customFormat="1">
-      <c r="A416" s="30"/>
+      <c r="A416" s="32"/>
       <c r="B416" s="20" t="s">
         <v>577</v>
       </c>
@@ -30856,7 +30876,7 @@
       <c r="F416" s="2"/>
     </row>
     <row r="417" spans="1:6" customFormat="1">
-      <c r="A417" s="30"/>
+      <c r="A417" s="32"/>
       <c r="B417" s="20" t="s">
         <v>578</v>
       </c>
@@ -30870,7 +30890,7 @@
       <c r="F417" s="2"/>
     </row>
     <row r="418" spans="1:6" customFormat="1">
-      <c r="A418" s="30"/>
+      <c r="A418" s="32"/>
       <c r="B418" s="20" t="s">
         <v>579</v>
       </c>
@@ -30884,7 +30904,7 @@
       <c r="F418" s="2"/>
     </row>
     <row r="419" spans="1:6" customFormat="1">
-      <c r="A419" s="30"/>
+      <c r="A419" s="32"/>
       <c r="B419" s="20" t="s">
         <v>580</v>
       </c>
@@ -30898,7 +30918,7 @@
       <c r="F419" s="2"/>
     </row>
     <row r="420" spans="1:6" customFormat="1">
-      <c r="A420" s="30"/>
+      <c r="A420" s="32"/>
       <c r="B420" s="20">
         <v>14.1</v>
       </c>
@@ -30912,7 +30932,7 @@
       <c r="F420" s="2"/>
     </row>
     <row r="421" spans="1:6" customFormat="1">
-      <c r="A421" s="30"/>
+      <c r="A421" s="32"/>
       <c r="B421" s="20" t="s">
         <v>581</v>
       </c>
@@ -30926,7 +30946,7 @@
       <c r="F421" s="2"/>
     </row>
     <row r="422" spans="1:6" customFormat="1">
-      <c r="A422" s="30"/>
+      <c r="A422" s="32"/>
       <c r="B422" s="20" t="s">
         <v>582</v>
       </c>
@@ -30940,7 +30960,7 @@
       <c r="F422" s="2"/>
     </row>
     <row r="423" spans="1:6" customFormat="1">
-      <c r="A423" s="30"/>
+      <c r="A423" s="32"/>
       <c r="B423" s="20" t="s">
         <v>583</v>
       </c>
@@ -30954,7 +30974,7 @@
       <c r="F423" s="2"/>
     </row>
     <row r="424" spans="1:6" customFormat="1">
-      <c r="A424" s="30"/>
+      <c r="A424" s="32"/>
       <c r="B424" s="20" t="s">
         <v>584</v>
       </c>
@@ -30968,7 +30988,7 @@
       <c r="F424" s="2"/>
     </row>
     <row r="425" spans="1:6" customFormat="1">
-      <c r="A425" s="30"/>
+      <c r="A425" s="32"/>
       <c r="B425" s="20" t="s">
         <v>585</v>
       </c>
@@ -30982,7 +31002,7 @@
       <c r="F425" s="2"/>
     </row>
     <row r="426" spans="1:6" customFormat="1">
-      <c r="A426" s="30"/>
+      <c r="A426" s="32"/>
       <c r="B426" s="20">
         <v>14.11</v>
       </c>
@@ -30996,7 +31016,7 @@
       <c r="F426" s="2"/>
     </row>
     <row r="427" spans="1:6" customFormat="1">
-      <c r="A427" s="30"/>
+      <c r="A427" s="32"/>
       <c r="B427" s="20" t="s">
         <v>586</v>
       </c>
@@ -31010,7 +31030,7 @@
       <c r="F427" s="2"/>
     </row>
     <row r="428" spans="1:6" customFormat="1">
-      <c r="A428" s="30"/>
+      <c r="A428" s="32"/>
       <c r="B428" s="20" t="s">
         <v>587</v>
       </c>
@@ -31024,7 +31044,7 @@
       <c r="F428" s="2"/>
     </row>
     <row r="429" spans="1:6" customFormat="1">
-      <c r="A429" s="31"/>
+      <c r="A429" s="33"/>
       <c r="B429" s="20" t="s">
         <v>588</v>
       </c>
@@ -31090,6 +31110,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A376:A429"/>
+    <mergeCell ref="A353:A375"/>
+    <mergeCell ref="A310:A352"/>
+    <mergeCell ref="A301:A309"/>
+    <mergeCell ref="A250:A290"/>
+    <mergeCell ref="A291:A300"/>
     <mergeCell ref="A77:A127"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A25"/>
@@ -31098,12 +31124,6 @@
     <mergeCell ref="A128:A157"/>
     <mergeCell ref="A190:A217"/>
     <mergeCell ref="A158:A189"/>
-    <mergeCell ref="A376:A429"/>
-    <mergeCell ref="A353:A375"/>
-    <mergeCell ref="A310:A352"/>
-    <mergeCell ref="A301:A309"/>
-    <mergeCell ref="A250:A290"/>
-    <mergeCell ref="A291:A300"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I4">
@@ -31210,7 +31230,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-11</v>
+        <v>截至2020-09-15</v>
       </c>
       <c r="G1" s="12"/>
     </row>

--- a/学习进度.xlsx
+++ b/学习进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laohangdeche/Library/Mobile Documents/com~apple~CloudDocs/个人/学习笔记/Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC438420-D7A9-064D-AA87-C2BA033E6861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7B0B20-C706-2641-931D-5BDEB1CE3B41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="460" windowWidth="28300" windowHeight="16900" activeTab="2" xr2:uid="{C7784454-BD36-8040-9BFE-2AD014209B0B}"/>
+    <workbookView xWindow="220" yWindow="460" windowWidth="28300" windowHeight="16900" activeTab="1" xr2:uid="{C7784454-BD36-8040-9BFE-2AD014209B0B}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2785" uniqueCount="2293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="2293">
   <si>
     <t>01_Java语言发展史</t>
   </si>
@@ -6959,7 +6959,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7005,6 +7005,13 @@
       <sz val="12"/>
       <color theme="5" tint="-0.249977111117893"/>
       <name val="MicrosoftYaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="MicrosoftYaHei"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -7120,7 +7127,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7222,6 +7229,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7758,7 +7768,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -7830,7 +7840,7 @@
       </c>
       <c r="D3" s="2">
         <f>Java_黑马!G2</f>
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="E3" s="2">
         <f>Java_黑马!G2+Java_黑马!G3</f>
@@ -7838,7 +7848,7 @@
       </c>
       <c r="F3" s="15">
         <f t="shared" ref="F3:F4" si="0">D3/E3</f>
-        <v>0.58645276292335113</v>
+        <v>0.60427807486631013</v>
       </c>
       <c r="G3" s="25">
         <f>MAX(Java_黑马!D2:D562)</f>
@@ -7942,9 +7952,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB657C6-0FE4-2342-8CC8-66427A454229}">
   <dimension ref="A1:G718"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -15738,9 +15748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01128F9A-3AE1-6541-A247-7E828F31667C}">
   <dimension ref="A1:G562"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A327" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D341" sqref="D341"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B346" sqref="B346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -15790,7 +15800,7 @@
       </c>
       <c r="G2" s="12">
         <f>COUNTIF(C2:C562,"ok")</f>
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1">
@@ -15809,7 +15819,7 @@
       </c>
       <c r="G3" s="12">
         <f>COUNTBLANK(C2:C562)</f>
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1">
@@ -15828,7 +15838,7 @@
       </c>
       <c r="G4" s="15">
         <f>G2/(G2+G3)</f>
-        <v>0.58645276292335113</v>
+        <v>0.60427807486631013</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1">
@@ -20318,8 +20328,12 @@
       <c r="B343" s="5" t="s">
         <v>1209</v>
       </c>
-      <c r="C343" s="2"/>
-      <c r="D343" s="25"/>
+      <c r="C343" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D343" s="25">
+        <v>44089</v>
+      </c>
     </row>
     <row r="344" spans="1:4" customFormat="1">
       <c r="A344" s="2">
@@ -20328,8 +20342,12 @@
       <c r="B344" s="5" t="s">
         <v>1210</v>
       </c>
-      <c r="C344" s="2"/>
-      <c r="D344" s="25"/>
+      <c r="C344" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D344" s="25">
+        <v>44089</v>
+      </c>
     </row>
     <row r="345" spans="1:4" customFormat="1">
       <c r="A345" s="2">
@@ -20338,8 +20356,12 @@
       <c r="B345" s="5" t="s">
         <v>1211</v>
       </c>
-      <c r="C345" s="2"/>
-      <c r="D345" s="25"/>
+      <c r="C345" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D345" s="25">
+        <v>44089</v>
+      </c>
     </row>
     <row r="346" spans="1:4" customFormat="1">
       <c r="A346" s="2">
@@ -20348,8 +20370,12 @@
       <c r="B346" s="5" t="s">
         <v>1212</v>
       </c>
-      <c r="C346" s="2"/>
-      <c r="D346" s="25"/>
+      <c r="C346" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D346" s="25">
+        <v>44089</v>
+      </c>
     </row>
     <row r="347" spans="1:4" customFormat="1">
       <c r="A347" s="2">
@@ -20358,8 +20384,12 @@
       <c r="B347" s="5" t="s">
         <v>1213</v>
       </c>
-      <c r="C347" s="2"/>
-      <c r="D347" s="25"/>
+      <c r="C347" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D347" s="25">
+        <v>44089</v>
+      </c>
     </row>
     <row r="348" spans="1:4" customFormat="1">
       <c r="A348" s="2">
@@ -20368,8 +20398,12 @@
       <c r="B348" s="5" t="s">
         <v>1214</v>
       </c>
-      <c r="C348" s="2"/>
-      <c r="D348" s="25"/>
+      <c r="C348" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D348" s="25">
+        <v>44089</v>
+      </c>
     </row>
     <row r="349" spans="1:4" customFormat="1">
       <c r="A349" s="2">
@@ -20378,8 +20412,12 @@
       <c r="B349" s="5" t="s">
         <v>1215</v>
       </c>
-      <c r="C349" s="2"/>
-      <c r="D349" s="25"/>
+      <c r="C349" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D349" s="25">
+        <v>44089</v>
+      </c>
     </row>
     <row r="350" spans="1:4" customFormat="1">
       <c r="A350" s="2">
@@ -20388,28 +20426,40 @@
       <c r="B350" s="5" t="s">
         <v>1216</v>
       </c>
-      <c r="C350" s="2"/>
-      <c r="D350" s="25"/>
+      <c r="C350" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D350" s="25">
+        <v>44089</v>
+      </c>
     </row>
     <row r="351" spans="1:4" customFormat="1">
       <c r="A351" s="2">
         <v>350</v>
       </c>
-      <c r="B351" s="5" t="s">
+      <c r="B351" s="34" t="s">
         <v>1217</v>
       </c>
-      <c r="C351" s="2"/>
-      <c r="D351" s="25"/>
+      <c r="C351" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D351" s="25">
+        <v>44089</v>
+      </c>
     </row>
     <row r="352" spans="1:4" customFormat="1">
       <c r="A352" s="2">
         <v>351</v>
       </c>
-      <c r="B352" s="5" t="s">
+      <c r="B352" s="29" t="s">
         <v>1218</v>
       </c>
-      <c r="C352" s="2"/>
-      <c r="D352" s="25"/>
+      <c r="C352" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D352" s="25">
+        <v>44089</v>
+      </c>
     </row>
     <row r="353" spans="1:4" customFormat="1">
       <c r="A353" s="2">

--- a/学习进度.xlsx
+++ b/学习进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laohangdeche/Library/Mobile Documents/com~apple~CloudDocs/个人/学习笔记/Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7B0B20-C706-2641-931D-5BDEB1CE3B41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C221DD-5DFB-4447-BF13-114E4BF1E1ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="460" windowWidth="28300" windowHeight="16900" activeTab="1" xr2:uid="{C7784454-BD36-8040-9BFE-2AD014209B0B}"/>
+    <workbookView xWindow="220" yWindow="460" windowWidth="28300" windowHeight="16900" activeTab="2" xr2:uid="{C7784454-BD36-8040-9BFE-2AD014209B0B}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2795" uniqueCount="2293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="2293">
   <si>
     <t>01_Java语言发展史</t>
   </si>
@@ -7218,8 +7218,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7230,8 +7230,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7768,7 +7768,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -7840,7 +7840,7 @@
       </c>
       <c r="D3" s="2">
         <f>Java_黑马!G2</f>
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="E3" s="2">
         <f>Java_黑马!G2+Java_黑马!G3</f>
@@ -7848,7 +7848,7 @@
       </c>
       <c r="F3" s="15">
         <f t="shared" ref="F3:F4" si="0">D3/E3</f>
-        <v>0.60427807486631013</v>
+        <v>0.61497326203208558</v>
       </c>
       <c r="G3" s="25">
         <f>MAX(Java_黑马!D2:D562)</f>
@@ -7952,7 +7952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB657C6-0FE4-2342-8CC8-66427A454229}">
   <dimension ref="A1:G718"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B132" sqref="B132"/>
     </sheetView>
@@ -15748,9 +15748,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01128F9A-3AE1-6541-A247-7E828F31667C}">
   <dimension ref="A1:G562"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B346" sqref="B346"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A432" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B442" sqref="B442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -15800,7 +15800,7 @@
       </c>
       <c r="G2" s="12">
         <f>COUNTIF(C2:C562,"ok")</f>
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1">
@@ -15819,7 +15819,7 @@
       </c>
       <c r="G3" s="12">
         <f>COUNTBLANK(C2:C562)</f>
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1">
@@ -15838,7 +15838,7 @@
       </c>
       <c r="G4" s="15">
         <f>G2/(G2+G3)</f>
-        <v>0.60427807486631013</v>
+        <v>0.61497326203208558</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1">
@@ -20437,7 +20437,7 @@
       <c r="A351" s="2">
         <v>350</v>
       </c>
-      <c r="B351" s="34" t="s">
+      <c r="B351" s="30" t="s">
         <v>1217</v>
       </c>
       <c r="C351" s="2" t="s">
@@ -20468,8 +20468,12 @@
       <c r="B353" s="5" t="s">
         <v>1219</v>
       </c>
-      <c r="C353" s="2"/>
-      <c r="D353" s="25"/>
+      <c r="C353" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D353" s="25">
+        <v>44089</v>
+      </c>
     </row>
     <row r="354" spans="1:4" customFormat="1">
       <c r="A354" s="2">
@@ -20478,8 +20482,12 @@
       <c r="B354" s="5" t="s">
         <v>1220</v>
       </c>
-      <c r="C354" s="2"/>
-      <c r="D354" s="25"/>
+      <c r="C354" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D354" s="25">
+        <v>44089</v>
+      </c>
     </row>
     <row r="355" spans="1:4" customFormat="1">
       <c r="A355" s="2">
@@ -20488,8 +20496,12 @@
       <c r="B355" s="5" t="s">
         <v>1221</v>
       </c>
-      <c r="C355" s="2"/>
-      <c r="D355" s="25"/>
+      <c r="C355" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D355" s="25">
+        <v>44089</v>
+      </c>
     </row>
     <row r="356" spans="1:4" customFormat="1">
       <c r="A356" s="2">
@@ -20498,8 +20510,12 @@
       <c r="B356" s="5" t="s">
         <v>1222</v>
       </c>
-      <c r="C356" s="2"/>
-      <c r="D356" s="25"/>
+      <c r="C356" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D356" s="25">
+        <v>44089</v>
+      </c>
     </row>
     <row r="357" spans="1:4" customFormat="1">
       <c r="A357" s="2">
@@ -20508,8 +20524,12 @@
       <c r="B357" s="5" t="s">
         <v>1223</v>
       </c>
-      <c r="C357" s="2"/>
-      <c r="D357" s="25"/>
+      <c r="C357" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D357" s="25">
+        <v>44089</v>
+      </c>
     </row>
     <row r="358" spans="1:4" customFormat="1">
       <c r="A358" s="2">
@@ -20518,8 +20538,12 @@
       <c r="B358" s="5" t="s">
         <v>1224</v>
       </c>
-      <c r="C358" s="2"/>
-      <c r="D358" s="25"/>
+      <c r="C358" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D358" s="25">
+        <v>44089</v>
+      </c>
     </row>
     <row r="359" spans="1:4" customFormat="1">
       <c r="A359" s="2">
@@ -25052,7 +25076,7 @@
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" customFormat="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>1016</v>
       </c>
       <c r="B2" s="20">
@@ -25075,7 +25099,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" customFormat="1">
-      <c r="A3" s="30"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="20">
         <v>1.2</v>
       </c>
@@ -25096,7 +25120,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" customFormat="1">
-      <c r="A4" s="30"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="20" t="s">
         <v>261</v>
       </c>
@@ -25117,7 +25141,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" customFormat="1">
-      <c r="A5" s="30"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="20" t="s">
         <v>262</v>
       </c>
@@ -25131,7 +25155,7 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:9" customFormat="1">
-      <c r="A6" s="30"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="20" t="s">
         <v>263</v>
       </c>
@@ -25146,7 +25170,7 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:9" customFormat="1">
-      <c r="A7" s="30"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="20" t="s">
         <v>264</v>
       </c>
@@ -25161,7 +25185,7 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9" customFormat="1">
-      <c r="A8" s="30"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="20" t="s">
         <v>265</v>
       </c>
@@ -25175,7 +25199,7 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:9" customFormat="1">
-      <c r="A9" s="30"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="20" t="s">
         <v>266</v>
       </c>
@@ -25190,7 +25214,7 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:9" customFormat="1">
-      <c r="A10" s="30"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="20" t="s">
         <v>267</v>
       </c>
@@ -25204,7 +25228,7 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:9" customFormat="1">
-      <c r="A11" s="30"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="20" t="s">
         <v>268</v>
       </c>
@@ -25218,7 +25242,7 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:9" customFormat="1">
-      <c r="A12" s="30"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="20" t="s">
         <v>269</v>
       </c>
@@ -25232,7 +25256,7 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:9" customFormat="1">
-      <c r="A13" s="30"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="20" t="s">
         <v>270</v>
       </c>
@@ -25246,7 +25270,7 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:9" customFormat="1">
-      <c r="A14" s="30"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="20" t="s">
         <v>271</v>
       </c>
@@ -25260,7 +25284,7 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:9" customFormat="1">
-      <c r="A15" s="30"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="20">
         <v>1.3</v>
       </c>
@@ -25274,7 +25298,7 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:9" customFormat="1">
-      <c r="A16" s="30"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="20">
         <v>1.4</v>
       </c>
@@ -25288,7 +25312,7 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" customFormat="1">
-      <c r="A17" s="30"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="20">
         <v>1.5</v>
       </c>
@@ -25302,7 +25326,7 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" customFormat="1">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="34" t="s">
         <v>1017</v>
       </c>
       <c r="B18" s="20">
@@ -25318,7 +25342,7 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" customFormat="1">
-      <c r="A19" s="30"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="20" t="s">
         <v>272</v>
       </c>
@@ -25332,7 +25356,7 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" customFormat="1">
-      <c r="A20" s="30"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="20" t="s">
         <v>273</v>
       </c>
@@ -25346,7 +25370,7 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" customFormat="1">
-      <c r="A21" s="30"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="20" t="s">
         <v>274</v>
       </c>
@@ -25360,7 +25384,7 @@
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" customFormat="1">
-      <c r="A22" s="30"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="20">
         <v>2.2000000000000002</v>
       </c>
@@ -25374,7 +25398,7 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" customFormat="1">
-      <c r="A23" s="30"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="20">
         <v>2.2999999999999998</v>
       </c>
@@ -25388,7 +25412,7 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" customFormat="1">
-      <c r="A24" s="30"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="20">
         <v>2.4</v>
       </c>
@@ -25402,7 +25426,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" customFormat="1">
-      <c r="A25" s="30"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="20">
         <v>2.5</v>
       </c>
@@ -25416,7 +25440,7 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" customFormat="1">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="34" t="s">
         <v>1027</v>
       </c>
       <c r="B26" s="20">
@@ -25432,7 +25456,7 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" customFormat="1">
-      <c r="A27" s="30"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="20">
         <v>3.2</v>
       </c>
@@ -25446,7 +25470,7 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" customFormat="1">
-      <c r="A28" s="30"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="20">
         <v>3.3</v>
       </c>
@@ -25460,7 +25484,7 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" customFormat="1">
-      <c r="A29" s="30"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="20" t="s">
         <v>275</v>
       </c>
@@ -25474,7 +25498,7 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" customFormat="1">
-      <c r="A30" s="30"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="20" t="s">
         <v>276</v>
       </c>
@@ -25488,7 +25512,7 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" customFormat="1">
-      <c r="A31" s="30"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="20" t="s">
         <v>277</v>
       </c>
@@ -25502,7 +25526,7 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" customFormat="1">
-      <c r="A32" s="30"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="20" t="s">
         <v>278</v>
       </c>
@@ -25516,7 +25540,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" customFormat="1">
-      <c r="A33" s="30"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="20" t="s">
         <v>279</v>
       </c>
@@ -25530,7 +25554,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" customFormat="1">
-      <c r="A34" s="30"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="20">
         <v>3.4</v>
       </c>
@@ -25544,7 +25568,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" customFormat="1">
-      <c r="A35" s="30"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="20" t="s">
         <v>280</v>
       </c>
@@ -25558,7 +25582,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" customFormat="1">
-      <c r="A36" s="30"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="20" t="s">
         <v>281</v>
       </c>
@@ -25572,7 +25596,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" customFormat="1">
-      <c r="A37" s="30"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="20">
         <v>3.5</v>
       </c>
@@ -25586,7 +25610,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" customFormat="1">
-      <c r="A38" s="30"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="20" t="s">
         <v>282</v>
       </c>
@@ -25600,7 +25624,7 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" customFormat="1">
-      <c r="A39" s="30"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="20" t="s">
         <v>283</v>
       </c>
@@ -25614,7 +25638,7 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" customFormat="1">
-      <c r="A40" s="30"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="20" t="s">
         <v>284</v>
       </c>
@@ -25628,7 +25652,7 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" customFormat="1">
-      <c r="A41" s="30"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="20" t="s">
         <v>285</v>
       </c>
@@ -25642,7 +25666,7 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" customFormat="1">
-      <c r="A42" s="30"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="20" t="s">
         <v>286</v>
       </c>
@@ -25656,7 +25680,7 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" customFormat="1">
-      <c r="A43" s="30"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="20" t="s">
         <v>287</v>
       </c>
@@ -25670,7 +25694,7 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" customFormat="1">
-      <c r="A44" s="30"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="20" t="s">
         <v>288</v>
       </c>
@@ -25684,7 +25708,7 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" customFormat="1">
-      <c r="A45" s="30"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="20" t="s">
         <v>289</v>
       </c>
@@ -25698,7 +25722,7 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" customFormat="1">
-      <c r="A46" s="30"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="20" t="s">
         <v>290</v>
       </c>
@@ -25712,7 +25736,7 @@
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" customFormat="1">
-      <c r="A47" s="30"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="20">
         <v>3.6</v>
       </c>
@@ -25726,7 +25750,7 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" customFormat="1">
-      <c r="A48" s="30"/>
+      <c r="A48" s="34"/>
       <c r="B48" s="20" t="s">
         <v>291</v>
       </c>
@@ -25740,7 +25764,7 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" customFormat="1">
-      <c r="A49" s="30"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="20" t="s">
         <v>292</v>
       </c>
@@ -25754,7 +25778,7 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" customFormat="1">
-      <c r="A50" s="30"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="20" t="s">
         <v>293</v>
       </c>
@@ -25768,7 +25792,7 @@
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" customFormat="1">
-      <c r="A51" s="30"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="20" t="s">
         <v>294</v>
       </c>
@@ -25782,7 +25806,7 @@
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" customFormat="1">
-      <c r="A52" s="30"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="20" t="s">
         <v>295</v>
       </c>
@@ -25796,7 +25820,7 @@
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" customFormat="1">
-      <c r="A53" s="30"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="20" t="s">
         <v>296</v>
       </c>
@@ -25810,7 +25834,7 @@
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" customFormat="1">
-      <c r="A54" s="30"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="20" t="s">
         <v>297</v>
       </c>
@@ -25824,7 +25848,7 @@
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" customFormat="1">
-      <c r="A55" s="30"/>
+      <c r="A55" s="34"/>
       <c r="B55" s="20" t="s">
         <v>298</v>
       </c>
@@ -25838,7 +25862,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" customFormat="1">
-      <c r="A56" s="30"/>
+      <c r="A56" s="34"/>
       <c r="B56" s="20" t="s">
         <v>299</v>
       </c>
@@ -25852,7 +25876,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" customFormat="1">
-      <c r="A57" s="30"/>
+      <c r="A57" s="34"/>
       <c r="B57" s="20">
         <v>3.7</v>
       </c>
@@ -25866,7 +25890,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" customFormat="1">
-      <c r="A58" s="30"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="20" t="s">
         <v>300</v>
       </c>
@@ -25880,7 +25904,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" customFormat="1">
-      <c r="A59" s="30"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="20" t="s">
         <v>301</v>
       </c>
@@ -25894,7 +25918,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" customFormat="1">
-      <c r="A60" s="30"/>
+      <c r="A60" s="34"/>
       <c r="B60" s="20" t="s">
         <v>302</v>
       </c>
@@ -25908,7 +25932,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" customFormat="1">
-      <c r="A61" s="30"/>
+      <c r="A61" s="34"/>
       <c r="B61" s="20">
         <v>3.8</v>
       </c>
@@ -25922,7 +25946,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" customFormat="1">
-      <c r="A62" s="30"/>
+      <c r="A62" s="34"/>
       <c r="B62" s="20" t="s">
         <v>303</v>
       </c>
@@ -25936,7 +25960,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" customFormat="1">
-      <c r="A63" s="30"/>
+      <c r="A63" s="34"/>
       <c r="B63" s="20" t="s">
         <v>304</v>
       </c>
@@ -25950,7 +25974,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" customFormat="1">
-      <c r="A64" s="30"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="20" t="s">
         <v>305</v>
       </c>
@@ -25964,7 +25988,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" customFormat="1">
-      <c r="A65" s="30"/>
+      <c r="A65" s="34"/>
       <c r="B65" s="20" t="s">
         <v>306</v>
       </c>
@@ -25978,7 +26002,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" customFormat="1">
-      <c r="A66" s="30"/>
+      <c r="A66" s="34"/>
       <c r="B66" s="20" t="s">
         <v>307</v>
       </c>
@@ -25992,7 +26016,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" customFormat="1">
-      <c r="A67" s="30"/>
+      <c r="A67" s="34"/>
       <c r="B67" s="20" t="s">
         <v>308</v>
       </c>
@@ -26006,7 +26030,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" customFormat="1">
-      <c r="A68" s="30"/>
+      <c r="A68" s="34"/>
       <c r="B68" s="20">
         <v>3.9</v>
       </c>
@@ -26020,7 +26044,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" customFormat="1">
-      <c r="A69" s="30"/>
+      <c r="A69" s="34"/>
       <c r="B69" s="20">
         <v>3.1</v>
       </c>
@@ -26034,7 +26058,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" customFormat="1">
-      <c r="A70" s="30"/>
+      <c r="A70" s="34"/>
       <c r="B70" s="20" t="s">
         <v>309</v>
       </c>
@@ -26048,7 +26072,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" customFormat="1">
-      <c r="A71" s="30"/>
+      <c r="A71" s="34"/>
       <c r="B71" s="20" t="s">
         <v>310</v>
       </c>
@@ -26062,7 +26086,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" customFormat="1">
-      <c r="A72" s="30"/>
+      <c r="A72" s="34"/>
       <c r="B72" s="20" t="s">
         <v>311</v>
       </c>
@@ -26076,7 +26100,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" customFormat="1">
-      <c r="A73" s="30"/>
+      <c r="A73" s="34"/>
       <c r="B73" s="20" t="s">
         <v>312</v>
       </c>
@@ -26090,7 +26114,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" customFormat="1">
-      <c r="A74" s="30"/>
+      <c r="A74" s="34"/>
       <c r="B74" s="20" t="s">
         <v>313</v>
       </c>
@@ -26104,7 +26128,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" customFormat="1">
-      <c r="A75" s="30"/>
+      <c r="A75" s="34"/>
       <c r="B75" s="20" t="s">
         <v>314</v>
       </c>
@@ -26118,7 +26142,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" customFormat="1">
-      <c r="A76" s="30"/>
+      <c r="A76" s="34"/>
       <c r="B76" s="20" t="s">
         <v>315</v>
       </c>
@@ -26132,7 +26156,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" customFormat="1">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="34" t="s">
         <v>1028</v>
       </c>
       <c r="B77" s="20">
@@ -26148,7 +26172,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" customFormat="1">
-      <c r="A78" s="30"/>
+      <c r="A78" s="34"/>
       <c r="B78" s="20" t="s">
         <v>316</v>
       </c>
@@ -26162,7 +26186,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" customFormat="1">
-      <c r="A79" s="30"/>
+      <c r="A79" s="34"/>
       <c r="B79" s="20" t="s">
         <v>317</v>
       </c>
@@ -26176,7 +26200,7 @@
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" customFormat="1">
-      <c r="A80" s="30"/>
+      <c r="A80" s="34"/>
       <c r="B80" s="20" t="s">
         <v>318</v>
       </c>
@@ -26190,7 +26214,7 @@
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" customFormat="1">
-      <c r="A81" s="30"/>
+      <c r="A81" s="34"/>
       <c r="B81" s="20" t="s">
         <v>319</v>
       </c>
@@ -26204,7 +26228,7 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" customFormat="1">
-      <c r="A82" s="30"/>
+      <c r="A82" s="34"/>
       <c r="B82" s="20">
         <v>4.2</v>
       </c>
@@ -26218,7 +26242,7 @@
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" customFormat="1">
-      <c r="A83" s="30"/>
+      <c r="A83" s="34"/>
       <c r="B83" s="20" t="s">
         <v>320</v>
       </c>
@@ -26232,7 +26256,7 @@
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" customFormat="1">
-      <c r="A84" s="30"/>
+      <c r="A84" s="34"/>
       <c r="B84" s="20" t="s">
         <v>321</v>
       </c>
@@ -26246,7 +26270,7 @@
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" customFormat="1">
-      <c r="A85" s="30"/>
+      <c r="A85" s="34"/>
       <c r="B85" s="20" t="s">
         <v>322</v>
       </c>
@@ -26260,7 +26284,7 @@
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" customFormat="1">
-      <c r="A86" s="30"/>
+      <c r="A86" s="34"/>
       <c r="B86" s="20">
         <v>4.3</v>
       </c>
@@ -26274,7 +26298,7 @@
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" customFormat="1">
-      <c r="A87" s="30"/>
+      <c r="A87" s="34"/>
       <c r="B87" s="20" t="s">
         <v>323</v>
       </c>
@@ -26288,7 +26312,7 @@
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" customFormat="1">
-      <c r="A88" s="30"/>
+      <c r="A88" s="34"/>
       <c r="B88" s="20" t="s">
         <v>324</v>
       </c>
@@ -26302,7 +26326,7 @@
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" customFormat="1">
-      <c r="A89" s="30"/>
+      <c r="A89" s="34"/>
       <c r="B89" s="20" t="s">
         <v>325</v>
       </c>
@@ -26316,7 +26340,7 @@
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" customFormat="1">
-      <c r="A90" s="30"/>
+      <c r="A90" s="34"/>
       <c r="B90" s="20" t="s">
         <v>326</v>
       </c>
@@ -26330,7 +26354,7 @@
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" customFormat="1">
-      <c r="A91" s="30"/>
+      <c r="A91" s="34"/>
       <c r="B91" s="20" t="s">
         <v>327</v>
       </c>
@@ -26344,7 +26368,7 @@
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" customFormat="1">
-      <c r="A92" s="30"/>
+      <c r="A92" s="34"/>
       <c r="B92" s="20" t="s">
         <v>328</v>
       </c>
@@ -26358,7 +26382,7 @@
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" customFormat="1">
-      <c r="A93" s="30"/>
+      <c r="A93" s="34"/>
       <c r="B93" s="20" t="s">
         <v>329</v>
       </c>
@@ -26372,7 +26396,7 @@
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" customFormat="1">
-      <c r="A94" s="30"/>
+      <c r="A94" s="34"/>
       <c r="B94" s="20" t="s">
         <v>330</v>
       </c>
@@ -26386,7 +26410,7 @@
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" customFormat="1">
-      <c r="A95" s="30"/>
+      <c r="A95" s="34"/>
       <c r="B95" s="20" t="s">
         <v>331</v>
       </c>
@@ -26400,7 +26424,7 @@
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" customFormat="1">
-      <c r="A96" s="30"/>
+      <c r="A96" s="34"/>
       <c r="B96" s="20">
         <v>4.4000000000000004</v>
       </c>
@@ -26414,7 +26438,7 @@
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" customFormat="1">
-      <c r="A97" s="30"/>
+      <c r="A97" s="34"/>
       <c r="B97" s="20" t="s">
         <v>332</v>
       </c>
@@ -26428,7 +26452,7 @@
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" customFormat="1">
-      <c r="A98" s="30"/>
+      <c r="A98" s="34"/>
       <c r="B98" s="20" t="s">
         <v>333</v>
       </c>
@@ -26442,7 +26466,7 @@
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" customFormat="1">
-      <c r="A99" s="30"/>
+      <c r="A99" s="34"/>
       <c r="B99" s="20" t="s">
         <v>334</v>
       </c>
@@ -26456,7 +26480,7 @@
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" customFormat="1">
-      <c r="A100" s="30"/>
+      <c r="A100" s="34"/>
       <c r="B100" s="20" t="s">
         <v>335</v>
       </c>
@@ -26470,7 +26494,7 @@
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" customFormat="1">
-      <c r="A101" s="30"/>
+      <c r="A101" s="34"/>
       <c r="B101" s="20" t="s">
         <v>336</v>
       </c>
@@ -26484,7 +26508,7 @@
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" customFormat="1">
-      <c r="A102" s="30"/>
+      <c r="A102" s="34"/>
       <c r="B102" s="20">
         <v>4.5</v>
       </c>
@@ -26498,7 +26522,7 @@
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" customFormat="1">
-      <c r="A103" s="30"/>
+      <c r="A103" s="34"/>
       <c r="B103" s="20">
         <v>4.5999999999999996</v>
       </c>
@@ -26512,7 +26536,7 @@
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" customFormat="1">
-      <c r="A104" s="30"/>
+      <c r="A104" s="34"/>
       <c r="B104" s="20" t="s">
         <v>337</v>
       </c>
@@ -26526,7 +26550,7 @@
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" customFormat="1">
-      <c r="A105" s="30"/>
+      <c r="A105" s="34"/>
       <c r="B105" s="20" t="s">
         <v>338</v>
       </c>
@@ -26540,7 +26564,7 @@
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" customFormat="1">
-      <c r="A106" s="30"/>
+      <c r="A106" s="34"/>
       <c r="B106" s="20" t="s">
         <v>339</v>
       </c>
@@ -26554,7 +26578,7 @@
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" customFormat="1">
-      <c r="A107" s="30"/>
+      <c r="A107" s="34"/>
       <c r="B107" s="20" t="s">
         <v>340</v>
       </c>
@@ -26568,7 +26592,7 @@
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" customFormat="1">
-      <c r="A108" s="30"/>
+      <c r="A108" s="34"/>
       <c r="B108" s="20" t="s">
         <v>341</v>
       </c>
@@ -26582,7 +26606,7 @@
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" customFormat="1">
-      <c r="A109" s="30"/>
+      <c r="A109" s="34"/>
       <c r="B109" s="20" t="s">
         <v>342</v>
       </c>
@@ -26596,7 +26620,7 @@
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" customFormat="1">
-      <c r="A110" s="30"/>
+      <c r="A110" s="34"/>
       <c r="B110" s="20" t="s">
         <v>343</v>
       </c>
@@ -26610,7 +26634,7 @@
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" customFormat="1">
-      <c r="A111" s="30"/>
+      <c r="A111" s="34"/>
       <c r="B111" s="20" t="s">
         <v>344</v>
       </c>
@@ -26624,7 +26648,7 @@
       <c r="F111" s="9"/>
     </row>
     <row r="112" spans="1:6" customFormat="1">
-      <c r="A112" s="30"/>
+      <c r="A112" s="34"/>
       <c r="B112" s="20">
         <v>4.7</v>
       </c>
@@ -26638,7 +26662,7 @@
       <c r="F112" s="9"/>
     </row>
     <row r="113" spans="1:8" customFormat="1">
-      <c r="A113" s="30"/>
+      <c r="A113" s="34"/>
       <c r="B113" s="20" t="s">
         <v>345</v>
       </c>
@@ -26652,7 +26676,7 @@
       <c r="F113" s="9"/>
     </row>
     <row r="114" spans="1:8" customFormat="1">
-      <c r="A114" s="30"/>
+      <c r="A114" s="34"/>
       <c r="B114" s="20" t="s">
         <v>346</v>
       </c>
@@ -26666,7 +26690,7 @@
       <c r="F114" s="9"/>
     </row>
     <row r="115" spans="1:8" customFormat="1">
-      <c r="A115" s="30"/>
+      <c r="A115" s="34"/>
       <c r="B115" s="20" t="s">
         <v>347</v>
       </c>
@@ -26680,7 +26704,7 @@
       <c r="F115" s="9"/>
     </row>
     <row r="116" spans="1:8" customFormat="1">
-      <c r="A116" s="30"/>
+      <c r="A116" s="34"/>
       <c r="B116" s="20" t="s">
         <v>348</v>
       </c>
@@ -26695,7 +26719,7 @@
       <c r="H116" s="7"/>
     </row>
     <row r="117" spans="1:8" customFormat="1">
-      <c r="A117" s="30"/>
+      <c r="A117" s="34"/>
       <c r="B117" s="20">
         <v>4.8</v>
       </c>
@@ -26710,7 +26734,7 @@
       <c r="H117" s="7"/>
     </row>
     <row r="118" spans="1:8" customFormat="1">
-      <c r="A118" s="30"/>
+      <c r="A118" s="34"/>
       <c r="B118" s="20" t="s">
         <v>349</v>
       </c>
@@ -26725,7 +26749,7 @@
       <c r="H118" s="7"/>
     </row>
     <row r="119" spans="1:8" customFormat="1">
-      <c r="A119" s="30"/>
+      <c r="A119" s="34"/>
       <c r="B119" s="20">
         <v>4.9000000000000004</v>
       </c>
@@ -26740,7 +26764,7 @@
       <c r="H119" s="7"/>
     </row>
     <row r="120" spans="1:8" customFormat="1">
-      <c r="A120" s="30"/>
+      <c r="A120" s="34"/>
       <c r="B120" s="20" t="s">
         <v>350</v>
       </c>
@@ -26755,7 +26779,7 @@
       <c r="H120" s="7"/>
     </row>
     <row r="121" spans="1:8" customFormat="1">
-      <c r="A121" s="30"/>
+      <c r="A121" s="34"/>
       <c r="B121" s="20" t="s">
         <v>351</v>
       </c>
@@ -26770,7 +26794,7 @@
       <c r="H121" s="7"/>
     </row>
     <row r="122" spans="1:8" customFormat="1">
-      <c r="A122" s="30"/>
+      <c r="A122" s="34"/>
       <c r="B122" s="20" t="s">
         <v>352</v>
       </c>
@@ -26785,7 +26809,7 @@
       <c r="H122" s="7"/>
     </row>
     <row r="123" spans="1:8" customFormat="1">
-      <c r="A123" s="30"/>
+      <c r="A123" s="34"/>
       <c r="B123" s="20" t="s">
         <v>353</v>
       </c>
@@ -26800,7 +26824,7 @@
       <c r="H123" s="7"/>
     </row>
     <row r="124" spans="1:8" customFormat="1">
-      <c r="A124" s="30"/>
+      <c r="A124" s="34"/>
       <c r="B124" s="20" t="s">
         <v>354</v>
       </c>
@@ -26815,7 +26839,7 @@
       <c r="H124" s="7"/>
     </row>
     <row r="125" spans="1:8" customFormat="1">
-      <c r="A125" s="30"/>
+      <c r="A125" s="34"/>
       <c r="B125" s="20" t="s">
         <v>355</v>
       </c>
@@ -26830,7 +26854,7 @@
       <c r="H125" s="7"/>
     </row>
     <row r="126" spans="1:8" customFormat="1">
-      <c r="A126" s="30"/>
+      <c r="A126" s="34"/>
       <c r="B126" s="20" t="s">
         <v>356</v>
       </c>
@@ -26845,7 +26869,7 @@
       <c r="H126" s="7"/>
     </row>
     <row r="127" spans="1:8" customFormat="1">
-      <c r="A127" s="30"/>
+      <c r="A127" s="34"/>
       <c r="B127" s="21">
         <v>4.0999999999999996</v>
       </c>
@@ -26860,7 +26884,7 @@
       <c r="H127" s="7"/>
     </row>
     <row r="128" spans="1:8" customFormat="1">
-      <c r="A128" s="30" t="s">
+      <c r="A128" s="34" t="s">
         <v>1029</v>
       </c>
       <c r="B128" s="20">
@@ -26876,7 +26900,7 @@
       <c r="F128" s="6"/>
     </row>
     <row r="129" spans="1:6" customFormat="1">
-      <c r="A129" s="30"/>
+      <c r="A129" s="34"/>
       <c r="B129" s="20" t="s">
         <v>357</v>
       </c>
@@ -26890,7 +26914,7 @@
       <c r="F129" s="6"/>
     </row>
     <row r="130" spans="1:6" customFormat="1">
-      <c r="A130" s="30"/>
+      <c r="A130" s="34"/>
       <c r="B130" s="20" t="s">
         <v>358</v>
       </c>
@@ -26904,7 +26928,7 @@
       <c r="F130" s="6"/>
     </row>
     <row r="131" spans="1:6" customFormat="1">
-      <c r="A131" s="30"/>
+      <c r="A131" s="34"/>
       <c r="B131" s="20" t="s">
         <v>359</v>
       </c>
@@ -26918,7 +26942,7 @@
       <c r="F131" s="6"/>
     </row>
     <row r="132" spans="1:6" customFormat="1">
-      <c r="A132" s="30"/>
+      <c r="A132" s="34"/>
       <c r="B132" s="20" t="s">
         <v>360</v>
       </c>
@@ -26932,7 +26956,7 @@
       <c r="F132" s="6"/>
     </row>
     <row r="133" spans="1:6" customFormat="1">
-      <c r="A133" s="30"/>
+      <c r="A133" s="34"/>
       <c r="B133" s="20" t="s">
         <v>361</v>
       </c>
@@ -26946,7 +26970,7 @@
       <c r="F133" s="6"/>
     </row>
     <row r="134" spans="1:6" customFormat="1">
-      <c r="A134" s="30"/>
+      <c r="A134" s="34"/>
       <c r="B134" s="20" t="s">
         <v>362</v>
       </c>
@@ -26960,7 +26984,7 @@
       <c r="F134" s="6"/>
     </row>
     <row r="135" spans="1:6" customFormat="1">
-      <c r="A135" s="30"/>
+      <c r="A135" s="34"/>
       <c r="B135" s="20" t="s">
         <v>363</v>
       </c>
@@ -26974,7 +26998,7 @@
       <c r="F135" s="6"/>
     </row>
     <row r="136" spans="1:6" customFormat="1">
-      <c r="A136" s="30"/>
+      <c r="A136" s="34"/>
       <c r="B136" s="20" t="s">
         <v>364</v>
       </c>
@@ -26988,7 +27012,7 @@
       <c r="F136" s="6"/>
     </row>
     <row r="137" spans="1:6" customFormat="1">
-      <c r="A137" s="30"/>
+      <c r="A137" s="34"/>
       <c r="B137" s="20" t="s">
         <v>365</v>
       </c>
@@ -27002,7 +27026,7 @@
       <c r="F137" s="6"/>
     </row>
     <row r="138" spans="1:6" customFormat="1">
-      <c r="A138" s="30"/>
+      <c r="A138" s="34"/>
       <c r="B138" s="20" t="s">
         <v>366</v>
       </c>
@@ -27016,7 +27040,7 @@
       <c r="F138" s="6"/>
     </row>
     <row r="139" spans="1:6" customFormat="1">
-      <c r="A139" s="30"/>
+      <c r="A139" s="34"/>
       <c r="B139" s="20">
         <v>5.2</v>
       </c>
@@ -27030,7 +27054,7 @@
       <c r="F139" s="6"/>
     </row>
     <row r="140" spans="1:6" customFormat="1">
-      <c r="A140" s="30"/>
+      <c r="A140" s="34"/>
       <c r="B140" s="20" t="s">
         <v>367</v>
       </c>
@@ -27044,7 +27068,7 @@
       <c r="F140" s="6"/>
     </row>
     <row r="141" spans="1:6" customFormat="1">
-      <c r="A141" s="30"/>
+      <c r="A141" s="34"/>
       <c r="B141" s="20" t="s">
         <v>368</v>
       </c>
@@ -27058,7 +27082,7 @@
       <c r="F141" s="6"/>
     </row>
     <row r="142" spans="1:6" customFormat="1">
-      <c r="A142" s="30"/>
+      <c r="A142" s="34"/>
       <c r="B142" s="20" t="s">
         <v>369</v>
       </c>
@@ -27072,7 +27096,7 @@
       <c r="F142" s="6"/>
     </row>
     <row r="143" spans="1:6" customFormat="1">
-      <c r="A143" s="30"/>
+      <c r="A143" s="34"/>
       <c r="B143" s="20" t="s">
         <v>370</v>
       </c>
@@ -27086,7 +27110,7 @@
       <c r="F143" s="6"/>
     </row>
     <row r="144" spans="1:6" customFormat="1">
-      <c r="A144" s="30"/>
+      <c r="A144" s="34"/>
       <c r="B144" s="20">
         <v>5.3</v>
       </c>
@@ -27100,7 +27124,7 @@
       <c r="F144" s="6"/>
     </row>
     <row r="145" spans="1:6" customFormat="1">
-      <c r="A145" s="30"/>
+      <c r="A145" s="34"/>
       <c r="B145" s="20" t="s">
         <v>371</v>
       </c>
@@ -27114,7 +27138,7 @@
       <c r="F145" s="6"/>
     </row>
     <row r="146" spans="1:6" customFormat="1">
-      <c r="A146" s="30"/>
+      <c r="A146" s="34"/>
       <c r="B146" s="20" t="s">
         <v>372</v>
       </c>
@@ -27128,7 +27152,7 @@
       <c r="F146" s="6"/>
     </row>
     <row r="147" spans="1:6" customFormat="1">
-      <c r="A147" s="30"/>
+      <c r="A147" s="34"/>
       <c r="B147" s="20">
         <v>5.4</v>
       </c>
@@ -27142,7 +27166,7 @@
       <c r="F147" s="6"/>
     </row>
     <row r="148" spans="1:6" customFormat="1">
-      <c r="A148" s="30"/>
+      <c r="A148" s="34"/>
       <c r="B148" s="20">
         <v>5.5</v>
       </c>
@@ -27156,7 +27180,7 @@
       <c r="F148" s="6"/>
     </row>
     <row r="149" spans="1:6" customFormat="1">
-      <c r="A149" s="30"/>
+      <c r="A149" s="34"/>
       <c r="B149" s="20">
         <v>5.6</v>
       </c>
@@ -27170,7 +27194,7 @@
       <c r="F149" s="6"/>
     </row>
     <row r="150" spans="1:6" customFormat="1">
-      <c r="A150" s="30"/>
+      <c r="A150" s="34"/>
       <c r="B150" s="20">
         <v>5.7</v>
       </c>
@@ -27184,7 +27208,7 @@
       <c r="F150" s="6"/>
     </row>
     <row r="151" spans="1:6" customFormat="1">
-      <c r="A151" s="30"/>
+      <c r="A151" s="34"/>
       <c r="B151" s="20" t="s">
         <v>373</v>
       </c>
@@ -27198,7 +27222,7 @@
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="1:6" customFormat="1">
-      <c r="A152" s="30"/>
+      <c r="A152" s="34"/>
       <c r="B152" s="20" t="s">
         <v>374</v>
       </c>
@@ -27212,7 +27236,7 @@
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:6" customFormat="1">
-      <c r="A153" s="30"/>
+      <c r="A153" s="34"/>
       <c r="B153" s="20" t="s">
         <v>375</v>
       </c>
@@ -27226,7 +27250,7 @@
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" customFormat="1">
-      <c r="A154" s="30"/>
+      <c r="A154" s="34"/>
       <c r="B154" s="20" t="s">
         <v>376</v>
       </c>
@@ -27240,7 +27264,7 @@
       <c r="F154" s="2"/>
     </row>
     <row r="155" spans="1:6" customFormat="1">
-      <c r="A155" s="30"/>
+      <c r="A155" s="34"/>
       <c r="B155" s="20" t="s">
         <v>377</v>
       </c>
@@ -27254,7 +27278,7 @@
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" customFormat="1">
-      <c r="A156" s="30"/>
+      <c r="A156" s="34"/>
       <c r="B156" s="20" t="s">
         <v>378</v>
       </c>
@@ -27268,7 +27292,7 @@
       <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:6" customFormat="1">
-      <c r="A157" s="30"/>
+      <c r="A157" s="34"/>
       <c r="B157" s="20">
         <v>5.8</v>
       </c>
@@ -27282,7 +27306,7 @@
       <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:6" customFormat="1">
-      <c r="A158" s="30" t="s">
+      <c r="A158" s="34" t="s">
         <v>1026</v>
       </c>
       <c r="B158" s="20">
@@ -27298,7 +27322,7 @@
       <c r="F158" s="2"/>
     </row>
     <row r="159" spans="1:6" customFormat="1">
-      <c r="A159" s="30"/>
+      <c r="A159" s="34"/>
       <c r="B159" s="20" t="s">
         <v>379</v>
       </c>
@@ -27312,7 +27336,7 @@
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" customFormat="1">
-      <c r="A160" s="30"/>
+      <c r="A160" s="34"/>
       <c r="B160" s="20" t="s">
         <v>380</v>
       </c>
@@ -27326,7 +27350,7 @@
       <c r="F160" s="2"/>
     </row>
     <row r="161" spans="1:6" customFormat="1">
-      <c r="A161" s="30"/>
+      <c r="A161" s="34"/>
       <c r="B161" s="20" t="s">
         <v>381</v>
       </c>
@@ -27340,7 +27364,7 @@
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" customFormat="1">
-      <c r="A162" s="30"/>
+      <c r="A162" s="34"/>
       <c r="B162" s="20" t="s">
         <v>382</v>
       </c>
@@ -27354,7 +27378,7 @@
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:6" customFormat="1">
-      <c r="A163" s="30"/>
+      <c r="A163" s="34"/>
       <c r="B163" s="20" t="s">
         <v>383</v>
       </c>
@@ -27368,7 +27392,7 @@
       <c r="F163" s="2"/>
     </row>
     <row r="164" spans="1:6" customFormat="1">
-      <c r="A164" s="30"/>
+      <c r="A164" s="34"/>
       <c r="B164" s="20" t="s">
         <v>384</v>
       </c>
@@ -27382,7 +27406,7 @@
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" customFormat="1">
-      <c r="A165" s="30"/>
+      <c r="A165" s="34"/>
       <c r="B165" s="20">
         <v>6.2</v>
       </c>
@@ -27396,7 +27420,7 @@
       <c r="F165" s="2"/>
     </row>
     <row r="166" spans="1:6" customFormat="1">
-      <c r="A166" s="30"/>
+      <c r="A166" s="34"/>
       <c r="B166" s="20" t="s">
         <v>385</v>
       </c>
@@ -27410,7 +27434,7 @@
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" customFormat="1">
-      <c r="A167" s="30"/>
+      <c r="A167" s="34"/>
       <c r="B167" s="20" t="s">
         <v>386</v>
       </c>
@@ -27424,7 +27448,7 @@
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="1:6" customFormat="1">
-      <c r="A168" s="30"/>
+      <c r="A168" s="34"/>
       <c r="B168" s="20" t="s">
         <v>387</v>
       </c>
@@ -27438,7 +27462,7 @@
       <c r="F168" s="2"/>
     </row>
     <row r="169" spans="1:6" customFormat="1">
-      <c r="A169" s="30"/>
+      <c r="A169" s="34"/>
       <c r="B169" s="20">
         <v>6.3</v>
       </c>
@@ -27452,7 +27476,7 @@
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" customFormat="1">
-      <c r="A170" s="30"/>
+      <c r="A170" s="34"/>
       <c r="B170" s="20" t="s">
         <v>388</v>
       </c>
@@ -27466,7 +27490,7 @@
       <c r="F170" s="2"/>
     </row>
     <row r="171" spans="1:6" customFormat="1">
-      <c r="A171" s="30"/>
+      <c r="A171" s="34"/>
       <c r="B171" s="20" t="s">
         <v>389</v>
       </c>
@@ -27480,7 +27504,7 @@
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" customFormat="1">
-      <c r="A172" s="30"/>
+      <c r="A172" s="34"/>
       <c r="B172" s="20" t="s">
         <v>390</v>
       </c>
@@ -27494,7 +27518,7 @@
       <c r="F172" s="2"/>
     </row>
     <row r="173" spans="1:6" customFormat="1">
-      <c r="A173" s="30"/>
+      <c r="A173" s="34"/>
       <c r="B173" s="20" t="s">
         <v>391</v>
       </c>
@@ -27508,7 +27532,7 @@
       <c r="F173" s="2"/>
     </row>
     <row r="174" spans="1:6" customFormat="1">
-      <c r="A174" s="30"/>
+      <c r="A174" s="34"/>
       <c r="B174" s="20" t="s">
         <v>392</v>
       </c>
@@ -27522,7 +27546,7 @@
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" customFormat="1">
-      <c r="A175" s="30"/>
+      <c r="A175" s="34"/>
       <c r="B175" s="20" t="s">
         <v>393</v>
       </c>
@@ -27536,7 +27560,7 @@
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="1:6" customFormat="1">
-      <c r="A176" s="30"/>
+      <c r="A176" s="34"/>
       <c r="B176" s="20" t="s">
         <v>394</v>
       </c>
@@ -27550,7 +27574,7 @@
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" customFormat="1">
-      <c r="A177" s="30"/>
+      <c r="A177" s="34"/>
       <c r="B177" s="20" t="s">
         <v>395</v>
       </c>
@@ -27564,7 +27588,7 @@
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:6" customFormat="1">
-      <c r="A178" s="30"/>
+      <c r="A178" s="34"/>
       <c r="B178" s="20">
         <v>6.4</v>
       </c>
@@ -27578,7 +27602,7 @@
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:6" customFormat="1">
-      <c r="A179" s="30"/>
+      <c r="A179" s="34"/>
       <c r="B179" s="20" t="s">
         <v>396</v>
       </c>
@@ -27592,7 +27616,7 @@
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" customFormat="1">
-      <c r="A180" s="30"/>
+      <c r="A180" s="34"/>
       <c r="B180" s="20" t="s">
         <v>397</v>
       </c>
@@ -27606,7 +27630,7 @@
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6" customFormat="1">
-      <c r="A181" s="30"/>
+      <c r="A181" s="34"/>
       <c r="B181" s="20" t="s">
         <v>398</v>
       </c>
@@ -27620,7 +27644,7 @@
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" customFormat="1">
-      <c r="A182" s="30"/>
+      <c r="A182" s="34"/>
       <c r="B182" s="20" t="s">
         <v>399</v>
       </c>
@@ -27634,7 +27658,7 @@
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:6" customFormat="1">
-      <c r="A183" s="30"/>
+      <c r="A183" s="34"/>
       <c r="B183" s="20" t="s">
         <v>400</v>
       </c>
@@ -27648,7 +27672,7 @@
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6" customFormat="1">
-      <c r="A184" s="30"/>
+      <c r="A184" s="34"/>
       <c r="B184" s="20" t="s">
         <v>401</v>
       </c>
@@ -27662,7 +27686,7 @@
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:6" customFormat="1">
-      <c r="A185" s="30"/>
+      <c r="A185" s="34"/>
       <c r="B185" s="20" t="s">
         <v>402</v>
       </c>
@@ -27676,7 +27700,7 @@
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" customFormat="1">
-      <c r="A186" s="30"/>
+      <c r="A186" s="34"/>
       <c r="B186" s="20">
         <v>6.5</v>
       </c>
@@ -27690,7 +27714,7 @@
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="1:6" customFormat="1">
-      <c r="A187" s="30"/>
+      <c r="A187" s="34"/>
       <c r="B187" s="20" t="s">
         <v>403</v>
       </c>
@@ -27704,7 +27728,7 @@
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" customFormat="1">
-      <c r="A188" s="30"/>
+      <c r="A188" s="34"/>
       <c r="B188" s="20" t="s">
         <v>404</v>
       </c>
@@ -27718,7 +27742,7 @@
       <c r="F188" s="2"/>
     </row>
     <row r="189" spans="1:6" customFormat="1">
-      <c r="A189" s="30"/>
+      <c r="A189" s="34"/>
       <c r="B189" s="20" t="s">
         <v>405</v>
       </c>
@@ -27732,7 +27756,7 @@
       <c r="F189" s="2"/>
     </row>
     <row r="190" spans="1:6" customFormat="1">
-      <c r="A190" s="30" t="s">
+      <c r="A190" s="34" t="s">
         <v>1025</v>
       </c>
       <c r="B190" s="20">
@@ -27748,7 +27772,7 @@
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" customFormat="1">
-      <c r="A191" s="30"/>
+      <c r="A191" s="34"/>
       <c r="B191" s="20" t="s">
         <v>406</v>
       </c>
@@ -27762,7 +27786,7 @@
       <c r="F191" s="2"/>
     </row>
     <row r="192" spans="1:6" customFormat="1">
-      <c r="A192" s="30"/>
+      <c r="A192" s="34"/>
       <c r="B192" s="20" t="s">
         <v>407</v>
       </c>
@@ -27776,7 +27800,7 @@
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" customFormat="1">
-      <c r="A193" s="30"/>
+      <c r="A193" s="34"/>
       <c r="B193" s="20" t="s">
         <v>408</v>
       </c>
@@ -27790,7 +27814,7 @@
       <c r="F193" s="2"/>
     </row>
     <row r="194" spans="1:6" customFormat="1">
-      <c r="A194" s="30"/>
+      <c r="A194" s="34"/>
       <c r="B194" s="20" t="s">
         <v>409</v>
       </c>
@@ -27804,7 +27828,7 @@
       <c r="F194" s="2"/>
     </row>
     <row r="195" spans="1:6" customFormat="1">
-      <c r="A195" s="30"/>
+      <c r="A195" s="34"/>
       <c r="B195" s="20">
         <v>7.2</v>
       </c>
@@ -27818,7 +27842,7 @@
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" customFormat="1">
-      <c r="A196" s="30"/>
+      <c r="A196" s="34"/>
       <c r="B196" s="20" t="s">
         <v>410</v>
       </c>
@@ -27832,7 +27856,7 @@
       <c r="F196" s="2"/>
     </row>
     <row r="197" spans="1:6" customFormat="1">
-      <c r="A197" s="30"/>
+      <c r="A197" s="34"/>
       <c r="B197" s="20" t="s">
         <v>411</v>
       </c>
@@ -27846,7 +27870,7 @@
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" customFormat="1">
-      <c r="A198" s="30"/>
+      <c r="A198" s="34"/>
       <c r="B198" s="20" t="s">
         <v>412</v>
       </c>
@@ -27860,7 +27884,7 @@
       <c r="F198" s="2"/>
     </row>
     <row r="199" spans="1:6" customFormat="1">
-      <c r="A199" s="30"/>
+      <c r="A199" s="34"/>
       <c r="B199" s="20" t="s">
         <v>413</v>
       </c>
@@ -27874,7 +27898,7 @@
       <c r="F199" s="2"/>
     </row>
     <row r="200" spans="1:6" customFormat="1">
-      <c r="A200" s="30"/>
+      <c r="A200" s="34"/>
       <c r="B200" s="20" t="s">
         <v>414</v>
       </c>
@@ -27888,7 +27912,7 @@
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" customFormat="1">
-      <c r="A201" s="30"/>
+      <c r="A201" s="34"/>
       <c r="B201" s="20" t="s">
         <v>415</v>
       </c>
@@ -27902,7 +27926,7 @@
       <c r="F201" s="2"/>
     </row>
     <row r="202" spans="1:6" customFormat="1">
-      <c r="A202" s="30"/>
+      <c r="A202" s="34"/>
       <c r="B202" s="20">
         <v>7.3</v>
       </c>
@@ -27916,7 +27940,7 @@
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:6" customFormat="1">
-      <c r="A203" s="30"/>
+      <c r="A203" s="34"/>
       <c r="B203" s="20">
         <v>7.4</v>
       </c>
@@ -27930,7 +27954,7 @@
       <c r="F203" s="2"/>
     </row>
     <row r="204" spans="1:6" customFormat="1">
-      <c r="A204" s="30"/>
+      <c r="A204" s="34"/>
       <c r="B204" s="20" t="s">
         <v>416</v>
       </c>
@@ -27944,7 +27968,7 @@
       <c r="F204" s="2"/>
     </row>
     <row r="205" spans="1:6" customFormat="1">
-      <c r="A205" s="30"/>
+      <c r="A205" s="34"/>
       <c r="B205" s="20" t="s">
         <v>417</v>
       </c>
@@ -27958,7 +27982,7 @@
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" customFormat="1">
-      <c r="A206" s="30"/>
+      <c r="A206" s="34"/>
       <c r="B206" s="20" t="s">
         <v>418</v>
       </c>
@@ -27972,7 +27996,7 @@
       <c r="F206" s="2"/>
     </row>
     <row r="207" spans="1:6" customFormat="1">
-      <c r="A207" s="30"/>
+      <c r="A207" s="34"/>
       <c r="B207" s="20" t="s">
         <v>419</v>
       </c>
@@ -27986,7 +28010,7 @@
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" customFormat="1">
-      <c r="A208" s="30"/>
+      <c r="A208" s="34"/>
       <c r="B208" s="20">
         <v>7.5</v>
       </c>
@@ -28000,7 +28024,7 @@
       <c r="F208" s="2"/>
     </row>
     <row r="209" spans="1:6" customFormat="1">
-      <c r="A209" s="30"/>
+      <c r="A209" s="34"/>
       <c r="B209" s="20" t="s">
         <v>420</v>
       </c>
@@ -28014,7 +28038,7 @@
       <c r="F209" s="2"/>
     </row>
     <row r="210" spans="1:6" customFormat="1">
-      <c r="A210" s="30"/>
+      <c r="A210" s="34"/>
       <c r="B210" s="20" t="s">
         <v>421</v>
       </c>
@@ -28028,7 +28052,7 @@
       <c r="F210" s="2"/>
     </row>
     <row r="211" spans="1:6" customFormat="1">
-      <c r="A211" s="30"/>
+      <c r="A211" s="34"/>
       <c r="B211" s="20" t="s">
         <v>422</v>
       </c>
@@ -28042,7 +28066,7 @@
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" customFormat="1">
-      <c r="A212" s="30"/>
+      <c r="A212" s="34"/>
       <c r="B212" s="20" t="s">
         <v>423</v>
       </c>
@@ -28056,7 +28080,7 @@
       <c r="F212" s="2"/>
     </row>
     <row r="213" spans="1:6" customFormat="1">
-      <c r="A213" s="30"/>
+      <c r="A213" s="34"/>
       <c r="B213" s="20" t="s">
         <v>424</v>
       </c>
@@ -28070,7 +28094,7 @@
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" customFormat="1">
-      <c r="A214" s="30"/>
+      <c r="A214" s="34"/>
       <c r="B214" s="20" t="s">
         <v>425</v>
       </c>
@@ -28084,7 +28108,7 @@
       <c r="F214" s="2"/>
     </row>
     <row r="215" spans="1:6" customFormat="1">
-      <c r="A215" s="30"/>
+      <c r="A215" s="34"/>
       <c r="B215" s="20" t="s">
         <v>426</v>
       </c>
@@ -28098,7 +28122,7 @@
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:6" customFormat="1">
-      <c r="A216" s="30"/>
+      <c r="A216" s="34"/>
       <c r="B216" s="20" t="s">
         <v>427</v>
       </c>
@@ -28112,7 +28136,7 @@
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" customFormat="1">
-      <c r="A217" s="30"/>
+      <c r="A217" s="34"/>
       <c r="B217" s="20">
         <v>7.6</v>
       </c>
@@ -28126,7 +28150,7 @@
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:6" customFormat="1">
-      <c r="A218" s="30" t="s">
+      <c r="A218" s="34" t="s">
         <v>1024</v>
       </c>
       <c r="B218" s="20">
@@ -28142,7 +28166,7 @@
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" customFormat="1">
-      <c r="A219" s="30"/>
+      <c r="A219" s="34"/>
       <c r="B219" s="20" t="s">
         <v>428</v>
       </c>
@@ -28156,7 +28180,7 @@
       <c r="F219" s="2"/>
     </row>
     <row r="220" spans="1:6" customFormat="1">
-      <c r="A220" s="30"/>
+      <c r="A220" s="34"/>
       <c r="B220" s="20" t="s">
         <v>429</v>
       </c>
@@ -28170,7 +28194,7 @@
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="1:6" customFormat="1">
-      <c r="A221" s="30"/>
+      <c r="A221" s="34"/>
       <c r="B221" s="20">
         <v>8.1999999999999993</v>
       </c>
@@ -28184,7 +28208,7 @@
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" customFormat="1">
-      <c r="A222" s="30"/>
+      <c r="A222" s="34"/>
       <c r="B222" s="20">
         <v>8.3000000000000007</v>
       </c>
@@ -28198,7 +28222,7 @@
       <c r="F222" s="2"/>
     </row>
     <row r="223" spans="1:6" customFormat="1">
-      <c r="A223" s="30"/>
+      <c r="A223" s="34"/>
       <c r="B223" s="20">
         <v>8.4</v>
       </c>
@@ -28212,7 +28236,7 @@
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" customFormat="1">
-      <c r="A224" s="30"/>
+      <c r="A224" s="34"/>
       <c r="B224" s="20">
         <v>8.5</v>
       </c>
@@ -28226,7 +28250,7 @@
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:6" customFormat="1">
-      <c r="A225" s="30"/>
+      <c r="A225" s="34"/>
       <c r="B225" s="20" t="s">
         <v>430</v>
       </c>
@@ -28240,7 +28264,7 @@
       <c r="F225" s="2"/>
     </row>
     <row r="226" spans="1:6" customFormat="1">
-      <c r="A226" s="30"/>
+      <c r="A226" s="34"/>
       <c r="B226" s="20" t="s">
         <v>431</v>
       </c>
@@ -28254,7 +28278,7 @@
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" customFormat="1">
-      <c r="A227" s="30"/>
+      <c r="A227" s="34"/>
       <c r="B227" s="20" t="s">
         <v>432</v>
       </c>
@@ -28268,7 +28292,7 @@
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:6" customFormat="1">
-      <c r="A228" s="30"/>
+      <c r="A228" s="34"/>
       <c r="B228" s="20" t="s">
         <v>433</v>
       </c>
@@ -28282,7 +28306,7 @@
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" customFormat="1">
-      <c r="A229" s="30"/>
+      <c r="A229" s="34"/>
       <c r="B229" s="20">
         <v>8.6</v>
       </c>
@@ -28296,7 +28320,7 @@
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="1:6" customFormat="1">
-      <c r="A230" s="30"/>
+      <c r="A230" s="34"/>
       <c r="B230" s="20" t="s">
         <v>434</v>
       </c>
@@ -28310,7 +28334,7 @@
       <c r="F230" s="2"/>
     </row>
     <row r="231" spans="1:6" customFormat="1">
-      <c r="A231" s="30"/>
+      <c r="A231" s="34"/>
       <c r="B231" s="20" t="s">
         <v>435</v>
       </c>
@@ -28324,7 +28348,7 @@
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" customFormat="1">
-      <c r="A232" s="30"/>
+      <c r="A232" s="34"/>
       <c r="B232" s="20" t="s">
         <v>436</v>
       </c>
@@ -28338,7 +28362,7 @@
       <c r="F232" s="2"/>
     </row>
     <row r="233" spans="1:6" customFormat="1">
-      <c r="A233" s="30"/>
+      <c r="A233" s="34"/>
       <c r="B233" s="20" t="s">
         <v>437</v>
       </c>
@@ -28352,7 +28376,7 @@
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" customFormat="1">
-      <c r="A234" s="30"/>
+      <c r="A234" s="34"/>
       <c r="B234" s="20" t="s">
         <v>438</v>
       </c>
@@ -28366,7 +28390,7 @@
       <c r="F234" s="2"/>
     </row>
     <row r="235" spans="1:6" customFormat="1">
-      <c r="A235" s="30"/>
+      <c r="A235" s="34"/>
       <c r="B235" s="20" t="s">
         <v>439</v>
       </c>
@@ -28380,7 +28404,7 @@
       <c r="F235" s="2"/>
     </row>
     <row r="236" spans="1:6" customFormat="1">
-      <c r="A236" s="30"/>
+      <c r="A236" s="34"/>
       <c r="B236" s="20" t="s">
         <v>440</v>
       </c>
@@ -28394,7 +28418,7 @@
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:6" customFormat="1">
-      <c r="A237" s="30"/>
+      <c r="A237" s="34"/>
       <c r="B237" s="20" t="s">
         <v>441</v>
       </c>
@@ -28408,7 +28432,7 @@
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" customFormat="1">
-      <c r="A238" s="30"/>
+      <c r="A238" s="34"/>
       <c r="B238" s="20" t="s">
         <v>442</v>
       </c>
@@ -28422,7 +28446,7 @@
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:6" customFormat="1">
-      <c r="A239" s="30"/>
+      <c r="A239" s="34"/>
       <c r="B239" s="20" t="s">
         <v>443</v>
       </c>
@@ -28436,7 +28460,7 @@
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" customFormat="1">
-      <c r="A240" s="30"/>
+      <c r="A240" s="34"/>
       <c r="B240" s="20">
         <v>8.6999999999999993</v>
       </c>
@@ -28450,7 +28474,7 @@
       <c r="F240" s="2"/>
     </row>
     <row r="241" spans="1:6" customFormat="1">
-      <c r="A241" s="30"/>
+      <c r="A241" s="34"/>
       <c r="B241" s="20">
         <v>8.8000000000000007</v>
       </c>
@@ -28464,7 +28488,7 @@
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="1:6" customFormat="1">
-      <c r="A242" s="30"/>
+      <c r="A242" s="34"/>
       <c r="B242" s="20" t="s">
         <v>444</v>
       </c>
@@ -28478,7 +28502,7 @@
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" customFormat="1">
-      <c r="A243" s="30"/>
+      <c r="A243" s="34"/>
       <c r="B243" s="20" t="s">
         <v>445</v>
       </c>
@@ -28492,7 +28516,7 @@
       <c r="F243" s="2"/>
     </row>
     <row r="244" spans="1:6" customFormat="1">
-      <c r="A244" s="30"/>
+      <c r="A244" s="34"/>
       <c r="B244" s="20" t="s">
         <v>446</v>
       </c>
@@ -28506,7 +28530,7 @@
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" customFormat="1">
-      <c r="A245" s="30"/>
+      <c r="A245" s="34"/>
       <c r="B245" s="20" t="s">
         <v>447</v>
       </c>
@@ -28520,7 +28544,7 @@
       <c r="F245" s="2"/>
     </row>
     <row r="246" spans="1:6" customFormat="1">
-      <c r="A246" s="30"/>
+      <c r="A246" s="34"/>
       <c r="B246" s="20">
         <v>8.9</v>
       </c>
@@ -28534,7 +28558,7 @@
       <c r="F246" s="2"/>
     </row>
     <row r="247" spans="1:6" customFormat="1">
-      <c r="A247" s="30"/>
+      <c r="A247" s="34"/>
       <c r="B247" s="20" t="s">
         <v>448</v>
       </c>
@@ -28548,7 +28572,7 @@
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" customFormat="1">
-      <c r="A248" s="30"/>
+      <c r="A248" s="34"/>
       <c r="B248" s="20" t="s">
         <v>449</v>
       </c>
@@ -28562,7 +28586,7 @@
       <c r="F248" s="2"/>
     </row>
     <row r="249" spans="1:6" customFormat="1">
-      <c r="A249" s="30"/>
+      <c r="A249" s="34"/>
       <c r="B249" s="20" t="s">
         <v>450</v>
       </c>
@@ -28576,7 +28600,7 @@
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" customFormat="1">
-      <c r="A250" s="30" t="s">
+      <c r="A250" s="34" t="s">
         <v>1022</v>
       </c>
       <c r="B250" s="20">
@@ -28592,7 +28616,7 @@
       <c r="F250" s="2"/>
     </row>
     <row r="251" spans="1:6" customFormat="1">
-      <c r="A251" s="30"/>
+      <c r="A251" s="34"/>
       <c r="B251" s="20" t="s">
         <v>451</v>
       </c>
@@ -28606,7 +28630,7 @@
       <c r="F251" s="2"/>
     </row>
     <row r="252" spans="1:6" customFormat="1">
-      <c r="A252" s="30"/>
+      <c r="A252" s="34"/>
       <c r="B252" s="20" t="s">
         <v>452</v>
       </c>
@@ -28620,7 +28644,7 @@
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" customFormat="1">
-      <c r="A253" s="30"/>
+      <c r="A253" s="34"/>
       <c r="B253" s="20" t="s">
         <v>453</v>
       </c>
@@ -28634,7 +28658,7 @@
       <c r="F253" s="2"/>
     </row>
     <row r="254" spans="1:6" customFormat="1">
-      <c r="A254" s="30"/>
+      <c r="A254" s="34"/>
       <c r="B254" s="20" t="s">
         <v>454</v>
       </c>
@@ -28648,7 +28672,7 @@
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" customFormat="1">
-      <c r="A255" s="30"/>
+      <c r="A255" s="34"/>
       <c r="B255" s="20" t="s">
         <v>455</v>
       </c>
@@ -28662,7 +28686,7 @@
       <c r="F255" s="2"/>
     </row>
     <row r="256" spans="1:6" customFormat="1">
-      <c r="A256" s="30"/>
+      <c r="A256" s="34"/>
       <c r="B256" s="20">
         <v>9.1999999999999993</v>
       </c>
@@ -28676,7 +28700,7 @@
       <c r="F256" s="2"/>
     </row>
     <row r="257" spans="1:6" customFormat="1">
-      <c r="A257" s="30"/>
+      <c r="A257" s="34"/>
       <c r="B257" s="20" t="s">
         <v>456</v>
       </c>
@@ -28690,7 +28714,7 @@
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" customFormat="1">
-      <c r="A258" s="30"/>
+      <c r="A258" s="34"/>
       <c r="B258" s="20" t="s">
         <v>457</v>
       </c>
@@ -28704,7 +28728,7 @@
       <c r="F258" s="2"/>
     </row>
     <row r="259" spans="1:6" customFormat="1">
-      <c r="A259" s="30"/>
+      <c r="A259" s="34"/>
       <c r="B259" s="20" t="s">
         <v>458</v>
       </c>
@@ -28718,7 +28742,7 @@
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" customFormat="1">
-      <c r="A260" s="30"/>
+      <c r="A260" s="34"/>
       <c r="B260" s="20" t="s">
         <v>459</v>
       </c>
@@ -28732,7 +28756,7 @@
       <c r="F260" s="2"/>
     </row>
     <row r="261" spans="1:6" customFormat="1">
-      <c r="A261" s="30"/>
+      <c r="A261" s="34"/>
       <c r="B261" s="20" t="s">
         <v>460</v>
       </c>
@@ -28746,7 +28770,7 @@
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="1:6" customFormat="1">
-      <c r="A262" s="30"/>
+      <c r="A262" s="34"/>
       <c r="B262" s="20" t="s">
         <v>461</v>
       </c>
@@ -28760,7 +28784,7 @@
       <c r="F262" s="2"/>
     </row>
     <row r="263" spans="1:6" customFormat="1">
-      <c r="A263" s="30"/>
+      <c r="A263" s="34"/>
       <c r="B263" s="20">
         <v>9.3000000000000007</v>
       </c>
@@ -28774,7 +28798,7 @@
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" customFormat="1">
-      <c r="A264" s="30"/>
+      <c r="A264" s="34"/>
       <c r="B264" s="20" t="s">
         <v>462</v>
       </c>
@@ -28788,7 +28812,7 @@
       <c r="F264" s="2"/>
     </row>
     <row r="265" spans="1:6" customFormat="1">
-      <c r="A265" s="30"/>
+      <c r="A265" s="34"/>
       <c r="B265" s="20" t="s">
         <v>463</v>
       </c>
@@ -28802,7 +28826,7 @@
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" customFormat="1">
-      <c r="A266" s="30"/>
+      <c r="A266" s="34"/>
       <c r="B266" s="20" t="s">
         <v>464</v>
       </c>
@@ -28816,7 +28840,7 @@
       <c r="F266" s="2"/>
     </row>
     <row r="267" spans="1:6" customFormat="1">
-      <c r="A267" s="30"/>
+      <c r="A267" s="34"/>
       <c r="B267" s="20" t="s">
         <v>465</v>
       </c>
@@ -28830,7 +28854,7 @@
       <c r="F267" s="2"/>
     </row>
     <row r="268" spans="1:6" customFormat="1">
-      <c r="A268" s="30"/>
+      <c r="A268" s="34"/>
       <c r="B268" s="20" t="s">
         <v>466</v>
       </c>
@@ -28844,7 +28868,7 @@
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6" customFormat="1">
-      <c r="A269" s="30"/>
+      <c r="A269" s="34"/>
       <c r="B269" s="20" t="s">
         <v>467</v>
       </c>
@@ -28858,7 +28882,7 @@
       <c r="F269" s="2"/>
     </row>
     <row r="270" spans="1:6" customFormat="1">
-      <c r="A270" s="30"/>
+      <c r="A270" s="34"/>
       <c r="B270" s="20" t="s">
         <v>468</v>
       </c>
@@ -28872,7 +28896,7 @@
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="1:6" customFormat="1">
-      <c r="A271" s="30"/>
+      <c r="A271" s="34"/>
       <c r="B271" s="20">
         <v>9.4</v>
       </c>
@@ -28886,7 +28910,7 @@
       <c r="F271" s="2"/>
     </row>
     <row r="272" spans="1:6" customFormat="1">
-      <c r="A272" s="30"/>
+      <c r="A272" s="34"/>
       <c r="B272" s="20" t="s">
         <v>469</v>
       </c>
@@ -28900,7 +28924,7 @@
       <c r="F272" s="2"/>
     </row>
     <row r="273" spans="1:6" customFormat="1">
-      <c r="A273" s="30"/>
+      <c r="A273" s="34"/>
       <c r="B273" s="20" t="s">
         <v>470</v>
       </c>
@@ -28914,7 +28938,7 @@
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" customFormat="1">
-      <c r="A274" s="30"/>
+      <c r="A274" s="34"/>
       <c r="B274" s="20" t="s">
         <v>471</v>
       </c>
@@ -28928,7 +28952,7 @@
       <c r="F274" s="2"/>
     </row>
     <row r="275" spans="1:6" customFormat="1">
-      <c r="A275" s="30"/>
+      <c r="A275" s="34"/>
       <c r="B275" s="20" t="s">
         <v>472</v>
       </c>
@@ -28942,7 +28966,7 @@
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" customFormat="1">
-      <c r="A276" s="30"/>
+      <c r="A276" s="34"/>
       <c r="B276" s="20" t="s">
         <v>473</v>
       </c>
@@ -28956,7 +28980,7 @@
       <c r="F276" s="2"/>
     </row>
     <row r="277" spans="1:6" customFormat="1">
-      <c r="A277" s="30"/>
+      <c r="A277" s="34"/>
       <c r="B277" s="20" t="s">
         <v>474</v>
       </c>
@@ -28970,7 +28994,7 @@
       <c r="F277" s="2"/>
     </row>
     <row r="278" spans="1:6" customFormat="1">
-      <c r="A278" s="30"/>
+      <c r="A278" s="34"/>
       <c r="B278" s="20">
         <v>9.5</v>
       </c>
@@ -28984,7 +29008,7 @@
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" customFormat="1">
-      <c r="A279" s="30"/>
+      <c r="A279" s="34"/>
       <c r="B279" s="20" t="s">
         <v>475</v>
       </c>
@@ -28998,7 +29022,7 @@
       <c r="F279" s="2"/>
     </row>
     <row r="280" spans="1:6" customFormat="1">
-      <c r="A280" s="30"/>
+      <c r="A280" s="34"/>
       <c r="B280" s="20" t="s">
         <v>476</v>
       </c>
@@ -29012,7 +29036,7 @@
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" customFormat="1">
-      <c r="A281" s="30"/>
+      <c r="A281" s="34"/>
       <c r="B281" s="20" t="s">
         <v>477</v>
       </c>
@@ -29026,7 +29050,7 @@
       <c r="F281" s="2"/>
     </row>
     <row r="282" spans="1:6" customFormat="1">
-      <c r="A282" s="30"/>
+      <c r="A282" s="34"/>
       <c r="B282" s="20" t="s">
         <v>478</v>
       </c>
@@ -29040,7 +29064,7 @@
       <c r="F282" s="2"/>
     </row>
     <row r="283" spans="1:6" customFormat="1">
-      <c r="A283" s="30"/>
+      <c r="A283" s="34"/>
       <c r="B283" s="20" t="s">
         <v>479</v>
       </c>
@@ -29054,7 +29078,7 @@
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" customFormat="1">
-      <c r="A284" s="30"/>
+      <c r="A284" s="34"/>
       <c r="B284" s="20" t="s">
         <v>480</v>
       </c>
@@ -29068,7 +29092,7 @@
       <c r="F284" s="2"/>
     </row>
     <row r="285" spans="1:6" customFormat="1">
-      <c r="A285" s="30"/>
+      <c r="A285" s="34"/>
       <c r="B285" s="20">
         <v>9.6</v>
       </c>
@@ -29082,7 +29106,7 @@
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6" customFormat="1">
-      <c r="A286" s="30"/>
+      <c r="A286" s="34"/>
       <c r="B286" s="20" t="s">
         <v>481</v>
       </c>
@@ -29096,7 +29120,7 @@
       <c r="F286" s="2"/>
     </row>
     <row r="287" spans="1:6" customFormat="1">
-      <c r="A287" s="30"/>
+      <c r="A287" s="34"/>
       <c r="B287" s="20" t="s">
         <v>482</v>
       </c>
@@ -29110,7 +29134,7 @@
       <c r="F287" s="2"/>
     </row>
     <row r="288" spans="1:6" customFormat="1">
-      <c r="A288" s="30"/>
+      <c r="A288" s="34"/>
       <c r="B288" s="20" t="s">
         <v>483</v>
       </c>
@@ -29124,7 +29148,7 @@
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="1:6" customFormat="1">
-      <c r="A289" s="30"/>
+      <c r="A289" s="34"/>
       <c r="B289" s="20" t="s">
         <v>484</v>
       </c>
@@ -29138,7 +29162,7 @@
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" customFormat="1">
-      <c r="A290" s="30"/>
+      <c r="A290" s="34"/>
       <c r="B290" s="20" t="s">
         <v>485</v>
       </c>
@@ -29152,7 +29176,7 @@
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="1:6" customFormat="1">
-      <c r="A291" s="30" t="s">
+      <c r="A291" s="34" t="s">
         <v>1023</v>
       </c>
       <c r="B291" s="20">
@@ -29168,7 +29192,7 @@
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:6" customFormat="1">
-      <c r="A292" s="30"/>
+      <c r="A292" s="34"/>
       <c r="B292" s="20">
         <v>10.199999999999999</v>
       </c>
@@ -29182,7 +29206,7 @@
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="1:6" customFormat="1">
-      <c r="A293" s="30"/>
+      <c r="A293" s="34"/>
       <c r="B293" s="20">
         <v>10.3</v>
       </c>
@@ -29196,7 +29220,7 @@
       <c r="F293" s="2"/>
     </row>
     <row r="294" spans="1:6" customFormat="1">
-      <c r="A294" s="30"/>
+      <c r="A294" s="34"/>
       <c r="B294" s="20" t="s">
         <v>486</v>
       </c>
@@ -29210,7 +29234,7 @@
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" customFormat="1">
-      <c r="A295" s="30"/>
+      <c r="A295" s="34"/>
       <c r="B295" s="20" t="s">
         <v>487</v>
       </c>
@@ -29224,7 +29248,7 @@
       <c r="F295" s="2"/>
     </row>
     <row r="296" spans="1:6" customFormat="1">
-      <c r="A296" s="30"/>
+      <c r="A296" s="34"/>
       <c r="B296" s="20">
         <v>10.4</v>
       </c>
@@ -29238,7 +29262,7 @@
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6" customFormat="1">
-      <c r="A297" s="30"/>
+      <c r="A297" s="34"/>
       <c r="B297" s="20">
         <v>10.5</v>
       </c>
@@ -29252,7 +29276,7 @@
       <c r="F297" s="2"/>
     </row>
     <row r="298" spans="1:6" customFormat="1">
-      <c r="A298" s="30"/>
+      <c r="A298" s="34"/>
       <c r="B298" s="20">
         <v>10.6</v>
       </c>
@@ -29266,7 +29290,7 @@
       <c r="F298" s="2"/>
     </row>
     <row r="299" spans="1:6" customFormat="1">
-      <c r="A299" s="30"/>
+      <c r="A299" s="34"/>
       <c r="B299" s="20">
         <v>10.7</v>
       </c>
@@ -29280,7 +29304,7 @@
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6" customFormat="1">
-      <c r="A300" s="30"/>
+      <c r="A300" s="34"/>
       <c r="B300" s="20">
         <v>10.8</v>
       </c>
@@ -29294,7 +29318,7 @@
       <c r="F300" s="2"/>
     </row>
     <row r="301" spans="1:6" customFormat="1">
-      <c r="A301" s="30" t="s">
+      <c r="A301" s="34" t="s">
         <v>1021</v>
       </c>
       <c r="B301" s="20">
@@ -29310,7 +29334,7 @@
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6" customFormat="1">
-      <c r="A302" s="30"/>
+      <c r="A302" s="34"/>
       <c r="B302" s="20" t="s">
         <v>488</v>
       </c>
@@ -29324,7 +29348,7 @@
       <c r="F302" s="2"/>
     </row>
     <row r="303" spans="1:6" customFormat="1">
-      <c r="A303" s="30"/>
+      <c r="A303" s="34"/>
       <c r="B303" s="20" t="s">
         <v>489</v>
       </c>
@@ -29338,7 +29362,7 @@
       <c r="F303" s="2"/>
     </row>
     <row r="304" spans="1:6" customFormat="1">
-      <c r="A304" s="30"/>
+      <c r="A304" s="34"/>
       <c r="B304" s="20" t="s">
         <v>490</v>
       </c>
@@ -29352,7 +29376,7 @@
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6" customFormat="1">
-      <c r="A305" s="30"/>
+      <c r="A305" s="34"/>
       <c r="B305" s="20" t="s">
         <v>491</v>
       </c>
@@ -29366,7 +29390,7 @@
       <c r="F305" s="2"/>
     </row>
     <row r="306" spans="1:6" customFormat="1">
-      <c r="A306" s="30"/>
+      <c r="A306" s="34"/>
       <c r="B306" s="20">
         <v>11.2</v>
       </c>
@@ -29380,7 +29404,7 @@
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6" customFormat="1">
-      <c r="A307" s="30"/>
+      <c r="A307" s="34"/>
       <c r="B307" s="20">
         <v>11.3</v>
       </c>
@@ -29394,7 +29418,7 @@
       <c r="F307" s="2"/>
     </row>
     <row r="308" spans="1:6" customFormat="1">
-      <c r="A308" s="30"/>
+      <c r="A308" s="34"/>
       <c r="B308" s="20">
         <v>11.4</v>
       </c>
@@ -29408,7 +29432,7 @@
       <c r="F308" s="2"/>
     </row>
     <row r="309" spans="1:6" customFormat="1">
-      <c r="A309" s="30"/>
+      <c r="A309" s="34"/>
       <c r="B309" s="20" t="s">
         <v>492</v>
       </c>
@@ -29422,7 +29446,7 @@
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6" customFormat="1">
-      <c r="A310" s="30" t="s">
+      <c r="A310" s="34" t="s">
         <v>1020</v>
       </c>
       <c r="B310" s="20">
@@ -29438,7 +29462,7 @@
       <c r="F310" s="2"/>
     </row>
     <row r="311" spans="1:6" customFormat="1">
-      <c r="A311" s="30"/>
+      <c r="A311" s="34"/>
       <c r="B311" s="20" t="s">
         <v>493</v>
       </c>
@@ -29452,7 +29476,7 @@
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6" customFormat="1">
-      <c r="A312" s="30"/>
+      <c r="A312" s="34"/>
       <c r="B312" s="20" t="s">
         <v>494</v>
       </c>
@@ -29466,7 +29490,7 @@
       <c r="F312" s="2"/>
     </row>
     <row r="313" spans="1:6" customFormat="1">
-      <c r="A313" s="30"/>
+      <c r="A313" s="34"/>
       <c r="B313" s="20" t="s">
         <v>495</v>
       </c>
@@ -29480,7 +29504,7 @@
       <c r="F313" s="2"/>
     </row>
     <row r="314" spans="1:6" customFormat="1">
-      <c r="A314" s="30"/>
+      <c r="A314" s="34"/>
       <c r="B314" s="20">
         <v>12.2</v>
       </c>
@@ -29494,7 +29518,7 @@
       <c r="F314" s="2"/>
     </row>
     <row r="315" spans="1:6" customFormat="1">
-      <c r="A315" s="30"/>
+      <c r="A315" s="34"/>
       <c r="B315" s="20" t="s">
         <v>496</v>
       </c>
@@ -29508,7 +29532,7 @@
       <c r="F315" s="2"/>
     </row>
     <row r="316" spans="1:6" customFormat="1">
-      <c r="A316" s="30"/>
+      <c r="A316" s="34"/>
       <c r="B316" s="20" t="s">
         <v>497</v>
       </c>
@@ -29522,7 +29546,7 @@
       <c r="F316" s="2"/>
     </row>
     <row r="317" spans="1:6" customFormat="1">
-      <c r="A317" s="30"/>
+      <c r="A317" s="34"/>
       <c r="B317" s="20">
         <v>12.3</v>
       </c>
@@ -29536,7 +29560,7 @@
       <c r="F317" s="2"/>
     </row>
     <row r="318" spans="1:6" customFormat="1">
-      <c r="A318" s="30"/>
+      <c r="A318" s="34"/>
       <c r="B318" s="20" t="s">
         <v>498</v>
       </c>
@@ -29550,7 +29574,7 @@
       <c r="F318" s="2"/>
     </row>
     <row r="319" spans="1:6" customFormat="1">
-      <c r="A319" s="30"/>
+      <c r="A319" s="34"/>
       <c r="B319" s="20" t="s">
         <v>499</v>
       </c>
@@ -29564,7 +29588,7 @@
       <c r="F319" s="2"/>
     </row>
     <row r="320" spans="1:6" customFormat="1">
-      <c r="A320" s="30"/>
+      <c r="A320" s="34"/>
       <c r="B320" s="20" t="s">
         <v>500</v>
       </c>
@@ -29578,7 +29602,7 @@
       <c r="F320" s="2"/>
     </row>
     <row r="321" spans="1:6" customFormat="1">
-      <c r="A321" s="30"/>
+      <c r="A321" s="34"/>
       <c r="B321" s="20" t="s">
         <v>501</v>
       </c>
@@ -29592,7 +29616,7 @@
       <c r="F321" s="2"/>
     </row>
     <row r="322" spans="1:6" customFormat="1">
-      <c r="A322" s="30"/>
+      <c r="A322" s="34"/>
       <c r="B322" s="20" t="s">
         <v>502</v>
       </c>
@@ -29606,7 +29630,7 @@
       <c r="F322" s="2"/>
     </row>
     <row r="323" spans="1:6" customFormat="1">
-      <c r="A323" s="30"/>
+      <c r="A323" s="34"/>
       <c r="B323" s="20">
         <v>12.4</v>
       </c>
@@ -29620,7 +29644,7 @@
       <c r="F323" s="2"/>
     </row>
     <row r="324" spans="1:6" customFormat="1">
-      <c r="A324" s="30"/>
+      <c r="A324" s="34"/>
       <c r="B324" s="20" t="s">
         <v>503</v>
       </c>
@@ -29634,7 +29658,7 @@
       <c r="F324" s="2"/>
     </row>
     <row r="325" spans="1:6" customFormat="1">
-      <c r="A325" s="30"/>
+      <c r="A325" s="34"/>
       <c r="B325" s="20" t="s">
         <v>504</v>
       </c>
@@ -29648,7 +29672,7 @@
       <c r="F325" s="2"/>
     </row>
     <row r="326" spans="1:6" customFormat="1">
-      <c r="A326" s="30"/>
+      <c r="A326" s="34"/>
       <c r="B326" s="20" t="s">
         <v>505</v>
       </c>
@@ -29662,7 +29686,7 @@
       <c r="F326" s="2"/>
     </row>
     <row r="327" spans="1:6" customFormat="1">
-      <c r="A327" s="30"/>
+      <c r="A327" s="34"/>
       <c r="B327" s="20" t="s">
         <v>506</v>
       </c>
@@ -29676,7 +29700,7 @@
       <c r="F327" s="2"/>
     </row>
     <row r="328" spans="1:6" customFormat="1">
-      <c r="A328" s="30"/>
+      <c r="A328" s="34"/>
       <c r="B328" s="20" t="s">
         <v>507</v>
       </c>
@@ -29690,7 +29714,7 @@
       <c r="F328" s="2"/>
     </row>
     <row r="329" spans="1:6" customFormat="1">
-      <c r="A329" s="30"/>
+      <c r="A329" s="34"/>
       <c r="B329" s="20">
         <v>12.5</v>
       </c>
@@ -29704,7 +29728,7 @@
       <c r="F329" s="2"/>
     </row>
     <row r="330" spans="1:6" customFormat="1">
-      <c r="A330" s="30"/>
+      <c r="A330" s="34"/>
       <c r="B330" s="20" t="s">
         <v>508</v>
       </c>
@@ -29718,7 +29742,7 @@
       <c r="F330" s="2"/>
     </row>
     <row r="331" spans="1:6" customFormat="1">
-      <c r="A331" s="30"/>
+      <c r="A331" s="34"/>
       <c r="B331" s="20" t="s">
         <v>509</v>
       </c>
@@ -29732,7 +29756,7 @@
       <c r="F331" s="2"/>
     </row>
     <row r="332" spans="1:6" customFormat="1">
-      <c r="A332" s="30"/>
+      <c r="A332" s="34"/>
       <c r="B332" s="20" t="s">
         <v>510</v>
       </c>
@@ -29746,7 +29770,7 @@
       <c r="F332" s="2"/>
     </row>
     <row r="333" spans="1:6" customFormat="1">
-      <c r="A333" s="30"/>
+      <c r="A333" s="34"/>
       <c r="B333" s="20" t="s">
         <v>511</v>
       </c>
@@ -29760,7 +29784,7 @@
       <c r="F333" s="2"/>
     </row>
     <row r="334" spans="1:6" customFormat="1">
-      <c r="A334" s="30"/>
+      <c r="A334" s="34"/>
       <c r="B334" s="20" t="s">
         <v>512</v>
       </c>
@@ -29774,7 +29798,7 @@
       <c r="F334" s="2"/>
     </row>
     <row r="335" spans="1:6" customFormat="1">
-      <c r="A335" s="30"/>
+      <c r="A335" s="34"/>
       <c r="B335" s="20" t="s">
         <v>513</v>
       </c>
@@ -29788,7 +29812,7 @@
       <c r="F335" s="2"/>
     </row>
     <row r="336" spans="1:6" customFormat="1">
-      <c r="A336" s="30"/>
+      <c r="A336" s="34"/>
       <c r="B336" s="20" t="s">
         <v>514</v>
       </c>
@@ -29802,7 +29826,7 @@
       <c r="F336" s="2"/>
     </row>
     <row r="337" spans="1:6" customFormat="1">
-      <c r="A337" s="30"/>
+      <c r="A337" s="34"/>
       <c r="B337" s="20" t="s">
         <v>515</v>
       </c>
@@ -29816,7 +29840,7 @@
       <c r="F337" s="2"/>
     </row>
     <row r="338" spans="1:6" customFormat="1">
-      <c r="A338" s="30"/>
+      <c r="A338" s="34"/>
       <c r="B338" s="20">
         <v>12.6</v>
       </c>
@@ -29830,7 +29854,7 @@
       <c r="F338" s="2"/>
     </row>
     <row r="339" spans="1:6" customFormat="1">
-      <c r="A339" s="30"/>
+      <c r="A339" s="34"/>
       <c r="B339" s="20" t="s">
         <v>516</v>
       </c>
@@ -29844,7 +29868,7 @@
       <c r="F339" s="2"/>
     </row>
     <row r="340" spans="1:6" customFormat="1">
-      <c r="A340" s="30"/>
+      <c r="A340" s="34"/>
       <c r="B340" s="20" t="s">
         <v>517</v>
       </c>
@@ -29858,7 +29882,7 @@
       <c r="F340" s="2"/>
     </row>
     <row r="341" spans="1:6" customFormat="1">
-      <c r="A341" s="30"/>
+      <c r="A341" s="34"/>
       <c r="B341" s="20" t="s">
         <v>518</v>
       </c>
@@ -29872,7 +29896,7 @@
       <c r="F341" s="2"/>
     </row>
     <row r="342" spans="1:6" customFormat="1">
-      <c r="A342" s="30"/>
+      <c r="A342" s="34"/>
       <c r="B342" s="20" t="s">
         <v>519</v>
       </c>
@@ -29886,7 +29910,7 @@
       <c r="F342" s="2"/>
     </row>
     <row r="343" spans="1:6" customFormat="1">
-      <c r="A343" s="30"/>
+      <c r="A343" s="34"/>
       <c r="B343" s="20" t="s">
         <v>520</v>
       </c>
@@ -29900,7 +29924,7 @@
       <c r="F343" s="2"/>
     </row>
     <row r="344" spans="1:6" customFormat="1">
-      <c r="A344" s="30"/>
+      <c r="A344" s="34"/>
       <c r="B344" s="20">
         <v>12.7</v>
       </c>
@@ -29914,7 +29938,7 @@
       <c r="F344" s="2"/>
     </row>
     <row r="345" spans="1:6" customFormat="1">
-      <c r="A345" s="30"/>
+      <c r="A345" s="34"/>
       <c r="B345" s="20" t="s">
         <v>521</v>
       </c>
@@ -29928,7 +29952,7 @@
       <c r="F345" s="2"/>
     </row>
     <row r="346" spans="1:6" customFormat="1">
-      <c r="A346" s="30"/>
+      <c r="A346" s="34"/>
       <c r="B346" s="20" t="s">
         <v>522</v>
       </c>
@@ -29942,7 +29966,7 @@
       <c r="F346" s="2"/>
     </row>
     <row r="347" spans="1:6" customFormat="1">
-      <c r="A347" s="30"/>
+      <c r="A347" s="34"/>
       <c r="B347" s="20" t="s">
         <v>523</v>
       </c>
@@ -29956,7 +29980,7 @@
       <c r="F347" s="2"/>
     </row>
     <row r="348" spans="1:6" customFormat="1">
-      <c r="A348" s="30"/>
+      <c r="A348" s="34"/>
       <c r="B348" s="20" t="s">
         <v>524</v>
       </c>
@@ -29970,7 +29994,7 @@
       <c r="F348" s="2"/>
     </row>
     <row r="349" spans="1:6" customFormat="1">
-      <c r="A349" s="30"/>
+      <c r="A349" s="34"/>
       <c r="B349" s="20" t="s">
         <v>525</v>
       </c>
@@ -29984,7 +30008,7 @@
       <c r="F349" s="2"/>
     </row>
     <row r="350" spans="1:6" customFormat="1">
-      <c r="A350" s="30"/>
+      <c r="A350" s="34"/>
       <c r="B350" s="20">
         <v>12.8</v>
       </c>
@@ -29998,7 +30022,7 @@
       <c r="F350" s="2"/>
     </row>
     <row r="351" spans="1:6" customFormat="1">
-      <c r="A351" s="30"/>
+      <c r="A351" s="34"/>
       <c r="B351" s="20" t="s">
         <v>526</v>
       </c>
@@ -30012,7 +30036,7 @@
       <c r="F351" s="2"/>
     </row>
     <row r="352" spans="1:6" customFormat="1">
-      <c r="A352" s="30"/>
+      <c r="A352" s="34"/>
       <c r="B352" s="20" t="s">
         <v>527</v>
       </c>
@@ -30026,7 +30050,7 @@
       <c r="F352" s="2"/>
     </row>
     <row r="353" spans="1:6" customFormat="1">
-      <c r="A353" s="30" t="s">
+      <c r="A353" s="34" t="s">
         <v>1019</v>
       </c>
       <c r="B353" s="20">
@@ -30042,7 +30066,7 @@
       <c r="F353" s="2"/>
     </row>
     <row r="354" spans="1:6" customFormat="1">
-      <c r="A354" s="30"/>
+      <c r="A354" s="34"/>
       <c r="B354" s="20" t="s">
         <v>528</v>
       </c>
@@ -30056,7 +30080,7 @@
       <c r="F354" s="2"/>
     </row>
     <row r="355" spans="1:6" customFormat="1">
-      <c r="A355" s="30"/>
+      <c r="A355" s="34"/>
       <c r="B355" s="20" t="s">
         <v>529</v>
       </c>
@@ -30070,7 +30094,7 @@
       <c r="F355" s="2"/>
     </row>
     <row r="356" spans="1:6" customFormat="1">
-      <c r="A356" s="30"/>
+      <c r="A356" s="34"/>
       <c r="B356" s="20" t="s">
         <v>530</v>
       </c>
@@ -30084,7 +30108,7 @@
       <c r="F356" s="2"/>
     </row>
     <row r="357" spans="1:6" customFormat="1">
-      <c r="A357" s="30"/>
+      <c r="A357" s="34"/>
       <c r="B357" s="20" t="s">
         <v>531</v>
       </c>
@@ -30098,7 +30122,7 @@
       <c r="F357" s="2"/>
     </row>
     <row r="358" spans="1:6" customFormat="1">
-      <c r="A358" s="30"/>
+      <c r="A358" s="34"/>
       <c r="B358" s="20" t="s">
         <v>532</v>
       </c>
@@ -30112,7 +30136,7 @@
       <c r="F358" s="2"/>
     </row>
     <row r="359" spans="1:6" customFormat="1">
-      <c r="A359" s="30"/>
+      <c r="A359" s="34"/>
       <c r="B359" s="20">
         <v>13.2</v>
       </c>
@@ -30126,7 +30150,7 @@
       <c r="F359" s="2"/>
     </row>
     <row r="360" spans="1:6" customFormat="1">
-      <c r="A360" s="30"/>
+      <c r="A360" s="34"/>
       <c r="B360" s="20" t="s">
         <v>533</v>
       </c>
@@ -30140,7 +30164,7 @@
       <c r="F360" s="2"/>
     </row>
     <row r="361" spans="1:6" customFormat="1">
-      <c r="A361" s="30"/>
+      <c r="A361" s="34"/>
       <c r="B361" s="20" t="s">
         <v>534</v>
       </c>
@@ -30154,7 +30178,7 @@
       <c r="F361" s="2"/>
     </row>
     <row r="362" spans="1:6" customFormat="1">
-      <c r="A362" s="30"/>
+      <c r="A362" s="34"/>
       <c r="B362" s="20">
         <v>13.3</v>
       </c>
@@ -30168,7 +30192,7 @@
       <c r="F362" s="2"/>
     </row>
     <row r="363" spans="1:6" customFormat="1">
-      <c r="A363" s="30"/>
+      <c r="A363" s="34"/>
       <c r="B363" s="20">
         <v>13.4</v>
       </c>
@@ -30182,7 +30206,7 @@
       <c r="F363" s="2"/>
     </row>
     <row r="364" spans="1:6" customFormat="1">
-      <c r="A364" s="30"/>
+      <c r="A364" s="34"/>
       <c r="B364" s="20" t="s">
         <v>535</v>
       </c>
@@ -30196,7 +30220,7 @@
       <c r="F364" s="2"/>
     </row>
     <row r="365" spans="1:6" customFormat="1">
-      <c r="A365" s="30"/>
+      <c r="A365" s="34"/>
       <c r="B365" s="20" t="s">
         <v>536</v>
       </c>
@@ -30210,7 +30234,7 @@
       <c r="F365" s="2"/>
     </row>
     <row r="366" spans="1:6" customFormat="1">
-      <c r="A366" s="30"/>
+      <c r="A366" s="34"/>
       <c r="B366" s="20" t="s">
         <v>537</v>
       </c>
@@ -30224,7 +30248,7 @@
       <c r="F366" s="2"/>
     </row>
     <row r="367" spans="1:6" customFormat="1">
-      <c r="A367" s="30"/>
+      <c r="A367" s="34"/>
       <c r="B367" s="20" t="s">
         <v>538</v>
       </c>
@@ -30238,7 +30262,7 @@
       <c r="F367" s="2"/>
     </row>
     <row r="368" spans="1:6" customFormat="1">
-      <c r="A368" s="30"/>
+      <c r="A368" s="34"/>
       <c r="B368" s="20" t="s">
         <v>539</v>
       </c>
@@ -30252,7 +30276,7 @@
       <c r="F368" s="2"/>
     </row>
     <row r="369" spans="1:6" customFormat="1">
-      <c r="A369" s="30"/>
+      <c r="A369" s="34"/>
       <c r="B369" s="20" t="s">
         <v>540</v>
       </c>
@@ -30266,7 +30290,7 @@
       <c r="F369" s="2"/>
     </row>
     <row r="370" spans="1:6" customFormat="1">
-      <c r="A370" s="30"/>
+      <c r="A370" s="34"/>
       <c r="B370" s="20" t="s">
         <v>541</v>
       </c>
@@ -30280,7 +30304,7 @@
       <c r="F370" s="2"/>
     </row>
     <row r="371" spans="1:6" customFormat="1">
-      <c r="A371" s="30"/>
+      <c r="A371" s="34"/>
       <c r="B371" s="20" t="s">
         <v>542</v>
       </c>
@@ -30294,7 +30318,7 @@
       <c r="F371" s="2"/>
     </row>
     <row r="372" spans="1:6" customFormat="1">
-      <c r="A372" s="30"/>
+      <c r="A372" s="34"/>
       <c r="B372" s="20" t="s">
         <v>543</v>
       </c>
@@ -30308,7 +30332,7 @@
       <c r="F372" s="2"/>
     </row>
     <row r="373" spans="1:6" customFormat="1">
-      <c r="A373" s="30"/>
+      <c r="A373" s="34"/>
       <c r="B373" s="20">
         <v>13.5</v>
       </c>
@@ -30322,7 +30346,7 @@
       <c r="F373" s="2"/>
     </row>
     <row r="374" spans="1:6" customFormat="1">
-      <c r="A374" s="30"/>
+      <c r="A374" s="34"/>
       <c r="B374" s="20" t="s">
         <v>544</v>
       </c>
@@ -30336,7 +30360,7 @@
       <c r="F374" s="2"/>
     </row>
     <row r="375" spans="1:6" customFormat="1">
-      <c r="A375" s="30"/>
+      <c r="A375" s="34"/>
       <c r="B375" s="20" t="s">
         <v>545</v>
       </c>
@@ -31160,12 +31184,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A376:A429"/>
-    <mergeCell ref="A353:A375"/>
-    <mergeCell ref="A310:A352"/>
-    <mergeCell ref="A301:A309"/>
-    <mergeCell ref="A250:A290"/>
-    <mergeCell ref="A291:A300"/>
     <mergeCell ref="A77:A127"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A25"/>
@@ -31174,6 +31192,12 @@
     <mergeCell ref="A128:A157"/>
     <mergeCell ref="A190:A217"/>
     <mergeCell ref="A158:A189"/>
+    <mergeCell ref="A376:A429"/>
+    <mergeCell ref="A353:A375"/>
+    <mergeCell ref="A310:A352"/>
+    <mergeCell ref="A301:A309"/>
+    <mergeCell ref="A250:A290"/>
+    <mergeCell ref="A291:A300"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I4">

--- a/学习进度.xlsx
+++ b/学习进度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laohangdeche/Library/Mobile Documents/com~apple~CloudDocs/个人/学习笔记/Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C221DD-5DFB-4447-BF13-114E4BF1E1ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF1666B-D9EF-2D45-83B3-D19059D326C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="460" windowWidth="28300" windowHeight="16900" activeTab="2" xr2:uid="{C7784454-BD36-8040-9BFE-2AD014209B0B}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="2293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2820" uniqueCount="2293">
   <si>
     <t>01_Java语言发展史</t>
   </si>
@@ -7221,6 +7221,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7228,9 +7231,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7840,7 +7840,7 @@
       </c>
       <c r="D3" s="2">
         <f>Java_黑马!G2</f>
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="E3" s="2">
         <f>Java_黑马!G2+Java_黑马!G3</f>
@@ -7848,11 +7848,11 @@
       </c>
       <c r="F3" s="15">
         <f t="shared" ref="F3:F4" si="0">D3/E3</f>
-        <v>0.61497326203208558</v>
+        <v>0.64884135472370763</v>
       </c>
       <c r="G3" s="25">
         <f>MAX(Java_黑马!D2:D562)</f>
-        <v>44089</v>
+        <v>44090</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7984,7 +7984,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-15</v>
+        <v>截至2020-09-16</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -15749,8 +15749,8 @@
   <dimension ref="A1:G562"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A432" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B442" sqref="B442"/>
+      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C372" sqref="C372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -15780,7 +15780,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-15</v>
+        <v>截至2020-09-16</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -15800,7 +15800,7 @@
       </c>
       <c r="G2" s="12">
         <f>COUNTIF(C2:C562,"ok")</f>
-        <v>345</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1">
@@ -15819,7 +15819,7 @@
       </c>
       <c r="G3" s="12">
         <f>COUNTBLANK(C2:C562)</f>
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1">
@@ -15838,7 +15838,7 @@
       </c>
       <c r="G4" s="15">
         <f>G2/(G2+G3)</f>
-        <v>0.61497326203208558</v>
+        <v>0.64884135472370763</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1">
@@ -20552,8 +20552,12 @@
       <c r="B359" s="5" t="s">
         <v>1225</v>
       </c>
-      <c r="C359" s="2"/>
-      <c r="D359" s="25"/>
+      <c r="C359" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D359" s="25">
+        <v>44090</v>
+      </c>
     </row>
     <row r="360" spans="1:4" customFormat="1">
       <c r="A360" s="2">
@@ -20562,8 +20566,12 @@
       <c r="B360" s="5" t="s">
         <v>1226</v>
       </c>
-      <c r="C360" s="2"/>
-      <c r="D360" s="25"/>
+      <c r="C360" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D360" s="25">
+        <v>44090</v>
+      </c>
     </row>
     <row r="361" spans="1:4" customFormat="1">
       <c r="A361" s="2">
@@ -20572,8 +20580,12 @@
       <c r="B361" s="5" t="s">
         <v>1227</v>
       </c>
-      <c r="C361" s="2"/>
-      <c r="D361" s="25"/>
+      <c r="C361" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D361" s="25">
+        <v>44090</v>
+      </c>
     </row>
     <row r="362" spans="1:4" customFormat="1">
       <c r="A362" s="2">
@@ -20582,8 +20594,12 @@
       <c r="B362" s="5" t="s">
         <v>1228</v>
       </c>
-      <c r="C362" s="2"/>
-      <c r="D362" s="25"/>
+      <c r="C362" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D362" s="25">
+        <v>44090</v>
+      </c>
     </row>
     <row r="363" spans="1:4" customFormat="1">
       <c r="A363" s="2">
@@ -20592,8 +20608,12 @@
       <c r="B363" s="5" t="s">
         <v>1229</v>
       </c>
-      <c r="C363" s="2"/>
-      <c r="D363" s="25"/>
+      <c r="C363" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D363" s="25">
+        <v>44090</v>
+      </c>
     </row>
     <row r="364" spans="1:4" customFormat="1">
       <c r="A364" s="2">
@@ -20602,8 +20622,12 @@
       <c r="B364" s="5" t="s">
         <v>1230</v>
       </c>
-      <c r="C364" s="2"/>
-      <c r="D364" s="25"/>
+      <c r="C364" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D364" s="25">
+        <v>44090</v>
+      </c>
     </row>
     <row r="365" spans="1:4" customFormat="1">
       <c r="A365" s="2">
@@ -20612,8 +20636,12 @@
       <c r="B365" s="5" t="s">
         <v>1231</v>
       </c>
-      <c r="C365" s="2"/>
-      <c r="D365" s="25"/>
+      <c r="C365" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D365" s="25">
+        <v>44090</v>
+      </c>
     </row>
     <row r="366" spans="1:4" customFormat="1">
       <c r="A366" s="2">
@@ -20622,8 +20650,12 @@
       <c r="B366" s="5" t="s">
         <v>1232</v>
       </c>
-      <c r="C366" s="2"/>
-      <c r="D366" s="25"/>
+      <c r="C366" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D366" s="25">
+        <v>44090</v>
+      </c>
     </row>
     <row r="367" spans="1:4" customFormat="1">
       <c r="A367" s="2">
@@ -20632,8 +20664,12 @@
       <c r="B367" s="5" t="s">
         <v>1233</v>
       </c>
-      <c r="C367" s="2"/>
-      <c r="D367" s="25"/>
+      <c r="C367" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D367" s="25">
+        <v>44090</v>
+      </c>
     </row>
     <row r="368" spans="1:4" customFormat="1">
       <c r="A368" s="2">
@@ -20642,8 +20678,12 @@
       <c r="B368" s="5" t="s">
         <v>1234</v>
       </c>
-      <c r="C368" s="2"/>
-      <c r="D368" s="25"/>
+      <c r="C368" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D368" s="25">
+        <v>44090</v>
+      </c>
     </row>
     <row r="369" spans="1:4" customFormat="1">
       <c r="A369" s="2">
@@ -20652,8 +20692,12 @@
       <c r="B369" s="5" t="s">
         <v>1235</v>
       </c>
-      <c r="C369" s="2"/>
-      <c r="D369" s="25"/>
+      <c r="C369" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D369" s="25">
+        <v>44090</v>
+      </c>
     </row>
     <row r="370" spans="1:4" customFormat="1">
       <c r="A370" s="2">
@@ -20662,8 +20706,12 @@
       <c r="B370" s="5" t="s">
         <v>1236</v>
       </c>
-      <c r="C370" s="2"/>
-      <c r="D370" s="25"/>
+      <c r="C370" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D370" s="25">
+        <v>44090</v>
+      </c>
     </row>
     <row r="371" spans="1:4" customFormat="1">
       <c r="A371" s="2">
@@ -20672,8 +20720,12 @@
       <c r="B371" s="5" t="s">
         <v>1237</v>
       </c>
-      <c r="C371" s="2"/>
-      <c r="D371" s="25"/>
+      <c r="C371" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D371" s="25">
+        <v>44090</v>
+      </c>
     </row>
     <row r="372" spans="1:4" customFormat="1">
       <c r="A372" s="2">
@@ -20682,8 +20734,12 @@
       <c r="B372" s="5" t="s">
         <v>1238</v>
       </c>
-      <c r="C372" s="2"/>
-      <c r="D372" s="25"/>
+      <c r="C372" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D372" s="25">
+        <v>44090</v>
+      </c>
     </row>
     <row r="373" spans="1:4" customFormat="1">
       <c r="A373" s="2">
@@ -20692,8 +20748,12 @@
       <c r="B373" s="5" t="s">
         <v>1239</v>
       </c>
-      <c r="C373" s="2"/>
-      <c r="D373" s="25"/>
+      <c r="C373" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D373" s="25">
+        <v>44090</v>
+      </c>
     </row>
     <row r="374" spans="1:4" customFormat="1">
       <c r="A374" s="2">
@@ -20702,8 +20762,12 @@
       <c r="B374" s="5" t="s">
         <v>1240</v>
       </c>
-      <c r="C374" s="2"/>
-      <c r="D374" s="25"/>
+      <c r="C374" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D374" s="25">
+        <v>44090</v>
+      </c>
     </row>
     <row r="375" spans="1:4" customFormat="1">
       <c r="A375" s="2">
@@ -20712,8 +20776,12 @@
       <c r="B375" s="5" t="s">
         <v>1241</v>
       </c>
-      <c r="C375" s="2"/>
-      <c r="D375" s="25"/>
+      <c r="C375" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D375" s="25">
+        <v>44090</v>
+      </c>
     </row>
     <row r="376" spans="1:4" customFormat="1">
       <c r="A376" s="2">
@@ -20722,8 +20790,12 @@
       <c r="B376" s="5" t="s">
         <v>1242</v>
       </c>
-      <c r="C376" s="2"/>
-      <c r="D376" s="25"/>
+      <c r="C376" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D376" s="25">
+        <v>44090</v>
+      </c>
     </row>
     <row r="377" spans="1:4" customFormat="1">
       <c r="A377" s="2">
@@ -20732,8 +20804,12 @@
       <c r="B377" s="5" t="s">
         <v>1243</v>
       </c>
-      <c r="C377" s="2"/>
-      <c r="D377" s="25"/>
+      <c r="C377" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D377" s="25">
+        <v>44090</v>
+      </c>
     </row>
     <row r="378" spans="1:4" customFormat="1">
       <c r="A378" s="2">
@@ -22665,7 +22741,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-15</v>
+        <v>截至2020-09-16</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -25071,12 +25147,12 @@
       </c>
       <c r="H1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-15</v>
+        <v>截至2020-09-16</v>
       </c>
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" customFormat="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>1016</v>
       </c>
       <c r="B2" s="20">
@@ -25099,7 +25175,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" customFormat="1">
-      <c r="A3" s="34"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="20">
         <v>1.2</v>
       </c>
@@ -25120,7 +25196,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" customFormat="1">
-      <c r="A4" s="34"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="20" t="s">
         <v>261</v>
       </c>
@@ -25141,7 +25217,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" customFormat="1">
-      <c r="A5" s="34"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="20" t="s">
         <v>262</v>
       </c>
@@ -25155,7 +25231,7 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:9" customFormat="1">
-      <c r="A6" s="34"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="20" t="s">
         <v>263</v>
       </c>
@@ -25170,7 +25246,7 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:9" customFormat="1">
-      <c r="A7" s="34"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="20" t="s">
         <v>264</v>
       </c>
@@ -25185,7 +25261,7 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9" customFormat="1">
-      <c r="A8" s="34"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="20" t="s">
         <v>265</v>
       </c>
@@ -25199,7 +25275,7 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:9" customFormat="1">
-      <c r="A9" s="34"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="20" t="s">
         <v>266</v>
       </c>
@@ -25214,7 +25290,7 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:9" customFormat="1">
-      <c r="A10" s="34"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="20" t="s">
         <v>267</v>
       </c>
@@ -25228,7 +25304,7 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:9" customFormat="1">
-      <c r="A11" s="34"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="20" t="s">
         <v>268</v>
       </c>
@@ -25242,7 +25318,7 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:9" customFormat="1">
-      <c r="A12" s="34"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="20" t="s">
         <v>269</v>
       </c>
@@ -25256,7 +25332,7 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:9" customFormat="1">
-      <c r="A13" s="34"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="20" t="s">
         <v>270</v>
       </c>
@@ -25270,7 +25346,7 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:9" customFormat="1">
-      <c r="A14" s="34"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="20" t="s">
         <v>271</v>
       </c>
@@ -25284,7 +25360,7 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:9" customFormat="1">
-      <c r="A15" s="34"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="20">
         <v>1.3</v>
       </c>
@@ -25298,7 +25374,7 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:9" customFormat="1">
-      <c r="A16" s="34"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="20">
         <v>1.4</v>
       </c>
@@ -25312,7 +25388,7 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" customFormat="1">
-      <c r="A17" s="34"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="20">
         <v>1.5</v>
       </c>
@@ -25326,7 +25402,7 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" customFormat="1">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="31" t="s">
         <v>1017</v>
       </c>
       <c r="B18" s="20">
@@ -25342,7 +25418,7 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" customFormat="1">
-      <c r="A19" s="34"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="20" t="s">
         <v>272</v>
       </c>
@@ -25356,7 +25432,7 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" customFormat="1">
-      <c r="A20" s="34"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="20" t="s">
         <v>273</v>
       </c>
@@ -25370,7 +25446,7 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" customFormat="1">
-      <c r="A21" s="34"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="20" t="s">
         <v>274</v>
       </c>
@@ -25384,7 +25460,7 @@
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" customFormat="1">
-      <c r="A22" s="34"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="20">
         <v>2.2000000000000002</v>
       </c>
@@ -25398,7 +25474,7 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" customFormat="1">
-      <c r="A23" s="34"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="20">
         <v>2.2999999999999998</v>
       </c>
@@ -25412,7 +25488,7 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" customFormat="1">
-      <c r="A24" s="34"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="20">
         <v>2.4</v>
       </c>
@@ -25426,7 +25502,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" customFormat="1">
-      <c r="A25" s="34"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="20">
         <v>2.5</v>
       </c>
@@ -25440,7 +25516,7 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" customFormat="1">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="31" t="s">
         <v>1027</v>
       </c>
       <c r="B26" s="20">
@@ -25456,7 +25532,7 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" customFormat="1">
-      <c r="A27" s="34"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="20">
         <v>3.2</v>
       </c>
@@ -25470,7 +25546,7 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" customFormat="1">
-      <c r="A28" s="34"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="20">
         <v>3.3</v>
       </c>
@@ -25484,7 +25560,7 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" customFormat="1">
-      <c r="A29" s="34"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="20" t="s">
         <v>275</v>
       </c>
@@ -25498,7 +25574,7 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" customFormat="1">
-      <c r="A30" s="34"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="20" t="s">
         <v>276</v>
       </c>
@@ -25512,7 +25588,7 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" customFormat="1">
-      <c r="A31" s="34"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="20" t="s">
         <v>277</v>
       </c>
@@ -25526,7 +25602,7 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" customFormat="1">
-      <c r="A32" s="34"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="20" t="s">
         <v>278</v>
       </c>
@@ -25540,7 +25616,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" customFormat="1">
-      <c r="A33" s="34"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="20" t="s">
         <v>279</v>
       </c>
@@ -25554,7 +25630,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" customFormat="1">
-      <c r="A34" s="34"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="20">
         <v>3.4</v>
       </c>
@@ -25568,7 +25644,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" customFormat="1">
-      <c r="A35" s="34"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="20" t="s">
         <v>280</v>
       </c>
@@ -25582,7 +25658,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" customFormat="1">
-      <c r="A36" s="34"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="20" t="s">
         <v>281</v>
       </c>
@@ -25596,7 +25672,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" customFormat="1">
-      <c r="A37" s="34"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="20">
         <v>3.5</v>
       </c>
@@ -25610,7 +25686,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" customFormat="1">
-      <c r="A38" s="34"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="20" t="s">
         <v>282</v>
       </c>
@@ -25624,7 +25700,7 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" customFormat="1">
-      <c r="A39" s="34"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="20" t="s">
         <v>283</v>
       </c>
@@ -25638,7 +25714,7 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" customFormat="1">
-      <c r="A40" s="34"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="20" t="s">
         <v>284</v>
       </c>
@@ -25652,7 +25728,7 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" customFormat="1">
-      <c r="A41" s="34"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="20" t="s">
         <v>285</v>
       </c>
@@ -25666,7 +25742,7 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" customFormat="1">
-      <c r="A42" s="34"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="20" t="s">
         <v>286</v>
       </c>
@@ -25680,7 +25756,7 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" customFormat="1">
-      <c r="A43" s="34"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="20" t="s">
         <v>287</v>
       </c>
@@ -25694,7 +25770,7 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" customFormat="1">
-      <c r="A44" s="34"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="20" t="s">
         <v>288</v>
       </c>
@@ -25708,7 +25784,7 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" customFormat="1">
-      <c r="A45" s="34"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="20" t="s">
         <v>289</v>
       </c>
@@ -25722,7 +25798,7 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" customFormat="1">
-      <c r="A46" s="34"/>
+      <c r="A46" s="31"/>
       <c r="B46" s="20" t="s">
         <v>290</v>
       </c>
@@ -25736,7 +25812,7 @@
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" customFormat="1">
-      <c r="A47" s="34"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="20">
         <v>3.6</v>
       </c>
@@ -25750,7 +25826,7 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" customFormat="1">
-      <c r="A48" s="34"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="20" t="s">
         <v>291</v>
       </c>
@@ -25764,7 +25840,7 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" customFormat="1">
-      <c r="A49" s="34"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="20" t="s">
         <v>292</v>
       </c>
@@ -25778,7 +25854,7 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" customFormat="1">
-      <c r="A50" s="34"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="20" t="s">
         <v>293</v>
       </c>
@@ -25792,7 +25868,7 @@
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" customFormat="1">
-      <c r="A51" s="34"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="20" t="s">
         <v>294</v>
       </c>
@@ -25806,7 +25882,7 @@
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" customFormat="1">
-      <c r="A52" s="34"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="20" t="s">
         <v>295</v>
       </c>
@@ -25820,7 +25896,7 @@
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" customFormat="1">
-      <c r="A53" s="34"/>
+      <c r="A53" s="31"/>
       <c r="B53" s="20" t="s">
         <v>296</v>
       </c>
@@ -25834,7 +25910,7 @@
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" customFormat="1">
-      <c r="A54" s="34"/>
+      <c r="A54" s="31"/>
       <c r="B54" s="20" t="s">
         <v>297</v>
       </c>
@@ -25848,7 +25924,7 @@
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" customFormat="1">
-      <c r="A55" s="34"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="20" t="s">
         <v>298</v>
       </c>
@@ -25862,7 +25938,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" customFormat="1">
-      <c r="A56" s="34"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="20" t="s">
         <v>299</v>
       </c>
@@ -25876,7 +25952,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" customFormat="1">
-      <c r="A57" s="34"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="20">
         <v>3.7</v>
       </c>
@@ -25890,7 +25966,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" customFormat="1">
-      <c r="A58" s="34"/>
+      <c r="A58" s="31"/>
       <c r="B58" s="20" t="s">
         <v>300</v>
       </c>
@@ -25904,7 +25980,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" customFormat="1">
-      <c r="A59" s="34"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="20" t="s">
         <v>301</v>
       </c>
@@ -25918,7 +25994,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" customFormat="1">
-      <c r="A60" s="34"/>
+      <c r="A60" s="31"/>
       <c r="B60" s="20" t="s">
         <v>302</v>
       </c>
@@ -25932,7 +26008,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" customFormat="1">
-      <c r="A61" s="34"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="20">
         <v>3.8</v>
       </c>
@@ -25946,7 +26022,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" customFormat="1">
-      <c r="A62" s="34"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="20" t="s">
         <v>303</v>
       </c>
@@ -25960,7 +26036,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" customFormat="1">
-      <c r="A63" s="34"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="20" t="s">
         <v>304</v>
       </c>
@@ -25974,7 +26050,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" customFormat="1">
-      <c r="A64" s="34"/>
+      <c r="A64" s="31"/>
       <c r="B64" s="20" t="s">
         <v>305</v>
       </c>
@@ -25988,7 +26064,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" customFormat="1">
-      <c r="A65" s="34"/>
+      <c r="A65" s="31"/>
       <c r="B65" s="20" t="s">
         <v>306</v>
       </c>
@@ -26002,7 +26078,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" customFormat="1">
-      <c r="A66" s="34"/>
+      <c r="A66" s="31"/>
       <c r="B66" s="20" t="s">
         <v>307</v>
       </c>
@@ -26016,7 +26092,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" customFormat="1">
-      <c r="A67" s="34"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="20" t="s">
         <v>308</v>
       </c>
@@ -26030,7 +26106,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" customFormat="1">
-      <c r="A68" s="34"/>
+      <c r="A68" s="31"/>
       <c r="B68" s="20">
         <v>3.9</v>
       </c>
@@ -26044,7 +26120,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" customFormat="1">
-      <c r="A69" s="34"/>
+      <c r="A69" s="31"/>
       <c r="B69" s="20">
         <v>3.1</v>
       </c>
@@ -26058,7 +26134,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" customFormat="1">
-      <c r="A70" s="34"/>
+      <c r="A70" s="31"/>
       <c r="B70" s="20" t="s">
         <v>309</v>
       </c>
@@ -26072,7 +26148,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" customFormat="1">
-      <c r="A71" s="34"/>
+      <c r="A71" s="31"/>
       <c r="B71" s="20" t="s">
         <v>310</v>
       </c>
@@ -26086,7 +26162,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" customFormat="1">
-      <c r="A72" s="34"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="20" t="s">
         <v>311</v>
       </c>
@@ -26100,7 +26176,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" customFormat="1">
-      <c r="A73" s="34"/>
+      <c r="A73" s="31"/>
       <c r="B73" s="20" t="s">
         <v>312</v>
       </c>
@@ -26114,7 +26190,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" customFormat="1">
-      <c r="A74" s="34"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="20" t="s">
         <v>313</v>
       </c>
@@ -26128,7 +26204,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" customFormat="1">
-      <c r="A75" s="34"/>
+      <c r="A75" s="31"/>
       <c r="B75" s="20" t="s">
         <v>314</v>
       </c>
@@ -26142,7 +26218,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" customFormat="1">
-      <c r="A76" s="34"/>
+      <c r="A76" s="31"/>
       <c r="B76" s="20" t="s">
         <v>315</v>
       </c>
@@ -26156,7 +26232,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" customFormat="1">
-      <c r="A77" s="34" t="s">
+      <c r="A77" s="31" t="s">
         <v>1028</v>
       </c>
       <c r="B77" s="20">
@@ -26172,7 +26248,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" customFormat="1">
-      <c r="A78" s="34"/>
+      <c r="A78" s="31"/>
       <c r="B78" s="20" t="s">
         <v>316</v>
       </c>
@@ -26186,7 +26262,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" customFormat="1">
-      <c r="A79" s="34"/>
+      <c r="A79" s="31"/>
       <c r="B79" s="20" t="s">
         <v>317</v>
       </c>
@@ -26200,7 +26276,7 @@
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" customFormat="1">
-      <c r="A80" s="34"/>
+      <c r="A80" s="31"/>
       <c r="B80" s="20" t="s">
         <v>318</v>
       </c>
@@ -26214,7 +26290,7 @@
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" customFormat="1">
-      <c r="A81" s="34"/>
+      <c r="A81" s="31"/>
       <c r="B81" s="20" t="s">
         <v>319</v>
       </c>
@@ -26228,7 +26304,7 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" customFormat="1">
-      <c r="A82" s="34"/>
+      <c r="A82" s="31"/>
       <c r="B82" s="20">
         <v>4.2</v>
       </c>
@@ -26242,7 +26318,7 @@
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" customFormat="1">
-      <c r="A83" s="34"/>
+      <c r="A83" s="31"/>
       <c r="B83" s="20" t="s">
         <v>320</v>
       </c>
@@ -26256,7 +26332,7 @@
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" customFormat="1">
-      <c r="A84" s="34"/>
+      <c r="A84" s="31"/>
       <c r="B84" s="20" t="s">
         <v>321</v>
       </c>
@@ -26270,7 +26346,7 @@
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" customFormat="1">
-      <c r="A85" s="34"/>
+      <c r="A85" s="31"/>
       <c r="B85" s="20" t="s">
         <v>322</v>
       </c>
@@ -26284,7 +26360,7 @@
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" customFormat="1">
-      <c r="A86" s="34"/>
+      <c r="A86" s="31"/>
       <c r="B86" s="20">
         <v>4.3</v>
       </c>
@@ -26298,7 +26374,7 @@
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" customFormat="1">
-      <c r="A87" s="34"/>
+      <c r="A87" s="31"/>
       <c r="B87" s="20" t="s">
         <v>323</v>
       </c>
@@ -26312,7 +26388,7 @@
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" customFormat="1">
-      <c r="A88" s="34"/>
+      <c r="A88" s="31"/>
       <c r="B88" s="20" t="s">
         <v>324</v>
       </c>
@@ -26326,7 +26402,7 @@
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" customFormat="1">
-      <c r="A89" s="34"/>
+      <c r="A89" s="31"/>
       <c r="B89" s="20" t="s">
         <v>325</v>
       </c>
@@ -26340,7 +26416,7 @@
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" customFormat="1">
-      <c r="A90" s="34"/>
+      <c r="A90" s="31"/>
       <c r="B90" s="20" t="s">
         <v>326</v>
       </c>
@@ -26354,7 +26430,7 @@
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" customFormat="1">
-      <c r="A91" s="34"/>
+      <c r="A91" s="31"/>
       <c r="B91" s="20" t="s">
         <v>327</v>
       </c>
@@ -26368,7 +26444,7 @@
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" customFormat="1">
-      <c r="A92" s="34"/>
+      <c r="A92" s="31"/>
       <c r="B92" s="20" t="s">
         <v>328</v>
       </c>
@@ -26382,7 +26458,7 @@
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" customFormat="1">
-      <c r="A93" s="34"/>
+      <c r="A93" s="31"/>
       <c r="B93" s="20" t="s">
         <v>329</v>
       </c>
@@ -26396,7 +26472,7 @@
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" customFormat="1">
-      <c r="A94" s="34"/>
+      <c r="A94" s="31"/>
       <c r="B94" s="20" t="s">
         <v>330</v>
       </c>
@@ -26410,7 +26486,7 @@
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" customFormat="1">
-      <c r="A95" s="34"/>
+      <c r="A95" s="31"/>
       <c r="B95" s="20" t="s">
         <v>331</v>
       </c>
@@ -26424,7 +26500,7 @@
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" customFormat="1">
-      <c r="A96" s="34"/>
+      <c r="A96" s="31"/>
       <c r="B96" s="20">
         <v>4.4000000000000004</v>
       </c>
@@ -26438,7 +26514,7 @@
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" customFormat="1">
-      <c r="A97" s="34"/>
+      <c r="A97" s="31"/>
       <c r="B97" s="20" t="s">
         <v>332</v>
       </c>
@@ -26452,7 +26528,7 @@
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" customFormat="1">
-      <c r="A98" s="34"/>
+      <c r="A98" s="31"/>
       <c r="B98" s="20" t="s">
         <v>333</v>
       </c>
@@ -26466,7 +26542,7 @@
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" customFormat="1">
-      <c r="A99" s="34"/>
+      <c r="A99" s="31"/>
       <c r="B99" s="20" t="s">
         <v>334</v>
       </c>
@@ -26480,7 +26556,7 @@
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" customFormat="1">
-      <c r="A100" s="34"/>
+      <c r="A100" s="31"/>
       <c r="B100" s="20" t="s">
         <v>335</v>
       </c>
@@ -26494,7 +26570,7 @@
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" customFormat="1">
-      <c r="A101" s="34"/>
+      <c r="A101" s="31"/>
       <c r="B101" s="20" t="s">
         <v>336</v>
       </c>
@@ -26508,7 +26584,7 @@
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" customFormat="1">
-      <c r="A102" s="34"/>
+      <c r="A102" s="31"/>
       <c r="B102" s="20">
         <v>4.5</v>
       </c>
@@ -26522,7 +26598,7 @@
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" customFormat="1">
-      <c r="A103" s="34"/>
+      <c r="A103" s="31"/>
       <c r="B103" s="20">
         <v>4.5999999999999996</v>
       </c>
@@ -26536,7 +26612,7 @@
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" customFormat="1">
-      <c r="A104" s="34"/>
+      <c r="A104" s="31"/>
       <c r="B104" s="20" t="s">
         <v>337</v>
       </c>
@@ -26550,7 +26626,7 @@
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" customFormat="1">
-      <c r="A105" s="34"/>
+      <c r="A105" s="31"/>
       <c r="B105" s="20" t="s">
         <v>338</v>
       </c>
@@ -26564,7 +26640,7 @@
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" customFormat="1">
-      <c r="A106" s="34"/>
+      <c r="A106" s="31"/>
       <c r="B106" s="20" t="s">
         <v>339</v>
       </c>
@@ -26578,7 +26654,7 @@
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" customFormat="1">
-      <c r="A107" s="34"/>
+      <c r="A107" s="31"/>
       <c r="B107" s="20" t="s">
         <v>340</v>
       </c>
@@ -26592,7 +26668,7 @@
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" customFormat="1">
-      <c r="A108" s="34"/>
+      <c r="A108" s="31"/>
       <c r="B108" s="20" t="s">
         <v>341</v>
       </c>
@@ -26606,7 +26682,7 @@
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" customFormat="1">
-      <c r="A109" s="34"/>
+      <c r="A109" s="31"/>
       <c r="B109" s="20" t="s">
         <v>342</v>
       </c>
@@ -26620,7 +26696,7 @@
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" customFormat="1">
-      <c r="A110" s="34"/>
+      <c r="A110" s="31"/>
       <c r="B110" s="20" t="s">
         <v>343</v>
       </c>
@@ -26634,7 +26710,7 @@
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" customFormat="1">
-      <c r="A111" s="34"/>
+      <c r="A111" s="31"/>
       <c r="B111" s="20" t="s">
         <v>344</v>
       </c>
@@ -26648,7 +26724,7 @@
       <c r="F111" s="9"/>
     </row>
     <row r="112" spans="1:6" customFormat="1">
-      <c r="A112" s="34"/>
+      <c r="A112" s="31"/>
       <c r="B112" s="20">
         <v>4.7</v>
       </c>
@@ -26662,7 +26738,7 @@
       <c r="F112" s="9"/>
     </row>
     <row r="113" spans="1:8" customFormat="1">
-      <c r="A113" s="34"/>
+      <c r="A113" s="31"/>
       <c r="B113" s="20" t="s">
         <v>345</v>
       </c>
@@ -26676,7 +26752,7 @@
       <c r="F113" s="9"/>
     </row>
     <row r="114" spans="1:8" customFormat="1">
-      <c r="A114" s="34"/>
+      <c r="A114" s="31"/>
       <c r="B114" s="20" t="s">
         <v>346</v>
       </c>
@@ -26690,7 +26766,7 @@
       <c r="F114" s="9"/>
     </row>
     <row r="115" spans="1:8" customFormat="1">
-      <c r="A115" s="34"/>
+      <c r="A115" s="31"/>
       <c r="B115" s="20" t="s">
         <v>347</v>
       </c>
@@ -26704,7 +26780,7 @@
       <c r="F115" s="9"/>
     </row>
     <row r="116" spans="1:8" customFormat="1">
-      <c r="A116" s="34"/>
+      <c r="A116" s="31"/>
       <c r="B116" s="20" t="s">
         <v>348</v>
       </c>
@@ -26719,7 +26795,7 @@
       <c r="H116" s="7"/>
     </row>
     <row r="117" spans="1:8" customFormat="1">
-      <c r="A117" s="34"/>
+      <c r="A117" s="31"/>
       <c r="B117" s="20">
         <v>4.8</v>
       </c>
@@ -26734,7 +26810,7 @@
       <c r="H117" s="7"/>
     </row>
     <row r="118" spans="1:8" customFormat="1">
-      <c r="A118" s="34"/>
+      <c r="A118" s="31"/>
       <c r="B118" s="20" t="s">
         <v>349</v>
       </c>
@@ -26749,7 +26825,7 @@
       <c r="H118" s="7"/>
     </row>
     <row r="119" spans="1:8" customFormat="1">
-      <c r="A119" s="34"/>
+      <c r="A119" s="31"/>
       <c r="B119" s="20">
         <v>4.9000000000000004</v>
       </c>
@@ -26764,7 +26840,7 @@
       <c r="H119" s="7"/>
     </row>
     <row r="120" spans="1:8" customFormat="1">
-      <c r="A120" s="34"/>
+      <c r="A120" s="31"/>
       <c r="B120" s="20" t="s">
         <v>350</v>
       </c>
@@ -26779,7 +26855,7 @@
       <c r="H120" s="7"/>
     </row>
     <row r="121" spans="1:8" customFormat="1">
-      <c r="A121" s="34"/>
+      <c r="A121" s="31"/>
       <c r="B121" s="20" t="s">
         <v>351</v>
       </c>
@@ -26794,7 +26870,7 @@
       <c r="H121" s="7"/>
     </row>
     <row r="122" spans="1:8" customFormat="1">
-      <c r="A122" s="34"/>
+      <c r="A122" s="31"/>
       <c r="B122" s="20" t="s">
         <v>352</v>
       </c>
@@ -26809,7 +26885,7 @@
       <c r="H122" s="7"/>
     </row>
     <row r="123" spans="1:8" customFormat="1">
-      <c r="A123" s="34"/>
+      <c r="A123" s="31"/>
       <c r="B123" s="20" t="s">
         <v>353</v>
       </c>
@@ -26824,7 +26900,7 @@
       <c r="H123" s="7"/>
     </row>
     <row r="124" spans="1:8" customFormat="1">
-      <c r="A124" s="34"/>
+      <c r="A124" s="31"/>
       <c r="B124" s="20" t="s">
         <v>354</v>
       </c>
@@ -26839,7 +26915,7 @@
       <c r="H124" s="7"/>
     </row>
     <row r="125" spans="1:8" customFormat="1">
-      <c r="A125" s="34"/>
+      <c r="A125" s="31"/>
       <c r="B125" s="20" t="s">
         <v>355</v>
       </c>
@@ -26854,7 +26930,7 @@
       <c r="H125" s="7"/>
     </row>
     <row r="126" spans="1:8" customFormat="1">
-      <c r="A126" s="34"/>
+      <c r="A126" s="31"/>
       <c r="B126" s="20" t="s">
         <v>356</v>
       </c>
@@ -26869,7 +26945,7 @@
       <c r="H126" s="7"/>
     </row>
     <row r="127" spans="1:8" customFormat="1">
-      <c r="A127" s="34"/>
+      <c r="A127" s="31"/>
       <c r="B127" s="21">
         <v>4.0999999999999996</v>
       </c>
@@ -26884,7 +26960,7 @@
       <c r="H127" s="7"/>
     </row>
     <row r="128" spans="1:8" customFormat="1">
-      <c r="A128" s="34" t="s">
+      <c r="A128" s="31" t="s">
         <v>1029</v>
       </c>
       <c r="B128" s="20">
@@ -26900,7 +26976,7 @@
       <c r="F128" s="6"/>
     </row>
     <row r="129" spans="1:6" customFormat="1">
-      <c r="A129" s="34"/>
+      <c r="A129" s="31"/>
       <c r="B129" s="20" t="s">
         <v>357</v>
       </c>
@@ -26914,7 +26990,7 @@
       <c r="F129" s="6"/>
     </row>
     <row r="130" spans="1:6" customFormat="1">
-      <c r="A130" s="34"/>
+      <c r="A130" s="31"/>
       <c r="B130" s="20" t="s">
         <v>358</v>
       </c>
@@ -26928,7 +27004,7 @@
       <c r="F130" s="6"/>
     </row>
     <row r="131" spans="1:6" customFormat="1">
-      <c r="A131" s="34"/>
+      <c r="A131" s="31"/>
       <c r="B131" s="20" t="s">
         <v>359</v>
       </c>
@@ -26942,7 +27018,7 @@
       <c r="F131" s="6"/>
     </row>
     <row r="132" spans="1:6" customFormat="1">
-      <c r="A132" s="34"/>
+      <c r="A132" s="31"/>
       <c r="B132" s="20" t="s">
         <v>360</v>
       </c>
@@ -26956,7 +27032,7 @@
       <c r="F132" s="6"/>
     </row>
     <row r="133" spans="1:6" customFormat="1">
-      <c r="A133" s="34"/>
+      <c r="A133" s="31"/>
       <c r="B133" s="20" t="s">
         <v>361</v>
       </c>
@@ -26970,7 +27046,7 @@
       <c r="F133" s="6"/>
     </row>
     <row r="134" spans="1:6" customFormat="1">
-      <c r="A134" s="34"/>
+      <c r="A134" s="31"/>
       <c r="B134" s="20" t="s">
         <v>362</v>
       </c>
@@ -26984,7 +27060,7 @@
       <c r="F134" s="6"/>
     </row>
     <row r="135" spans="1:6" customFormat="1">
-      <c r="A135" s="34"/>
+      <c r="A135" s="31"/>
       <c r="B135" s="20" t="s">
         <v>363</v>
       </c>
@@ -26998,7 +27074,7 @@
       <c r="F135" s="6"/>
     </row>
     <row r="136" spans="1:6" customFormat="1">
-      <c r="A136" s="34"/>
+      <c r="A136" s="31"/>
       <c r="B136" s="20" t="s">
         <v>364</v>
       </c>
@@ -27012,7 +27088,7 @@
       <c r="F136" s="6"/>
     </row>
     <row r="137" spans="1:6" customFormat="1">
-      <c r="A137" s="34"/>
+      <c r="A137" s="31"/>
       <c r="B137" s="20" t="s">
         <v>365</v>
       </c>
@@ -27026,7 +27102,7 @@
       <c r="F137" s="6"/>
     </row>
     <row r="138" spans="1:6" customFormat="1">
-      <c r="A138" s="34"/>
+      <c r="A138" s="31"/>
       <c r="B138" s="20" t="s">
         <v>366</v>
       </c>
@@ -27040,7 +27116,7 @@
       <c r="F138" s="6"/>
     </row>
     <row r="139" spans="1:6" customFormat="1">
-      <c r="A139" s="34"/>
+      <c r="A139" s="31"/>
       <c r="B139" s="20">
         <v>5.2</v>
       </c>
@@ -27054,7 +27130,7 @@
       <c r="F139" s="6"/>
     </row>
     <row r="140" spans="1:6" customFormat="1">
-      <c r="A140" s="34"/>
+      <c r="A140" s="31"/>
       <c r="B140" s="20" t="s">
         <v>367</v>
       </c>
@@ -27068,7 +27144,7 @@
       <c r="F140" s="6"/>
     </row>
     <row r="141" spans="1:6" customFormat="1">
-      <c r="A141" s="34"/>
+      <c r="A141" s="31"/>
       <c r="B141" s="20" t="s">
         <v>368</v>
       </c>
@@ -27082,7 +27158,7 @@
       <c r="F141" s="6"/>
     </row>
     <row r="142" spans="1:6" customFormat="1">
-      <c r="A142" s="34"/>
+      <c r="A142" s="31"/>
       <c r="B142" s="20" t="s">
         <v>369</v>
       </c>
@@ -27096,7 +27172,7 @@
       <c r="F142" s="6"/>
     </row>
     <row r="143" spans="1:6" customFormat="1">
-      <c r="A143" s="34"/>
+      <c r="A143" s="31"/>
       <c r="B143" s="20" t="s">
         <v>370</v>
       </c>
@@ -27110,7 +27186,7 @@
       <c r="F143" s="6"/>
     </row>
     <row r="144" spans="1:6" customFormat="1">
-      <c r="A144" s="34"/>
+      <c r="A144" s="31"/>
       <c r="B144" s="20">
         <v>5.3</v>
       </c>
@@ -27124,7 +27200,7 @@
       <c r="F144" s="6"/>
     </row>
     <row r="145" spans="1:6" customFormat="1">
-      <c r="A145" s="34"/>
+      <c r="A145" s="31"/>
       <c r="B145" s="20" t="s">
         <v>371</v>
       </c>
@@ -27138,7 +27214,7 @@
       <c r="F145" s="6"/>
     </row>
     <row r="146" spans="1:6" customFormat="1">
-      <c r="A146" s="34"/>
+      <c r="A146" s="31"/>
       <c r="B146" s="20" t="s">
         <v>372</v>
       </c>
@@ -27152,7 +27228,7 @@
       <c r="F146" s="6"/>
     </row>
     <row r="147" spans="1:6" customFormat="1">
-      <c r="A147" s="34"/>
+      <c r="A147" s="31"/>
       <c r="B147" s="20">
         <v>5.4</v>
       </c>
@@ -27166,7 +27242,7 @@
       <c r="F147" s="6"/>
     </row>
     <row r="148" spans="1:6" customFormat="1">
-      <c r="A148" s="34"/>
+      <c r="A148" s="31"/>
       <c r="B148" s="20">
         <v>5.5</v>
       </c>
@@ -27180,7 +27256,7 @@
       <c r="F148" s="6"/>
     </row>
     <row r="149" spans="1:6" customFormat="1">
-      <c r="A149" s="34"/>
+      <c r="A149" s="31"/>
       <c r="B149" s="20">
         <v>5.6</v>
       </c>
@@ -27194,7 +27270,7 @@
       <c r="F149" s="6"/>
     </row>
     <row r="150" spans="1:6" customFormat="1">
-      <c r="A150" s="34"/>
+      <c r="A150" s="31"/>
       <c r="B150" s="20">
         <v>5.7</v>
       </c>
@@ -27208,7 +27284,7 @@
       <c r="F150" s="6"/>
     </row>
     <row r="151" spans="1:6" customFormat="1">
-      <c r="A151" s="34"/>
+      <c r="A151" s="31"/>
       <c r="B151" s="20" t="s">
         <v>373</v>
       </c>
@@ -27222,7 +27298,7 @@
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="1:6" customFormat="1">
-      <c r="A152" s="34"/>
+      <c r="A152" s="31"/>
       <c r="B152" s="20" t="s">
         <v>374</v>
       </c>
@@ -27236,7 +27312,7 @@
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:6" customFormat="1">
-      <c r="A153" s="34"/>
+      <c r="A153" s="31"/>
       <c r="B153" s="20" t="s">
         <v>375</v>
       </c>
@@ -27250,7 +27326,7 @@
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" customFormat="1">
-      <c r="A154" s="34"/>
+      <c r="A154" s="31"/>
       <c r="B154" s="20" t="s">
         <v>376</v>
       </c>
@@ -27264,7 +27340,7 @@
       <c r="F154" s="2"/>
     </row>
     <row r="155" spans="1:6" customFormat="1">
-      <c r="A155" s="34"/>
+      <c r="A155" s="31"/>
       <c r="B155" s="20" t="s">
         <v>377</v>
       </c>
@@ -27278,7 +27354,7 @@
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" customFormat="1">
-      <c r="A156" s="34"/>
+      <c r="A156" s="31"/>
       <c r="B156" s="20" t="s">
         <v>378</v>
       </c>
@@ -27292,7 +27368,7 @@
       <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:6" customFormat="1">
-      <c r="A157" s="34"/>
+      <c r="A157" s="31"/>
       <c r="B157" s="20">
         <v>5.8</v>
       </c>
@@ -27306,7 +27382,7 @@
       <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:6" customFormat="1">
-      <c r="A158" s="34" t="s">
+      <c r="A158" s="31" t="s">
         <v>1026</v>
       </c>
       <c r="B158" s="20">
@@ -27322,7 +27398,7 @@
       <c r="F158" s="2"/>
     </row>
     <row r="159" spans="1:6" customFormat="1">
-      <c r="A159" s="34"/>
+      <c r="A159" s="31"/>
       <c r="B159" s="20" t="s">
         <v>379</v>
       </c>
@@ -27336,7 +27412,7 @@
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" customFormat="1">
-      <c r="A160" s="34"/>
+      <c r="A160" s="31"/>
       <c r="B160" s="20" t="s">
         <v>380</v>
       </c>
@@ -27350,7 +27426,7 @@
       <c r="F160" s="2"/>
     </row>
     <row r="161" spans="1:6" customFormat="1">
-      <c r="A161" s="34"/>
+      <c r="A161" s="31"/>
       <c r="B161" s="20" t="s">
         <v>381</v>
       </c>
@@ -27364,7 +27440,7 @@
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" customFormat="1">
-      <c r="A162" s="34"/>
+      <c r="A162" s="31"/>
       <c r="B162" s="20" t="s">
         <v>382</v>
       </c>
@@ -27378,7 +27454,7 @@
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:6" customFormat="1">
-      <c r="A163" s="34"/>
+      <c r="A163" s="31"/>
       <c r="B163" s="20" t="s">
         <v>383</v>
       </c>
@@ -27392,7 +27468,7 @@
       <c r="F163" s="2"/>
     </row>
     <row r="164" spans="1:6" customFormat="1">
-      <c r="A164" s="34"/>
+      <c r="A164" s="31"/>
       <c r="B164" s="20" t="s">
         <v>384</v>
       </c>
@@ -27406,7 +27482,7 @@
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" customFormat="1">
-      <c r="A165" s="34"/>
+      <c r="A165" s="31"/>
       <c r="B165" s="20">
         <v>6.2</v>
       </c>
@@ -27420,7 +27496,7 @@
       <c r="F165" s="2"/>
     </row>
     <row r="166" spans="1:6" customFormat="1">
-      <c r="A166" s="34"/>
+      <c r="A166" s="31"/>
       <c r="B166" s="20" t="s">
         <v>385</v>
       </c>
@@ -27434,7 +27510,7 @@
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" customFormat="1">
-      <c r="A167" s="34"/>
+      <c r="A167" s="31"/>
       <c r="B167" s="20" t="s">
         <v>386</v>
       </c>
@@ -27448,7 +27524,7 @@
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="1:6" customFormat="1">
-      <c r="A168" s="34"/>
+      <c r="A168" s="31"/>
       <c r="B168" s="20" t="s">
         <v>387</v>
       </c>
@@ -27462,7 +27538,7 @@
       <c r="F168" s="2"/>
     </row>
     <row r="169" spans="1:6" customFormat="1">
-      <c r="A169" s="34"/>
+      <c r="A169" s="31"/>
       <c r="B169" s="20">
         <v>6.3</v>
       </c>
@@ -27476,7 +27552,7 @@
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" customFormat="1">
-      <c r="A170" s="34"/>
+      <c r="A170" s="31"/>
       <c r="B170" s="20" t="s">
         <v>388</v>
       </c>
@@ -27490,7 +27566,7 @@
       <c r="F170" s="2"/>
     </row>
     <row r="171" spans="1:6" customFormat="1">
-      <c r="A171" s="34"/>
+      <c r="A171" s="31"/>
       <c r="B171" s="20" t="s">
         <v>389</v>
       </c>
@@ -27504,7 +27580,7 @@
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" customFormat="1">
-      <c r="A172" s="34"/>
+      <c r="A172" s="31"/>
       <c r="B172" s="20" t="s">
         <v>390</v>
       </c>
@@ -27518,7 +27594,7 @@
       <c r="F172" s="2"/>
     </row>
     <row r="173" spans="1:6" customFormat="1">
-      <c r="A173" s="34"/>
+      <c r="A173" s="31"/>
       <c r="B173" s="20" t="s">
         <v>391</v>
       </c>
@@ -27532,7 +27608,7 @@
       <c r="F173" s="2"/>
     </row>
     <row r="174" spans="1:6" customFormat="1">
-      <c r="A174" s="34"/>
+      <c r="A174" s="31"/>
       <c r="B174" s="20" t="s">
         <v>392</v>
       </c>
@@ -27546,7 +27622,7 @@
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" customFormat="1">
-      <c r="A175" s="34"/>
+      <c r="A175" s="31"/>
       <c r="B175" s="20" t="s">
         <v>393</v>
       </c>
@@ -27560,7 +27636,7 @@
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="1:6" customFormat="1">
-      <c r="A176" s="34"/>
+      <c r="A176" s="31"/>
       <c r="B176" s="20" t="s">
         <v>394</v>
       </c>
@@ -27574,7 +27650,7 @@
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" customFormat="1">
-      <c r="A177" s="34"/>
+      <c r="A177" s="31"/>
       <c r="B177" s="20" t="s">
         <v>395</v>
       </c>
@@ -27588,7 +27664,7 @@
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:6" customFormat="1">
-      <c r="A178" s="34"/>
+      <c r="A178" s="31"/>
       <c r="B178" s="20">
         <v>6.4</v>
       </c>
@@ -27602,7 +27678,7 @@
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:6" customFormat="1">
-      <c r="A179" s="34"/>
+      <c r="A179" s="31"/>
       <c r="B179" s="20" t="s">
         <v>396</v>
       </c>
@@ -27616,7 +27692,7 @@
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" customFormat="1">
-      <c r="A180" s="34"/>
+      <c r="A180" s="31"/>
       <c r="B180" s="20" t="s">
         <v>397</v>
       </c>
@@ -27630,7 +27706,7 @@
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6" customFormat="1">
-      <c r="A181" s="34"/>
+      <c r="A181" s="31"/>
       <c r="B181" s="20" t="s">
         <v>398</v>
       </c>
@@ -27644,7 +27720,7 @@
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" customFormat="1">
-      <c r="A182" s="34"/>
+      <c r="A182" s="31"/>
       <c r="B182" s="20" t="s">
         <v>399</v>
       </c>
@@ -27658,7 +27734,7 @@
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:6" customFormat="1">
-      <c r="A183" s="34"/>
+      <c r="A183" s="31"/>
       <c r="B183" s="20" t="s">
         <v>400</v>
       </c>
@@ -27672,7 +27748,7 @@
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6" customFormat="1">
-      <c r="A184" s="34"/>
+      <c r="A184" s="31"/>
       <c r="B184" s="20" t="s">
         <v>401</v>
       </c>
@@ -27686,7 +27762,7 @@
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:6" customFormat="1">
-      <c r="A185" s="34"/>
+      <c r="A185" s="31"/>
       <c r="B185" s="20" t="s">
         <v>402</v>
       </c>
@@ -27700,7 +27776,7 @@
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" customFormat="1">
-      <c r="A186" s="34"/>
+      <c r="A186" s="31"/>
       <c r="B186" s="20">
         <v>6.5</v>
       </c>
@@ -27714,7 +27790,7 @@
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="1:6" customFormat="1">
-      <c r="A187" s="34"/>
+      <c r="A187" s="31"/>
       <c r="B187" s="20" t="s">
         <v>403</v>
       </c>
@@ -27728,7 +27804,7 @@
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" customFormat="1">
-      <c r="A188" s="34"/>
+      <c r="A188" s="31"/>
       <c r="B188" s="20" t="s">
         <v>404</v>
       </c>
@@ -27742,7 +27818,7 @@
       <c r="F188" s="2"/>
     </row>
     <row r="189" spans="1:6" customFormat="1">
-      <c r="A189" s="34"/>
+      <c r="A189" s="31"/>
       <c r="B189" s="20" t="s">
         <v>405</v>
       </c>
@@ -27756,7 +27832,7 @@
       <c r="F189" s="2"/>
     </row>
     <row r="190" spans="1:6" customFormat="1">
-      <c r="A190" s="34" t="s">
+      <c r="A190" s="31" t="s">
         <v>1025</v>
       </c>
       <c r="B190" s="20">
@@ -27772,7 +27848,7 @@
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" customFormat="1">
-      <c r="A191" s="34"/>
+      <c r="A191" s="31"/>
       <c r="B191" s="20" t="s">
         <v>406</v>
       </c>
@@ -27786,7 +27862,7 @@
       <c r="F191" s="2"/>
     </row>
     <row r="192" spans="1:6" customFormat="1">
-      <c r="A192" s="34"/>
+      <c r="A192" s="31"/>
       <c r="B192" s="20" t="s">
         <v>407</v>
       </c>
@@ -27800,7 +27876,7 @@
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" customFormat="1">
-      <c r="A193" s="34"/>
+      <c r="A193" s="31"/>
       <c r="B193" s="20" t="s">
         <v>408</v>
       </c>
@@ -27814,7 +27890,7 @@
       <c r="F193" s="2"/>
     </row>
     <row r="194" spans="1:6" customFormat="1">
-      <c r="A194" s="34"/>
+      <c r="A194" s="31"/>
       <c r="B194" s="20" t="s">
         <v>409</v>
       </c>
@@ -27828,7 +27904,7 @@
       <c r="F194" s="2"/>
     </row>
     <row r="195" spans="1:6" customFormat="1">
-      <c r="A195" s="34"/>
+      <c r="A195" s="31"/>
       <c r="B195" s="20">
         <v>7.2</v>
       </c>
@@ -27842,7 +27918,7 @@
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" customFormat="1">
-      <c r="A196" s="34"/>
+      <c r="A196" s="31"/>
       <c r="B196" s="20" t="s">
         <v>410</v>
       </c>
@@ -27856,7 +27932,7 @@
       <c r="F196" s="2"/>
     </row>
     <row r="197" spans="1:6" customFormat="1">
-      <c r="A197" s="34"/>
+      <c r="A197" s="31"/>
       <c r="B197" s="20" t="s">
         <v>411</v>
       </c>
@@ -27870,7 +27946,7 @@
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" customFormat="1">
-      <c r="A198" s="34"/>
+      <c r="A198" s="31"/>
       <c r="B198" s="20" t="s">
         <v>412</v>
       </c>
@@ -27884,7 +27960,7 @@
       <c r="F198" s="2"/>
     </row>
     <row r="199" spans="1:6" customFormat="1">
-      <c r="A199" s="34"/>
+      <c r="A199" s="31"/>
       <c r="B199" s="20" t="s">
         <v>413</v>
       </c>
@@ -27898,7 +27974,7 @@
       <c r="F199" s="2"/>
     </row>
     <row r="200" spans="1:6" customFormat="1">
-      <c r="A200" s="34"/>
+      <c r="A200" s="31"/>
       <c r="B200" s="20" t="s">
         <v>414</v>
       </c>
@@ -27912,7 +27988,7 @@
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" customFormat="1">
-      <c r="A201" s="34"/>
+      <c r="A201" s="31"/>
       <c r="B201" s="20" t="s">
         <v>415</v>
       </c>
@@ -27926,7 +28002,7 @@
       <c r="F201" s="2"/>
     </row>
     <row r="202" spans="1:6" customFormat="1">
-      <c r="A202" s="34"/>
+      <c r="A202" s="31"/>
       <c r="B202" s="20">
         <v>7.3</v>
       </c>
@@ -27940,7 +28016,7 @@
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:6" customFormat="1">
-      <c r="A203" s="34"/>
+      <c r="A203" s="31"/>
       <c r="B203" s="20">
         <v>7.4</v>
       </c>
@@ -27954,7 +28030,7 @@
       <c r="F203" s="2"/>
     </row>
     <row r="204" spans="1:6" customFormat="1">
-      <c r="A204" s="34"/>
+      <c r="A204" s="31"/>
       <c r="B204" s="20" t="s">
         <v>416</v>
       </c>
@@ -27968,7 +28044,7 @@
       <c r="F204" s="2"/>
     </row>
     <row r="205" spans="1:6" customFormat="1">
-      <c r="A205" s="34"/>
+      <c r="A205" s="31"/>
       <c r="B205" s="20" t="s">
         <v>417</v>
       </c>
@@ -27982,7 +28058,7 @@
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" customFormat="1">
-      <c r="A206" s="34"/>
+      <c r="A206" s="31"/>
       <c r="B206" s="20" t="s">
         <v>418</v>
       </c>
@@ -27996,7 +28072,7 @@
       <c r="F206" s="2"/>
     </row>
     <row r="207" spans="1:6" customFormat="1">
-      <c r="A207" s="34"/>
+      <c r="A207" s="31"/>
       <c r="B207" s="20" t="s">
         <v>419</v>
       </c>
@@ -28010,7 +28086,7 @@
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" customFormat="1">
-      <c r="A208" s="34"/>
+      <c r="A208" s="31"/>
       <c r="B208" s="20">
         <v>7.5</v>
       </c>
@@ -28024,7 +28100,7 @@
       <c r="F208" s="2"/>
     </row>
     <row r="209" spans="1:6" customFormat="1">
-      <c r="A209" s="34"/>
+      <c r="A209" s="31"/>
       <c r="B209" s="20" t="s">
         <v>420</v>
       </c>
@@ -28038,7 +28114,7 @@
       <c r="F209" s="2"/>
     </row>
     <row r="210" spans="1:6" customFormat="1">
-      <c r="A210" s="34"/>
+      <c r="A210" s="31"/>
       <c r="B210" s="20" t="s">
         <v>421</v>
       </c>
@@ -28052,7 +28128,7 @@
       <c r="F210" s="2"/>
     </row>
     <row r="211" spans="1:6" customFormat="1">
-      <c r="A211" s="34"/>
+      <c r="A211" s="31"/>
       <c r="B211" s="20" t="s">
         <v>422</v>
       </c>
@@ -28066,7 +28142,7 @@
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" customFormat="1">
-      <c r="A212" s="34"/>
+      <c r="A212" s="31"/>
       <c r="B212" s="20" t="s">
         <v>423</v>
       </c>
@@ -28080,7 +28156,7 @@
       <c r="F212" s="2"/>
     </row>
     <row r="213" spans="1:6" customFormat="1">
-      <c r="A213" s="34"/>
+      <c r="A213" s="31"/>
       <c r="B213" s="20" t="s">
         <v>424</v>
       </c>
@@ -28094,7 +28170,7 @@
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" customFormat="1">
-      <c r="A214" s="34"/>
+      <c r="A214" s="31"/>
       <c r="B214" s="20" t="s">
         <v>425</v>
       </c>
@@ -28108,7 +28184,7 @@
       <c r="F214" s="2"/>
     </row>
     <row r="215" spans="1:6" customFormat="1">
-      <c r="A215" s="34"/>
+      <c r="A215" s="31"/>
       <c r="B215" s="20" t="s">
         <v>426</v>
       </c>
@@ -28122,7 +28198,7 @@
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:6" customFormat="1">
-      <c r="A216" s="34"/>
+      <c r="A216" s="31"/>
       <c r="B216" s="20" t="s">
         <v>427</v>
       </c>
@@ -28136,7 +28212,7 @@
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" customFormat="1">
-      <c r="A217" s="34"/>
+      <c r="A217" s="31"/>
       <c r="B217" s="20">
         <v>7.6</v>
       </c>
@@ -28150,7 +28226,7 @@
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:6" customFormat="1">
-      <c r="A218" s="34" t="s">
+      <c r="A218" s="31" t="s">
         <v>1024</v>
       </c>
       <c r="B218" s="20">
@@ -28166,7 +28242,7 @@
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" customFormat="1">
-      <c r="A219" s="34"/>
+      <c r="A219" s="31"/>
       <c r="B219" s="20" t="s">
         <v>428</v>
       </c>
@@ -28180,7 +28256,7 @@
       <c r="F219" s="2"/>
     </row>
     <row r="220" spans="1:6" customFormat="1">
-      <c r="A220" s="34"/>
+      <c r="A220" s="31"/>
       <c r="B220" s="20" t="s">
         <v>429</v>
       </c>
@@ -28194,7 +28270,7 @@
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="1:6" customFormat="1">
-      <c r="A221" s="34"/>
+      <c r="A221" s="31"/>
       <c r="B221" s="20">
         <v>8.1999999999999993</v>
       </c>
@@ -28208,7 +28284,7 @@
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" customFormat="1">
-      <c r="A222" s="34"/>
+      <c r="A222" s="31"/>
       <c r="B222" s="20">
         <v>8.3000000000000007</v>
       </c>
@@ -28222,7 +28298,7 @@
       <c r="F222" s="2"/>
     </row>
     <row r="223" spans="1:6" customFormat="1">
-      <c r="A223" s="34"/>
+      <c r="A223" s="31"/>
       <c r="B223" s="20">
         <v>8.4</v>
       </c>
@@ -28236,7 +28312,7 @@
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" customFormat="1">
-      <c r="A224" s="34"/>
+      <c r="A224" s="31"/>
       <c r="B224" s="20">
         <v>8.5</v>
       </c>
@@ -28250,7 +28326,7 @@
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:6" customFormat="1">
-      <c r="A225" s="34"/>
+      <c r="A225" s="31"/>
       <c r="B225" s="20" t="s">
         <v>430</v>
       </c>
@@ -28264,7 +28340,7 @@
       <c r="F225" s="2"/>
     </row>
     <row r="226" spans="1:6" customFormat="1">
-      <c r="A226" s="34"/>
+      <c r="A226" s="31"/>
       <c r="B226" s="20" t="s">
         <v>431</v>
       </c>
@@ -28278,7 +28354,7 @@
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" customFormat="1">
-      <c r="A227" s="34"/>
+      <c r="A227" s="31"/>
       <c r="B227" s="20" t="s">
         <v>432</v>
       </c>
@@ -28292,7 +28368,7 @@
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:6" customFormat="1">
-      <c r="A228" s="34"/>
+      <c r="A228" s="31"/>
       <c r="B228" s="20" t="s">
         <v>433</v>
       </c>
@@ -28306,7 +28382,7 @@
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" customFormat="1">
-      <c r="A229" s="34"/>
+      <c r="A229" s="31"/>
       <c r="B229" s="20">
         <v>8.6</v>
       </c>
@@ -28320,7 +28396,7 @@
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="1:6" customFormat="1">
-      <c r="A230" s="34"/>
+      <c r="A230" s="31"/>
       <c r="B230" s="20" t="s">
         <v>434</v>
       </c>
@@ -28334,7 +28410,7 @@
       <c r="F230" s="2"/>
     </row>
     <row r="231" spans="1:6" customFormat="1">
-      <c r="A231" s="34"/>
+      <c r="A231" s="31"/>
       <c r="B231" s="20" t="s">
         <v>435</v>
       </c>
@@ -28348,7 +28424,7 @@
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" customFormat="1">
-      <c r="A232" s="34"/>
+      <c r="A232" s="31"/>
       <c r="B232" s="20" t="s">
         <v>436</v>
       </c>
@@ -28362,7 +28438,7 @@
       <c r="F232" s="2"/>
     </row>
     <row r="233" spans="1:6" customFormat="1">
-      <c r="A233" s="34"/>
+      <c r="A233" s="31"/>
       <c r="B233" s="20" t="s">
         <v>437</v>
       </c>
@@ -28376,7 +28452,7 @@
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" customFormat="1">
-      <c r="A234" s="34"/>
+      <c r="A234" s="31"/>
       <c r="B234" s="20" t="s">
         <v>438</v>
       </c>
@@ -28390,7 +28466,7 @@
       <c r="F234" s="2"/>
     </row>
     <row r="235" spans="1:6" customFormat="1">
-      <c r="A235" s="34"/>
+      <c r="A235" s="31"/>
       <c r="B235" s="20" t="s">
         <v>439</v>
       </c>
@@ -28404,7 +28480,7 @@
       <c r="F235" s="2"/>
     </row>
     <row r="236" spans="1:6" customFormat="1">
-      <c r="A236" s="34"/>
+      <c r="A236" s="31"/>
       <c r="B236" s="20" t="s">
         <v>440</v>
       </c>
@@ -28418,7 +28494,7 @@
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:6" customFormat="1">
-      <c r="A237" s="34"/>
+      <c r="A237" s="31"/>
       <c r="B237" s="20" t="s">
         <v>441</v>
       </c>
@@ -28432,7 +28508,7 @@
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" customFormat="1">
-      <c r="A238" s="34"/>
+      <c r="A238" s="31"/>
       <c r="B238" s="20" t="s">
         <v>442</v>
       </c>
@@ -28446,7 +28522,7 @@
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:6" customFormat="1">
-      <c r="A239" s="34"/>
+      <c r="A239" s="31"/>
       <c r="B239" s="20" t="s">
         <v>443</v>
       </c>
@@ -28460,7 +28536,7 @@
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" customFormat="1">
-      <c r="A240" s="34"/>
+      <c r="A240" s="31"/>
       <c r="B240" s="20">
         <v>8.6999999999999993</v>
       </c>
@@ -28474,7 +28550,7 @@
       <c r="F240" s="2"/>
     </row>
     <row r="241" spans="1:6" customFormat="1">
-      <c r="A241" s="34"/>
+      <c r="A241" s="31"/>
       <c r="B241" s="20">
         <v>8.8000000000000007</v>
       </c>
@@ -28488,7 +28564,7 @@
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="1:6" customFormat="1">
-      <c r="A242" s="34"/>
+      <c r="A242" s="31"/>
       <c r="B242" s="20" t="s">
         <v>444</v>
       </c>
@@ -28502,7 +28578,7 @@
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" customFormat="1">
-      <c r="A243" s="34"/>
+      <c r="A243" s="31"/>
       <c r="B243" s="20" t="s">
         <v>445</v>
       </c>
@@ -28516,7 +28592,7 @@
       <c r="F243" s="2"/>
     </row>
     <row r="244" spans="1:6" customFormat="1">
-      <c r="A244" s="34"/>
+      <c r="A244" s="31"/>
       <c r="B244" s="20" t="s">
         <v>446</v>
       </c>
@@ -28530,7 +28606,7 @@
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" customFormat="1">
-      <c r="A245" s="34"/>
+      <c r="A245" s="31"/>
       <c r="B245" s="20" t="s">
         <v>447</v>
       </c>
@@ -28544,7 +28620,7 @@
       <c r="F245" s="2"/>
     </row>
     <row r="246" spans="1:6" customFormat="1">
-      <c r="A246" s="34"/>
+      <c r="A246" s="31"/>
       <c r="B246" s="20">
         <v>8.9</v>
       </c>
@@ -28558,7 +28634,7 @@
       <c r="F246" s="2"/>
     </row>
     <row r="247" spans="1:6" customFormat="1">
-      <c r="A247" s="34"/>
+      <c r="A247" s="31"/>
       <c r="B247" s="20" t="s">
         <v>448</v>
       </c>
@@ -28572,7 +28648,7 @@
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" customFormat="1">
-      <c r="A248" s="34"/>
+      <c r="A248" s="31"/>
       <c r="B248" s="20" t="s">
         <v>449</v>
       </c>
@@ -28586,7 +28662,7 @@
       <c r="F248" s="2"/>
     </row>
     <row r="249" spans="1:6" customFormat="1">
-      <c r="A249" s="34"/>
+      <c r="A249" s="31"/>
       <c r="B249" s="20" t="s">
         <v>450</v>
       </c>
@@ -28600,7 +28676,7 @@
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" customFormat="1">
-      <c r="A250" s="34" t="s">
+      <c r="A250" s="31" t="s">
         <v>1022</v>
       </c>
       <c r="B250" s="20">
@@ -28616,7 +28692,7 @@
       <c r="F250" s="2"/>
     </row>
     <row r="251" spans="1:6" customFormat="1">
-      <c r="A251" s="34"/>
+      <c r="A251" s="31"/>
       <c r="B251" s="20" t="s">
         <v>451</v>
       </c>
@@ -28630,7 +28706,7 @@
       <c r="F251" s="2"/>
     </row>
     <row r="252" spans="1:6" customFormat="1">
-      <c r="A252" s="34"/>
+      <c r="A252" s="31"/>
       <c r="B252" s="20" t="s">
         <v>452</v>
       </c>
@@ -28644,7 +28720,7 @@
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" customFormat="1">
-      <c r="A253" s="34"/>
+      <c r="A253" s="31"/>
       <c r="B253" s="20" t="s">
         <v>453</v>
       </c>
@@ -28658,7 +28734,7 @@
       <c r="F253" s="2"/>
     </row>
     <row r="254" spans="1:6" customFormat="1">
-      <c r="A254" s="34"/>
+      <c r="A254" s="31"/>
       <c r="B254" s="20" t="s">
         <v>454</v>
       </c>
@@ -28672,7 +28748,7 @@
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" customFormat="1">
-      <c r="A255" s="34"/>
+      <c r="A255" s="31"/>
       <c r="B255" s="20" t="s">
         <v>455</v>
       </c>
@@ -28686,7 +28762,7 @@
       <c r="F255" s="2"/>
     </row>
     <row r="256" spans="1:6" customFormat="1">
-      <c r="A256" s="34"/>
+      <c r="A256" s="31"/>
       <c r="B256" s="20">
         <v>9.1999999999999993</v>
       </c>
@@ -28700,7 +28776,7 @@
       <c r="F256" s="2"/>
     </row>
     <row r="257" spans="1:6" customFormat="1">
-      <c r="A257" s="34"/>
+      <c r="A257" s="31"/>
       <c r="B257" s="20" t="s">
         <v>456</v>
       </c>
@@ -28714,7 +28790,7 @@
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" customFormat="1">
-      <c r="A258" s="34"/>
+      <c r="A258" s="31"/>
       <c r="B258" s="20" t="s">
         <v>457</v>
       </c>
@@ -28728,7 +28804,7 @@
       <c r="F258" s="2"/>
     </row>
     <row r="259" spans="1:6" customFormat="1">
-      <c r="A259" s="34"/>
+      <c r="A259" s="31"/>
       <c r="B259" s="20" t="s">
         <v>458</v>
       </c>
@@ -28742,7 +28818,7 @@
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" customFormat="1">
-      <c r="A260" s="34"/>
+      <c r="A260" s="31"/>
       <c r="B260" s="20" t="s">
         <v>459</v>
       </c>
@@ -28756,7 +28832,7 @@
       <c r="F260" s="2"/>
     </row>
     <row r="261" spans="1:6" customFormat="1">
-      <c r="A261" s="34"/>
+      <c r="A261" s="31"/>
       <c r="B261" s="20" t="s">
         <v>460</v>
       </c>
@@ -28770,7 +28846,7 @@
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="1:6" customFormat="1">
-      <c r="A262" s="34"/>
+      <c r="A262" s="31"/>
       <c r="B262" s="20" t="s">
         <v>461</v>
       </c>
@@ -28784,7 +28860,7 @@
       <c r="F262" s="2"/>
     </row>
     <row r="263" spans="1:6" customFormat="1">
-      <c r="A263" s="34"/>
+      <c r="A263" s="31"/>
       <c r="B263" s="20">
         <v>9.3000000000000007</v>
       </c>
@@ -28798,7 +28874,7 @@
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" customFormat="1">
-      <c r="A264" s="34"/>
+      <c r="A264" s="31"/>
       <c r="B264" s="20" t="s">
         <v>462</v>
       </c>
@@ -28812,7 +28888,7 @@
       <c r="F264" s="2"/>
     </row>
     <row r="265" spans="1:6" customFormat="1">
-      <c r="A265" s="34"/>
+      <c r="A265" s="31"/>
       <c r="B265" s="20" t="s">
         <v>463</v>
       </c>
@@ -28826,7 +28902,7 @@
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" customFormat="1">
-      <c r="A266" s="34"/>
+      <c r="A266" s="31"/>
       <c r="B266" s="20" t="s">
         <v>464</v>
       </c>
@@ -28840,7 +28916,7 @@
       <c r="F266" s="2"/>
     </row>
     <row r="267" spans="1:6" customFormat="1">
-      <c r="A267" s="34"/>
+      <c r="A267" s="31"/>
       <c r="B267" s="20" t="s">
         <v>465</v>
       </c>
@@ -28854,7 +28930,7 @@
       <c r="F267" s="2"/>
     </row>
     <row r="268" spans="1:6" customFormat="1">
-      <c r="A268" s="34"/>
+      <c r="A268" s="31"/>
       <c r="B268" s="20" t="s">
         <v>466</v>
       </c>
@@ -28868,7 +28944,7 @@
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6" customFormat="1">
-      <c r="A269" s="34"/>
+      <c r="A269" s="31"/>
       <c r="B269" s="20" t="s">
         <v>467</v>
       </c>
@@ -28882,7 +28958,7 @@
       <c r="F269" s="2"/>
     </row>
     <row r="270" spans="1:6" customFormat="1">
-      <c r="A270" s="34"/>
+      <c r="A270" s="31"/>
       <c r="B270" s="20" t="s">
         <v>468</v>
       </c>
@@ -28896,7 +28972,7 @@
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="1:6" customFormat="1">
-      <c r="A271" s="34"/>
+      <c r="A271" s="31"/>
       <c r="B271" s="20">
         <v>9.4</v>
       </c>
@@ -28910,7 +28986,7 @@
       <c r="F271" s="2"/>
     </row>
     <row r="272" spans="1:6" customFormat="1">
-      <c r="A272" s="34"/>
+      <c r="A272" s="31"/>
       <c r="B272" s="20" t="s">
         <v>469</v>
       </c>
@@ -28924,7 +29000,7 @@
       <c r="F272" s="2"/>
     </row>
     <row r="273" spans="1:6" customFormat="1">
-      <c r="A273" s="34"/>
+      <c r="A273" s="31"/>
       <c r="B273" s="20" t="s">
         <v>470</v>
       </c>
@@ -28938,7 +29014,7 @@
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" customFormat="1">
-      <c r="A274" s="34"/>
+      <c r="A274" s="31"/>
       <c r="B274" s="20" t="s">
         <v>471</v>
       </c>
@@ -28952,7 +29028,7 @@
       <c r="F274" s="2"/>
     </row>
     <row r="275" spans="1:6" customFormat="1">
-      <c r="A275" s="34"/>
+      <c r="A275" s="31"/>
       <c r="B275" s="20" t="s">
         <v>472</v>
       </c>
@@ -28966,7 +29042,7 @@
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" customFormat="1">
-      <c r="A276" s="34"/>
+      <c r="A276" s="31"/>
       <c r="B276" s="20" t="s">
         <v>473</v>
       </c>
@@ -28980,7 +29056,7 @@
       <c r="F276" s="2"/>
     </row>
     <row r="277" spans="1:6" customFormat="1">
-      <c r="A277" s="34"/>
+      <c r="A277" s="31"/>
       <c r="B277" s="20" t="s">
         <v>474</v>
       </c>
@@ -28994,7 +29070,7 @@
       <c r="F277" s="2"/>
     </row>
     <row r="278" spans="1:6" customFormat="1">
-      <c r="A278" s="34"/>
+      <c r="A278" s="31"/>
       <c r="B278" s="20">
         <v>9.5</v>
       </c>
@@ -29008,7 +29084,7 @@
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" customFormat="1">
-      <c r="A279" s="34"/>
+      <c r="A279" s="31"/>
       <c r="B279" s="20" t="s">
         <v>475</v>
       </c>
@@ -29022,7 +29098,7 @@
       <c r="F279" s="2"/>
     </row>
     <row r="280" spans="1:6" customFormat="1">
-      <c r="A280" s="34"/>
+      <c r="A280" s="31"/>
       <c r="B280" s="20" t="s">
         <v>476</v>
       </c>
@@ -29036,7 +29112,7 @@
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" customFormat="1">
-      <c r="A281" s="34"/>
+      <c r="A281" s="31"/>
       <c r="B281" s="20" t="s">
         <v>477</v>
       </c>
@@ -29050,7 +29126,7 @@
       <c r="F281" s="2"/>
     </row>
     <row r="282" spans="1:6" customFormat="1">
-      <c r="A282" s="34"/>
+      <c r="A282" s="31"/>
       <c r="B282" s="20" t="s">
         <v>478</v>
       </c>
@@ -29064,7 +29140,7 @@
       <c r="F282" s="2"/>
     </row>
     <row r="283" spans="1:6" customFormat="1">
-      <c r="A283" s="34"/>
+      <c r="A283" s="31"/>
       <c r="B283" s="20" t="s">
         <v>479</v>
       </c>
@@ -29078,7 +29154,7 @@
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" customFormat="1">
-      <c r="A284" s="34"/>
+      <c r="A284" s="31"/>
       <c r="B284" s="20" t="s">
         <v>480</v>
       </c>
@@ -29092,7 +29168,7 @@
       <c r="F284" s="2"/>
     </row>
     <row r="285" spans="1:6" customFormat="1">
-      <c r="A285" s="34"/>
+      <c r="A285" s="31"/>
       <c r="B285" s="20">
         <v>9.6</v>
       </c>
@@ -29106,7 +29182,7 @@
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6" customFormat="1">
-      <c r="A286" s="34"/>
+      <c r="A286" s="31"/>
       <c r="B286" s="20" t="s">
         <v>481</v>
       </c>
@@ -29120,7 +29196,7 @@
       <c r="F286" s="2"/>
     </row>
     <row r="287" spans="1:6" customFormat="1">
-      <c r="A287" s="34"/>
+      <c r="A287" s="31"/>
       <c r="B287" s="20" t="s">
         <v>482</v>
       </c>
@@ -29134,7 +29210,7 @@
       <c r="F287" s="2"/>
     </row>
     <row r="288" spans="1:6" customFormat="1">
-      <c r="A288" s="34"/>
+      <c r="A288" s="31"/>
       <c r="B288" s="20" t="s">
         <v>483</v>
       </c>
@@ -29148,7 +29224,7 @@
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="1:6" customFormat="1">
-      <c r="A289" s="34"/>
+      <c r="A289" s="31"/>
       <c r="B289" s="20" t="s">
         <v>484</v>
       </c>
@@ -29162,7 +29238,7 @@
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" customFormat="1">
-      <c r="A290" s="34"/>
+      <c r="A290" s="31"/>
       <c r="B290" s="20" t="s">
         <v>485</v>
       </c>
@@ -29176,7 +29252,7 @@
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="1:6" customFormat="1">
-      <c r="A291" s="34" t="s">
+      <c r="A291" s="31" t="s">
         <v>1023</v>
       </c>
       <c r="B291" s="20">
@@ -29192,7 +29268,7 @@
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:6" customFormat="1">
-      <c r="A292" s="34"/>
+      <c r="A292" s="31"/>
       <c r="B292" s="20">
         <v>10.199999999999999</v>
       </c>
@@ -29206,7 +29282,7 @@
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="1:6" customFormat="1">
-      <c r="A293" s="34"/>
+      <c r="A293" s="31"/>
       <c r="B293" s="20">
         <v>10.3</v>
       </c>
@@ -29220,7 +29296,7 @@
       <c r="F293" s="2"/>
     </row>
     <row r="294" spans="1:6" customFormat="1">
-      <c r="A294" s="34"/>
+      <c r="A294" s="31"/>
       <c r="B294" s="20" t="s">
         <v>486</v>
       </c>
@@ -29234,7 +29310,7 @@
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" customFormat="1">
-      <c r="A295" s="34"/>
+      <c r="A295" s="31"/>
       <c r="B295" s="20" t="s">
         <v>487</v>
       </c>
@@ -29248,7 +29324,7 @@
       <c r="F295" s="2"/>
     </row>
     <row r="296" spans="1:6" customFormat="1">
-      <c r="A296" s="34"/>
+      <c r="A296" s="31"/>
       <c r="B296" s="20">
         <v>10.4</v>
       </c>
@@ -29262,7 +29338,7 @@
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6" customFormat="1">
-      <c r="A297" s="34"/>
+      <c r="A297" s="31"/>
       <c r="B297" s="20">
         <v>10.5</v>
       </c>
@@ -29276,7 +29352,7 @@
       <c r="F297" s="2"/>
     </row>
     <row r="298" spans="1:6" customFormat="1">
-      <c r="A298" s="34"/>
+      <c r="A298" s="31"/>
       <c r="B298" s="20">
         <v>10.6</v>
       </c>
@@ -29290,7 +29366,7 @@
       <c r="F298" s="2"/>
     </row>
     <row r="299" spans="1:6" customFormat="1">
-      <c r="A299" s="34"/>
+      <c r="A299" s="31"/>
       <c r="B299" s="20">
         <v>10.7</v>
       </c>
@@ -29304,7 +29380,7 @@
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6" customFormat="1">
-      <c r="A300" s="34"/>
+      <c r="A300" s="31"/>
       <c r="B300" s="20">
         <v>10.8</v>
       </c>
@@ -29318,7 +29394,7 @@
       <c r="F300" s="2"/>
     </row>
     <row r="301" spans="1:6" customFormat="1">
-      <c r="A301" s="34" t="s">
+      <c r="A301" s="31" t="s">
         <v>1021</v>
       </c>
       <c r="B301" s="20">
@@ -29334,7 +29410,7 @@
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6" customFormat="1">
-      <c r="A302" s="34"/>
+      <c r="A302" s="31"/>
       <c r="B302" s="20" t="s">
         <v>488</v>
       </c>
@@ -29348,7 +29424,7 @@
       <c r="F302" s="2"/>
     </row>
     <row r="303" spans="1:6" customFormat="1">
-      <c r="A303" s="34"/>
+      <c r="A303" s="31"/>
       <c r="B303" s="20" t="s">
         <v>489</v>
       </c>
@@ -29362,7 +29438,7 @@
       <c r="F303" s="2"/>
     </row>
     <row r="304" spans="1:6" customFormat="1">
-      <c r="A304" s="34"/>
+      <c r="A304" s="31"/>
       <c r="B304" s="20" t="s">
         <v>490</v>
       </c>
@@ -29376,7 +29452,7 @@
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6" customFormat="1">
-      <c r="A305" s="34"/>
+      <c r="A305" s="31"/>
       <c r="B305" s="20" t="s">
         <v>491</v>
       </c>
@@ -29390,7 +29466,7 @@
       <c r="F305" s="2"/>
     </row>
     <row r="306" spans="1:6" customFormat="1">
-      <c r="A306" s="34"/>
+      <c r="A306" s="31"/>
       <c r="B306" s="20">
         <v>11.2</v>
       </c>
@@ -29404,7 +29480,7 @@
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6" customFormat="1">
-      <c r="A307" s="34"/>
+      <c r="A307" s="31"/>
       <c r="B307" s="20">
         <v>11.3</v>
       </c>
@@ -29418,7 +29494,7 @@
       <c r="F307" s="2"/>
     </row>
     <row r="308" spans="1:6" customFormat="1">
-      <c r="A308" s="34"/>
+      <c r="A308" s="31"/>
       <c r="B308" s="20">
         <v>11.4</v>
       </c>
@@ -29432,7 +29508,7 @@
       <c r="F308" s="2"/>
     </row>
     <row r="309" spans="1:6" customFormat="1">
-      <c r="A309" s="34"/>
+      <c r="A309" s="31"/>
       <c r="B309" s="20" t="s">
         <v>492</v>
       </c>
@@ -29446,7 +29522,7 @@
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6" customFormat="1">
-      <c r="A310" s="34" t="s">
+      <c r="A310" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="B310" s="20">
@@ -29462,7 +29538,7 @@
       <c r="F310" s="2"/>
     </row>
     <row r="311" spans="1:6" customFormat="1">
-      <c r="A311" s="34"/>
+      <c r="A311" s="31"/>
       <c r="B311" s="20" t="s">
         <v>493</v>
       </c>
@@ -29476,7 +29552,7 @@
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6" customFormat="1">
-      <c r="A312" s="34"/>
+      <c r="A312" s="31"/>
       <c r="B312" s="20" t="s">
         <v>494</v>
       </c>
@@ -29490,7 +29566,7 @@
       <c r="F312" s="2"/>
     </row>
     <row r="313" spans="1:6" customFormat="1">
-      <c r="A313" s="34"/>
+      <c r="A313" s="31"/>
       <c r="B313" s="20" t="s">
         <v>495</v>
       </c>
@@ -29504,7 +29580,7 @@
       <c r="F313" s="2"/>
     </row>
     <row r="314" spans="1:6" customFormat="1">
-      <c r="A314" s="34"/>
+      <c r="A314" s="31"/>
       <c r="B314" s="20">
         <v>12.2</v>
       </c>
@@ -29518,7 +29594,7 @@
       <c r="F314" s="2"/>
     </row>
     <row r="315" spans="1:6" customFormat="1">
-      <c r="A315" s="34"/>
+      <c r="A315" s="31"/>
       <c r="B315" s="20" t="s">
         <v>496</v>
       </c>
@@ -29532,7 +29608,7 @@
       <c r="F315" s="2"/>
     </row>
     <row r="316" spans="1:6" customFormat="1">
-      <c r="A316" s="34"/>
+      <c r="A316" s="31"/>
       <c r="B316" s="20" t="s">
         <v>497</v>
       </c>
@@ -29546,7 +29622,7 @@
       <c r="F316" s="2"/>
     </row>
     <row r="317" spans="1:6" customFormat="1">
-      <c r="A317" s="34"/>
+      <c r="A317" s="31"/>
       <c r="B317" s="20">
         <v>12.3</v>
       </c>
@@ -29560,7 +29636,7 @@
       <c r="F317" s="2"/>
     </row>
     <row r="318" spans="1:6" customFormat="1">
-      <c r="A318" s="34"/>
+      <c r="A318" s="31"/>
       <c r="B318" s="20" t="s">
         <v>498</v>
       </c>
@@ -29574,7 +29650,7 @@
       <c r="F318" s="2"/>
     </row>
     <row r="319" spans="1:6" customFormat="1">
-      <c r="A319" s="34"/>
+      <c r="A319" s="31"/>
       <c r="B319" s="20" t="s">
         <v>499</v>
       </c>
@@ -29588,7 +29664,7 @@
       <c r="F319" s="2"/>
     </row>
     <row r="320" spans="1:6" customFormat="1">
-      <c r="A320" s="34"/>
+      <c r="A320" s="31"/>
       <c r="B320" s="20" t="s">
         <v>500</v>
       </c>
@@ -29602,7 +29678,7 @@
       <c r="F320" s="2"/>
     </row>
     <row r="321" spans="1:6" customFormat="1">
-      <c r="A321" s="34"/>
+      <c r="A321" s="31"/>
       <c r="B321" s="20" t="s">
         <v>501</v>
       </c>
@@ -29616,7 +29692,7 @@
       <c r="F321" s="2"/>
     </row>
     <row r="322" spans="1:6" customFormat="1">
-      <c r="A322" s="34"/>
+      <c r="A322" s="31"/>
       <c r="B322" s="20" t="s">
         <v>502</v>
       </c>
@@ -29630,7 +29706,7 @@
       <c r="F322" s="2"/>
     </row>
     <row r="323" spans="1:6" customFormat="1">
-      <c r="A323" s="34"/>
+      <c r="A323" s="31"/>
       <c r="B323" s="20">
         <v>12.4</v>
       </c>
@@ -29644,7 +29720,7 @@
       <c r="F323" s="2"/>
     </row>
     <row r="324" spans="1:6" customFormat="1">
-      <c r="A324" s="34"/>
+      <c r="A324" s="31"/>
       <c r="B324" s="20" t="s">
         <v>503</v>
       </c>
@@ -29658,7 +29734,7 @@
       <c r="F324" s="2"/>
     </row>
     <row r="325" spans="1:6" customFormat="1">
-      <c r="A325" s="34"/>
+      <c r="A325" s="31"/>
       <c r="B325" s="20" t="s">
         <v>504</v>
       </c>
@@ -29672,7 +29748,7 @@
       <c r="F325" s="2"/>
     </row>
     <row r="326" spans="1:6" customFormat="1">
-      <c r="A326" s="34"/>
+      <c r="A326" s="31"/>
       <c r="B326" s="20" t="s">
         <v>505</v>
       </c>
@@ -29686,7 +29762,7 @@
       <c r="F326" s="2"/>
     </row>
     <row r="327" spans="1:6" customFormat="1">
-      <c r="A327" s="34"/>
+      <c r="A327" s="31"/>
       <c r="B327" s="20" t="s">
         <v>506</v>
       </c>
@@ -29700,7 +29776,7 @@
       <c r="F327" s="2"/>
     </row>
     <row r="328" spans="1:6" customFormat="1">
-      <c r="A328" s="34"/>
+      <c r="A328" s="31"/>
       <c r="B328" s="20" t="s">
         <v>507</v>
       </c>
@@ -29714,7 +29790,7 @@
       <c r="F328" s="2"/>
     </row>
     <row r="329" spans="1:6" customFormat="1">
-      <c r="A329" s="34"/>
+      <c r="A329" s="31"/>
       <c r="B329" s="20">
         <v>12.5</v>
       </c>
@@ -29728,7 +29804,7 @@
       <c r="F329" s="2"/>
     </row>
     <row r="330" spans="1:6" customFormat="1">
-      <c r="A330" s="34"/>
+      <c r="A330" s="31"/>
       <c r="B330" s="20" t="s">
         <v>508</v>
       </c>
@@ -29742,7 +29818,7 @@
       <c r="F330" s="2"/>
     </row>
     <row r="331" spans="1:6" customFormat="1">
-      <c r="A331" s="34"/>
+      <c r="A331" s="31"/>
       <c r="B331" s="20" t="s">
         <v>509</v>
       </c>
@@ -29756,7 +29832,7 @@
       <c r="F331" s="2"/>
     </row>
     <row r="332" spans="1:6" customFormat="1">
-      <c r="A332" s="34"/>
+      <c r="A332" s="31"/>
       <c r="B332" s="20" t="s">
         <v>510</v>
       </c>
@@ -29770,7 +29846,7 @@
       <c r="F332" s="2"/>
     </row>
     <row r="333" spans="1:6" customFormat="1">
-      <c r="A333" s="34"/>
+      <c r="A333" s="31"/>
       <c r="B333" s="20" t="s">
         <v>511</v>
       </c>
@@ -29784,7 +29860,7 @@
       <c r="F333" s="2"/>
     </row>
     <row r="334" spans="1:6" customFormat="1">
-      <c r="A334" s="34"/>
+      <c r="A334" s="31"/>
       <c r="B334" s="20" t="s">
         <v>512</v>
       </c>
@@ -29798,7 +29874,7 @@
       <c r="F334" s="2"/>
     </row>
     <row r="335" spans="1:6" customFormat="1">
-      <c r="A335" s="34"/>
+      <c r="A335" s="31"/>
       <c r="B335" s="20" t="s">
         <v>513</v>
       </c>
@@ -29812,7 +29888,7 @@
       <c r="F335" s="2"/>
     </row>
     <row r="336" spans="1:6" customFormat="1">
-      <c r="A336" s="34"/>
+      <c r="A336" s="31"/>
       <c r="B336" s="20" t="s">
         <v>514</v>
       </c>
@@ -29826,7 +29902,7 @@
       <c r="F336" s="2"/>
     </row>
     <row r="337" spans="1:6" customFormat="1">
-      <c r="A337" s="34"/>
+      <c r="A337" s="31"/>
       <c r="B337" s="20" t="s">
         <v>515</v>
       </c>
@@ -29840,7 +29916,7 @@
       <c r="F337" s="2"/>
     </row>
     <row r="338" spans="1:6" customFormat="1">
-      <c r="A338" s="34"/>
+      <c r="A338" s="31"/>
       <c r="B338" s="20">
         <v>12.6</v>
       </c>
@@ -29854,7 +29930,7 @@
       <c r="F338" s="2"/>
     </row>
     <row r="339" spans="1:6" customFormat="1">
-      <c r="A339" s="34"/>
+      <c r="A339" s="31"/>
       <c r="B339" s="20" t="s">
         <v>516</v>
       </c>
@@ -29868,7 +29944,7 @@
       <c r="F339" s="2"/>
     </row>
     <row r="340" spans="1:6" customFormat="1">
-      <c r="A340" s="34"/>
+      <c r="A340" s="31"/>
       <c r="B340" s="20" t="s">
         <v>517</v>
       </c>
@@ -29882,7 +29958,7 @@
       <c r="F340" s="2"/>
     </row>
     <row r="341" spans="1:6" customFormat="1">
-      <c r="A341" s="34"/>
+      <c r="A341" s="31"/>
       <c r="B341" s="20" t="s">
         <v>518</v>
       </c>
@@ -29896,7 +29972,7 @@
       <c r="F341" s="2"/>
     </row>
     <row r="342" spans="1:6" customFormat="1">
-      <c r="A342" s="34"/>
+      <c r="A342" s="31"/>
       <c r="B342" s="20" t="s">
         <v>519</v>
       </c>
@@ -29910,7 +29986,7 @@
       <c r="F342" s="2"/>
     </row>
     <row r="343" spans="1:6" customFormat="1">
-      <c r="A343" s="34"/>
+      <c r="A343" s="31"/>
       <c r="B343" s="20" t="s">
         <v>520</v>
       </c>
@@ -29924,7 +30000,7 @@
       <c r="F343" s="2"/>
     </row>
     <row r="344" spans="1:6" customFormat="1">
-      <c r="A344" s="34"/>
+      <c r="A344" s="31"/>
       <c r="B344" s="20">
         <v>12.7</v>
       </c>
@@ -29938,7 +30014,7 @@
       <c r="F344" s="2"/>
     </row>
     <row r="345" spans="1:6" customFormat="1">
-      <c r="A345" s="34"/>
+      <c r="A345" s="31"/>
       <c r="B345" s="20" t="s">
         <v>521</v>
       </c>
@@ -29952,7 +30028,7 @@
       <c r="F345" s="2"/>
     </row>
     <row r="346" spans="1:6" customFormat="1">
-      <c r="A346" s="34"/>
+      <c r="A346" s="31"/>
       <c r="B346" s="20" t="s">
         <v>522</v>
       </c>
@@ -29966,7 +30042,7 @@
       <c r="F346" s="2"/>
     </row>
     <row r="347" spans="1:6" customFormat="1">
-      <c r="A347" s="34"/>
+      <c r="A347" s="31"/>
       <c r="B347" s="20" t="s">
         <v>523</v>
       </c>
@@ -29980,7 +30056,7 @@
       <c r="F347" s="2"/>
     </row>
     <row r="348" spans="1:6" customFormat="1">
-      <c r="A348" s="34"/>
+      <c r="A348" s="31"/>
       <c r="B348" s="20" t="s">
         <v>524</v>
       </c>
@@ -29994,7 +30070,7 @@
       <c r="F348" s="2"/>
     </row>
     <row r="349" spans="1:6" customFormat="1">
-      <c r="A349" s="34"/>
+      <c r="A349" s="31"/>
       <c r="B349" s="20" t="s">
         <v>525</v>
       </c>
@@ -30008,7 +30084,7 @@
       <c r="F349" s="2"/>
     </row>
     <row r="350" spans="1:6" customFormat="1">
-      <c r="A350" s="34"/>
+      <c r="A350" s="31"/>
       <c r="B350" s="20">
         <v>12.8</v>
       </c>
@@ -30022,7 +30098,7 @@
       <c r="F350" s="2"/>
     </row>
     <row r="351" spans="1:6" customFormat="1">
-      <c r="A351" s="34"/>
+      <c r="A351" s="31"/>
       <c r="B351" s="20" t="s">
         <v>526</v>
       </c>
@@ -30036,7 +30112,7 @@
       <c r="F351" s="2"/>
     </row>
     <row r="352" spans="1:6" customFormat="1">
-      <c r="A352" s="34"/>
+      <c r="A352" s="31"/>
       <c r="B352" s="20" t="s">
         <v>527</v>
       </c>
@@ -30050,7 +30126,7 @@
       <c r="F352" s="2"/>
     </row>
     <row r="353" spans="1:6" customFormat="1">
-      <c r="A353" s="34" t="s">
+      <c r="A353" s="31" t="s">
         <v>1019</v>
       </c>
       <c r="B353" s="20">
@@ -30066,7 +30142,7 @@
       <c r="F353" s="2"/>
     </row>
     <row r="354" spans="1:6" customFormat="1">
-      <c r="A354" s="34"/>
+      <c r="A354" s="31"/>
       <c r="B354" s="20" t="s">
         <v>528</v>
       </c>
@@ -30080,7 +30156,7 @@
       <c r="F354" s="2"/>
     </row>
     <row r="355" spans="1:6" customFormat="1">
-      <c r="A355" s="34"/>
+      <c r="A355" s="31"/>
       <c r="B355" s="20" t="s">
         <v>529</v>
       </c>
@@ -30094,7 +30170,7 @@
       <c r="F355" s="2"/>
     </row>
     <row r="356" spans="1:6" customFormat="1">
-      <c r="A356" s="34"/>
+      <c r="A356" s="31"/>
       <c r="B356" s="20" t="s">
         <v>530</v>
       </c>
@@ -30108,7 +30184,7 @@
       <c r="F356" s="2"/>
     </row>
     <row r="357" spans="1:6" customFormat="1">
-      <c r="A357" s="34"/>
+      <c r="A357" s="31"/>
       <c r="B357" s="20" t="s">
         <v>531</v>
       </c>
@@ -30122,7 +30198,7 @@
       <c r="F357" s="2"/>
     </row>
     <row r="358" spans="1:6" customFormat="1">
-      <c r="A358" s="34"/>
+      <c r="A358" s="31"/>
       <c r="B358" s="20" t="s">
         <v>532</v>
       </c>
@@ -30136,7 +30212,7 @@
       <c r="F358" s="2"/>
     </row>
     <row r="359" spans="1:6" customFormat="1">
-      <c r="A359" s="34"/>
+      <c r="A359" s="31"/>
       <c r="B359" s="20">
         <v>13.2</v>
       </c>
@@ -30150,7 +30226,7 @@
       <c r="F359" s="2"/>
     </row>
     <row r="360" spans="1:6" customFormat="1">
-      <c r="A360" s="34"/>
+      <c r="A360" s="31"/>
       <c r="B360" s="20" t="s">
         <v>533</v>
       </c>
@@ -30164,7 +30240,7 @@
       <c r="F360" s="2"/>
     </row>
     <row r="361" spans="1:6" customFormat="1">
-      <c r="A361" s="34"/>
+      <c r="A361" s="31"/>
       <c r="B361" s="20" t="s">
         <v>534</v>
       </c>
@@ -30178,7 +30254,7 @@
       <c r="F361" s="2"/>
     </row>
     <row r="362" spans="1:6" customFormat="1">
-      <c r="A362" s="34"/>
+      <c r="A362" s="31"/>
       <c r="B362" s="20">
         <v>13.3</v>
       </c>
@@ -30192,7 +30268,7 @@
       <c r="F362" s="2"/>
     </row>
     <row r="363" spans="1:6" customFormat="1">
-      <c r="A363" s="34"/>
+      <c r="A363" s="31"/>
       <c r="B363" s="20">
         <v>13.4</v>
       </c>
@@ -30206,7 +30282,7 @@
       <c r="F363" s="2"/>
     </row>
     <row r="364" spans="1:6" customFormat="1">
-      <c r="A364" s="34"/>
+      <c r="A364" s="31"/>
       <c r="B364" s="20" t="s">
         <v>535</v>
       </c>
@@ -30220,7 +30296,7 @@
       <c r="F364" s="2"/>
     </row>
     <row r="365" spans="1:6" customFormat="1">
-      <c r="A365" s="34"/>
+      <c r="A365" s="31"/>
       <c r="B365" s="20" t="s">
         <v>536</v>
       </c>
@@ -30234,7 +30310,7 @@
       <c r="F365" s="2"/>
     </row>
     <row r="366" spans="1:6" customFormat="1">
-      <c r="A366" s="34"/>
+      <c r="A366" s="31"/>
       <c r="B366" s="20" t="s">
         <v>537</v>
       </c>
@@ -30248,7 +30324,7 @@
       <c r="F366" s="2"/>
     </row>
     <row r="367" spans="1:6" customFormat="1">
-      <c r="A367" s="34"/>
+      <c r="A367" s="31"/>
       <c r="B367" s="20" t="s">
         <v>538</v>
       </c>
@@ -30262,7 +30338,7 @@
       <c r="F367" s="2"/>
     </row>
     <row r="368" spans="1:6" customFormat="1">
-      <c r="A368" s="34"/>
+      <c r="A368" s="31"/>
       <c r="B368" s="20" t="s">
         <v>539</v>
       </c>
@@ -30276,7 +30352,7 @@
       <c r="F368" s="2"/>
     </row>
     <row r="369" spans="1:6" customFormat="1">
-      <c r="A369" s="34"/>
+      <c r="A369" s="31"/>
       <c r="B369" s="20" t="s">
         <v>540</v>
       </c>
@@ -30290,7 +30366,7 @@
       <c r="F369" s="2"/>
     </row>
     <row r="370" spans="1:6" customFormat="1">
-      <c r="A370" s="34"/>
+      <c r="A370" s="31"/>
       <c r="B370" s="20" t="s">
         <v>541</v>
       </c>
@@ -30304,7 +30380,7 @@
       <c r="F370" s="2"/>
     </row>
     <row r="371" spans="1:6" customFormat="1">
-      <c r="A371" s="34"/>
+      <c r="A371" s="31"/>
       <c r="B371" s="20" t="s">
         <v>542</v>
       </c>
@@ -30318,7 +30394,7 @@
       <c r="F371" s="2"/>
     </row>
     <row r="372" spans="1:6" customFormat="1">
-      <c r="A372" s="34"/>
+      <c r="A372" s="31"/>
       <c r="B372" s="20" t="s">
         <v>543</v>
       </c>
@@ -30332,7 +30408,7 @@
       <c r="F372" s="2"/>
     </row>
     <row r="373" spans="1:6" customFormat="1">
-      <c r="A373" s="34"/>
+      <c r="A373" s="31"/>
       <c r="B373" s="20">
         <v>13.5</v>
       </c>
@@ -30346,7 +30422,7 @@
       <c r="F373" s="2"/>
     </row>
     <row r="374" spans="1:6" customFormat="1">
-      <c r="A374" s="34"/>
+      <c r="A374" s="31"/>
       <c r="B374" s="20" t="s">
         <v>544</v>
       </c>
@@ -30360,7 +30436,7 @@
       <c r="F374" s="2"/>
     </row>
     <row r="375" spans="1:6" customFormat="1">
-      <c r="A375" s="34"/>
+      <c r="A375" s="31"/>
       <c r="B375" s="20" t="s">
         <v>545</v>
       </c>
@@ -30374,7 +30450,7 @@
       <c r="F375" s="2"/>
     </row>
     <row r="376" spans="1:6" customFormat="1">
-      <c r="A376" s="31" t="s">
+      <c r="A376" s="32" t="s">
         <v>1018</v>
       </c>
       <c r="B376" s="20">
@@ -30390,7 +30466,7 @@
       <c r="F376" s="2"/>
     </row>
     <row r="377" spans="1:6" customFormat="1">
-      <c r="A377" s="32"/>
+      <c r="A377" s="33"/>
       <c r="B377" s="20" t="s">
         <v>546</v>
       </c>
@@ -30404,7 +30480,7 @@
       <c r="F377" s="2"/>
     </row>
     <row r="378" spans="1:6" customFormat="1">
-      <c r="A378" s="32"/>
+      <c r="A378" s="33"/>
       <c r="B378" s="20">
         <v>14.2</v>
       </c>
@@ -30418,7 +30494,7 @@
       <c r="F378" s="2"/>
     </row>
     <row r="379" spans="1:6" customFormat="1">
-      <c r="A379" s="32"/>
+      <c r="A379" s="33"/>
       <c r="B379" s="20">
         <v>14.3</v>
       </c>
@@ -30432,7 +30508,7 @@
       <c r="F379" s="2"/>
     </row>
     <row r="380" spans="1:6" customFormat="1">
-      <c r="A380" s="32"/>
+      <c r="A380" s="33"/>
       <c r="B380" s="20" t="s">
         <v>547</v>
       </c>
@@ -30446,7 +30522,7 @@
       <c r="F380" s="2"/>
     </row>
     <row r="381" spans="1:6" customFormat="1">
-      <c r="A381" s="32"/>
+      <c r="A381" s="33"/>
       <c r="B381" s="20" t="s">
         <v>548</v>
       </c>
@@ -30460,7 +30536,7 @@
       <c r="F381" s="2"/>
     </row>
     <row r="382" spans="1:6" customFormat="1">
-      <c r="A382" s="32"/>
+      <c r="A382" s="33"/>
       <c r="B382" s="20" t="s">
         <v>549</v>
       </c>
@@ -30474,7 +30550,7 @@
       <c r="F382" s="2"/>
     </row>
     <row r="383" spans="1:6" customFormat="1">
-      <c r="A383" s="32"/>
+      <c r="A383" s="33"/>
       <c r="B383" s="20" t="s">
         <v>550</v>
       </c>
@@ -30488,7 +30564,7 @@
       <c r="F383" s="2"/>
     </row>
     <row r="384" spans="1:6" customFormat="1">
-      <c r="A384" s="32"/>
+      <c r="A384" s="33"/>
       <c r="B384" s="20">
         <v>14.4</v>
       </c>
@@ -30502,7 +30578,7 @@
       <c r="F384" s="2"/>
     </row>
     <row r="385" spans="1:6" customFormat="1">
-      <c r="A385" s="32"/>
+      <c r="A385" s="33"/>
       <c r="B385" s="20" t="s">
         <v>551</v>
       </c>
@@ -30516,7 +30592,7 @@
       <c r="F385" s="2"/>
     </row>
     <row r="386" spans="1:6" customFormat="1">
-      <c r="A386" s="32"/>
+      <c r="A386" s="33"/>
       <c r="B386" s="20" t="s">
         <v>552</v>
       </c>
@@ -30530,7 +30606,7 @@
       <c r="F386" s="2"/>
     </row>
     <row r="387" spans="1:6" customFormat="1">
-      <c r="A387" s="32"/>
+      <c r="A387" s="33"/>
       <c r="B387" s="20" t="s">
         <v>553</v>
       </c>
@@ -30544,7 +30620,7 @@
       <c r="F387" s="2"/>
     </row>
     <row r="388" spans="1:6" customFormat="1">
-      <c r="A388" s="32"/>
+      <c r="A388" s="33"/>
       <c r="B388" s="20">
         <v>14.5</v>
       </c>
@@ -30558,7 +30634,7 @@
       <c r="F388" s="2"/>
     </row>
     <row r="389" spans="1:6" customFormat="1">
-      <c r="A389" s="32"/>
+      <c r="A389" s="33"/>
       <c r="B389" s="20" t="s">
         <v>554</v>
       </c>
@@ -30572,7 +30648,7 @@
       <c r="F389" s="2"/>
     </row>
     <row r="390" spans="1:6" customFormat="1">
-      <c r="A390" s="32"/>
+      <c r="A390" s="33"/>
       <c r="B390" s="20" t="s">
         <v>555</v>
       </c>
@@ -30586,7 +30662,7 @@
       <c r="F390" s="2"/>
     </row>
     <row r="391" spans="1:6" customFormat="1">
-      <c r="A391" s="32"/>
+      <c r="A391" s="33"/>
       <c r="B391" s="20" t="s">
         <v>556</v>
       </c>
@@ -30600,7 +30676,7 @@
       <c r="F391" s="2"/>
     </row>
     <row r="392" spans="1:6" customFormat="1">
-      <c r="A392" s="32"/>
+      <c r="A392" s="33"/>
       <c r="B392" s="20" t="s">
         <v>557</v>
       </c>
@@ -30614,7 +30690,7 @@
       <c r="F392" s="2"/>
     </row>
     <row r="393" spans="1:6" customFormat="1">
-      <c r="A393" s="32"/>
+      <c r="A393" s="33"/>
       <c r="B393" s="20" t="s">
         <v>558</v>
       </c>
@@ -30628,7 +30704,7 @@
       <c r="F393" s="2"/>
     </row>
     <row r="394" spans="1:6" customFormat="1">
-      <c r="A394" s="32"/>
+      <c r="A394" s="33"/>
       <c r="B394" s="20" t="s">
         <v>559</v>
       </c>
@@ -30642,7 +30718,7 @@
       <c r="F394" s="2"/>
     </row>
     <row r="395" spans="1:6" customFormat="1">
-      <c r="A395" s="32"/>
+      <c r="A395" s="33"/>
       <c r="B395" s="20" t="s">
         <v>560</v>
       </c>
@@ -30656,7 +30732,7 @@
       <c r="F395" s="2"/>
     </row>
     <row r="396" spans="1:6" customFormat="1">
-      <c r="A396" s="32"/>
+      <c r="A396" s="33"/>
       <c r="B396" s="20" t="s">
         <v>561</v>
       </c>
@@ -30670,7 +30746,7 @@
       <c r="F396" s="2"/>
     </row>
     <row r="397" spans="1:6" customFormat="1">
-      <c r="A397" s="32"/>
+      <c r="A397" s="33"/>
       <c r="B397" s="20" t="s">
         <v>562</v>
       </c>
@@ -30684,7 +30760,7 @@
       <c r="F397" s="2"/>
     </row>
     <row r="398" spans="1:6" customFormat="1">
-      <c r="A398" s="32"/>
+      <c r="A398" s="33"/>
       <c r="B398" s="20" t="s">
         <v>563</v>
       </c>
@@ -30698,7 +30774,7 @@
       <c r="F398" s="2"/>
     </row>
     <row r="399" spans="1:6" customFormat="1">
-      <c r="A399" s="32"/>
+      <c r="A399" s="33"/>
       <c r="B399" s="20" t="s">
         <v>564</v>
       </c>
@@ -30712,7 +30788,7 @@
       <c r="F399" s="2"/>
     </row>
     <row r="400" spans="1:6" customFormat="1">
-      <c r="A400" s="32"/>
+      <c r="A400" s="33"/>
       <c r="B400" s="20" t="s">
         <v>565</v>
       </c>
@@ -30726,7 +30802,7 @@
       <c r="F400" s="2"/>
     </row>
     <row r="401" spans="1:6" customFormat="1">
-      <c r="A401" s="32"/>
+      <c r="A401" s="33"/>
       <c r="B401" s="20" t="s">
         <v>566</v>
       </c>
@@ -30740,7 +30816,7 @@
       <c r="F401" s="2"/>
     </row>
     <row r="402" spans="1:6" customFormat="1">
-      <c r="A402" s="32"/>
+      <c r="A402" s="33"/>
       <c r="B402" s="20" t="s">
         <v>567</v>
       </c>
@@ -30754,7 +30830,7 @@
       <c r="F402" s="2"/>
     </row>
     <row r="403" spans="1:6" customFormat="1">
-      <c r="A403" s="32"/>
+      <c r="A403" s="33"/>
       <c r="B403" s="20" t="s">
         <v>568</v>
       </c>
@@ -30768,7 +30844,7 @@
       <c r="F403" s="2"/>
     </row>
     <row r="404" spans="1:6" customFormat="1">
-      <c r="A404" s="32"/>
+      <c r="A404" s="33"/>
       <c r="B404" s="20">
         <v>14.6</v>
       </c>
@@ -30782,7 +30858,7 @@
       <c r="F404" s="2"/>
     </row>
     <row r="405" spans="1:6" customFormat="1">
-      <c r="A405" s="32"/>
+      <c r="A405" s="33"/>
       <c r="B405" s="20">
         <v>14.7</v>
       </c>
@@ -30796,7 +30872,7 @@
       <c r="F405" s="2"/>
     </row>
     <row r="406" spans="1:6" customFormat="1">
-      <c r="A406" s="32"/>
+      <c r="A406" s="33"/>
       <c r="B406" s="20" t="s">
         <v>569</v>
       </c>
@@ -30810,7 +30886,7 @@
       <c r="F406" s="2"/>
     </row>
     <row r="407" spans="1:6" customFormat="1">
-      <c r="A407" s="32"/>
+      <c r="A407" s="33"/>
       <c r="B407" s="20" t="s">
         <v>570</v>
       </c>
@@ -30824,7 +30900,7 @@
       <c r="F407" s="2"/>
     </row>
     <row r="408" spans="1:6" customFormat="1">
-      <c r="A408" s="32"/>
+      <c r="A408" s="33"/>
       <c r="B408" s="20" t="s">
         <v>571</v>
       </c>
@@ -30838,7 +30914,7 @@
       <c r="F408" s="2"/>
     </row>
     <row r="409" spans="1:6" customFormat="1">
-      <c r="A409" s="32"/>
+      <c r="A409" s="33"/>
       <c r="B409" s="20" t="s">
         <v>572</v>
       </c>
@@ -30852,7 +30928,7 @@
       <c r="F409" s="2"/>
     </row>
     <row r="410" spans="1:6" customFormat="1">
-      <c r="A410" s="32"/>
+      <c r="A410" s="33"/>
       <c r="B410" s="20" t="s">
         <v>573</v>
       </c>
@@ -30866,7 +30942,7 @@
       <c r="F410" s="2"/>
     </row>
     <row r="411" spans="1:6" customFormat="1">
-      <c r="A411" s="32"/>
+      <c r="A411" s="33"/>
       <c r="B411" s="20" t="s">
         <v>574</v>
       </c>
@@ -30880,7 +30956,7 @@
       <c r="F411" s="2"/>
     </row>
     <row r="412" spans="1:6" customFormat="1">
-      <c r="A412" s="32"/>
+      <c r="A412" s="33"/>
       <c r="B412" s="20" t="s">
         <v>575</v>
       </c>
@@ -30894,7 +30970,7 @@
       <c r="F412" s="2"/>
     </row>
     <row r="413" spans="1:6" customFormat="1">
-      <c r="A413" s="32"/>
+      <c r="A413" s="33"/>
       <c r="B413" s="20">
         <v>14.8</v>
       </c>
@@ -30908,7 +30984,7 @@
       <c r="F413" s="2"/>
     </row>
     <row r="414" spans="1:6" customFormat="1">
-      <c r="A414" s="32"/>
+      <c r="A414" s="33"/>
       <c r="B414" s="20">
         <v>14.9</v>
       </c>
@@ -30922,7 +30998,7 @@
       <c r="F414" s="2"/>
     </row>
     <row r="415" spans="1:6" customFormat="1">
-      <c r="A415" s="32"/>
+      <c r="A415" s="33"/>
       <c r="B415" s="20" t="s">
         <v>576</v>
       </c>
@@ -30936,7 +31012,7 @@
       <c r="F415" s="2"/>
     </row>
     <row r="416" spans="1:6" customFormat="1">
-      <c r="A416" s="32"/>
+      <c r="A416" s="33"/>
       <c r="B416" s="20" t="s">
         <v>577</v>
       </c>
@@ -30950,7 +31026,7 @@
       <c r="F416" s="2"/>
     </row>
     <row r="417" spans="1:6" customFormat="1">
-      <c r="A417" s="32"/>
+      <c r="A417" s="33"/>
       <c r="B417" s="20" t="s">
         <v>578</v>
       </c>
@@ -30964,7 +31040,7 @@
       <c r="F417" s="2"/>
     </row>
     <row r="418" spans="1:6" customFormat="1">
-      <c r="A418" s="32"/>
+      <c r="A418" s="33"/>
       <c r="B418" s="20" t="s">
         <v>579</v>
       </c>
@@ -30978,7 +31054,7 @@
       <c r="F418" s="2"/>
     </row>
     <row r="419" spans="1:6" customFormat="1">
-      <c r="A419" s="32"/>
+      <c r="A419" s="33"/>
       <c r="B419" s="20" t="s">
         <v>580</v>
       </c>
@@ -30992,7 +31068,7 @@
       <c r="F419" s="2"/>
     </row>
     <row r="420" spans="1:6" customFormat="1">
-      <c r="A420" s="32"/>
+      <c r="A420" s="33"/>
       <c r="B420" s="20">
         <v>14.1</v>
       </c>
@@ -31006,7 +31082,7 @@
       <c r="F420" s="2"/>
     </row>
     <row r="421" spans="1:6" customFormat="1">
-      <c r="A421" s="32"/>
+      <c r="A421" s="33"/>
       <c r="B421" s="20" t="s">
         <v>581</v>
       </c>
@@ -31020,7 +31096,7 @@
       <c r="F421" s="2"/>
     </row>
     <row r="422" spans="1:6" customFormat="1">
-      <c r="A422" s="32"/>
+      <c r="A422" s="33"/>
       <c r="B422" s="20" t="s">
         <v>582</v>
       </c>
@@ -31034,7 +31110,7 @@
       <c r="F422" s="2"/>
     </row>
     <row r="423" spans="1:6" customFormat="1">
-      <c r="A423" s="32"/>
+      <c r="A423" s="33"/>
       <c r="B423" s="20" t="s">
         <v>583</v>
       </c>
@@ -31048,7 +31124,7 @@
       <c r="F423" s="2"/>
     </row>
     <row r="424" spans="1:6" customFormat="1">
-      <c r="A424" s="32"/>
+      <c r="A424" s="33"/>
       <c r="B424" s="20" t="s">
         <v>584</v>
       </c>
@@ -31062,7 +31138,7 @@
       <c r="F424" s="2"/>
     </row>
     <row r="425" spans="1:6" customFormat="1">
-      <c r="A425" s="32"/>
+      <c r="A425" s="33"/>
       <c r="B425" s="20" t="s">
         <v>585</v>
       </c>
@@ -31076,7 +31152,7 @@
       <c r="F425" s="2"/>
     </row>
     <row r="426" spans="1:6" customFormat="1">
-      <c r="A426" s="32"/>
+      <c r="A426" s="33"/>
       <c r="B426" s="20">
         <v>14.11</v>
       </c>
@@ -31090,7 +31166,7 @@
       <c r="F426" s="2"/>
     </row>
     <row r="427" spans="1:6" customFormat="1">
-      <c r="A427" s="32"/>
+      <c r="A427" s="33"/>
       <c r="B427" s="20" t="s">
         <v>586</v>
       </c>
@@ -31104,7 +31180,7 @@
       <c r="F427" s="2"/>
     </row>
     <row r="428" spans="1:6" customFormat="1">
-      <c r="A428" s="32"/>
+      <c r="A428" s="33"/>
       <c r="B428" s="20" t="s">
         <v>587</v>
       </c>
@@ -31118,7 +31194,7 @@
       <c r="F428" s="2"/>
     </row>
     <row r="429" spans="1:6" customFormat="1">
-      <c r="A429" s="33"/>
+      <c r="A429" s="34"/>
       <c r="B429" s="20" t="s">
         <v>588</v>
       </c>
@@ -31184,6 +31260,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A376:A429"/>
+    <mergeCell ref="A353:A375"/>
+    <mergeCell ref="A310:A352"/>
+    <mergeCell ref="A301:A309"/>
+    <mergeCell ref="A250:A290"/>
+    <mergeCell ref="A291:A300"/>
     <mergeCell ref="A77:A127"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A25"/>
@@ -31192,12 +31274,6 @@
     <mergeCell ref="A128:A157"/>
     <mergeCell ref="A190:A217"/>
     <mergeCell ref="A158:A189"/>
-    <mergeCell ref="A376:A429"/>
-    <mergeCell ref="A353:A375"/>
-    <mergeCell ref="A310:A352"/>
-    <mergeCell ref="A301:A309"/>
-    <mergeCell ref="A250:A290"/>
-    <mergeCell ref="A291:A300"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I4">
@@ -31304,7 +31380,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-15</v>
+        <v>截至2020-09-16</v>
       </c>
       <c r="G1" s="12"/>
     </row>

--- a/学习进度.xlsx
+++ b/学习进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laohangdeche/Library/Mobile Documents/com~apple~CloudDocs/个人/学习笔记/Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF1666B-D9EF-2D45-83B3-D19059D326C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790FAA06-AAC5-F644-9F04-DB32DF3C18A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="460" windowWidth="28300" windowHeight="16900" activeTab="2" xr2:uid="{C7784454-BD36-8040-9BFE-2AD014209B0B}"/>
+    <workbookView xWindow="220" yWindow="460" windowWidth="28300" windowHeight="16900" xr2:uid="{C7784454-BD36-8040-9BFE-2AD014209B0B}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2820" uniqueCount="2293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2836" uniqueCount="2293">
   <si>
     <t>01_Java语言发展史</t>
   </si>
@@ -3826,19 +3826,10 @@
     <t>04_OutputStreamWriter介绍&amp;代码实</t>
   </si>
   <si>
-    <t>05_InputStreamReader介绍&amp;代码实</t>
-  </si>
-  <si>
     <t>06_练习_转换文件编码</t>
   </si>
   <si>
     <t>01_序列化和反序列化的概述</t>
-  </si>
-  <si>
-    <t>02_对象的序列化流_ObjectOutputSt</t>
-  </si>
-  <si>
-    <t>03_对象的反序列化流_ObjectInputS</t>
   </si>
   <si>
     <t>04_transient关键字_瞬态关键字</t>
@@ -6949,6 +6940,18 @@
   </si>
   <si>
     <t>Spark_黑马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03_对象的反序列化流_ObjectInputStream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02_对象的序列化流_ObjectOutputStream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05_InputStreamReader介绍&amp;代码实</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7767,8 +7770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD3A9F5-E3B9-294E-94C4-D90EDC24648C}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -7783,22 +7786,22 @@
         <v>252</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>2280</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2282</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2283</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="F1" s="3" t="s">
         <v>2284</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>2285</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2286</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2287</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>2288</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7806,10 +7809,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>2289</v>
+        <v>2286</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>2290</v>
+        <v>2287</v>
       </c>
       <c r="D2" s="2">
         <f>Java_尚硅谷!G2</f>
@@ -7833,14 +7836,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>2289</v>
+        <v>2286</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>2291</v>
+        <v>2288</v>
       </c>
       <c r="D3" s="2">
         <f>Java_黑马!G2</f>
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="E3" s="2">
         <f>Java_黑马!G2+Java_黑马!G3</f>
@@ -7848,11 +7851,11 @@
       </c>
       <c r="F3" s="15">
         <f t="shared" ref="F3:F4" si="0">D3/E3</f>
-        <v>0.64884135472370763</v>
+        <v>0.67736185383244207</v>
       </c>
       <c r="G3" s="25">
         <f>MAX(Java_黑马!D2:D562)</f>
-        <v>44090</v>
+        <v>44091</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7860,10 +7863,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>2289</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>2292</v>
       </c>
       <c r="D4" s="2">
         <f>Spark_黑马!G2</f>
@@ -7974,7 +7977,7 @@
         <v>252</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>254</v>
@@ -7984,7 +7987,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-16</v>
+        <v>截至2020-09-17</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -7993,7 +7996,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1567</v>
+        <v>1564</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>256</v>
@@ -8014,7 +8017,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>256</v>
@@ -8035,7 +8038,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>256</v>
@@ -8056,7 +8059,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>256</v>
@@ -8070,7 +8073,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>256</v>
@@ -8085,7 +8088,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>256</v>
@@ -8100,7 +8103,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>256</v>
@@ -8114,7 +8117,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>256</v>
@@ -8129,7 +8132,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>256</v>
@@ -8143,7 +8146,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>256</v>
@@ -8157,7 +8160,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>256</v>
@@ -8171,7 +8174,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>256</v>
@@ -8185,7 +8188,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>256</v>
@@ -8199,7 +8202,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>256</v>
@@ -8213,7 +8216,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>256</v>
@@ -8227,7 +8230,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>256</v>
@@ -8241,7 +8244,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>256</v>
@@ -8255,7 +8258,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>256</v>
@@ -8269,7 +8272,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>256</v>
@@ -8283,7 +8286,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>256</v>
@@ -8297,7 +8300,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>256</v>
@@ -8311,7 +8314,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>256</v>
@@ -8325,7 +8328,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>256</v>
@@ -8339,7 +8342,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1590</v>
+        <v>1587</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>256</v>
@@ -8353,7 +8356,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>256</v>
@@ -8367,7 +8370,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>256</v>
@@ -8381,7 +8384,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>256</v>
@@ -8395,7 +8398,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>256</v>
@@ -8409,7 +8412,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1595</v>
+        <v>1592</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>256</v>
@@ -8423,7 +8426,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>256</v>
@@ -8437,7 +8440,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>1597</v>
+        <v>1594</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>256</v>
@@ -8451,7 +8454,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>1598</v>
+        <v>1595</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>256</v>
@@ -8465,7 +8468,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>256</v>
@@ -8479,7 +8482,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>256</v>
@@ -8493,7 +8496,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>256</v>
@@ -8507,7 +8510,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>256</v>
@@ -8521,7 +8524,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>256</v>
@@ -8535,7 +8538,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>256</v>
@@ -8549,7 +8552,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>256</v>
@@ -8563,7 +8566,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>256</v>
@@ -8577,7 +8580,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>256</v>
@@ -8591,7 +8594,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>1608</v>
+        <v>1605</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>256</v>
@@ -8605,7 +8608,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>256</v>
@@ -8619,7 +8622,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>256</v>
@@ -8633,7 +8636,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>256</v>
@@ -8647,7 +8650,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>256</v>
@@ -8661,7 +8664,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>256</v>
@@ -8675,7 +8678,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>256</v>
@@ -8689,7 +8692,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>1615</v>
+        <v>1612</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>256</v>
@@ -8703,7 +8706,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>1616</v>
+        <v>1613</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>256</v>
@@ -8717,7 +8720,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>1617</v>
+        <v>1614</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>256</v>
@@ -8731,7 +8734,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>1618</v>
+        <v>1615</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>256</v>
@@ -8745,7 +8748,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>256</v>
@@ -8759,7 +8762,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>256</v>
@@ -8773,7 +8776,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>1621</v>
+        <v>1618</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>256</v>
@@ -8787,7 +8790,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>256</v>
@@ -8801,7 +8804,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>256</v>
@@ -8815,7 +8818,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>1624</v>
+        <v>1621</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>256</v>
@@ -8829,7 +8832,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>256</v>
@@ -8843,7 +8846,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>256</v>
@@ -8857,7 +8860,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>1627</v>
+        <v>1624</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>256</v>
@@ -8871,7 +8874,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>256</v>
@@ -8885,7 +8888,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>1629</v>
+        <v>1626</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>256</v>
@@ -8899,7 +8902,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>1630</v>
+        <v>1627</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>256</v>
@@ -8913,7 +8916,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>256</v>
@@ -8927,7 +8930,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>256</v>
@@ -8941,7 +8944,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>256</v>
@@ -8955,7 +8958,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>256</v>
@@ -8969,7 +8972,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>256</v>
@@ -8983,7 +8986,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>256</v>
@@ -8997,7 +9000,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>256</v>
@@ -9011,7 +9014,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>256</v>
@@ -9025,7 +9028,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>256</v>
@@ -9039,7 +9042,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>256</v>
@@ -9053,7 +9056,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>1641</v>
+        <v>1638</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>256</v>
@@ -9067,7 +9070,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>1642</v>
+        <v>1639</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>256</v>
@@ -9081,7 +9084,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>1643</v>
+        <v>1640</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>256</v>
@@ -9095,7 +9098,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>1644</v>
+        <v>1641</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>256</v>
@@ -9109,7 +9112,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>256</v>
@@ -9123,7 +9126,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>256</v>
@@ -9137,7 +9140,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>256</v>
@@ -9151,7 +9154,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>256</v>
@@ -9165,7 +9168,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>256</v>
@@ -9179,7 +9182,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>256</v>
@@ -9193,7 +9196,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>256</v>
@@ -9207,7 +9210,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>256</v>
@@ -9221,7 +9224,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>256</v>
@@ -9235,7 +9238,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>256</v>
@@ -9249,7 +9252,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>1655</v>
+        <v>1652</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>256</v>
@@ -9263,7 +9266,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>1656</v>
+        <v>1653</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>256</v>
@@ -9277,7 +9280,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>1657</v>
+        <v>1654</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>256</v>
@@ -9291,7 +9294,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>1658</v>
+        <v>1655</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>256</v>
@@ -9305,7 +9308,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>256</v>
@@ -9319,7 +9322,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>256</v>
@@ -9333,7 +9336,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>1661</v>
+        <v>1658</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>256</v>
@@ -9347,7 +9350,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>1662</v>
+        <v>1659</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>256</v>
@@ -9361,7 +9364,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>1663</v>
+        <v>1660</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>256</v>
@@ -9375,7 +9378,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>1664</v>
+        <v>1661</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>256</v>
@@ -9389,7 +9392,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>256</v>
@@ -9403,7 +9406,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>256</v>
@@ -9417,7 +9420,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>256</v>
@@ -9431,7 +9434,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>256</v>
@@ -9445,7 +9448,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>256</v>
@@ -9459,7 +9462,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>256</v>
@@ -9473,7 +9476,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>256</v>
@@ -9487,7 +9490,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>256</v>
@@ -9501,7 +9504,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>256</v>
@@ -9515,7 +9518,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>256</v>
@@ -9529,7 +9532,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>256</v>
@@ -9543,7 +9546,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>256</v>
@@ -9557,7 +9560,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>256</v>
@@ -9571,7 +9574,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>256</v>
@@ -9585,7 +9588,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>256</v>
@@ -9599,7 +9602,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>256</v>
@@ -9613,7 +9616,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>256</v>
@@ -9627,7 +9630,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>256</v>
@@ -9641,7 +9644,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>256</v>
@@ -9656,7 +9659,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>256</v>
@@ -9671,7 +9674,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>256</v>
@@ -9686,7 +9689,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>256</v>
@@ -9701,7 +9704,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>256</v>
@@ -9716,7 +9719,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>256</v>
@@ -9731,7 +9734,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>256</v>
@@ -9746,7 +9749,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>256</v>
@@ -9761,7 +9764,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>256</v>
@@ -9776,7 +9779,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>256</v>
@@ -9791,7 +9794,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="25"/>
@@ -9802,7 +9805,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="25"/>
@@ -9813,7 +9816,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="25"/>
@@ -9824,7 +9827,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="25"/>
@@ -9834,7 +9837,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="25"/>
@@ -9844,7 +9847,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="25"/>
@@ -9854,7 +9857,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="25"/>
@@ -9864,7 +9867,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="25"/>
@@ -9874,7 +9877,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="25"/>
@@ -9884,7 +9887,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="25"/>
@@ -9894,7 +9897,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="25"/>
@@ -9904,7 +9907,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="25"/>
@@ -9914,7 +9917,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="25"/>
@@ -9924,7 +9927,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="25"/>
@@ -9934,7 +9937,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="25"/>
@@ -9944,7 +9947,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="25"/>
@@ -9954,7 +9957,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="25"/>
@@ -9964,7 +9967,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="25"/>
@@ -9974,7 +9977,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="25"/>
@@ -9984,7 +9987,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="25"/>
@@ -9994,7 +9997,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="25"/>
@@ -10004,7 +10007,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="25"/>
@@ -10014,7 +10017,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="25"/>
@@ -10024,7 +10027,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="25"/>
@@ -10034,7 +10037,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="25"/>
@@ -10044,7 +10047,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="25"/>
@@ -10054,7 +10057,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="25"/>
@@ -10064,7 +10067,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="25"/>
@@ -10074,7 +10077,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="25"/>
@@ -10084,7 +10087,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="25"/>
@@ -10094,7 +10097,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="25"/>
@@ -10104,7 +10107,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="25"/>
@@ -10114,7 +10117,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="25"/>
@@ -10124,7 +10127,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="25"/>
@@ -10134,7 +10137,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="25"/>
@@ -10144,7 +10147,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="25"/>
@@ -10154,7 +10157,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="25"/>
@@ -10164,7 +10167,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="25"/>
@@ -10174,7 +10177,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="25"/>
@@ -10184,7 +10187,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="25"/>
@@ -10194,7 +10197,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="25"/>
@@ -10204,7 +10207,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="25"/>
@@ -10214,7 +10217,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="25"/>
@@ -10224,7 +10227,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="25"/>
@@ -10234,7 +10237,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="25"/>
@@ -10244,7 +10247,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="25"/>
@@ -10254,7 +10257,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>1739</v>
+        <v>1736</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="25"/>
@@ -10264,7 +10267,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="25"/>
@@ -10274,7 +10277,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="25"/>
@@ -10284,7 +10287,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="25"/>
@@ -10294,7 +10297,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="25"/>
@@ -10304,7 +10307,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="25"/>
@@ -10314,7 +10317,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="25"/>
@@ -10324,7 +10327,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>1746</v>
+        <v>1743</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="25"/>
@@ -10334,7 +10337,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>1747</v>
+        <v>1744</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="25"/>
@@ -10344,7 +10347,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>1748</v>
+        <v>1745</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="25"/>
@@ -10354,7 +10357,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>1749</v>
+        <v>1746</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="25"/>
@@ -10364,7 +10367,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>1750</v>
+        <v>1747</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="25"/>
@@ -10374,7 +10377,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="25"/>
@@ -10384,7 +10387,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="25"/>
@@ -10394,7 +10397,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>1753</v>
+        <v>1750</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="25"/>
@@ -10404,7 +10407,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>1754</v>
+        <v>1751</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="25"/>
@@ -10414,7 +10417,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>1755</v>
+        <v>1752</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="25"/>
@@ -10424,7 +10427,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="25"/>
@@ -10434,7 +10437,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="25"/>
@@ -10444,7 +10447,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="25"/>
@@ -10454,7 +10457,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="25"/>
@@ -10464,7 +10467,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="25"/>
@@ -10474,7 +10477,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>1761</v>
+        <v>1758</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="25"/>
@@ -10484,7 +10487,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>1762</v>
+        <v>1759</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="25"/>
@@ -10494,7 +10497,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="25"/>
@@ -10504,7 +10507,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="25"/>
@@ -10514,7 +10517,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="25"/>
@@ -10524,7 +10527,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="25"/>
@@ -10534,7 +10537,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="25"/>
@@ -10544,7 +10547,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="25"/>
@@ -10554,7 +10557,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="25"/>
@@ -10564,7 +10567,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="25"/>
@@ -10574,7 +10577,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="25"/>
@@ -10584,7 +10587,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="25"/>
@@ -10594,7 +10597,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="25"/>
@@ -10604,7 +10607,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="25"/>
@@ -10614,7 +10617,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>1775</v>
+        <v>1772</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="25"/>
@@ -10624,7 +10627,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>1776</v>
+        <v>1773</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="25"/>
@@ -10634,7 +10637,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="25"/>
@@ -10644,7 +10647,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="25"/>
@@ -10654,7 +10657,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>1779</v>
+        <v>1776</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="25"/>
@@ -10664,7 +10667,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="25"/>
@@ -10674,7 +10677,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>1781</v>
+        <v>1778</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="25"/>
@@ -10684,7 +10687,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>1782</v>
+        <v>1779</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="25"/>
@@ -10694,7 +10697,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="25"/>
@@ -10704,7 +10707,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="25"/>
@@ -10714,7 +10717,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>1785</v>
+        <v>1782</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="25"/>
@@ -10724,7 +10727,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>1786</v>
+        <v>1783</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="25"/>
@@ -10734,7 +10737,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>1787</v>
+        <v>1784</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="25"/>
@@ -10744,7 +10747,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>1788</v>
+        <v>1785</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="25"/>
@@ -10754,7 +10757,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>1789</v>
+        <v>1786</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="25"/>
@@ -10764,7 +10767,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="25"/>
@@ -10774,7 +10777,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="25"/>
@@ -10784,7 +10787,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>1792</v>
+        <v>1789</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="25"/>
@@ -10794,7 +10797,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>1793</v>
+        <v>1790</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="25"/>
@@ -10804,7 +10807,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>1794</v>
+        <v>1791</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" s="25"/>
@@ -10814,7 +10817,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>1795</v>
+        <v>1792</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" s="25"/>
@@ -10824,7 +10827,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="25"/>
@@ -10834,7 +10837,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="25"/>
@@ -10844,7 +10847,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>1798</v>
+        <v>1795</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="25"/>
@@ -10854,7 +10857,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="25"/>
@@ -10864,7 +10867,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>1800</v>
+        <v>1797</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="25"/>
@@ -10874,7 +10877,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>1801</v>
+        <v>1798</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" s="25"/>
@@ -10884,7 +10887,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" s="25"/>
@@ -10894,7 +10897,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="25"/>
@@ -10904,7 +10907,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" s="25"/>
@@ -10914,7 +10917,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="25"/>
@@ -10924,7 +10927,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>1806</v>
+        <v>1803</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="25"/>
@@ -10934,7 +10937,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="25"/>
@@ -10944,7 +10947,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>1808</v>
+        <v>1805</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="25"/>
@@ -10954,7 +10957,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="25"/>
@@ -10964,7 +10967,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>1810</v>
+        <v>1807</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" s="25"/>
@@ -10974,7 +10977,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="25"/>
@@ -10984,7 +10987,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="25"/>
@@ -10994,7 +10997,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" s="25"/>
@@ -11004,7 +11007,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="25"/>
@@ -11014,7 +11017,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" s="25"/>
@@ -11024,7 +11027,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" s="25"/>
@@ -11034,7 +11037,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="25"/>
@@ -11044,7 +11047,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="25"/>
@@ -11054,7 +11057,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" s="25"/>
@@ -11064,7 +11067,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="25"/>
@@ -11074,7 +11077,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="25"/>
@@ -11084,7 +11087,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" s="25"/>
@@ -11094,7 +11097,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" s="25"/>
@@ -11104,7 +11107,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="25"/>
@@ -11114,7 +11117,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="25"/>
@@ -11124,7 +11127,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" s="25"/>
@@ -11134,7 +11137,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" s="25"/>
@@ -11144,7 +11147,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" s="25"/>
@@ -11154,7 +11157,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" s="25"/>
@@ -11164,7 +11167,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" s="25"/>
@@ -11174,7 +11177,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" s="25"/>
@@ -11184,7 +11187,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" s="25"/>
@@ -11194,7 +11197,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" s="25"/>
@@ -11204,7 +11207,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" s="25"/>
@@ -11214,7 +11217,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" s="25"/>
@@ -11224,7 +11227,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" s="25"/>
@@ -11234,7 +11237,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" s="25"/>
@@ -11244,7 +11247,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" s="25"/>
@@ -11254,7 +11257,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" s="25"/>
@@ -11264,7 +11267,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>1840</v>
+        <v>1837</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" s="25"/>
@@ -11274,7 +11277,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>1841</v>
+        <v>1838</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" s="25"/>
@@ -11284,7 +11287,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>1842</v>
+        <v>1839</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" s="25"/>
@@ -11294,7 +11297,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>1843</v>
+        <v>1840</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" s="25"/>
@@ -11304,7 +11307,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>1844</v>
+        <v>1841</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" s="25"/>
@@ -11314,7 +11317,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" s="25"/>
@@ -11324,7 +11327,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" s="25"/>
@@ -11334,7 +11337,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>1847</v>
+        <v>1844</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" s="25"/>
@@ -11344,7 +11347,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>1848</v>
+        <v>1845</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" s="25"/>
@@ -11354,7 +11357,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>1849</v>
+        <v>1846</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" s="25"/>
@@ -11364,7 +11367,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>1850</v>
+        <v>1847</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" s="25"/>
@@ -11374,7 +11377,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>1851</v>
+        <v>1848</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" s="25"/>
@@ -11384,7 +11387,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" s="25"/>
@@ -11394,7 +11397,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" s="25"/>
@@ -11404,7 +11407,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>1854</v>
+        <v>1851</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" s="25"/>
@@ -11414,7 +11417,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>1855</v>
+        <v>1852</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" s="25"/>
@@ -11424,7 +11427,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>1856</v>
+        <v>1853</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" s="25"/>
@@ -11434,7 +11437,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>1857</v>
+        <v>1854</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" s="25"/>
@@ -11444,7 +11447,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" s="25"/>
@@ -11454,7 +11457,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" s="25"/>
@@ -11464,7 +11467,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>1860</v>
+        <v>1857</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" s="25"/>
@@ -11474,7 +11477,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" s="25"/>
@@ -11484,7 +11487,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" s="25"/>
@@ -11494,7 +11497,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>1863</v>
+        <v>1860</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" s="25"/>
@@ -11504,7 +11507,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" s="25"/>
@@ -11514,7 +11517,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" s="25"/>
@@ -11524,7 +11527,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" s="25"/>
@@ -11534,7 +11537,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" s="25"/>
@@ -11544,7 +11547,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>1868</v>
+        <v>1865</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" s="25"/>
@@ -11554,7 +11557,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>1869</v>
+        <v>1866</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" s="25"/>
@@ -11564,7 +11567,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" s="25"/>
@@ -11574,7 +11577,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" s="25"/>
@@ -11584,7 +11587,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" s="25"/>
@@ -11594,7 +11597,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" s="25"/>
@@ -11604,7 +11607,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" s="25"/>
@@ -11614,7 +11617,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" s="25"/>
@@ -11624,7 +11627,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" s="25"/>
@@ -11634,7 +11637,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" s="25"/>
@@ -11644,7 +11647,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" s="25"/>
@@ -11654,7 +11657,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" s="25"/>
@@ -11664,7 +11667,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" s="25"/>
@@ -11674,7 +11677,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" s="25"/>
@@ -11684,7 +11687,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" s="25"/>
@@ -11694,7 +11697,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" s="25"/>
@@ -11704,7 +11707,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" s="25"/>
@@ -11714,7 +11717,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" s="25"/>
@@ -11724,7 +11727,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" s="25"/>
@@ -11734,7 +11737,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" s="25"/>
@@ -11744,7 +11747,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" s="25"/>
@@ -11754,7 +11757,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>1889</v>
+        <v>1886</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" s="25"/>
@@ -11764,7 +11767,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>1890</v>
+        <v>1887</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" s="25"/>
@@ -11774,7 +11777,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" s="25"/>
@@ -11784,7 +11787,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>1892</v>
+        <v>1889</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" s="25"/>
@@ -11794,7 +11797,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" s="25"/>
@@ -11804,7 +11807,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" s="25"/>
@@ -11814,7 +11817,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" s="25"/>
@@ -11824,7 +11827,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" s="25"/>
@@ -11834,7 +11837,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" s="25"/>
@@ -11844,7 +11847,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" s="25"/>
@@ -11854,7 +11857,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="C334" s="2"/>
       <c r="D334" s="25"/>
@@ -11864,7 +11867,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" s="25"/>
@@ -11874,7 +11877,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" s="25"/>
@@ -11884,7 +11887,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" s="25"/>
@@ -11894,7 +11897,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="C338" s="2"/>
       <c r="D338" s="25"/>
@@ -11904,7 +11907,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" s="25"/>
@@ -11914,7 +11917,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" s="25"/>
@@ -11924,7 +11927,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="C341" s="2"/>
       <c r="D341" s="25"/>
@@ -11934,7 +11937,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="C342" s="2"/>
       <c r="D342" s="25"/>
@@ -11944,7 +11947,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" s="25"/>
@@ -11954,7 +11957,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" s="25"/>
@@ -11964,7 +11967,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" s="25"/>
@@ -11974,7 +11977,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" s="25"/>
@@ -11984,7 +11987,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" s="25"/>
@@ -11994,7 +11997,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
       <c r="C348" s="2"/>
       <c r="D348" s="25"/>
@@ -12004,7 +12007,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="C349" s="2"/>
       <c r="D349" s="25"/>
@@ -12014,7 +12017,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" s="25"/>
@@ -12024,7 +12027,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" s="25"/>
@@ -12034,7 +12037,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
       <c r="C352" s="2"/>
       <c r="D352" s="25"/>
@@ -12044,7 +12047,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="C353" s="2"/>
       <c r="D353" s="25"/>
@@ -12054,7 +12057,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="C354" s="2"/>
       <c r="D354" s="25"/>
@@ -12064,7 +12067,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="C355" s="2"/>
       <c r="D355" s="25"/>
@@ -12074,7 +12077,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
       <c r="C356" s="2"/>
       <c r="D356" s="25"/>
@@ -12084,7 +12087,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" s="25"/>
@@ -12094,7 +12097,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="C358" s="2"/>
       <c r="D358" s="25"/>
@@ -12104,7 +12107,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" s="25"/>
@@ -12114,7 +12117,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
       <c r="C360" s="2"/>
       <c r="D360" s="25"/>
@@ -12124,7 +12127,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="C361" s="2"/>
       <c r="D361" s="25"/>
@@ -12134,7 +12137,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="C362" s="2"/>
       <c r="D362" s="25"/>
@@ -12144,7 +12147,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="C363" s="2"/>
       <c r="D363" s="25"/>
@@ -12154,7 +12157,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="C364" s="2"/>
       <c r="D364" s="25"/>
@@ -12164,7 +12167,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
       <c r="C365" s="2"/>
       <c r="D365" s="25"/>
@@ -12174,7 +12177,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="C366" s="2"/>
       <c r="D366" s="25"/>
@@ -12184,7 +12187,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="C367" s="2"/>
       <c r="D367" s="25"/>
@@ -12194,7 +12197,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="C368" s="2"/>
       <c r="D368" s="25"/>
@@ -12204,7 +12207,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="C369" s="2"/>
       <c r="D369" s="25"/>
@@ -12214,7 +12217,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
       <c r="C370" s="2"/>
       <c r="D370" s="25"/>
@@ -12224,7 +12227,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="C371" s="2"/>
       <c r="D371" s="25"/>
@@ -12234,7 +12237,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="C372" s="2"/>
       <c r="D372" s="25"/>
@@ -12244,7 +12247,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="C373" s="2"/>
       <c r="D373" s="25"/>
@@ -12254,7 +12257,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" s="25"/>
@@ -12264,7 +12267,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="25"/>
@@ -12274,7 +12277,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="C376" s="2"/>
       <c r="D376" s="25"/>
@@ -12284,7 +12287,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
       <c r="C377" s="2"/>
       <c r="D377" s="25"/>
@@ -12294,7 +12297,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
       <c r="C378" s="2"/>
       <c r="D378" s="25"/>
@@ -12304,7 +12307,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="25"/>
@@ -12314,7 +12317,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="C380" s="2"/>
       <c r="D380" s="25"/>
@@ -12324,7 +12327,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="C381" s="2"/>
       <c r="D381" s="25"/>
@@ -12334,7 +12337,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
       <c r="C382" s="2"/>
       <c r="D382" s="25"/>
@@ -12344,7 +12347,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
       <c r="C383" s="2"/>
       <c r="D383" s="25"/>
@@ -12354,7 +12357,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
       <c r="C384" s="2"/>
       <c r="D384" s="25"/>
@@ -12364,7 +12367,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="C385" s="2"/>
       <c r="D385" s="25"/>
@@ -12374,7 +12377,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
       <c r="C386" s="2"/>
       <c r="D386" s="25"/>
@@ -12384,7 +12387,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="C387" s="2"/>
       <c r="D387" s="25"/>
@@ -12394,7 +12397,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="C388" s="2"/>
       <c r="D388" s="25"/>
@@ -12404,7 +12407,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="C389" s="2"/>
       <c r="D389" s="25"/>
@@ -12414,7 +12417,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="C390" s="2"/>
       <c r="D390" s="25"/>
@@ -12424,7 +12427,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="C391" s="2"/>
       <c r="D391" s="25"/>
@@ -12434,7 +12437,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="C392" s="2"/>
       <c r="D392" s="25"/>
@@ -12444,7 +12447,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="C393" s="2"/>
       <c r="D393" s="25"/>
@@ -12454,7 +12457,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="C394" s="2"/>
       <c r="D394" s="25"/>
@@ -12464,7 +12467,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
       <c r="C395" s="2"/>
       <c r="D395" s="25"/>
@@ -12474,7 +12477,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="C396" s="2"/>
       <c r="D396" s="25"/>
@@ -12484,7 +12487,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="C397" s="2"/>
       <c r="D397" s="25"/>
@@ -12494,7 +12497,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="C398" s="2"/>
       <c r="D398" s="25"/>
@@ -12504,7 +12507,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="C399" s="2"/>
       <c r="D399" s="25"/>
@@ -12514,7 +12517,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="C400" s="2"/>
       <c r="D400" s="25"/>
@@ -12524,7 +12527,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="C401" s="2"/>
       <c r="D401" s="25"/>
@@ -12534,7 +12537,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="C402" s="2"/>
       <c r="D402" s="25"/>
@@ -12544,7 +12547,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
       <c r="C403" s="2"/>
       <c r="D403" s="25"/>
@@ -12554,7 +12557,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="C404" s="2"/>
       <c r="D404" s="25"/>
@@ -12564,7 +12567,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="C405" s="2"/>
       <c r="D405" s="25"/>
@@ -12574,7 +12577,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="C406" s="2"/>
       <c r="D406" s="25"/>
@@ -12584,7 +12587,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" s="25"/>
@@ -12594,7 +12597,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="C408" s="2"/>
       <c r="D408" s="25"/>
@@ -12604,7 +12607,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="C409" s="2"/>
       <c r="D409" s="25"/>
@@ -12614,7 +12617,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="C410" s="2"/>
       <c r="D410" s="25"/>
@@ -12624,7 +12627,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
       <c r="C411" s="2"/>
       <c r="D411" s="25"/>
@@ -12634,7 +12637,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="C412" s="2"/>
       <c r="D412" s="25"/>
@@ -12644,7 +12647,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="C413" s="2"/>
       <c r="D413" s="25"/>
@@ -12654,7 +12657,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="C414" s="2"/>
       <c r="D414" s="25"/>
@@ -12664,7 +12667,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="C415" s="2"/>
       <c r="D415" s="25"/>
@@ -12674,7 +12677,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="C416" s="2"/>
       <c r="D416" s="25"/>
@@ -12684,7 +12687,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="C417" s="2"/>
       <c r="D417" s="25"/>
@@ -12694,7 +12697,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="C418" s="2"/>
       <c r="D418" s="25"/>
@@ -12704,7 +12707,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
       <c r="C419" s="2"/>
       <c r="D419" s="25"/>
@@ -12714,7 +12717,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="C420" s="2"/>
       <c r="D420" s="25"/>
@@ -12724,7 +12727,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="25"/>
@@ -12734,7 +12737,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="C422" s="2"/>
       <c r="D422" s="25"/>
@@ -12744,7 +12747,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" s="25"/>
@@ -12754,7 +12757,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="C424" s="2"/>
       <c r="D424" s="25"/>
@@ -12764,7 +12767,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="C425" s="2"/>
       <c r="D425" s="25"/>
@@ -12774,7 +12777,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="C426" s="2"/>
       <c r="D426" s="25"/>
@@ -12784,7 +12787,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="C427" s="2"/>
       <c r="D427" s="25"/>
@@ -12794,7 +12797,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="C428" s="2"/>
       <c r="D428" s="25"/>
@@ -12804,7 +12807,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="C429" s="2"/>
       <c r="D429" s="25"/>
@@ -12814,7 +12817,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="C430" s="2"/>
       <c r="D430" s="25"/>
@@ -12824,7 +12827,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="C431" s="2"/>
       <c r="D431" s="25"/>
@@ -12834,7 +12837,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="C432" s="2"/>
       <c r="D432" s="25"/>
@@ -12844,7 +12847,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="C433" s="2"/>
       <c r="D433" s="25"/>
@@ -12854,7 +12857,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="C434" s="2"/>
       <c r="D434" s="25"/>
@@ -12864,7 +12867,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="C435" s="2"/>
       <c r="D435" s="25"/>
@@ -12874,7 +12877,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="C436" s="2"/>
       <c r="D436" s="25"/>
@@ -12884,7 +12887,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="C437" s="2"/>
       <c r="D437" s="25"/>
@@ -12894,7 +12897,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="C438" s="2"/>
       <c r="D438" s="25"/>
@@ -12904,7 +12907,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="C439" s="2"/>
       <c r="D439" s="25"/>
@@ -12914,7 +12917,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="C440" s="2"/>
       <c r="D440" s="25"/>
@@ -12924,7 +12927,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="C441" s="2"/>
       <c r="D441" s="25"/>
@@ -12934,7 +12937,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="C442" s="2"/>
       <c r="D442" s="25"/>
@@ -12944,7 +12947,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="C443" s="2"/>
       <c r="D443" s="25"/>
@@ -12954,7 +12957,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="C444" s="2"/>
       <c r="D444" s="25"/>
@@ -12964,7 +12967,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="C445" s="2"/>
       <c r="D445" s="25"/>
@@ -12974,7 +12977,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="C446" s="2"/>
       <c r="D446" s="25"/>
@@ -12984,7 +12987,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="C447" s="2"/>
       <c r="D447" s="25"/>
@@ -12994,7 +12997,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="C448" s="2"/>
       <c r="D448" s="25"/>
@@ -13004,7 +13007,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="C449" s="2"/>
       <c r="D449" s="25"/>
@@ -13014,7 +13017,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="C450" s="2"/>
       <c r="D450" s="25"/>
@@ -13024,7 +13027,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C451" s="2"/>
       <c r="D451" s="25"/>
@@ -13034,7 +13037,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="C452" s="2"/>
       <c r="D452" s="25"/>
@@ -13044,7 +13047,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="C453" s="2"/>
       <c r="D453" s="25"/>
@@ -13054,7 +13057,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="C454" s="2"/>
       <c r="D454" s="25"/>
@@ -13064,7 +13067,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="C455" s="2"/>
       <c r="D455" s="25"/>
@@ -13074,7 +13077,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="C456" s="2"/>
       <c r="D456" s="25"/>
@@ -13084,7 +13087,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="C457" s="2"/>
       <c r="D457" s="25"/>
@@ -13094,7 +13097,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="C458" s="2"/>
       <c r="D458" s="25"/>
@@ -13104,7 +13107,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C459" s="2"/>
       <c r="D459" s="25"/>
@@ -13114,7 +13117,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>2025</v>
+        <v>2022</v>
       </c>
       <c r="C460" s="2"/>
       <c r="D460" s="25"/>
@@ -13124,7 +13127,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="C461" s="2"/>
       <c r="D461" s="25"/>
@@ -13134,7 +13137,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="C462" s="2"/>
       <c r="D462" s="25"/>
@@ -13144,7 +13147,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="C463" s="2"/>
       <c r="D463" s="25"/>
@@ -13154,7 +13157,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="C464" s="2"/>
       <c r="D464" s="25"/>
@@ -13164,7 +13167,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>2030</v>
+        <v>2027</v>
       </c>
       <c r="C465" s="2"/>
       <c r="D465" s="25"/>
@@ -13174,7 +13177,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>2031</v>
+        <v>2028</v>
       </c>
       <c r="C466" s="2"/>
       <c r="D466" s="25"/>
@@ -13184,7 +13187,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>2032</v>
+        <v>2029</v>
       </c>
       <c r="C467" s="2"/>
       <c r="D467" s="25"/>
@@ -13194,7 +13197,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
       <c r="C468" s="2"/>
       <c r="D468" s="25"/>
@@ -13204,7 +13207,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
       <c r="C469" s="2"/>
       <c r="D469" s="25"/>
@@ -13214,7 +13217,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
       <c r="C470" s="2"/>
       <c r="D470" s="25"/>
@@ -13224,7 +13227,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="C471" s="2"/>
       <c r="D471" s="25"/>
@@ -13234,7 +13237,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="C472" s="2"/>
       <c r="D472" s="25"/>
@@ -13244,7 +13247,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="C473" s="2"/>
       <c r="D473" s="25"/>
@@ -13254,7 +13257,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="C474" s="2"/>
       <c r="D474" s="25"/>
@@ -13264,7 +13267,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="C475" s="2"/>
       <c r="D475" s="25"/>
@@ -13274,7 +13277,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="C476" s="2"/>
       <c r="D476" s="25"/>
@@ -13284,7 +13287,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
       <c r="C477" s="2"/>
       <c r="D477" s="25"/>
@@ -13294,7 +13297,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="C478" s="2"/>
       <c r="D478" s="25"/>
@@ -13304,7 +13307,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="C479" s="2"/>
       <c r="D479" s="25"/>
@@ -13314,7 +13317,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="C480" s="2"/>
       <c r="D480" s="25"/>
@@ -13324,7 +13327,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
       <c r="C481" s="2"/>
       <c r="D481" s="25"/>
@@ -13334,7 +13337,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="C482" s="2"/>
       <c r="D482" s="25"/>
@@ -13344,7 +13347,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="5" t="s">
-        <v>2048</v>
+        <v>2045</v>
       </c>
       <c r="C483" s="2"/>
       <c r="D483" s="25"/>
@@ -13354,7 +13357,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="5" t="s">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="C484" s="2"/>
       <c r="D484" s="25"/>
@@ -13364,7 +13367,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="5" t="s">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="C485" s="2"/>
       <c r="D485" s="25"/>
@@ -13374,7 +13377,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="5" t="s">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="C486" s="2"/>
       <c r="D486" s="25"/>
@@ -13384,7 +13387,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
       <c r="C487" s="2"/>
       <c r="D487" s="25"/>
@@ -13394,7 +13397,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="5" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="C488" s="2"/>
       <c r="D488" s="25"/>
@@ -13404,7 +13407,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="5" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="C489" s="2"/>
       <c r="D489" s="25"/>
@@ -13414,7 +13417,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="5" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="C490" s="2"/>
       <c r="D490" s="25"/>
@@ -13424,7 +13427,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="5" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="C491" s="2"/>
       <c r="D491" s="25"/>
@@ -13434,7 +13437,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="5" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="C492" s="2"/>
       <c r="D492" s="25"/>
@@ -13444,7 +13447,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="5" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
       <c r="C493" s="2"/>
       <c r="D493" s="25"/>
@@ -13454,7 +13457,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="5" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
       <c r="C494" s="2"/>
       <c r="D494" s="25"/>
@@ -13464,7 +13467,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="C495" s="2"/>
       <c r="D495" s="25"/>
@@ -13474,7 +13477,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="C496" s="2"/>
       <c r="D496" s="25"/>
@@ -13484,7 +13487,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
       <c r="C497" s="2"/>
       <c r="D497" s="25"/>
@@ -13494,7 +13497,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
       <c r="C498" s="2"/>
       <c r="D498" s="25"/>
@@ -13504,7 +13507,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="C499" s="2"/>
       <c r="D499" s="25"/>
@@ -13514,7 +13517,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="C500" s="2"/>
       <c r="D500" s="25"/>
@@ -13524,7 +13527,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="C501" s="2"/>
       <c r="D501" s="25"/>
@@ -13534,7 +13537,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="C502" s="2"/>
       <c r="D502" s="25"/>
@@ -13544,7 +13547,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="C503" s="2"/>
       <c r="D503" s="25"/>
@@ -13554,7 +13557,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="C504" s="2"/>
       <c r="D504" s="25"/>
@@ -13564,7 +13567,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
       <c r="C505" s="2"/>
       <c r="D505" s="25"/>
@@ -13574,7 +13577,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="C506" s="2"/>
       <c r="D506" s="25"/>
@@ -13584,7 +13587,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="C507" s="2"/>
       <c r="D507" s="25"/>
@@ -13594,7 +13597,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="C508" s="2"/>
       <c r="D508" s="25"/>
@@ -13604,7 +13607,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="C509" s="2"/>
       <c r="D509" s="25"/>
@@ -13614,7 +13617,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="C510" s="2"/>
       <c r="D510" s="25"/>
@@ -13624,7 +13627,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="C511" s="2"/>
       <c r="D511" s="25"/>
@@ -13634,7 +13637,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="5" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
       <c r="C512" s="2"/>
       <c r="D512" s="25"/>
@@ -13644,7 +13647,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="C513" s="2"/>
       <c r="D513" s="25"/>
@@ -13654,7 +13657,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="C514" s="2"/>
       <c r="D514" s="25"/>
@@ -13664,7 +13667,7 @@
         <v>514</v>
       </c>
       <c r="B515" s="5" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="C515" s="2"/>
       <c r="D515" s="25"/>
@@ -13674,7 +13677,7 @@
         <v>515</v>
       </c>
       <c r="B516" s="5" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="C516" s="2"/>
       <c r="D516" s="25"/>
@@ -13684,7 +13687,7 @@
         <v>516</v>
       </c>
       <c r="B517" s="5" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="C517" s="2"/>
       <c r="D517" s="25"/>
@@ -13694,7 +13697,7 @@
         <v>517</v>
       </c>
       <c r="B518" s="5" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="C518" s="2"/>
       <c r="D518" s="25"/>
@@ -13704,7 +13707,7 @@
         <v>518</v>
       </c>
       <c r="B519" s="5" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="C519" s="2"/>
       <c r="D519" s="25"/>
@@ -13714,7 +13717,7 @@
         <v>519</v>
       </c>
       <c r="B520" s="5" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="C520" s="2"/>
       <c r="D520" s="25"/>
@@ -13724,7 +13727,7 @@
         <v>520</v>
       </c>
       <c r="B521" s="5" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="C521" s="2"/>
       <c r="D521" s="25"/>
@@ -13734,7 +13737,7 @@
         <v>521</v>
       </c>
       <c r="B522" s="5" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="C522" s="2"/>
       <c r="D522" s="25"/>
@@ -13744,7 +13747,7 @@
         <v>522</v>
       </c>
       <c r="B523" s="5" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="C523" s="2"/>
       <c r="D523" s="25"/>
@@ -13754,7 +13757,7 @@
         <v>523</v>
       </c>
       <c r="B524" s="5" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="C524" s="2"/>
       <c r="D524" s="25"/>
@@ -13764,7 +13767,7 @@
         <v>524</v>
       </c>
       <c r="B525" s="5" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="C525" s="2"/>
       <c r="D525" s="25"/>
@@ -13774,7 +13777,7 @@
         <v>525</v>
       </c>
       <c r="B526" s="5" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
       <c r="C526" s="2"/>
       <c r="D526" s="25"/>
@@ -13784,7 +13787,7 @@
         <v>526</v>
       </c>
       <c r="B527" s="5" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
       <c r="C527" s="2"/>
       <c r="D527" s="25"/>
@@ -13794,7 +13797,7 @@
         <v>527</v>
       </c>
       <c r="B528" s="5" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="C528" s="2"/>
       <c r="D528" s="25"/>
@@ -13804,7 +13807,7 @@
         <v>528</v>
       </c>
       <c r="B529" s="5" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
       <c r="C529" s="2"/>
       <c r="D529" s="25"/>
@@ -13814,7 +13817,7 @@
         <v>529</v>
       </c>
       <c r="B530" s="5" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
       <c r="C530" s="2"/>
       <c r="D530" s="25"/>
@@ -13824,7 +13827,7 @@
         <v>530</v>
       </c>
       <c r="B531" s="5" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="C531" s="2"/>
       <c r="D531" s="25"/>
@@ -13834,7 +13837,7 @@
         <v>531</v>
       </c>
       <c r="B532" s="5" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
       <c r="C532" s="2"/>
       <c r="D532" s="25"/>
@@ -13844,7 +13847,7 @@
         <v>532</v>
       </c>
       <c r="B533" s="5" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
       <c r="C533" s="2"/>
       <c r="D533" s="25"/>
@@ -13854,7 +13857,7 @@
         <v>533</v>
       </c>
       <c r="B534" s="5" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
       <c r="C534" s="2"/>
       <c r="D534" s="25"/>
@@ -13864,7 +13867,7 @@
         <v>534</v>
       </c>
       <c r="B535" s="5" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
       <c r="C535" s="2"/>
       <c r="D535" s="25"/>
@@ -13874,7 +13877,7 @@
         <v>535</v>
       </c>
       <c r="B536" s="5" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="C536" s="2"/>
       <c r="D536" s="25"/>
@@ -13884,7 +13887,7 @@
         <v>536</v>
       </c>
       <c r="B537" s="5" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
       <c r="C537" s="2"/>
       <c r="D537" s="25"/>
@@ -13894,7 +13897,7 @@
         <v>537</v>
       </c>
       <c r="B538" s="5" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
       <c r="C538" s="2"/>
       <c r="D538" s="25"/>
@@ -13904,7 +13907,7 @@
         <v>538</v>
       </c>
       <c r="B539" s="5" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="C539" s="2"/>
       <c r="D539" s="25"/>
@@ -13914,7 +13917,7 @@
         <v>539</v>
       </c>
       <c r="B540" s="5" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="C540" s="2"/>
       <c r="D540" s="25"/>
@@ -13924,7 +13927,7 @@
         <v>540</v>
       </c>
       <c r="B541" s="5" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="C541" s="2"/>
       <c r="D541" s="25"/>
@@ -13934,7 +13937,7 @@
         <v>541</v>
       </c>
       <c r="B542" s="5" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="C542" s="2"/>
       <c r="D542" s="25"/>
@@ -13944,7 +13947,7 @@
         <v>542</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="C543" s="2"/>
       <c r="D543" s="25"/>
@@ -13954,7 +13957,7 @@
         <v>543</v>
       </c>
       <c r="B544" s="5" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="C544" s="2"/>
       <c r="D544" s="25"/>
@@ -13964,7 +13967,7 @@
         <v>544</v>
       </c>
       <c r="B545" s="5" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="C545" s="2"/>
       <c r="D545" s="25"/>
@@ -13974,7 +13977,7 @@
         <v>545</v>
       </c>
       <c r="B546" s="5" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="C546" s="2"/>
       <c r="D546" s="25"/>
@@ -13984,7 +13987,7 @@
         <v>546</v>
       </c>
       <c r="B547" s="5" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="C547" s="2"/>
       <c r="D547" s="25"/>
@@ -13994,7 +13997,7 @@
         <v>547</v>
       </c>
       <c r="B548" s="5" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="C548" s="2"/>
       <c r="D548" s="25"/>
@@ -14004,7 +14007,7 @@
         <v>548</v>
       </c>
       <c r="B549" s="5" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="C549" s="2"/>
       <c r="D549" s="25"/>
@@ -14014,7 +14017,7 @@
         <v>549</v>
       </c>
       <c r="B550" s="5" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="C550" s="2"/>
       <c r="D550" s="25"/>
@@ -14024,7 +14027,7 @@
         <v>550</v>
       </c>
       <c r="B551" s="5" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="C551" s="2"/>
       <c r="D551" s="25"/>
@@ -14034,7 +14037,7 @@
         <v>551</v>
       </c>
       <c r="B552" s="5" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
       <c r="C552" s="2"/>
       <c r="D552" s="25"/>
@@ -14044,7 +14047,7 @@
         <v>552</v>
       </c>
       <c r="B553" s="5" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="C553" s="2"/>
       <c r="D553" s="25"/>
@@ -14054,7 +14057,7 @@
         <v>553</v>
       </c>
       <c r="B554" s="5" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="C554" s="2"/>
       <c r="D554" s="25"/>
@@ -14064,7 +14067,7 @@
         <v>554</v>
       </c>
       <c r="B555" s="5" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="C555" s="2"/>
       <c r="D555" s="25"/>
@@ -14074,7 +14077,7 @@
         <v>555</v>
       </c>
       <c r="B556" s="5" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="C556" s="2"/>
       <c r="D556" s="25"/>
@@ -14084,7 +14087,7 @@
         <v>556</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="C557" s="2"/>
       <c r="D557" s="25"/>
@@ -14094,7 +14097,7 @@
         <v>557</v>
       </c>
       <c r="B558" s="5" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="C558" s="2"/>
       <c r="D558" s="25"/>
@@ -14104,7 +14107,7 @@
         <v>558</v>
       </c>
       <c r="B559" s="5" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="C559" s="2"/>
       <c r="D559" s="25"/>
@@ -14114,7 +14117,7 @@
         <v>559</v>
       </c>
       <c r="B560" s="5" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
       <c r="C560" s="2"/>
       <c r="D560" s="25"/>
@@ -14124,7 +14127,7 @@
         <v>560</v>
       </c>
       <c r="B561" s="5" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
       <c r="C561" s="2"/>
       <c r="D561" s="25"/>
@@ -14134,7 +14137,7 @@
         <v>561</v>
       </c>
       <c r="B562" s="5" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
       <c r="C562" s="2"/>
       <c r="D562" s="25"/>
@@ -14144,7 +14147,7 @@
         <v>562</v>
       </c>
       <c r="B563" s="12" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
       <c r="C563" s="2"/>
       <c r="D563" s="25"/>
@@ -14154,7 +14157,7 @@
         <v>563</v>
       </c>
       <c r="B564" s="12" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
       <c r="C564" s="2"/>
       <c r="D564" s="25"/>
@@ -14164,7 +14167,7 @@
         <v>564</v>
       </c>
       <c r="B565" s="12" t="s">
-        <v>2130</v>
+        <v>2127</v>
       </c>
       <c r="C565" s="2"/>
       <c r="D565" s="25"/>
@@ -14174,7 +14177,7 @@
         <v>565</v>
       </c>
       <c r="B566" s="12" t="s">
-        <v>2131</v>
+        <v>2128</v>
       </c>
       <c r="C566" s="2"/>
       <c r="D566" s="25"/>
@@ -14184,7 +14187,7 @@
         <v>566</v>
       </c>
       <c r="B567" s="12" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="C567" s="2"/>
       <c r="D567" s="25"/>
@@ -14194,7 +14197,7 @@
         <v>567</v>
       </c>
       <c r="B568" s="12" t="s">
-        <v>2133</v>
+        <v>2130</v>
       </c>
       <c r="C568" s="2"/>
       <c r="D568" s="25"/>
@@ -14204,7 +14207,7 @@
         <v>568</v>
       </c>
       <c r="B569" s="12" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
       <c r="C569" s="2"/>
       <c r="D569" s="25"/>
@@ -14214,7 +14217,7 @@
         <v>569</v>
       </c>
       <c r="B570" s="12" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
       <c r="C570" s="2"/>
       <c r="D570" s="25"/>
@@ -14224,7 +14227,7 @@
         <v>570</v>
       </c>
       <c r="B571" s="12" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="C571" s="2"/>
       <c r="D571" s="25"/>
@@ -14234,7 +14237,7 @@
         <v>571</v>
       </c>
       <c r="B572" s="12" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
       <c r="C572" s="2"/>
       <c r="D572" s="25"/>
@@ -14244,7 +14247,7 @@
         <v>572</v>
       </c>
       <c r="B573" s="12" t="s">
-        <v>2138</v>
+        <v>2135</v>
       </c>
       <c r="C573" s="2"/>
       <c r="D573" s="25"/>
@@ -14254,7 +14257,7 @@
         <v>573</v>
       </c>
       <c r="B574" s="12" t="s">
-        <v>2139</v>
+        <v>2136</v>
       </c>
       <c r="C574" s="2"/>
       <c r="D574" s="25"/>
@@ -14264,7 +14267,7 @@
         <v>574</v>
       </c>
       <c r="B575" s="12" t="s">
-        <v>2140</v>
+        <v>2137</v>
       </c>
       <c r="C575" s="2"/>
       <c r="D575" s="25"/>
@@ -14274,7 +14277,7 @@
         <v>575</v>
       </c>
       <c r="B576" s="12" t="s">
-        <v>2141</v>
+        <v>2138</v>
       </c>
       <c r="C576" s="2"/>
       <c r="D576" s="25"/>
@@ -14284,7 +14287,7 @@
         <v>576</v>
       </c>
       <c r="B577" s="12" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
       <c r="C577" s="2"/>
       <c r="D577" s="25"/>
@@ -14294,7 +14297,7 @@
         <v>577</v>
       </c>
       <c r="B578" s="12" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
       <c r="C578" s="2"/>
       <c r="D578" s="25"/>
@@ -14304,7 +14307,7 @@
         <v>578</v>
       </c>
       <c r="B579" s="12" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
       <c r="C579" s="2"/>
       <c r="D579" s="25"/>
@@ -14314,7 +14317,7 @@
         <v>579</v>
       </c>
       <c r="B580" s="12" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
       <c r="C580" s="2"/>
       <c r="D580" s="25"/>
@@ -14324,7 +14327,7 @@
         <v>580</v>
       </c>
       <c r="B581" s="12" t="s">
-        <v>2146</v>
+        <v>2143</v>
       </c>
       <c r="C581" s="2"/>
       <c r="D581" s="25"/>
@@ -14334,7 +14337,7 @@
         <v>581</v>
       </c>
       <c r="B582" s="12" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="C582" s="2"/>
       <c r="D582" s="25"/>
@@ -14344,7 +14347,7 @@
         <v>582</v>
       </c>
       <c r="B583" s="12" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
       <c r="C583" s="2"/>
       <c r="D583" s="25"/>
@@ -14354,7 +14357,7 @@
         <v>583</v>
       </c>
       <c r="B584" s="12" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="C584" s="2"/>
       <c r="D584" s="25"/>
@@ -14364,7 +14367,7 @@
         <v>584</v>
       </c>
       <c r="B585" s="12" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="C585" s="2"/>
       <c r="D585" s="25"/>
@@ -14374,7 +14377,7 @@
         <v>585</v>
       </c>
       <c r="B586" s="12" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
       <c r="C586" s="2"/>
       <c r="D586" s="25"/>
@@ -14384,7 +14387,7 @@
         <v>586</v>
       </c>
       <c r="B587" s="12" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="C587" s="2"/>
       <c r="D587" s="25"/>
@@ -14394,7 +14397,7 @@
         <v>587</v>
       </c>
       <c r="B588" s="12" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
       <c r="C588" s="2"/>
       <c r="D588" s="25"/>
@@ -14404,7 +14407,7 @@
         <v>588</v>
       </c>
       <c r="B589" s="12" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
       <c r="C589" s="2"/>
       <c r="D589" s="25"/>
@@ -14414,7 +14417,7 @@
         <v>589</v>
       </c>
       <c r="B590" s="12" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="C590" s="2"/>
       <c r="D590" s="25"/>
@@ -14424,7 +14427,7 @@
         <v>590</v>
       </c>
       <c r="B591" s="12" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="C591" s="2"/>
       <c r="D591" s="25"/>
@@ -14434,7 +14437,7 @@
         <v>591</v>
       </c>
       <c r="B592" s="12" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="C592" s="2"/>
       <c r="D592" s="25"/>
@@ -14444,7 +14447,7 @@
         <v>592</v>
       </c>
       <c r="B593" s="12" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="C593" s="2"/>
       <c r="D593" s="25"/>
@@ -14454,7 +14457,7 @@
         <v>593</v>
       </c>
       <c r="B594" s="12" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="C594" s="2"/>
       <c r="D594" s="25"/>
@@ -14464,7 +14467,7 @@
         <v>594</v>
       </c>
       <c r="B595" s="12" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
       <c r="C595" s="2"/>
       <c r="D595" s="25"/>
@@ -14474,7 +14477,7 @@
         <v>595</v>
       </c>
       <c r="B596" s="12" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
       <c r="C596" s="2"/>
       <c r="D596" s="25"/>
@@ -14484,7 +14487,7 @@
         <v>596</v>
       </c>
       <c r="B597" s="12" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
       <c r="C597" s="2"/>
       <c r="D597" s="25"/>
@@ -14494,7 +14497,7 @@
         <v>597</v>
       </c>
       <c r="B598" s="12" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
       <c r="C598" s="2"/>
       <c r="D598" s="25"/>
@@ -14504,7 +14507,7 @@
         <v>598</v>
       </c>
       <c r="B599" s="12" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
       <c r="C599" s="2"/>
       <c r="D599" s="25"/>
@@ -14514,7 +14517,7 @@
         <v>599</v>
       </c>
       <c r="B600" s="12" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
       <c r="C600" s="2"/>
       <c r="D600" s="25"/>
@@ -14524,7 +14527,7 @@
         <v>600</v>
       </c>
       <c r="B601" s="12" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
       <c r="C601" s="2"/>
       <c r="D601" s="25"/>
@@ -14534,7 +14537,7 @@
         <v>601</v>
       </c>
       <c r="B602" s="12" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
       <c r="C602" s="2"/>
       <c r="D602" s="25"/>
@@ -14544,7 +14547,7 @@
         <v>602</v>
       </c>
       <c r="B603" s="12" t="s">
-        <v>2168</v>
+        <v>2165</v>
       </c>
       <c r="C603" s="2"/>
       <c r="D603" s="25"/>
@@ -14554,7 +14557,7 @@
         <v>603</v>
       </c>
       <c r="B604" s="12" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
       <c r="C604" s="2"/>
       <c r="D604" s="25"/>
@@ -14564,7 +14567,7 @@
         <v>604</v>
       </c>
       <c r="B605" s="12" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
       <c r="C605" s="2"/>
       <c r="D605" s="25"/>
@@ -14574,7 +14577,7 @@
         <v>605</v>
       </c>
       <c r="B606" s="12" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
       <c r="C606" s="2"/>
       <c r="D606" s="25"/>
@@ -14584,7 +14587,7 @@
         <v>606</v>
       </c>
       <c r="B607" s="12" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
       <c r="C607" s="2"/>
       <c r="D607" s="25"/>
@@ -14594,7 +14597,7 @@
         <v>607</v>
       </c>
       <c r="B608" s="12" t="s">
-        <v>2173</v>
+        <v>2170</v>
       </c>
       <c r="C608" s="2"/>
       <c r="D608" s="25"/>
@@ -14604,7 +14607,7 @@
         <v>608</v>
       </c>
       <c r="B609" s="12" t="s">
-        <v>2174</v>
+        <v>2171</v>
       </c>
       <c r="C609" s="2"/>
       <c r="D609" s="25"/>
@@ -14614,7 +14617,7 @@
         <v>609</v>
       </c>
       <c r="B610" s="12" t="s">
-        <v>2175</v>
+        <v>2172</v>
       </c>
       <c r="C610" s="2"/>
       <c r="D610" s="25"/>
@@ -14624,7 +14627,7 @@
         <v>610</v>
       </c>
       <c r="B611" s="12" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
       <c r="C611" s="2"/>
       <c r="D611" s="25"/>
@@ -14634,7 +14637,7 @@
         <v>611</v>
       </c>
       <c r="B612" s="12" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
       <c r="C612" s="2"/>
       <c r="D612" s="25"/>
@@ -14644,7 +14647,7 @@
         <v>612</v>
       </c>
       <c r="B613" s="12" t="s">
-        <v>2178</v>
+        <v>2175</v>
       </c>
       <c r="C613" s="2"/>
       <c r="D613" s="25"/>
@@ -14654,7 +14657,7 @@
         <v>613</v>
       </c>
       <c r="B614" s="12" t="s">
-        <v>2179</v>
+        <v>2176</v>
       </c>
       <c r="C614" s="2"/>
       <c r="D614" s="25"/>
@@ -14664,7 +14667,7 @@
         <v>614</v>
       </c>
       <c r="B615" s="12" t="s">
-        <v>2180</v>
+        <v>2177</v>
       </c>
       <c r="C615" s="2"/>
       <c r="D615" s="25"/>
@@ -14674,7 +14677,7 @@
         <v>615</v>
       </c>
       <c r="B616" s="12" t="s">
-        <v>2181</v>
+        <v>2178</v>
       </c>
       <c r="C616" s="2"/>
       <c r="D616" s="25"/>
@@ -14684,7 +14687,7 @@
         <v>616</v>
       </c>
       <c r="B617" s="12" t="s">
-        <v>2182</v>
+        <v>2179</v>
       </c>
       <c r="C617" s="2"/>
       <c r="D617" s="25"/>
@@ -14694,7 +14697,7 @@
         <v>617</v>
       </c>
       <c r="B618" s="12" t="s">
-        <v>2183</v>
+        <v>2180</v>
       </c>
       <c r="C618" s="2"/>
       <c r="D618" s="25"/>
@@ -14704,7 +14707,7 @@
         <v>618</v>
       </c>
       <c r="B619" s="12" t="s">
-        <v>2184</v>
+        <v>2181</v>
       </c>
       <c r="C619" s="2"/>
       <c r="D619" s="25"/>
@@ -14714,7 +14717,7 @@
         <v>619</v>
       </c>
       <c r="B620" s="12" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
       <c r="C620" s="2"/>
       <c r="D620" s="25"/>
@@ -14724,7 +14727,7 @@
         <v>620</v>
       </c>
       <c r="B621" s="12" t="s">
-        <v>2186</v>
+        <v>2183</v>
       </c>
       <c r="C621" s="2"/>
       <c r="D621" s="25"/>
@@ -14734,7 +14737,7 @@
         <v>621</v>
       </c>
       <c r="B622" s="12" t="s">
-        <v>2187</v>
+        <v>2184</v>
       </c>
       <c r="C622" s="2"/>
       <c r="D622" s="25"/>
@@ -14744,7 +14747,7 @@
         <v>622</v>
       </c>
       <c r="B623" s="12" t="s">
-        <v>2188</v>
+        <v>2185</v>
       </c>
       <c r="C623" s="2"/>
       <c r="D623" s="25"/>
@@ -14754,7 +14757,7 @@
         <v>623</v>
       </c>
       <c r="B624" s="12" t="s">
-        <v>2189</v>
+        <v>2186</v>
       </c>
       <c r="C624" s="2"/>
       <c r="D624" s="25"/>
@@ -14764,7 +14767,7 @@
         <v>624</v>
       </c>
       <c r="B625" s="12" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
       <c r="C625" s="2"/>
       <c r="D625" s="25"/>
@@ -14774,7 +14777,7 @@
         <v>625</v>
       </c>
       <c r="B626" s="12" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
       <c r="C626" s="2"/>
       <c r="D626" s="25"/>
@@ -14784,7 +14787,7 @@
         <v>626</v>
       </c>
       <c r="B627" s="12" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
       <c r="C627" s="2"/>
       <c r="D627" s="25"/>
@@ -14794,7 +14797,7 @@
         <v>627</v>
       </c>
       <c r="B628" s="12" t="s">
-        <v>2193</v>
+        <v>2190</v>
       </c>
       <c r="C628" s="2"/>
       <c r="D628" s="25"/>
@@ -14804,7 +14807,7 @@
         <v>628</v>
       </c>
       <c r="B629" s="12" t="s">
-        <v>2194</v>
+        <v>2191</v>
       </c>
       <c r="C629" s="2"/>
       <c r="D629" s="25"/>
@@ -14814,7 +14817,7 @@
         <v>629</v>
       </c>
       <c r="B630" s="12" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
       <c r="C630" s="2"/>
       <c r="D630" s="25"/>
@@ -14824,7 +14827,7 @@
         <v>630</v>
       </c>
       <c r="B631" s="12" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
       <c r="C631" s="2"/>
       <c r="D631" s="25"/>
@@ -14834,7 +14837,7 @@
         <v>631</v>
       </c>
       <c r="B632" s="12" t="s">
-        <v>2197</v>
+        <v>2194</v>
       </c>
       <c r="C632" s="2"/>
       <c r="D632" s="25"/>
@@ -14844,7 +14847,7 @@
         <v>632</v>
       </c>
       <c r="B633" s="12" t="s">
-        <v>2198</v>
+        <v>2195</v>
       </c>
       <c r="C633" s="2"/>
       <c r="D633" s="25"/>
@@ -14854,7 +14857,7 @@
         <v>633</v>
       </c>
       <c r="B634" s="12" t="s">
-        <v>2199</v>
+        <v>2196</v>
       </c>
       <c r="C634" s="2"/>
       <c r="D634" s="25"/>
@@ -14864,7 +14867,7 @@
         <v>634</v>
       </c>
       <c r="B635" s="12" t="s">
-        <v>2200</v>
+        <v>2197</v>
       </c>
       <c r="C635" s="2"/>
       <c r="D635" s="25"/>
@@ -14874,7 +14877,7 @@
         <v>635</v>
       </c>
       <c r="B636" s="12" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
       <c r="C636" s="2"/>
       <c r="D636" s="25"/>
@@ -14884,7 +14887,7 @@
         <v>636</v>
       </c>
       <c r="B637" s="12" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
       <c r="C637" s="2"/>
       <c r="D637" s="25"/>
@@ -14894,7 +14897,7 @@
         <v>637</v>
       </c>
       <c r="B638" s="12" t="s">
-        <v>2203</v>
+        <v>2200</v>
       </c>
       <c r="C638" s="2"/>
       <c r="D638" s="25"/>
@@ -14904,7 +14907,7 @@
         <v>638</v>
       </c>
       <c r="B639" s="12" t="s">
-        <v>2204</v>
+        <v>2201</v>
       </c>
       <c r="C639" s="2"/>
       <c r="D639" s="25"/>
@@ -14914,7 +14917,7 @@
         <v>639</v>
       </c>
       <c r="B640" s="12" t="s">
-        <v>2205</v>
+        <v>2202</v>
       </c>
       <c r="C640" s="2"/>
       <c r="D640" s="25"/>
@@ -14924,7 +14927,7 @@
         <v>640</v>
       </c>
       <c r="B641" s="12" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
       <c r="C641" s="2"/>
       <c r="D641" s="25"/>
@@ -14934,7 +14937,7 @@
         <v>641</v>
       </c>
       <c r="B642" s="12" t="s">
-        <v>2207</v>
+        <v>2204</v>
       </c>
       <c r="C642" s="2"/>
       <c r="D642" s="25"/>
@@ -14944,7 +14947,7 @@
         <v>642</v>
       </c>
       <c r="B643" s="12" t="s">
-        <v>2208</v>
+        <v>2205</v>
       </c>
       <c r="C643" s="2"/>
       <c r="D643" s="25"/>
@@ -14954,7 +14957,7 @@
         <v>643</v>
       </c>
       <c r="B644" s="12" t="s">
-        <v>2209</v>
+        <v>2206</v>
       </c>
       <c r="C644" s="2"/>
       <c r="D644" s="25"/>
@@ -14964,7 +14967,7 @@
         <v>644</v>
       </c>
       <c r="B645" s="12" t="s">
-        <v>2210</v>
+        <v>2207</v>
       </c>
       <c r="C645" s="2"/>
       <c r="D645" s="25"/>
@@ -14974,7 +14977,7 @@
         <v>645</v>
       </c>
       <c r="B646" s="12" t="s">
-        <v>2211</v>
+        <v>2208</v>
       </c>
       <c r="C646" s="2"/>
       <c r="D646" s="25"/>
@@ -14984,7 +14987,7 @@
         <v>646</v>
       </c>
       <c r="B647" s="12" t="s">
-        <v>2212</v>
+        <v>2209</v>
       </c>
       <c r="C647" s="2"/>
       <c r="D647" s="25"/>
@@ -14994,7 +14997,7 @@
         <v>647</v>
       </c>
       <c r="B648" s="12" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
       <c r="C648" s="2"/>
       <c r="D648" s="25"/>
@@ -15004,7 +15007,7 @@
         <v>648</v>
       </c>
       <c r="B649" s="12" t="s">
-        <v>2214</v>
+        <v>2211</v>
       </c>
       <c r="C649" s="2"/>
       <c r="D649" s="25"/>
@@ -15014,7 +15017,7 @@
         <v>649</v>
       </c>
       <c r="B650" s="12" t="s">
-        <v>2215</v>
+        <v>2212</v>
       </c>
       <c r="C650" s="2"/>
       <c r="D650" s="25"/>
@@ -15024,7 +15027,7 @@
         <v>650</v>
       </c>
       <c r="B651" s="12" t="s">
-        <v>2216</v>
+        <v>2213</v>
       </c>
       <c r="C651" s="2"/>
       <c r="D651" s="25"/>
@@ -15034,7 +15037,7 @@
         <v>651</v>
       </c>
       <c r="B652" s="12" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
       <c r="C652" s="2"/>
       <c r="D652" s="25"/>
@@ -15044,7 +15047,7 @@
         <v>652</v>
       </c>
       <c r="B653" s="12" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
       <c r="C653" s="2"/>
       <c r="D653" s="25"/>
@@ -15054,7 +15057,7 @@
         <v>653</v>
       </c>
       <c r="B654" s="12" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
       <c r="C654" s="2"/>
       <c r="D654" s="25"/>
@@ -15064,7 +15067,7 @@
         <v>654</v>
       </c>
       <c r="B655" s="12" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
       <c r="C655" s="2"/>
       <c r="D655" s="25"/>
@@ -15074,7 +15077,7 @@
         <v>655</v>
       </c>
       <c r="B656" s="12" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
       <c r="C656" s="2"/>
       <c r="D656" s="25"/>
@@ -15084,7 +15087,7 @@
         <v>656</v>
       </c>
       <c r="B657" s="12" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
       <c r="C657" s="2"/>
       <c r="D657" s="25"/>
@@ -15094,7 +15097,7 @@
         <v>657</v>
       </c>
       <c r="B658" s="12" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
       <c r="C658" s="2"/>
       <c r="D658" s="25"/>
@@ -15104,7 +15107,7 @@
         <v>658</v>
       </c>
       <c r="B659" s="12" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
       <c r="C659" s="2"/>
       <c r="D659" s="25"/>
@@ -15114,7 +15117,7 @@
         <v>659</v>
       </c>
       <c r="B660" s="12" t="s">
-        <v>2225</v>
+        <v>2222</v>
       </c>
       <c r="C660" s="2"/>
       <c r="D660" s="25"/>
@@ -15124,7 +15127,7 @@
         <v>660</v>
       </c>
       <c r="B661" s="12" t="s">
-        <v>2226</v>
+        <v>2223</v>
       </c>
       <c r="C661" s="2"/>
       <c r="D661" s="25"/>
@@ -15134,7 +15137,7 @@
         <v>661</v>
       </c>
       <c r="B662" s="12" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
       <c r="C662" s="2"/>
       <c r="D662" s="25"/>
@@ -15144,7 +15147,7 @@
         <v>662</v>
       </c>
       <c r="B663" s="12" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
       <c r="C663" s="2"/>
       <c r="D663" s="25"/>
@@ -15154,7 +15157,7 @@
         <v>663</v>
       </c>
       <c r="B664" s="12" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
       <c r="C664" s="2"/>
       <c r="D664" s="25"/>
@@ -15164,7 +15167,7 @@
         <v>664</v>
       </c>
       <c r="B665" s="12" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
       <c r="C665" s="2"/>
       <c r="D665" s="25"/>
@@ -15174,7 +15177,7 @@
         <v>665</v>
       </c>
       <c r="B666" s="12" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
       <c r="C666" s="2"/>
       <c r="D666" s="25"/>
@@ -15184,7 +15187,7 @@
         <v>666</v>
       </c>
       <c r="B667" s="12" t="s">
-        <v>2231</v>
+        <v>2228</v>
       </c>
       <c r="C667" s="2"/>
       <c r="D667" s="25"/>
@@ -15194,7 +15197,7 @@
         <v>667</v>
       </c>
       <c r="B668" s="12" t="s">
-        <v>2232</v>
+        <v>2229</v>
       </c>
       <c r="C668" s="2"/>
       <c r="D668" s="25"/>
@@ -15204,7 +15207,7 @@
         <v>668</v>
       </c>
       <c r="B669" s="12" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
       <c r="C669" s="2"/>
       <c r="D669" s="25"/>
@@ -15214,7 +15217,7 @@
         <v>669</v>
       </c>
       <c r="B670" s="12" t="s">
-        <v>2234</v>
+        <v>2231</v>
       </c>
       <c r="C670" s="2"/>
       <c r="D670" s="25"/>
@@ -15224,7 +15227,7 @@
         <v>670</v>
       </c>
       <c r="B671" s="12" t="s">
-        <v>2235</v>
+        <v>2232</v>
       </c>
       <c r="C671" s="2"/>
       <c r="D671" s="25"/>
@@ -15234,7 +15237,7 @@
         <v>671</v>
       </c>
       <c r="B672" s="12" t="s">
-        <v>2236</v>
+        <v>2233</v>
       </c>
       <c r="C672" s="2"/>
       <c r="D672" s="25"/>
@@ -15244,7 +15247,7 @@
         <v>672</v>
       </c>
       <c r="B673" s="12" t="s">
-        <v>2237</v>
+        <v>2234</v>
       </c>
       <c r="C673" s="2"/>
       <c r="D673" s="25"/>
@@ -15254,7 +15257,7 @@
         <v>673</v>
       </c>
       <c r="B674" s="12" t="s">
-        <v>2238</v>
+        <v>2235</v>
       </c>
       <c r="C674" s="2"/>
       <c r="D674" s="25"/>
@@ -15264,7 +15267,7 @@
         <v>674</v>
       </c>
       <c r="B675" s="12" t="s">
-        <v>2239</v>
+        <v>2236</v>
       </c>
       <c r="C675" s="2"/>
       <c r="D675" s="25"/>
@@ -15274,7 +15277,7 @@
         <v>675</v>
       </c>
       <c r="B676" s="12" t="s">
-        <v>2240</v>
+        <v>2237</v>
       </c>
       <c r="C676" s="2"/>
       <c r="D676" s="25"/>
@@ -15284,7 +15287,7 @@
         <v>676</v>
       </c>
       <c r="B677" s="12" t="s">
-        <v>2241</v>
+        <v>2238</v>
       </c>
       <c r="C677" s="2"/>
       <c r="D677" s="25"/>
@@ -15294,7 +15297,7 @@
         <v>677</v>
       </c>
       <c r="B678" s="12" t="s">
-        <v>2242</v>
+        <v>2239</v>
       </c>
       <c r="C678" s="2"/>
       <c r="D678" s="25"/>
@@ -15304,7 +15307,7 @@
         <v>678</v>
       </c>
       <c r="B679" s="12" t="s">
-        <v>2243</v>
+        <v>2240</v>
       </c>
       <c r="C679" s="2"/>
       <c r="D679" s="25"/>
@@ -15314,7 +15317,7 @@
         <v>679</v>
       </c>
       <c r="B680" s="12" t="s">
-        <v>2244</v>
+        <v>2241</v>
       </c>
       <c r="C680" s="2"/>
       <c r="D680" s="25"/>
@@ -15324,7 +15327,7 @@
         <v>680</v>
       </c>
       <c r="B681" s="12" t="s">
-        <v>2245</v>
+        <v>2242</v>
       </c>
       <c r="C681" s="2"/>
       <c r="D681" s="25"/>
@@ -15334,7 +15337,7 @@
         <v>681</v>
       </c>
       <c r="B682" s="12" t="s">
-        <v>2246</v>
+        <v>2243</v>
       </c>
       <c r="C682" s="2"/>
       <c r="D682" s="25"/>
@@ -15344,7 +15347,7 @@
         <v>682</v>
       </c>
       <c r="B683" s="12" t="s">
-        <v>2247</v>
+        <v>2244</v>
       </c>
       <c r="C683" s="2"/>
       <c r="D683" s="25"/>
@@ -15354,7 +15357,7 @@
         <v>683</v>
       </c>
       <c r="B684" s="12" t="s">
-        <v>2248</v>
+        <v>2245</v>
       </c>
       <c r="C684" s="2"/>
       <c r="D684" s="25"/>
@@ -15364,7 +15367,7 @@
         <v>684</v>
       </c>
       <c r="B685" s="12" t="s">
-        <v>2249</v>
+        <v>2246</v>
       </c>
       <c r="C685" s="2"/>
       <c r="D685" s="25"/>
@@ -15374,7 +15377,7 @@
         <v>685</v>
       </c>
       <c r="B686" s="12" t="s">
-        <v>2250</v>
+        <v>2247</v>
       </c>
       <c r="C686" s="2"/>
       <c r="D686" s="25"/>
@@ -15384,7 +15387,7 @@
         <v>686</v>
       </c>
       <c r="B687" s="12" t="s">
-        <v>2251</v>
+        <v>2248</v>
       </c>
       <c r="C687" s="2"/>
       <c r="D687" s="25"/>
@@ -15394,7 +15397,7 @@
         <v>687</v>
       </c>
       <c r="B688" s="12" t="s">
-        <v>2252</v>
+        <v>2249</v>
       </c>
       <c r="C688" s="2"/>
       <c r="D688" s="25"/>
@@ -15404,7 +15407,7 @@
         <v>688</v>
       </c>
       <c r="B689" s="12" t="s">
-        <v>2253</v>
+        <v>2250</v>
       </c>
       <c r="C689" s="2"/>
       <c r="D689" s="25"/>
@@ -15414,7 +15417,7 @@
         <v>689</v>
       </c>
       <c r="B690" s="12" t="s">
-        <v>2254</v>
+        <v>2251</v>
       </c>
       <c r="C690" s="2"/>
       <c r="D690" s="25"/>
@@ -15424,7 +15427,7 @@
         <v>690</v>
       </c>
       <c r="B691" s="12" t="s">
-        <v>2255</v>
+        <v>2252</v>
       </c>
       <c r="C691" s="2"/>
       <c r="D691" s="25"/>
@@ -15434,7 +15437,7 @@
         <v>691</v>
       </c>
       <c r="B692" s="12" t="s">
-        <v>2256</v>
+        <v>2253</v>
       </c>
       <c r="C692" s="2"/>
       <c r="D692" s="25"/>
@@ -15444,7 +15447,7 @@
         <v>692</v>
       </c>
       <c r="B693" s="12" t="s">
-        <v>2257</v>
+        <v>2254</v>
       </c>
       <c r="C693" s="2"/>
       <c r="D693" s="25"/>
@@ -15454,7 +15457,7 @@
         <v>693</v>
       </c>
       <c r="B694" s="12" t="s">
-        <v>2258</v>
+        <v>2255</v>
       </c>
       <c r="C694" s="2"/>
       <c r="D694" s="25"/>
@@ -15464,7 +15467,7 @@
         <v>694</v>
       </c>
       <c r="B695" s="12" t="s">
-        <v>2259</v>
+        <v>2256</v>
       </c>
       <c r="C695" s="2"/>
       <c r="D695" s="25"/>
@@ -15474,7 +15477,7 @@
         <v>695</v>
       </c>
       <c r="B696" s="12" t="s">
-        <v>2260</v>
+        <v>2257</v>
       </c>
       <c r="C696" s="2"/>
       <c r="D696" s="25"/>
@@ -15484,7 +15487,7 @@
         <v>696</v>
       </c>
       <c r="B697" s="12" t="s">
-        <v>2261</v>
+        <v>2258</v>
       </c>
       <c r="C697" s="2"/>
       <c r="D697" s="25"/>
@@ -15494,7 +15497,7 @@
         <v>697</v>
       </c>
       <c r="B698" s="12" t="s">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="C698" s="2"/>
       <c r="D698" s="25"/>
@@ -15504,7 +15507,7 @@
         <v>698</v>
       </c>
       <c r="B699" s="12" t="s">
-        <v>2263</v>
+        <v>2260</v>
       </c>
       <c r="C699" s="2"/>
       <c r="D699" s="25"/>
@@ -15514,7 +15517,7 @@
         <v>699</v>
       </c>
       <c r="B700" s="12" t="s">
-        <v>2264</v>
+        <v>2261</v>
       </c>
       <c r="C700" s="2"/>
       <c r="D700" s="25"/>
@@ -15524,7 +15527,7 @@
         <v>700</v>
       </c>
       <c r="B701" s="12" t="s">
-        <v>2265</v>
+        <v>2262</v>
       </c>
       <c r="C701" s="2"/>
       <c r="D701" s="25"/>
@@ -15534,7 +15537,7 @@
         <v>701</v>
       </c>
       <c r="B702" s="12" t="s">
-        <v>2266</v>
+        <v>2263</v>
       </c>
       <c r="C702" s="2"/>
       <c r="D702" s="25"/>
@@ -15544,7 +15547,7 @@
         <v>702</v>
       </c>
       <c r="B703" s="12" t="s">
-        <v>2267</v>
+        <v>2264</v>
       </c>
       <c r="C703" s="2"/>
       <c r="D703" s="25"/>
@@ -15554,7 +15557,7 @@
         <v>703</v>
       </c>
       <c r="B704" s="12" t="s">
-        <v>2268</v>
+        <v>2265</v>
       </c>
       <c r="C704" s="2"/>
       <c r="D704" s="25"/>
@@ -15564,7 +15567,7 @@
         <v>704</v>
       </c>
       <c r="B705" s="12" t="s">
-        <v>2269</v>
+        <v>2266</v>
       </c>
       <c r="C705" s="2"/>
       <c r="D705" s="25"/>
@@ -15574,7 +15577,7 @@
         <v>705</v>
       </c>
       <c r="B706" s="12" t="s">
-        <v>2270</v>
+        <v>2267</v>
       </c>
       <c r="C706" s="2"/>
       <c r="D706" s="25"/>
@@ -15584,7 +15587,7 @@
         <v>706</v>
       </c>
       <c r="B707" s="12" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
       <c r="C707" s="2"/>
       <c r="D707" s="25"/>
@@ -15594,7 +15597,7 @@
         <v>707</v>
       </c>
       <c r="B708" s="12" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
       <c r="C708" s="2"/>
       <c r="D708" s="25"/>
@@ -15604,7 +15607,7 @@
         <v>708</v>
       </c>
       <c r="B709" s="12" t="s">
-        <v>2273</v>
+        <v>2270</v>
       </c>
       <c r="C709" s="2"/>
       <c r="D709" s="25"/>
@@ -15614,7 +15617,7 @@
         <v>709</v>
       </c>
       <c r="B710" s="12" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
       <c r="C710" s="2"/>
       <c r="D710" s="25"/>
@@ -15624,7 +15627,7 @@
         <v>710</v>
       </c>
       <c r="B711" s="12" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
       <c r="C711" s="2"/>
       <c r="D711" s="25"/>
@@ -15634,7 +15637,7 @@
         <v>711</v>
       </c>
       <c r="B712" s="12" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
       <c r="C712" s="2"/>
       <c r="D712" s="25"/>
@@ -15644,7 +15647,7 @@
         <v>712</v>
       </c>
       <c r="B713" s="12" t="s">
-        <v>2277</v>
+        <v>2274</v>
       </c>
       <c r="C713" s="2"/>
       <c r="D713" s="25"/>
@@ -15654,7 +15657,7 @@
         <v>713</v>
       </c>
       <c r="B714" s="12" t="s">
-        <v>2278</v>
+        <v>2275</v>
       </c>
       <c r="C714" s="2"/>
       <c r="D714" s="25"/>
@@ -15664,7 +15667,7 @@
         <v>714</v>
       </c>
       <c r="B715" s="12" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
       <c r="C715" s="2"/>
       <c r="D715" s="25"/>
@@ -15674,7 +15677,7 @@
         <v>715</v>
       </c>
       <c r="B716" s="12" t="s">
-        <v>2280</v>
+        <v>2277</v>
       </c>
       <c r="C716" s="2"/>
       <c r="D716" s="25"/>
@@ -15684,7 +15687,7 @@
         <v>716</v>
       </c>
       <c r="B717" s="12" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
       <c r="C717" s="2"/>
       <c r="D717" s="25"/>
@@ -15694,7 +15697,7 @@
         <v>717</v>
       </c>
       <c r="B718" s="12" t="s">
-        <v>2282</v>
+        <v>2279</v>
       </c>
       <c r="C718" s="2"/>
       <c r="D718" s="25"/>
@@ -15748,9 +15751,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01128F9A-3AE1-6541-A247-7E828F31667C}">
   <dimension ref="A1:G562"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C372" sqref="C372"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A369" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D380" sqref="D380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -15780,7 +15783,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-16</v>
+        <v>截至2020-09-17</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -15800,7 +15803,7 @@
       </c>
       <c r="G2" s="12">
         <f>COUNTIF(C2:C562,"ok")</f>
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1">
@@ -15819,7 +15822,7 @@
       </c>
       <c r="G3" s="12">
         <f>COUNTBLANK(C2:C562)</f>
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1">
@@ -15838,7 +15841,7 @@
       </c>
       <c r="G4" s="15">
         <f>G2/(G2+G3)</f>
-        <v>0.64884135472370763</v>
+        <v>0.67736185383244207</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1">
@@ -20080,7 +20083,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>256</v>
@@ -20818,8 +20821,12 @@
       <c r="B378" s="5" t="s">
         <v>1244</v>
       </c>
-      <c r="C378" s="2"/>
-      <c r="D378" s="25"/>
+      <c r="C378" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D378" s="25">
+        <v>44091</v>
+      </c>
     </row>
     <row r="379" spans="1:4" customFormat="1">
       <c r="A379" s="2">
@@ -20828,8 +20835,12 @@
       <c r="B379" s="5" t="s">
         <v>1245</v>
       </c>
-      <c r="C379" s="2"/>
-      <c r="D379" s="25"/>
+      <c r="C379" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D379" s="25">
+        <v>44091</v>
+      </c>
     </row>
     <row r="380" spans="1:4" customFormat="1">
       <c r="A380" s="2">
@@ -20838,8 +20849,12 @@
       <c r="B380" s="5" t="s">
         <v>1246</v>
       </c>
-      <c r="C380" s="2"/>
-      <c r="D380" s="25"/>
+      <c r="C380" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D380" s="25">
+        <v>44091</v>
+      </c>
     </row>
     <row r="381" spans="1:4" customFormat="1">
       <c r="A381" s="2">
@@ -20848,8 +20863,12 @@
       <c r="B381" s="5" t="s">
         <v>1247</v>
       </c>
-      <c r="C381" s="2"/>
-      <c r="D381" s="25"/>
+      <c r="C381" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D381" s="25">
+        <v>44091</v>
+      </c>
     </row>
     <row r="382" spans="1:4" customFormat="1">
       <c r="A382" s="2">
@@ -20858,8 +20877,12 @@
       <c r="B382" s="5" t="s">
         <v>1248</v>
       </c>
-      <c r="C382" s="2"/>
-      <c r="D382" s="25"/>
+      <c r="C382" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D382" s="25">
+        <v>44091</v>
+      </c>
     </row>
     <row r="383" spans="1:4" customFormat="1">
       <c r="A383" s="2">
@@ -20868,8 +20891,12 @@
       <c r="B383" s="5" t="s">
         <v>1249</v>
       </c>
-      <c r="C383" s="2"/>
-      <c r="D383" s="25"/>
+      <c r="C383" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D383" s="25">
+        <v>44091</v>
+      </c>
     </row>
     <row r="384" spans="1:4" customFormat="1">
       <c r="A384" s="2">
@@ -20878,8 +20905,12 @@
       <c r="B384" s="5" t="s">
         <v>1250</v>
       </c>
-      <c r="C384" s="2"/>
-      <c r="D384" s="25"/>
+      <c r="C384" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D384" s="25">
+        <v>44091</v>
+      </c>
     </row>
     <row r="385" spans="1:4" customFormat="1">
       <c r="A385" s="2">
@@ -20888,8 +20919,12 @@
       <c r="B385" s="5" t="s">
         <v>1251</v>
       </c>
-      <c r="C385" s="2"/>
-      <c r="D385" s="25"/>
+      <c r="C385" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D385" s="25">
+        <v>44091</v>
+      </c>
     </row>
     <row r="386" spans="1:4" customFormat="1">
       <c r="A386" s="2">
@@ -20898,8 +20933,12 @@
       <c r="B386" s="5" t="s">
         <v>1252</v>
       </c>
-      <c r="C386" s="2"/>
-      <c r="D386" s="25"/>
+      <c r="C386" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D386" s="25">
+        <v>44091</v>
+      </c>
     </row>
     <row r="387" spans="1:4" customFormat="1">
       <c r="A387" s="2">
@@ -20908,8 +20947,12 @@
       <c r="B387" s="5" t="s">
         <v>1253</v>
       </c>
-      <c r="C387" s="2"/>
-      <c r="D387" s="25"/>
+      <c r="C387" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D387" s="25">
+        <v>44091</v>
+      </c>
     </row>
     <row r="388" spans="1:4" customFormat="1">
       <c r="A388" s="2">
@@ -20918,65 +20961,89 @@
       <c r="B388" s="5" t="s">
         <v>1254</v>
       </c>
-      <c r="C388" s="2"/>
-      <c r="D388" s="25"/>
+      <c r="C388" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D388" s="25">
+        <v>44091</v>
+      </c>
     </row>
     <row r="389" spans="1:4" customFormat="1">
       <c r="A389" s="2">
         <v>388</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C389" s="2"/>
-      <c r="D389" s="25"/>
+        <v>2292</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D389" s="25">
+        <v>44091</v>
+      </c>
     </row>
     <row r="390" spans="1:4" customFormat="1">
       <c r="A390" s="2">
         <v>389</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C390" s="2"/>
-      <c r="D390" s="25"/>
+        <v>1255</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D390" s="25">
+        <v>44091</v>
+      </c>
     </row>
     <row r="391" spans="1:4" customFormat="1">
       <c r="A391" s="2">
         <v>390</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C391" s="2"/>
-      <c r="D391" s="25"/>
+        <v>1256</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D391" s="25">
+        <v>44091</v>
+      </c>
     </row>
     <row r="392" spans="1:4" customFormat="1">
       <c r="A392" s="2">
         <v>391</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C392" s="2"/>
-      <c r="D392" s="25"/>
+        <v>2291</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D392" s="25">
+        <v>44091</v>
+      </c>
     </row>
     <row r="393" spans="1:4" customFormat="1">
       <c r="A393" s="2">
         <v>392</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C393" s="2"/>
-      <c r="D393" s="25"/>
+        <v>2290</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D393" s="25">
+        <v>44091</v>
+      </c>
     </row>
     <row r="394" spans="1:4" customFormat="1">
       <c r="A394" s="2">
         <v>393</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="C394" s="2"/>
       <c r="D394" s="25"/>
@@ -20986,7 +21053,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="C395" s="2"/>
       <c r="D395" s="25"/>
@@ -20996,7 +21063,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="C396" s="2"/>
       <c r="D396" s="25"/>
@@ -21006,7 +21073,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C397" s="2"/>
       <c r="D397" s="25"/>
@@ -21016,7 +21083,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="C398" s="2"/>
       <c r="D398" s="25"/>
@@ -21026,7 +21093,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="C399" s="2"/>
       <c r="D399" s="25"/>
@@ -21036,7 +21103,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="C400" s="2"/>
       <c r="D400" s="25"/>
@@ -21046,7 +21113,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C401" s="2"/>
       <c r="D401" s="25"/>
@@ -21056,7 +21123,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="C402" s="2"/>
       <c r="D402" s="25"/>
@@ -21066,7 +21133,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="C403" s="2"/>
       <c r="D403" s="25"/>
@@ -21076,7 +21143,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="C404" s="2"/>
       <c r="D404" s="25"/>
@@ -21086,7 +21153,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="C405" s="2"/>
       <c r="D405" s="25"/>
@@ -21096,7 +21163,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="C406" s="2"/>
       <c r="D406" s="25"/>
@@ -21106,7 +21173,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" s="25"/>
@@ -21116,7 +21183,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C408" s="2"/>
       <c r="D408" s="25"/>
@@ -21126,7 +21193,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="C409" s="2"/>
       <c r="D409" s="25"/>
@@ -21136,7 +21203,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="C410" s="2"/>
       <c r="D410" s="25"/>
@@ -21146,7 +21213,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="C411" s="2"/>
       <c r="D411" s="25"/>
@@ -21156,7 +21223,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="C412" s="2"/>
       <c r="D412" s="25"/>
@@ -21166,7 +21233,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="C413" s="2"/>
       <c r="D413" s="25"/>
@@ -21176,7 +21243,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="C414" s="2"/>
       <c r="D414" s="25"/>
@@ -21186,7 +21253,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="C415" s="2"/>
       <c r="D415" s="25"/>
@@ -21196,7 +21263,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="C416" s="2"/>
       <c r="D416" s="25"/>
@@ -21206,7 +21273,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="C417" s="2"/>
       <c r="D417" s="25"/>
@@ -21216,7 +21283,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="C418" s="2"/>
       <c r="D418" s="25"/>
@@ -21226,7 +21293,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="C419" s="2"/>
       <c r="D419" s="25"/>
@@ -21236,7 +21303,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="C420" s="2"/>
       <c r="D420" s="25"/>
@@ -21256,7 +21323,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="C422" s="2"/>
       <c r="D422" s="25"/>
@@ -21276,7 +21343,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="C424" s="2"/>
       <c r="D424" s="25"/>
@@ -21286,7 +21353,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="C425" s="2"/>
       <c r="D425" s="25"/>
@@ -21296,7 +21363,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="C426" s="2"/>
       <c r="D426" s="25"/>
@@ -21306,7 +21373,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="C427" s="2"/>
       <c r="D427" s="25"/>
@@ -21316,7 +21383,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="C428" s="2"/>
       <c r="D428" s="25"/>
@@ -21326,7 +21393,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
       <c r="C429" s="2"/>
       <c r="D429" s="25"/>
@@ -21336,7 +21403,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C430" s="2"/>
       <c r="D430" s="25"/>
@@ -21346,7 +21413,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="C431" s="2"/>
       <c r="D431" s="25"/>
@@ -21356,7 +21423,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="C432" s="2"/>
       <c r="D432" s="25"/>
@@ -21366,7 +21433,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="C433" s="2"/>
       <c r="D433" s="25"/>
@@ -21376,7 +21443,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="C434" s="2"/>
       <c r="D434" s="25"/>
@@ -21386,7 +21453,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="C435" s="2"/>
       <c r="D435" s="25"/>
@@ -21396,7 +21463,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="C436" s="2"/>
       <c r="D436" s="25"/>
@@ -21406,7 +21473,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="C437" s="2"/>
       <c r="D437" s="25"/>
@@ -21416,7 +21483,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C438" s="2"/>
       <c r="D438" s="25"/>
@@ -21426,7 +21493,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C439" s="2"/>
       <c r="D439" s="25"/>
@@ -21436,7 +21503,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="C440" s="2"/>
       <c r="D440" s="25"/>
@@ -21446,7 +21513,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C441" s="2"/>
       <c r="D441" s="25"/>
@@ -21456,7 +21523,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C442" s="2"/>
       <c r="D442" s="25"/>
@@ -21466,7 +21533,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="C443" s="2"/>
       <c r="D443" s="25"/>
@@ -21486,7 +21553,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="C445" s="2"/>
       <c r="D445" s="25"/>
@@ -21496,7 +21563,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="C446" s="2"/>
       <c r="D446" s="25"/>
@@ -21506,7 +21573,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="C447" s="2"/>
       <c r="D447" s="25"/>
@@ -21516,7 +21583,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="C448" s="2"/>
       <c r="D448" s="25"/>
@@ -21526,7 +21593,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="C449" s="2"/>
       <c r="D449" s="25"/>
@@ -21536,7 +21603,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="C450" s="2"/>
       <c r="D450" s="25"/>
@@ -21546,7 +21613,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="C451" s="2"/>
       <c r="D451" s="25"/>
@@ -21556,7 +21623,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="C452" s="2"/>
       <c r="D452" s="25"/>
@@ -21616,7 +21683,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="C458" s="2"/>
       <c r="D458" s="25"/>
@@ -21646,7 +21713,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="C461" s="2"/>
       <c r="D461" s="25"/>
@@ -21986,7 +22053,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="5" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="C495" s="2"/>
       <c r="D495" s="25"/>
@@ -21996,7 +22063,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="5" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="C496" s="2"/>
       <c r="D496" s="25"/>
@@ -22006,7 +22073,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="5" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="C497" s="2"/>
       <c r="D497" s="25"/>
@@ -22016,7 +22083,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="5" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="C498" s="2"/>
       <c r="D498" s="25"/>
@@ -22026,7 +22093,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="5" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="C499" s="2"/>
       <c r="D499" s="25"/>
@@ -22036,7 +22103,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="5" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="C500" s="2"/>
       <c r="D500" s="25"/>
@@ -22046,7 +22113,7 @@
         <v>500</v>
       </c>
       <c r="B501" s="5" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="C501" s="2"/>
       <c r="D501" s="25"/>
@@ -22056,7 +22123,7 @@
         <v>501</v>
       </c>
       <c r="B502" s="5" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="C502" s="2"/>
       <c r="D502" s="25"/>
@@ -22066,7 +22133,7 @@
         <v>502</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="C503" s="2"/>
       <c r="D503" s="25"/>
@@ -22076,7 +22143,7 @@
         <v>503</v>
       </c>
       <c r="B504" s="5" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C504" s="2"/>
       <c r="D504" s="25"/>
@@ -22086,7 +22153,7 @@
         <v>504</v>
       </c>
       <c r="B505" s="5" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="C505" s="2"/>
       <c r="D505" s="25"/>
@@ -22096,7 +22163,7 @@
         <v>505</v>
       </c>
       <c r="B506" s="5" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="C506" s="2"/>
       <c r="D506" s="25"/>
@@ -22106,7 +22173,7 @@
         <v>506</v>
       </c>
       <c r="B507" s="5" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="C507" s="2"/>
       <c r="D507" s="25"/>
@@ -22116,7 +22183,7 @@
         <v>507</v>
       </c>
       <c r="B508" s="5" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="C508" s="2"/>
       <c r="D508" s="25"/>
@@ -22126,7 +22193,7 @@
         <v>508</v>
       </c>
       <c r="B509" s="5" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="C509" s="2"/>
       <c r="D509" s="25"/>
@@ -22136,7 +22203,7 @@
         <v>509</v>
       </c>
       <c r="B510" s="5" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="C510" s="2"/>
       <c r="D510" s="25"/>
@@ -22146,7 +22213,7 @@
         <v>510</v>
       </c>
       <c r="B511" s="5" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="C511" s="2"/>
       <c r="D511" s="25"/>
@@ -22156,7 +22223,7 @@
         <v>511</v>
       </c>
       <c r="B512" s="5" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="C512" s="2"/>
       <c r="D512" s="25"/>
@@ -22166,7 +22233,7 @@
         <v>512</v>
       </c>
       <c r="B513" s="5" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="C513" s="2"/>
       <c r="D513" s="25"/>
@@ -22176,7 +22243,7 @@
         <v>513</v>
       </c>
       <c r="B514" s="5" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="C514" s="2"/>
       <c r="D514" s="25"/>
@@ -22741,7 +22808,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-16</v>
+        <v>截至2020-09-17</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -22750,7 +22817,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>256</v>
@@ -22771,7 +22838,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>256</v>
@@ -22792,7 +22859,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="25"/>
@@ -22809,7 +22876,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="25"/>
@@ -22819,7 +22886,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="25"/>
@@ -22830,7 +22897,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="25"/>
@@ -22841,7 +22908,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="25"/>
@@ -22851,7 +22918,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="25"/>
@@ -22862,7 +22929,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="25"/>
@@ -22872,7 +22939,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="25"/>
@@ -22882,7 +22949,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="25"/>
@@ -22892,7 +22959,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="25"/>
@@ -22902,7 +22969,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="25"/>
@@ -22912,7 +22979,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="25"/>
@@ -22922,7 +22989,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="25"/>
@@ -22932,7 +22999,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="25"/>
@@ -22942,7 +23009,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="25"/>
@@ -22952,7 +23019,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="25"/>
@@ -22962,7 +23029,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="25"/>
@@ -22972,7 +23039,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="25"/>
@@ -22982,7 +23049,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="25"/>
@@ -22992,7 +23059,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="25"/>
@@ -23002,7 +23069,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="25"/>
@@ -23012,7 +23079,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="25"/>
@@ -23022,7 +23089,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="25"/>
@@ -23032,7 +23099,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="25"/>
@@ -23042,7 +23109,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="25"/>
@@ -23052,7 +23119,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="25"/>
@@ -23062,7 +23129,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="25"/>
@@ -23072,7 +23139,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="25"/>
@@ -23082,7 +23149,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="25"/>
@@ -23092,7 +23159,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="25"/>
@@ -23102,7 +23169,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="25"/>
@@ -23112,7 +23179,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="25"/>
@@ -23122,7 +23189,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="25"/>
@@ -23132,7 +23199,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="25"/>
@@ -23142,7 +23209,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="25"/>
@@ -23152,7 +23219,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="25"/>
@@ -23162,7 +23229,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="25"/>
@@ -23172,7 +23239,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="25"/>
@@ -23182,7 +23249,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="25"/>
@@ -23192,7 +23259,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="25"/>
@@ -23202,7 +23269,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="25"/>
@@ -23212,7 +23279,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="25"/>
@@ -23222,7 +23289,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="25"/>
@@ -23232,7 +23299,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="25"/>
@@ -23242,7 +23309,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="25"/>
@@ -23252,7 +23319,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="25"/>
@@ -23262,7 +23329,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="25"/>
@@ -23272,7 +23339,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="25"/>
@@ -23282,7 +23349,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="25"/>
@@ -23292,7 +23359,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="25"/>
@@ -23302,7 +23369,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="25"/>
@@ -23312,7 +23379,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="25"/>
@@ -23322,7 +23389,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="25"/>
@@ -23332,7 +23399,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="25"/>
@@ -23342,7 +23409,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="25"/>
@@ -23352,7 +23419,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="25"/>
@@ -23362,7 +23429,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="25"/>
@@ -23372,7 +23439,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="25"/>
@@ -23382,7 +23449,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="25"/>
@@ -23392,7 +23459,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="25"/>
@@ -23402,7 +23469,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="25"/>
@@ -23412,7 +23479,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="25"/>
@@ -23422,7 +23489,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="25"/>
@@ -23432,7 +23499,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="25"/>
@@ -23442,7 +23509,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="25"/>
@@ -23452,7 +23519,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="25"/>
@@ -23462,7 +23529,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="25"/>
@@ -23472,7 +23539,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="25"/>
@@ -23482,7 +23549,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="25"/>
@@ -23492,7 +23559,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="25"/>
@@ -23502,7 +23569,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="25"/>
@@ -23512,7 +23579,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="25"/>
@@ -23522,7 +23589,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="25"/>
@@ -23532,7 +23599,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="25"/>
@@ -23542,7 +23609,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="25"/>
@@ -23552,7 +23619,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="25"/>
@@ -23562,7 +23629,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="25"/>
@@ -23572,7 +23639,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="25"/>
@@ -23582,7 +23649,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="25"/>
@@ -23592,7 +23659,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="25"/>
@@ -23602,7 +23669,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="25"/>
@@ -23612,7 +23679,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="25"/>
@@ -23622,7 +23689,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="25"/>
@@ -23632,7 +23699,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="25"/>
@@ -23642,7 +23709,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="25"/>
@@ -23652,7 +23719,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="25"/>
@@ -23662,7 +23729,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="25"/>
@@ -23672,7 +23739,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="25"/>
@@ -23682,7 +23749,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="25"/>
@@ -23692,7 +23759,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="25"/>
@@ -23702,7 +23769,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="25"/>
@@ -23712,7 +23779,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="25"/>
@@ -23722,7 +23789,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="25"/>
@@ -23732,7 +23799,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="25"/>
@@ -23742,7 +23809,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="25"/>
@@ -23752,7 +23819,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="25"/>
@@ -23762,7 +23829,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="25"/>
@@ -23772,7 +23839,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="25"/>
@@ -23782,7 +23849,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="25"/>
@@ -23792,7 +23859,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="25"/>
@@ -23802,7 +23869,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="25"/>
@@ -23812,7 +23879,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="25"/>
@@ -23822,7 +23889,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="25"/>
@@ -23832,7 +23899,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="25"/>
@@ -23842,7 +23909,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="25"/>
@@ -23852,7 +23919,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="25"/>
@@ -23862,7 +23929,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="25"/>
@@ -23872,7 +23939,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="25"/>
@@ -23882,7 +23949,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="25"/>
@@ -23892,7 +23959,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="25"/>
@@ -23902,7 +23969,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="25"/>
@@ -23912,7 +23979,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="26"/>
@@ -23922,7 +23989,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="26"/>
@@ -23932,7 +23999,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="26"/>
@@ -23942,7 +24009,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="26"/>
@@ -23953,7 +24020,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="26"/>
@@ -23964,7 +24031,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="26"/>
@@ -23975,7 +24042,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" s="26"/>
@@ -23986,7 +24053,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="26"/>
@@ -23997,7 +24064,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="26"/>
@@ -24008,7 +24075,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="26"/>
@@ -24019,7 +24086,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="26"/>
@@ -24030,7 +24097,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="26"/>
@@ -24041,7 +24108,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="25"/>
@@ -24052,7 +24119,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="25"/>
@@ -24063,7 +24130,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="25"/>
@@ -24074,7 +24141,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="25"/>
@@ -24085,7 +24152,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="25"/>
@@ -24095,7 +24162,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" s="25"/>
@@ -24105,7 +24172,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="25"/>
@@ -24115,7 +24182,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="25"/>
@@ -24125,7 +24192,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="25"/>
@@ -24135,7 +24202,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="25"/>
@@ -24145,7 +24212,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="25"/>
@@ -24155,7 +24222,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="25"/>
@@ -24165,7 +24232,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="25"/>
@@ -24175,7 +24242,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="25"/>
@@ -24185,7 +24252,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="25"/>
@@ -24195,7 +24262,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="25"/>
@@ -24205,7 +24272,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="25"/>
@@ -24215,7 +24282,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="25"/>
@@ -24225,7 +24292,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="25"/>
@@ -24235,7 +24302,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="25"/>
@@ -24245,7 +24312,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="25"/>
@@ -24255,7 +24322,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="25"/>
@@ -24265,7 +24332,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="25"/>
@@ -24275,7 +24342,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="25"/>
@@ -24285,7 +24352,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>1487</v>
+        <v>1484</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="25"/>
@@ -24295,7 +24362,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>1488</v>
+        <v>1485</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="25"/>
@@ -24305,7 +24372,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="25"/>
@@ -24315,7 +24382,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="25"/>
@@ -24325,7 +24392,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="25"/>
@@ -24335,7 +24402,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="25"/>
@@ -24345,7 +24412,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="25"/>
@@ -24355,7 +24422,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="25"/>
@@ -24365,7 +24432,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" s="25"/>
@@ -24375,7 +24442,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" s="25"/>
@@ -24385,7 +24452,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="25"/>
@@ -24395,7 +24462,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>1498</v>
+        <v>1495</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="25"/>
@@ -24405,7 +24472,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="25"/>
@@ -24415,7 +24482,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="25"/>
@@ -24425,7 +24492,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="25"/>
@@ -24435,7 +24502,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" s="25"/>
@@ -24445,7 +24512,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" s="25"/>
@@ -24455,7 +24522,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>1504</v>
+        <v>1501</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="25"/>
@@ -24465,7 +24532,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="25"/>
@@ -24475,7 +24542,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="25"/>
@@ -24485,7 +24552,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="25"/>
@@ -24495,7 +24562,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="25"/>
@@ -24505,7 +24572,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" s="25"/>
@@ -24515,7 +24582,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" s="25"/>
@@ -24525,7 +24592,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="25"/>
@@ -24535,7 +24602,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="25"/>
@@ -24545,7 +24612,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="25"/>
@@ -24555,7 +24622,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="25"/>
@@ -24565,7 +24632,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="25"/>
@@ -24575,7 +24642,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="25"/>
@@ -24585,7 +24652,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" s="25"/>
@@ -24595,7 +24662,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="25"/>
@@ -24605,7 +24672,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="25"/>
@@ -24615,7 +24682,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="25"/>
@@ -24625,7 +24692,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="25"/>
@@ -24635,7 +24702,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="25"/>
@@ -24645,7 +24712,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" s="25"/>
@@ -24655,7 +24722,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="25"/>
@@ -24665,7 +24732,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="25"/>
@@ -24675,7 +24742,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="25"/>
@@ -24685,7 +24752,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="25"/>
@@ -24695,7 +24762,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="25"/>
@@ -24705,7 +24772,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="25"/>
@@ -24715,7 +24782,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" s="25"/>
@@ -24725,7 +24792,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" s="25"/>
@@ -24735,7 +24802,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" s="25"/>
@@ -24745,7 +24812,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="25"/>
@@ -24755,7 +24822,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="25"/>
@@ -24765,7 +24832,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="25"/>
@@ -24775,7 +24842,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="25"/>
@@ -24785,7 +24852,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="25"/>
@@ -24795,7 +24862,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" s="25"/>
@@ -24805,7 +24872,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="25"/>
@@ -24815,7 +24882,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="25"/>
@@ -24825,7 +24892,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="25"/>
@@ -24835,7 +24902,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="25"/>
@@ -24845,7 +24912,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="25"/>
@@ -24855,7 +24922,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" s="25"/>
@@ -24865,7 +24932,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" s="25"/>
@@ -24875,7 +24942,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="25"/>
@@ -24885,7 +24952,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>1547</v>
+        <v>1544</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="25"/>
@@ -24895,7 +24962,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>1548</v>
+        <v>1545</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="25"/>
@@ -24905,7 +24972,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="25"/>
@@ -24915,7 +24982,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="25"/>
@@ -24925,7 +24992,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" s="25"/>
@@ -24935,7 +25002,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" s="25"/>
@@ -24945,7 +25012,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="25"/>
@@ -24955,7 +25022,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="25"/>
@@ -24965,7 +25032,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="25"/>
@@ -24975,7 +25042,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="25"/>
@@ -24985,7 +25052,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="25"/>
@@ -24995,7 +25062,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="25"/>
@@ -25005,7 +25072,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" s="25"/>
@@ -25015,7 +25082,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" s="25"/>
@@ -25025,7 +25092,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" s="25"/>
@@ -25035,7 +25102,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" s="25"/>
@@ -25045,7 +25112,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="25"/>
@@ -25055,7 +25122,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="25"/>
@@ -25147,7 +25214,7 @@
       </c>
       <c r="H1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-16</v>
+        <v>截至2020-09-17</v>
       </c>
       <c r="I1" s="12"/>
     </row>
@@ -31370,7 +31437,7 @@
         <v>252</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>254</v>
@@ -31380,7 +31447,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-16</v>
+        <v>截至2020-09-17</v>
       </c>
       <c r="G1" s="12"/>
     </row>

--- a/学习进度.xlsx
+++ b/学习进度.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laohangdeche/Library/Mobile Documents/com~apple~CloudDocs/个人/学习笔记/Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790FAA06-AAC5-F644-9F04-DB32DF3C18A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12872907-3A70-AB4F-B1F3-94992434FCF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="460" windowWidth="28300" windowHeight="16900" xr2:uid="{C7784454-BD36-8040-9BFE-2AD014209B0B}"/>
+    <workbookView xWindow="220" yWindow="460" windowWidth="28300" windowHeight="16900" activeTab="2" xr2:uid="{C7784454-BD36-8040-9BFE-2AD014209B0B}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2836" uniqueCount="2293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2849" uniqueCount="2293">
   <si>
     <t>01_Java语言发展史</t>
   </si>
@@ -7224,9 +7224,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7234,6 +7231,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7770,7 +7770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD3A9F5-E3B9-294E-94C4-D90EDC24648C}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -7843,7 +7843,7 @@
       </c>
       <c r="D3" s="2">
         <f>Java_黑马!G2</f>
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="E3" s="2">
         <f>Java_黑马!G2+Java_黑马!G3</f>
@@ -7851,11 +7851,11 @@
       </c>
       <c r="F3" s="15">
         <f t="shared" ref="F3:F4" si="0">D3/E3</f>
-        <v>0.67736185383244207</v>
+        <v>0.70053475935828879</v>
       </c>
       <c r="G3" s="25">
         <f>MAX(Java_黑马!D2:D562)</f>
-        <v>44091</v>
+        <v>44092</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7987,7 +7987,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-17</v>
+        <v>截至2020-09-18</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -15751,9 +15751,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01128F9A-3AE1-6541-A247-7E828F31667C}">
   <dimension ref="A1:G562"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A369" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D380" sqref="D380"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A400" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C416" sqref="C416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -15783,7 +15783,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-17</v>
+        <v>截至2020-09-18</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -15803,7 +15803,7 @@
       </c>
       <c r="G2" s="12">
         <f>COUNTIF(C2:C562,"ok")</f>
-        <v>380</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1">
@@ -15822,7 +15822,7 @@
       </c>
       <c r="G3" s="12">
         <f>COUNTBLANK(C2:C562)</f>
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1">
@@ -15841,7 +15841,7 @@
       </c>
       <c r="G4" s="15">
         <f>G2/(G2+G3)</f>
-        <v>0.67736185383244207</v>
+        <v>0.70053475935828879</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1">
@@ -21045,8 +21045,12 @@
       <c r="B394" s="5" t="s">
         <v>1257</v>
       </c>
-      <c r="C394" s="2"/>
-      <c r="D394" s="25"/>
+      <c r="C394" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D394" s="25">
+        <v>44092</v>
+      </c>
     </row>
     <row r="395" spans="1:4" customFormat="1">
       <c r="A395" s="2">
@@ -21055,8 +21059,12 @@
       <c r="B395" s="5" t="s">
         <v>1258</v>
       </c>
-      <c r="C395" s="2"/>
-      <c r="D395" s="25"/>
+      <c r="C395" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D395" s="25">
+        <v>44092</v>
+      </c>
     </row>
     <row r="396" spans="1:4" customFormat="1">
       <c r="A396" s="2">
@@ -21065,8 +21073,12 @@
       <c r="B396" s="5" t="s">
         <v>1259</v>
       </c>
-      <c r="C396" s="2"/>
-      <c r="D396" s="25"/>
+      <c r="C396" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D396" s="25">
+        <v>44092</v>
+      </c>
     </row>
     <row r="397" spans="1:4" customFormat="1">
       <c r="A397" s="2">
@@ -21075,8 +21087,12 @@
       <c r="B397" s="5" t="s">
         <v>1260</v>
       </c>
-      <c r="C397" s="2"/>
-      <c r="D397" s="25"/>
+      <c r="C397" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D397" s="25">
+        <v>44092</v>
+      </c>
     </row>
     <row r="398" spans="1:4" customFormat="1">
       <c r="A398" s="2">
@@ -21085,8 +21101,12 @@
       <c r="B398" s="5" t="s">
         <v>1261</v>
       </c>
-      <c r="C398" s="2"/>
-      <c r="D398" s="25"/>
+      <c r="C398" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D398" s="25">
+        <v>44092</v>
+      </c>
     </row>
     <row r="399" spans="1:4" customFormat="1">
       <c r="A399" s="2">
@@ -21095,8 +21115,12 @@
       <c r="B399" s="5" t="s">
         <v>1262</v>
       </c>
-      <c r="C399" s="2"/>
-      <c r="D399" s="25"/>
+      <c r="C399" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D399" s="25">
+        <v>44092</v>
+      </c>
     </row>
     <row r="400" spans="1:4" customFormat="1">
       <c r="A400" s="2">
@@ -21105,8 +21129,12 @@
       <c r="B400" s="5" t="s">
         <v>1263</v>
       </c>
-      <c r="C400" s="2"/>
-      <c r="D400" s="25"/>
+      <c r="C400" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D400" s="25">
+        <v>44092</v>
+      </c>
     </row>
     <row r="401" spans="1:4" customFormat="1">
       <c r="A401" s="2">
@@ -21115,8 +21143,12 @@
       <c r="B401" s="5" t="s">
         <v>1264</v>
       </c>
-      <c r="C401" s="2"/>
-      <c r="D401" s="25"/>
+      <c r="C401" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D401" s="25">
+        <v>44092</v>
+      </c>
     </row>
     <row r="402" spans="1:4" customFormat="1">
       <c r="A402" s="2">
@@ -21125,8 +21157,12 @@
       <c r="B402" s="5" t="s">
         <v>1265</v>
       </c>
-      <c r="C402" s="2"/>
-      <c r="D402" s="25"/>
+      <c r="C402" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D402" s="25">
+        <v>44092</v>
+      </c>
     </row>
     <row r="403" spans="1:4" customFormat="1">
       <c r="A403" s="2">
@@ -21135,8 +21171,12 @@
       <c r="B403" s="5" t="s">
         <v>1266</v>
       </c>
-      <c r="C403" s="2"/>
-      <c r="D403" s="25"/>
+      <c r="C403" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D403" s="25">
+        <v>44092</v>
+      </c>
     </row>
     <row r="404" spans="1:4" customFormat="1">
       <c r="A404" s="2">
@@ -21145,8 +21185,12 @@
       <c r="B404" s="5" t="s">
         <v>1267</v>
       </c>
-      <c r="C404" s="2"/>
-      <c r="D404" s="25"/>
+      <c r="C404" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D404" s="25">
+        <v>44092</v>
+      </c>
     </row>
     <row r="405" spans="1:4" customFormat="1">
       <c r="A405" s="2">
@@ -21155,8 +21199,12 @@
       <c r="B405" s="5" t="s">
         <v>1268</v>
       </c>
-      <c r="C405" s="2"/>
-      <c r="D405" s="25"/>
+      <c r="C405" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D405" s="25">
+        <v>44092</v>
+      </c>
     </row>
     <row r="406" spans="1:4" customFormat="1">
       <c r="A406" s="2">
@@ -21165,8 +21213,12 @@
       <c r="B406" s="5" t="s">
         <v>1269</v>
       </c>
-      <c r="C406" s="2"/>
-      <c r="D406" s="25"/>
+      <c r="C406" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D406" s="25">
+        <v>44092</v>
+      </c>
     </row>
     <row r="407" spans="1:4" customFormat="1">
       <c r="A407" s="2">
@@ -22808,7 +22860,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-17</v>
+        <v>截至2020-09-18</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -25214,12 +25266,12 @@
       </c>
       <c r="H1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-17</v>
+        <v>截至2020-09-18</v>
       </c>
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" customFormat="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="34" t="s">
         <v>1016</v>
       </c>
       <c r="B2" s="20">
@@ -25242,7 +25294,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" customFormat="1">
-      <c r="A3" s="31"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="20">
         <v>1.2</v>
       </c>
@@ -25263,7 +25315,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" customFormat="1">
-      <c r="A4" s="31"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="20" t="s">
         <v>261</v>
       </c>
@@ -25284,7 +25336,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" customFormat="1">
-      <c r="A5" s="31"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="20" t="s">
         <v>262</v>
       </c>
@@ -25298,7 +25350,7 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:9" customFormat="1">
-      <c r="A6" s="31"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="20" t="s">
         <v>263</v>
       </c>
@@ -25313,7 +25365,7 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:9" customFormat="1">
-      <c r="A7" s="31"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="20" t="s">
         <v>264</v>
       </c>
@@ -25328,7 +25380,7 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9" customFormat="1">
-      <c r="A8" s="31"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="20" t="s">
         <v>265</v>
       </c>
@@ -25342,7 +25394,7 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:9" customFormat="1">
-      <c r="A9" s="31"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="20" t="s">
         <v>266</v>
       </c>
@@ -25357,7 +25409,7 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:9" customFormat="1">
-      <c r="A10" s="31"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="20" t="s">
         <v>267</v>
       </c>
@@ -25371,7 +25423,7 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:9" customFormat="1">
-      <c r="A11" s="31"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="20" t="s">
         <v>268</v>
       </c>
@@ -25385,7 +25437,7 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:9" customFormat="1">
-      <c r="A12" s="31"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="20" t="s">
         <v>269</v>
       </c>
@@ -25399,7 +25451,7 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:9" customFormat="1">
-      <c r="A13" s="31"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="20" t="s">
         <v>270</v>
       </c>
@@ -25413,7 +25465,7 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:9" customFormat="1">
-      <c r="A14" s="31"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="20" t="s">
         <v>271</v>
       </c>
@@ -25427,7 +25479,7 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:9" customFormat="1">
-      <c r="A15" s="31"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="20">
         <v>1.3</v>
       </c>
@@ -25441,7 +25493,7 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:9" customFormat="1">
-      <c r="A16" s="31"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="20">
         <v>1.4</v>
       </c>
@@ -25455,7 +25507,7 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" customFormat="1">
-      <c r="A17" s="31"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="20">
         <v>1.5</v>
       </c>
@@ -25469,7 +25521,7 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" customFormat="1">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="34" t="s">
         <v>1017</v>
       </c>
       <c r="B18" s="20">
@@ -25485,7 +25537,7 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" customFormat="1">
-      <c r="A19" s="31"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="20" t="s">
         <v>272</v>
       </c>
@@ -25499,7 +25551,7 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" customFormat="1">
-      <c r="A20" s="31"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="20" t="s">
         <v>273</v>
       </c>
@@ -25513,7 +25565,7 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" customFormat="1">
-      <c r="A21" s="31"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="20" t="s">
         <v>274</v>
       </c>
@@ -25527,7 +25579,7 @@
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" customFormat="1">
-      <c r="A22" s="31"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="20">
         <v>2.2000000000000002</v>
       </c>
@@ -25541,7 +25593,7 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" customFormat="1">
-      <c r="A23" s="31"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="20">
         <v>2.2999999999999998</v>
       </c>
@@ -25555,7 +25607,7 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" customFormat="1">
-      <c r="A24" s="31"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="20">
         <v>2.4</v>
       </c>
@@ -25569,7 +25621,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" customFormat="1">
-      <c r="A25" s="31"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="20">
         <v>2.5</v>
       </c>
@@ -25583,7 +25635,7 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" customFormat="1">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="34" t="s">
         <v>1027</v>
       </c>
       <c r="B26" s="20">
@@ -25599,7 +25651,7 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" customFormat="1">
-      <c r="A27" s="31"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="20">
         <v>3.2</v>
       </c>
@@ -25613,7 +25665,7 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" customFormat="1">
-      <c r="A28" s="31"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="20">
         <v>3.3</v>
       </c>
@@ -25627,7 +25679,7 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" customFormat="1">
-      <c r="A29" s="31"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="20" t="s">
         <v>275</v>
       </c>
@@ -25641,7 +25693,7 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" customFormat="1">
-      <c r="A30" s="31"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="20" t="s">
         <v>276</v>
       </c>
@@ -25655,7 +25707,7 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" customFormat="1">
-      <c r="A31" s="31"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="20" t="s">
         <v>277</v>
       </c>
@@ -25669,7 +25721,7 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" customFormat="1">
-      <c r="A32" s="31"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="20" t="s">
         <v>278</v>
       </c>
@@ -25683,7 +25735,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" customFormat="1">
-      <c r="A33" s="31"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="20" t="s">
         <v>279</v>
       </c>
@@ -25697,7 +25749,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" customFormat="1">
-      <c r="A34" s="31"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="20">
         <v>3.4</v>
       </c>
@@ -25711,7 +25763,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" customFormat="1">
-      <c r="A35" s="31"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="20" t="s">
         <v>280</v>
       </c>
@@ -25725,7 +25777,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" customFormat="1">
-      <c r="A36" s="31"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="20" t="s">
         <v>281</v>
       </c>
@@ -25739,7 +25791,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" customFormat="1">
-      <c r="A37" s="31"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="20">
         <v>3.5</v>
       </c>
@@ -25753,7 +25805,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" customFormat="1">
-      <c r="A38" s="31"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="20" t="s">
         <v>282</v>
       </c>
@@ -25767,7 +25819,7 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" customFormat="1">
-      <c r="A39" s="31"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="20" t="s">
         <v>283</v>
       </c>
@@ -25781,7 +25833,7 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" customFormat="1">
-      <c r="A40" s="31"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="20" t="s">
         <v>284</v>
       </c>
@@ -25795,7 +25847,7 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" customFormat="1">
-      <c r="A41" s="31"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="20" t="s">
         <v>285</v>
       </c>
@@ -25809,7 +25861,7 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" customFormat="1">
-      <c r="A42" s="31"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="20" t="s">
         <v>286</v>
       </c>
@@ -25823,7 +25875,7 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" customFormat="1">
-      <c r="A43" s="31"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="20" t="s">
         <v>287</v>
       </c>
@@ -25837,7 +25889,7 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" customFormat="1">
-      <c r="A44" s="31"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="20" t="s">
         <v>288</v>
       </c>
@@ -25851,7 +25903,7 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" customFormat="1">
-      <c r="A45" s="31"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="20" t="s">
         <v>289</v>
       </c>
@@ -25865,7 +25917,7 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" customFormat="1">
-      <c r="A46" s="31"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="20" t="s">
         <v>290</v>
       </c>
@@ -25879,7 +25931,7 @@
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" customFormat="1">
-      <c r="A47" s="31"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="20">
         <v>3.6</v>
       </c>
@@ -25893,7 +25945,7 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" customFormat="1">
-      <c r="A48" s="31"/>
+      <c r="A48" s="34"/>
       <c r="B48" s="20" t="s">
         <v>291</v>
       </c>
@@ -25907,7 +25959,7 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" customFormat="1">
-      <c r="A49" s="31"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="20" t="s">
         <v>292</v>
       </c>
@@ -25921,7 +25973,7 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" customFormat="1">
-      <c r="A50" s="31"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="20" t="s">
         <v>293</v>
       </c>
@@ -25935,7 +25987,7 @@
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" customFormat="1">
-      <c r="A51" s="31"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="20" t="s">
         <v>294</v>
       </c>
@@ -25949,7 +26001,7 @@
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" customFormat="1">
-      <c r="A52" s="31"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="20" t="s">
         <v>295</v>
       </c>
@@ -25963,7 +26015,7 @@
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" customFormat="1">
-      <c r="A53" s="31"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="20" t="s">
         <v>296</v>
       </c>
@@ -25977,7 +26029,7 @@
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" customFormat="1">
-      <c r="A54" s="31"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="20" t="s">
         <v>297</v>
       </c>
@@ -25991,7 +26043,7 @@
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" customFormat="1">
-      <c r="A55" s="31"/>
+      <c r="A55" s="34"/>
       <c r="B55" s="20" t="s">
         <v>298</v>
       </c>
@@ -26005,7 +26057,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" customFormat="1">
-      <c r="A56" s="31"/>
+      <c r="A56" s="34"/>
       <c r="B56" s="20" t="s">
         <v>299</v>
       </c>
@@ -26019,7 +26071,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" customFormat="1">
-      <c r="A57" s="31"/>
+      <c r="A57" s="34"/>
       <c r="B57" s="20">
         <v>3.7</v>
       </c>
@@ -26033,7 +26085,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" customFormat="1">
-      <c r="A58" s="31"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="20" t="s">
         <v>300</v>
       </c>
@@ -26047,7 +26099,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" customFormat="1">
-      <c r="A59" s="31"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="20" t="s">
         <v>301</v>
       </c>
@@ -26061,7 +26113,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" customFormat="1">
-      <c r="A60" s="31"/>
+      <c r="A60" s="34"/>
       <c r="B60" s="20" t="s">
         <v>302</v>
       </c>
@@ -26075,7 +26127,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" customFormat="1">
-      <c r="A61" s="31"/>
+      <c r="A61" s="34"/>
       <c r="B61" s="20">
         <v>3.8</v>
       </c>
@@ -26089,7 +26141,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" customFormat="1">
-      <c r="A62" s="31"/>
+      <c r="A62" s="34"/>
       <c r="B62" s="20" t="s">
         <v>303</v>
       </c>
@@ -26103,7 +26155,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" customFormat="1">
-      <c r="A63" s="31"/>
+      <c r="A63" s="34"/>
       <c r="B63" s="20" t="s">
         <v>304</v>
       </c>
@@ -26117,7 +26169,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" customFormat="1">
-      <c r="A64" s="31"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="20" t="s">
         <v>305</v>
       </c>
@@ -26131,7 +26183,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" customFormat="1">
-      <c r="A65" s="31"/>
+      <c r="A65" s="34"/>
       <c r="B65" s="20" t="s">
         <v>306</v>
       </c>
@@ -26145,7 +26197,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" customFormat="1">
-      <c r="A66" s="31"/>
+      <c r="A66" s="34"/>
       <c r="B66" s="20" t="s">
         <v>307</v>
       </c>
@@ -26159,7 +26211,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" customFormat="1">
-      <c r="A67" s="31"/>
+      <c r="A67" s="34"/>
       <c r="B67" s="20" t="s">
         <v>308</v>
       </c>
@@ -26173,7 +26225,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" customFormat="1">
-      <c r="A68" s="31"/>
+      <c r="A68" s="34"/>
       <c r="B68" s="20">
         <v>3.9</v>
       </c>
@@ -26187,7 +26239,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" customFormat="1">
-      <c r="A69" s="31"/>
+      <c r="A69" s="34"/>
       <c r="B69" s="20">
         <v>3.1</v>
       </c>
@@ -26201,7 +26253,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" customFormat="1">
-      <c r="A70" s="31"/>
+      <c r="A70" s="34"/>
       <c r="B70" s="20" t="s">
         <v>309</v>
       </c>
@@ -26215,7 +26267,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" customFormat="1">
-      <c r="A71" s="31"/>
+      <c r="A71" s="34"/>
       <c r="B71" s="20" t="s">
         <v>310</v>
       </c>
@@ -26229,7 +26281,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" customFormat="1">
-      <c r="A72" s="31"/>
+      <c r="A72" s="34"/>
       <c r="B72" s="20" t="s">
         <v>311</v>
       </c>
@@ -26243,7 +26295,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" customFormat="1">
-      <c r="A73" s="31"/>
+      <c r="A73" s="34"/>
       <c r="B73" s="20" t="s">
         <v>312</v>
       </c>
@@ -26257,7 +26309,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" customFormat="1">
-      <c r="A74" s="31"/>
+      <c r="A74" s="34"/>
       <c r="B74" s="20" t="s">
         <v>313</v>
       </c>
@@ -26271,7 +26323,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" customFormat="1">
-      <c r="A75" s="31"/>
+      <c r="A75" s="34"/>
       <c r="B75" s="20" t="s">
         <v>314</v>
       </c>
@@ -26285,7 +26337,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" customFormat="1">
-      <c r="A76" s="31"/>
+      <c r="A76" s="34"/>
       <c r="B76" s="20" t="s">
         <v>315</v>
       </c>
@@ -26299,7 +26351,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" customFormat="1">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="34" t="s">
         <v>1028</v>
       </c>
       <c r="B77" s="20">
@@ -26315,7 +26367,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" customFormat="1">
-      <c r="A78" s="31"/>
+      <c r="A78" s="34"/>
       <c r="B78" s="20" t="s">
         <v>316</v>
       </c>
@@ -26329,7 +26381,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" customFormat="1">
-      <c r="A79" s="31"/>
+      <c r="A79" s="34"/>
       <c r="B79" s="20" t="s">
         <v>317</v>
       </c>
@@ -26343,7 +26395,7 @@
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" customFormat="1">
-      <c r="A80" s="31"/>
+      <c r="A80" s="34"/>
       <c r="B80" s="20" t="s">
         <v>318</v>
       </c>
@@ -26357,7 +26409,7 @@
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" customFormat="1">
-      <c r="A81" s="31"/>
+      <c r="A81" s="34"/>
       <c r="B81" s="20" t="s">
         <v>319</v>
       </c>
@@ -26371,7 +26423,7 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" customFormat="1">
-      <c r="A82" s="31"/>
+      <c r="A82" s="34"/>
       <c r="B82" s="20">
         <v>4.2</v>
       </c>
@@ -26385,7 +26437,7 @@
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" customFormat="1">
-      <c r="A83" s="31"/>
+      <c r="A83" s="34"/>
       <c r="B83" s="20" t="s">
         <v>320</v>
       </c>
@@ -26399,7 +26451,7 @@
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" customFormat="1">
-      <c r="A84" s="31"/>
+      <c r="A84" s="34"/>
       <c r="B84" s="20" t="s">
         <v>321</v>
       </c>
@@ -26413,7 +26465,7 @@
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" customFormat="1">
-      <c r="A85" s="31"/>
+      <c r="A85" s="34"/>
       <c r="B85" s="20" t="s">
         <v>322</v>
       </c>
@@ -26427,7 +26479,7 @@
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" customFormat="1">
-      <c r="A86" s="31"/>
+      <c r="A86" s="34"/>
       <c r="B86" s="20">
         <v>4.3</v>
       </c>
@@ -26441,7 +26493,7 @@
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" customFormat="1">
-      <c r="A87" s="31"/>
+      <c r="A87" s="34"/>
       <c r="B87" s="20" t="s">
         <v>323</v>
       </c>
@@ -26455,7 +26507,7 @@
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" customFormat="1">
-      <c r="A88" s="31"/>
+      <c r="A88" s="34"/>
       <c r="B88" s="20" t="s">
         <v>324</v>
       </c>
@@ -26469,7 +26521,7 @@
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" customFormat="1">
-      <c r="A89" s="31"/>
+      <c r="A89" s="34"/>
       <c r="B89" s="20" t="s">
         <v>325</v>
       </c>
@@ -26483,7 +26535,7 @@
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" customFormat="1">
-      <c r="A90" s="31"/>
+      <c r="A90" s="34"/>
       <c r="B90" s="20" t="s">
         <v>326</v>
       </c>
@@ -26497,7 +26549,7 @@
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" customFormat="1">
-      <c r="A91" s="31"/>
+      <c r="A91" s="34"/>
       <c r="B91" s="20" t="s">
         <v>327</v>
       </c>
@@ -26511,7 +26563,7 @@
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" customFormat="1">
-      <c r="A92" s="31"/>
+      <c r="A92" s="34"/>
       <c r="B92" s="20" t="s">
         <v>328</v>
       </c>
@@ -26525,7 +26577,7 @@
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" customFormat="1">
-      <c r="A93" s="31"/>
+      <c r="A93" s="34"/>
       <c r="B93" s="20" t="s">
         <v>329</v>
       </c>
@@ -26539,7 +26591,7 @@
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" customFormat="1">
-      <c r="A94" s="31"/>
+      <c r="A94" s="34"/>
       <c r="B94" s="20" t="s">
         <v>330</v>
       </c>
@@ -26553,7 +26605,7 @@
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" customFormat="1">
-      <c r="A95" s="31"/>
+      <c r="A95" s="34"/>
       <c r="B95" s="20" t="s">
         <v>331</v>
       </c>
@@ -26567,7 +26619,7 @@
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" customFormat="1">
-      <c r="A96" s="31"/>
+      <c r="A96" s="34"/>
       <c r="B96" s="20">
         <v>4.4000000000000004</v>
       </c>
@@ -26581,7 +26633,7 @@
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" customFormat="1">
-      <c r="A97" s="31"/>
+      <c r="A97" s="34"/>
       <c r="B97" s="20" t="s">
         <v>332</v>
       </c>
@@ -26595,7 +26647,7 @@
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" customFormat="1">
-      <c r="A98" s="31"/>
+      <c r="A98" s="34"/>
       <c r="B98" s="20" t="s">
         <v>333</v>
       </c>
@@ -26609,7 +26661,7 @@
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" customFormat="1">
-      <c r="A99" s="31"/>
+      <c r="A99" s="34"/>
       <c r="B99" s="20" t="s">
         <v>334</v>
       </c>
@@ -26623,7 +26675,7 @@
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" customFormat="1">
-      <c r="A100" s="31"/>
+      <c r="A100" s="34"/>
       <c r="B100" s="20" t="s">
         <v>335</v>
       </c>
@@ -26637,7 +26689,7 @@
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" customFormat="1">
-      <c r="A101" s="31"/>
+      <c r="A101" s="34"/>
       <c r="B101" s="20" t="s">
         <v>336</v>
       </c>
@@ -26651,7 +26703,7 @@
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" customFormat="1">
-      <c r="A102" s="31"/>
+      <c r="A102" s="34"/>
       <c r="B102" s="20">
         <v>4.5</v>
       </c>
@@ -26665,7 +26717,7 @@
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" customFormat="1">
-      <c r="A103" s="31"/>
+      <c r="A103" s="34"/>
       <c r="B103" s="20">
         <v>4.5999999999999996</v>
       </c>
@@ -26679,7 +26731,7 @@
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" customFormat="1">
-      <c r="A104" s="31"/>
+      <c r="A104" s="34"/>
       <c r="B104" s="20" t="s">
         <v>337</v>
       </c>
@@ -26693,7 +26745,7 @@
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" customFormat="1">
-      <c r="A105" s="31"/>
+      <c r="A105" s="34"/>
       <c r="B105" s="20" t="s">
         <v>338</v>
       </c>
@@ -26707,7 +26759,7 @@
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" customFormat="1">
-      <c r="A106" s="31"/>
+      <c r="A106" s="34"/>
       <c r="B106" s="20" t="s">
         <v>339</v>
       </c>
@@ -26721,7 +26773,7 @@
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" customFormat="1">
-      <c r="A107" s="31"/>
+      <c r="A107" s="34"/>
       <c r="B107" s="20" t="s">
         <v>340</v>
       </c>
@@ -26735,7 +26787,7 @@
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" customFormat="1">
-      <c r="A108" s="31"/>
+      <c r="A108" s="34"/>
       <c r="B108" s="20" t="s">
         <v>341</v>
       </c>
@@ -26749,7 +26801,7 @@
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" customFormat="1">
-      <c r="A109" s="31"/>
+      <c r="A109" s="34"/>
       <c r="B109" s="20" t="s">
         <v>342</v>
       </c>
@@ -26763,7 +26815,7 @@
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" customFormat="1">
-      <c r="A110" s="31"/>
+      <c r="A110" s="34"/>
       <c r="B110" s="20" t="s">
         <v>343</v>
       </c>
@@ -26777,7 +26829,7 @@
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" customFormat="1">
-      <c r="A111" s="31"/>
+      <c r="A111" s="34"/>
       <c r="B111" s="20" t="s">
         <v>344</v>
       </c>
@@ -26791,7 +26843,7 @@
       <c r="F111" s="9"/>
     </row>
     <row r="112" spans="1:6" customFormat="1">
-      <c r="A112" s="31"/>
+      <c r="A112" s="34"/>
       <c r="B112" s="20">
         <v>4.7</v>
       </c>
@@ -26805,7 +26857,7 @@
       <c r="F112" s="9"/>
     </row>
     <row r="113" spans="1:8" customFormat="1">
-      <c r="A113" s="31"/>
+      <c r="A113" s="34"/>
       <c r="B113" s="20" t="s">
         <v>345</v>
       </c>
@@ -26819,7 +26871,7 @@
       <c r="F113" s="9"/>
     </row>
     <row r="114" spans="1:8" customFormat="1">
-      <c r="A114" s="31"/>
+      <c r="A114" s="34"/>
       <c r="B114" s="20" t="s">
         <v>346</v>
       </c>
@@ -26833,7 +26885,7 @@
       <c r="F114" s="9"/>
     </row>
     <row r="115" spans="1:8" customFormat="1">
-      <c r="A115" s="31"/>
+      <c r="A115" s="34"/>
       <c r="B115" s="20" t="s">
         <v>347</v>
       </c>
@@ -26847,7 +26899,7 @@
       <c r="F115" s="9"/>
     </row>
     <row r="116" spans="1:8" customFormat="1">
-      <c r="A116" s="31"/>
+      <c r="A116" s="34"/>
       <c r="B116" s="20" t="s">
         <v>348</v>
       </c>
@@ -26862,7 +26914,7 @@
       <c r="H116" s="7"/>
     </row>
     <row r="117" spans="1:8" customFormat="1">
-      <c r="A117" s="31"/>
+      <c r="A117" s="34"/>
       <c r="B117" s="20">
         <v>4.8</v>
       </c>
@@ -26877,7 +26929,7 @@
       <c r="H117" s="7"/>
     </row>
     <row r="118" spans="1:8" customFormat="1">
-      <c r="A118" s="31"/>
+      <c r="A118" s="34"/>
       <c r="B118" s="20" t="s">
         <v>349</v>
       </c>
@@ -26892,7 +26944,7 @@
       <c r="H118" s="7"/>
     </row>
     <row r="119" spans="1:8" customFormat="1">
-      <c r="A119" s="31"/>
+      <c r="A119" s="34"/>
       <c r="B119" s="20">
         <v>4.9000000000000004</v>
       </c>
@@ -26907,7 +26959,7 @@
       <c r="H119" s="7"/>
     </row>
     <row r="120" spans="1:8" customFormat="1">
-      <c r="A120" s="31"/>
+      <c r="A120" s="34"/>
       <c r="B120" s="20" t="s">
         <v>350</v>
       </c>
@@ -26922,7 +26974,7 @@
       <c r="H120" s="7"/>
     </row>
     <row r="121" spans="1:8" customFormat="1">
-      <c r="A121" s="31"/>
+      <c r="A121" s="34"/>
       <c r="B121" s="20" t="s">
         <v>351</v>
       </c>
@@ -26937,7 +26989,7 @@
       <c r="H121" s="7"/>
     </row>
     <row r="122" spans="1:8" customFormat="1">
-      <c r="A122" s="31"/>
+      <c r="A122" s="34"/>
       <c r="B122" s="20" t="s">
         <v>352</v>
       </c>
@@ -26952,7 +27004,7 @@
       <c r="H122" s="7"/>
     </row>
     <row r="123" spans="1:8" customFormat="1">
-      <c r="A123" s="31"/>
+      <c r="A123" s="34"/>
       <c r="B123" s="20" t="s">
         <v>353</v>
       </c>
@@ -26967,7 +27019,7 @@
       <c r="H123" s="7"/>
     </row>
     <row r="124" spans="1:8" customFormat="1">
-      <c r="A124" s="31"/>
+      <c r="A124" s="34"/>
       <c r="B124" s="20" t="s">
         <v>354</v>
       </c>
@@ -26982,7 +27034,7 @@
       <c r="H124" s="7"/>
     </row>
     <row r="125" spans="1:8" customFormat="1">
-      <c r="A125" s="31"/>
+      <c r="A125" s="34"/>
       <c r="B125" s="20" t="s">
         <v>355</v>
       </c>
@@ -26997,7 +27049,7 @@
       <c r="H125" s="7"/>
     </row>
     <row r="126" spans="1:8" customFormat="1">
-      <c r="A126" s="31"/>
+      <c r="A126" s="34"/>
       <c r="B126" s="20" t="s">
         <v>356</v>
       </c>
@@ -27012,7 +27064,7 @@
       <c r="H126" s="7"/>
     </row>
     <row r="127" spans="1:8" customFormat="1">
-      <c r="A127" s="31"/>
+      <c r="A127" s="34"/>
       <c r="B127" s="21">
         <v>4.0999999999999996</v>
       </c>
@@ -27027,7 +27079,7 @@
       <c r="H127" s="7"/>
     </row>
     <row r="128" spans="1:8" customFormat="1">
-      <c r="A128" s="31" t="s">
+      <c r="A128" s="34" t="s">
         <v>1029</v>
       </c>
       <c r="B128" s="20">
@@ -27043,7 +27095,7 @@
       <c r="F128" s="6"/>
     </row>
     <row r="129" spans="1:6" customFormat="1">
-      <c r="A129" s="31"/>
+      <c r="A129" s="34"/>
       <c r="B129" s="20" t="s">
         <v>357</v>
       </c>
@@ -27057,7 +27109,7 @@
       <c r="F129" s="6"/>
     </row>
     <row r="130" spans="1:6" customFormat="1">
-      <c r="A130" s="31"/>
+      <c r="A130" s="34"/>
       <c r="B130" s="20" t="s">
         <v>358</v>
       </c>
@@ -27071,7 +27123,7 @@
       <c r="F130" s="6"/>
     </row>
     <row r="131" spans="1:6" customFormat="1">
-      <c r="A131" s="31"/>
+      <c r="A131" s="34"/>
       <c r="B131" s="20" t="s">
         <v>359</v>
       </c>
@@ -27085,7 +27137,7 @@
       <c r="F131" s="6"/>
     </row>
     <row r="132" spans="1:6" customFormat="1">
-      <c r="A132" s="31"/>
+      <c r="A132" s="34"/>
       <c r="B132" s="20" t="s">
         <v>360</v>
       </c>
@@ -27099,7 +27151,7 @@
       <c r="F132" s="6"/>
     </row>
     <row r="133" spans="1:6" customFormat="1">
-      <c r="A133" s="31"/>
+      <c r="A133" s="34"/>
       <c r="B133" s="20" t="s">
         <v>361</v>
       </c>
@@ -27113,7 +27165,7 @@
       <c r="F133" s="6"/>
     </row>
     <row r="134" spans="1:6" customFormat="1">
-      <c r="A134" s="31"/>
+      <c r="A134" s="34"/>
       <c r="B134" s="20" t="s">
         <v>362</v>
       </c>
@@ -27127,7 +27179,7 @@
       <c r="F134" s="6"/>
     </row>
     <row r="135" spans="1:6" customFormat="1">
-      <c r="A135" s="31"/>
+      <c r="A135" s="34"/>
       <c r="B135" s="20" t="s">
         <v>363</v>
       </c>
@@ -27141,7 +27193,7 @@
       <c r="F135" s="6"/>
     </row>
     <row r="136" spans="1:6" customFormat="1">
-      <c r="A136" s="31"/>
+      <c r="A136" s="34"/>
       <c r="B136" s="20" t="s">
         <v>364</v>
       </c>
@@ -27155,7 +27207,7 @@
       <c r="F136" s="6"/>
     </row>
     <row r="137" spans="1:6" customFormat="1">
-      <c r="A137" s="31"/>
+      <c r="A137" s="34"/>
       <c r="B137" s="20" t="s">
         <v>365</v>
       </c>
@@ -27169,7 +27221,7 @@
       <c r="F137" s="6"/>
     </row>
     <row r="138" spans="1:6" customFormat="1">
-      <c r="A138" s="31"/>
+      <c r="A138" s="34"/>
       <c r="B138" s="20" t="s">
         <v>366</v>
       </c>
@@ -27183,7 +27235,7 @@
       <c r="F138" s="6"/>
     </row>
     <row r="139" spans="1:6" customFormat="1">
-      <c r="A139" s="31"/>
+      <c r="A139" s="34"/>
       <c r="B139" s="20">
         <v>5.2</v>
       </c>
@@ -27197,7 +27249,7 @@
       <c r="F139" s="6"/>
     </row>
     <row r="140" spans="1:6" customFormat="1">
-      <c r="A140" s="31"/>
+      <c r="A140" s="34"/>
       <c r="B140" s="20" t="s">
         <v>367</v>
       </c>
@@ -27211,7 +27263,7 @@
       <c r="F140" s="6"/>
     </row>
     <row r="141" spans="1:6" customFormat="1">
-      <c r="A141" s="31"/>
+      <c r="A141" s="34"/>
       <c r="B141" s="20" t="s">
         <v>368</v>
       </c>
@@ -27225,7 +27277,7 @@
       <c r="F141" s="6"/>
     </row>
     <row r="142" spans="1:6" customFormat="1">
-      <c r="A142" s="31"/>
+      <c r="A142" s="34"/>
       <c r="B142" s="20" t="s">
         <v>369</v>
       </c>
@@ -27239,7 +27291,7 @@
       <c r="F142" s="6"/>
     </row>
     <row r="143" spans="1:6" customFormat="1">
-      <c r="A143" s="31"/>
+      <c r="A143" s="34"/>
       <c r="B143" s="20" t="s">
         <v>370</v>
       </c>
@@ -27253,7 +27305,7 @@
       <c r="F143" s="6"/>
     </row>
     <row r="144" spans="1:6" customFormat="1">
-      <c r="A144" s="31"/>
+      <c r="A144" s="34"/>
       <c r="B144" s="20">
         <v>5.3</v>
       </c>
@@ -27267,7 +27319,7 @@
       <c r="F144" s="6"/>
     </row>
     <row r="145" spans="1:6" customFormat="1">
-      <c r="A145" s="31"/>
+      <c r="A145" s="34"/>
       <c r="B145" s="20" t="s">
         <v>371</v>
       </c>
@@ -27281,7 +27333,7 @@
       <c r="F145" s="6"/>
     </row>
     <row r="146" spans="1:6" customFormat="1">
-      <c r="A146" s="31"/>
+      <c r="A146" s="34"/>
       <c r="B146" s="20" t="s">
         <v>372</v>
       </c>
@@ -27295,7 +27347,7 @@
       <c r="F146" s="6"/>
     </row>
     <row r="147" spans="1:6" customFormat="1">
-      <c r="A147" s="31"/>
+      <c r="A147" s="34"/>
       <c r="B147" s="20">
         <v>5.4</v>
       </c>
@@ -27309,7 +27361,7 @@
       <c r="F147" s="6"/>
     </row>
     <row r="148" spans="1:6" customFormat="1">
-      <c r="A148" s="31"/>
+      <c r="A148" s="34"/>
       <c r="B148" s="20">
         <v>5.5</v>
       </c>
@@ -27323,7 +27375,7 @@
       <c r="F148" s="6"/>
     </row>
     <row r="149" spans="1:6" customFormat="1">
-      <c r="A149" s="31"/>
+      <c r="A149" s="34"/>
       <c r="B149" s="20">
         <v>5.6</v>
       </c>
@@ -27337,7 +27389,7 @@
       <c r="F149" s="6"/>
     </row>
     <row r="150" spans="1:6" customFormat="1">
-      <c r="A150" s="31"/>
+      <c r="A150" s="34"/>
       <c r="B150" s="20">
         <v>5.7</v>
       </c>
@@ -27351,7 +27403,7 @@
       <c r="F150" s="6"/>
     </row>
     <row r="151" spans="1:6" customFormat="1">
-      <c r="A151" s="31"/>
+      <c r="A151" s="34"/>
       <c r="B151" s="20" t="s">
         <v>373</v>
       </c>
@@ -27365,7 +27417,7 @@
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="1:6" customFormat="1">
-      <c r="A152" s="31"/>
+      <c r="A152" s="34"/>
       <c r="B152" s="20" t="s">
         <v>374</v>
       </c>
@@ -27379,7 +27431,7 @@
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:6" customFormat="1">
-      <c r="A153" s="31"/>
+      <c r="A153" s="34"/>
       <c r="B153" s="20" t="s">
         <v>375</v>
       </c>
@@ -27393,7 +27445,7 @@
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" customFormat="1">
-      <c r="A154" s="31"/>
+      <c r="A154" s="34"/>
       <c r="B154" s="20" t="s">
         <v>376</v>
       </c>
@@ -27407,7 +27459,7 @@
       <c r="F154" s="2"/>
     </row>
     <row r="155" spans="1:6" customFormat="1">
-      <c r="A155" s="31"/>
+      <c r="A155" s="34"/>
       <c r="B155" s="20" t="s">
         <v>377</v>
       </c>
@@ -27421,7 +27473,7 @@
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" customFormat="1">
-      <c r="A156" s="31"/>
+      <c r="A156" s="34"/>
       <c r="B156" s="20" t="s">
         <v>378</v>
       </c>
@@ -27435,7 +27487,7 @@
       <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:6" customFormat="1">
-      <c r="A157" s="31"/>
+      <c r="A157" s="34"/>
       <c r="B157" s="20">
         <v>5.8</v>
       </c>
@@ -27449,7 +27501,7 @@
       <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:6" customFormat="1">
-      <c r="A158" s="31" t="s">
+      <c r="A158" s="34" t="s">
         <v>1026</v>
       </c>
       <c r="B158" s="20">
@@ -27465,7 +27517,7 @@
       <c r="F158" s="2"/>
     </row>
     <row r="159" spans="1:6" customFormat="1">
-      <c r="A159" s="31"/>
+      <c r="A159" s="34"/>
       <c r="B159" s="20" t="s">
         <v>379</v>
       </c>
@@ -27479,7 +27531,7 @@
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" customFormat="1">
-      <c r="A160" s="31"/>
+      <c r="A160" s="34"/>
       <c r="B160" s="20" t="s">
         <v>380</v>
       </c>
@@ -27493,7 +27545,7 @@
       <c r="F160" s="2"/>
     </row>
     <row r="161" spans="1:6" customFormat="1">
-      <c r="A161" s="31"/>
+      <c r="A161" s="34"/>
       <c r="B161" s="20" t="s">
         <v>381</v>
       </c>
@@ -27507,7 +27559,7 @@
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" customFormat="1">
-      <c r="A162" s="31"/>
+      <c r="A162" s="34"/>
       <c r="B162" s="20" t="s">
         <v>382</v>
       </c>
@@ -27521,7 +27573,7 @@
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:6" customFormat="1">
-      <c r="A163" s="31"/>
+      <c r="A163" s="34"/>
       <c r="B163" s="20" t="s">
         <v>383</v>
       </c>
@@ -27535,7 +27587,7 @@
       <c r="F163" s="2"/>
     </row>
     <row r="164" spans="1:6" customFormat="1">
-      <c r="A164" s="31"/>
+      <c r="A164" s="34"/>
       <c r="B164" s="20" t="s">
         <v>384</v>
       </c>
@@ -27549,7 +27601,7 @@
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" customFormat="1">
-      <c r="A165" s="31"/>
+      <c r="A165" s="34"/>
       <c r="B165" s="20">
         <v>6.2</v>
       </c>
@@ -27563,7 +27615,7 @@
       <c r="F165" s="2"/>
     </row>
     <row r="166" spans="1:6" customFormat="1">
-      <c r="A166" s="31"/>
+      <c r="A166" s="34"/>
       <c r="B166" s="20" t="s">
         <v>385</v>
       </c>
@@ -27577,7 +27629,7 @@
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" customFormat="1">
-      <c r="A167" s="31"/>
+      <c r="A167" s="34"/>
       <c r="B167" s="20" t="s">
         <v>386</v>
       </c>
@@ -27591,7 +27643,7 @@
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="1:6" customFormat="1">
-      <c r="A168" s="31"/>
+      <c r="A168" s="34"/>
       <c r="B168" s="20" t="s">
         <v>387</v>
       </c>
@@ -27605,7 +27657,7 @@
       <c r="F168" s="2"/>
     </row>
     <row r="169" spans="1:6" customFormat="1">
-      <c r="A169" s="31"/>
+      <c r="A169" s="34"/>
       <c r="B169" s="20">
         <v>6.3</v>
       </c>
@@ -27619,7 +27671,7 @@
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" customFormat="1">
-      <c r="A170" s="31"/>
+      <c r="A170" s="34"/>
       <c r="B170" s="20" t="s">
         <v>388</v>
       </c>
@@ -27633,7 +27685,7 @@
       <c r="F170" s="2"/>
     </row>
     <row r="171" spans="1:6" customFormat="1">
-      <c r="A171" s="31"/>
+      <c r="A171" s="34"/>
       <c r="B171" s="20" t="s">
         <v>389</v>
       </c>
@@ -27647,7 +27699,7 @@
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" customFormat="1">
-      <c r="A172" s="31"/>
+      <c r="A172" s="34"/>
       <c r="B172" s="20" t="s">
         <v>390</v>
       </c>
@@ -27661,7 +27713,7 @@
       <c r="F172" s="2"/>
     </row>
     <row r="173" spans="1:6" customFormat="1">
-      <c r="A173" s="31"/>
+      <c r="A173" s="34"/>
       <c r="B173" s="20" t="s">
         <v>391</v>
       </c>
@@ -27675,7 +27727,7 @@
       <c r="F173" s="2"/>
     </row>
     <row r="174" spans="1:6" customFormat="1">
-      <c r="A174" s="31"/>
+      <c r="A174" s="34"/>
       <c r="B174" s="20" t="s">
         <v>392</v>
       </c>
@@ -27689,7 +27741,7 @@
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" customFormat="1">
-      <c r="A175" s="31"/>
+      <c r="A175" s="34"/>
       <c r="B175" s="20" t="s">
         <v>393</v>
       </c>
@@ -27703,7 +27755,7 @@
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="1:6" customFormat="1">
-      <c r="A176" s="31"/>
+      <c r="A176" s="34"/>
       <c r="B176" s="20" t="s">
         <v>394</v>
       </c>
@@ -27717,7 +27769,7 @@
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" customFormat="1">
-      <c r="A177" s="31"/>
+      <c r="A177" s="34"/>
       <c r="B177" s="20" t="s">
         <v>395</v>
       </c>
@@ -27731,7 +27783,7 @@
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:6" customFormat="1">
-      <c r="A178" s="31"/>
+      <c r="A178" s="34"/>
       <c r="B178" s="20">
         <v>6.4</v>
       </c>
@@ -27745,7 +27797,7 @@
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:6" customFormat="1">
-      <c r="A179" s="31"/>
+      <c r="A179" s="34"/>
       <c r="B179" s="20" t="s">
         <v>396</v>
       </c>
@@ -27759,7 +27811,7 @@
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" customFormat="1">
-      <c r="A180" s="31"/>
+      <c r="A180" s="34"/>
       <c r="B180" s="20" t="s">
         <v>397</v>
       </c>
@@ -27773,7 +27825,7 @@
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6" customFormat="1">
-      <c r="A181" s="31"/>
+      <c r="A181" s="34"/>
       <c r="B181" s="20" t="s">
         <v>398</v>
       </c>
@@ -27787,7 +27839,7 @@
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" customFormat="1">
-      <c r="A182" s="31"/>
+      <c r="A182" s="34"/>
       <c r="B182" s="20" t="s">
         <v>399</v>
       </c>
@@ -27801,7 +27853,7 @@
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:6" customFormat="1">
-      <c r="A183" s="31"/>
+      <c r="A183" s="34"/>
       <c r="B183" s="20" t="s">
         <v>400</v>
       </c>
@@ -27815,7 +27867,7 @@
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6" customFormat="1">
-      <c r="A184" s="31"/>
+      <c r="A184" s="34"/>
       <c r="B184" s="20" t="s">
         <v>401</v>
       </c>
@@ -27829,7 +27881,7 @@
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:6" customFormat="1">
-      <c r="A185" s="31"/>
+      <c r="A185" s="34"/>
       <c r="B185" s="20" t="s">
         <v>402</v>
       </c>
@@ -27843,7 +27895,7 @@
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" customFormat="1">
-      <c r="A186" s="31"/>
+      <c r="A186" s="34"/>
       <c r="B186" s="20">
         <v>6.5</v>
       </c>
@@ -27857,7 +27909,7 @@
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="1:6" customFormat="1">
-      <c r="A187" s="31"/>
+      <c r="A187" s="34"/>
       <c r="B187" s="20" t="s">
         <v>403</v>
       </c>
@@ -27871,7 +27923,7 @@
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" customFormat="1">
-      <c r="A188" s="31"/>
+      <c r="A188" s="34"/>
       <c r="B188" s="20" t="s">
         <v>404</v>
       </c>
@@ -27885,7 +27937,7 @@
       <c r="F188" s="2"/>
     </row>
     <row r="189" spans="1:6" customFormat="1">
-      <c r="A189" s="31"/>
+      <c r="A189" s="34"/>
       <c r="B189" s="20" t="s">
         <v>405</v>
       </c>
@@ -27899,7 +27951,7 @@
       <c r="F189" s="2"/>
     </row>
     <row r="190" spans="1:6" customFormat="1">
-      <c r="A190" s="31" t="s">
+      <c r="A190" s="34" t="s">
         <v>1025</v>
       </c>
       <c r="B190" s="20">
@@ -27915,7 +27967,7 @@
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" customFormat="1">
-      <c r="A191" s="31"/>
+      <c r="A191" s="34"/>
       <c r="B191" s="20" t="s">
         <v>406</v>
       </c>
@@ -27929,7 +27981,7 @@
       <c r="F191" s="2"/>
     </row>
     <row r="192" spans="1:6" customFormat="1">
-      <c r="A192" s="31"/>
+      <c r="A192" s="34"/>
       <c r="B192" s="20" t="s">
         <v>407</v>
       </c>
@@ -27943,7 +27995,7 @@
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" customFormat="1">
-      <c r="A193" s="31"/>
+      <c r="A193" s="34"/>
       <c r="B193" s="20" t="s">
         <v>408</v>
       </c>
@@ -27957,7 +28009,7 @@
       <c r="F193" s="2"/>
     </row>
     <row r="194" spans="1:6" customFormat="1">
-      <c r="A194" s="31"/>
+      <c r="A194" s="34"/>
       <c r="B194" s="20" t="s">
         <v>409</v>
       </c>
@@ -27971,7 +28023,7 @@
       <c r="F194" s="2"/>
     </row>
     <row r="195" spans="1:6" customFormat="1">
-      <c r="A195" s="31"/>
+      <c r="A195" s="34"/>
       <c r="B195" s="20">
         <v>7.2</v>
       </c>
@@ -27985,7 +28037,7 @@
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" customFormat="1">
-      <c r="A196" s="31"/>
+      <c r="A196" s="34"/>
       <c r="B196" s="20" t="s">
         <v>410</v>
       </c>
@@ -27999,7 +28051,7 @@
       <c r="F196" s="2"/>
     </row>
     <row r="197" spans="1:6" customFormat="1">
-      <c r="A197" s="31"/>
+      <c r="A197" s="34"/>
       <c r="B197" s="20" t="s">
         <v>411</v>
       </c>
@@ -28013,7 +28065,7 @@
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" customFormat="1">
-      <c r="A198" s="31"/>
+      <c r="A198" s="34"/>
       <c r="B198" s="20" t="s">
         <v>412</v>
       </c>
@@ -28027,7 +28079,7 @@
       <c r="F198" s="2"/>
     </row>
     <row r="199" spans="1:6" customFormat="1">
-      <c r="A199" s="31"/>
+      <c r="A199" s="34"/>
       <c r="B199" s="20" t="s">
         <v>413</v>
       </c>
@@ -28041,7 +28093,7 @@
       <c r="F199" s="2"/>
     </row>
     <row r="200" spans="1:6" customFormat="1">
-      <c r="A200" s="31"/>
+      <c r="A200" s="34"/>
       <c r="B200" s="20" t="s">
         <v>414</v>
       </c>
@@ -28055,7 +28107,7 @@
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" customFormat="1">
-      <c r="A201" s="31"/>
+      <c r="A201" s="34"/>
       <c r="B201" s="20" t="s">
         <v>415</v>
       </c>
@@ -28069,7 +28121,7 @@
       <c r="F201" s="2"/>
     </row>
     <row r="202" spans="1:6" customFormat="1">
-      <c r="A202" s="31"/>
+      <c r="A202" s="34"/>
       <c r="B202" s="20">
         <v>7.3</v>
       </c>
@@ -28083,7 +28135,7 @@
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:6" customFormat="1">
-      <c r="A203" s="31"/>
+      <c r="A203" s="34"/>
       <c r="B203" s="20">
         <v>7.4</v>
       </c>
@@ -28097,7 +28149,7 @@
       <c r="F203" s="2"/>
     </row>
     <row r="204" spans="1:6" customFormat="1">
-      <c r="A204" s="31"/>
+      <c r="A204" s="34"/>
       <c r="B204" s="20" t="s">
         <v>416</v>
       </c>
@@ -28111,7 +28163,7 @@
       <c r="F204" s="2"/>
     </row>
     <row r="205" spans="1:6" customFormat="1">
-      <c r="A205" s="31"/>
+      <c r="A205" s="34"/>
       <c r="B205" s="20" t="s">
         <v>417</v>
       </c>
@@ -28125,7 +28177,7 @@
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" customFormat="1">
-      <c r="A206" s="31"/>
+      <c r="A206" s="34"/>
       <c r="B206" s="20" t="s">
         <v>418</v>
       </c>
@@ -28139,7 +28191,7 @@
       <c r="F206" s="2"/>
     </row>
     <row r="207" spans="1:6" customFormat="1">
-      <c r="A207" s="31"/>
+      <c r="A207" s="34"/>
       <c r="B207" s="20" t="s">
         <v>419</v>
       </c>
@@ -28153,7 +28205,7 @@
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" customFormat="1">
-      <c r="A208" s="31"/>
+      <c r="A208" s="34"/>
       <c r="B208" s="20">
         <v>7.5</v>
       </c>
@@ -28167,7 +28219,7 @@
       <c r="F208" s="2"/>
     </row>
     <row r="209" spans="1:6" customFormat="1">
-      <c r="A209" s="31"/>
+      <c r="A209" s="34"/>
       <c r="B209" s="20" t="s">
         <v>420</v>
       </c>
@@ -28181,7 +28233,7 @@
       <c r="F209" s="2"/>
     </row>
     <row r="210" spans="1:6" customFormat="1">
-      <c r="A210" s="31"/>
+      <c r="A210" s="34"/>
       <c r="B210" s="20" t="s">
         <v>421</v>
       </c>
@@ -28195,7 +28247,7 @@
       <c r="F210" s="2"/>
     </row>
     <row r="211" spans="1:6" customFormat="1">
-      <c r="A211" s="31"/>
+      <c r="A211" s="34"/>
       <c r="B211" s="20" t="s">
         <v>422</v>
       </c>
@@ -28209,7 +28261,7 @@
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" customFormat="1">
-      <c r="A212" s="31"/>
+      <c r="A212" s="34"/>
       <c r="B212" s="20" t="s">
         <v>423</v>
       </c>
@@ -28223,7 +28275,7 @@
       <c r="F212" s="2"/>
     </row>
     <row r="213" spans="1:6" customFormat="1">
-      <c r="A213" s="31"/>
+      <c r="A213" s="34"/>
       <c r="B213" s="20" t="s">
         <v>424</v>
       </c>
@@ -28237,7 +28289,7 @@
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" customFormat="1">
-      <c r="A214" s="31"/>
+      <c r="A214" s="34"/>
       <c r="B214" s="20" t="s">
         <v>425</v>
       </c>
@@ -28251,7 +28303,7 @@
       <c r="F214" s="2"/>
     </row>
     <row r="215" spans="1:6" customFormat="1">
-      <c r="A215" s="31"/>
+      <c r="A215" s="34"/>
       <c r="B215" s="20" t="s">
         <v>426</v>
       </c>
@@ -28265,7 +28317,7 @@
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:6" customFormat="1">
-      <c r="A216" s="31"/>
+      <c r="A216" s="34"/>
       <c r="B216" s="20" t="s">
         <v>427</v>
       </c>
@@ -28279,7 +28331,7 @@
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" customFormat="1">
-      <c r="A217" s="31"/>
+      <c r="A217" s="34"/>
       <c r="B217" s="20">
         <v>7.6</v>
       </c>
@@ -28293,7 +28345,7 @@
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:6" customFormat="1">
-      <c r="A218" s="31" t="s">
+      <c r="A218" s="34" t="s">
         <v>1024</v>
       </c>
       <c r="B218" s="20">
@@ -28309,7 +28361,7 @@
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" customFormat="1">
-      <c r="A219" s="31"/>
+      <c r="A219" s="34"/>
       <c r="B219" s="20" t="s">
         <v>428</v>
       </c>
@@ -28323,7 +28375,7 @@
       <c r="F219" s="2"/>
     </row>
     <row r="220" spans="1:6" customFormat="1">
-      <c r="A220" s="31"/>
+      <c r="A220" s="34"/>
       <c r="B220" s="20" t="s">
         <v>429</v>
       </c>
@@ -28337,7 +28389,7 @@
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="1:6" customFormat="1">
-      <c r="A221" s="31"/>
+      <c r="A221" s="34"/>
       <c r="B221" s="20">
         <v>8.1999999999999993</v>
       </c>
@@ -28351,7 +28403,7 @@
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" customFormat="1">
-      <c r="A222" s="31"/>
+      <c r="A222" s="34"/>
       <c r="B222" s="20">
         <v>8.3000000000000007</v>
       </c>
@@ -28365,7 +28417,7 @@
       <c r="F222" s="2"/>
     </row>
     <row r="223" spans="1:6" customFormat="1">
-      <c r="A223" s="31"/>
+      <c r="A223" s="34"/>
       <c r="B223" s="20">
         <v>8.4</v>
       </c>
@@ -28379,7 +28431,7 @@
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" customFormat="1">
-      <c r="A224" s="31"/>
+      <c r="A224" s="34"/>
       <c r="B224" s="20">
         <v>8.5</v>
       </c>
@@ -28393,7 +28445,7 @@
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:6" customFormat="1">
-      <c r="A225" s="31"/>
+      <c r="A225" s="34"/>
       <c r="B225" s="20" t="s">
         <v>430</v>
       </c>
@@ -28407,7 +28459,7 @@
       <c r="F225" s="2"/>
     </row>
     <row r="226" spans="1:6" customFormat="1">
-      <c r="A226" s="31"/>
+      <c r="A226" s="34"/>
       <c r="B226" s="20" t="s">
         <v>431</v>
       </c>
@@ -28421,7 +28473,7 @@
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" customFormat="1">
-      <c r="A227" s="31"/>
+      <c r="A227" s="34"/>
       <c r="B227" s="20" t="s">
         <v>432</v>
       </c>
@@ -28435,7 +28487,7 @@
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:6" customFormat="1">
-      <c r="A228" s="31"/>
+      <c r="A228" s="34"/>
       <c r="B228" s="20" t="s">
         <v>433</v>
       </c>
@@ -28449,7 +28501,7 @@
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" customFormat="1">
-      <c r="A229" s="31"/>
+      <c r="A229" s="34"/>
       <c r="B229" s="20">
         <v>8.6</v>
       </c>
@@ -28463,7 +28515,7 @@
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="1:6" customFormat="1">
-      <c r="A230" s="31"/>
+      <c r="A230" s="34"/>
       <c r="B230" s="20" t="s">
         <v>434</v>
       </c>
@@ -28477,7 +28529,7 @@
       <c r="F230" s="2"/>
     </row>
     <row r="231" spans="1:6" customFormat="1">
-      <c r="A231" s="31"/>
+      <c r="A231" s="34"/>
       <c r="B231" s="20" t="s">
         <v>435</v>
       </c>
@@ -28491,7 +28543,7 @@
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" customFormat="1">
-      <c r="A232" s="31"/>
+      <c r="A232" s="34"/>
       <c r="B232" s="20" t="s">
         <v>436</v>
       </c>
@@ -28505,7 +28557,7 @@
       <c r="F232" s="2"/>
     </row>
     <row r="233" spans="1:6" customFormat="1">
-      <c r="A233" s="31"/>
+      <c r="A233" s="34"/>
       <c r="B233" s="20" t="s">
         <v>437</v>
       </c>
@@ -28519,7 +28571,7 @@
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" customFormat="1">
-      <c r="A234" s="31"/>
+      <c r="A234" s="34"/>
       <c r="B234" s="20" t="s">
         <v>438</v>
       </c>
@@ -28533,7 +28585,7 @@
       <c r="F234" s="2"/>
     </row>
     <row r="235" spans="1:6" customFormat="1">
-      <c r="A235" s="31"/>
+      <c r="A235" s="34"/>
       <c r="B235" s="20" t="s">
         <v>439</v>
       </c>
@@ -28547,7 +28599,7 @@
       <c r="F235" s="2"/>
     </row>
     <row r="236" spans="1:6" customFormat="1">
-      <c r="A236" s="31"/>
+      <c r="A236" s="34"/>
       <c r="B236" s="20" t="s">
         <v>440</v>
       </c>
@@ -28561,7 +28613,7 @@
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:6" customFormat="1">
-      <c r="A237" s="31"/>
+      <c r="A237" s="34"/>
       <c r="B237" s="20" t="s">
         <v>441</v>
       </c>
@@ -28575,7 +28627,7 @@
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" customFormat="1">
-      <c r="A238" s="31"/>
+      <c r="A238" s="34"/>
       <c r="B238" s="20" t="s">
         <v>442</v>
       </c>
@@ -28589,7 +28641,7 @@
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:6" customFormat="1">
-      <c r="A239" s="31"/>
+      <c r="A239" s="34"/>
       <c r="B239" s="20" t="s">
         <v>443</v>
       </c>
@@ -28603,7 +28655,7 @@
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" customFormat="1">
-      <c r="A240" s="31"/>
+      <c r="A240" s="34"/>
       <c r="B240" s="20">
         <v>8.6999999999999993</v>
       </c>
@@ -28617,7 +28669,7 @@
       <c r="F240" s="2"/>
     </row>
     <row r="241" spans="1:6" customFormat="1">
-      <c r="A241" s="31"/>
+      <c r="A241" s="34"/>
       <c r="B241" s="20">
         <v>8.8000000000000007</v>
       </c>
@@ -28631,7 +28683,7 @@
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="1:6" customFormat="1">
-      <c r="A242" s="31"/>
+      <c r="A242" s="34"/>
       <c r="B242" s="20" t="s">
         <v>444</v>
       </c>
@@ -28645,7 +28697,7 @@
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" customFormat="1">
-      <c r="A243" s="31"/>
+      <c r="A243" s="34"/>
       <c r="B243" s="20" t="s">
         <v>445</v>
       </c>
@@ -28659,7 +28711,7 @@
       <c r="F243" s="2"/>
     </row>
     <row r="244" spans="1:6" customFormat="1">
-      <c r="A244" s="31"/>
+      <c r="A244" s="34"/>
       <c r="B244" s="20" t="s">
         <v>446</v>
       </c>
@@ -28673,7 +28725,7 @@
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" customFormat="1">
-      <c r="A245" s="31"/>
+      <c r="A245" s="34"/>
       <c r="B245" s="20" t="s">
         <v>447</v>
       </c>
@@ -28687,7 +28739,7 @@
       <c r="F245" s="2"/>
     </row>
     <row r="246" spans="1:6" customFormat="1">
-      <c r="A246" s="31"/>
+      <c r="A246" s="34"/>
       <c r="B246" s="20">
         <v>8.9</v>
       </c>
@@ -28701,7 +28753,7 @@
       <c r="F246" s="2"/>
     </row>
     <row r="247" spans="1:6" customFormat="1">
-      <c r="A247" s="31"/>
+      <c r="A247" s="34"/>
       <c r="B247" s="20" t="s">
         <v>448</v>
       </c>
@@ -28715,7 +28767,7 @@
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" customFormat="1">
-      <c r="A248" s="31"/>
+      <c r="A248" s="34"/>
       <c r="B248" s="20" t="s">
         <v>449</v>
       </c>
@@ -28729,7 +28781,7 @@
       <c r="F248" s="2"/>
     </row>
     <row r="249" spans="1:6" customFormat="1">
-      <c r="A249" s="31"/>
+      <c r="A249" s="34"/>
       <c r="B249" s="20" t="s">
         <v>450</v>
       </c>
@@ -28743,7 +28795,7 @@
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" customFormat="1">
-      <c r="A250" s="31" t="s">
+      <c r="A250" s="34" t="s">
         <v>1022</v>
       </c>
       <c r="B250" s="20">
@@ -28759,7 +28811,7 @@
       <c r="F250" s="2"/>
     </row>
     <row r="251" spans="1:6" customFormat="1">
-      <c r="A251" s="31"/>
+      <c r="A251" s="34"/>
       <c r="B251" s="20" t="s">
         <v>451</v>
       </c>
@@ -28773,7 +28825,7 @@
       <c r="F251" s="2"/>
     </row>
     <row r="252" spans="1:6" customFormat="1">
-      <c r="A252" s="31"/>
+      <c r="A252" s="34"/>
       <c r="B252" s="20" t="s">
         <v>452</v>
       </c>
@@ -28787,7 +28839,7 @@
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" customFormat="1">
-      <c r="A253" s="31"/>
+      <c r="A253" s="34"/>
       <c r="B253" s="20" t="s">
         <v>453</v>
       </c>
@@ -28801,7 +28853,7 @@
       <c r="F253" s="2"/>
     </row>
     <row r="254" spans="1:6" customFormat="1">
-      <c r="A254" s="31"/>
+      <c r="A254" s="34"/>
       <c r="B254" s="20" t="s">
         <v>454</v>
       </c>
@@ -28815,7 +28867,7 @@
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" customFormat="1">
-      <c r="A255" s="31"/>
+      <c r="A255" s="34"/>
       <c r="B255" s="20" t="s">
         <v>455</v>
       </c>
@@ -28829,7 +28881,7 @@
       <c r="F255" s="2"/>
     </row>
     <row r="256" spans="1:6" customFormat="1">
-      <c r="A256" s="31"/>
+      <c r="A256" s="34"/>
       <c r="B256" s="20">
         <v>9.1999999999999993</v>
       </c>
@@ -28843,7 +28895,7 @@
       <c r="F256" s="2"/>
     </row>
     <row r="257" spans="1:6" customFormat="1">
-      <c r="A257" s="31"/>
+      <c r="A257" s="34"/>
       <c r="B257" s="20" t="s">
         <v>456</v>
       </c>
@@ -28857,7 +28909,7 @@
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" customFormat="1">
-      <c r="A258" s="31"/>
+      <c r="A258" s="34"/>
       <c r="B258" s="20" t="s">
         <v>457</v>
       </c>
@@ -28871,7 +28923,7 @@
       <c r="F258" s="2"/>
     </row>
     <row r="259" spans="1:6" customFormat="1">
-      <c r="A259" s="31"/>
+      <c r="A259" s="34"/>
       <c r="B259" s="20" t="s">
         <v>458</v>
       </c>
@@ -28885,7 +28937,7 @@
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" customFormat="1">
-      <c r="A260" s="31"/>
+      <c r="A260" s="34"/>
       <c r="B260" s="20" t="s">
         <v>459</v>
       </c>
@@ -28899,7 +28951,7 @@
       <c r="F260" s="2"/>
     </row>
     <row r="261" spans="1:6" customFormat="1">
-      <c r="A261" s="31"/>
+      <c r="A261" s="34"/>
       <c r="B261" s="20" t="s">
         <v>460</v>
       </c>
@@ -28913,7 +28965,7 @@
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="1:6" customFormat="1">
-      <c r="A262" s="31"/>
+      <c r="A262" s="34"/>
       <c r="B262" s="20" t="s">
         <v>461</v>
       </c>
@@ -28927,7 +28979,7 @@
       <c r="F262" s="2"/>
     </row>
     <row r="263" spans="1:6" customFormat="1">
-      <c r="A263" s="31"/>
+      <c r="A263" s="34"/>
       <c r="B263" s="20">
         <v>9.3000000000000007</v>
       </c>
@@ -28941,7 +28993,7 @@
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" customFormat="1">
-      <c r="A264" s="31"/>
+      <c r="A264" s="34"/>
       <c r="B264" s="20" t="s">
         <v>462</v>
       </c>
@@ -28955,7 +29007,7 @@
       <c r="F264" s="2"/>
     </row>
     <row r="265" spans="1:6" customFormat="1">
-      <c r="A265" s="31"/>
+      <c r="A265" s="34"/>
       <c r="B265" s="20" t="s">
         <v>463</v>
       </c>
@@ -28969,7 +29021,7 @@
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" customFormat="1">
-      <c r="A266" s="31"/>
+      <c r="A266" s="34"/>
       <c r="B266" s="20" t="s">
         <v>464</v>
       </c>
@@ -28983,7 +29035,7 @@
       <c r="F266" s="2"/>
     </row>
     <row r="267" spans="1:6" customFormat="1">
-      <c r="A267" s="31"/>
+      <c r="A267" s="34"/>
       <c r="B267" s="20" t="s">
         <v>465</v>
       </c>
@@ -28997,7 +29049,7 @@
       <c r="F267" s="2"/>
     </row>
     <row r="268" spans="1:6" customFormat="1">
-      <c r="A268" s="31"/>
+      <c r="A268" s="34"/>
       <c r="B268" s="20" t="s">
         <v>466</v>
       </c>
@@ -29011,7 +29063,7 @@
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6" customFormat="1">
-      <c r="A269" s="31"/>
+      <c r="A269" s="34"/>
       <c r="B269" s="20" t="s">
         <v>467</v>
       </c>
@@ -29025,7 +29077,7 @@
       <c r="F269" s="2"/>
     </row>
     <row r="270" spans="1:6" customFormat="1">
-      <c r="A270" s="31"/>
+      <c r="A270" s="34"/>
       <c r="B270" s="20" t="s">
         <v>468</v>
       </c>
@@ -29039,7 +29091,7 @@
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="1:6" customFormat="1">
-      <c r="A271" s="31"/>
+      <c r="A271" s="34"/>
       <c r="B271" s="20">
         <v>9.4</v>
       </c>
@@ -29053,7 +29105,7 @@
       <c r="F271" s="2"/>
     </row>
     <row r="272" spans="1:6" customFormat="1">
-      <c r="A272" s="31"/>
+      <c r="A272" s="34"/>
       <c r="B272" s="20" t="s">
         <v>469</v>
       </c>
@@ -29067,7 +29119,7 @@
       <c r="F272" s="2"/>
     </row>
     <row r="273" spans="1:6" customFormat="1">
-      <c r="A273" s="31"/>
+      <c r="A273" s="34"/>
       <c r="B273" s="20" t="s">
         <v>470</v>
       </c>
@@ -29081,7 +29133,7 @@
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" customFormat="1">
-      <c r="A274" s="31"/>
+      <c r="A274" s="34"/>
       <c r="B274" s="20" t="s">
         <v>471</v>
       </c>
@@ -29095,7 +29147,7 @@
       <c r="F274" s="2"/>
     </row>
     <row r="275" spans="1:6" customFormat="1">
-      <c r="A275" s="31"/>
+      <c r="A275" s="34"/>
       <c r="B275" s="20" t="s">
         <v>472</v>
       </c>
@@ -29109,7 +29161,7 @@
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" customFormat="1">
-      <c r="A276" s="31"/>
+      <c r="A276" s="34"/>
       <c r="B276" s="20" t="s">
         <v>473</v>
       </c>
@@ -29123,7 +29175,7 @@
       <c r="F276" s="2"/>
     </row>
     <row r="277" spans="1:6" customFormat="1">
-      <c r="A277" s="31"/>
+      <c r="A277" s="34"/>
       <c r="B277" s="20" t="s">
         <v>474</v>
       </c>
@@ -29137,7 +29189,7 @@
       <c r="F277" s="2"/>
     </row>
     <row r="278" spans="1:6" customFormat="1">
-      <c r="A278" s="31"/>
+      <c r="A278" s="34"/>
       <c r="B278" s="20">
         <v>9.5</v>
       </c>
@@ -29151,7 +29203,7 @@
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" customFormat="1">
-      <c r="A279" s="31"/>
+      <c r="A279" s="34"/>
       <c r="B279" s="20" t="s">
         <v>475</v>
       </c>
@@ -29165,7 +29217,7 @@
       <c r="F279" s="2"/>
     </row>
     <row r="280" spans="1:6" customFormat="1">
-      <c r="A280" s="31"/>
+      <c r="A280" s="34"/>
       <c r="B280" s="20" t="s">
         <v>476</v>
       </c>
@@ -29179,7 +29231,7 @@
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" customFormat="1">
-      <c r="A281" s="31"/>
+      <c r="A281" s="34"/>
       <c r="B281" s="20" t="s">
         <v>477</v>
       </c>
@@ -29193,7 +29245,7 @@
       <c r="F281" s="2"/>
     </row>
     <row r="282" spans="1:6" customFormat="1">
-      <c r="A282" s="31"/>
+      <c r="A282" s="34"/>
       <c r="B282" s="20" t="s">
         <v>478</v>
       </c>
@@ -29207,7 +29259,7 @@
       <c r="F282" s="2"/>
     </row>
     <row r="283" spans="1:6" customFormat="1">
-      <c r="A283" s="31"/>
+      <c r="A283" s="34"/>
       <c r="B283" s="20" t="s">
         <v>479</v>
       </c>
@@ -29221,7 +29273,7 @@
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" customFormat="1">
-      <c r="A284" s="31"/>
+      <c r="A284" s="34"/>
       <c r="B284" s="20" t="s">
         <v>480</v>
       </c>
@@ -29235,7 +29287,7 @@
       <c r="F284" s="2"/>
     </row>
     <row r="285" spans="1:6" customFormat="1">
-      <c r="A285" s="31"/>
+      <c r="A285" s="34"/>
       <c r="B285" s="20">
         <v>9.6</v>
       </c>
@@ -29249,7 +29301,7 @@
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6" customFormat="1">
-      <c r="A286" s="31"/>
+      <c r="A286" s="34"/>
       <c r="B286" s="20" t="s">
         <v>481</v>
       </c>
@@ -29263,7 +29315,7 @@
       <c r="F286" s="2"/>
     </row>
     <row r="287" spans="1:6" customFormat="1">
-      <c r="A287" s="31"/>
+      <c r="A287" s="34"/>
       <c r="B287" s="20" t="s">
         <v>482</v>
       </c>
@@ -29277,7 +29329,7 @@
       <c r="F287" s="2"/>
     </row>
     <row r="288" spans="1:6" customFormat="1">
-      <c r="A288" s="31"/>
+      <c r="A288" s="34"/>
       <c r="B288" s="20" t="s">
         <v>483</v>
       </c>
@@ -29291,7 +29343,7 @@
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="1:6" customFormat="1">
-      <c r="A289" s="31"/>
+      <c r="A289" s="34"/>
       <c r="B289" s="20" t="s">
         <v>484</v>
       </c>
@@ -29305,7 +29357,7 @@
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" customFormat="1">
-      <c r="A290" s="31"/>
+      <c r="A290" s="34"/>
       <c r="B290" s="20" t="s">
         <v>485</v>
       </c>
@@ -29319,7 +29371,7 @@
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="1:6" customFormat="1">
-      <c r="A291" s="31" t="s">
+      <c r="A291" s="34" t="s">
         <v>1023</v>
       </c>
       <c r="B291" s="20">
@@ -29335,7 +29387,7 @@
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:6" customFormat="1">
-      <c r="A292" s="31"/>
+      <c r="A292" s="34"/>
       <c r="B292" s="20">
         <v>10.199999999999999</v>
       </c>
@@ -29349,7 +29401,7 @@
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="1:6" customFormat="1">
-      <c r="A293" s="31"/>
+      <c r="A293" s="34"/>
       <c r="B293" s="20">
         <v>10.3</v>
       </c>
@@ -29363,7 +29415,7 @@
       <c r="F293" s="2"/>
     </row>
     <row r="294" spans="1:6" customFormat="1">
-      <c r="A294" s="31"/>
+      <c r="A294" s="34"/>
       <c r="B294" s="20" t="s">
         <v>486</v>
       </c>
@@ -29377,7 +29429,7 @@
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" customFormat="1">
-      <c r="A295" s="31"/>
+      <c r="A295" s="34"/>
       <c r="B295" s="20" t="s">
         <v>487</v>
       </c>
@@ -29391,7 +29443,7 @@
       <c r="F295" s="2"/>
     </row>
     <row r="296" spans="1:6" customFormat="1">
-      <c r="A296" s="31"/>
+      <c r="A296" s="34"/>
       <c r="B296" s="20">
         <v>10.4</v>
       </c>
@@ -29405,7 +29457,7 @@
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6" customFormat="1">
-      <c r="A297" s="31"/>
+      <c r="A297" s="34"/>
       <c r="B297" s="20">
         <v>10.5</v>
       </c>
@@ -29419,7 +29471,7 @@
       <c r="F297" s="2"/>
     </row>
     <row r="298" spans="1:6" customFormat="1">
-      <c r="A298" s="31"/>
+      <c r="A298" s="34"/>
       <c r="B298" s="20">
         <v>10.6</v>
       </c>
@@ -29433,7 +29485,7 @@
       <c r="F298" s="2"/>
     </row>
     <row r="299" spans="1:6" customFormat="1">
-      <c r="A299" s="31"/>
+      <c r="A299" s="34"/>
       <c r="B299" s="20">
         <v>10.7</v>
       </c>
@@ -29447,7 +29499,7 @@
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6" customFormat="1">
-      <c r="A300" s="31"/>
+      <c r="A300" s="34"/>
       <c r="B300" s="20">
         <v>10.8</v>
       </c>
@@ -29461,7 +29513,7 @@
       <c r="F300" s="2"/>
     </row>
     <row r="301" spans="1:6" customFormat="1">
-      <c r="A301" s="31" t="s">
+      <c r="A301" s="34" t="s">
         <v>1021</v>
       </c>
       <c r="B301" s="20">
@@ -29477,7 +29529,7 @@
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6" customFormat="1">
-      <c r="A302" s="31"/>
+      <c r="A302" s="34"/>
       <c r="B302" s="20" t="s">
         <v>488</v>
       </c>
@@ -29491,7 +29543,7 @@
       <c r="F302" s="2"/>
     </row>
     <row r="303" spans="1:6" customFormat="1">
-      <c r="A303" s="31"/>
+      <c r="A303" s="34"/>
       <c r="B303" s="20" t="s">
         <v>489</v>
       </c>
@@ -29505,7 +29557,7 @@
       <c r="F303" s="2"/>
     </row>
     <row r="304" spans="1:6" customFormat="1">
-      <c r="A304" s="31"/>
+      <c r="A304" s="34"/>
       <c r="B304" s="20" t="s">
         <v>490</v>
       </c>
@@ -29519,7 +29571,7 @@
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6" customFormat="1">
-      <c r="A305" s="31"/>
+      <c r="A305" s="34"/>
       <c r="B305" s="20" t="s">
         <v>491</v>
       </c>
@@ -29533,7 +29585,7 @@
       <c r="F305" s="2"/>
     </row>
     <row r="306" spans="1:6" customFormat="1">
-      <c r="A306" s="31"/>
+      <c r="A306" s="34"/>
       <c r="B306" s="20">
         <v>11.2</v>
       </c>
@@ -29547,7 +29599,7 @@
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6" customFormat="1">
-      <c r="A307" s="31"/>
+      <c r="A307" s="34"/>
       <c r="B307" s="20">
         <v>11.3</v>
       </c>
@@ -29561,7 +29613,7 @@
       <c r="F307" s="2"/>
     </row>
     <row r="308" spans="1:6" customFormat="1">
-      <c r="A308" s="31"/>
+      <c r="A308" s="34"/>
       <c r="B308" s="20">
         <v>11.4</v>
       </c>
@@ -29575,7 +29627,7 @@
       <c r="F308" s="2"/>
     </row>
     <row r="309" spans="1:6" customFormat="1">
-      <c r="A309" s="31"/>
+      <c r="A309" s="34"/>
       <c r="B309" s="20" t="s">
         <v>492</v>
       </c>
@@ -29589,7 +29641,7 @@
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6" customFormat="1">
-      <c r="A310" s="31" t="s">
+      <c r="A310" s="34" t="s">
         <v>1020</v>
       </c>
       <c r="B310" s="20">
@@ -29605,7 +29657,7 @@
       <c r="F310" s="2"/>
     </row>
     <row r="311" spans="1:6" customFormat="1">
-      <c r="A311" s="31"/>
+      <c r="A311" s="34"/>
       <c r="B311" s="20" t="s">
         <v>493</v>
       </c>
@@ -29619,7 +29671,7 @@
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6" customFormat="1">
-      <c r="A312" s="31"/>
+      <c r="A312" s="34"/>
       <c r="B312" s="20" t="s">
         <v>494</v>
       </c>
@@ -29633,7 +29685,7 @@
       <c r="F312" s="2"/>
     </row>
     <row r="313" spans="1:6" customFormat="1">
-      <c r="A313" s="31"/>
+      <c r="A313" s="34"/>
       <c r="B313" s="20" t="s">
         <v>495</v>
       </c>
@@ -29647,7 +29699,7 @@
       <c r="F313" s="2"/>
     </row>
     <row r="314" spans="1:6" customFormat="1">
-      <c r="A314" s="31"/>
+      <c r="A314" s="34"/>
       <c r="B314" s="20">
         <v>12.2</v>
       </c>
@@ -29661,7 +29713,7 @@
       <c r="F314" s="2"/>
     </row>
     <row r="315" spans="1:6" customFormat="1">
-      <c r="A315" s="31"/>
+      <c r="A315" s="34"/>
       <c r="B315" s="20" t="s">
         <v>496</v>
       </c>
@@ -29675,7 +29727,7 @@
       <c r="F315" s="2"/>
     </row>
     <row r="316" spans="1:6" customFormat="1">
-      <c r="A316" s="31"/>
+      <c r="A316" s="34"/>
       <c r="B316" s="20" t="s">
         <v>497</v>
       </c>
@@ -29689,7 +29741,7 @@
       <c r="F316" s="2"/>
     </row>
     <row r="317" spans="1:6" customFormat="1">
-      <c r="A317" s="31"/>
+      <c r="A317" s="34"/>
       <c r="B317" s="20">
         <v>12.3</v>
       </c>
@@ -29703,7 +29755,7 @@
       <c r="F317" s="2"/>
     </row>
     <row r="318" spans="1:6" customFormat="1">
-      <c r="A318" s="31"/>
+      <c r="A318" s="34"/>
       <c r="B318" s="20" t="s">
         <v>498</v>
       </c>
@@ -29717,7 +29769,7 @@
       <c r="F318" s="2"/>
     </row>
     <row r="319" spans="1:6" customFormat="1">
-      <c r="A319" s="31"/>
+      <c r="A319" s="34"/>
       <c r="B319" s="20" t="s">
         <v>499</v>
       </c>
@@ -29731,7 +29783,7 @@
       <c r="F319" s="2"/>
     </row>
     <row r="320" spans="1:6" customFormat="1">
-      <c r="A320" s="31"/>
+      <c r="A320" s="34"/>
       <c r="B320" s="20" t="s">
         <v>500</v>
       </c>
@@ -29745,7 +29797,7 @@
       <c r="F320" s="2"/>
     </row>
     <row r="321" spans="1:6" customFormat="1">
-      <c r="A321" s="31"/>
+      <c r="A321" s="34"/>
       <c r="B321" s="20" t="s">
         <v>501</v>
       </c>
@@ -29759,7 +29811,7 @@
       <c r="F321" s="2"/>
     </row>
     <row r="322" spans="1:6" customFormat="1">
-      <c r="A322" s="31"/>
+      <c r="A322" s="34"/>
       <c r="B322" s="20" t="s">
         <v>502</v>
       </c>
@@ -29773,7 +29825,7 @@
       <c r="F322" s="2"/>
     </row>
     <row r="323" spans="1:6" customFormat="1">
-      <c r="A323" s="31"/>
+      <c r="A323" s="34"/>
       <c r="B323" s="20">
         <v>12.4</v>
       </c>
@@ -29787,7 +29839,7 @@
       <c r="F323" s="2"/>
     </row>
     <row r="324" spans="1:6" customFormat="1">
-      <c r="A324" s="31"/>
+      <c r="A324" s="34"/>
       <c r="B324" s="20" t="s">
         <v>503</v>
       </c>
@@ -29801,7 +29853,7 @@
       <c r="F324" s="2"/>
     </row>
     <row r="325" spans="1:6" customFormat="1">
-      <c r="A325" s="31"/>
+      <c r="A325" s="34"/>
       <c r="B325" s="20" t="s">
         <v>504</v>
       </c>
@@ -29815,7 +29867,7 @@
       <c r="F325" s="2"/>
     </row>
     <row r="326" spans="1:6" customFormat="1">
-      <c r="A326" s="31"/>
+      <c r="A326" s="34"/>
       <c r="B326" s="20" t="s">
         <v>505</v>
       </c>
@@ -29829,7 +29881,7 @@
       <c r="F326" s="2"/>
     </row>
     <row r="327" spans="1:6" customFormat="1">
-      <c r="A327" s="31"/>
+      <c r="A327" s="34"/>
       <c r="B327" s="20" t="s">
         <v>506</v>
       </c>
@@ -29843,7 +29895,7 @@
       <c r="F327" s="2"/>
     </row>
     <row r="328" spans="1:6" customFormat="1">
-      <c r="A328" s="31"/>
+      <c r="A328" s="34"/>
       <c r="B328" s="20" t="s">
         <v>507</v>
       </c>
@@ -29857,7 +29909,7 @@
       <c r="F328" s="2"/>
     </row>
     <row r="329" spans="1:6" customFormat="1">
-      <c r="A329" s="31"/>
+      <c r="A329" s="34"/>
       <c r="B329" s="20">
         <v>12.5</v>
       </c>
@@ -29871,7 +29923,7 @@
       <c r="F329" s="2"/>
     </row>
     <row r="330" spans="1:6" customFormat="1">
-      <c r="A330" s="31"/>
+      <c r="A330" s="34"/>
       <c r="B330" s="20" t="s">
         <v>508</v>
       </c>
@@ -29885,7 +29937,7 @@
       <c r="F330" s="2"/>
     </row>
     <row r="331" spans="1:6" customFormat="1">
-      <c r="A331" s="31"/>
+      <c r="A331" s="34"/>
       <c r="B331" s="20" t="s">
         <v>509</v>
       </c>
@@ -29899,7 +29951,7 @@
       <c r="F331" s="2"/>
     </row>
     <row r="332" spans="1:6" customFormat="1">
-      <c r="A332" s="31"/>
+      <c r="A332" s="34"/>
       <c r="B332" s="20" t="s">
         <v>510</v>
       </c>
@@ -29913,7 +29965,7 @@
       <c r="F332" s="2"/>
     </row>
     <row r="333" spans="1:6" customFormat="1">
-      <c r="A333" s="31"/>
+      <c r="A333" s="34"/>
       <c r="B333" s="20" t="s">
         <v>511</v>
       </c>
@@ -29927,7 +29979,7 @@
       <c r="F333" s="2"/>
     </row>
     <row r="334" spans="1:6" customFormat="1">
-      <c r="A334" s="31"/>
+      <c r="A334" s="34"/>
       <c r="B334" s="20" t="s">
         <v>512</v>
       </c>
@@ -29941,7 +29993,7 @@
       <c r="F334" s="2"/>
     </row>
     <row r="335" spans="1:6" customFormat="1">
-      <c r="A335" s="31"/>
+      <c r="A335" s="34"/>
       <c r="B335" s="20" t="s">
         <v>513</v>
       </c>
@@ -29955,7 +30007,7 @@
       <c r="F335" s="2"/>
     </row>
     <row r="336" spans="1:6" customFormat="1">
-      <c r="A336" s="31"/>
+      <c r="A336" s="34"/>
       <c r="B336" s="20" t="s">
         <v>514</v>
       </c>
@@ -29969,7 +30021,7 @@
       <c r="F336" s="2"/>
     </row>
     <row r="337" spans="1:6" customFormat="1">
-      <c r="A337" s="31"/>
+      <c r="A337" s="34"/>
       <c r="B337" s="20" t="s">
         <v>515</v>
       </c>
@@ -29983,7 +30035,7 @@
       <c r="F337" s="2"/>
     </row>
     <row r="338" spans="1:6" customFormat="1">
-      <c r="A338" s="31"/>
+      <c r="A338" s="34"/>
       <c r="B338" s="20">
         <v>12.6</v>
       </c>
@@ -29997,7 +30049,7 @@
       <c r="F338" s="2"/>
     </row>
     <row r="339" spans="1:6" customFormat="1">
-      <c r="A339" s="31"/>
+      <c r="A339" s="34"/>
       <c r="B339" s="20" t="s">
         <v>516</v>
       </c>
@@ -30011,7 +30063,7 @@
       <c r="F339" s="2"/>
     </row>
     <row r="340" spans="1:6" customFormat="1">
-      <c r="A340" s="31"/>
+      <c r="A340" s="34"/>
       <c r="B340" s="20" t="s">
         <v>517</v>
       </c>
@@ -30025,7 +30077,7 @@
       <c r="F340" s="2"/>
     </row>
     <row r="341" spans="1:6" customFormat="1">
-      <c r="A341" s="31"/>
+      <c r="A341" s="34"/>
       <c r="B341" s="20" t="s">
         <v>518</v>
       </c>
@@ -30039,7 +30091,7 @@
       <c r="F341" s="2"/>
     </row>
     <row r="342" spans="1:6" customFormat="1">
-      <c r="A342" s="31"/>
+      <c r="A342" s="34"/>
       <c r="B342" s="20" t="s">
         <v>519</v>
       </c>
@@ -30053,7 +30105,7 @@
       <c r="F342" s="2"/>
     </row>
     <row r="343" spans="1:6" customFormat="1">
-      <c r="A343" s="31"/>
+      <c r="A343" s="34"/>
       <c r="B343" s="20" t="s">
         <v>520</v>
       </c>
@@ -30067,7 +30119,7 @@
       <c r="F343" s="2"/>
     </row>
     <row r="344" spans="1:6" customFormat="1">
-      <c r="A344" s="31"/>
+      <c r="A344" s="34"/>
       <c r="B344" s="20">
         <v>12.7</v>
       </c>
@@ -30081,7 +30133,7 @@
       <c r="F344" s="2"/>
     </row>
     <row r="345" spans="1:6" customFormat="1">
-      <c r="A345" s="31"/>
+      <c r="A345" s="34"/>
       <c r="B345" s="20" t="s">
         <v>521</v>
       </c>
@@ -30095,7 +30147,7 @@
       <c r="F345" s="2"/>
     </row>
     <row r="346" spans="1:6" customFormat="1">
-      <c r="A346" s="31"/>
+      <c r="A346" s="34"/>
       <c r="B346" s="20" t="s">
         <v>522</v>
       </c>
@@ -30109,7 +30161,7 @@
       <c r="F346" s="2"/>
     </row>
     <row r="347" spans="1:6" customFormat="1">
-      <c r="A347" s="31"/>
+      <c r="A347" s="34"/>
       <c r="B347" s="20" t="s">
         <v>523</v>
       </c>
@@ -30123,7 +30175,7 @@
       <c r="F347" s="2"/>
     </row>
     <row r="348" spans="1:6" customFormat="1">
-      <c r="A348" s="31"/>
+      <c r="A348" s="34"/>
       <c r="B348" s="20" t="s">
         <v>524</v>
       </c>
@@ -30137,7 +30189,7 @@
       <c r="F348" s="2"/>
     </row>
     <row r="349" spans="1:6" customFormat="1">
-      <c r="A349" s="31"/>
+      <c r="A349" s="34"/>
       <c r="B349" s="20" t="s">
         <v>525</v>
       </c>
@@ -30151,7 +30203,7 @@
       <c r="F349" s="2"/>
     </row>
     <row r="350" spans="1:6" customFormat="1">
-      <c r="A350" s="31"/>
+      <c r="A350" s="34"/>
       <c r="B350" s="20">
         <v>12.8</v>
       </c>
@@ -30165,7 +30217,7 @@
       <c r="F350" s="2"/>
     </row>
     <row r="351" spans="1:6" customFormat="1">
-      <c r="A351" s="31"/>
+      <c r="A351" s="34"/>
       <c r="B351" s="20" t="s">
         <v>526</v>
       </c>
@@ -30179,7 +30231,7 @@
       <c r="F351" s="2"/>
     </row>
     <row r="352" spans="1:6" customFormat="1">
-      <c r="A352" s="31"/>
+      <c r="A352" s="34"/>
       <c r="B352" s="20" t="s">
         <v>527</v>
       </c>
@@ -30193,7 +30245,7 @@
       <c r="F352" s="2"/>
     </row>
     <row r="353" spans="1:6" customFormat="1">
-      <c r="A353" s="31" t="s">
+      <c r="A353" s="34" t="s">
         <v>1019</v>
       </c>
       <c r="B353" s="20">
@@ -30209,7 +30261,7 @@
       <c r="F353" s="2"/>
     </row>
     <row r="354" spans="1:6" customFormat="1">
-      <c r="A354" s="31"/>
+      <c r="A354" s="34"/>
       <c r="B354" s="20" t="s">
         <v>528</v>
       </c>
@@ -30223,7 +30275,7 @@
       <c r="F354" s="2"/>
     </row>
     <row r="355" spans="1:6" customFormat="1">
-      <c r="A355" s="31"/>
+      <c r="A355" s="34"/>
       <c r="B355" s="20" t="s">
         <v>529</v>
       </c>
@@ -30237,7 +30289,7 @@
       <c r="F355" s="2"/>
     </row>
     <row r="356" spans="1:6" customFormat="1">
-      <c r="A356" s="31"/>
+      <c r="A356" s="34"/>
       <c r="B356" s="20" t="s">
         <v>530</v>
       </c>
@@ -30251,7 +30303,7 @@
       <c r="F356" s="2"/>
     </row>
     <row r="357" spans="1:6" customFormat="1">
-      <c r="A357" s="31"/>
+      <c r="A357" s="34"/>
       <c r="B357" s="20" t="s">
         <v>531</v>
       </c>
@@ -30265,7 +30317,7 @@
       <c r="F357" s="2"/>
     </row>
     <row r="358" spans="1:6" customFormat="1">
-      <c r="A358" s="31"/>
+      <c r="A358" s="34"/>
       <c r="B358" s="20" t="s">
         <v>532</v>
       </c>
@@ -30279,7 +30331,7 @@
       <c r="F358" s="2"/>
     </row>
     <row r="359" spans="1:6" customFormat="1">
-      <c r="A359" s="31"/>
+      <c r="A359" s="34"/>
       <c r="B359" s="20">
         <v>13.2</v>
       </c>
@@ -30293,7 +30345,7 @@
       <c r="F359" s="2"/>
     </row>
     <row r="360" spans="1:6" customFormat="1">
-      <c r="A360" s="31"/>
+      <c r="A360" s="34"/>
       <c r="B360" s="20" t="s">
         <v>533</v>
       </c>
@@ -30307,7 +30359,7 @@
       <c r="F360" s="2"/>
     </row>
     <row r="361" spans="1:6" customFormat="1">
-      <c r="A361" s="31"/>
+      <c r="A361" s="34"/>
       <c r="B361" s="20" t="s">
         <v>534</v>
       </c>
@@ -30321,7 +30373,7 @@
       <c r="F361" s="2"/>
     </row>
     <row r="362" spans="1:6" customFormat="1">
-      <c r="A362" s="31"/>
+      <c r="A362" s="34"/>
       <c r="B362" s="20">
         <v>13.3</v>
       </c>
@@ -30335,7 +30387,7 @@
       <c r="F362" s="2"/>
     </row>
     <row r="363" spans="1:6" customFormat="1">
-      <c r="A363" s="31"/>
+      <c r="A363" s="34"/>
       <c r="B363" s="20">
         <v>13.4</v>
       </c>
@@ -30349,7 +30401,7 @@
       <c r="F363" s="2"/>
     </row>
     <row r="364" spans="1:6" customFormat="1">
-      <c r="A364" s="31"/>
+      <c r="A364" s="34"/>
       <c r="B364" s="20" t="s">
         <v>535</v>
       </c>
@@ -30363,7 +30415,7 @@
       <c r="F364" s="2"/>
     </row>
     <row r="365" spans="1:6" customFormat="1">
-      <c r="A365" s="31"/>
+      <c r="A365" s="34"/>
       <c r="B365" s="20" t="s">
         <v>536</v>
       </c>
@@ -30377,7 +30429,7 @@
       <c r="F365" s="2"/>
     </row>
     <row r="366" spans="1:6" customFormat="1">
-      <c r="A366" s="31"/>
+      <c r="A366" s="34"/>
       <c r="B366" s="20" t="s">
         <v>537</v>
       </c>
@@ -30391,7 +30443,7 @@
       <c r="F366" s="2"/>
     </row>
     <row r="367" spans="1:6" customFormat="1">
-      <c r="A367" s="31"/>
+      <c r="A367" s="34"/>
       <c r="B367" s="20" t="s">
         <v>538</v>
       </c>
@@ -30405,7 +30457,7 @@
       <c r="F367" s="2"/>
     </row>
     <row r="368" spans="1:6" customFormat="1">
-      <c r="A368" s="31"/>
+      <c r="A368" s="34"/>
       <c r="B368" s="20" t="s">
         <v>539</v>
       </c>
@@ -30419,7 +30471,7 @@
       <c r="F368" s="2"/>
     </row>
     <row r="369" spans="1:6" customFormat="1">
-      <c r="A369" s="31"/>
+      <c r="A369" s="34"/>
       <c r="B369" s="20" t="s">
         <v>540</v>
       </c>
@@ -30433,7 +30485,7 @@
       <c r="F369" s="2"/>
     </row>
     <row r="370" spans="1:6" customFormat="1">
-      <c r="A370" s="31"/>
+      <c r="A370" s="34"/>
       <c r="B370" s="20" t="s">
         <v>541</v>
       </c>
@@ -30447,7 +30499,7 @@
       <c r="F370" s="2"/>
     </row>
     <row r="371" spans="1:6" customFormat="1">
-      <c r="A371" s="31"/>
+      <c r="A371" s="34"/>
       <c r="B371" s="20" t="s">
         <v>542</v>
       </c>
@@ -30461,7 +30513,7 @@
       <c r="F371" s="2"/>
     </row>
     <row r="372" spans="1:6" customFormat="1">
-      <c r="A372" s="31"/>
+      <c r="A372" s="34"/>
       <c r="B372" s="20" t="s">
         <v>543</v>
       </c>
@@ -30475,7 +30527,7 @@
       <c r="F372" s="2"/>
     </row>
     <row r="373" spans="1:6" customFormat="1">
-      <c r="A373" s="31"/>
+      <c r="A373" s="34"/>
       <c r="B373" s="20">
         <v>13.5</v>
       </c>
@@ -30489,7 +30541,7 @@
       <c r="F373" s="2"/>
     </row>
     <row r="374" spans="1:6" customFormat="1">
-      <c r="A374" s="31"/>
+      <c r="A374" s="34"/>
       <c r="B374" s="20" t="s">
         <v>544</v>
       </c>
@@ -30503,7 +30555,7 @@
       <c r="F374" s="2"/>
     </row>
     <row r="375" spans="1:6" customFormat="1">
-      <c r="A375" s="31"/>
+      <c r="A375" s="34"/>
       <c r="B375" s="20" t="s">
         <v>545</v>
       </c>
@@ -30517,7 +30569,7 @@
       <c r="F375" s="2"/>
     </row>
     <row r="376" spans="1:6" customFormat="1">
-      <c r="A376" s="32" t="s">
+      <c r="A376" s="31" t="s">
         <v>1018</v>
       </c>
       <c r="B376" s="20">
@@ -30533,7 +30585,7 @@
       <c r="F376" s="2"/>
     </row>
     <row r="377" spans="1:6" customFormat="1">
-      <c r="A377" s="33"/>
+      <c r="A377" s="32"/>
       <c r="B377" s="20" t="s">
         <v>546</v>
       </c>
@@ -30547,7 +30599,7 @@
       <c r="F377" s="2"/>
     </row>
     <row r="378" spans="1:6" customFormat="1">
-      <c r="A378" s="33"/>
+      <c r="A378" s="32"/>
       <c r="B378" s="20">
         <v>14.2</v>
       </c>
@@ -30561,7 +30613,7 @@
       <c r="F378" s="2"/>
     </row>
     <row r="379" spans="1:6" customFormat="1">
-      <c r="A379" s="33"/>
+      <c r="A379" s="32"/>
       <c r="B379" s="20">
         <v>14.3</v>
       </c>
@@ -30575,7 +30627,7 @@
       <c r="F379" s="2"/>
     </row>
     <row r="380" spans="1:6" customFormat="1">
-      <c r="A380" s="33"/>
+      <c r="A380" s="32"/>
       <c r="B380" s="20" t="s">
         <v>547</v>
       </c>
@@ -30589,7 +30641,7 @@
       <c r="F380" s="2"/>
     </row>
     <row r="381" spans="1:6" customFormat="1">
-      <c r="A381" s="33"/>
+      <c r="A381" s="32"/>
       <c r="B381" s="20" t="s">
         <v>548</v>
       </c>
@@ -30603,7 +30655,7 @@
       <c r="F381" s="2"/>
     </row>
     <row r="382" spans="1:6" customFormat="1">
-      <c r="A382" s="33"/>
+      <c r="A382" s="32"/>
       <c r="B382" s="20" t="s">
         <v>549</v>
       </c>
@@ -30617,7 +30669,7 @@
       <c r="F382" s="2"/>
     </row>
     <row r="383" spans="1:6" customFormat="1">
-      <c r="A383" s="33"/>
+      <c r="A383" s="32"/>
       <c r="B383" s="20" t="s">
         <v>550</v>
       </c>
@@ -30631,7 +30683,7 @@
       <c r="F383" s="2"/>
     </row>
     <row r="384" spans="1:6" customFormat="1">
-      <c r="A384" s="33"/>
+      <c r="A384" s="32"/>
       <c r="B384" s="20">
         <v>14.4</v>
       </c>
@@ -30645,7 +30697,7 @@
       <c r="F384" s="2"/>
     </row>
     <row r="385" spans="1:6" customFormat="1">
-      <c r="A385" s="33"/>
+      <c r="A385" s="32"/>
       <c r="B385" s="20" t="s">
         <v>551</v>
       </c>
@@ -30659,7 +30711,7 @@
       <c r="F385" s="2"/>
     </row>
     <row r="386" spans="1:6" customFormat="1">
-      <c r="A386" s="33"/>
+      <c r="A386" s="32"/>
       <c r="B386" s="20" t="s">
         <v>552</v>
       </c>
@@ -30673,7 +30725,7 @@
       <c r="F386" s="2"/>
     </row>
     <row r="387" spans="1:6" customFormat="1">
-      <c r="A387" s="33"/>
+      <c r="A387" s="32"/>
       <c r="B387" s="20" t="s">
         <v>553</v>
       </c>
@@ -30687,7 +30739,7 @@
       <c r="F387" s="2"/>
     </row>
     <row r="388" spans="1:6" customFormat="1">
-      <c r="A388" s="33"/>
+      <c r="A388" s="32"/>
       <c r="B388" s="20">
         <v>14.5</v>
       </c>
@@ -30701,7 +30753,7 @@
       <c r="F388" s="2"/>
     </row>
     <row r="389" spans="1:6" customFormat="1">
-      <c r="A389" s="33"/>
+      <c r="A389" s="32"/>
       <c r="B389" s="20" t="s">
         <v>554</v>
       </c>
@@ -30715,7 +30767,7 @@
       <c r="F389" s="2"/>
     </row>
     <row r="390" spans="1:6" customFormat="1">
-      <c r="A390" s="33"/>
+      <c r="A390" s="32"/>
       <c r="B390" s="20" t="s">
         <v>555</v>
       </c>
@@ -30729,7 +30781,7 @@
       <c r="F390" s="2"/>
     </row>
     <row r="391" spans="1:6" customFormat="1">
-      <c r="A391" s="33"/>
+      <c r="A391" s="32"/>
       <c r="B391" s="20" t="s">
         <v>556</v>
       </c>
@@ -30743,7 +30795,7 @@
       <c r="F391" s="2"/>
     </row>
     <row r="392" spans="1:6" customFormat="1">
-      <c r="A392" s="33"/>
+      <c r="A392" s="32"/>
       <c r="B392" s="20" t="s">
         <v>557</v>
       </c>
@@ -30757,7 +30809,7 @@
       <c r="F392" s="2"/>
     </row>
     <row r="393" spans="1:6" customFormat="1">
-      <c r="A393" s="33"/>
+      <c r="A393" s="32"/>
       <c r="B393" s="20" t="s">
         <v>558</v>
       </c>
@@ -30771,7 +30823,7 @@
       <c r="F393" s="2"/>
     </row>
     <row r="394" spans="1:6" customFormat="1">
-      <c r="A394" s="33"/>
+      <c r="A394" s="32"/>
       <c r="B394" s="20" t="s">
         <v>559</v>
       </c>
@@ -30785,7 +30837,7 @@
       <c r="F394" s="2"/>
     </row>
     <row r="395" spans="1:6" customFormat="1">
-      <c r="A395" s="33"/>
+      <c r="A395" s="32"/>
       <c r="B395" s="20" t="s">
         <v>560</v>
       </c>
@@ -30799,7 +30851,7 @@
       <c r="F395" s="2"/>
     </row>
     <row r="396" spans="1:6" customFormat="1">
-      <c r="A396" s="33"/>
+      <c r="A396" s="32"/>
       <c r="B396" s="20" t="s">
         <v>561</v>
       </c>
@@ -30813,7 +30865,7 @@
       <c r="F396" s="2"/>
     </row>
     <row r="397" spans="1:6" customFormat="1">
-      <c r="A397" s="33"/>
+      <c r="A397" s="32"/>
       <c r="B397" s="20" t="s">
         <v>562</v>
       </c>
@@ -30827,7 +30879,7 @@
       <c r="F397" s="2"/>
     </row>
     <row r="398" spans="1:6" customFormat="1">
-      <c r="A398" s="33"/>
+      <c r="A398" s="32"/>
       <c r="B398" s="20" t="s">
         <v>563</v>
       </c>
@@ -30841,7 +30893,7 @@
       <c r="F398" s="2"/>
     </row>
     <row r="399" spans="1:6" customFormat="1">
-      <c r="A399" s="33"/>
+      <c r="A399" s="32"/>
       <c r="B399" s="20" t="s">
         <v>564</v>
       </c>
@@ -30855,7 +30907,7 @@
       <c r="F399" s="2"/>
     </row>
     <row r="400" spans="1:6" customFormat="1">
-      <c r="A400" s="33"/>
+      <c r="A400" s="32"/>
       <c r="B400" s="20" t="s">
         <v>565</v>
       </c>
@@ -30869,7 +30921,7 @@
       <c r="F400" s="2"/>
     </row>
     <row r="401" spans="1:6" customFormat="1">
-      <c r="A401" s="33"/>
+      <c r="A401" s="32"/>
       <c r="B401" s="20" t="s">
         <v>566</v>
       </c>
@@ -30883,7 +30935,7 @@
       <c r="F401" s="2"/>
     </row>
     <row r="402" spans="1:6" customFormat="1">
-      <c r="A402" s="33"/>
+      <c r="A402" s="32"/>
       <c r="B402" s="20" t="s">
         <v>567</v>
       </c>
@@ -30897,7 +30949,7 @@
       <c r="F402" s="2"/>
     </row>
     <row r="403" spans="1:6" customFormat="1">
-      <c r="A403" s="33"/>
+      <c r="A403" s="32"/>
       <c r="B403" s="20" t="s">
         <v>568</v>
       </c>
@@ -30911,7 +30963,7 @@
       <c r="F403" s="2"/>
     </row>
     <row r="404" spans="1:6" customFormat="1">
-      <c r="A404" s="33"/>
+      <c r="A404" s="32"/>
       <c r="B404" s="20">
         <v>14.6</v>
       </c>
@@ -30925,7 +30977,7 @@
       <c r="F404" s="2"/>
     </row>
     <row r="405" spans="1:6" customFormat="1">
-      <c r="A405" s="33"/>
+      <c r="A405" s="32"/>
       <c r="B405" s="20">
         <v>14.7</v>
       </c>
@@ -30939,7 +30991,7 @@
       <c r="F405" s="2"/>
     </row>
     <row r="406" spans="1:6" customFormat="1">
-      <c r="A406" s="33"/>
+      <c r="A406" s="32"/>
       <c r="B406" s="20" t="s">
         <v>569</v>
       </c>
@@ -30953,7 +31005,7 @@
       <c r="F406" s="2"/>
     </row>
     <row r="407" spans="1:6" customFormat="1">
-      <c r="A407" s="33"/>
+      <c r="A407" s="32"/>
       <c r="B407" s="20" t="s">
         <v>570</v>
       </c>
@@ -30967,7 +31019,7 @@
       <c r="F407" s="2"/>
     </row>
     <row r="408" spans="1:6" customFormat="1">
-      <c r="A408" s="33"/>
+      <c r="A408" s="32"/>
       <c r="B408" s="20" t="s">
         <v>571</v>
       </c>
@@ -30981,7 +31033,7 @@
       <c r="F408" s="2"/>
     </row>
     <row r="409" spans="1:6" customFormat="1">
-      <c r="A409" s="33"/>
+      <c r="A409" s="32"/>
       <c r="B409" s="20" t="s">
         <v>572</v>
       </c>
@@ -30995,7 +31047,7 @@
       <c r="F409" s="2"/>
     </row>
     <row r="410" spans="1:6" customFormat="1">
-      <c r="A410" s="33"/>
+      <c r="A410" s="32"/>
       <c r="B410" s="20" t="s">
         <v>573</v>
       </c>
@@ -31009,7 +31061,7 @@
       <c r="F410" s="2"/>
     </row>
     <row r="411" spans="1:6" customFormat="1">
-      <c r="A411" s="33"/>
+      <c r="A411" s="32"/>
       <c r="B411" s="20" t="s">
         <v>574</v>
       </c>
@@ -31023,7 +31075,7 @@
       <c r="F411" s="2"/>
     </row>
     <row r="412" spans="1:6" customFormat="1">
-      <c r="A412" s="33"/>
+      <c r="A412" s="32"/>
       <c r="B412" s="20" t="s">
         <v>575</v>
       </c>
@@ -31037,7 +31089,7 @@
       <c r="F412" s="2"/>
     </row>
     <row r="413" spans="1:6" customFormat="1">
-      <c r="A413" s="33"/>
+      <c r="A413" s="32"/>
       <c r="B413" s="20">
         <v>14.8</v>
       </c>
@@ -31051,7 +31103,7 @@
       <c r="F413" s="2"/>
     </row>
     <row r="414" spans="1:6" customFormat="1">
-      <c r="A414" s="33"/>
+      <c r="A414" s="32"/>
       <c r="B414" s="20">
         <v>14.9</v>
       </c>
@@ -31065,7 +31117,7 @@
       <c r="F414" s="2"/>
     </row>
     <row r="415" spans="1:6" customFormat="1">
-      <c r="A415" s="33"/>
+      <c r="A415" s="32"/>
       <c r="B415" s="20" t="s">
         <v>576</v>
       </c>
@@ -31079,7 +31131,7 @@
       <c r="F415" s="2"/>
     </row>
     <row r="416" spans="1:6" customFormat="1">
-      <c r="A416" s="33"/>
+      <c r="A416" s="32"/>
       <c r="B416" s="20" t="s">
         <v>577</v>
       </c>
@@ -31093,7 +31145,7 @@
       <c r="F416" s="2"/>
     </row>
     <row r="417" spans="1:6" customFormat="1">
-      <c r="A417" s="33"/>
+      <c r="A417" s="32"/>
       <c r="B417" s="20" t="s">
         <v>578</v>
       </c>
@@ -31107,7 +31159,7 @@
       <c r="F417" s="2"/>
     </row>
     <row r="418" spans="1:6" customFormat="1">
-      <c r="A418" s="33"/>
+      <c r="A418" s="32"/>
       <c r="B418" s="20" t="s">
         <v>579</v>
       </c>
@@ -31121,7 +31173,7 @@
       <c r="F418" s="2"/>
     </row>
     <row r="419" spans="1:6" customFormat="1">
-      <c r="A419" s="33"/>
+      <c r="A419" s="32"/>
       <c r="B419" s="20" t="s">
         <v>580</v>
       </c>
@@ -31135,7 +31187,7 @@
       <c r="F419" s="2"/>
     </row>
     <row r="420" spans="1:6" customFormat="1">
-      <c r="A420" s="33"/>
+      <c r="A420" s="32"/>
       <c r="B420" s="20">
         <v>14.1</v>
       </c>
@@ -31149,7 +31201,7 @@
       <c r="F420" s="2"/>
     </row>
     <row r="421" spans="1:6" customFormat="1">
-      <c r="A421" s="33"/>
+      <c r="A421" s="32"/>
       <c r="B421" s="20" t="s">
         <v>581</v>
       </c>
@@ -31163,7 +31215,7 @@
       <c r="F421" s="2"/>
     </row>
     <row r="422" spans="1:6" customFormat="1">
-      <c r="A422" s="33"/>
+      <c r="A422" s="32"/>
       <c r="B422" s="20" t="s">
         <v>582</v>
       </c>
@@ -31177,7 +31229,7 @@
       <c r="F422" s="2"/>
     </row>
     <row r="423" spans="1:6" customFormat="1">
-      <c r="A423" s="33"/>
+      <c r="A423" s="32"/>
       <c r="B423" s="20" t="s">
         <v>583</v>
       </c>
@@ -31191,7 +31243,7 @@
       <c r="F423" s="2"/>
     </row>
     <row r="424" spans="1:6" customFormat="1">
-      <c r="A424" s="33"/>
+      <c r="A424" s="32"/>
       <c r="B424" s="20" t="s">
         <v>584</v>
       </c>
@@ -31205,7 +31257,7 @@
       <c r="F424" s="2"/>
     </row>
     <row r="425" spans="1:6" customFormat="1">
-      <c r="A425" s="33"/>
+      <c r="A425" s="32"/>
       <c r="B425" s="20" t="s">
         <v>585</v>
       </c>
@@ -31219,7 +31271,7 @@
       <c r="F425" s="2"/>
     </row>
     <row r="426" spans="1:6" customFormat="1">
-      <c r="A426" s="33"/>
+      <c r="A426" s="32"/>
       <c r="B426" s="20">
         <v>14.11</v>
       </c>
@@ -31233,7 +31285,7 @@
       <c r="F426" s="2"/>
     </row>
     <row r="427" spans="1:6" customFormat="1">
-      <c r="A427" s="33"/>
+      <c r="A427" s="32"/>
       <c r="B427" s="20" t="s">
         <v>586</v>
       </c>
@@ -31247,7 +31299,7 @@
       <c r="F427" s="2"/>
     </row>
     <row r="428" spans="1:6" customFormat="1">
-      <c r="A428" s="33"/>
+      <c r="A428" s="32"/>
       <c r="B428" s="20" t="s">
         <v>587</v>
       </c>
@@ -31261,7 +31313,7 @@
       <c r="F428" s="2"/>
     </row>
     <row r="429" spans="1:6" customFormat="1">
-      <c r="A429" s="34"/>
+      <c r="A429" s="33"/>
       <c r="B429" s="20" t="s">
         <v>588</v>
       </c>
@@ -31327,12 +31379,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A376:A429"/>
-    <mergeCell ref="A353:A375"/>
-    <mergeCell ref="A310:A352"/>
-    <mergeCell ref="A301:A309"/>
-    <mergeCell ref="A250:A290"/>
-    <mergeCell ref="A291:A300"/>
     <mergeCell ref="A77:A127"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A25"/>
@@ -31341,6 +31387,12 @@
     <mergeCell ref="A128:A157"/>
     <mergeCell ref="A190:A217"/>
     <mergeCell ref="A158:A189"/>
+    <mergeCell ref="A376:A429"/>
+    <mergeCell ref="A353:A375"/>
+    <mergeCell ref="A310:A352"/>
+    <mergeCell ref="A301:A309"/>
+    <mergeCell ref="A250:A290"/>
+    <mergeCell ref="A291:A300"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I4">
@@ -31447,7 +31499,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-17</v>
+        <v>截至2020-09-18</v>
       </c>
       <c r="G1" s="12"/>
     </row>

--- a/学习进度.xlsx
+++ b/学习进度.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laohangdeche/Library/Mobile Documents/com~apple~CloudDocs/个人/学习笔记/Learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12872907-3A70-AB4F-B1F3-94992434FCF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEC5A4B-D26F-0B43-B8AD-893B72E87E10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="460" windowWidth="28300" windowHeight="16900" activeTab="2" xr2:uid="{C7784454-BD36-8040-9BFE-2AD014209B0B}"/>
+    <workbookView xWindow="220" yWindow="460" windowWidth="28300" windowHeight="16900" activeTab="1" xr2:uid="{C7784454-BD36-8040-9BFE-2AD014209B0B}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="9" r:id="rId1"/>
@@ -19,9 +19,13 @@
     <sheet name="Spark_黑马" sheetId="6" r:id="rId4"/>
     <sheet name="Java核心编程" sheetId="5" state="hidden" r:id="rId5"/>
     <sheet name="概率论" sheetId="2" r:id="rId6"/>
-    <sheet name="线性代数" sheetId="3" r:id="rId7"/>
-    <sheet name="模板" sheetId="8" r:id="rId8"/>
+    <sheet name="JVM入门" sheetId="10" r:id="rId7"/>
+    <sheet name="线性代数" sheetId="3" r:id="rId8"/>
+    <sheet name="模板" sheetId="8" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">JVM入门!$F$12:$G$216</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2849" uniqueCount="2293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="2293">
   <si>
     <t>01_Java语言发展史</t>
   </si>
@@ -7224,6 +7228,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7231,9 +7238,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7771,7 +7775,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -7816,7 +7820,7 @@
       </c>
       <c r="D2" s="2">
         <f>Java_尚硅谷!G2</f>
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="E2" s="2">
         <f>Java_尚硅谷!G3+Java_尚硅谷!G2</f>
@@ -7824,11 +7828,11 @@
       </c>
       <c r="F2" s="15">
         <f>D2/E2</f>
-        <v>0.17573221757322174</v>
+        <v>0.26499302649930268</v>
       </c>
       <c r="G2" s="25">
         <f>MAX(Java_尚硅谷!D2:D718)</f>
-        <v>44085</v>
+        <v>44098</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7843,7 +7847,7 @@
       </c>
       <c r="D3" s="2">
         <f>Java_黑马!G2</f>
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="E3" s="2">
         <f>Java_黑马!G2+Java_黑马!G3</f>
@@ -7851,11 +7855,11 @@
       </c>
       <c r="F3" s="15">
         <f t="shared" ref="F3:F4" si="0">D3/E3</f>
-        <v>0.70053475935828879</v>
+        <v>0.71479500891265602</v>
       </c>
       <c r="G3" s="25">
         <f>MAX(Java_黑马!D2:D562)</f>
-        <v>44092</v>
+        <v>44096</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7955,9 +7959,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB657C6-0FE4-2342-8CC8-66427A454229}">
   <dimension ref="A1:G718"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B132" sqref="B132"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C285" sqref="C285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -7987,7 +7991,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-18</v>
+        <v>截至2020-09-24</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -8009,7 +8013,7 @@
       </c>
       <c r="G2" s="12">
         <f>COUNTIF(C2:C562,"ok")</f>
-        <v>126</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1">
@@ -8030,7 +8034,7 @@
       </c>
       <c r="G3" s="12">
         <f>COUNTBLANK(C2:C718)</f>
-        <v>591</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1">
@@ -8051,7 +8055,7 @@
       </c>
       <c r="G4" s="15">
         <f>G2/(G2+G3)</f>
-        <v>0.17573221757322174</v>
+        <v>0.26499302649930268</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1">
@@ -9929,8 +9933,12 @@
       <c r="B141" s="5" t="s">
         <v>1703</v>
       </c>
-      <c r="C141" s="2"/>
-      <c r="D141" s="25"/>
+      <c r="C141" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D141" s="25">
+        <v>44097</v>
+      </c>
     </row>
     <row r="142" spans="1:6" customFormat="1">
       <c r="A142" s="2">
@@ -9939,8 +9947,12 @@
       <c r="B142" s="5" t="s">
         <v>1704</v>
       </c>
-      <c r="C142" s="2"/>
-      <c r="D142" s="25"/>
+      <c r="C142" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D142" s="25">
+        <v>44097</v>
+      </c>
     </row>
     <row r="143" spans="1:6" customFormat="1">
       <c r="A143" s="2">
@@ -9949,8 +9961,12 @@
       <c r="B143" s="5" t="s">
         <v>1705</v>
       </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="25"/>
+      <c r="C143" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D143" s="25">
+        <v>44097</v>
+      </c>
     </row>
     <row r="144" spans="1:6" customFormat="1">
       <c r="A144" s="2">
@@ -9959,8 +9975,12 @@
       <c r="B144" s="5" t="s">
         <v>1706</v>
       </c>
-      <c r="C144" s="2"/>
-      <c r="D144" s="25"/>
+      <c r="C144" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D144" s="25">
+        <v>44097</v>
+      </c>
     </row>
     <row r="145" spans="1:4" customFormat="1">
       <c r="A145" s="2">
@@ -9969,8 +9989,12 @@
       <c r="B145" s="5" t="s">
         <v>1707</v>
       </c>
-      <c r="C145" s="2"/>
-      <c r="D145" s="25"/>
+      <c r="C145" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D145" s="25">
+        <v>44097</v>
+      </c>
     </row>
     <row r="146" spans="1:4" customFormat="1">
       <c r="A146" s="2">
@@ -9979,8 +10003,12 @@
       <c r="B146" s="5" t="s">
         <v>1708</v>
       </c>
-      <c r="C146" s="2"/>
-      <c r="D146" s="25"/>
+      <c r="C146" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D146" s="25">
+        <v>44097</v>
+      </c>
     </row>
     <row r="147" spans="1:4" customFormat="1">
       <c r="A147" s="2">
@@ -9989,8 +10017,12 @@
       <c r="B147" s="5" t="s">
         <v>1709</v>
       </c>
-      <c r="C147" s="2"/>
-      <c r="D147" s="25"/>
+      <c r="C147" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D147" s="25">
+        <v>44097</v>
+      </c>
     </row>
     <row r="148" spans="1:4" customFormat="1">
       <c r="A148" s="2">
@@ -9999,8 +10031,12 @@
       <c r="B148" s="5" t="s">
         <v>1710</v>
       </c>
-      <c r="C148" s="2"/>
-      <c r="D148" s="25"/>
+      <c r="C148" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D148" s="25">
+        <v>44097</v>
+      </c>
     </row>
     <row r="149" spans="1:4" customFormat="1">
       <c r="A149" s="2">
@@ -10009,8 +10045,12 @@
       <c r="B149" s="5" t="s">
         <v>1711</v>
       </c>
-      <c r="C149" s="2"/>
-      <c r="D149" s="25"/>
+      <c r="C149" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D149" s="25">
+        <v>44097</v>
+      </c>
     </row>
     <row r="150" spans="1:4" customFormat="1">
       <c r="A150" s="2">
@@ -10019,8 +10059,12 @@
       <c r="B150" s="5" t="s">
         <v>1712</v>
       </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="25"/>
+      <c r="C150" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D150" s="25">
+        <v>44097</v>
+      </c>
     </row>
     <row r="151" spans="1:4" customFormat="1">
       <c r="A151" s="2">
@@ -10029,8 +10073,12 @@
       <c r="B151" s="5" t="s">
         <v>1713</v>
       </c>
-      <c r="C151" s="2"/>
-      <c r="D151" s="25"/>
+      <c r="C151" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D151" s="25">
+        <v>44097</v>
+      </c>
     </row>
     <row r="152" spans="1:4" customFormat="1">
       <c r="A152" s="2">
@@ -10039,8 +10087,12 @@
       <c r="B152" s="5" t="s">
         <v>1714</v>
       </c>
-      <c r="C152" s="2"/>
-      <c r="D152" s="25"/>
+      <c r="C152" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D152" s="25">
+        <v>44097</v>
+      </c>
     </row>
     <row r="153" spans="1:4" customFormat="1">
       <c r="A153" s="2">
@@ -10049,8 +10101,12 @@
       <c r="B153" s="5" t="s">
         <v>1715</v>
       </c>
-      <c r="C153" s="2"/>
-      <c r="D153" s="25"/>
+      <c r="C153" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D153" s="25">
+        <v>44097</v>
+      </c>
     </row>
     <row r="154" spans="1:4" customFormat="1">
       <c r="A154" s="2">
@@ -10059,8 +10115,12 @@
       <c r="B154" s="5" t="s">
         <v>1716</v>
       </c>
-      <c r="C154" s="2"/>
-      <c r="D154" s="25"/>
+      <c r="C154" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D154" s="25">
+        <v>44097</v>
+      </c>
     </row>
     <row r="155" spans="1:4" customFormat="1">
       <c r="A155" s="2">
@@ -10069,8 +10129,12 @@
       <c r="B155" s="5" t="s">
         <v>1717</v>
       </c>
-      <c r="C155" s="2"/>
-      <c r="D155" s="25"/>
+      <c r="C155" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D155" s="25">
+        <v>44097</v>
+      </c>
     </row>
     <row r="156" spans="1:4" customFormat="1">
       <c r="A156" s="2">
@@ -10079,8 +10143,12 @@
       <c r="B156" s="5" t="s">
         <v>1718</v>
       </c>
-      <c r="C156" s="2"/>
-      <c r="D156" s="25"/>
+      <c r="C156" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D156" s="25">
+        <v>44097</v>
+      </c>
     </row>
     <row r="157" spans="1:4" customFormat="1">
       <c r="A157" s="2">
@@ -10089,8 +10157,12 @@
       <c r="B157" s="5" t="s">
         <v>1719</v>
       </c>
-      <c r="C157" s="2"/>
-      <c r="D157" s="25"/>
+      <c r="C157" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D157" s="25">
+        <v>44097</v>
+      </c>
     </row>
     <row r="158" spans="1:4" customFormat="1">
       <c r="A158" s="2">
@@ -10099,8 +10171,12 @@
       <c r="B158" s="5" t="s">
         <v>1720</v>
       </c>
-      <c r="C158" s="2"/>
-      <c r="D158" s="25"/>
+      <c r="C158" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D158" s="25">
+        <v>44097</v>
+      </c>
     </row>
     <row r="159" spans="1:4" customFormat="1">
       <c r="A159" s="2">
@@ -10109,8 +10185,12 @@
       <c r="B159" s="5" t="s">
         <v>1721</v>
       </c>
-      <c r="C159" s="2"/>
-      <c r="D159" s="25"/>
+      <c r="C159" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D159" s="25">
+        <v>44097</v>
+      </c>
     </row>
     <row r="160" spans="1:4" customFormat="1">
       <c r="A160" s="2">
@@ -10119,8 +10199,12 @@
       <c r="B160" s="5" t="s">
         <v>1722</v>
       </c>
-      <c r="C160" s="2"/>
-      <c r="D160" s="25"/>
+      <c r="C160" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D160" s="25">
+        <v>44097</v>
+      </c>
     </row>
     <row r="161" spans="1:4" customFormat="1">
       <c r="A161" s="2">
@@ -10129,8 +10213,12 @@
       <c r="B161" s="5" t="s">
         <v>1723</v>
       </c>
-      <c r="C161" s="2"/>
-      <c r="D161" s="25"/>
+      <c r="C161" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D161" s="25">
+        <v>44097</v>
+      </c>
     </row>
     <row r="162" spans="1:4" customFormat="1">
       <c r="A162" s="2">
@@ -10139,8 +10227,12 @@
       <c r="B162" s="5" t="s">
         <v>1724</v>
       </c>
-      <c r="C162" s="2"/>
-      <c r="D162" s="25"/>
+      <c r="C162" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D162" s="25">
+        <v>44097</v>
+      </c>
     </row>
     <row r="163" spans="1:4" customFormat="1">
       <c r="A163" s="2">
@@ -10639,8 +10731,12 @@
       <c r="B212" s="5" t="s">
         <v>1774</v>
       </c>
-      <c r="C212" s="2"/>
-      <c r="D212" s="25"/>
+      <c r="C212" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D212" s="25">
+        <v>44097</v>
+      </c>
     </row>
     <row r="213" spans="1:4" customFormat="1">
       <c r="A213" s="2">
@@ -10649,8 +10745,12 @@
       <c r="B213" s="5" t="s">
         <v>1775</v>
       </c>
-      <c r="C213" s="2"/>
-      <c r="D213" s="25"/>
+      <c r="C213" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D213" s="25">
+        <v>44097</v>
+      </c>
     </row>
     <row r="214" spans="1:4" customFormat="1">
       <c r="A214" s="2">
@@ -10659,8 +10759,12 @@
       <c r="B214" s="5" t="s">
         <v>1776</v>
       </c>
-      <c r="C214" s="2"/>
-      <c r="D214" s="25"/>
+      <c r="C214" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D214" s="25">
+        <v>44097</v>
+      </c>
     </row>
     <row r="215" spans="1:4" customFormat="1">
       <c r="A215" s="2">
@@ -10669,8 +10773,12 @@
       <c r="B215" s="5" t="s">
         <v>1777</v>
       </c>
-      <c r="C215" s="2"/>
-      <c r="D215" s="25"/>
+      <c r="C215" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D215" s="25">
+        <v>44097</v>
+      </c>
     </row>
     <row r="216" spans="1:4" customFormat="1">
       <c r="A216" s="2">
@@ -10739,8 +10847,12 @@
       <c r="B222" s="5" t="s">
         <v>1784</v>
       </c>
-      <c r="C222" s="2"/>
-      <c r="D222" s="25"/>
+      <c r="C222" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D222" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="223" spans="1:4" customFormat="1">
       <c r="A223" s="2">
@@ -10749,8 +10861,12 @@
       <c r="B223" s="5" t="s">
         <v>1785</v>
       </c>
-      <c r="C223" s="2"/>
-      <c r="D223" s="25"/>
+      <c r="C223" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D223" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="224" spans="1:4" customFormat="1">
       <c r="A224" s="2">
@@ -10759,8 +10875,12 @@
       <c r="B224" s="5" t="s">
         <v>1786</v>
       </c>
-      <c r="C224" s="2"/>
-      <c r="D224" s="25"/>
+      <c r="C224" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D224" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="225" spans="1:4" customFormat="1">
       <c r="A225" s="2">
@@ -10769,8 +10889,12 @@
       <c r="B225" s="5" t="s">
         <v>1787</v>
       </c>
-      <c r="C225" s="2"/>
-      <c r="D225" s="25"/>
+      <c r="C225" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D225" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="226" spans="1:4" customFormat="1">
       <c r="A226" s="2">
@@ -10779,8 +10903,12 @@
       <c r="B226" s="5" t="s">
         <v>1788</v>
       </c>
-      <c r="C226" s="2"/>
-      <c r="D226" s="25"/>
+      <c r="C226" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D226" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="227" spans="1:4" customFormat="1">
       <c r="A227" s="2">
@@ -10789,8 +10917,12 @@
       <c r="B227" s="5" t="s">
         <v>1789</v>
       </c>
-      <c r="C227" s="2"/>
-      <c r="D227" s="25"/>
+      <c r="C227" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D227" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="228" spans="1:4" customFormat="1">
       <c r="A228" s="2">
@@ -10799,8 +10931,12 @@
       <c r="B228" s="5" t="s">
         <v>1790</v>
       </c>
-      <c r="C228" s="2"/>
-      <c r="D228" s="25"/>
+      <c r="C228" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D228" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="229" spans="1:4" customFormat="1">
       <c r="A229" s="2">
@@ -10809,8 +10945,12 @@
       <c r="B229" s="5" t="s">
         <v>1791</v>
       </c>
-      <c r="C229" s="2"/>
-      <c r="D229" s="25"/>
+      <c r="C229" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D229" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="230" spans="1:4" customFormat="1">
       <c r="A230" s="2">
@@ -10819,8 +10959,12 @@
       <c r="B230" s="5" t="s">
         <v>1792</v>
       </c>
-      <c r="C230" s="2"/>
-      <c r="D230" s="25"/>
+      <c r="C230" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D230" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="231" spans="1:4" customFormat="1">
       <c r="A231" s="2">
@@ -10829,8 +10973,12 @@
       <c r="B231" s="5" t="s">
         <v>1793</v>
       </c>
-      <c r="C231" s="2"/>
-      <c r="D231" s="25"/>
+      <c r="C231" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D231" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="232" spans="1:4" customFormat="1">
       <c r="A232" s="2">
@@ -10839,8 +10987,12 @@
       <c r="B232" s="5" t="s">
         <v>1794</v>
       </c>
-      <c r="C232" s="2"/>
-      <c r="D232" s="25"/>
+      <c r="C232" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D232" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="233" spans="1:4" customFormat="1">
       <c r="A233" s="2">
@@ -10849,8 +11001,12 @@
       <c r="B233" s="5" t="s">
         <v>1795</v>
       </c>
-      <c r="C233" s="2"/>
-      <c r="D233" s="25"/>
+      <c r="C233" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D233" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="234" spans="1:4" customFormat="1">
       <c r="A234" s="2">
@@ -10859,8 +11015,12 @@
       <c r="B234" s="5" t="s">
         <v>1796</v>
       </c>
-      <c r="C234" s="2"/>
-      <c r="D234" s="25"/>
+      <c r="C234" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D234" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="235" spans="1:4" customFormat="1">
       <c r="A235" s="2">
@@ -10869,8 +11029,12 @@
       <c r="B235" s="5" t="s">
         <v>1797</v>
       </c>
-      <c r="C235" s="2"/>
-      <c r="D235" s="25"/>
+      <c r="C235" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D235" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="236" spans="1:4" customFormat="1">
       <c r="A236" s="2">
@@ -10879,8 +11043,12 @@
       <c r="B236" s="5" t="s">
         <v>1798</v>
       </c>
-      <c r="C236" s="2"/>
-      <c r="D236" s="25"/>
+      <c r="C236" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D236" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="237" spans="1:4" customFormat="1">
       <c r="A237" s="2">
@@ -10889,8 +11057,12 @@
       <c r="B237" s="5" t="s">
         <v>1799</v>
       </c>
-      <c r="C237" s="2"/>
-      <c r="D237" s="25"/>
+      <c r="C237" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D237" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="238" spans="1:4" customFormat="1">
       <c r="A238" s="2">
@@ -10899,8 +11071,12 @@
       <c r="B238" s="5" t="s">
         <v>1800</v>
       </c>
-      <c r="C238" s="2"/>
-      <c r="D238" s="25"/>
+      <c r="C238" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D238" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="239" spans="1:4" customFormat="1">
       <c r="A239" s="2">
@@ -10909,8 +11085,12 @@
       <c r="B239" s="5" t="s">
         <v>1801</v>
       </c>
-      <c r="C239" s="2"/>
-      <c r="D239" s="25"/>
+      <c r="C239" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D239" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="240" spans="1:4" customFormat="1">
       <c r="A240" s="2">
@@ -10919,8 +11099,12 @@
       <c r="B240" s="5" t="s">
         <v>1802</v>
       </c>
-      <c r="C240" s="2"/>
-      <c r="D240" s="25"/>
+      <c r="C240" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D240" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="241" spans="1:4" customFormat="1">
       <c r="A241" s="2">
@@ -10929,8 +11113,12 @@
       <c r="B241" s="5" t="s">
         <v>1803</v>
       </c>
-      <c r="C241" s="2"/>
-      <c r="D241" s="25"/>
+      <c r="C241" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D241" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="242" spans="1:4" customFormat="1">
       <c r="A242" s="2">
@@ -10939,8 +11127,12 @@
       <c r="B242" s="5" t="s">
         <v>1804</v>
       </c>
-      <c r="C242" s="2"/>
-      <c r="D242" s="25"/>
+      <c r="C242" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D242" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="243" spans="1:4" customFormat="1">
       <c r="A243" s="2">
@@ -10949,8 +11141,12 @@
       <c r="B243" s="5" t="s">
         <v>1805</v>
       </c>
-      <c r="C243" s="2"/>
-      <c r="D243" s="25"/>
+      <c r="C243" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D243" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="244" spans="1:4" customFormat="1">
       <c r="A244" s="2">
@@ -10959,8 +11155,12 @@
       <c r="B244" s="5" t="s">
         <v>1806</v>
       </c>
-      <c r="C244" s="2"/>
-      <c r="D244" s="25"/>
+      <c r="C244" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D244" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="245" spans="1:4" customFormat="1">
       <c r="A245" s="2">
@@ -11129,8 +11329,12 @@
       <c r="B261" s="5" t="s">
         <v>1823</v>
       </c>
-      <c r="C261" s="2"/>
-      <c r="D261" s="25"/>
+      <c r="C261" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D261" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="262" spans="1:4" customFormat="1">
       <c r="A262" s="2">
@@ -11139,8 +11343,12 @@
       <c r="B262" s="5" t="s">
         <v>1824</v>
       </c>
-      <c r="C262" s="2"/>
-      <c r="D262" s="25"/>
+      <c r="C262" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D262" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="263" spans="1:4" customFormat="1">
       <c r="A263" s="2">
@@ -11149,8 +11357,12 @@
       <c r="B263" s="5" t="s">
         <v>1825</v>
       </c>
-      <c r="C263" s="2"/>
-      <c r="D263" s="25"/>
+      <c r="C263" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D263" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="264" spans="1:4" customFormat="1">
       <c r="A264" s="2">
@@ -11249,8 +11461,12 @@
       <c r="B273" s="5" t="s">
         <v>1835</v>
       </c>
-      <c r="C273" s="2"/>
-      <c r="D273" s="25"/>
+      <c r="C273" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D273" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="274" spans="1:4" customFormat="1">
       <c r="A274" s="2">
@@ -11259,8 +11475,12 @@
       <c r="B274" s="5" t="s">
         <v>1836</v>
       </c>
-      <c r="C274" s="2"/>
-      <c r="D274" s="25"/>
+      <c r="C274" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D274" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="275" spans="1:4" customFormat="1">
       <c r="A275" s="2">
@@ -11269,8 +11489,12 @@
       <c r="B275" s="5" t="s">
         <v>1837</v>
       </c>
-      <c r="C275" s="2"/>
-      <c r="D275" s="25"/>
+      <c r="C275" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D275" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="276" spans="1:4" customFormat="1">
       <c r="A276" s="2">
@@ -11279,8 +11503,12 @@
       <c r="B276" s="5" t="s">
         <v>1838</v>
       </c>
-      <c r="C276" s="2"/>
-      <c r="D276" s="25"/>
+      <c r="C276" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D276" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="277" spans="1:4" customFormat="1">
       <c r="A277" s="2">
@@ -11289,8 +11517,12 @@
       <c r="B277" s="5" t="s">
         <v>1839</v>
       </c>
-      <c r="C277" s="2"/>
-      <c r="D277" s="25"/>
+      <c r="C277" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D277" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="278" spans="1:4" customFormat="1">
       <c r="A278" s="2">
@@ -11299,8 +11531,12 @@
       <c r="B278" s="5" t="s">
         <v>1840</v>
       </c>
-      <c r="C278" s="2"/>
-      <c r="D278" s="25"/>
+      <c r="C278" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D278" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="279" spans="1:4" customFormat="1">
       <c r="A279" s="2">
@@ -11309,8 +11545,12 @@
       <c r="B279" s="5" t="s">
         <v>1841</v>
       </c>
-      <c r="C279" s="2"/>
-      <c r="D279" s="25"/>
+      <c r="C279" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D279" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="280" spans="1:4" customFormat="1">
       <c r="A280" s="2">
@@ -11319,8 +11559,12 @@
       <c r="B280" s="5" t="s">
         <v>1842</v>
       </c>
-      <c r="C280" s="2"/>
-      <c r="D280" s="25"/>
+      <c r="C280" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D280" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="281" spans="1:4" customFormat="1">
       <c r="A281" s="2">
@@ -11329,8 +11573,12 @@
       <c r="B281" s="5" t="s">
         <v>1843</v>
       </c>
-      <c r="C281" s="2"/>
-      <c r="D281" s="25"/>
+      <c r="C281" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D281" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="282" spans="1:4" customFormat="1">
       <c r="A282" s="2">
@@ -11339,8 +11587,12 @@
       <c r="B282" s="5" t="s">
         <v>1844</v>
       </c>
-      <c r="C282" s="2"/>
-      <c r="D282" s="25"/>
+      <c r="C282" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D282" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="283" spans="1:4" customFormat="1">
       <c r="A283" s="2">
@@ -11349,8 +11601,12 @@
       <c r="B283" s="5" t="s">
         <v>1845</v>
       </c>
-      <c r="C283" s="2"/>
-      <c r="D283" s="25"/>
+      <c r="C283" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D283" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="284" spans="1:4" customFormat="1">
       <c r="A284" s="2">
@@ -11359,8 +11615,12 @@
       <c r="B284" s="5" t="s">
         <v>1846</v>
       </c>
-      <c r="C284" s="2"/>
-      <c r="D284" s="25"/>
+      <c r="C284" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D284" s="25">
+        <v>44098</v>
+      </c>
     </row>
     <row r="285" spans="1:4" customFormat="1">
       <c r="A285" s="2">
@@ -15751,9 +16011,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01128F9A-3AE1-6541-A247-7E828F31667C}">
   <dimension ref="A1:G562"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A400" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C416" sqref="C416"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B333" sqref="B333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -15783,7 +16043,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-18</v>
+        <v>截至2020-09-24</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -15803,7 +16063,7 @@
       </c>
       <c r="G2" s="12">
         <f>COUNTIF(C2:C562,"ok")</f>
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1">
@@ -15822,7 +16082,7 @@
       </c>
       <c r="G3" s="12">
         <f>COUNTBLANK(C2:C562)</f>
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:7" customFormat="1">
@@ -15841,7 +16101,7 @@
       </c>
       <c r="G4" s="15">
         <f>G2/(G2+G3)</f>
-        <v>0.70053475935828879</v>
+        <v>0.71479500891265602</v>
       </c>
     </row>
     <row r="5" spans="1:7" customFormat="1">
@@ -21227,8 +21487,12 @@
       <c r="B407" s="5" t="s">
         <v>1270</v>
       </c>
-      <c r="C407" s="2"/>
-      <c r="D407" s="25"/>
+      <c r="C407" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D407" s="25">
+        <v>44095</v>
+      </c>
     </row>
     <row r="408" spans="1:4" customFormat="1">
       <c r="A408" s="2">
@@ -21237,8 +21501,12 @@
       <c r="B408" s="5" t="s">
         <v>1271</v>
       </c>
-      <c r="C408" s="2"/>
-      <c r="D408" s="25"/>
+      <c r="C408" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D408" s="25">
+        <v>44095</v>
+      </c>
     </row>
     <row r="409" spans="1:4" customFormat="1">
       <c r="A409" s="2">
@@ -21247,8 +21515,12 @@
       <c r="B409" s="5" t="s">
         <v>1272</v>
       </c>
-      <c r="C409" s="2"/>
-      <c r="D409" s="25"/>
+      <c r="C409" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D409" s="25">
+        <v>44095</v>
+      </c>
     </row>
     <row r="410" spans="1:4" customFormat="1">
       <c r="A410" s="2">
@@ -21257,8 +21529,12 @@
       <c r="B410" s="5" t="s">
         <v>1273</v>
       </c>
-      <c r="C410" s="2"/>
-      <c r="D410" s="25"/>
+      <c r="C410" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D410" s="25">
+        <v>44095</v>
+      </c>
     </row>
     <row r="411" spans="1:4" customFormat="1">
       <c r="A411" s="2">
@@ -21267,8 +21543,12 @@
       <c r="B411" s="5" t="s">
         <v>1274</v>
       </c>
-      <c r="C411" s="2"/>
-      <c r="D411" s="25"/>
+      <c r="C411" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D411" s="25">
+        <v>44095</v>
+      </c>
     </row>
     <row r="412" spans="1:4" customFormat="1">
       <c r="A412" s="2">
@@ -21277,8 +21557,12 @@
       <c r="B412" s="5" t="s">
         <v>1275</v>
       </c>
-      <c r="C412" s="2"/>
-      <c r="D412" s="25"/>
+      <c r="C412" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D412" s="25">
+        <v>44095</v>
+      </c>
     </row>
     <row r="413" spans="1:4" customFormat="1">
       <c r="A413" s="2">
@@ -21287,8 +21571,12 @@
       <c r="B413" s="5" t="s">
         <v>1276</v>
       </c>
-      <c r="C413" s="2"/>
-      <c r="D413" s="25"/>
+      <c r="C413" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D413" s="25">
+        <v>44095</v>
+      </c>
     </row>
     <row r="414" spans="1:4" customFormat="1">
       <c r="A414" s="2">
@@ -21297,8 +21585,12 @@
       <c r="B414" s="5" t="s">
         <v>1277</v>
       </c>
-      <c r="C414" s="2"/>
-      <c r="D414" s="25"/>
+      <c r="C414" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D414" s="25">
+        <v>44096</v>
+      </c>
     </row>
     <row r="415" spans="1:4" customFormat="1">
       <c r="A415" s="2">
@@ -22860,7 +23152,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-18</v>
+        <v>截至2020-09-24</v>
       </c>
       <c r="G1" s="12"/>
     </row>
@@ -25266,12 +25558,12 @@
       </c>
       <c r="H1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-18</v>
+        <v>截至2020-09-24</v>
       </c>
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" customFormat="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>1016</v>
       </c>
       <c r="B2" s="20">
@@ -25294,7 +25586,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" customFormat="1">
-      <c r="A3" s="34"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="20">
         <v>1.2</v>
       </c>
@@ -25315,7 +25607,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" customFormat="1">
-      <c r="A4" s="34"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="20" t="s">
         <v>261</v>
       </c>
@@ -25336,7 +25628,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" customFormat="1">
-      <c r="A5" s="34"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="20" t="s">
         <v>262</v>
       </c>
@@ -25350,7 +25642,7 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:9" customFormat="1">
-      <c r="A6" s="34"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="20" t="s">
         <v>263</v>
       </c>
@@ -25365,7 +25657,7 @@
       <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:9" customFormat="1">
-      <c r="A7" s="34"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="20" t="s">
         <v>264</v>
       </c>
@@ -25380,7 +25672,7 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:9" customFormat="1">
-      <c r="A8" s="34"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="20" t="s">
         <v>265</v>
       </c>
@@ -25394,7 +25686,7 @@
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:9" customFormat="1">
-      <c r="A9" s="34"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="20" t="s">
         <v>266</v>
       </c>
@@ -25409,7 +25701,7 @@
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:9" customFormat="1">
-      <c r="A10" s="34"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="20" t="s">
         <v>267</v>
       </c>
@@ -25423,7 +25715,7 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:9" customFormat="1">
-      <c r="A11" s="34"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="20" t="s">
         <v>268</v>
       </c>
@@ -25437,7 +25729,7 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:9" customFormat="1">
-      <c r="A12" s="34"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="20" t="s">
         <v>269</v>
       </c>
@@ -25451,7 +25743,7 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:9" customFormat="1">
-      <c r="A13" s="34"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="20" t="s">
         <v>270</v>
       </c>
@@ -25465,7 +25757,7 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:9" customFormat="1">
-      <c r="A14" s="34"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="20" t="s">
         <v>271</v>
       </c>
@@ -25479,7 +25771,7 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:9" customFormat="1">
-      <c r="A15" s="34"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="20">
         <v>1.3</v>
       </c>
@@ -25493,7 +25785,7 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:9" customFormat="1">
-      <c r="A16" s="34"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="20">
         <v>1.4</v>
       </c>
@@ -25507,7 +25799,7 @@
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" customFormat="1">
-      <c r="A17" s="34"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="20">
         <v>1.5</v>
       </c>
@@ -25521,7 +25813,7 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" customFormat="1">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="31" t="s">
         <v>1017</v>
       </c>
       <c r="B18" s="20">
@@ -25537,7 +25829,7 @@
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" customFormat="1">
-      <c r="A19" s="34"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="20" t="s">
         <v>272</v>
       </c>
@@ -25551,7 +25843,7 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" customFormat="1">
-      <c r="A20" s="34"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="20" t="s">
         <v>273</v>
       </c>
@@ -25565,7 +25857,7 @@
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" customFormat="1">
-      <c r="A21" s="34"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="20" t="s">
         <v>274</v>
       </c>
@@ -25579,7 +25871,7 @@
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" customFormat="1">
-      <c r="A22" s="34"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="20">
         <v>2.2000000000000002</v>
       </c>
@@ -25593,7 +25885,7 @@
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" customFormat="1">
-      <c r="A23" s="34"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="20">
         <v>2.2999999999999998</v>
       </c>
@@ -25607,7 +25899,7 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" customFormat="1">
-      <c r="A24" s="34"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="20">
         <v>2.4</v>
       </c>
@@ -25621,7 +25913,7 @@
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" customFormat="1">
-      <c r="A25" s="34"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="20">
         <v>2.5</v>
       </c>
@@ -25635,7 +25927,7 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" customFormat="1">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="31" t="s">
         <v>1027</v>
       </c>
       <c r="B26" s="20">
@@ -25651,7 +25943,7 @@
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" customFormat="1">
-      <c r="A27" s="34"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="20">
         <v>3.2</v>
       </c>
@@ -25665,7 +25957,7 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" customFormat="1">
-      <c r="A28" s="34"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="20">
         <v>3.3</v>
       </c>
@@ -25679,7 +25971,7 @@
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" customFormat="1">
-      <c r="A29" s="34"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="20" t="s">
         <v>275</v>
       </c>
@@ -25693,7 +25985,7 @@
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" customFormat="1">
-      <c r="A30" s="34"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="20" t="s">
         <v>276</v>
       </c>
@@ -25707,7 +25999,7 @@
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" customFormat="1">
-      <c r="A31" s="34"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="20" t="s">
         <v>277</v>
       </c>
@@ -25721,7 +26013,7 @@
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" customFormat="1">
-      <c r="A32" s="34"/>
+      <c r="A32" s="31"/>
       <c r="B32" s="20" t="s">
         <v>278</v>
       </c>
@@ -25735,7 +26027,7 @@
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" customFormat="1">
-      <c r="A33" s="34"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="20" t="s">
         <v>279</v>
       </c>
@@ -25749,7 +26041,7 @@
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" customFormat="1">
-      <c r="A34" s="34"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="20">
         <v>3.4</v>
       </c>
@@ -25763,7 +26055,7 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" customFormat="1">
-      <c r="A35" s="34"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="20" t="s">
         <v>280</v>
       </c>
@@ -25777,7 +26069,7 @@
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" customFormat="1">
-      <c r="A36" s="34"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="20" t="s">
         <v>281</v>
       </c>
@@ -25791,7 +26083,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" customFormat="1">
-      <c r="A37" s="34"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="20">
         <v>3.5</v>
       </c>
@@ -25805,7 +26097,7 @@
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" customFormat="1">
-      <c r="A38" s="34"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="20" t="s">
         <v>282</v>
       </c>
@@ -25819,7 +26111,7 @@
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" customFormat="1">
-      <c r="A39" s="34"/>
+      <c r="A39" s="31"/>
       <c r="B39" s="20" t="s">
         <v>283</v>
       </c>
@@ -25833,7 +26125,7 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6" customFormat="1">
-      <c r="A40" s="34"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="20" t="s">
         <v>284</v>
       </c>
@@ -25847,7 +26139,7 @@
       <c r="F40" s="2"/>
     </row>
     <row r="41" spans="1:6" customFormat="1">
-      <c r="A41" s="34"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="20" t="s">
         <v>285</v>
       </c>
@@ -25861,7 +26153,7 @@
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" customFormat="1">
-      <c r="A42" s="34"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="20" t="s">
         <v>286</v>
       </c>
@@ -25875,7 +26167,7 @@
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" customFormat="1">
-      <c r="A43" s="34"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="20" t="s">
         <v>287</v>
       </c>
@@ -25889,7 +26181,7 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" customFormat="1">
-      <c r="A44" s="34"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="20" t="s">
         <v>288</v>
       </c>
@@ -25903,7 +26195,7 @@
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" customFormat="1">
-      <c r="A45" s="34"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="20" t="s">
         <v>289</v>
       </c>
@@ -25917,7 +26209,7 @@
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" customFormat="1">
-      <c r="A46" s="34"/>
+      <c r="A46" s="31"/>
       <c r="B46" s="20" t="s">
         <v>290</v>
       </c>
@@ -25931,7 +26223,7 @@
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" customFormat="1">
-      <c r="A47" s="34"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="20">
         <v>3.6</v>
       </c>
@@ -25945,7 +26237,7 @@
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" customFormat="1">
-      <c r="A48" s="34"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="20" t="s">
         <v>291</v>
       </c>
@@ -25959,7 +26251,7 @@
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" customFormat="1">
-      <c r="A49" s="34"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="20" t="s">
         <v>292</v>
       </c>
@@ -25973,7 +26265,7 @@
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" customFormat="1">
-      <c r="A50" s="34"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="20" t="s">
         <v>293</v>
       </c>
@@ -25987,7 +26279,7 @@
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:6" customFormat="1">
-      <c r="A51" s="34"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="20" t="s">
         <v>294</v>
       </c>
@@ -26001,7 +26293,7 @@
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" customFormat="1">
-      <c r="A52" s="34"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="20" t="s">
         <v>295</v>
       </c>
@@ -26015,7 +26307,7 @@
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" customFormat="1">
-      <c r="A53" s="34"/>
+      <c r="A53" s="31"/>
       <c r="B53" s="20" t="s">
         <v>296</v>
       </c>
@@ -26029,7 +26321,7 @@
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" customFormat="1">
-      <c r="A54" s="34"/>
+      <c r="A54" s="31"/>
       <c r="B54" s="20" t="s">
         <v>297</v>
       </c>
@@ -26043,7 +26335,7 @@
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" customFormat="1">
-      <c r="A55" s="34"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="20" t="s">
         <v>298</v>
       </c>
@@ -26057,7 +26349,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" customFormat="1">
-      <c r="A56" s="34"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="20" t="s">
         <v>299</v>
       </c>
@@ -26071,7 +26363,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" customFormat="1">
-      <c r="A57" s="34"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="20">
         <v>3.7</v>
       </c>
@@ -26085,7 +26377,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" customFormat="1">
-      <c r="A58" s="34"/>
+      <c r="A58" s="31"/>
       <c r="B58" s="20" t="s">
         <v>300</v>
       </c>
@@ -26099,7 +26391,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" customFormat="1">
-      <c r="A59" s="34"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="20" t="s">
         <v>301</v>
       </c>
@@ -26113,7 +26405,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" customFormat="1">
-      <c r="A60" s="34"/>
+      <c r="A60" s="31"/>
       <c r="B60" s="20" t="s">
         <v>302</v>
       </c>
@@ -26127,7 +26419,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" customFormat="1">
-      <c r="A61" s="34"/>
+      <c r="A61" s="31"/>
       <c r="B61" s="20">
         <v>3.8</v>
       </c>
@@ -26141,7 +26433,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" customFormat="1">
-      <c r="A62" s="34"/>
+      <c r="A62" s="31"/>
       <c r="B62" s="20" t="s">
         <v>303</v>
       </c>
@@ -26155,7 +26447,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" customFormat="1">
-      <c r="A63" s="34"/>
+      <c r="A63" s="31"/>
       <c r="B63" s="20" t="s">
         <v>304</v>
       </c>
@@ -26169,7 +26461,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" customFormat="1">
-      <c r="A64" s="34"/>
+      <c r="A64" s="31"/>
       <c r="B64" s="20" t="s">
         <v>305</v>
       </c>
@@ -26183,7 +26475,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" customFormat="1">
-      <c r="A65" s="34"/>
+      <c r="A65" s="31"/>
       <c r="B65" s="20" t="s">
         <v>306</v>
       </c>
@@ -26197,7 +26489,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" customFormat="1">
-      <c r="A66" s="34"/>
+      <c r="A66" s="31"/>
       <c r="B66" s="20" t="s">
         <v>307</v>
       </c>
@@ -26211,7 +26503,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" customFormat="1">
-      <c r="A67" s="34"/>
+      <c r="A67" s="31"/>
       <c r="B67" s="20" t="s">
         <v>308</v>
       </c>
@@ -26225,7 +26517,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" customFormat="1">
-      <c r="A68" s="34"/>
+      <c r="A68" s="31"/>
       <c r="B68" s="20">
         <v>3.9</v>
       </c>
@@ -26239,7 +26531,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" customFormat="1">
-      <c r="A69" s="34"/>
+      <c r="A69" s="31"/>
       <c r="B69" s="20">
         <v>3.1</v>
       </c>
@@ -26253,7 +26545,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" customFormat="1">
-      <c r="A70" s="34"/>
+      <c r="A70" s="31"/>
       <c r="B70" s="20" t="s">
         <v>309</v>
       </c>
@@ -26267,7 +26559,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" customFormat="1">
-      <c r="A71" s="34"/>
+      <c r="A71" s="31"/>
       <c r="B71" s="20" t="s">
         <v>310</v>
       </c>
@@ -26281,7 +26573,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" customFormat="1">
-      <c r="A72" s="34"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="20" t="s">
         <v>311</v>
       </c>
@@ -26295,7 +26587,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" customFormat="1">
-      <c r="A73" s="34"/>
+      <c r="A73" s="31"/>
       <c r="B73" s="20" t="s">
         <v>312</v>
       </c>
@@ -26309,7 +26601,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" customFormat="1">
-      <c r="A74" s="34"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="20" t="s">
         <v>313</v>
       </c>
@@ -26323,7 +26615,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" customFormat="1">
-      <c r="A75" s="34"/>
+      <c r="A75" s="31"/>
       <c r="B75" s="20" t="s">
         <v>314</v>
       </c>
@@ -26337,7 +26629,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" customFormat="1">
-      <c r="A76" s="34"/>
+      <c r="A76" s="31"/>
       <c r="B76" s="20" t="s">
         <v>315</v>
       </c>
@@ -26351,7 +26643,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" customFormat="1">
-      <c r="A77" s="34" t="s">
+      <c r="A77" s="31" t="s">
         <v>1028</v>
       </c>
       <c r="B77" s="20">
@@ -26367,7 +26659,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" customFormat="1">
-      <c r="A78" s="34"/>
+      <c r="A78" s="31"/>
       <c r="B78" s="20" t="s">
         <v>316</v>
       </c>
@@ -26381,7 +26673,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" customFormat="1">
-      <c r="A79" s="34"/>
+      <c r="A79" s="31"/>
       <c r="B79" s="20" t="s">
         <v>317</v>
       </c>
@@ -26395,7 +26687,7 @@
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" customFormat="1">
-      <c r="A80" s="34"/>
+      <c r="A80" s="31"/>
       <c r="B80" s="20" t="s">
         <v>318</v>
       </c>
@@ -26409,7 +26701,7 @@
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" customFormat="1">
-      <c r="A81" s="34"/>
+      <c r="A81" s="31"/>
       <c r="B81" s="20" t="s">
         <v>319</v>
       </c>
@@ -26423,7 +26715,7 @@
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" customFormat="1">
-      <c r="A82" s="34"/>
+      <c r="A82" s="31"/>
       <c r="B82" s="20">
         <v>4.2</v>
       </c>
@@ -26437,7 +26729,7 @@
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" customFormat="1">
-      <c r="A83" s="34"/>
+      <c r="A83" s="31"/>
       <c r="B83" s="20" t="s">
         <v>320</v>
       </c>
@@ -26451,7 +26743,7 @@
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" customFormat="1">
-      <c r="A84" s="34"/>
+      <c r="A84" s="31"/>
       <c r="B84" s="20" t="s">
         <v>321</v>
       </c>
@@ -26465,7 +26757,7 @@
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" customFormat="1">
-      <c r="A85" s="34"/>
+      <c r="A85" s="31"/>
       <c r="B85" s="20" t="s">
         <v>322</v>
       </c>
@@ -26479,7 +26771,7 @@
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" customFormat="1">
-      <c r="A86" s="34"/>
+      <c r="A86" s="31"/>
       <c r="B86" s="20">
         <v>4.3</v>
       </c>
@@ -26493,7 +26785,7 @@
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" customFormat="1">
-      <c r="A87" s="34"/>
+      <c r="A87" s="31"/>
       <c r="B87" s="20" t="s">
         <v>323</v>
       </c>
@@ -26507,7 +26799,7 @@
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" customFormat="1">
-      <c r="A88" s="34"/>
+      <c r="A88" s="31"/>
       <c r="B88" s="20" t="s">
         <v>324</v>
       </c>
@@ -26521,7 +26813,7 @@
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" customFormat="1">
-      <c r="A89" s="34"/>
+      <c r="A89" s="31"/>
       <c r="B89" s="20" t="s">
         <v>325</v>
       </c>
@@ -26535,7 +26827,7 @@
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" customFormat="1">
-      <c r="A90" s="34"/>
+      <c r="A90" s="31"/>
       <c r="B90" s="20" t="s">
         <v>326</v>
       </c>
@@ -26549,7 +26841,7 @@
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" customFormat="1">
-      <c r="A91" s="34"/>
+      <c r="A91" s="31"/>
       <c r="B91" s="20" t="s">
         <v>327</v>
       </c>
@@ -26563,7 +26855,7 @@
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" customFormat="1">
-      <c r="A92" s="34"/>
+      <c r="A92" s="31"/>
       <c r="B92" s="20" t="s">
         <v>328</v>
       </c>
@@ -26577,7 +26869,7 @@
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" customFormat="1">
-      <c r="A93" s="34"/>
+      <c r="A93" s="31"/>
       <c r="B93" s="20" t="s">
         <v>329</v>
       </c>
@@ -26591,7 +26883,7 @@
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" customFormat="1">
-      <c r="A94" s="34"/>
+      <c r="A94" s="31"/>
       <c r="B94" s="20" t="s">
         <v>330</v>
       </c>
@@ -26605,7 +26897,7 @@
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" customFormat="1">
-      <c r="A95" s="34"/>
+      <c r="A95" s="31"/>
       <c r="B95" s="20" t="s">
         <v>331</v>
       </c>
@@ -26619,7 +26911,7 @@
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" customFormat="1">
-      <c r="A96" s="34"/>
+      <c r="A96" s="31"/>
       <c r="B96" s="20">
         <v>4.4000000000000004</v>
       </c>
@@ -26633,7 +26925,7 @@
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" customFormat="1">
-      <c r="A97" s="34"/>
+      <c r="A97" s="31"/>
       <c r="B97" s="20" t="s">
         <v>332</v>
       </c>
@@ -26647,7 +26939,7 @@
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" customFormat="1">
-      <c r="A98" s="34"/>
+      <c r="A98" s="31"/>
       <c r="B98" s="20" t="s">
         <v>333</v>
       </c>
@@ -26661,7 +26953,7 @@
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" customFormat="1">
-      <c r="A99" s="34"/>
+      <c r="A99" s="31"/>
       <c r="B99" s="20" t="s">
         <v>334</v>
       </c>
@@ -26675,7 +26967,7 @@
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" customFormat="1">
-      <c r="A100" s="34"/>
+      <c r="A100" s="31"/>
       <c r="B100" s="20" t="s">
         <v>335</v>
       </c>
@@ -26689,7 +26981,7 @@
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" customFormat="1">
-      <c r="A101" s="34"/>
+      <c r="A101" s="31"/>
       <c r="B101" s="20" t="s">
         <v>336</v>
       </c>
@@ -26703,7 +26995,7 @@
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" customFormat="1">
-      <c r="A102" s="34"/>
+      <c r="A102" s="31"/>
       <c r="B102" s="20">
         <v>4.5</v>
       </c>
@@ -26717,7 +27009,7 @@
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" customFormat="1">
-      <c r="A103" s="34"/>
+      <c r="A103" s="31"/>
       <c r="B103" s="20">
         <v>4.5999999999999996</v>
       </c>
@@ -26731,7 +27023,7 @@
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" customFormat="1">
-      <c r="A104" s="34"/>
+      <c r="A104" s="31"/>
       <c r="B104" s="20" t="s">
         <v>337</v>
       </c>
@@ -26745,7 +27037,7 @@
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" customFormat="1">
-      <c r="A105" s="34"/>
+      <c r="A105" s="31"/>
       <c r="B105" s="20" t="s">
         <v>338</v>
       </c>
@@ -26759,7 +27051,7 @@
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" customFormat="1">
-      <c r="A106" s="34"/>
+      <c r="A106" s="31"/>
       <c r="B106" s="20" t="s">
         <v>339</v>
       </c>
@@ -26773,7 +27065,7 @@
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" customFormat="1">
-      <c r="A107" s="34"/>
+      <c r="A107" s="31"/>
       <c r="B107" s="20" t="s">
         <v>340</v>
       </c>
@@ -26787,7 +27079,7 @@
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" customFormat="1">
-      <c r="A108" s="34"/>
+      <c r="A108" s="31"/>
       <c r="B108" s="20" t="s">
         <v>341</v>
       </c>
@@ -26801,7 +27093,7 @@
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" customFormat="1">
-      <c r="A109" s="34"/>
+      <c r="A109" s="31"/>
       <c r="B109" s="20" t="s">
         <v>342</v>
       </c>
@@ -26815,7 +27107,7 @@
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" customFormat="1">
-      <c r="A110" s="34"/>
+      <c r="A110" s="31"/>
       <c r="B110" s="20" t="s">
         <v>343</v>
       </c>
@@ -26829,7 +27121,7 @@
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" customFormat="1">
-      <c r="A111" s="34"/>
+      <c r="A111" s="31"/>
       <c r="B111" s="20" t="s">
         <v>344</v>
       </c>
@@ -26843,7 +27135,7 @@
       <c r="F111" s="9"/>
     </row>
     <row r="112" spans="1:6" customFormat="1">
-      <c r="A112" s="34"/>
+      <c r="A112" s="31"/>
       <c r="B112" s="20">
         <v>4.7</v>
       </c>
@@ -26857,7 +27149,7 @@
       <c r="F112" s="9"/>
     </row>
     <row r="113" spans="1:8" customFormat="1">
-      <c r="A113" s="34"/>
+      <c r="A113" s="31"/>
       <c r="B113" s="20" t="s">
         <v>345</v>
       </c>
@@ -26871,7 +27163,7 @@
       <c r="F113" s="9"/>
     </row>
     <row r="114" spans="1:8" customFormat="1">
-      <c r="A114" s="34"/>
+      <c r="A114" s="31"/>
       <c r="B114" s="20" t="s">
         <v>346</v>
       </c>
@@ -26885,7 +27177,7 @@
       <c r="F114" s="9"/>
     </row>
     <row r="115" spans="1:8" customFormat="1">
-      <c r="A115" s="34"/>
+      <c r="A115" s="31"/>
       <c r="B115" s="20" t="s">
         <v>347</v>
       </c>
@@ -26899,7 +27191,7 @@
       <c r="F115" s="9"/>
     </row>
     <row r="116" spans="1:8" customFormat="1">
-      <c r="A116" s="34"/>
+      <c r="A116" s="31"/>
       <c r="B116" s="20" t="s">
         <v>348</v>
       </c>
@@ -26914,7 +27206,7 @@
       <c r="H116" s="7"/>
     </row>
     <row r="117" spans="1:8" customFormat="1">
-      <c r="A117" s="34"/>
+      <c r="A117" s="31"/>
       <c r="B117" s="20">
         <v>4.8</v>
       </c>
@@ -26929,7 +27221,7 @@
       <c r="H117" s="7"/>
     </row>
     <row r="118" spans="1:8" customFormat="1">
-      <c r="A118" s="34"/>
+      <c r="A118" s="31"/>
       <c r="B118" s="20" t="s">
         <v>349</v>
       </c>
@@ -26944,7 +27236,7 @@
       <c r="H118" s="7"/>
     </row>
     <row r="119" spans="1:8" customFormat="1">
-      <c r="A119" s="34"/>
+      <c r="A119" s="31"/>
       <c r="B119" s="20">
         <v>4.9000000000000004</v>
       </c>
@@ -26959,7 +27251,7 @@
       <c r="H119" s="7"/>
     </row>
     <row r="120" spans="1:8" customFormat="1">
-      <c r="A120" s="34"/>
+      <c r="A120" s="31"/>
       <c r="B120" s="20" t="s">
         <v>350</v>
       </c>
@@ -26974,7 +27266,7 @@
       <c r="H120" s="7"/>
     </row>
     <row r="121" spans="1:8" customFormat="1">
-      <c r="A121" s="34"/>
+      <c r="A121" s="31"/>
       <c r="B121" s="20" t="s">
         <v>351</v>
       </c>
@@ -26989,7 +27281,7 @@
       <c r="H121" s="7"/>
     </row>
     <row r="122" spans="1:8" customFormat="1">
-      <c r="A122" s="34"/>
+      <c r="A122" s="31"/>
       <c r="B122" s="20" t="s">
         <v>352</v>
       </c>
@@ -27004,7 +27296,7 @@
       <c r="H122" s="7"/>
     </row>
     <row r="123" spans="1:8" customFormat="1">
-      <c r="A123" s="34"/>
+      <c r="A123" s="31"/>
       <c r="B123" s="20" t="s">
         <v>353</v>
       </c>
@@ -27019,7 +27311,7 @@
       <c r="H123" s="7"/>
     </row>
     <row r="124" spans="1:8" customFormat="1">
-      <c r="A124" s="34"/>
+      <c r="A124" s="31"/>
       <c r="B124" s="20" t="s">
         <v>354</v>
       </c>
@@ -27034,7 +27326,7 @@
       <c r="H124" s="7"/>
     </row>
     <row r="125" spans="1:8" customFormat="1">
-      <c r="A125" s="34"/>
+      <c r="A125" s="31"/>
       <c r="B125" s="20" t="s">
         <v>355</v>
       </c>
@@ -27049,7 +27341,7 @@
       <c r="H125" s="7"/>
     </row>
     <row r="126" spans="1:8" customFormat="1">
-      <c r="A126" s="34"/>
+      <c r="A126" s="31"/>
       <c r="B126" s="20" t="s">
         <v>356</v>
       </c>
@@ -27064,7 +27356,7 @@
       <c r="H126" s="7"/>
     </row>
     <row r="127" spans="1:8" customFormat="1">
-      <c r="A127" s="34"/>
+      <c r="A127" s="31"/>
       <c r="B127" s="21">
         <v>4.0999999999999996</v>
       </c>
@@ -27079,7 +27371,7 @@
       <c r="H127" s="7"/>
     </row>
     <row r="128" spans="1:8" customFormat="1">
-      <c r="A128" s="34" t="s">
+      <c r="A128" s="31" t="s">
         <v>1029</v>
       </c>
       <c r="B128" s="20">
@@ -27095,7 +27387,7 @@
       <c r="F128" s="6"/>
     </row>
     <row r="129" spans="1:6" customFormat="1">
-      <c r="A129" s="34"/>
+      <c r="A129" s="31"/>
       <c r="B129" s="20" t="s">
         <v>357</v>
       </c>
@@ -27109,7 +27401,7 @@
       <c r="F129" s="6"/>
     </row>
     <row r="130" spans="1:6" customFormat="1">
-      <c r="A130" s="34"/>
+      <c r="A130" s="31"/>
       <c r="B130" s="20" t="s">
         <v>358</v>
       </c>
@@ -27123,7 +27415,7 @@
       <c r="F130" s="6"/>
     </row>
     <row r="131" spans="1:6" customFormat="1">
-      <c r="A131" s="34"/>
+      <c r="A131" s="31"/>
       <c r="B131" s="20" t="s">
         <v>359</v>
       </c>
@@ -27137,7 +27429,7 @@
       <c r="F131" s="6"/>
     </row>
     <row r="132" spans="1:6" customFormat="1">
-      <c r="A132" s="34"/>
+      <c r="A132" s="31"/>
       <c r="B132" s="20" t="s">
         <v>360</v>
       </c>
@@ -27151,7 +27443,7 @@
       <c r="F132" s="6"/>
     </row>
     <row r="133" spans="1:6" customFormat="1">
-      <c r="A133" s="34"/>
+      <c r="A133" s="31"/>
       <c r="B133" s="20" t="s">
         <v>361</v>
       </c>
@@ -27165,7 +27457,7 @@
       <c r="F133" s="6"/>
     </row>
     <row r="134" spans="1:6" customFormat="1">
-      <c r="A134" s="34"/>
+      <c r="A134" s="31"/>
       <c r="B134" s="20" t="s">
         <v>362</v>
       </c>
@@ -27179,7 +27471,7 @@
       <c r="F134" s="6"/>
     </row>
     <row r="135" spans="1:6" customFormat="1">
-      <c r="A135" s="34"/>
+      <c r="A135" s="31"/>
       <c r="B135" s="20" t="s">
         <v>363</v>
       </c>
@@ -27193,7 +27485,7 @@
       <c r="F135" s="6"/>
     </row>
     <row r="136" spans="1:6" customFormat="1">
-      <c r="A136" s="34"/>
+      <c r="A136" s="31"/>
       <c r="B136" s="20" t="s">
         <v>364</v>
       </c>
@@ -27207,7 +27499,7 @@
       <c r="F136" s="6"/>
     </row>
     <row r="137" spans="1:6" customFormat="1">
-      <c r="A137" s="34"/>
+      <c r="A137" s="31"/>
       <c r="B137" s="20" t="s">
         <v>365</v>
       </c>
@@ -27221,7 +27513,7 @@
       <c r="F137" s="6"/>
     </row>
     <row r="138" spans="1:6" customFormat="1">
-      <c r="A138" s="34"/>
+      <c r="A138" s="31"/>
       <c r="B138" s="20" t="s">
         <v>366</v>
       </c>
@@ -27235,7 +27527,7 @@
       <c r="F138" s="6"/>
     </row>
     <row r="139" spans="1:6" customFormat="1">
-      <c r="A139" s="34"/>
+      <c r="A139" s="31"/>
       <c r="B139" s="20">
         <v>5.2</v>
       </c>
@@ -27249,7 +27541,7 @@
       <c r="F139" s="6"/>
     </row>
     <row r="140" spans="1:6" customFormat="1">
-      <c r="A140" s="34"/>
+      <c r="A140" s="31"/>
       <c r="B140" s="20" t="s">
         <v>367</v>
       </c>
@@ -27263,7 +27555,7 @@
       <c r="F140" s="6"/>
     </row>
     <row r="141" spans="1:6" customFormat="1">
-      <c r="A141" s="34"/>
+      <c r="A141" s="31"/>
       <c r="B141" s="20" t="s">
         <v>368</v>
       </c>
@@ -27277,7 +27569,7 @@
       <c r="F141" s="6"/>
     </row>
     <row r="142" spans="1:6" customFormat="1">
-      <c r="A142" s="34"/>
+      <c r="A142" s="31"/>
       <c r="B142" s="20" t="s">
         <v>369</v>
       </c>
@@ -27291,7 +27583,7 @@
       <c r="F142" s="6"/>
     </row>
     <row r="143" spans="1:6" customFormat="1">
-      <c r="A143" s="34"/>
+      <c r="A143" s="31"/>
       <c r="B143" s="20" t="s">
         <v>370</v>
       </c>
@@ -27305,7 +27597,7 @@
       <c r="F143" s="6"/>
     </row>
     <row r="144" spans="1:6" customFormat="1">
-      <c r="A144" s="34"/>
+      <c r="A144" s="31"/>
       <c r="B144" s="20">
         <v>5.3</v>
       </c>
@@ -27319,7 +27611,7 @@
       <c r="F144" s="6"/>
     </row>
     <row r="145" spans="1:6" customFormat="1">
-      <c r="A145" s="34"/>
+      <c r="A145" s="31"/>
       <c r="B145" s="20" t="s">
         <v>371</v>
       </c>
@@ -27333,7 +27625,7 @@
       <c r="F145" s="6"/>
     </row>
     <row r="146" spans="1:6" customFormat="1">
-      <c r="A146" s="34"/>
+      <c r="A146" s="31"/>
       <c r="B146" s="20" t="s">
         <v>372</v>
       </c>
@@ -27347,7 +27639,7 @@
       <c r="F146" s="6"/>
     </row>
     <row r="147" spans="1:6" customFormat="1">
-      <c r="A147" s="34"/>
+      <c r="A147" s="31"/>
       <c r="B147" s="20">
         <v>5.4</v>
       </c>
@@ -27361,7 +27653,7 @@
       <c r="F147" s="6"/>
     </row>
     <row r="148" spans="1:6" customFormat="1">
-      <c r="A148" s="34"/>
+      <c r="A148" s="31"/>
       <c r="B148" s="20">
         <v>5.5</v>
       </c>
@@ -27375,7 +27667,7 @@
       <c r="F148" s="6"/>
     </row>
     <row r="149" spans="1:6" customFormat="1">
-      <c r="A149" s="34"/>
+      <c r="A149" s="31"/>
       <c r="B149" s="20">
         <v>5.6</v>
       </c>
@@ -27389,7 +27681,7 @@
       <c r="F149" s="6"/>
     </row>
     <row r="150" spans="1:6" customFormat="1">
-      <c r="A150" s="34"/>
+      <c r="A150" s="31"/>
       <c r="B150" s="20">
         <v>5.7</v>
       </c>
@@ -27403,7 +27695,7 @@
       <c r="F150" s="6"/>
     </row>
     <row r="151" spans="1:6" customFormat="1">
-      <c r="A151" s="34"/>
+      <c r="A151" s="31"/>
       <c r="B151" s="20" t="s">
         <v>373</v>
       </c>
@@ -27417,7 +27709,7 @@
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="1:6" customFormat="1">
-      <c r="A152" s="34"/>
+      <c r="A152" s="31"/>
       <c r="B152" s="20" t="s">
         <v>374</v>
       </c>
@@ -27431,7 +27723,7 @@
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="1:6" customFormat="1">
-      <c r="A153" s="34"/>
+      <c r="A153" s="31"/>
       <c r="B153" s="20" t="s">
         <v>375</v>
       </c>
@@ -27445,7 +27737,7 @@
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="1:6" customFormat="1">
-      <c r="A154" s="34"/>
+      <c r="A154" s="31"/>
       <c r="B154" s="20" t="s">
         <v>376</v>
       </c>
@@ -27459,7 +27751,7 @@
       <c r="F154" s="2"/>
     </row>
     <row r="155" spans="1:6" customFormat="1">
-      <c r="A155" s="34"/>
+      <c r="A155" s="31"/>
       <c r="B155" s="20" t="s">
         <v>377</v>
       </c>
@@ -27473,7 +27765,7 @@
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="1:6" customFormat="1">
-      <c r="A156" s="34"/>
+      <c r="A156" s="31"/>
       <c r="B156" s="20" t="s">
         <v>378</v>
       </c>
@@ -27487,7 +27779,7 @@
       <c r="F156" s="2"/>
     </row>
     <row r="157" spans="1:6" customFormat="1">
-      <c r="A157" s="34"/>
+      <c r="A157" s="31"/>
       <c r="B157" s="20">
         <v>5.8</v>
       </c>
@@ -27501,7 +27793,7 @@
       <c r="F157" s="2"/>
     </row>
     <row r="158" spans="1:6" customFormat="1">
-      <c r="A158" s="34" t="s">
+      <c r="A158" s="31" t="s">
         <v>1026</v>
       </c>
       <c r="B158" s="20">
@@ -27517,7 +27809,7 @@
       <c r="F158" s="2"/>
     </row>
     <row r="159" spans="1:6" customFormat="1">
-      <c r="A159" s="34"/>
+      <c r="A159" s="31"/>
       <c r="B159" s="20" t="s">
         <v>379</v>
       </c>
@@ -27531,7 +27823,7 @@
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="1:6" customFormat="1">
-      <c r="A160" s="34"/>
+      <c r="A160" s="31"/>
       <c r="B160" s="20" t="s">
         <v>380</v>
       </c>
@@ -27545,7 +27837,7 @@
       <c r="F160" s="2"/>
     </row>
     <row r="161" spans="1:6" customFormat="1">
-      <c r="A161" s="34"/>
+      <c r="A161" s="31"/>
       <c r="B161" s="20" t="s">
         <v>381</v>
       </c>
@@ -27559,7 +27851,7 @@
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="1:6" customFormat="1">
-      <c r="A162" s="34"/>
+      <c r="A162" s="31"/>
       <c r="B162" s="20" t="s">
         <v>382</v>
       </c>
@@ -27573,7 +27865,7 @@
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="1:6" customFormat="1">
-      <c r="A163" s="34"/>
+      <c r="A163" s="31"/>
       <c r="B163" s="20" t="s">
         <v>383</v>
       </c>
@@ -27587,7 +27879,7 @@
       <c r="F163" s="2"/>
     </row>
     <row r="164" spans="1:6" customFormat="1">
-      <c r="A164" s="34"/>
+      <c r="A164" s="31"/>
       <c r="B164" s="20" t="s">
         <v>384</v>
       </c>
@@ -27601,7 +27893,7 @@
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="1:6" customFormat="1">
-      <c r="A165" s="34"/>
+      <c r="A165" s="31"/>
       <c r="B165" s="20">
         <v>6.2</v>
       </c>
@@ -27615,7 +27907,7 @@
       <c r="F165" s="2"/>
     </row>
     <row r="166" spans="1:6" customFormat="1">
-      <c r="A166" s="34"/>
+      <c r="A166" s="31"/>
       <c r="B166" s="20" t="s">
         <v>385</v>
       </c>
@@ -27629,7 +27921,7 @@
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="1:6" customFormat="1">
-      <c r="A167" s="34"/>
+      <c r="A167" s="31"/>
       <c r="B167" s="20" t="s">
         <v>386</v>
       </c>
@@ -27643,7 +27935,7 @@
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="1:6" customFormat="1">
-      <c r="A168" s="34"/>
+      <c r="A168" s="31"/>
       <c r="B168" s="20" t="s">
         <v>387</v>
       </c>
@@ -27657,7 +27949,7 @@
       <c r="F168" s="2"/>
     </row>
     <row r="169" spans="1:6" customFormat="1">
-      <c r="A169" s="34"/>
+      <c r="A169" s="31"/>
       <c r="B169" s="20">
         <v>6.3</v>
       </c>
@@ -27671,7 +27963,7 @@
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="1:6" customFormat="1">
-      <c r="A170" s="34"/>
+      <c r="A170" s="31"/>
       <c r="B170" s="20" t="s">
         <v>388</v>
       </c>
@@ -27685,7 +27977,7 @@
       <c r="F170" s="2"/>
     </row>
     <row r="171" spans="1:6" customFormat="1">
-      <c r="A171" s="34"/>
+      <c r="A171" s="31"/>
       <c r="B171" s="20" t="s">
         <v>389</v>
       </c>
@@ -27699,7 +27991,7 @@
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="1:6" customFormat="1">
-      <c r="A172" s="34"/>
+      <c r="A172" s="31"/>
       <c r="B172" s="20" t="s">
         <v>390</v>
       </c>
@@ -27713,7 +28005,7 @@
       <c r="F172" s="2"/>
     </row>
     <row r="173" spans="1:6" customFormat="1">
-      <c r="A173" s="34"/>
+      <c r="A173" s="31"/>
       <c r="B173" s="20" t="s">
         <v>391</v>
       </c>
@@ -27727,7 +28019,7 @@
       <c r="F173" s="2"/>
     </row>
     <row r="174" spans="1:6" customFormat="1">
-      <c r="A174" s="34"/>
+      <c r="A174" s="31"/>
       <c r="B174" s="20" t="s">
         <v>392</v>
       </c>
@@ -27741,7 +28033,7 @@
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="1:6" customFormat="1">
-      <c r="A175" s="34"/>
+      <c r="A175" s="31"/>
       <c r="B175" s="20" t="s">
         <v>393</v>
       </c>
@@ -27755,7 +28047,7 @@
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="1:6" customFormat="1">
-      <c r="A176" s="34"/>
+      <c r="A176" s="31"/>
       <c r="B176" s="20" t="s">
         <v>394</v>
       </c>
@@ -27769,7 +28061,7 @@
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="1:6" customFormat="1">
-      <c r="A177" s="34"/>
+      <c r="A177" s="31"/>
       <c r="B177" s="20" t="s">
         <v>395</v>
       </c>
@@ -27783,7 +28075,7 @@
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="1:6" customFormat="1">
-      <c r="A178" s="34"/>
+      <c r="A178" s="31"/>
       <c r="B178" s="20">
         <v>6.4</v>
       </c>
@@ -27797,7 +28089,7 @@
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="1:6" customFormat="1">
-      <c r="A179" s="34"/>
+      <c r="A179" s="31"/>
       <c r="B179" s="20" t="s">
         <v>396</v>
       </c>
@@ -27811,7 +28103,7 @@
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="1:6" customFormat="1">
-      <c r="A180" s="34"/>
+      <c r="A180" s="31"/>
       <c r="B180" s="20" t="s">
         <v>397</v>
       </c>
@@ -27825,7 +28117,7 @@
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="1:6" customFormat="1">
-      <c r="A181" s="34"/>
+      <c r="A181" s="31"/>
       <c r="B181" s="20" t="s">
         <v>398</v>
       </c>
@@ -27839,7 +28131,7 @@
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="1:6" customFormat="1">
-      <c r="A182" s="34"/>
+      <c r="A182" s="31"/>
       <c r="B182" s="20" t="s">
         <v>399</v>
       </c>
@@ -27853,7 +28145,7 @@
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="1:6" customFormat="1">
-      <c r="A183" s="34"/>
+      <c r="A183" s="31"/>
       <c r="B183" s="20" t="s">
         <v>400</v>
       </c>
@@ -27867,7 +28159,7 @@
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="1:6" customFormat="1">
-      <c r="A184" s="34"/>
+      <c r="A184" s="31"/>
       <c r="B184" s="20" t="s">
         <v>401</v>
       </c>
@@ -27881,7 +28173,7 @@
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="1:6" customFormat="1">
-      <c r="A185" s="34"/>
+      <c r="A185" s="31"/>
       <c r="B185" s="20" t="s">
         <v>402</v>
       </c>
@@ -27895,7 +28187,7 @@
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="1:6" customFormat="1">
-      <c r="A186" s="34"/>
+      <c r="A186" s="31"/>
       <c r="B186" s="20">
         <v>6.5</v>
       </c>
@@ -27909,7 +28201,7 @@
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="1:6" customFormat="1">
-      <c r="A187" s="34"/>
+      <c r="A187" s="31"/>
       <c r="B187" s="20" t="s">
         <v>403</v>
       </c>
@@ -27923,7 +28215,7 @@
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="1:6" customFormat="1">
-      <c r="A188" s="34"/>
+      <c r="A188" s="31"/>
       <c r="B188" s="20" t="s">
         <v>404</v>
       </c>
@@ -27937,7 +28229,7 @@
       <c r="F188" s="2"/>
     </row>
     <row r="189" spans="1:6" customFormat="1">
-      <c r="A189" s="34"/>
+      <c r="A189" s="31"/>
       <c r="B189" s="20" t="s">
         <v>405</v>
       </c>
@@ -27951,7 +28243,7 @@
       <c r="F189" s="2"/>
     </row>
     <row r="190" spans="1:6" customFormat="1">
-      <c r="A190" s="34" t="s">
+      <c r="A190" s="31" t="s">
         <v>1025</v>
       </c>
       <c r="B190" s="20">
@@ -27967,7 +28259,7 @@
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="1:6" customFormat="1">
-      <c r="A191" s="34"/>
+      <c r="A191" s="31"/>
       <c r="B191" s="20" t="s">
         <v>406</v>
       </c>
@@ -27981,7 +28273,7 @@
       <c r="F191" s="2"/>
     </row>
     <row r="192" spans="1:6" customFormat="1">
-      <c r="A192" s="34"/>
+      <c r="A192" s="31"/>
       <c r="B192" s="20" t="s">
         <v>407</v>
       </c>
@@ -27995,7 +28287,7 @@
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="1:6" customFormat="1">
-      <c r="A193" s="34"/>
+      <c r="A193" s="31"/>
       <c r="B193" s="20" t="s">
         <v>408</v>
       </c>
@@ -28009,7 +28301,7 @@
       <c r="F193" s="2"/>
     </row>
     <row r="194" spans="1:6" customFormat="1">
-      <c r="A194" s="34"/>
+      <c r="A194" s="31"/>
       <c r="B194" s="20" t="s">
         <v>409</v>
       </c>
@@ -28023,7 +28315,7 @@
       <c r="F194" s="2"/>
     </row>
     <row r="195" spans="1:6" customFormat="1">
-      <c r="A195" s="34"/>
+      <c r="A195" s="31"/>
       <c r="B195" s="20">
         <v>7.2</v>
       </c>
@@ -28037,7 +28329,7 @@
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="1:6" customFormat="1">
-      <c r="A196" s="34"/>
+      <c r="A196" s="31"/>
       <c r="B196" s="20" t="s">
         <v>410</v>
       </c>
@@ -28051,7 +28343,7 @@
       <c r="F196" s="2"/>
     </row>
     <row r="197" spans="1:6" customFormat="1">
-      <c r="A197" s="34"/>
+      <c r="A197" s="31"/>
       <c r="B197" s="20" t="s">
         <v>411</v>
       </c>
@@ -28065,7 +28357,7 @@
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="1:6" customFormat="1">
-      <c r="A198" s="34"/>
+      <c r="A198" s="31"/>
       <c r="B198" s="20" t="s">
         <v>412</v>
       </c>
@@ -28079,7 +28371,7 @@
       <c r="F198" s="2"/>
     </row>
     <row r="199" spans="1:6" customFormat="1">
-      <c r="A199" s="34"/>
+      <c r="A199" s="31"/>
       <c r="B199" s="20" t="s">
         <v>413</v>
       </c>
@@ -28093,7 +28385,7 @@
       <c r="F199" s="2"/>
     </row>
     <row r="200" spans="1:6" customFormat="1">
-      <c r="A200" s="34"/>
+      <c r="A200" s="31"/>
       <c r="B200" s="20" t="s">
         <v>414</v>
       </c>
@@ -28107,7 +28399,7 @@
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="1:6" customFormat="1">
-      <c r="A201" s="34"/>
+      <c r="A201" s="31"/>
       <c r="B201" s="20" t="s">
         <v>415</v>
       </c>
@@ -28121,7 +28413,7 @@
       <c r="F201" s="2"/>
     </row>
     <row r="202" spans="1:6" customFormat="1">
-      <c r="A202" s="34"/>
+      <c r="A202" s="31"/>
       <c r="B202" s="20">
         <v>7.3</v>
       </c>
@@ -28135,7 +28427,7 @@
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="1:6" customFormat="1">
-      <c r="A203" s="34"/>
+      <c r="A203" s="31"/>
       <c r="B203" s="20">
         <v>7.4</v>
       </c>
@@ -28149,7 +28441,7 @@
       <c r="F203" s="2"/>
     </row>
     <row r="204" spans="1:6" customFormat="1">
-      <c r="A204" s="34"/>
+      <c r="A204" s="31"/>
       <c r="B204" s="20" t="s">
         <v>416</v>
       </c>
@@ -28163,7 +28455,7 @@
       <c r="F204" s="2"/>
     </row>
     <row r="205" spans="1:6" customFormat="1">
-      <c r="A205" s="34"/>
+      <c r="A205" s="31"/>
       <c r="B205" s="20" t="s">
         <v>417</v>
       </c>
@@ -28177,7 +28469,7 @@
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="1:6" customFormat="1">
-      <c r="A206" s="34"/>
+      <c r="A206" s="31"/>
       <c r="B206" s="20" t="s">
         <v>418</v>
       </c>
@@ -28191,7 +28483,7 @@
       <c r="F206" s="2"/>
     </row>
     <row r="207" spans="1:6" customFormat="1">
-      <c r="A207" s="34"/>
+      <c r="A207" s="31"/>
       <c r="B207" s="20" t="s">
         <v>419</v>
       </c>
@@ -28205,7 +28497,7 @@
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="1:6" customFormat="1">
-      <c r="A208" s="34"/>
+      <c r="A208" s="31"/>
       <c r="B208" s="20">
         <v>7.5</v>
       </c>
@@ -28219,7 +28511,7 @@
       <c r="F208" s="2"/>
     </row>
     <row r="209" spans="1:6" customFormat="1">
-      <c r="A209" s="34"/>
+      <c r="A209" s="31"/>
       <c r="B209" s="20" t="s">
         <v>420</v>
       </c>
@@ -28233,7 +28525,7 @@
       <c r="F209" s="2"/>
     </row>
     <row r="210" spans="1:6" customFormat="1">
-      <c r="A210" s="34"/>
+      <c r="A210" s="31"/>
       <c r="B210" s="20" t="s">
         <v>421</v>
       </c>
@@ -28247,7 +28539,7 @@
       <c r="F210" s="2"/>
     </row>
     <row r="211" spans="1:6" customFormat="1">
-      <c r="A211" s="34"/>
+      <c r="A211" s="31"/>
       <c r="B211" s="20" t="s">
         <v>422</v>
       </c>
@@ -28261,7 +28553,7 @@
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="1:6" customFormat="1">
-      <c r="A212" s="34"/>
+      <c r="A212" s="31"/>
       <c r="B212" s="20" t="s">
         <v>423</v>
       </c>
@@ -28275,7 +28567,7 @@
       <c r="F212" s="2"/>
     </row>
     <row r="213" spans="1:6" customFormat="1">
-      <c r="A213" s="34"/>
+      <c r="A213" s="31"/>
       <c r="B213" s="20" t="s">
         <v>424</v>
       </c>
@@ -28289,7 +28581,7 @@
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="1:6" customFormat="1">
-      <c r="A214" s="34"/>
+      <c r="A214" s="31"/>
       <c r="B214" s="20" t="s">
         <v>425</v>
       </c>
@@ -28303,7 +28595,7 @@
       <c r="F214" s="2"/>
     </row>
     <row r="215" spans="1:6" customFormat="1">
-      <c r="A215" s="34"/>
+      <c r="A215" s="31"/>
       <c r="B215" s="20" t="s">
         <v>426</v>
       </c>
@@ -28317,7 +28609,7 @@
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="1:6" customFormat="1">
-      <c r="A216" s="34"/>
+      <c r="A216" s="31"/>
       <c r="B216" s="20" t="s">
         <v>427</v>
       </c>
@@ -28331,7 +28623,7 @@
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="1:6" customFormat="1">
-      <c r="A217" s="34"/>
+      <c r="A217" s="31"/>
       <c r="B217" s="20">
         <v>7.6</v>
       </c>
@@ -28345,7 +28637,7 @@
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="1:6" customFormat="1">
-      <c r="A218" s="34" t="s">
+      <c r="A218" s="31" t="s">
         <v>1024</v>
       </c>
       <c r="B218" s="20">
@@ -28361,7 +28653,7 @@
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="1:6" customFormat="1">
-      <c r="A219" s="34"/>
+      <c r="A219" s="31"/>
       <c r="B219" s="20" t="s">
         <v>428</v>
       </c>
@@ -28375,7 +28667,7 @@
       <c r="F219" s="2"/>
     </row>
     <row r="220" spans="1:6" customFormat="1">
-      <c r="A220" s="34"/>
+      <c r="A220" s="31"/>
       <c r="B220" s="20" t="s">
         <v>429</v>
       </c>
@@ -28389,7 +28681,7 @@
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="1:6" customFormat="1">
-      <c r="A221" s="34"/>
+      <c r="A221" s="31"/>
       <c r="B221" s="20">
         <v>8.1999999999999993</v>
       </c>
@@ -28403,7 +28695,7 @@
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="1:6" customFormat="1">
-      <c r="A222" s="34"/>
+      <c r="A222" s="31"/>
       <c r="B222" s="20">
         <v>8.3000000000000007</v>
       </c>
@@ -28417,7 +28709,7 @@
       <c r="F222" s="2"/>
     </row>
     <row r="223" spans="1:6" customFormat="1">
-      <c r="A223" s="34"/>
+      <c r="A223" s="31"/>
       <c r="B223" s="20">
         <v>8.4</v>
       </c>
@@ -28431,7 +28723,7 @@
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="1:6" customFormat="1">
-      <c r="A224" s="34"/>
+      <c r="A224" s="31"/>
       <c r="B224" s="20">
         <v>8.5</v>
       </c>
@@ -28445,7 +28737,7 @@
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="1:6" customFormat="1">
-      <c r="A225" s="34"/>
+      <c r="A225" s="31"/>
       <c r="B225" s="20" t="s">
         <v>430</v>
       </c>
@@ -28459,7 +28751,7 @@
       <c r="F225" s="2"/>
     </row>
     <row r="226" spans="1:6" customFormat="1">
-      <c r="A226" s="34"/>
+      <c r="A226" s="31"/>
       <c r="B226" s="20" t="s">
         <v>431</v>
       </c>
@@ -28473,7 +28765,7 @@
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="1:6" customFormat="1">
-      <c r="A227" s="34"/>
+      <c r="A227" s="31"/>
       <c r="B227" s="20" t="s">
         <v>432</v>
       </c>
@@ -28487,7 +28779,7 @@
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="1:6" customFormat="1">
-      <c r="A228" s="34"/>
+      <c r="A228" s="31"/>
       <c r="B228" s="20" t="s">
         <v>433</v>
       </c>
@@ -28501,7 +28793,7 @@
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="1:6" customFormat="1">
-      <c r="A229" s="34"/>
+      <c r="A229" s="31"/>
       <c r="B229" s="20">
         <v>8.6</v>
       </c>
@@ -28515,7 +28807,7 @@
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="1:6" customFormat="1">
-      <c r="A230" s="34"/>
+      <c r="A230" s="31"/>
       <c r="B230" s="20" t="s">
         <v>434</v>
       </c>
@@ -28529,7 +28821,7 @@
       <c r="F230" s="2"/>
     </row>
     <row r="231" spans="1:6" customFormat="1">
-      <c r="A231" s="34"/>
+      <c r="A231" s="31"/>
       <c r="B231" s="20" t="s">
         <v>435</v>
       </c>
@@ -28543,7 +28835,7 @@
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="1:6" customFormat="1">
-      <c r="A232" s="34"/>
+      <c r="A232" s="31"/>
       <c r="B232" s="20" t="s">
         <v>436</v>
       </c>
@@ -28557,7 +28849,7 @@
       <c r="F232" s="2"/>
     </row>
     <row r="233" spans="1:6" customFormat="1">
-      <c r="A233" s="34"/>
+      <c r="A233" s="31"/>
       <c r="B233" s="20" t="s">
         <v>437</v>
       </c>
@@ -28571,7 +28863,7 @@
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="1:6" customFormat="1">
-      <c r="A234" s="34"/>
+      <c r="A234" s="31"/>
       <c r="B234" s="20" t="s">
         <v>438</v>
       </c>
@@ -28585,7 +28877,7 @@
       <c r="F234" s="2"/>
     </row>
     <row r="235" spans="1:6" customFormat="1">
-      <c r="A235" s="34"/>
+      <c r="A235" s="31"/>
       <c r="B235" s="20" t="s">
         <v>439</v>
       </c>
@@ -28599,7 +28891,7 @@
       <c r="F235" s="2"/>
     </row>
     <row r="236" spans="1:6" customFormat="1">
-      <c r="A236" s="34"/>
+      <c r="A236" s="31"/>
       <c r="B236" s="20" t="s">
         <v>440</v>
       </c>
@@ -28613,7 +28905,7 @@
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="1:6" customFormat="1">
-      <c r="A237" s="34"/>
+      <c r="A237" s="31"/>
       <c r="B237" s="20" t="s">
         <v>441</v>
       </c>
@@ -28627,7 +28919,7 @@
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="1:6" customFormat="1">
-      <c r="A238" s="34"/>
+      <c r="A238" s="31"/>
       <c r="B238" s="20" t="s">
         <v>442</v>
       </c>
@@ -28641,7 +28933,7 @@
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="1:6" customFormat="1">
-      <c r="A239" s="34"/>
+      <c r="A239" s="31"/>
       <c r="B239" s="20" t="s">
         <v>443</v>
       </c>
@@ -28655,7 +28947,7 @@
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="1:6" customFormat="1">
-      <c r="A240" s="34"/>
+      <c r="A240" s="31"/>
       <c r="B240" s="20">
         <v>8.6999999999999993</v>
       </c>
@@ -28669,7 +28961,7 @@
       <c r="F240" s="2"/>
     </row>
     <row r="241" spans="1:6" customFormat="1">
-      <c r="A241" s="34"/>
+      <c r="A241" s="31"/>
       <c r="B241" s="20">
         <v>8.8000000000000007</v>
       </c>
@@ -28683,7 +28975,7 @@
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="1:6" customFormat="1">
-      <c r="A242" s="34"/>
+      <c r="A242" s="31"/>
       <c r="B242" s="20" t="s">
         <v>444</v>
       </c>
@@ -28697,7 +28989,7 @@
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="1:6" customFormat="1">
-      <c r="A243" s="34"/>
+      <c r="A243" s="31"/>
       <c r="B243" s="20" t="s">
         <v>445</v>
       </c>
@@ -28711,7 +29003,7 @@
       <c r="F243" s="2"/>
     </row>
     <row r="244" spans="1:6" customFormat="1">
-      <c r="A244" s="34"/>
+      <c r="A244" s="31"/>
       <c r="B244" s="20" t="s">
         <v>446</v>
       </c>
@@ -28725,7 +29017,7 @@
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="1:6" customFormat="1">
-      <c r="A245" s="34"/>
+      <c r="A245" s="31"/>
       <c r="B245" s="20" t="s">
         <v>447</v>
       </c>
@@ -28739,7 +29031,7 @@
       <c r="F245" s="2"/>
     </row>
     <row r="246" spans="1:6" customFormat="1">
-      <c r="A246" s="34"/>
+      <c r="A246" s="31"/>
       <c r="B246" s="20">
         <v>8.9</v>
       </c>
@@ -28753,7 +29045,7 @@
       <c r="F246" s="2"/>
     </row>
     <row r="247" spans="1:6" customFormat="1">
-      <c r="A247" s="34"/>
+      <c r="A247" s="31"/>
       <c r="B247" s="20" t="s">
         <v>448</v>
       </c>
@@ -28767,7 +29059,7 @@
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="1:6" customFormat="1">
-      <c r="A248" s="34"/>
+      <c r="A248" s="31"/>
       <c r="B248" s="20" t="s">
         <v>449</v>
       </c>
@@ -28781,7 +29073,7 @@
       <c r="F248" s="2"/>
     </row>
     <row r="249" spans="1:6" customFormat="1">
-      <c r="A249" s="34"/>
+      <c r="A249" s="31"/>
       <c r="B249" s="20" t="s">
         <v>450</v>
       </c>
@@ -28795,7 +29087,7 @@
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="1:6" customFormat="1">
-      <c r="A250" s="34" t="s">
+      <c r="A250" s="31" t="s">
         <v>1022</v>
       </c>
       <c r="B250" s="20">
@@ -28811,7 +29103,7 @@
       <c r="F250" s="2"/>
     </row>
     <row r="251" spans="1:6" customFormat="1">
-      <c r="A251" s="34"/>
+      <c r="A251" s="31"/>
       <c r="B251" s="20" t="s">
         <v>451</v>
       </c>
@@ -28825,7 +29117,7 @@
       <c r="F251" s="2"/>
     </row>
     <row r="252" spans="1:6" customFormat="1">
-      <c r="A252" s="34"/>
+      <c r="A252" s="31"/>
       <c r="B252" s="20" t="s">
         <v>452</v>
       </c>
@@ -28839,7 +29131,7 @@
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="1:6" customFormat="1">
-      <c r="A253" s="34"/>
+      <c r="A253" s="31"/>
       <c r="B253" s="20" t="s">
         <v>453</v>
       </c>
@@ -28853,7 +29145,7 @@
       <c r="F253" s="2"/>
     </row>
     <row r="254" spans="1:6" customFormat="1">
-      <c r="A254" s="34"/>
+      <c r="A254" s="31"/>
       <c r="B254" s="20" t="s">
         <v>454</v>
       </c>
@@ -28867,7 +29159,7 @@
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="1:6" customFormat="1">
-      <c r="A255" s="34"/>
+      <c r="A255" s="31"/>
       <c r="B255" s="20" t="s">
         <v>455</v>
       </c>
@@ -28881,7 +29173,7 @@
       <c r="F255" s="2"/>
     </row>
     <row r="256" spans="1:6" customFormat="1">
-      <c r="A256" s="34"/>
+      <c r="A256" s="31"/>
       <c r="B256" s="20">
         <v>9.1999999999999993</v>
       </c>
@@ -28895,7 +29187,7 @@
       <c r="F256" s="2"/>
     </row>
     <row r="257" spans="1:6" customFormat="1">
-      <c r="A257" s="34"/>
+      <c r="A257" s="31"/>
       <c r="B257" s="20" t="s">
         <v>456</v>
       </c>
@@ -28909,7 +29201,7 @@
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="1:6" customFormat="1">
-      <c r="A258" s="34"/>
+      <c r="A258" s="31"/>
       <c r="B258" s="20" t="s">
         <v>457</v>
       </c>
@@ -28923,7 +29215,7 @@
       <c r="F258" s="2"/>
     </row>
     <row r="259" spans="1:6" customFormat="1">
-      <c r="A259" s="34"/>
+      <c r="A259" s="31"/>
       <c r="B259" s="20" t="s">
         <v>458</v>
       </c>
@@ -28937,7 +29229,7 @@
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="1:6" customFormat="1">
-      <c r="A260" s="34"/>
+      <c r="A260" s="31"/>
       <c r="B260" s="20" t="s">
         <v>459</v>
       </c>
@@ -28951,7 +29243,7 @@
       <c r="F260" s="2"/>
     </row>
     <row r="261" spans="1:6" customFormat="1">
-      <c r="A261" s="34"/>
+      <c r="A261" s="31"/>
       <c r="B261" s="20" t="s">
         <v>460</v>
       </c>
@@ -28965,7 +29257,7 @@
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="1:6" customFormat="1">
-      <c r="A262" s="34"/>
+      <c r="A262" s="31"/>
       <c r="B262" s="20" t="s">
         <v>461</v>
       </c>
@@ -28979,7 +29271,7 @@
       <c r="F262" s="2"/>
     </row>
     <row r="263" spans="1:6" customFormat="1">
-      <c r="A263" s="34"/>
+      <c r="A263" s="31"/>
       <c r="B263" s="20">
         <v>9.3000000000000007</v>
       </c>
@@ -28993,7 +29285,7 @@
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="1:6" customFormat="1">
-      <c r="A264" s="34"/>
+      <c r="A264" s="31"/>
       <c r="B264" s="20" t="s">
         <v>462</v>
       </c>
@@ -29007,7 +29299,7 @@
       <c r="F264" s="2"/>
     </row>
     <row r="265" spans="1:6" customFormat="1">
-      <c r="A265" s="34"/>
+      <c r="A265" s="31"/>
       <c r="B265" s="20" t="s">
         <v>463</v>
       </c>
@@ -29021,7 +29313,7 @@
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="1:6" customFormat="1">
-      <c r="A266" s="34"/>
+      <c r="A266" s="31"/>
       <c r="B266" s="20" t="s">
         <v>464</v>
       </c>
@@ -29035,7 +29327,7 @@
       <c r="F266" s="2"/>
     </row>
     <row r="267" spans="1:6" customFormat="1">
-      <c r="A267" s="34"/>
+      <c r="A267" s="31"/>
       <c r="B267" s="20" t="s">
         <v>465</v>
       </c>
@@ -29049,7 +29341,7 @@
       <c r="F267" s="2"/>
     </row>
     <row r="268" spans="1:6" customFormat="1">
-      <c r="A268" s="34"/>
+      <c r="A268" s="31"/>
       <c r="B268" s="20" t="s">
         <v>466</v>
       </c>
@@ -29063,7 +29355,7 @@
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="1:6" customFormat="1">
-      <c r="A269" s="34"/>
+      <c r="A269" s="31"/>
       <c r="B269" s="20" t="s">
         <v>467</v>
       </c>
@@ -29077,7 +29369,7 @@
       <c r="F269" s="2"/>
     </row>
     <row r="270" spans="1:6" customFormat="1">
-      <c r="A270" s="34"/>
+      <c r="A270" s="31"/>
       <c r="B270" s="20" t="s">
         <v>468</v>
       </c>
@@ -29091,7 +29383,7 @@
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="1:6" customFormat="1">
-      <c r="A271" s="34"/>
+      <c r="A271" s="31"/>
       <c r="B271" s="20">
         <v>9.4</v>
       </c>
@@ -29105,7 +29397,7 @@
       <c r="F271" s="2"/>
     </row>
     <row r="272" spans="1:6" customFormat="1">
-      <c r="A272" s="34"/>
+      <c r="A272" s="31"/>
       <c r="B272" s="20" t="s">
         <v>469</v>
       </c>
@@ -29119,7 +29411,7 @@
       <c r="F272" s="2"/>
     </row>
     <row r="273" spans="1:6" customFormat="1">
-      <c r="A273" s="34"/>
+      <c r="A273" s="31"/>
       <c r="B273" s="20" t="s">
         <v>470</v>
       </c>
@@ -29133,7 +29425,7 @@
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="1:6" customFormat="1">
-      <c r="A274" s="34"/>
+      <c r="A274" s="31"/>
       <c r="B274" s="20" t="s">
         <v>471</v>
       </c>
@@ -29147,7 +29439,7 @@
       <c r="F274" s="2"/>
     </row>
     <row r="275" spans="1:6" customFormat="1">
-      <c r="A275" s="34"/>
+      <c r="A275" s="31"/>
       <c r="B275" s="20" t="s">
         <v>472</v>
       </c>
@@ -29161,7 +29453,7 @@
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="1:6" customFormat="1">
-      <c r="A276" s="34"/>
+      <c r="A276" s="31"/>
       <c r="B276" s="20" t="s">
         <v>473</v>
       </c>
@@ -29175,7 +29467,7 @@
       <c r="F276" s="2"/>
     </row>
     <row r="277" spans="1:6" customFormat="1">
-      <c r="A277" s="34"/>
+      <c r="A277" s="31"/>
       <c r="B277" s="20" t="s">
         <v>474</v>
       </c>
@@ -29189,7 +29481,7 @@
       <c r="F277" s="2"/>
     </row>
     <row r="278" spans="1:6" customFormat="1">
-      <c r="A278" s="34"/>
+      <c r="A278" s="31"/>
       <c r="B278" s="20">
         <v>9.5</v>
       </c>
@@ -29203,7 +29495,7 @@
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="1:6" customFormat="1">
-      <c r="A279" s="34"/>
+      <c r="A279" s="31"/>
       <c r="B279" s="20" t="s">
         <v>475</v>
       </c>
@@ -29217,7 +29509,7 @@
       <c r="F279" s="2"/>
     </row>
     <row r="280" spans="1:6" customFormat="1">
-      <c r="A280" s="34"/>
+      <c r="A280" s="31"/>
       <c r="B280" s="20" t="s">
         <v>476</v>
       </c>
@@ -29231,7 +29523,7 @@
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="1:6" customFormat="1">
-      <c r="A281" s="34"/>
+      <c r="A281" s="31"/>
       <c r="B281" s="20" t="s">
         <v>477</v>
       </c>
@@ -29245,7 +29537,7 @@
       <c r="F281" s="2"/>
     </row>
     <row r="282" spans="1:6" customFormat="1">
-      <c r="A282" s="34"/>
+      <c r="A282" s="31"/>
       <c r="B282" s="20" t="s">
         <v>478</v>
       </c>
@@ -29259,7 +29551,7 @@
       <c r="F282" s="2"/>
     </row>
     <row r="283" spans="1:6" customFormat="1">
-      <c r="A283" s="34"/>
+      <c r="A283" s="31"/>
       <c r="B283" s="20" t="s">
         <v>479</v>
       </c>
@@ -29273,7 +29565,7 @@
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="1:6" customFormat="1">
-      <c r="A284" s="34"/>
+      <c r="A284" s="31"/>
       <c r="B284" s="20" t="s">
         <v>480</v>
       </c>
@@ -29287,7 +29579,7 @@
       <c r="F284" s="2"/>
     </row>
     <row r="285" spans="1:6" customFormat="1">
-      <c r="A285" s="34"/>
+      <c r="A285" s="31"/>
       <c r="B285" s="20">
         <v>9.6</v>
       </c>
@@ -29301,7 +29593,7 @@
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="1:6" customFormat="1">
-      <c r="A286" s="34"/>
+      <c r="A286" s="31"/>
       <c r="B286" s="20" t="s">
         <v>481</v>
       </c>
@@ -29315,7 +29607,7 @@
       <c r="F286" s="2"/>
     </row>
     <row r="287" spans="1:6" customFormat="1">
-      <c r="A287" s="34"/>
+      <c r="A287" s="31"/>
       <c r="B287" s="20" t="s">
         <v>482</v>
       </c>
@@ -29329,7 +29621,7 @@
       <c r="F287" s="2"/>
     </row>
     <row r="288" spans="1:6" customFormat="1">
-      <c r="A288" s="34"/>
+      <c r="A288" s="31"/>
       <c r="B288" s="20" t="s">
         <v>483</v>
       </c>
@@ -29343,7 +29635,7 @@
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="1:6" customFormat="1">
-      <c r="A289" s="34"/>
+      <c r="A289" s="31"/>
       <c r="B289" s="20" t="s">
         <v>484</v>
       </c>
@@ -29357,7 +29649,7 @@
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="1:6" customFormat="1">
-      <c r="A290" s="34"/>
+      <c r="A290" s="31"/>
       <c r="B290" s="20" t="s">
         <v>485</v>
       </c>
@@ -29371,7 +29663,7 @@
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="1:6" customFormat="1">
-      <c r="A291" s="34" t="s">
+      <c r="A291" s="31" t="s">
         <v>1023</v>
       </c>
       <c r="B291" s="20">
@@ -29387,7 +29679,7 @@
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="1:6" customFormat="1">
-      <c r="A292" s="34"/>
+      <c r="A292" s="31"/>
       <c r="B292" s="20">
         <v>10.199999999999999</v>
       </c>
@@ -29401,7 +29693,7 @@
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="1:6" customFormat="1">
-      <c r="A293" s="34"/>
+      <c r="A293" s="31"/>
       <c r="B293" s="20">
         <v>10.3</v>
       </c>
@@ -29415,7 +29707,7 @@
       <c r="F293" s="2"/>
     </row>
     <row r="294" spans="1:6" customFormat="1">
-      <c r="A294" s="34"/>
+      <c r="A294" s="31"/>
       <c r="B294" s="20" t="s">
         <v>486</v>
       </c>
@@ -29429,7 +29721,7 @@
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="1:6" customFormat="1">
-      <c r="A295" s="34"/>
+      <c r="A295" s="31"/>
       <c r="B295" s="20" t="s">
         <v>487</v>
       </c>
@@ -29443,7 +29735,7 @@
       <c r="F295" s="2"/>
     </row>
     <row r="296" spans="1:6" customFormat="1">
-      <c r="A296" s="34"/>
+      <c r="A296" s="31"/>
       <c r="B296" s="20">
         <v>10.4</v>
       </c>
@@ -29457,7 +29749,7 @@
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="1:6" customFormat="1">
-      <c r="A297" s="34"/>
+      <c r="A297" s="31"/>
       <c r="B297" s="20">
         <v>10.5</v>
       </c>
@@ -29471,7 +29763,7 @@
       <c r="F297" s="2"/>
     </row>
     <row r="298" spans="1:6" customFormat="1">
-      <c r="A298" s="34"/>
+      <c r="A298" s="31"/>
       <c r="B298" s="20">
         <v>10.6</v>
       </c>
@@ -29485,7 +29777,7 @@
       <c r="F298" s="2"/>
     </row>
     <row r="299" spans="1:6" customFormat="1">
-      <c r="A299" s="34"/>
+      <c r="A299" s="31"/>
       <c r="B299" s="20">
         <v>10.7</v>
       </c>
@@ -29499,7 +29791,7 @@
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="1:6" customFormat="1">
-      <c r="A300" s="34"/>
+      <c r="A300" s="31"/>
       <c r="B300" s="20">
         <v>10.8</v>
       </c>
@@ -29513,7 +29805,7 @@
       <c r="F300" s="2"/>
     </row>
     <row r="301" spans="1:6" customFormat="1">
-      <c r="A301" s="34" t="s">
+      <c r="A301" s="31" t="s">
         <v>1021</v>
       </c>
       <c r="B301" s="20">
@@ -29529,7 +29821,7 @@
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="1:6" customFormat="1">
-      <c r="A302" s="34"/>
+      <c r="A302" s="31"/>
       <c r="B302" s="20" t="s">
         <v>488</v>
       </c>
@@ -29543,7 +29835,7 @@
       <c r="F302" s="2"/>
     </row>
     <row r="303" spans="1:6" customFormat="1">
-      <c r="A303" s="34"/>
+      <c r="A303" s="31"/>
       <c r="B303" s="20" t="s">
         <v>489</v>
       </c>
@@ -29557,7 +29849,7 @@
       <c r="F303" s="2"/>
     </row>
     <row r="304" spans="1:6" customFormat="1">
-      <c r="A304" s="34"/>
+      <c r="A304" s="31"/>
       <c r="B304" s="20" t="s">
         <v>490</v>
       </c>
@@ -29571,7 +29863,7 @@
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="1:6" customFormat="1">
-      <c r="A305" s="34"/>
+      <c r="A305" s="31"/>
       <c r="B305" s="20" t="s">
         <v>491</v>
       </c>
@@ -29585,7 +29877,7 @@
       <c r="F305" s="2"/>
     </row>
     <row r="306" spans="1:6" customFormat="1">
-      <c r="A306" s="34"/>
+      <c r="A306" s="31"/>
       <c r="B306" s="20">
         <v>11.2</v>
       </c>
@@ -29599,7 +29891,7 @@
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="1:6" customFormat="1">
-      <c r="A307" s="34"/>
+      <c r="A307" s="31"/>
       <c r="B307" s="20">
         <v>11.3</v>
       </c>
@@ -29613,7 +29905,7 @@
       <c r="F307" s="2"/>
     </row>
     <row r="308" spans="1:6" customFormat="1">
-      <c r="A308" s="34"/>
+      <c r="A308" s="31"/>
       <c r="B308" s="20">
         <v>11.4</v>
       </c>
@@ -29627,7 +29919,7 @@
       <c r="F308" s="2"/>
     </row>
     <row r="309" spans="1:6" customFormat="1">
-      <c r="A309" s="34"/>
+      <c r="A309" s="31"/>
       <c r="B309" s="20" t="s">
         <v>492</v>
       </c>
@@ -29641,7 +29933,7 @@
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="1:6" customFormat="1">
-      <c r="A310" s="34" t="s">
+      <c r="A310" s="31" t="s">
         <v>1020</v>
       </c>
       <c r="B310" s="20">
@@ -29657,7 +29949,7 @@
       <c r="F310" s="2"/>
     </row>
     <row r="311" spans="1:6" customFormat="1">
-      <c r="A311" s="34"/>
+      <c r="A311" s="31"/>
       <c r="B311" s="20" t="s">
         <v>493</v>
       </c>
@@ -29671,7 +29963,7 @@
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="1:6" customFormat="1">
-      <c r="A312" s="34"/>
+      <c r="A312" s="31"/>
       <c r="B312" s="20" t="s">
         <v>494</v>
       </c>
@@ -29685,7 +29977,7 @@
       <c r="F312" s="2"/>
     </row>
     <row r="313" spans="1:6" customFormat="1">
-      <c r="A313" s="34"/>
+      <c r="A313" s="31"/>
       <c r="B313" s="20" t="s">
         <v>495</v>
       </c>
@@ -29699,7 +29991,7 @@
       <c r="F313" s="2"/>
     </row>
     <row r="314" spans="1:6" customFormat="1">
-      <c r="A314" s="34"/>
+      <c r="A314" s="31"/>
       <c r="B314" s="20">
         <v>12.2</v>
       </c>
@@ -29713,7 +30005,7 @@
       <c r="F314" s="2"/>
     </row>
     <row r="315" spans="1:6" customFormat="1">
-      <c r="A315" s="34"/>
+      <c r="A315" s="31"/>
       <c r="B315" s="20" t="s">
         <v>496</v>
       </c>
@@ -29727,7 +30019,7 @@
       <c r="F315" s="2"/>
     </row>
     <row r="316" spans="1:6" customFormat="1">
-      <c r="A316" s="34"/>
+      <c r="A316" s="31"/>
       <c r="B316" s="20" t="s">
         <v>497</v>
       </c>
@@ -29741,7 +30033,7 @@
       <c r="F316" s="2"/>
     </row>
     <row r="317" spans="1:6" customFormat="1">
-      <c r="A317" s="34"/>
+      <c r="A317" s="31"/>
       <c r="B317" s="20">
         <v>12.3</v>
       </c>
@@ -29755,7 +30047,7 @@
       <c r="F317" s="2"/>
     </row>
     <row r="318" spans="1:6" customFormat="1">
-      <c r="A318" s="34"/>
+      <c r="A318" s="31"/>
       <c r="B318" s="20" t="s">
         <v>498</v>
       </c>
@@ -29769,7 +30061,7 @@
       <c r="F318" s="2"/>
     </row>
     <row r="319" spans="1:6" customFormat="1">
-      <c r="A319" s="34"/>
+      <c r="A319" s="31"/>
       <c r="B319" s="20" t="s">
         <v>499</v>
       </c>
@@ -29783,7 +30075,7 @@
       <c r="F319" s="2"/>
     </row>
     <row r="320" spans="1:6" customFormat="1">
-      <c r="A320" s="34"/>
+      <c r="A320" s="31"/>
       <c r="B320" s="20" t="s">
         <v>500</v>
       </c>
@@ -29797,7 +30089,7 @@
       <c r="F320" s="2"/>
     </row>
     <row r="321" spans="1:6" customFormat="1">
-      <c r="A321" s="34"/>
+      <c r="A321" s="31"/>
       <c r="B321" s="20" t="s">
         <v>501</v>
       </c>
@@ -29811,7 +30103,7 @@
       <c r="F321" s="2"/>
     </row>
     <row r="322" spans="1:6" customFormat="1">
-      <c r="A322" s="34"/>
+      <c r="A322" s="31"/>
       <c r="B322" s="20" t="s">
         <v>502</v>
       </c>
@@ -29825,7 +30117,7 @@
       <c r="F322" s="2"/>
     </row>
     <row r="323" spans="1:6" customFormat="1">
-      <c r="A323" s="34"/>
+      <c r="A323" s="31"/>
       <c r="B323" s="20">
         <v>12.4</v>
       </c>
@@ -29839,7 +30131,7 @@
       <c r="F323" s="2"/>
     </row>
     <row r="324" spans="1:6" customFormat="1">
-      <c r="A324" s="34"/>
+      <c r="A324" s="31"/>
       <c r="B324" s="20" t="s">
         <v>503</v>
       </c>
@@ -29853,7 +30145,7 @@
       <c r="F324" s="2"/>
     </row>
     <row r="325" spans="1:6" customFormat="1">
-      <c r="A325" s="34"/>
+      <c r="A325" s="31"/>
       <c r="B325" s="20" t="s">
         <v>504</v>
       </c>
@@ -29867,7 +30159,7 @@
       <c r="F325" s="2"/>
     </row>
     <row r="326" spans="1:6" customFormat="1">
-      <c r="A326" s="34"/>
+      <c r="A326" s="31"/>
       <c r="B326" s="20" t="s">
         <v>505</v>
       </c>
@@ -29881,7 +30173,7 @@
       <c r="F326" s="2"/>
     </row>
     <row r="327" spans="1:6" customFormat="1">
-      <c r="A327" s="34"/>
+      <c r="A327" s="31"/>
       <c r="B327" s="20" t="s">
         <v>506</v>
       </c>
@@ -29895,7 +30187,7 @@
       <c r="F327" s="2"/>
     </row>
     <row r="328" spans="1:6" customFormat="1">
-      <c r="A328" s="34"/>
+      <c r="A328" s="31"/>
       <c r="B328" s="20" t="s">
         <v>507</v>
       </c>
@@ -29909,7 +30201,7 @@
       <c r="F328" s="2"/>
     </row>
     <row r="329" spans="1:6" customFormat="1">
-      <c r="A329" s="34"/>
+      <c r="A329" s="31"/>
       <c r="B329" s="20">
         <v>12.5</v>
       </c>
@@ -29923,7 +30215,7 @@
       <c r="F329" s="2"/>
     </row>
     <row r="330" spans="1:6" customFormat="1">
-      <c r="A330" s="34"/>
+      <c r="A330" s="31"/>
       <c r="B330" s="20" t="s">
         <v>508</v>
       </c>
@@ -29937,7 +30229,7 @@
       <c r="F330" s="2"/>
     </row>
     <row r="331" spans="1:6" customFormat="1">
-      <c r="A331" s="34"/>
+      <c r="A331" s="31"/>
       <c r="B331" s="20" t="s">
         <v>509</v>
       </c>
@@ -29951,7 +30243,7 @@
       <c r="F331" s="2"/>
     </row>
     <row r="332" spans="1:6" customFormat="1">
-      <c r="A332" s="34"/>
+      <c r="A332" s="31"/>
       <c r="B332" s="20" t="s">
         <v>510</v>
       </c>
@@ -29965,7 +30257,7 @@
       <c r="F332" s="2"/>
     </row>
     <row r="333" spans="1:6" customFormat="1">
-      <c r="A333" s="34"/>
+      <c r="A333" s="31"/>
       <c r="B333" s="20" t="s">
         <v>511</v>
       </c>
@@ -29979,7 +30271,7 @@
       <c r="F333" s="2"/>
     </row>
     <row r="334" spans="1:6" customFormat="1">
-      <c r="A334" s="34"/>
+      <c r="A334" s="31"/>
       <c r="B334" s="20" t="s">
         <v>512</v>
       </c>
@@ -29993,7 +30285,7 @@
       <c r="F334" s="2"/>
     </row>
     <row r="335" spans="1:6" customFormat="1">
-      <c r="A335" s="34"/>
+      <c r="A335" s="31"/>
       <c r="B335" s="20" t="s">
         <v>513</v>
       </c>
@@ -30007,7 +30299,7 @@
       <c r="F335" s="2"/>
     </row>
     <row r="336" spans="1:6" customFormat="1">
-      <c r="A336" s="34"/>
+      <c r="A336" s="31"/>
       <c r="B336" s="20" t="s">
         <v>514</v>
       </c>
@@ -30021,7 +30313,7 @@
       <c r="F336" s="2"/>
     </row>
     <row r="337" spans="1:6" customFormat="1">
-      <c r="A337" s="34"/>
+      <c r="A337" s="31"/>
       <c r="B337" s="20" t="s">
         <v>515</v>
       </c>
@@ -30035,7 +30327,7 @@
       <c r="F337" s="2"/>
     </row>
     <row r="338" spans="1:6" customFormat="1">
-      <c r="A338" s="34"/>
+      <c r="A338" s="31"/>
       <c r="B338" s="20">
         <v>12.6</v>
       </c>
@@ -30049,7 +30341,7 @@
       <c r="F338" s="2"/>
     </row>
     <row r="339" spans="1:6" customFormat="1">
-      <c r="A339" s="34"/>
+      <c r="A339" s="31"/>
       <c r="B339" s="20" t="s">
         <v>516</v>
       </c>
@@ -30063,7 +30355,7 @@
       <c r="F339" s="2"/>
     </row>
     <row r="340" spans="1:6" customFormat="1">
-      <c r="A340" s="34"/>
+      <c r="A340" s="31"/>
       <c r="B340" s="20" t="s">
         <v>517</v>
       </c>
@@ -30077,7 +30369,7 @@
       <c r="F340" s="2"/>
     </row>
     <row r="341" spans="1:6" customFormat="1">
-      <c r="A341" s="34"/>
+      <c r="A341" s="31"/>
       <c r="B341" s="20" t="s">
         <v>518</v>
       </c>
@@ -30091,7 +30383,7 @@
       <c r="F341" s="2"/>
     </row>
     <row r="342" spans="1:6" customFormat="1">
-      <c r="A342" s="34"/>
+      <c r="A342" s="31"/>
       <c r="B342" s="20" t="s">
         <v>519</v>
       </c>
@@ -30105,7 +30397,7 @@
       <c r="F342" s="2"/>
     </row>
     <row r="343" spans="1:6" customFormat="1">
-      <c r="A343" s="34"/>
+      <c r="A343" s="31"/>
       <c r="B343" s="20" t="s">
         <v>520</v>
       </c>
@@ -30119,7 +30411,7 @@
       <c r="F343" s="2"/>
     </row>
     <row r="344" spans="1:6" customFormat="1">
-      <c r="A344" s="34"/>
+      <c r="A344" s="31"/>
       <c r="B344" s="20">
         <v>12.7</v>
       </c>
@@ -30133,7 +30425,7 @@
       <c r="F344" s="2"/>
     </row>
     <row r="345" spans="1:6" customFormat="1">
-      <c r="A345" s="34"/>
+      <c r="A345" s="31"/>
       <c r="B345" s="20" t="s">
         <v>521</v>
       </c>
@@ -30147,7 +30439,7 @@
       <c r="F345" s="2"/>
     </row>
     <row r="346" spans="1:6" customFormat="1">
-      <c r="A346" s="34"/>
+      <c r="A346" s="31"/>
       <c r="B346" s="20" t="s">
         <v>522</v>
       </c>
@@ -30161,7 +30453,7 @@
       <c r="F346" s="2"/>
     </row>
     <row r="347" spans="1:6" customFormat="1">
-      <c r="A347" s="34"/>
+      <c r="A347" s="31"/>
       <c r="B347" s="20" t="s">
         <v>523</v>
       </c>
@@ -30175,7 +30467,7 @@
       <c r="F347" s="2"/>
     </row>
     <row r="348" spans="1:6" customFormat="1">
-      <c r="A348" s="34"/>
+      <c r="A348" s="31"/>
       <c r="B348" s="20" t="s">
         <v>524</v>
       </c>
@@ -30189,7 +30481,7 @@
       <c r="F348" s="2"/>
     </row>
     <row r="349" spans="1:6" customFormat="1">
-      <c r="A349" s="34"/>
+      <c r="A349" s="31"/>
       <c r="B349" s="20" t="s">
         <v>525</v>
       </c>
@@ -30203,7 +30495,7 @@
       <c r="F349" s="2"/>
     </row>
     <row r="350" spans="1:6" customFormat="1">
-      <c r="A350" s="34"/>
+      <c r="A350" s="31"/>
       <c r="B350" s="20">
         <v>12.8</v>
       </c>
@@ -30217,7 +30509,7 @@
       <c r="F350" s="2"/>
     </row>
     <row r="351" spans="1:6" customFormat="1">
-      <c r="A351" s="34"/>
+      <c r="A351" s="31"/>
       <c r="B351" s="20" t="s">
         <v>526</v>
       </c>
@@ -30231,7 +30523,7 @@
       <c r="F351" s="2"/>
     </row>
     <row r="352" spans="1:6" customFormat="1">
-      <c r="A352" s="34"/>
+      <c r="A352" s="31"/>
       <c r="B352" s="20" t="s">
         <v>527</v>
       </c>
@@ -30245,7 +30537,7 @@
       <c r="F352" s="2"/>
     </row>
     <row r="353" spans="1:6" customFormat="1">
-      <c r="A353" s="34" t="s">
+      <c r="A353" s="31" t="s">
         <v>1019</v>
       </c>
       <c r="B353" s="20">
@@ -30261,7 +30553,7 @@
       <c r="F353" s="2"/>
     </row>
     <row r="354" spans="1:6" customFormat="1">
-      <c r="A354" s="34"/>
+      <c r="A354" s="31"/>
       <c r="B354" s="20" t="s">
         <v>528</v>
       </c>
@@ -30275,7 +30567,7 @@
       <c r="F354" s="2"/>
     </row>
     <row r="355" spans="1:6" customFormat="1">
-      <c r="A355" s="34"/>
+      <c r="A355" s="31"/>
       <c r="B355" s="20" t="s">
         <v>529</v>
       </c>
@@ -30289,7 +30581,7 @@
       <c r="F355" s="2"/>
     </row>
     <row r="356" spans="1:6" customFormat="1">
-      <c r="A356" s="34"/>
+      <c r="A356" s="31"/>
       <c r="B356" s="20" t="s">
         <v>530</v>
       </c>
@@ -30303,7 +30595,7 @@
       <c r="F356" s="2"/>
     </row>
     <row r="357" spans="1:6" customFormat="1">
-      <c r="A357" s="34"/>
+      <c r="A357" s="31"/>
       <c r="B357" s="20" t="s">
         <v>531</v>
       </c>
@@ -30317,7 +30609,7 @@
       <c r="F357" s="2"/>
     </row>
     <row r="358" spans="1:6" customFormat="1">
-      <c r="A358" s="34"/>
+      <c r="A358" s="31"/>
       <c r="B358" s="20" t="s">
         <v>532</v>
       </c>
@@ -30331,7 +30623,7 @@
       <c r="F358" s="2"/>
     </row>
     <row r="359" spans="1:6" customFormat="1">
-      <c r="A359" s="34"/>
+      <c r="A359" s="31"/>
       <c r="B359" s="20">
         <v>13.2</v>
       </c>
@@ -30345,7 +30637,7 @@
       <c r="F359" s="2"/>
     </row>
     <row r="360" spans="1:6" customFormat="1">
-      <c r="A360" s="34"/>
+      <c r="A360" s="31"/>
       <c r="B360" s="20" t="s">
         <v>533</v>
       </c>
@@ -30359,7 +30651,7 @@
       <c r="F360" s="2"/>
     </row>
     <row r="361" spans="1:6" customFormat="1">
-      <c r="A361" s="34"/>
+      <c r="A361" s="31"/>
       <c r="B361" s="20" t="s">
         <v>534</v>
       </c>
@@ -30373,7 +30665,7 @@
       <c r="F361" s="2"/>
     </row>
     <row r="362" spans="1:6" customFormat="1">
-      <c r="A362" s="34"/>
+      <c r="A362" s="31"/>
       <c r="B362" s="20">
         <v>13.3</v>
       </c>
@@ -30387,7 +30679,7 @@
       <c r="F362" s="2"/>
     </row>
     <row r="363" spans="1:6" customFormat="1">
-      <c r="A363" s="34"/>
+      <c r="A363" s="31"/>
       <c r="B363" s="20">
         <v>13.4</v>
       </c>
@@ -30401,7 +30693,7 @@
       <c r="F363" s="2"/>
     </row>
     <row r="364" spans="1:6" customFormat="1">
-      <c r="A364" s="34"/>
+      <c r="A364" s="31"/>
       <c r="B364" s="20" t="s">
         <v>535</v>
       </c>
@@ -30415,7 +30707,7 @@
       <c r="F364" s="2"/>
     </row>
     <row r="365" spans="1:6" customFormat="1">
-      <c r="A365" s="34"/>
+      <c r="A365" s="31"/>
       <c r="B365" s="20" t="s">
         <v>536</v>
       </c>
@@ -30429,7 +30721,7 @@
       <c r="F365" s="2"/>
     </row>
     <row r="366" spans="1:6" customFormat="1">
-      <c r="A366" s="34"/>
+      <c r="A366" s="31"/>
       <c r="B366" s="20" t="s">
         <v>537</v>
       </c>
@@ -30443,7 +30735,7 @@
       <c r="F366" s="2"/>
     </row>
     <row r="367" spans="1:6" customFormat="1">
-      <c r="A367" s="34"/>
+      <c r="A367" s="31"/>
       <c r="B367" s="20" t="s">
         <v>538</v>
       </c>
@@ -30457,7 +30749,7 @@
       <c r="F367" s="2"/>
     </row>
     <row r="368" spans="1:6" customFormat="1">
-      <c r="A368" s="34"/>
+      <c r="A368" s="31"/>
       <c r="B368" s="20" t="s">
         <v>539</v>
       </c>
@@ -30471,7 +30763,7 @@
       <c r="F368" s="2"/>
     </row>
     <row r="369" spans="1:6" customFormat="1">
-      <c r="A369" s="34"/>
+      <c r="A369" s="31"/>
       <c r="B369" s="20" t="s">
         <v>540</v>
       </c>
@@ -30485,7 +30777,7 @@
       <c r="F369" s="2"/>
     </row>
     <row r="370" spans="1:6" customFormat="1">
-      <c r="A370" s="34"/>
+      <c r="A370" s="31"/>
       <c r="B370" s="20" t="s">
         <v>541</v>
       </c>
@@ -30499,7 +30791,7 @@
       <c r="F370" s="2"/>
     </row>
     <row r="371" spans="1:6" customFormat="1">
-      <c r="A371" s="34"/>
+      <c r="A371" s="31"/>
       <c r="B371" s="20" t="s">
         <v>542</v>
       </c>
@@ -30513,7 +30805,7 @@
       <c r="F371" s="2"/>
     </row>
     <row r="372" spans="1:6" customFormat="1">
-      <c r="A372" s="34"/>
+      <c r="A372" s="31"/>
       <c r="B372" s="20" t="s">
         <v>543</v>
       </c>
@@ -30527,7 +30819,7 @@
       <c r="F372" s="2"/>
     </row>
     <row r="373" spans="1:6" customFormat="1">
-      <c r="A373" s="34"/>
+      <c r="A373" s="31"/>
       <c r="B373" s="20">
         <v>13.5</v>
       </c>
@@ -30541,7 +30833,7 @@
       <c r="F373" s="2"/>
     </row>
     <row r="374" spans="1:6" customFormat="1">
-      <c r="A374" s="34"/>
+      <c r="A374" s="31"/>
       <c r="B374" s="20" t="s">
         <v>544</v>
       </c>
@@ -30555,7 +30847,7 @@
       <c r="F374" s="2"/>
     </row>
     <row r="375" spans="1:6" customFormat="1">
-      <c r="A375" s="34"/>
+      <c r="A375" s="31"/>
       <c r="B375" s="20" t="s">
         <v>545</v>
       </c>
@@ -30569,7 +30861,7 @@
       <c r="F375" s="2"/>
     </row>
     <row r="376" spans="1:6" customFormat="1">
-      <c r="A376" s="31" t="s">
+      <c r="A376" s="32" t="s">
         <v>1018</v>
       </c>
       <c r="B376" s="20">
@@ -30585,7 +30877,7 @@
       <c r="F376" s="2"/>
     </row>
     <row r="377" spans="1:6" customFormat="1">
-      <c r="A377" s="32"/>
+      <c r="A377" s="33"/>
       <c r="B377" s="20" t="s">
         <v>546</v>
       </c>
@@ -30599,7 +30891,7 @@
       <c r="F377" s="2"/>
     </row>
     <row r="378" spans="1:6" customFormat="1">
-      <c r="A378" s="32"/>
+      <c r="A378" s="33"/>
       <c r="B378" s="20">
         <v>14.2</v>
       </c>
@@ -30613,7 +30905,7 @@
       <c r="F378" s="2"/>
     </row>
     <row r="379" spans="1:6" customFormat="1">
-      <c r="A379" s="32"/>
+      <c r="A379" s="33"/>
       <c r="B379" s="20">
         <v>14.3</v>
       </c>
@@ -30627,7 +30919,7 @@
       <c r="F379" s="2"/>
     </row>
     <row r="380" spans="1:6" customFormat="1">
-      <c r="A380" s="32"/>
+      <c r="A380" s="33"/>
       <c r="B380" s="20" t="s">
         <v>547</v>
       </c>
@@ -30641,7 +30933,7 @@
       <c r="F380" s="2"/>
     </row>
     <row r="381" spans="1:6" customFormat="1">
-      <c r="A381" s="32"/>
+      <c r="A381" s="33"/>
       <c r="B381" s="20" t="s">
         <v>548</v>
       </c>
@@ -30655,7 +30947,7 @@
       <c r="F381" s="2"/>
     </row>
     <row r="382" spans="1:6" customFormat="1">
-      <c r="A382" s="32"/>
+      <c r="A382" s="33"/>
       <c r="B382" s="20" t="s">
         <v>549</v>
       </c>
@@ -30669,7 +30961,7 @@
       <c r="F382" s="2"/>
     </row>
     <row r="383" spans="1:6" customFormat="1">
-      <c r="A383" s="32"/>
+      <c r="A383" s="33"/>
       <c r="B383" s="20" t="s">
         <v>550</v>
       </c>
@@ -30683,7 +30975,7 @@
       <c r="F383" s="2"/>
     </row>
     <row r="384" spans="1:6" customFormat="1">
-      <c r="A384" s="32"/>
+      <c r="A384" s="33"/>
       <c r="B384" s="20">
         <v>14.4</v>
       </c>
@@ -30697,7 +30989,7 @@
       <c r="F384" s="2"/>
     </row>
     <row r="385" spans="1:6" customFormat="1">
-      <c r="A385" s="32"/>
+      <c r="A385" s="33"/>
       <c r="B385" s="20" t="s">
         <v>551</v>
       </c>
@@ -30711,7 +31003,7 @@
       <c r="F385" s="2"/>
     </row>
     <row r="386" spans="1:6" customFormat="1">
-      <c r="A386" s="32"/>
+      <c r="A386" s="33"/>
       <c r="B386" s="20" t="s">
         <v>552</v>
       </c>
@@ -30725,7 +31017,7 @@
       <c r="F386" s="2"/>
     </row>
     <row r="387" spans="1:6" customFormat="1">
-      <c r="A387" s="32"/>
+      <c r="A387" s="33"/>
       <c r="B387" s="20" t="s">
         <v>553</v>
       </c>
@@ -30739,7 +31031,7 @@
       <c r="F387" s="2"/>
     </row>
     <row r="388" spans="1:6" customFormat="1">
-      <c r="A388" s="32"/>
+      <c r="A388" s="33"/>
       <c r="B388" s="20">
         <v>14.5</v>
       </c>
@@ -30753,7 +31045,7 @@
       <c r="F388" s="2"/>
     </row>
     <row r="389" spans="1:6" customFormat="1">
-      <c r="A389" s="32"/>
+      <c r="A389" s="33"/>
       <c r="B389" s="20" t="s">
         <v>554</v>
       </c>
@@ -30767,7 +31059,7 @@
       <c r="F389" s="2"/>
     </row>
     <row r="390" spans="1:6" customFormat="1">
-      <c r="A390" s="32"/>
+      <c r="A390" s="33"/>
       <c r="B390" s="20" t="s">
         <v>555</v>
       </c>
@@ -30781,7 +31073,7 @@
       <c r="F390" s="2"/>
     </row>
     <row r="391" spans="1:6" customFormat="1">
-      <c r="A391" s="32"/>
+      <c r="A391" s="33"/>
       <c r="B391" s="20" t="s">
         <v>556</v>
       </c>
@@ -30795,7 +31087,7 @@
       <c r="F391" s="2"/>
     </row>
     <row r="392" spans="1:6" customFormat="1">
-      <c r="A392" s="32"/>
+      <c r="A392" s="33"/>
       <c r="B392" s="20" t="s">
         <v>557</v>
       </c>
@@ -30809,7 +31101,7 @@
       <c r="F392" s="2"/>
     </row>
     <row r="393" spans="1:6" customFormat="1">
-      <c r="A393" s="32"/>
+      <c r="A393" s="33"/>
       <c r="B393" s="20" t="s">
         <v>558</v>
       </c>
@@ -30823,7 +31115,7 @@
       <c r="F393" s="2"/>
     </row>
     <row r="394" spans="1:6" customFormat="1">
-      <c r="A394" s="32"/>
+      <c r="A394" s="33"/>
       <c r="B394" s="20" t="s">
         <v>559</v>
       </c>
@@ -30837,7 +31129,7 @@
       <c r="F394" s="2"/>
     </row>
     <row r="395" spans="1:6" customFormat="1">
-      <c r="A395" s="32"/>
+      <c r="A395" s="33"/>
       <c r="B395" s="20" t="s">
         <v>560</v>
       </c>
@@ -30851,7 +31143,7 @@
       <c r="F395" s="2"/>
     </row>
     <row r="396" spans="1:6" customFormat="1">
-      <c r="A396" s="32"/>
+      <c r="A396" s="33"/>
       <c r="B396" s="20" t="s">
         <v>561</v>
       </c>
@@ -30865,7 +31157,7 @@
       <c r="F396" s="2"/>
     </row>
     <row r="397" spans="1:6" customFormat="1">
-      <c r="A397" s="32"/>
+      <c r="A397" s="33"/>
       <c r="B397" s="20" t="s">
         <v>562</v>
       </c>
@@ -30879,7 +31171,7 @@
       <c r="F397" s="2"/>
     </row>
     <row r="398" spans="1:6" customFormat="1">
-      <c r="A398" s="32"/>
+      <c r="A398" s="33"/>
       <c r="B398" s="20" t="s">
         <v>563</v>
       </c>
@@ -30893,7 +31185,7 @@
       <c r="F398" s="2"/>
     </row>
     <row r="399" spans="1:6" customFormat="1">
-      <c r="A399" s="32"/>
+      <c r="A399" s="33"/>
       <c r="B399" s="20" t="s">
         <v>564</v>
       </c>
@@ -30907,7 +31199,7 @@
       <c r="F399" s="2"/>
     </row>
     <row r="400" spans="1:6" customFormat="1">
-      <c r="A400" s="32"/>
+      <c r="A400" s="33"/>
       <c r="B400" s="20" t="s">
         <v>565</v>
       </c>
@@ -30921,7 +31213,7 @@
       <c r="F400" s="2"/>
     </row>
     <row r="401" spans="1:6" customFormat="1">
-      <c r="A401" s="32"/>
+      <c r="A401" s="33"/>
       <c r="B401" s="20" t="s">
         <v>566</v>
       </c>
@@ -30935,7 +31227,7 @@
       <c r="F401" s="2"/>
     </row>
     <row r="402" spans="1:6" customFormat="1">
-      <c r="A402" s="32"/>
+      <c r="A402" s="33"/>
       <c r="B402" s="20" t="s">
         <v>567</v>
       </c>
@@ -30949,7 +31241,7 @@
       <c r="F402" s="2"/>
     </row>
     <row r="403" spans="1:6" customFormat="1">
-      <c r="A403" s="32"/>
+      <c r="A403" s="33"/>
       <c r="B403" s="20" t="s">
         <v>568</v>
       </c>
@@ -30963,7 +31255,7 @@
       <c r="F403" s="2"/>
     </row>
     <row r="404" spans="1:6" customFormat="1">
-      <c r="A404" s="32"/>
+      <c r="A404" s="33"/>
       <c r="B404" s="20">
         <v>14.6</v>
       </c>
@@ -30977,7 +31269,7 @@
       <c r="F404" s="2"/>
     </row>
     <row r="405" spans="1:6" customFormat="1">
-      <c r="A405" s="32"/>
+      <c r="A405" s="33"/>
       <c r="B405" s="20">
         <v>14.7</v>
       </c>
@@ -30991,7 +31283,7 @@
       <c r="F405" s="2"/>
     </row>
     <row r="406" spans="1:6" customFormat="1">
-      <c r="A406" s="32"/>
+      <c r="A406" s="33"/>
       <c r="B406" s="20" t="s">
         <v>569</v>
       </c>
@@ -31005,7 +31297,7 @@
       <c r="F406" s="2"/>
     </row>
     <row r="407" spans="1:6" customFormat="1">
-      <c r="A407" s="32"/>
+      <c r="A407" s="33"/>
       <c r="B407" s="20" t="s">
         <v>570</v>
       </c>
@@ -31019,7 +31311,7 @@
       <c r="F407" s="2"/>
     </row>
     <row r="408" spans="1:6" customFormat="1">
-      <c r="A408" s="32"/>
+      <c r="A408" s="33"/>
       <c r="B408" s="20" t="s">
         <v>571</v>
       </c>
@@ -31033,7 +31325,7 @@
       <c r="F408" s="2"/>
     </row>
     <row r="409" spans="1:6" customFormat="1">
-      <c r="A409" s="32"/>
+      <c r="A409" s="33"/>
       <c r="B409" s="20" t="s">
         <v>572</v>
       </c>
@@ -31047,7 +31339,7 @@
       <c r="F409" s="2"/>
     </row>
     <row r="410" spans="1:6" customFormat="1">
-      <c r="A410" s="32"/>
+      <c r="A410" s="33"/>
       <c r="B410" s="20" t="s">
         <v>573</v>
       </c>
@@ -31061,7 +31353,7 @@
       <c r="F410" s="2"/>
     </row>
     <row r="411" spans="1:6" customFormat="1">
-      <c r="A411" s="32"/>
+      <c r="A411" s="33"/>
       <c r="B411" s="20" t="s">
         <v>574</v>
       </c>
@@ -31075,7 +31367,7 @@
       <c r="F411" s="2"/>
     </row>
     <row r="412" spans="1:6" customFormat="1">
-      <c r="A412" s="32"/>
+      <c r="A412" s="33"/>
       <c r="B412" s="20" t="s">
         <v>575</v>
       </c>
@@ -31089,7 +31381,7 @@
       <c r="F412" s="2"/>
     </row>
     <row r="413" spans="1:6" customFormat="1">
-      <c r="A413" s="32"/>
+      <c r="A413" s="33"/>
       <c r="B413" s="20">
         <v>14.8</v>
       </c>
@@ -31103,7 +31395,7 @@
       <c r="F413" s="2"/>
     </row>
     <row r="414" spans="1:6" customFormat="1">
-      <c r="A414" s="32"/>
+      <c r="A414" s="33"/>
       <c r="B414" s="20">
         <v>14.9</v>
       </c>
@@ -31117,7 +31409,7 @@
       <c r="F414" s="2"/>
     </row>
     <row r="415" spans="1:6" customFormat="1">
-      <c r="A415" s="32"/>
+      <c r="A415" s="33"/>
       <c r="B415" s="20" t="s">
         <v>576</v>
       </c>
@@ -31131,7 +31423,7 @@
       <c r="F415" s="2"/>
     </row>
     <row r="416" spans="1:6" customFormat="1">
-      <c r="A416" s="32"/>
+      <c r="A416" s="33"/>
       <c r="B416" s="20" t="s">
         <v>577</v>
       </c>
@@ -31145,7 +31437,7 @@
       <c r="F416" s="2"/>
     </row>
     <row r="417" spans="1:6" customFormat="1">
-      <c r="A417" s="32"/>
+      <c r="A417" s="33"/>
       <c r="B417" s="20" t="s">
         <v>578</v>
       </c>
@@ -31159,7 +31451,7 @@
       <c r="F417" s="2"/>
     </row>
     <row r="418" spans="1:6" customFormat="1">
-      <c r="A418" s="32"/>
+      <c r="A418" s="33"/>
       <c r="B418" s="20" t="s">
         <v>579</v>
       </c>
@@ -31173,7 +31465,7 @@
       <c r="F418" s="2"/>
     </row>
     <row r="419" spans="1:6" customFormat="1">
-      <c r="A419" s="32"/>
+      <c r="A419" s="33"/>
       <c r="B419" s="20" t="s">
         <v>580</v>
       </c>
@@ -31187,7 +31479,7 @@
       <c r="F419" s="2"/>
     </row>
     <row r="420" spans="1:6" customFormat="1">
-      <c r="A420" s="32"/>
+      <c r="A420" s="33"/>
       <c r="B420" s="20">
         <v>14.1</v>
       </c>
@@ -31201,7 +31493,7 @@
       <c r="F420" s="2"/>
     </row>
     <row r="421" spans="1:6" customFormat="1">
-      <c r="A421" s="32"/>
+      <c r="A421" s="33"/>
       <c r="B421" s="20" t="s">
         <v>581</v>
       </c>
@@ -31215,7 +31507,7 @@
       <c r="F421" s="2"/>
     </row>
     <row r="422" spans="1:6" customFormat="1">
-      <c r="A422" s="32"/>
+      <c r="A422" s="33"/>
       <c r="B422" s="20" t="s">
         <v>582</v>
       </c>
@@ -31229,7 +31521,7 @@
       <c r="F422" s="2"/>
     </row>
     <row r="423" spans="1:6" customFormat="1">
-      <c r="A423" s="32"/>
+      <c r="A423" s="33"/>
       <c r="B423" s="20" t="s">
         <v>583</v>
       </c>
@@ -31243,7 +31535,7 @@
       <c r="F423" s="2"/>
     </row>
     <row r="424" spans="1:6" customFormat="1">
-      <c r="A424" s="32"/>
+      <c r="A424" s="33"/>
       <c r="B424" s="20" t="s">
         <v>584</v>
       </c>
@@ -31257,7 +31549,7 @@
       <c r="F424" s="2"/>
     </row>
     <row r="425" spans="1:6" customFormat="1">
-      <c r="A425" s="32"/>
+      <c r="A425" s="33"/>
       <c r="B425" s="20" t="s">
         <v>585</v>
       </c>
@@ -31271,7 +31563,7 @@
       <c r="F425" s="2"/>
     </row>
     <row r="426" spans="1:6" customFormat="1">
-      <c r="A426" s="32"/>
+      <c r="A426" s="33"/>
       <c r="B426" s="20">
         <v>14.11</v>
       </c>
@@ -31285,7 +31577,7 @@
       <c r="F426" s="2"/>
     </row>
     <row r="427" spans="1:6" customFormat="1">
-      <c r="A427" s="32"/>
+      <c r="A427" s="33"/>
       <c r="B427" s="20" t="s">
         <v>586</v>
       </c>
@@ -31299,7 +31591,7 @@
       <c r="F427" s="2"/>
     </row>
     <row r="428" spans="1:6" customFormat="1">
-      <c r="A428" s="32"/>
+      <c r="A428" s="33"/>
       <c r="B428" s="20" t="s">
         <v>587</v>
       </c>
@@ -31313,7 +31605,7 @@
       <c r="F428" s="2"/>
     </row>
     <row r="429" spans="1:6" customFormat="1">
-      <c r="A429" s="33"/>
+      <c r="A429" s="34"/>
       <c r="B429" s="20" t="s">
         <v>588</v>
       </c>
@@ -31379,6 +31671,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A376:A429"/>
+    <mergeCell ref="A353:A375"/>
+    <mergeCell ref="A310:A352"/>
+    <mergeCell ref="A301:A309"/>
+    <mergeCell ref="A250:A290"/>
+    <mergeCell ref="A291:A300"/>
     <mergeCell ref="A77:A127"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="A18:A25"/>
@@ -31387,12 +31685,6 @@
     <mergeCell ref="A128:A157"/>
     <mergeCell ref="A190:A217"/>
     <mergeCell ref="A158:A189"/>
-    <mergeCell ref="A376:A429"/>
-    <mergeCell ref="A353:A375"/>
-    <mergeCell ref="A310:A352"/>
-    <mergeCell ref="A301:A309"/>
-    <mergeCell ref="A250:A290"/>
-    <mergeCell ref="A291:A300"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I4">
@@ -31451,6 +31743,4618 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC527B0D-E79E-D34B-9D69-6614F00EA4E8}">
+  <dimension ref="A1:G562"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="XEL1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1048545" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="XEO1048557" sqref="XEO1048557"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="27"/>
+    <col min="5" max="5" width="10.7109375" style="14"/>
+    <col min="6" max="6" width="15.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="10.7109375" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F1" s="12" t="str">
+        <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
+        <v>截至2020-09-24</v>
+      </c>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" customFormat="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="25"/>
+      <c r="F2" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G2" s="12">
+        <f>COUNTIF(C2:C562,"ok")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" customFormat="1">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="25"/>
+      <c r="F3" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="G3" s="12">
+        <f>COUNTBLANK(C2:C562)</f>
+        <v>561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" customFormat="1">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="25"/>
+      <c r="F4" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G4" s="15">
+        <f>G2/(G2+G3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" customFormat="1">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" customFormat="1">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="25"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" customFormat="1">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="25"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" customFormat="1">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" customFormat="1">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="25"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" customFormat="1">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="25"/>
+    </row>
+    <row r="11" spans="1:7" customFormat="1">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="25"/>
+    </row>
+    <row r="12" spans="1:7" customFormat="1">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" spans="1:7" customFormat="1">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="25"/>
+    </row>
+    <row r="14" spans="1:7" customFormat="1">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" customFormat="1">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="25"/>
+    </row>
+    <row r="16" spans="1:7" customFormat="1">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="25"/>
+    </row>
+    <row r="17" spans="1:4" customFormat="1">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="25"/>
+    </row>
+    <row r="18" spans="1:4" customFormat="1">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="25"/>
+    </row>
+    <row r="19" spans="1:4" customFormat="1">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="25"/>
+    </row>
+    <row r="20" spans="1:4" customFormat="1">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="25"/>
+    </row>
+    <row r="21" spans="1:4" customFormat="1">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="25"/>
+    </row>
+    <row r="22" spans="1:4" customFormat="1">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="25"/>
+    </row>
+    <row r="23" spans="1:4" customFormat="1">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="25"/>
+    </row>
+    <row r="24" spans="1:4" customFormat="1">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="25"/>
+    </row>
+    <row r="25" spans="1:4" customFormat="1">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="25"/>
+    </row>
+    <row r="26" spans="1:4" customFormat="1">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="25"/>
+    </row>
+    <row r="27" spans="1:4" customFormat="1">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="25"/>
+    </row>
+    <row r="28" spans="1:4" customFormat="1">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="25"/>
+    </row>
+    <row r="29" spans="1:4" customFormat="1">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="25"/>
+    </row>
+    <row r="30" spans="1:4" customFormat="1">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31" spans="1:4" customFormat="1">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" customFormat="1">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="25"/>
+    </row>
+    <row r="33" spans="1:4" customFormat="1">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="25"/>
+    </row>
+    <row r="34" spans="1:4" customFormat="1">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="25"/>
+    </row>
+    <row r="35" spans="1:4" customFormat="1">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="25"/>
+    </row>
+    <row r="36" spans="1:4" customFormat="1">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="25"/>
+    </row>
+    <row r="37" spans="1:4" customFormat="1">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="25"/>
+    </row>
+    <row r="38" spans="1:4" customFormat="1">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="25"/>
+    </row>
+    <row r="39" spans="1:4" customFormat="1">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="25"/>
+    </row>
+    <row r="40" spans="1:4" customFormat="1">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="25"/>
+    </row>
+    <row r="41" spans="1:4" customFormat="1">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="25"/>
+    </row>
+    <row r="42" spans="1:4" customFormat="1">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="25"/>
+    </row>
+    <row r="43" spans="1:4" customFormat="1">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="25"/>
+    </row>
+    <row r="44" spans="1:4" customFormat="1">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="25"/>
+    </row>
+    <row r="45" spans="1:4" customFormat="1">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="25"/>
+    </row>
+    <row r="46" spans="1:4" customFormat="1">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="25"/>
+    </row>
+    <row r="47" spans="1:4" customFormat="1">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="25"/>
+    </row>
+    <row r="48" spans="1:4" customFormat="1">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="25"/>
+    </row>
+    <row r="49" spans="1:4" customFormat="1">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="25"/>
+    </row>
+    <row r="50" spans="1:4" customFormat="1">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="25"/>
+    </row>
+    <row r="51" spans="1:4" customFormat="1">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="25"/>
+    </row>
+    <row r="52" spans="1:4" customFormat="1">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="25"/>
+    </row>
+    <row r="53" spans="1:4" customFormat="1">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="25"/>
+    </row>
+    <row r="54" spans="1:4" customFormat="1">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="25"/>
+    </row>
+    <row r="55" spans="1:4" customFormat="1">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="25"/>
+    </row>
+    <row r="56" spans="1:4" customFormat="1">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="25"/>
+    </row>
+    <row r="57" spans="1:4" customFormat="1">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="25"/>
+    </row>
+    <row r="58" spans="1:4" customFormat="1">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="25"/>
+    </row>
+    <row r="59" spans="1:4" customFormat="1">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="25"/>
+    </row>
+    <row r="60" spans="1:4" customFormat="1">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="25"/>
+    </row>
+    <row r="61" spans="1:4" customFormat="1">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="25"/>
+    </row>
+    <row r="62" spans="1:4" customFormat="1">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="25"/>
+    </row>
+    <row r="63" spans="1:4" customFormat="1">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="25"/>
+    </row>
+    <row r="64" spans="1:4" customFormat="1">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="5"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="25"/>
+    </row>
+    <row r="65" spans="1:4" customFormat="1">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="25"/>
+    </row>
+    <row r="66" spans="1:4" customFormat="1">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="25"/>
+    </row>
+    <row r="67" spans="1:4" customFormat="1">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="25"/>
+    </row>
+    <row r="68" spans="1:4" customFormat="1">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="25"/>
+    </row>
+    <row r="69" spans="1:4" customFormat="1">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="25"/>
+    </row>
+    <row r="70" spans="1:4" customFormat="1">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="25"/>
+    </row>
+    <row r="71" spans="1:4" customFormat="1">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="25"/>
+    </row>
+    <row r="72" spans="1:4" customFormat="1">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="25"/>
+    </row>
+    <row r="73" spans="1:4" customFormat="1">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="25"/>
+    </row>
+    <row r="74" spans="1:4" customFormat="1">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="25"/>
+    </row>
+    <row r="75" spans="1:4" customFormat="1">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="5"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="25"/>
+    </row>
+    <row r="76" spans="1:4" customFormat="1">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="25"/>
+    </row>
+    <row r="77" spans="1:4" customFormat="1">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="25"/>
+    </row>
+    <row r="78" spans="1:4" customFormat="1">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="25"/>
+    </row>
+    <row r="79" spans="1:4" customFormat="1">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="5"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="25"/>
+    </row>
+    <row r="80" spans="1:4" customFormat="1">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="5"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="25"/>
+    </row>
+    <row r="81" spans="1:4" customFormat="1">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="5"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="25"/>
+    </row>
+    <row r="82" spans="1:4" customFormat="1">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="5"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="25"/>
+    </row>
+    <row r="83" spans="1:4" customFormat="1">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="5"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="25"/>
+    </row>
+    <row r="84" spans="1:4" customFormat="1">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="5"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="25"/>
+    </row>
+    <row r="85" spans="1:4" customFormat="1">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="25"/>
+    </row>
+    <row r="86" spans="1:4" customFormat="1">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="25"/>
+    </row>
+    <row r="87" spans="1:4" customFormat="1">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="25"/>
+    </row>
+    <row r="88" spans="1:4" customFormat="1">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="25"/>
+    </row>
+    <row r="89" spans="1:4" customFormat="1">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="25"/>
+    </row>
+    <row r="90" spans="1:4" customFormat="1">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="25"/>
+    </row>
+    <row r="91" spans="1:4" customFormat="1">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="5"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="25"/>
+    </row>
+    <row r="92" spans="1:4" customFormat="1">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="5"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="25"/>
+    </row>
+    <row r="93" spans="1:4" customFormat="1">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="5"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="25"/>
+    </row>
+    <row r="94" spans="1:4" customFormat="1">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="5"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="25"/>
+    </row>
+    <row r="95" spans="1:4" customFormat="1">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="5"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="25"/>
+    </row>
+    <row r="96" spans="1:4" customFormat="1">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="5"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="25"/>
+    </row>
+    <row r="97" spans="1:4" customFormat="1">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="5"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="25"/>
+    </row>
+    <row r="98" spans="1:4" customFormat="1">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="5"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="25"/>
+    </row>
+    <row r="99" spans="1:4" customFormat="1">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="5"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="25"/>
+    </row>
+    <row r="100" spans="1:4" customFormat="1">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="5"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="25"/>
+    </row>
+    <row r="101" spans="1:4" customFormat="1">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="5"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="25"/>
+    </row>
+    <row r="102" spans="1:4" customFormat="1">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" s="5"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="25"/>
+    </row>
+    <row r="103" spans="1:4" customFormat="1">
+      <c r="A103" s="2">
+        <v>102</v>
+      </c>
+      <c r="B103" s="5"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="25"/>
+    </row>
+    <row r="104" spans="1:4" customFormat="1">
+      <c r="A104" s="2">
+        <v>103</v>
+      </c>
+      <c r="B104" s="5"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="25"/>
+    </row>
+    <row r="105" spans="1:4" customFormat="1">
+      <c r="A105" s="2">
+        <v>104</v>
+      </c>
+      <c r="B105" s="5"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="25"/>
+    </row>
+    <row r="106" spans="1:4" customFormat="1">
+      <c r="A106" s="2">
+        <v>105</v>
+      </c>
+      <c r="B106" s="5"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="25"/>
+    </row>
+    <row r="107" spans="1:4" customFormat="1">
+      <c r="A107" s="2">
+        <v>106</v>
+      </c>
+      <c r="B107" s="5"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="25"/>
+    </row>
+    <row r="108" spans="1:4" customFormat="1">
+      <c r="A108" s="2">
+        <v>107</v>
+      </c>
+      <c r="B108" s="5"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="25"/>
+    </row>
+    <row r="109" spans="1:4" customFormat="1">
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
+      <c r="B109" s="5"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="25"/>
+    </row>
+    <row r="110" spans="1:4" customFormat="1">
+      <c r="A110" s="2">
+        <v>109</v>
+      </c>
+      <c r="B110" s="5"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="25"/>
+    </row>
+    <row r="111" spans="1:4" customFormat="1">
+      <c r="A111" s="2">
+        <v>110</v>
+      </c>
+      <c r="B111" s="5"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="25"/>
+    </row>
+    <row r="112" spans="1:4" customFormat="1">
+      <c r="A112" s="2">
+        <v>111</v>
+      </c>
+      <c r="B112" s="5"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="25"/>
+    </row>
+    <row r="113" spans="1:4" customFormat="1">
+      <c r="A113" s="2">
+        <v>112</v>
+      </c>
+      <c r="B113" s="5"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="25"/>
+    </row>
+    <row r="114" spans="1:4" customFormat="1">
+      <c r="A114" s="2">
+        <v>113</v>
+      </c>
+      <c r="B114" s="5"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="25"/>
+    </row>
+    <row r="115" spans="1:4" customFormat="1">
+      <c r="A115" s="2">
+        <v>114</v>
+      </c>
+      <c r="B115" s="5"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="26"/>
+    </row>
+    <row r="116" spans="1:4" customFormat="1">
+      <c r="A116" s="2">
+        <v>115</v>
+      </c>
+      <c r="B116" s="5"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="26"/>
+    </row>
+    <row r="117" spans="1:4" customFormat="1">
+      <c r="A117" s="2">
+        <v>116</v>
+      </c>
+      <c r="B117" s="5"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="26"/>
+    </row>
+    <row r="118" spans="1:4" customFormat="1">
+      <c r="A118" s="2">
+        <v>117</v>
+      </c>
+      <c r="B118" s="5"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="26"/>
+    </row>
+    <row r="119" spans="1:4" customFormat="1">
+      <c r="A119" s="2">
+        <v>118</v>
+      </c>
+      <c r="B119" s="5"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="26"/>
+    </row>
+    <row r="120" spans="1:4" customFormat="1">
+      <c r="A120" s="2">
+        <v>119</v>
+      </c>
+      <c r="B120" s="5"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="26"/>
+    </row>
+    <row r="121" spans="1:4" customFormat="1">
+      <c r="A121" s="2">
+        <v>120</v>
+      </c>
+      <c r="B121" s="5"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="26"/>
+    </row>
+    <row r="122" spans="1:4" customFormat="1">
+      <c r="A122" s="2">
+        <v>121</v>
+      </c>
+      <c r="B122" s="5"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="26"/>
+    </row>
+    <row r="123" spans="1:4" customFormat="1">
+      <c r="A123" s="2">
+        <v>122</v>
+      </c>
+      <c r="B123" s="5"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="26"/>
+    </row>
+    <row r="124" spans="1:4" customFormat="1">
+      <c r="A124" s="2">
+        <v>123</v>
+      </c>
+      <c r="B124" s="5"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="26"/>
+    </row>
+    <row r="125" spans="1:4" customFormat="1">
+      <c r="A125" s="2">
+        <v>124</v>
+      </c>
+      <c r="B125" s="5"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="26"/>
+    </row>
+    <row r="126" spans="1:4" customFormat="1">
+      <c r="A126" s="2">
+        <v>125</v>
+      </c>
+      <c r="B126" s="5"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="26"/>
+    </row>
+    <row r="127" spans="1:4" customFormat="1">
+      <c r="A127" s="2">
+        <v>126</v>
+      </c>
+      <c r="B127" s="5"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="25"/>
+    </row>
+    <row r="128" spans="1:4" customFormat="1">
+      <c r="A128" s="2">
+        <v>127</v>
+      </c>
+      <c r="B128" s="5"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="25"/>
+    </row>
+    <row r="129" spans="1:6" customFormat="1">
+      <c r="A129" s="2">
+        <v>128</v>
+      </c>
+      <c r="B129" s="5"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="25"/>
+    </row>
+    <row r="130" spans="1:6" customFormat="1">
+      <c r="A130" s="2">
+        <v>129</v>
+      </c>
+      <c r="B130" s="5"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="25"/>
+      <c r="F130" s="7"/>
+    </row>
+    <row r="131" spans="1:6" customFormat="1">
+      <c r="A131" s="2">
+        <v>130</v>
+      </c>
+      <c r="B131" s="5"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="25"/>
+      <c r="F131" s="7"/>
+    </row>
+    <row r="132" spans="1:6" customFormat="1">
+      <c r="A132" s="2">
+        <v>131</v>
+      </c>
+      <c r="B132" s="5"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="25"/>
+      <c r="F132" s="7"/>
+    </row>
+    <row r="133" spans="1:6" customFormat="1">
+      <c r="A133" s="2">
+        <v>132</v>
+      </c>
+      <c r="B133" s="5"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="25"/>
+      <c r="F133" s="7"/>
+    </row>
+    <row r="134" spans="1:6" customFormat="1">
+      <c r="A134" s="2">
+        <v>133</v>
+      </c>
+      <c r="B134" s="5"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="25"/>
+      <c r="F134" s="7"/>
+    </row>
+    <row r="135" spans="1:6" customFormat="1">
+      <c r="A135" s="2">
+        <v>134</v>
+      </c>
+      <c r="B135" s="5"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="25"/>
+      <c r="F135" s="7"/>
+    </row>
+    <row r="136" spans="1:6" customFormat="1">
+      <c r="A136" s="2">
+        <v>135</v>
+      </c>
+      <c r="B136" s="5"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="25"/>
+      <c r="F136" s="7"/>
+    </row>
+    <row r="137" spans="1:6" customFormat="1">
+      <c r="A137" s="2">
+        <v>136</v>
+      </c>
+      <c r="B137" s="5"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="25"/>
+      <c r="F137" s="7"/>
+    </row>
+    <row r="138" spans="1:6" customFormat="1">
+      <c r="A138" s="2">
+        <v>137</v>
+      </c>
+      <c r="B138" s="5"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="25"/>
+    </row>
+    <row r="139" spans="1:6" customFormat="1">
+      <c r="A139" s="2">
+        <v>138</v>
+      </c>
+      <c r="B139" s="5"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="25"/>
+      <c r="F139" s="7"/>
+    </row>
+    <row r="140" spans="1:6" customFormat="1">
+      <c r="A140" s="2">
+        <v>139</v>
+      </c>
+      <c r="B140" s="5"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="25"/>
+    </row>
+    <row r="141" spans="1:6" customFormat="1">
+      <c r="A141" s="2">
+        <v>140</v>
+      </c>
+      <c r="B141" s="5"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="25"/>
+      <c r="F141" s="7"/>
+    </row>
+    <row r="142" spans="1:6" customFormat="1">
+      <c r="A142" s="2">
+        <v>141</v>
+      </c>
+      <c r="B142" s="5"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="25"/>
+      <c r="F142" s="7"/>
+    </row>
+    <row r="143" spans="1:6" customFormat="1">
+      <c r="A143" s="2">
+        <v>142</v>
+      </c>
+      <c r="B143" s="5"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="25"/>
+      <c r="F143" s="7"/>
+    </row>
+    <row r="144" spans="1:6" customFormat="1">
+      <c r="A144" s="2">
+        <v>143</v>
+      </c>
+      <c r="B144" s="5"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="25"/>
+    </row>
+    <row r="145" spans="1:6" customFormat="1">
+      <c r="A145" s="2">
+        <v>144</v>
+      </c>
+      <c r="B145" s="5"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="25"/>
+      <c r="F145" s="7"/>
+    </row>
+    <row r="146" spans="1:6" customFormat="1">
+      <c r="A146" s="2">
+        <v>145</v>
+      </c>
+      <c r="B146" s="5"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="25"/>
+    </row>
+    <row r="147" spans="1:6" customFormat="1">
+      <c r="A147" s="2">
+        <v>146</v>
+      </c>
+      <c r="B147" s="5"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="25"/>
+    </row>
+    <row r="148" spans="1:6" customFormat="1">
+      <c r="A148" s="2">
+        <v>147</v>
+      </c>
+      <c r="B148" s="5"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="25"/>
+    </row>
+    <row r="149" spans="1:6" customFormat="1">
+      <c r="A149" s="2">
+        <v>148</v>
+      </c>
+      <c r="B149" s="5"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="25"/>
+    </row>
+    <row r="150" spans="1:6" customFormat="1">
+      <c r="A150" s="2">
+        <v>149</v>
+      </c>
+      <c r="B150" s="5"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="25"/>
+    </row>
+    <row r="151" spans="1:6" customFormat="1">
+      <c r="A151" s="2">
+        <v>150</v>
+      </c>
+      <c r="B151" s="5"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="25"/>
+    </row>
+    <row r="152" spans="1:6" customFormat="1">
+      <c r="A152" s="2">
+        <v>151</v>
+      </c>
+      <c r="B152" s="5"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="25"/>
+    </row>
+    <row r="153" spans="1:6" customFormat="1">
+      <c r="A153" s="2">
+        <v>152</v>
+      </c>
+      <c r="B153" s="5"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="25"/>
+    </row>
+    <row r="154" spans="1:6" customFormat="1">
+      <c r="A154" s="2">
+        <v>153</v>
+      </c>
+      <c r="B154" s="5"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="25"/>
+    </row>
+    <row r="155" spans="1:6" customFormat="1">
+      <c r="A155" s="2">
+        <v>154</v>
+      </c>
+      <c r="B155" s="5"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="25"/>
+    </row>
+    <row r="156" spans="1:6" customFormat="1">
+      <c r="A156" s="2">
+        <v>155</v>
+      </c>
+      <c r="B156" s="5"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="25"/>
+    </row>
+    <row r="157" spans="1:6" customFormat="1">
+      <c r="A157" s="2">
+        <v>156</v>
+      </c>
+      <c r="B157" s="5"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="25"/>
+    </row>
+    <row r="158" spans="1:6" customFormat="1">
+      <c r="A158" s="2">
+        <v>157</v>
+      </c>
+      <c r="B158" s="5"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="25"/>
+    </row>
+    <row r="159" spans="1:6" customFormat="1">
+      <c r="A159" s="2">
+        <v>158</v>
+      </c>
+      <c r="B159" s="5"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="25"/>
+    </row>
+    <row r="160" spans="1:6" customFormat="1">
+      <c r="A160" s="2">
+        <v>159</v>
+      </c>
+      <c r="B160" s="5"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="25"/>
+    </row>
+    <row r="161" spans="1:4" customFormat="1">
+      <c r="A161" s="2">
+        <v>160</v>
+      </c>
+      <c r="B161" s="5"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="25"/>
+    </row>
+    <row r="162" spans="1:4" customFormat="1">
+      <c r="A162" s="2">
+        <v>161</v>
+      </c>
+      <c r="B162" s="5"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="25"/>
+    </row>
+    <row r="163" spans="1:4" customFormat="1">
+      <c r="A163" s="2">
+        <v>162</v>
+      </c>
+      <c r="B163" s="5"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="25"/>
+    </row>
+    <row r="164" spans="1:4" customFormat="1">
+      <c r="A164" s="2">
+        <v>163</v>
+      </c>
+      <c r="B164" s="5"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="25"/>
+    </row>
+    <row r="165" spans="1:4" customFormat="1">
+      <c r="A165" s="2">
+        <v>164</v>
+      </c>
+      <c r="B165" s="5"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="25"/>
+    </row>
+    <row r="166" spans="1:4" customFormat="1">
+      <c r="A166" s="2">
+        <v>165</v>
+      </c>
+      <c r="B166" s="5"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="25"/>
+    </row>
+    <row r="167" spans="1:4" customFormat="1">
+      <c r="A167" s="2">
+        <v>166</v>
+      </c>
+      <c r="B167" s="5"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="25"/>
+    </row>
+    <row r="168" spans="1:4" customFormat="1">
+      <c r="A168" s="2">
+        <v>167</v>
+      </c>
+      <c r="B168" s="5"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="25"/>
+    </row>
+    <row r="169" spans="1:4" customFormat="1">
+      <c r="A169" s="2">
+        <v>168</v>
+      </c>
+      <c r="B169" s="5"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="25"/>
+    </row>
+    <row r="170" spans="1:4" customFormat="1">
+      <c r="A170" s="2">
+        <v>169</v>
+      </c>
+      <c r="B170" s="5"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="25"/>
+    </row>
+    <row r="171" spans="1:4" customFormat="1">
+      <c r="A171" s="2">
+        <v>170</v>
+      </c>
+      <c r="B171" s="5"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="25"/>
+    </row>
+    <row r="172" spans="1:4" customFormat="1">
+      <c r="A172" s="2">
+        <v>171</v>
+      </c>
+      <c r="B172" s="5"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="25"/>
+    </row>
+    <row r="173" spans="1:4" customFormat="1">
+      <c r="A173" s="2">
+        <v>172</v>
+      </c>
+      <c r="B173" s="5"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="25"/>
+    </row>
+    <row r="174" spans="1:4" customFormat="1">
+      <c r="A174" s="2">
+        <v>173</v>
+      </c>
+      <c r="B174" s="5"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="25"/>
+    </row>
+    <row r="175" spans="1:4" customFormat="1">
+      <c r="A175" s="2">
+        <v>174</v>
+      </c>
+      <c r="B175" s="5"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="25"/>
+    </row>
+    <row r="176" spans="1:4" customFormat="1">
+      <c r="A176" s="2">
+        <v>175</v>
+      </c>
+      <c r="B176" s="5"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="25"/>
+    </row>
+    <row r="177" spans="1:4" customFormat="1">
+      <c r="A177" s="2">
+        <v>176</v>
+      </c>
+      <c r="B177" s="5"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="25"/>
+    </row>
+    <row r="178" spans="1:4" customFormat="1">
+      <c r="A178" s="2">
+        <v>177</v>
+      </c>
+      <c r="B178" s="5"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="25"/>
+    </row>
+    <row r="179" spans="1:4" customFormat="1">
+      <c r="A179" s="2">
+        <v>178</v>
+      </c>
+      <c r="B179" s="5"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="25"/>
+    </row>
+    <row r="180" spans="1:4" customFormat="1">
+      <c r="A180" s="2">
+        <v>179</v>
+      </c>
+      <c r="B180" s="5"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="25"/>
+    </row>
+    <row r="181" spans="1:4" customFormat="1">
+      <c r="A181" s="2">
+        <v>180</v>
+      </c>
+      <c r="B181" s="5"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="25"/>
+    </row>
+    <row r="182" spans="1:4" customFormat="1">
+      <c r="A182" s="2">
+        <v>181</v>
+      </c>
+      <c r="B182" s="5"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="25"/>
+    </row>
+    <row r="183" spans="1:4" customFormat="1">
+      <c r="A183" s="2">
+        <v>182</v>
+      </c>
+      <c r="B183" s="5"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="25"/>
+    </row>
+    <row r="184" spans="1:4" customFormat="1">
+      <c r="A184" s="2">
+        <v>183</v>
+      </c>
+      <c r="B184" s="5"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="25"/>
+    </row>
+    <row r="185" spans="1:4" customFormat="1">
+      <c r="A185" s="2">
+        <v>184</v>
+      </c>
+      <c r="B185" s="5"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="25"/>
+    </row>
+    <row r="186" spans="1:4" customFormat="1">
+      <c r="A186" s="2">
+        <v>185</v>
+      </c>
+      <c r="B186" s="5"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="25"/>
+    </row>
+    <row r="187" spans="1:4" customFormat="1">
+      <c r="A187" s="2">
+        <v>186</v>
+      </c>
+      <c r="B187" s="5"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="25"/>
+    </row>
+    <row r="188" spans="1:4" customFormat="1">
+      <c r="A188" s="2">
+        <v>187</v>
+      </c>
+      <c r="B188" s="5"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="25"/>
+    </row>
+    <row r="189" spans="1:4" customFormat="1">
+      <c r="A189" s="2">
+        <v>188</v>
+      </c>
+      <c r="B189" s="5"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="25"/>
+    </row>
+    <row r="190" spans="1:4" customFormat="1">
+      <c r="A190" s="2">
+        <v>189</v>
+      </c>
+      <c r="B190" s="5"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="25"/>
+    </row>
+    <row r="191" spans="1:4" customFormat="1">
+      <c r="A191" s="2">
+        <v>190</v>
+      </c>
+      <c r="B191" s="5"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="25"/>
+    </row>
+    <row r="192" spans="1:4" customFormat="1">
+      <c r="A192" s="2">
+        <v>191</v>
+      </c>
+      <c r="B192" s="5"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="25"/>
+    </row>
+    <row r="193" spans="1:4" customFormat="1">
+      <c r="A193" s="2">
+        <v>192</v>
+      </c>
+      <c r="B193" s="5"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="25"/>
+    </row>
+    <row r="194" spans="1:4" customFormat="1">
+      <c r="A194" s="2">
+        <v>193</v>
+      </c>
+      <c r="B194" s="5"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="25"/>
+    </row>
+    <row r="195" spans="1:4" customFormat="1">
+      <c r="A195" s="2">
+        <v>194</v>
+      </c>
+      <c r="B195" s="5"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="25"/>
+    </row>
+    <row r="196" spans="1:4" customFormat="1">
+      <c r="A196" s="2">
+        <v>195</v>
+      </c>
+      <c r="B196" s="5"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="25"/>
+    </row>
+    <row r="197" spans="1:4" customFormat="1">
+      <c r="A197" s="2">
+        <v>196</v>
+      </c>
+      <c r="B197" s="5"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="25"/>
+    </row>
+    <row r="198" spans="1:4" customFormat="1">
+      <c r="A198" s="2">
+        <v>197</v>
+      </c>
+      <c r="B198" s="5"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="25"/>
+    </row>
+    <row r="199" spans="1:4" customFormat="1">
+      <c r="A199" s="2">
+        <v>198</v>
+      </c>
+      <c r="B199" s="5"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="25"/>
+    </row>
+    <row r="200" spans="1:4" customFormat="1">
+      <c r="A200" s="2">
+        <v>199</v>
+      </c>
+      <c r="B200" s="5"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="25"/>
+    </row>
+    <row r="201" spans="1:4" customFormat="1">
+      <c r="A201" s="2">
+        <v>200</v>
+      </c>
+      <c r="B201" s="5"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="25"/>
+    </row>
+    <row r="202" spans="1:4" customFormat="1">
+      <c r="A202" s="2">
+        <v>201</v>
+      </c>
+      <c r="B202" s="5"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="25"/>
+    </row>
+    <row r="203" spans="1:4" customFormat="1">
+      <c r="A203" s="2">
+        <v>202</v>
+      </c>
+      <c r="B203" s="5"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="25"/>
+    </row>
+    <row r="204" spans="1:4" customFormat="1">
+      <c r="A204" s="2">
+        <v>203</v>
+      </c>
+      <c r="B204" s="5"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="25"/>
+    </row>
+    <row r="205" spans="1:4" customFormat="1">
+      <c r="A205" s="2">
+        <v>204</v>
+      </c>
+      <c r="B205" s="5"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="25"/>
+    </row>
+    <row r="206" spans="1:4" customFormat="1">
+      <c r="A206" s="2">
+        <v>205</v>
+      </c>
+      <c r="B206" s="5"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="25"/>
+    </row>
+    <row r="207" spans="1:4" customFormat="1">
+      <c r="A207" s="2">
+        <v>206</v>
+      </c>
+      <c r="B207" s="5"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="25"/>
+    </row>
+    <row r="208" spans="1:4" customFormat="1">
+      <c r="A208" s="2">
+        <v>207</v>
+      </c>
+      <c r="B208" s="5"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="25"/>
+    </row>
+    <row r="209" spans="1:4" customFormat="1">
+      <c r="A209" s="2">
+        <v>208</v>
+      </c>
+      <c r="B209" s="5"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="25"/>
+    </row>
+    <row r="210" spans="1:4" customFormat="1">
+      <c r="A210" s="2">
+        <v>209</v>
+      </c>
+      <c r="B210" s="5"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="25"/>
+    </row>
+    <row r="211" spans="1:4" customFormat="1">
+      <c r="A211" s="2">
+        <v>210</v>
+      </c>
+      <c r="B211" s="5"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="25"/>
+    </row>
+    <row r="212" spans="1:4" customFormat="1">
+      <c r="A212" s="2">
+        <v>211</v>
+      </c>
+      <c r="B212" s="5"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="25"/>
+    </row>
+    <row r="213" spans="1:4" customFormat="1">
+      <c r="A213" s="2">
+        <v>212</v>
+      </c>
+      <c r="B213" s="5"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="25"/>
+    </row>
+    <row r="214" spans="1:4" customFormat="1">
+      <c r="A214" s="2">
+        <v>213</v>
+      </c>
+      <c r="B214" s="5"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="25"/>
+    </row>
+    <row r="215" spans="1:4" customFormat="1">
+      <c r="A215" s="2">
+        <v>214</v>
+      </c>
+      <c r="B215" s="5"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="25"/>
+    </row>
+    <row r="216" spans="1:4" customFormat="1">
+      <c r="A216" s="2">
+        <v>215</v>
+      </c>
+      <c r="B216" s="5"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="25"/>
+    </row>
+    <row r="217" spans="1:4" customFormat="1">
+      <c r="A217" s="2">
+        <v>216</v>
+      </c>
+      <c r="B217" s="5"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="25"/>
+    </row>
+    <row r="218" spans="1:4" customFormat="1">
+      <c r="A218" s="2">
+        <v>217</v>
+      </c>
+      <c r="B218" s="5"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="25"/>
+    </row>
+    <row r="219" spans="1:4" customFormat="1">
+      <c r="A219" s="2">
+        <v>218</v>
+      </c>
+      <c r="B219" s="5"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="25"/>
+    </row>
+    <row r="220" spans="1:4" customFormat="1">
+      <c r="A220" s="2">
+        <v>219</v>
+      </c>
+      <c r="B220" s="5"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="25"/>
+    </row>
+    <row r="221" spans="1:4" customFormat="1">
+      <c r="A221" s="2">
+        <v>220</v>
+      </c>
+      <c r="B221" s="5"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="25"/>
+    </row>
+    <row r="222" spans="1:4" customFormat="1">
+      <c r="A222" s="2">
+        <v>221</v>
+      </c>
+      <c r="B222" s="5"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="25"/>
+    </row>
+    <row r="223" spans="1:4" customFormat="1">
+      <c r="A223" s="2">
+        <v>222</v>
+      </c>
+      <c r="B223" s="5"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="25"/>
+    </row>
+    <row r="224" spans="1:4" customFormat="1">
+      <c r="A224" s="2">
+        <v>223</v>
+      </c>
+      <c r="B224" s="5"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="25"/>
+    </row>
+    <row r="225" spans="1:4" customFormat="1">
+      <c r="A225" s="2">
+        <v>224</v>
+      </c>
+      <c r="B225" s="5"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="25"/>
+    </row>
+    <row r="226" spans="1:4" customFormat="1">
+      <c r="A226" s="2">
+        <v>225</v>
+      </c>
+      <c r="B226" s="5"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="25"/>
+    </row>
+    <row r="227" spans="1:4" customFormat="1">
+      <c r="A227" s="2">
+        <v>226</v>
+      </c>
+      <c r="B227" s="5"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="25"/>
+    </row>
+    <row r="228" spans="1:4" customFormat="1">
+      <c r="A228" s="2">
+        <v>227</v>
+      </c>
+      <c r="B228" s="5"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="25"/>
+    </row>
+    <row r="229" spans="1:4" customFormat="1">
+      <c r="A229" s="2">
+        <v>228</v>
+      </c>
+      <c r="B229" s="5"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="25"/>
+    </row>
+    <row r="230" spans="1:4" customFormat="1">
+      <c r="A230" s="2">
+        <v>229</v>
+      </c>
+      <c r="B230" s="5"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="25"/>
+    </row>
+    <row r="231" spans="1:4" customFormat="1">
+      <c r="A231" s="2">
+        <v>230</v>
+      </c>
+      <c r="B231" s="5"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="25"/>
+    </row>
+    <row r="232" spans="1:4" customFormat="1">
+      <c r="A232" s="2">
+        <v>231</v>
+      </c>
+      <c r="B232" s="5"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="25"/>
+    </row>
+    <row r="233" spans="1:4" customFormat="1">
+      <c r="A233" s="2">
+        <v>232</v>
+      </c>
+      <c r="B233" s="5"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="25"/>
+    </row>
+    <row r="234" spans="1:4" customFormat="1">
+      <c r="A234" s="2">
+        <v>233</v>
+      </c>
+      <c r="B234" s="5"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="25"/>
+    </row>
+    <row r="235" spans="1:4" customFormat="1">
+      <c r="A235" s="2">
+        <v>234</v>
+      </c>
+      <c r="B235" s="5"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="25"/>
+    </row>
+    <row r="236" spans="1:4" customFormat="1">
+      <c r="A236" s="2">
+        <v>235</v>
+      </c>
+      <c r="B236" s="5"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="25"/>
+    </row>
+    <row r="237" spans="1:4" customFormat="1">
+      <c r="A237" s="2">
+        <v>236</v>
+      </c>
+      <c r="B237" s="5"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="25"/>
+    </row>
+    <row r="238" spans="1:4" customFormat="1">
+      <c r="A238" s="2">
+        <v>237</v>
+      </c>
+      <c r="B238" s="5"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="25"/>
+    </row>
+    <row r="239" spans="1:4" customFormat="1">
+      <c r="A239" s="2">
+        <v>238</v>
+      </c>
+      <c r="B239" s="5"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="25"/>
+    </row>
+    <row r="240" spans="1:4" customFormat="1">
+      <c r="A240" s="2">
+        <v>239</v>
+      </c>
+      <c r="B240" s="5"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="25"/>
+    </row>
+    <row r="241" spans="1:4" customFormat="1">
+      <c r="A241" s="2">
+        <v>240</v>
+      </c>
+      <c r="B241" s="5"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="25"/>
+    </row>
+    <row r="242" spans="1:4" customFormat="1">
+      <c r="A242" s="2">
+        <v>241</v>
+      </c>
+      <c r="B242" s="5"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="25"/>
+    </row>
+    <row r="243" spans="1:4" customFormat="1">
+      <c r="A243" s="2">
+        <v>242</v>
+      </c>
+      <c r="B243" s="5"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="25"/>
+    </row>
+    <row r="244" spans="1:4" customFormat="1">
+      <c r="A244" s="2">
+        <v>243</v>
+      </c>
+      <c r="B244" s="5"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="25"/>
+    </row>
+    <row r="245" spans="1:4" customFormat="1">
+      <c r="A245" s="2">
+        <v>244</v>
+      </c>
+      <c r="B245" s="5"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="25"/>
+    </row>
+    <row r="246" spans="1:4" customFormat="1">
+      <c r="A246" s="2">
+        <v>245</v>
+      </c>
+      <c r="B246" s="5"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="25"/>
+    </row>
+    <row r="247" spans="1:4" customFormat="1">
+      <c r="A247" s="2">
+        <v>246</v>
+      </c>
+      <c r="B247" s="5"/>
+      <c r="C247" s="2"/>
+      <c r="D247" s="25"/>
+    </row>
+    <row r="248" spans="1:4" customFormat="1">
+      <c r="A248" s="2">
+        <v>247</v>
+      </c>
+      <c r="B248" s="5"/>
+      <c r="C248" s="2"/>
+      <c r="D248" s="25"/>
+    </row>
+    <row r="249" spans="1:4" customFormat="1">
+      <c r="A249" s="2">
+        <v>248</v>
+      </c>
+      <c r="B249" s="5"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="25"/>
+    </row>
+    <row r="250" spans="1:4" customFormat="1">
+      <c r="A250" s="2">
+        <v>249</v>
+      </c>
+      <c r="B250" s="5"/>
+      <c r="C250" s="2"/>
+      <c r="D250" s="25"/>
+    </row>
+    <row r="251" spans="1:4" customFormat="1">
+      <c r="A251" s="2">
+        <v>250</v>
+      </c>
+      <c r="B251" s="5"/>
+      <c r="C251" s="2"/>
+      <c r="D251" s="25"/>
+    </row>
+    <row r="252" spans="1:4" customFormat="1">
+      <c r="A252" s="2">
+        <v>251</v>
+      </c>
+      <c r="B252" s="5"/>
+      <c r="C252" s="2"/>
+      <c r="D252" s="25"/>
+    </row>
+    <row r="253" spans="1:4" customFormat="1">
+      <c r="A253" s="2">
+        <v>252</v>
+      </c>
+      <c r="B253" s="5"/>
+      <c r="C253" s="2"/>
+      <c r="D253" s="25"/>
+    </row>
+    <row r="254" spans="1:4" customFormat="1">
+      <c r="A254" s="2">
+        <v>253</v>
+      </c>
+      <c r="B254" s="5"/>
+      <c r="C254" s="2"/>
+      <c r="D254" s="25"/>
+    </row>
+    <row r="255" spans="1:4" customFormat="1">
+      <c r="A255" s="2">
+        <v>254</v>
+      </c>
+      <c r="B255" s="5"/>
+      <c r="C255" s="2"/>
+      <c r="D255" s="25"/>
+    </row>
+    <row r="256" spans="1:4" customFormat="1">
+      <c r="A256" s="2">
+        <v>255</v>
+      </c>
+      <c r="B256" s="5"/>
+      <c r="C256" s="2"/>
+      <c r="D256" s="25"/>
+    </row>
+    <row r="257" spans="1:4" customFormat="1">
+      <c r="A257" s="2">
+        <v>256</v>
+      </c>
+      <c r="B257" s="5"/>
+      <c r="C257" s="2"/>
+      <c r="D257" s="25"/>
+    </row>
+    <row r="258" spans="1:4" customFormat="1">
+      <c r="A258" s="2">
+        <v>257</v>
+      </c>
+      <c r="B258" s="5"/>
+      <c r="C258" s="2"/>
+      <c r="D258" s="25"/>
+    </row>
+    <row r="259" spans="1:4" customFormat="1">
+      <c r="A259" s="2">
+        <v>258</v>
+      </c>
+      <c r="B259" s="5"/>
+      <c r="C259" s="2"/>
+      <c r="D259" s="25"/>
+    </row>
+    <row r="260" spans="1:4" customFormat="1">
+      <c r="A260" s="2">
+        <v>259</v>
+      </c>
+      <c r="B260" s="5"/>
+      <c r="C260" s="2"/>
+      <c r="D260" s="25"/>
+    </row>
+    <row r="261" spans="1:4" customFormat="1">
+      <c r="A261" s="2">
+        <v>260</v>
+      </c>
+      <c r="B261" s="5"/>
+      <c r="C261" s="2"/>
+      <c r="D261" s="25"/>
+    </row>
+    <row r="262" spans="1:4" customFormat="1">
+      <c r="A262" s="2">
+        <v>261</v>
+      </c>
+      <c r="B262" s="5"/>
+      <c r="C262" s="2"/>
+      <c r="D262" s="25"/>
+    </row>
+    <row r="263" spans="1:4" customFormat="1">
+      <c r="A263" s="2">
+        <v>262</v>
+      </c>
+      <c r="B263" s="5"/>
+      <c r="C263" s="2"/>
+      <c r="D263" s="25"/>
+    </row>
+    <row r="264" spans="1:4" customFormat="1">
+      <c r="A264" s="2">
+        <v>263</v>
+      </c>
+      <c r="B264" s="5"/>
+      <c r="C264" s="2"/>
+      <c r="D264" s="25"/>
+    </row>
+    <row r="265" spans="1:4" customFormat="1">
+      <c r="A265" s="2">
+        <v>264</v>
+      </c>
+      <c r="B265" s="5"/>
+      <c r="C265" s="2"/>
+      <c r="D265" s="25"/>
+    </row>
+    <row r="266" spans="1:4" customFormat="1">
+      <c r="A266" s="2">
+        <v>265</v>
+      </c>
+      <c r="B266" s="5"/>
+      <c r="C266" s="2"/>
+      <c r="D266" s="25"/>
+    </row>
+    <row r="267" spans="1:4" customFormat="1">
+      <c r="A267" s="2">
+        <v>266</v>
+      </c>
+      <c r="B267" s="5"/>
+      <c r="C267" s="2"/>
+      <c r="D267" s="25"/>
+    </row>
+    <row r="268" spans="1:4" customFormat="1">
+      <c r="A268" s="2">
+        <v>267</v>
+      </c>
+      <c r="B268" s="5"/>
+      <c r="C268" s="2"/>
+      <c r="D268" s="25"/>
+    </row>
+    <row r="269" spans="1:4" customFormat="1">
+      <c r="A269" s="2">
+        <v>268</v>
+      </c>
+      <c r="B269" s="5"/>
+      <c r="C269" s="2"/>
+      <c r="D269" s="25"/>
+    </row>
+    <row r="270" spans="1:4" customFormat="1">
+      <c r="A270" s="2">
+        <v>269</v>
+      </c>
+      <c r="B270" s="5"/>
+      <c r="C270" s="2"/>
+      <c r="D270" s="25"/>
+    </row>
+    <row r="271" spans="1:4" customFormat="1">
+      <c r="A271" s="2">
+        <v>270</v>
+      </c>
+      <c r="B271" s="5"/>
+      <c r="C271" s="2"/>
+      <c r="D271" s="25"/>
+    </row>
+    <row r="272" spans="1:4" customFormat="1">
+      <c r="A272" s="2">
+        <v>271</v>
+      </c>
+      <c r="B272" s="5"/>
+      <c r="C272" s="2"/>
+      <c r="D272" s="25"/>
+    </row>
+    <row r="273" spans="1:4" customFormat="1">
+      <c r="A273" s="2">
+        <v>272</v>
+      </c>
+      <c r="B273" s="5"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="25"/>
+    </row>
+    <row r="274" spans="1:4" customFormat="1">
+      <c r="A274" s="2">
+        <v>273</v>
+      </c>
+      <c r="B274" s="5"/>
+      <c r="C274" s="2"/>
+      <c r="D274" s="25"/>
+    </row>
+    <row r="275" spans="1:4" customFormat="1">
+      <c r="A275" s="2">
+        <v>274</v>
+      </c>
+      <c r="B275" s="5"/>
+      <c r="C275" s="2"/>
+      <c r="D275" s="25"/>
+    </row>
+    <row r="276" spans="1:4" customFormat="1">
+      <c r="A276" s="2">
+        <v>275</v>
+      </c>
+      <c r="B276" s="5"/>
+      <c r="C276" s="2"/>
+      <c r="D276" s="25"/>
+    </row>
+    <row r="277" spans="1:4" customFormat="1">
+      <c r="A277" s="2">
+        <v>276</v>
+      </c>
+      <c r="B277" s="5"/>
+      <c r="C277" s="2"/>
+      <c r="D277" s="25"/>
+    </row>
+    <row r="278" spans="1:4" customFormat="1">
+      <c r="A278" s="2">
+        <v>277</v>
+      </c>
+      <c r="B278" s="5"/>
+      <c r="C278" s="2"/>
+      <c r="D278" s="25"/>
+    </row>
+    <row r="279" spans="1:4" customFormat="1">
+      <c r="A279" s="2">
+        <v>278</v>
+      </c>
+      <c r="B279" s="5"/>
+      <c r="C279" s="2"/>
+      <c r="D279" s="25"/>
+    </row>
+    <row r="280" spans="1:4" customFormat="1">
+      <c r="A280" s="2">
+        <v>279</v>
+      </c>
+      <c r="B280" s="5"/>
+      <c r="C280" s="2"/>
+      <c r="D280" s="25"/>
+    </row>
+    <row r="281" spans="1:4" customFormat="1">
+      <c r="A281" s="2">
+        <v>280</v>
+      </c>
+      <c r="B281" s="5"/>
+      <c r="C281" s="2"/>
+      <c r="D281" s="25"/>
+    </row>
+    <row r="282" spans="1:4" customFormat="1">
+      <c r="A282" s="2">
+        <v>281</v>
+      </c>
+      <c r="B282" s="5"/>
+      <c r="C282" s="2"/>
+      <c r="D282" s="25"/>
+    </row>
+    <row r="283" spans="1:4" customFormat="1">
+      <c r="A283" s="2">
+        <v>282</v>
+      </c>
+      <c r="B283" s="5"/>
+      <c r="C283" s="2"/>
+      <c r="D283" s="25"/>
+    </row>
+    <row r="284" spans="1:4" customFormat="1">
+      <c r="A284" s="2">
+        <v>283</v>
+      </c>
+      <c r="B284" s="5"/>
+      <c r="C284" s="2"/>
+      <c r="D284" s="25"/>
+    </row>
+    <row r="285" spans="1:4" customFormat="1">
+      <c r="A285" s="2">
+        <v>284</v>
+      </c>
+      <c r="B285" s="5"/>
+      <c r="C285" s="2"/>
+      <c r="D285" s="25"/>
+    </row>
+    <row r="286" spans="1:4" customFormat="1">
+      <c r="A286" s="2">
+        <v>285</v>
+      </c>
+      <c r="B286" s="5"/>
+      <c r="C286" s="2"/>
+      <c r="D286" s="25"/>
+    </row>
+    <row r="287" spans="1:4" customFormat="1">
+      <c r="A287" s="2">
+        <v>286</v>
+      </c>
+      <c r="B287" s="5"/>
+      <c r="C287" s="2"/>
+      <c r="D287" s="25"/>
+    </row>
+    <row r="288" spans="1:4" customFormat="1">
+      <c r="A288" s="2">
+        <v>287</v>
+      </c>
+      <c r="B288" s="5"/>
+      <c r="C288" s="2"/>
+      <c r="D288" s="25"/>
+    </row>
+    <row r="289" spans="1:4" customFormat="1">
+      <c r="A289" s="2">
+        <v>288</v>
+      </c>
+      <c r="B289" s="5"/>
+      <c r="C289" s="2"/>
+      <c r="D289" s="25"/>
+    </row>
+    <row r="290" spans="1:4" customFormat="1">
+      <c r="A290" s="2">
+        <v>289</v>
+      </c>
+      <c r="B290" s="5"/>
+      <c r="C290" s="2"/>
+      <c r="D290" s="25"/>
+    </row>
+    <row r="291" spans="1:4" customFormat="1">
+      <c r="A291" s="2">
+        <v>290</v>
+      </c>
+      <c r="B291" s="5"/>
+      <c r="C291" s="2"/>
+      <c r="D291" s="25"/>
+    </row>
+    <row r="292" spans="1:4" customFormat="1">
+      <c r="A292" s="2">
+        <v>291</v>
+      </c>
+      <c r="B292" s="5"/>
+      <c r="C292" s="2"/>
+      <c r="D292" s="25"/>
+    </row>
+    <row r="293" spans="1:4" customFormat="1">
+      <c r="A293" s="2">
+        <v>292</v>
+      </c>
+      <c r="B293" s="5"/>
+      <c r="C293" s="2"/>
+      <c r="D293" s="25"/>
+    </row>
+    <row r="294" spans="1:4" customFormat="1">
+      <c r="A294" s="2">
+        <v>293</v>
+      </c>
+      <c r="B294" s="5"/>
+      <c r="C294" s="2"/>
+      <c r="D294" s="25"/>
+    </row>
+    <row r="295" spans="1:4" customFormat="1">
+      <c r="A295" s="2">
+        <v>294</v>
+      </c>
+      <c r="B295" s="5"/>
+      <c r="C295" s="2"/>
+      <c r="D295" s="25"/>
+    </row>
+    <row r="296" spans="1:4" customFormat="1">
+      <c r="A296" s="2">
+        <v>295</v>
+      </c>
+      <c r="B296" s="5"/>
+      <c r="C296" s="2"/>
+      <c r="D296" s="25"/>
+    </row>
+    <row r="297" spans="1:4" customFormat="1">
+      <c r="A297" s="2">
+        <v>296</v>
+      </c>
+      <c r="B297" s="5"/>
+      <c r="C297" s="2"/>
+      <c r="D297" s="25"/>
+    </row>
+    <row r="298" spans="1:4" customFormat="1">
+      <c r="A298" s="2">
+        <v>297</v>
+      </c>
+      <c r="B298" s="5"/>
+      <c r="C298" s="2"/>
+      <c r="D298" s="25"/>
+    </row>
+    <row r="299" spans="1:4" customFormat="1">
+      <c r="A299" s="2">
+        <v>298</v>
+      </c>
+      <c r="B299" s="5"/>
+      <c r="C299" s="2"/>
+      <c r="D299" s="25"/>
+    </row>
+    <row r="300" spans="1:4" customFormat="1">
+      <c r="A300" s="2">
+        <v>299</v>
+      </c>
+      <c r="B300" s="5"/>
+      <c r="C300" s="2"/>
+      <c r="D300" s="25"/>
+    </row>
+    <row r="301" spans="1:4" customFormat="1">
+      <c r="A301" s="2">
+        <v>300</v>
+      </c>
+      <c r="B301" s="5"/>
+      <c r="C301" s="2"/>
+      <c r="D301" s="25"/>
+    </row>
+    <row r="302" spans="1:4" customFormat="1">
+      <c r="A302" s="2">
+        <v>301</v>
+      </c>
+      <c r="B302" s="5"/>
+      <c r="C302" s="2"/>
+      <c r="D302" s="25"/>
+    </row>
+    <row r="303" spans="1:4" customFormat="1">
+      <c r="A303" s="2">
+        <v>302</v>
+      </c>
+      <c r="B303" s="5"/>
+      <c r="C303" s="2"/>
+      <c r="D303" s="25"/>
+    </row>
+    <row r="304" spans="1:4" customFormat="1">
+      <c r="A304" s="2">
+        <v>303</v>
+      </c>
+      <c r="B304" s="5"/>
+      <c r="C304" s="2"/>
+      <c r="D304" s="25"/>
+    </row>
+    <row r="305" spans="1:4" customFormat="1">
+      <c r="A305" s="2">
+        <v>304</v>
+      </c>
+      <c r="B305" s="5"/>
+      <c r="C305" s="2"/>
+      <c r="D305" s="25"/>
+    </row>
+    <row r="306" spans="1:4" customFormat="1">
+      <c r="A306" s="2">
+        <v>305</v>
+      </c>
+      <c r="B306" s="5"/>
+      <c r="C306" s="2"/>
+      <c r="D306" s="25"/>
+    </row>
+    <row r="307" spans="1:4" customFormat="1">
+      <c r="A307" s="2">
+        <v>306</v>
+      </c>
+      <c r="B307" s="5"/>
+      <c r="C307" s="2"/>
+      <c r="D307" s="25"/>
+    </row>
+    <row r="308" spans="1:4" customFormat="1">
+      <c r="A308" s="2">
+        <v>307</v>
+      </c>
+      <c r="B308" s="5"/>
+      <c r="C308" s="2"/>
+      <c r="D308" s="25"/>
+    </row>
+    <row r="309" spans="1:4" customFormat="1">
+      <c r="A309" s="2">
+        <v>308</v>
+      </c>
+      <c r="B309" s="5"/>
+      <c r="C309" s="2"/>
+      <c r="D309" s="25"/>
+    </row>
+    <row r="310" spans="1:4" customFormat="1">
+      <c r="A310" s="2">
+        <v>309</v>
+      </c>
+      <c r="B310" s="5"/>
+      <c r="C310" s="2"/>
+      <c r="D310" s="25"/>
+    </row>
+    <row r="311" spans="1:4" customFormat="1">
+      <c r="A311" s="2">
+        <v>310</v>
+      </c>
+      <c r="B311" s="5"/>
+      <c r="C311" s="2"/>
+      <c r="D311" s="25"/>
+    </row>
+    <row r="312" spans="1:4" customFormat="1">
+      <c r="A312" s="2">
+        <v>311</v>
+      </c>
+      <c r="B312" s="5"/>
+      <c r="C312" s="2"/>
+      <c r="D312" s="25"/>
+    </row>
+    <row r="313" spans="1:4" customFormat="1">
+      <c r="A313" s="2">
+        <v>312</v>
+      </c>
+      <c r="B313" s="5"/>
+      <c r="C313" s="2"/>
+      <c r="D313" s="25"/>
+    </row>
+    <row r="314" spans="1:4" customFormat="1">
+      <c r="A314" s="2">
+        <v>313</v>
+      </c>
+      <c r="B314" s="5"/>
+      <c r="C314" s="2"/>
+      <c r="D314" s="25"/>
+    </row>
+    <row r="315" spans="1:4" customFormat="1">
+      <c r="A315" s="2">
+        <v>314</v>
+      </c>
+      <c r="B315" s="5"/>
+      <c r="C315" s="2"/>
+      <c r="D315" s="25"/>
+    </row>
+    <row r="316" spans="1:4" customFormat="1">
+      <c r="A316" s="2">
+        <v>315</v>
+      </c>
+      <c r="B316" s="5"/>
+      <c r="C316" s="2"/>
+      <c r="D316" s="25"/>
+    </row>
+    <row r="317" spans="1:4" customFormat="1">
+      <c r="A317" s="2">
+        <v>316</v>
+      </c>
+      <c r="B317" s="5"/>
+      <c r="C317" s="2"/>
+      <c r="D317" s="25"/>
+    </row>
+    <row r="318" spans="1:4" customFormat="1">
+      <c r="A318" s="2">
+        <v>317</v>
+      </c>
+      <c r="B318" s="5"/>
+      <c r="C318" s="2"/>
+      <c r="D318" s="25"/>
+    </row>
+    <row r="319" spans="1:4" customFormat="1">
+      <c r="A319" s="2">
+        <v>318</v>
+      </c>
+      <c r="B319" s="5"/>
+      <c r="C319" s="2"/>
+      <c r="D319" s="25"/>
+    </row>
+    <row r="320" spans="1:4" customFormat="1">
+      <c r="A320" s="2">
+        <v>319</v>
+      </c>
+      <c r="B320" s="5"/>
+      <c r="C320" s="2"/>
+      <c r="D320" s="25"/>
+    </row>
+    <row r="321" spans="1:4" customFormat="1">
+      <c r="A321" s="2">
+        <v>320</v>
+      </c>
+      <c r="B321" s="5"/>
+      <c r="C321" s="2"/>
+      <c r="D321" s="25"/>
+    </row>
+    <row r="322" spans="1:4" customFormat="1">
+      <c r="A322" s="2">
+        <v>321</v>
+      </c>
+      <c r="B322" s="5"/>
+      <c r="C322" s="2"/>
+      <c r="D322" s="25"/>
+    </row>
+    <row r="323" spans="1:4" customFormat="1">
+      <c r="A323" s="2">
+        <v>322</v>
+      </c>
+      <c r="B323" s="5"/>
+      <c r="C323" s="2"/>
+      <c r="D323" s="25"/>
+    </row>
+    <row r="324" spans="1:4" customFormat="1">
+      <c r="A324" s="2">
+        <v>323</v>
+      </c>
+      <c r="B324" s="5"/>
+      <c r="C324" s="2"/>
+      <c r="D324" s="25"/>
+    </row>
+    <row r="325" spans="1:4" customFormat="1">
+      <c r="A325" s="2">
+        <v>324</v>
+      </c>
+      <c r="B325" s="5"/>
+      <c r="C325" s="2"/>
+      <c r="D325" s="25"/>
+    </row>
+    <row r="326" spans="1:4" customFormat="1">
+      <c r="A326" s="2">
+        <v>325</v>
+      </c>
+      <c r="B326" s="5"/>
+      <c r="C326" s="2"/>
+      <c r="D326" s="25"/>
+    </row>
+    <row r="327" spans="1:4" customFormat="1">
+      <c r="A327" s="2">
+        <v>326</v>
+      </c>
+      <c r="B327" s="5"/>
+      <c r="C327" s="2"/>
+      <c r="D327" s="25"/>
+    </row>
+    <row r="328" spans="1:4" customFormat="1">
+      <c r="A328" s="2">
+        <v>327</v>
+      </c>
+      <c r="B328" s="5"/>
+      <c r="C328" s="2"/>
+      <c r="D328" s="25"/>
+    </row>
+    <row r="329" spans="1:4" customFormat="1">
+      <c r="A329" s="2">
+        <v>328</v>
+      </c>
+      <c r="B329" s="5"/>
+      <c r="C329" s="2"/>
+      <c r="D329" s="25"/>
+    </row>
+    <row r="330" spans="1:4" customFormat="1">
+      <c r="A330" s="2">
+        <v>329</v>
+      </c>
+      <c r="B330" s="5"/>
+      <c r="C330" s="2"/>
+      <c r="D330" s="25"/>
+    </row>
+    <row r="331" spans="1:4" customFormat="1">
+      <c r="A331" s="2">
+        <v>330</v>
+      </c>
+      <c r="B331" s="5"/>
+      <c r="C331" s="2"/>
+      <c r="D331" s="25"/>
+    </row>
+    <row r="332" spans="1:4" customFormat="1">
+      <c r="A332" s="2">
+        <v>331</v>
+      </c>
+      <c r="B332" s="5"/>
+      <c r="C332" s="2"/>
+      <c r="D332" s="25"/>
+    </row>
+    <row r="333" spans="1:4" customFormat="1">
+      <c r="A333" s="2">
+        <v>332</v>
+      </c>
+      <c r="B333" s="5"/>
+      <c r="C333" s="2"/>
+      <c r="D333" s="25"/>
+    </row>
+    <row r="334" spans="1:4" customFormat="1">
+      <c r="A334" s="2">
+        <v>333</v>
+      </c>
+      <c r="B334" s="5"/>
+      <c r="C334" s="2"/>
+      <c r="D334" s="25"/>
+    </row>
+    <row r="335" spans="1:4" customFormat="1">
+      <c r="A335" s="2">
+        <v>334</v>
+      </c>
+      <c r="B335" s="5"/>
+      <c r="C335" s="2"/>
+      <c r="D335" s="25"/>
+    </row>
+    <row r="336" spans="1:4" customFormat="1">
+      <c r="A336" s="2">
+        <v>335</v>
+      </c>
+      <c r="B336" s="5"/>
+      <c r="C336" s="2"/>
+      <c r="D336" s="25"/>
+    </row>
+    <row r="337" spans="1:4" customFormat="1">
+      <c r="A337" s="2">
+        <v>336</v>
+      </c>
+      <c r="B337" s="5"/>
+      <c r="C337" s="2"/>
+      <c r="D337" s="25"/>
+    </row>
+    <row r="338" spans="1:4" customFormat="1">
+      <c r="A338" s="2">
+        <v>337</v>
+      </c>
+      <c r="B338" s="5"/>
+      <c r="C338" s="2"/>
+      <c r="D338" s="25"/>
+    </row>
+    <row r="339" spans="1:4" customFormat="1">
+      <c r="A339" s="2">
+        <v>338</v>
+      </c>
+      <c r="B339" s="5"/>
+      <c r="C339" s="2"/>
+      <c r="D339" s="25"/>
+    </row>
+    <row r="340" spans="1:4" customFormat="1">
+      <c r="A340" s="2">
+        <v>339</v>
+      </c>
+      <c r="B340" s="5"/>
+      <c r="C340" s="2"/>
+      <c r="D340" s="25"/>
+    </row>
+    <row r="341" spans="1:4" customFormat="1">
+      <c r="A341" s="2">
+        <v>340</v>
+      </c>
+      <c r="B341" s="5"/>
+      <c r="C341" s="2"/>
+      <c r="D341" s="25"/>
+    </row>
+    <row r="342" spans="1:4" customFormat="1">
+      <c r="A342" s="2">
+        <v>341</v>
+      </c>
+      <c r="B342" s="5"/>
+      <c r="C342" s="2"/>
+      <c r="D342" s="25"/>
+    </row>
+    <row r="343" spans="1:4" customFormat="1">
+      <c r="A343" s="2">
+        <v>342</v>
+      </c>
+      <c r="B343" s="5"/>
+      <c r="C343" s="2"/>
+      <c r="D343" s="25"/>
+    </row>
+    <row r="344" spans="1:4" customFormat="1">
+      <c r="A344" s="2">
+        <v>343</v>
+      </c>
+      <c r="B344" s="5"/>
+      <c r="C344" s="2"/>
+      <c r="D344" s="25"/>
+    </row>
+    <row r="345" spans="1:4" customFormat="1">
+      <c r="A345" s="2">
+        <v>344</v>
+      </c>
+      <c r="B345" s="5"/>
+      <c r="C345" s="2"/>
+      <c r="D345" s="25"/>
+    </row>
+    <row r="346" spans="1:4" customFormat="1">
+      <c r="A346" s="2">
+        <v>345</v>
+      </c>
+      <c r="B346" s="5"/>
+      <c r="C346" s="2"/>
+      <c r="D346" s="25"/>
+    </row>
+    <row r="347" spans="1:4" customFormat="1">
+      <c r="A347" s="2">
+        <v>346</v>
+      </c>
+      <c r="B347" s="5"/>
+      <c r="C347" s="2"/>
+      <c r="D347" s="25"/>
+    </row>
+    <row r="348" spans="1:4" customFormat="1">
+      <c r="A348" s="2">
+        <v>347</v>
+      </c>
+      <c r="B348" s="5"/>
+      <c r="C348" s="2"/>
+      <c r="D348" s="25"/>
+    </row>
+    <row r="349" spans="1:4" customFormat="1">
+      <c r="A349" s="2">
+        <v>348</v>
+      </c>
+      <c r="B349" s="5"/>
+      <c r="C349" s="2"/>
+      <c r="D349" s="25"/>
+    </row>
+    <row r="350" spans="1:4" customFormat="1">
+      <c r="A350" s="2">
+        <v>349</v>
+      </c>
+      <c r="B350" s="5"/>
+      <c r="C350" s="2"/>
+      <c r="D350" s="25"/>
+    </row>
+    <row r="351" spans="1:4" customFormat="1">
+      <c r="A351" s="2">
+        <v>350</v>
+      </c>
+      <c r="B351" s="5"/>
+      <c r="C351" s="2"/>
+      <c r="D351" s="25"/>
+    </row>
+    <row r="352" spans="1:4" customFormat="1">
+      <c r="A352" s="2">
+        <v>351</v>
+      </c>
+      <c r="B352" s="5"/>
+      <c r="C352" s="2"/>
+      <c r="D352" s="25"/>
+    </row>
+    <row r="353" spans="1:4" customFormat="1">
+      <c r="A353" s="2">
+        <v>352</v>
+      </c>
+      <c r="B353" s="5"/>
+      <c r="C353" s="2"/>
+      <c r="D353" s="25"/>
+    </row>
+    <row r="354" spans="1:4" customFormat="1">
+      <c r="A354" s="2">
+        <v>353</v>
+      </c>
+      <c r="B354" s="5"/>
+      <c r="C354" s="2"/>
+      <c r="D354" s="25"/>
+    </row>
+    <row r="355" spans="1:4" customFormat="1">
+      <c r="A355" s="2">
+        <v>354</v>
+      </c>
+      <c r="B355" s="5"/>
+      <c r="C355" s="2"/>
+      <c r="D355" s="25"/>
+    </row>
+    <row r="356" spans="1:4" customFormat="1">
+      <c r="A356" s="2">
+        <v>355</v>
+      </c>
+      <c r="B356" s="5"/>
+      <c r="C356" s="2"/>
+      <c r="D356" s="25"/>
+    </row>
+    <row r="357" spans="1:4" customFormat="1">
+      <c r="A357" s="2">
+        <v>356</v>
+      </c>
+      <c r="B357" s="5"/>
+      <c r="C357" s="2"/>
+      <c r="D357" s="25"/>
+    </row>
+    <row r="358" spans="1:4" customFormat="1">
+      <c r="A358" s="2">
+        <v>357</v>
+      </c>
+      <c r="B358" s="5"/>
+      <c r="C358" s="2"/>
+      <c r="D358" s="25"/>
+    </row>
+    <row r="359" spans="1:4" customFormat="1">
+      <c r="A359" s="2">
+        <v>358</v>
+      </c>
+      <c r="B359" s="5"/>
+      <c r="C359" s="2"/>
+      <c r="D359" s="25"/>
+    </row>
+    <row r="360" spans="1:4" customFormat="1">
+      <c r="A360" s="2">
+        <v>359</v>
+      </c>
+      <c r="B360" s="5"/>
+      <c r="C360" s="2"/>
+      <c r="D360" s="25"/>
+    </row>
+    <row r="361" spans="1:4" customFormat="1">
+      <c r="A361" s="2">
+        <v>360</v>
+      </c>
+      <c r="B361" s="5"/>
+      <c r="C361" s="2"/>
+      <c r="D361" s="25"/>
+    </row>
+    <row r="362" spans="1:4" customFormat="1">
+      <c r="A362" s="2">
+        <v>361</v>
+      </c>
+      <c r="B362" s="5"/>
+      <c r="C362" s="2"/>
+      <c r="D362" s="25"/>
+    </row>
+    <row r="363" spans="1:4" customFormat="1">
+      <c r="A363" s="2">
+        <v>362</v>
+      </c>
+      <c r="B363" s="5"/>
+      <c r="C363" s="2"/>
+      <c r="D363" s="25"/>
+    </row>
+    <row r="364" spans="1:4" customFormat="1">
+      <c r="A364" s="2">
+        <v>363</v>
+      </c>
+      <c r="B364" s="5"/>
+      <c r="C364" s="2"/>
+      <c r="D364" s="25"/>
+    </row>
+    <row r="365" spans="1:4" customFormat="1">
+      <c r="A365" s="2">
+        <v>364</v>
+      </c>
+      <c r="B365" s="5"/>
+      <c r="C365" s="2"/>
+      <c r="D365" s="25"/>
+    </row>
+    <row r="366" spans="1:4" customFormat="1">
+      <c r="A366" s="2">
+        <v>365</v>
+      </c>
+      <c r="B366" s="5"/>
+      <c r="C366" s="2"/>
+      <c r="D366" s="25"/>
+    </row>
+    <row r="367" spans="1:4" customFormat="1">
+      <c r="A367" s="2">
+        <v>366</v>
+      </c>
+      <c r="B367" s="5"/>
+      <c r="C367" s="2"/>
+      <c r="D367" s="25"/>
+    </row>
+    <row r="368" spans="1:4" customFormat="1">
+      <c r="A368" s="2">
+        <v>367</v>
+      </c>
+      <c r="B368" s="5"/>
+      <c r="C368" s="2"/>
+      <c r="D368" s="25"/>
+    </row>
+    <row r="369" spans="1:4" customFormat="1">
+      <c r="A369" s="2">
+        <v>368</v>
+      </c>
+      <c r="B369" s="5"/>
+      <c r="C369" s="2"/>
+      <c r="D369" s="25"/>
+    </row>
+    <row r="370" spans="1:4" customFormat="1">
+      <c r="A370" s="2">
+        <v>369</v>
+      </c>
+      <c r="B370" s="5"/>
+      <c r="C370" s="2"/>
+      <c r="D370" s="25"/>
+    </row>
+    <row r="371" spans="1:4" customFormat="1">
+      <c r="A371" s="2">
+        <v>370</v>
+      </c>
+      <c r="B371" s="5"/>
+      <c r="C371" s="2"/>
+      <c r="D371" s="25"/>
+    </row>
+    <row r="372" spans="1:4" customFormat="1">
+      <c r="A372" s="2">
+        <v>371</v>
+      </c>
+      <c r="B372" s="5"/>
+      <c r="C372" s="2"/>
+      <c r="D372" s="25"/>
+    </row>
+    <row r="373" spans="1:4" customFormat="1">
+      <c r="A373" s="2">
+        <v>372</v>
+      </c>
+      <c r="B373" s="5"/>
+      <c r="C373" s="2"/>
+      <c r="D373" s="25"/>
+    </row>
+    <row r="374" spans="1:4" customFormat="1">
+      <c r="A374" s="2">
+        <v>373</v>
+      </c>
+      <c r="B374" s="5"/>
+      <c r="C374" s="2"/>
+      <c r="D374" s="25"/>
+    </row>
+    <row r="375" spans="1:4" customFormat="1">
+      <c r="A375" s="2">
+        <v>374</v>
+      </c>
+      <c r="B375" s="5"/>
+      <c r="C375" s="2"/>
+      <c r="D375" s="25"/>
+    </row>
+    <row r="376" spans="1:4" customFormat="1">
+      <c r="A376" s="2">
+        <v>375</v>
+      </c>
+      <c r="B376" s="5"/>
+      <c r="C376" s="2"/>
+      <c r="D376" s="25"/>
+    </row>
+    <row r="377" spans="1:4" customFormat="1">
+      <c r="A377" s="2">
+        <v>376</v>
+      </c>
+      <c r="B377" s="5"/>
+      <c r="C377" s="2"/>
+      <c r="D377" s="25"/>
+    </row>
+    <row r="378" spans="1:4" customFormat="1">
+      <c r="A378" s="2">
+        <v>377</v>
+      </c>
+      <c r="B378" s="5"/>
+      <c r="C378" s="2"/>
+      <c r="D378" s="25"/>
+    </row>
+    <row r="379" spans="1:4" customFormat="1">
+      <c r="A379" s="2">
+        <v>378</v>
+      </c>
+      <c r="B379" s="5"/>
+      <c r="C379" s="2"/>
+      <c r="D379" s="25"/>
+    </row>
+    <row r="380" spans="1:4" customFormat="1">
+      <c r="A380" s="2">
+        <v>379</v>
+      </c>
+      <c r="B380" s="5"/>
+      <c r="C380" s="2"/>
+      <c r="D380" s="25"/>
+    </row>
+    <row r="381" spans="1:4" customFormat="1">
+      <c r="A381" s="2">
+        <v>380</v>
+      </c>
+      <c r="B381" s="5"/>
+      <c r="C381" s="2"/>
+      <c r="D381" s="25"/>
+    </row>
+    <row r="382" spans="1:4" customFormat="1">
+      <c r="A382" s="2">
+        <v>381</v>
+      </c>
+      <c r="B382" s="5"/>
+      <c r="C382" s="2"/>
+      <c r="D382" s="25"/>
+    </row>
+    <row r="383" spans="1:4" customFormat="1">
+      <c r="A383" s="2">
+        <v>382</v>
+      </c>
+      <c r="B383" s="5"/>
+      <c r="C383" s="2"/>
+      <c r="D383" s="25"/>
+    </row>
+    <row r="384" spans="1:4" customFormat="1">
+      <c r="A384" s="2">
+        <v>383</v>
+      </c>
+      <c r="B384" s="5"/>
+      <c r="C384" s="2"/>
+      <c r="D384" s="25"/>
+    </row>
+    <row r="385" spans="1:4" customFormat="1">
+      <c r="A385" s="2">
+        <v>384</v>
+      </c>
+      <c r="B385" s="5"/>
+      <c r="C385" s="2"/>
+      <c r="D385" s="25"/>
+    </row>
+    <row r="386" spans="1:4" customFormat="1">
+      <c r="A386" s="2">
+        <v>385</v>
+      </c>
+      <c r="B386" s="5"/>
+      <c r="C386" s="2"/>
+      <c r="D386" s="25"/>
+    </row>
+    <row r="387" spans="1:4" customFormat="1">
+      <c r="A387" s="2">
+        <v>386</v>
+      </c>
+      <c r="B387" s="5"/>
+      <c r="C387" s="2"/>
+      <c r="D387" s="25"/>
+    </row>
+    <row r="388" spans="1:4" customFormat="1">
+      <c r="A388" s="2">
+        <v>387</v>
+      </c>
+      <c r="B388" s="5"/>
+      <c r="C388" s="2"/>
+      <c r="D388" s="25"/>
+    </row>
+    <row r="389" spans="1:4" customFormat="1">
+      <c r="A389" s="2">
+        <v>388</v>
+      </c>
+      <c r="B389" s="5"/>
+      <c r="C389" s="2"/>
+      <c r="D389" s="25"/>
+    </row>
+    <row r="390" spans="1:4" customFormat="1">
+      <c r="A390" s="2">
+        <v>389</v>
+      </c>
+      <c r="B390" s="5"/>
+      <c r="C390" s="2"/>
+      <c r="D390" s="25"/>
+    </row>
+    <row r="391" spans="1:4" customFormat="1">
+      <c r="A391" s="2">
+        <v>390</v>
+      </c>
+      <c r="B391" s="5"/>
+      <c r="C391" s="2"/>
+      <c r="D391" s="25"/>
+    </row>
+    <row r="392" spans="1:4" customFormat="1">
+      <c r="A392" s="2">
+        <v>391</v>
+      </c>
+      <c r="B392" s="5"/>
+      <c r="C392" s="2"/>
+      <c r="D392" s="25"/>
+    </row>
+    <row r="393" spans="1:4" customFormat="1">
+      <c r="A393" s="2">
+        <v>392</v>
+      </c>
+      <c r="B393" s="5"/>
+      <c r="C393" s="2"/>
+      <c r="D393" s="25"/>
+    </row>
+    <row r="394" spans="1:4" customFormat="1">
+      <c r="A394" s="2">
+        <v>393</v>
+      </c>
+      <c r="B394" s="5"/>
+      <c r="C394" s="2"/>
+      <c r="D394" s="25"/>
+    </row>
+    <row r="395" spans="1:4" customFormat="1">
+      <c r="A395" s="2">
+        <v>394</v>
+      </c>
+      <c r="B395" s="5"/>
+      <c r="C395" s="2"/>
+      <c r="D395" s="25"/>
+    </row>
+    <row r="396" spans="1:4" customFormat="1">
+      <c r="A396" s="2">
+        <v>395</v>
+      </c>
+      <c r="B396" s="5"/>
+      <c r="C396" s="2"/>
+      <c r="D396" s="25"/>
+    </row>
+    <row r="397" spans="1:4" customFormat="1">
+      <c r="A397" s="2">
+        <v>396</v>
+      </c>
+      <c r="B397" s="5"/>
+      <c r="C397" s="2"/>
+      <c r="D397" s="25"/>
+    </row>
+    <row r="398" spans="1:4" customFormat="1">
+      <c r="A398" s="2">
+        <v>397</v>
+      </c>
+      <c r="B398" s="5"/>
+      <c r="C398" s="2"/>
+      <c r="D398" s="25"/>
+    </row>
+    <row r="399" spans="1:4" customFormat="1">
+      <c r="A399" s="2">
+        <v>398</v>
+      </c>
+      <c r="B399" s="5"/>
+      <c r="C399" s="2"/>
+      <c r="D399" s="25"/>
+    </row>
+    <row r="400" spans="1:4" customFormat="1">
+      <c r="A400" s="2">
+        <v>399</v>
+      </c>
+      <c r="B400" s="5"/>
+      <c r="C400" s="2"/>
+      <c r="D400" s="25"/>
+    </row>
+    <row r="401" spans="1:4" customFormat="1">
+      <c r="A401" s="2">
+        <v>400</v>
+      </c>
+      <c r="B401" s="5"/>
+      <c r="C401" s="2"/>
+      <c r="D401" s="25"/>
+    </row>
+    <row r="402" spans="1:4" customFormat="1">
+      <c r="A402" s="2">
+        <v>401</v>
+      </c>
+      <c r="B402" s="5"/>
+      <c r="C402" s="2"/>
+      <c r="D402" s="25"/>
+    </row>
+    <row r="403" spans="1:4" customFormat="1">
+      <c r="A403" s="2">
+        <v>402</v>
+      </c>
+      <c r="B403" s="5"/>
+      <c r="C403" s="2"/>
+      <c r="D403" s="25"/>
+    </row>
+    <row r="404" spans="1:4" customFormat="1">
+      <c r="A404" s="2">
+        <v>403</v>
+      </c>
+      <c r="B404" s="5"/>
+      <c r="C404" s="2"/>
+      <c r="D404" s="25"/>
+    </row>
+    <row r="405" spans="1:4" customFormat="1">
+      <c r="A405" s="2">
+        <v>404</v>
+      </c>
+      <c r="B405" s="5"/>
+      <c r="C405" s="2"/>
+      <c r="D405" s="25"/>
+    </row>
+    <row r="406" spans="1:4" customFormat="1">
+      <c r="A406" s="2">
+        <v>405</v>
+      </c>
+      <c r="B406" s="5"/>
+      <c r="C406" s="2"/>
+      <c r="D406" s="25"/>
+    </row>
+    <row r="407" spans="1:4" customFormat="1">
+      <c r="A407" s="2">
+        <v>406</v>
+      </c>
+      <c r="B407" s="5"/>
+      <c r="C407" s="2"/>
+      <c r="D407" s="25"/>
+    </row>
+    <row r="408" spans="1:4" customFormat="1">
+      <c r="A408" s="2">
+        <v>407</v>
+      </c>
+      <c r="B408" s="5"/>
+      <c r="C408" s="2"/>
+      <c r="D408" s="25"/>
+    </row>
+    <row r="409" spans="1:4" customFormat="1">
+      <c r="A409" s="2">
+        <v>408</v>
+      </c>
+      <c r="B409" s="5"/>
+      <c r="C409" s="2"/>
+      <c r="D409" s="25"/>
+    </row>
+    <row r="410" spans="1:4" customFormat="1">
+      <c r="A410" s="2">
+        <v>409</v>
+      </c>
+      <c r="B410" s="5"/>
+      <c r="C410" s="2"/>
+      <c r="D410" s="25"/>
+    </row>
+    <row r="411" spans="1:4" customFormat="1">
+      <c r="A411" s="2">
+        <v>410</v>
+      </c>
+      <c r="B411" s="5"/>
+      <c r="C411" s="2"/>
+      <c r="D411" s="25"/>
+    </row>
+    <row r="412" spans="1:4" customFormat="1">
+      <c r="A412" s="2">
+        <v>411</v>
+      </c>
+      <c r="B412" s="5"/>
+      <c r="C412" s="2"/>
+      <c r="D412" s="25"/>
+    </row>
+    <row r="413" spans="1:4" customFormat="1">
+      <c r="A413" s="2">
+        <v>412</v>
+      </c>
+      <c r="B413" s="5"/>
+      <c r="C413" s="2"/>
+      <c r="D413" s="25"/>
+    </row>
+    <row r="414" spans="1:4" customFormat="1">
+      <c r="A414" s="2">
+        <v>413</v>
+      </c>
+      <c r="B414" s="5"/>
+      <c r="C414" s="2"/>
+      <c r="D414" s="25"/>
+    </row>
+    <row r="415" spans="1:4" customFormat="1">
+      <c r="A415" s="2">
+        <v>414</v>
+      </c>
+      <c r="B415" s="5"/>
+      <c r="C415" s="2"/>
+      <c r="D415" s="25"/>
+    </row>
+    <row r="416" spans="1:4" customFormat="1">
+      <c r="A416" s="2">
+        <v>415</v>
+      </c>
+      <c r="B416" s="5"/>
+      <c r="C416" s="2"/>
+      <c r="D416" s="25"/>
+    </row>
+    <row r="417" spans="1:4" customFormat="1">
+      <c r="A417" s="2">
+        <v>416</v>
+      </c>
+      <c r="B417" s="5"/>
+      <c r="C417" s="2"/>
+      <c r="D417" s="25"/>
+    </row>
+    <row r="418" spans="1:4" customFormat="1">
+      <c r="A418" s="2">
+        <v>417</v>
+      </c>
+      <c r="B418" s="5"/>
+      <c r="C418" s="2"/>
+      <c r="D418" s="25"/>
+    </row>
+    <row r="419" spans="1:4" customFormat="1">
+      <c r="A419" s="2">
+        <v>418</v>
+      </c>
+      <c r="B419" s="5"/>
+      <c r="C419" s="2"/>
+      <c r="D419" s="25"/>
+    </row>
+    <row r="420" spans="1:4" customFormat="1">
+      <c r="A420" s="2">
+        <v>419</v>
+      </c>
+      <c r="B420" s="5"/>
+      <c r="C420" s="2"/>
+      <c r="D420" s="25"/>
+    </row>
+    <row r="421" spans="1:4" customFormat="1">
+      <c r="A421" s="2">
+        <v>420</v>
+      </c>
+      <c r="B421" s="5"/>
+      <c r="C421" s="2"/>
+      <c r="D421" s="25"/>
+    </row>
+    <row r="422" spans="1:4" customFormat="1">
+      <c r="A422" s="2">
+        <v>421</v>
+      </c>
+      <c r="B422" s="5"/>
+      <c r="C422" s="2"/>
+      <c r="D422" s="25"/>
+    </row>
+    <row r="423" spans="1:4" customFormat="1">
+      <c r="A423" s="2">
+        <v>422</v>
+      </c>
+      <c r="B423" s="5"/>
+      <c r="C423" s="2"/>
+      <c r="D423" s="25"/>
+    </row>
+    <row r="424" spans="1:4" customFormat="1">
+      <c r="A424" s="2">
+        <v>423</v>
+      </c>
+      <c r="B424" s="5"/>
+      <c r="C424" s="2"/>
+      <c r="D424" s="25"/>
+    </row>
+    <row r="425" spans="1:4" customFormat="1">
+      <c r="A425" s="2">
+        <v>424</v>
+      </c>
+      <c r="B425" s="5"/>
+      <c r="C425" s="2"/>
+      <c r="D425" s="25"/>
+    </row>
+    <row r="426" spans="1:4" customFormat="1">
+      <c r="A426" s="2">
+        <v>425</v>
+      </c>
+      <c r="B426" s="5"/>
+      <c r="C426" s="2"/>
+      <c r="D426" s="25"/>
+    </row>
+    <row r="427" spans="1:4" customFormat="1">
+      <c r="A427" s="2">
+        <v>426</v>
+      </c>
+      <c r="B427" s="5"/>
+      <c r="C427" s="2"/>
+      <c r="D427" s="25"/>
+    </row>
+    <row r="428" spans="1:4" customFormat="1">
+      <c r="A428" s="2">
+        <v>427</v>
+      </c>
+      <c r="B428" s="5"/>
+      <c r="C428" s="2"/>
+      <c r="D428" s="25"/>
+    </row>
+    <row r="429" spans="1:4" customFormat="1">
+      <c r="A429" s="2">
+        <v>428</v>
+      </c>
+      <c r="B429" s="5"/>
+      <c r="C429" s="2"/>
+      <c r="D429" s="25"/>
+    </row>
+    <row r="430" spans="1:4" customFormat="1">
+      <c r="A430" s="2">
+        <v>429</v>
+      </c>
+      <c r="B430" s="5"/>
+      <c r="C430" s="2"/>
+      <c r="D430" s="25"/>
+    </row>
+    <row r="431" spans="1:4" customFormat="1">
+      <c r="A431" s="2">
+        <v>430</v>
+      </c>
+      <c r="B431" s="5"/>
+      <c r="C431" s="2"/>
+      <c r="D431" s="25"/>
+    </row>
+    <row r="432" spans="1:4" customFormat="1">
+      <c r="A432" s="2">
+        <v>431</v>
+      </c>
+      <c r="B432" s="5"/>
+      <c r="C432" s="2"/>
+      <c r="D432" s="25"/>
+    </row>
+    <row r="433" spans="1:4" customFormat="1">
+      <c r="A433" s="2">
+        <v>432</v>
+      </c>
+      <c r="B433" s="5"/>
+      <c r="C433" s="2"/>
+      <c r="D433" s="25"/>
+    </row>
+    <row r="434" spans="1:4" customFormat="1">
+      <c r="A434" s="2">
+        <v>433</v>
+      </c>
+      <c r="B434" s="5"/>
+      <c r="C434" s="2"/>
+      <c r="D434" s="25"/>
+    </row>
+    <row r="435" spans="1:4" customFormat="1">
+      <c r="A435" s="2">
+        <v>434</v>
+      </c>
+      <c r="B435" s="5"/>
+      <c r="C435" s="2"/>
+      <c r="D435" s="25"/>
+    </row>
+    <row r="436" spans="1:4" customFormat="1">
+      <c r="A436" s="2">
+        <v>435</v>
+      </c>
+      <c r="B436" s="5"/>
+      <c r="C436" s="2"/>
+      <c r="D436" s="25"/>
+    </row>
+    <row r="437" spans="1:4" customFormat="1">
+      <c r="A437" s="2">
+        <v>436</v>
+      </c>
+      <c r="B437" s="5"/>
+      <c r="C437" s="2"/>
+      <c r="D437" s="25"/>
+    </row>
+    <row r="438" spans="1:4" customFormat="1">
+      <c r="A438" s="2">
+        <v>437</v>
+      </c>
+      <c r="B438" s="5"/>
+      <c r="C438" s="2"/>
+      <c r="D438" s="25"/>
+    </row>
+    <row r="439" spans="1:4" customFormat="1">
+      <c r="A439" s="2">
+        <v>438</v>
+      </c>
+      <c r="B439" s="5"/>
+      <c r="C439" s="2"/>
+      <c r="D439" s="25"/>
+    </row>
+    <row r="440" spans="1:4" customFormat="1">
+      <c r="A440" s="2">
+        <v>439</v>
+      </c>
+      <c r="B440" s="5"/>
+      <c r="C440" s="2"/>
+      <c r="D440" s="25"/>
+    </row>
+    <row r="441" spans="1:4" customFormat="1">
+      <c r="A441" s="2">
+        <v>440</v>
+      </c>
+      <c r="B441" s="5"/>
+      <c r="C441" s="2"/>
+      <c r="D441" s="25"/>
+    </row>
+    <row r="442" spans="1:4" customFormat="1">
+      <c r="A442" s="2">
+        <v>441</v>
+      </c>
+      <c r="B442" s="5"/>
+      <c r="C442" s="2"/>
+      <c r="D442" s="25"/>
+    </row>
+    <row r="443" spans="1:4" customFormat="1">
+      <c r="A443" s="2">
+        <v>442</v>
+      </c>
+      <c r="B443" s="5"/>
+      <c r="C443" s="2"/>
+      <c r="D443" s="25"/>
+    </row>
+    <row r="444" spans="1:4" customFormat="1">
+      <c r="A444" s="2">
+        <v>443</v>
+      </c>
+      <c r="B444" s="5"/>
+      <c r="C444" s="2"/>
+      <c r="D444" s="25"/>
+    </row>
+    <row r="445" spans="1:4" customFormat="1">
+      <c r="A445" s="2">
+        <v>444</v>
+      </c>
+      <c r="B445" s="5"/>
+      <c r="C445" s="2"/>
+      <c r="D445" s="25"/>
+    </row>
+    <row r="446" spans="1:4" customFormat="1">
+      <c r="A446" s="2">
+        <v>445</v>
+      </c>
+      <c r="B446" s="5"/>
+      <c r="C446" s="2"/>
+      <c r="D446" s="25"/>
+    </row>
+    <row r="447" spans="1:4" customFormat="1">
+      <c r="A447" s="2">
+        <v>446</v>
+      </c>
+      <c r="B447" s="5"/>
+      <c r="C447" s="2"/>
+      <c r="D447" s="25"/>
+    </row>
+    <row r="448" spans="1:4" customFormat="1">
+      <c r="A448" s="2">
+        <v>447</v>
+      </c>
+      <c r="B448" s="5"/>
+      <c r="C448" s="2"/>
+      <c r="D448" s="25"/>
+    </row>
+    <row r="449" spans="1:4" customFormat="1">
+      <c r="A449" s="2">
+        <v>448</v>
+      </c>
+      <c r="B449" s="5"/>
+      <c r="C449" s="2"/>
+      <c r="D449" s="25"/>
+    </row>
+    <row r="450" spans="1:4" customFormat="1">
+      <c r="A450" s="2">
+        <v>449</v>
+      </c>
+      <c r="B450" s="5"/>
+      <c r="C450" s="2"/>
+      <c r="D450" s="25"/>
+    </row>
+    <row r="451" spans="1:4" customFormat="1">
+      <c r="A451" s="2">
+        <v>450</v>
+      </c>
+      <c r="B451" s="5"/>
+      <c r="C451" s="2"/>
+      <c r="D451" s="25"/>
+    </row>
+    <row r="452" spans="1:4" customFormat="1">
+      <c r="A452" s="2">
+        <v>451</v>
+      </c>
+      <c r="B452" s="5"/>
+      <c r="C452" s="2"/>
+      <c r="D452" s="25"/>
+    </row>
+    <row r="453" spans="1:4" customFormat="1">
+      <c r="A453" s="2">
+        <v>452</v>
+      </c>
+      <c r="B453" s="5"/>
+      <c r="C453" s="2"/>
+      <c r="D453" s="25"/>
+    </row>
+    <row r="454" spans="1:4" customFormat="1">
+      <c r="A454" s="2">
+        <v>453</v>
+      </c>
+      <c r="B454" s="5"/>
+      <c r="C454" s="2"/>
+      <c r="D454" s="25"/>
+    </row>
+    <row r="455" spans="1:4" customFormat="1">
+      <c r="A455" s="2">
+        <v>454</v>
+      </c>
+      <c r="B455" s="5"/>
+      <c r="C455" s="2"/>
+      <c r="D455" s="25"/>
+    </row>
+    <row r="456" spans="1:4" customFormat="1">
+      <c r="A456" s="2">
+        <v>455</v>
+      </c>
+      <c r="B456" s="5"/>
+      <c r="C456" s="2"/>
+      <c r="D456" s="25"/>
+    </row>
+    <row r="457" spans="1:4" customFormat="1">
+      <c r="A457" s="2">
+        <v>456</v>
+      </c>
+      <c r="B457" s="5"/>
+      <c r="C457" s="2"/>
+      <c r="D457" s="25"/>
+    </row>
+    <row r="458" spans="1:4" customFormat="1">
+      <c r="A458" s="2">
+        <v>457</v>
+      </c>
+      <c r="B458" s="5"/>
+      <c r="C458" s="2"/>
+      <c r="D458" s="25"/>
+    </row>
+    <row r="459" spans="1:4" customFormat="1">
+      <c r="A459" s="2">
+        <v>458</v>
+      </c>
+      <c r="B459" s="5"/>
+      <c r="C459" s="2"/>
+      <c r="D459" s="25"/>
+    </row>
+    <row r="460" spans="1:4" customFormat="1">
+      <c r="A460" s="2">
+        <v>459</v>
+      </c>
+      <c r="B460" s="5"/>
+      <c r="C460" s="2"/>
+      <c r="D460" s="25"/>
+    </row>
+    <row r="461" spans="1:4" customFormat="1">
+      <c r="A461" s="2">
+        <v>460</v>
+      </c>
+      <c r="B461" s="5"/>
+      <c r="C461" s="2"/>
+      <c r="D461" s="25"/>
+    </row>
+    <row r="462" spans="1:4" customFormat="1">
+      <c r="A462" s="2">
+        <v>461</v>
+      </c>
+      <c r="B462" s="5"/>
+      <c r="C462" s="2"/>
+      <c r="D462" s="25"/>
+    </row>
+    <row r="463" spans="1:4" customFormat="1">
+      <c r="A463" s="2">
+        <v>462</v>
+      </c>
+      <c r="B463" s="5"/>
+      <c r="C463" s="2"/>
+      <c r="D463" s="25"/>
+    </row>
+    <row r="464" spans="1:4" customFormat="1">
+      <c r="A464" s="2">
+        <v>463</v>
+      </c>
+      <c r="B464" s="5"/>
+      <c r="C464" s="2"/>
+      <c r="D464" s="25"/>
+    </row>
+    <row r="465" spans="1:4" customFormat="1">
+      <c r="A465" s="2">
+        <v>464</v>
+      </c>
+      <c r="B465" s="5"/>
+      <c r="C465" s="2"/>
+      <c r="D465" s="25"/>
+    </row>
+    <row r="466" spans="1:4" customFormat="1">
+      <c r="A466" s="2">
+        <v>465</v>
+      </c>
+      <c r="B466" s="5"/>
+      <c r="C466" s="2"/>
+      <c r="D466" s="25"/>
+    </row>
+    <row r="467" spans="1:4" customFormat="1">
+      <c r="A467" s="2">
+        <v>466</v>
+      </c>
+      <c r="B467" s="5"/>
+      <c r="C467" s="2"/>
+      <c r="D467" s="25"/>
+    </row>
+    <row r="468" spans="1:4" customFormat="1">
+      <c r="A468" s="2">
+        <v>467</v>
+      </c>
+      <c r="B468" s="5"/>
+      <c r="C468" s="2"/>
+      <c r="D468" s="25"/>
+    </row>
+    <row r="469" spans="1:4" customFormat="1">
+      <c r="A469" s="2">
+        <v>468</v>
+      </c>
+      <c r="B469" s="5"/>
+      <c r="C469" s="2"/>
+      <c r="D469" s="25"/>
+    </row>
+    <row r="470" spans="1:4" customFormat="1">
+      <c r="A470" s="2">
+        <v>469</v>
+      </c>
+      <c r="B470" s="5"/>
+      <c r="C470" s="2"/>
+      <c r="D470" s="25"/>
+    </row>
+    <row r="471" spans="1:4" customFormat="1">
+      <c r="A471" s="2">
+        <v>470</v>
+      </c>
+      <c r="B471" s="5"/>
+      <c r="C471" s="2"/>
+      <c r="D471" s="25"/>
+    </row>
+    <row r="472" spans="1:4" customFormat="1">
+      <c r="A472" s="2">
+        <v>471</v>
+      </c>
+      <c r="B472" s="5"/>
+      <c r="C472" s="2"/>
+      <c r="D472" s="25"/>
+    </row>
+    <row r="473" spans="1:4" customFormat="1">
+      <c r="A473" s="2">
+        <v>472</v>
+      </c>
+      <c r="B473" s="5"/>
+      <c r="C473" s="2"/>
+      <c r="D473" s="25"/>
+    </row>
+    <row r="474" spans="1:4" customFormat="1">
+      <c r="A474" s="2">
+        <v>473</v>
+      </c>
+      <c r="B474" s="5"/>
+      <c r="C474" s="2"/>
+      <c r="D474" s="25"/>
+    </row>
+    <row r="475" spans="1:4" customFormat="1">
+      <c r="A475" s="2">
+        <v>474</v>
+      </c>
+      <c r="B475" s="5"/>
+      <c r="C475" s="2"/>
+      <c r="D475" s="25"/>
+    </row>
+    <row r="476" spans="1:4" customFormat="1">
+      <c r="A476" s="2">
+        <v>475</v>
+      </c>
+      <c r="B476" s="5"/>
+      <c r="C476" s="2"/>
+      <c r="D476" s="25"/>
+    </row>
+    <row r="477" spans="1:4" customFormat="1">
+      <c r="A477" s="2">
+        <v>476</v>
+      </c>
+      <c r="B477" s="5"/>
+      <c r="C477" s="2"/>
+      <c r="D477" s="25"/>
+    </row>
+    <row r="478" spans="1:4" customFormat="1">
+      <c r="A478" s="2">
+        <v>477</v>
+      </c>
+      <c r="B478" s="5"/>
+      <c r="C478" s="2"/>
+      <c r="D478" s="25"/>
+    </row>
+    <row r="479" spans="1:4" customFormat="1">
+      <c r="A479" s="2">
+        <v>478</v>
+      </c>
+      <c r="B479" s="5"/>
+      <c r="C479" s="2"/>
+      <c r="D479" s="25"/>
+    </row>
+    <row r="480" spans="1:4" customFormat="1">
+      <c r="A480" s="2">
+        <v>479</v>
+      </c>
+      <c r="B480" s="5"/>
+      <c r="C480" s="2"/>
+      <c r="D480" s="25"/>
+    </row>
+    <row r="481" spans="1:4" customFormat="1">
+      <c r="A481" s="2">
+        <v>480</v>
+      </c>
+      <c r="B481" s="5"/>
+      <c r="C481" s="2"/>
+      <c r="D481" s="25"/>
+    </row>
+    <row r="482" spans="1:4" customFormat="1">
+      <c r="A482" s="2">
+        <v>481</v>
+      </c>
+      <c r="B482" s="5"/>
+      <c r="C482" s="2"/>
+      <c r="D482" s="25"/>
+    </row>
+    <row r="483" spans="1:4" customFormat="1">
+      <c r="A483" s="2">
+        <v>482</v>
+      </c>
+      <c r="B483" s="5"/>
+      <c r="C483" s="2"/>
+      <c r="D483" s="25"/>
+    </row>
+    <row r="484" spans="1:4" customFormat="1">
+      <c r="A484" s="2">
+        <v>483</v>
+      </c>
+      <c r="B484" s="5"/>
+      <c r="C484" s="2"/>
+      <c r="D484" s="25"/>
+    </row>
+    <row r="485" spans="1:4" customFormat="1">
+      <c r="A485" s="2">
+        <v>484</v>
+      </c>
+      <c r="B485" s="5"/>
+      <c r="C485" s="2"/>
+      <c r="D485" s="25"/>
+    </row>
+    <row r="486" spans="1:4" customFormat="1">
+      <c r="A486" s="2">
+        <v>485</v>
+      </c>
+      <c r="B486" s="5"/>
+      <c r="C486" s="2"/>
+      <c r="D486" s="25"/>
+    </row>
+    <row r="487" spans="1:4" customFormat="1">
+      <c r="A487" s="2">
+        <v>486</v>
+      </c>
+      <c r="B487" s="5"/>
+      <c r="C487" s="2"/>
+      <c r="D487" s="25"/>
+    </row>
+    <row r="488" spans="1:4" customFormat="1">
+      <c r="A488" s="2">
+        <v>487</v>
+      </c>
+      <c r="B488" s="5"/>
+      <c r="C488" s="2"/>
+      <c r="D488" s="25"/>
+    </row>
+    <row r="489" spans="1:4" customFormat="1">
+      <c r="A489" s="2">
+        <v>488</v>
+      </c>
+      <c r="B489" s="5"/>
+      <c r="C489" s="2"/>
+      <c r="D489" s="25"/>
+    </row>
+    <row r="490" spans="1:4" customFormat="1">
+      <c r="A490" s="2">
+        <v>489</v>
+      </c>
+      <c r="B490" s="5"/>
+      <c r="C490" s="2"/>
+      <c r="D490" s="25"/>
+    </row>
+    <row r="491" spans="1:4" customFormat="1">
+      <c r="A491" s="2">
+        <v>490</v>
+      </c>
+      <c r="B491" s="5"/>
+      <c r="C491" s="2"/>
+      <c r="D491" s="25"/>
+    </row>
+    <row r="492" spans="1:4" customFormat="1">
+      <c r="A492" s="2">
+        <v>491</v>
+      </c>
+      <c r="B492" s="5"/>
+      <c r="C492" s="2"/>
+      <c r="D492" s="25"/>
+    </row>
+    <row r="493" spans="1:4" customFormat="1">
+      <c r="A493" s="2">
+        <v>492</v>
+      </c>
+      <c r="B493" s="5"/>
+      <c r="C493" s="2"/>
+      <c r="D493" s="25"/>
+    </row>
+    <row r="494" spans="1:4" customFormat="1">
+      <c r="A494" s="2">
+        <v>493</v>
+      </c>
+      <c r="B494" s="5"/>
+      <c r="C494" s="2"/>
+      <c r="D494" s="25"/>
+    </row>
+    <row r="495" spans="1:4" customFormat="1">
+      <c r="A495" s="2">
+        <v>494</v>
+      </c>
+      <c r="B495" s="5"/>
+      <c r="C495" s="2"/>
+      <c r="D495" s="25"/>
+    </row>
+    <row r="496" spans="1:4" customFormat="1">
+      <c r="A496" s="2">
+        <v>495</v>
+      </c>
+      <c r="B496" s="5"/>
+      <c r="C496" s="2"/>
+      <c r="D496" s="25"/>
+    </row>
+    <row r="497" spans="1:4" customFormat="1">
+      <c r="A497" s="2">
+        <v>496</v>
+      </c>
+      <c r="B497" s="5"/>
+      <c r="C497" s="2"/>
+      <c r="D497" s="25"/>
+    </row>
+    <row r="498" spans="1:4" customFormat="1">
+      <c r="A498" s="2">
+        <v>497</v>
+      </c>
+      <c r="B498" s="5"/>
+      <c r="C498" s="2"/>
+      <c r="D498" s="25"/>
+    </row>
+    <row r="499" spans="1:4" customFormat="1">
+      <c r="A499" s="2">
+        <v>498</v>
+      </c>
+      <c r="B499" s="5"/>
+      <c r="C499" s="2"/>
+      <c r="D499" s="25"/>
+    </row>
+    <row r="500" spans="1:4" customFormat="1">
+      <c r="A500" s="2">
+        <v>499</v>
+      </c>
+      <c r="B500" s="5"/>
+      <c r="C500" s="2"/>
+      <c r="D500" s="25"/>
+    </row>
+    <row r="501" spans="1:4" customFormat="1">
+      <c r="A501" s="2">
+        <v>500</v>
+      </c>
+      <c r="B501" s="5"/>
+      <c r="C501" s="2"/>
+      <c r="D501" s="25"/>
+    </row>
+    <row r="502" spans="1:4" customFormat="1">
+      <c r="A502" s="2">
+        <v>501</v>
+      </c>
+      <c r="B502" s="5"/>
+      <c r="C502" s="2"/>
+      <c r="D502" s="25"/>
+    </row>
+    <row r="503" spans="1:4" customFormat="1">
+      <c r="A503" s="2">
+        <v>502</v>
+      </c>
+      <c r="B503" s="5"/>
+      <c r="C503" s="2"/>
+      <c r="D503" s="25"/>
+    </row>
+    <row r="504" spans="1:4" customFormat="1">
+      <c r="A504" s="2">
+        <v>503</v>
+      </c>
+      <c r="B504" s="5"/>
+      <c r="C504" s="2"/>
+      <c r="D504" s="25"/>
+    </row>
+    <row r="505" spans="1:4" customFormat="1">
+      <c r="A505" s="2">
+        <v>504</v>
+      </c>
+      <c r="B505" s="5"/>
+      <c r="C505" s="2"/>
+      <c r="D505" s="25"/>
+    </row>
+    <row r="506" spans="1:4" customFormat="1">
+      <c r="A506" s="2">
+        <v>505</v>
+      </c>
+      <c r="B506" s="5"/>
+      <c r="C506" s="2"/>
+      <c r="D506" s="25"/>
+    </row>
+    <row r="507" spans="1:4" customFormat="1">
+      <c r="A507" s="2">
+        <v>506</v>
+      </c>
+      <c r="B507" s="5"/>
+      <c r="C507" s="2"/>
+      <c r="D507" s="25"/>
+    </row>
+    <row r="508" spans="1:4" customFormat="1">
+      <c r="A508" s="2">
+        <v>507</v>
+      </c>
+      <c r="B508" s="5"/>
+      <c r="C508" s="2"/>
+      <c r="D508" s="25"/>
+    </row>
+    <row r="509" spans="1:4" customFormat="1">
+      <c r="A509" s="2">
+        <v>508</v>
+      </c>
+      <c r="B509" s="5"/>
+      <c r="C509" s="2"/>
+      <c r="D509" s="25"/>
+    </row>
+    <row r="510" spans="1:4" customFormat="1">
+      <c r="A510" s="2">
+        <v>509</v>
+      </c>
+      <c r="B510" s="5"/>
+      <c r="C510" s="2"/>
+      <c r="D510" s="25"/>
+    </row>
+    <row r="511" spans="1:4" customFormat="1">
+      <c r="A511" s="2">
+        <v>510</v>
+      </c>
+      <c r="B511" s="5"/>
+      <c r="C511" s="2"/>
+      <c r="D511" s="25"/>
+    </row>
+    <row r="512" spans="1:4" customFormat="1">
+      <c r="A512" s="2">
+        <v>511</v>
+      </c>
+      <c r="B512" s="5"/>
+      <c r="C512" s="2"/>
+      <c r="D512" s="25"/>
+    </row>
+    <row r="513" spans="1:4" customFormat="1">
+      <c r="A513" s="2">
+        <v>512</v>
+      </c>
+      <c r="B513" s="5"/>
+      <c r="C513" s="2"/>
+      <c r="D513" s="25"/>
+    </row>
+    <row r="514" spans="1:4" customFormat="1">
+      <c r="A514" s="2">
+        <v>513</v>
+      </c>
+      <c r="B514" s="5"/>
+      <c r="C514" s="2"/>
+      <c r="D514" s="25"/>
+    </row>
+    <row r="515" spans="1:4" customFormat="1">
+      <c r="A515" s="2">
+        <v>514</v>
+      </c>
+      <c r="B515" s="5"/>
+      <c r="C515" s="2"/>
+      <c r="D515" s="25"/>
+    </row>
+    <row r="516" spans="1:4" customFormat="1">
+      <c r="A516" s="2">
+        <v>515</v>
+      </c>
+      <c r="B516" s="5"/>
+      <c r="C516" s="2"/>
+      <c r="D516" s="25"/>
+    </row>
+    <row r="517" spans="1:4" customFormat="1">
+      <c r="A517" s="2">
+        <v>516</v>
+      </c>
+      <c r="B517" s="5"/>
+      <c r="C517" s="2"/>
+      <c r="D517" s="25"/>
+    </row>
+    <row r="518" spans="1:4" customFormat="1">
+      <c r="A518" s="2">
+        <v>517</v>
+      </c>
+      <c r="B518" s="5"/>
+      <c r="C518" s="2"/>
+      <c r="D518" s="25"/>
+    </row>
+    <row r="519" spans="1:4" customFormat="1">
+      <c r="A519" s="2">
+        <v>518</v>
+      </c>
+      <c r="B519" s="5"/>
+      <c r="C519" s="2"/>
+      <c r="D519" s="25"/>
+    </row>
+    <row r="520" spans="1:4" customFormat="1">
+      <c r="A520" s="2">
+        <v>519</v>
+      </c>
+      <c r="B520" s="5"/>
+      <c r="C520" s="2"/>
+      <c r="D520" s="25"/>
+    </row>
+    <row r="521" spans="1:4" customFormat="1">
+      <c r="A521" s="2">
+        <v>520</v>
+      </c>
+      <c r="B521" s="5"/>
+      <c r="C521" s="2"/>
+      <c r="D521" s="25"/>
+    </row>
+    <row r="522" spans="1:4" customFormat="1">
+      <c r="A522" s="2">
+        <v>521</v>
+      </c>
+      <c r="B522" s="5"/>
+      <c r="C522" s="2"/>
+      <c r="D522" s="25"/>
+    </row>
+    <row r="523" spans="1:4" customFormat="1">
+      <c r="A523" s="2">
+        <v>522</v>
+      </c>
+      <c r="B523" s="5"/>
+      <c r="C523" s="2"/>
+      <c r="D523" s="25"/>
+    </row>
+    <row r="524" spans="1:4" customFormat="1">
+      <c r="A524" s="2">
+        <v>523</v>
+      </c>
+      <c r="B524" s="5"/>
+      <c r="C524" s="2"/>
+      <c r="D524" s="25"/>
+    </row>
+    <row r="525" spans="1:4" customFormat="1">
+      <c r="A525" s="2">
+        <v>524</v>
+      </c>
+      <c r="B525" s="5"/>
+      <c r="C525" s="2"/>
+      <c r="D525" s="25"/>
+    </row>
+    <row r="526" spans="1:4" customFormat="1">
+      <c r="A526" s="2">
+        <v>525</v>
+      </c>
+      <c r="B526" s="5"/>
+      <c r="C526" s="2"/>
+      <c r="D526" s="25"/>
+    </row>
+    <row r="527" spans="1:4" customFormat="1">
+      <c r="A527" s="2">
+        <v>526</v>
+      </c>
+      <c r="B527" s="5"/>
+      <c r="C527" s="2"/>
+      <c r="D527" s="25"/>
+    </row>
+    <row r="528" spans="1:4" customFormat="1">
+      <c r="A528" s="2">
+        <v>527</v>
+      </c>
+      <c r="B528" s="5"/>
+      <c r="C528" s="2"/>
+      <c r="D528" s="25"/>
+    </row>
+    <row r="529" spans="1:4" customFormat="1">
+      <c r="A529" s="2">
+        <v>528</v>
+      </c>
+      <c r="B529" s="5"/>
+      <c r="C529" s="2"/>
+      <c r="D529" s="25"/>
+    </row>
+    <row r="530" spans="1:4" customFormat="1">
+      <c r="A530" s="2">
+        <v>529</v>
+      </c>
+      <c r="B530" s="5"/>
+      <c r="C530" s="2"/>
+      <c r="D530" s="25"/>
+    </row>
+    <row r="531" spans="1:4" customFormat="1">
+      <c r="A531" s="2">
+        <v>530</v>
+      </c>
+      <c r="B531" s="5"/>
+      <c r="C531" s="2"/>
+      <c r="D531" s="25"/>
+    </row>
+    <row r="532" spans="1:4" customFormat="1">
+      <c r="A532" s="2">
+        <v>531</v>
+      </c>
+      <c r="B532" s="5"/>
+      <c r="C532" s="2"/>
+      <c r="D532" s="25"/>
+    </row>
+    <row r="533" spans="1:4" customFormat="1">
+      <c r="A533" s="2">
+        <v>532</v>
+      </c>
+      <c r="B533" s="5"/>
+      <c r="C533" s="2"/>
+      <c r="D533" s="25"/>
+    </row>
+    <row r="534" spans="1:4" customFormat="1">
+      <c r="A534" s="2">
+        <v>533</v>
+      </c>
+      <c r="B534" s="5"/>
+      <c r="C534" s="2"/>
+      <c r="D534" s="25"/>
+    </row>
+    <row r="535" spans="1:4" customFormat="1">
+      <c r="A535" s="2">
+        <v>534</v>
+      </c>
+      <c r="B535" s="5"/>
+      <c r="C535" s="2"/>
+      <c r="D535" s="25"/>
+    </row>
+    <row r="536" spans="1:4" customFormat="1">
+      <c r="A536" s="2">
+        <v>535</v>
+      </c>
+      <c r="B536" s="5"/>
+      <c r="C536" s="2"/>
+      <c r="D536" s="25"/>
+    </row>
+    <row r="537" spans="1:4" customFormat="1">
+      <c r="A537" s="2">
+        <v>536</v>
+      </c>
+      <c r="B537" s="5"/>
+      <c r="C537" s="2"/>
+      <c r="D537" s="25"/>
+    </row>
+    <row r="538" spans="1:4" customFormat="1">
+      <c r="A538" s="2">
+        <v>537</v>
+      </c>
+      <c r="B538" s="5"/>
+      <c r="C538" s="2"/>
+      <c r="D538" s="25"/>
+    </row>
+    <row r="539" spans="1:4" customFormat="1">
+      <c r="A539" s="2">
+        <v>538</v>
+      </c>
+      <c r="B539" s="5"/>
+      <c r="C539" s="2"/>
+      <c r="D539" s="25"/>
+    </row>
+    <row r="540" spans="1:4" customFormat="1">
+      <c r="A540" s="2">
+        <v>539</v>
+      </c>
+      <c r="B540" s="5"/>
+      <c r="C540" s="2"/>
+      <c r="D540" s="25"/>
+    </row>
+    <row r="541" spans="1:4" customFormat="1">
+      <c r="A541" s="2">
+        <v>540</v>
+      </c>
+      <c r="B541" s="5"/>
+      <c r="C541" s="2"/>
+      <c r="D541" s="25"/>
+    </row>
+    <row r="542" spans="1:4" customFormat="1">
+      <c r="A542" s="2">
+        <v>541</v>
+      </c>
+      <c r="B542" s="5"/>
+      <c r="C542" s="2"/>
+      <c r="D542" s="25"/>
+    </row>
+    <row r="543" spans="1:4" customFormat="1">
+      <c r="A543" s="2">
+        <v>542</v>
+      </c>
+      <c r="B543" s="5"/>
+      <c r="C543" s="2"/>
+      <c r="D543" s="25"/>
+    </row>
+    <row r="544" spans="1:4" customFormat="1">
+      <c r="A544" s="2">
+        <v>543</v>
+      </c>
+      <c r="B544" s="5"/>
+      <c r="C544" s="2"/>
+      <c r="D544" s="25"/>
+    </row>
+    <row r="545" spans="1:4" customFormat="1">
+      <c r="A545" s="2">
+        <v>544</v>
+      </c>
+      <c r="B545" s="5"/>
+      <c r="C545" s="2"/>
+      <c r="D545" s="25"/>
+    </row>
+    <row r="546" spans="1:4" customFormat="1">
+      <c r="A546" s="2">
+        <v>545</v>
+      </c>
+      <c r="B546" s="5"/>
+      <c r="C546" s="2"/>
+      <c r="D546" s="25"/>
+    </row>
+    <row r="547" spans="1:4" customFormat="1">
+      <c r="A547" s="2">
+        <v>546</v>
+      </c>
+      <c r="B547" s="5"/>
+      <c r="C547" s="2"/>
+      <c r="D547" s="25"/>
+    </row>
+    <row r="548" spans="1:4" customFormat="1">
+      <c r="A548" s="2">
+        <v>547</v>
+      </c>
+      <c r="B548" s="5"/>
+      <c r="C548" s="2"/>
+      <c r="D548" s="25"/>
+    </row>
+    <row r="549" spans="1:4" customFormat="1">
+      <c r="A549" s="2">
+        <v>548</v>
+      </c>
+      <c r="B549" s="5"/>
+      <c r="C549" s="2"/>
+      <c r="D549" s="25"/>
+    </row>
+    <row r="550" spans="1:4" customFormat="1">
+      <c r="A550" s="2">
+        <v>549</v>
+      </c>
+      <c r="B550" s="5"/>
+      <c r="C550" s="2"/>
+      <c r="D550" s="25"/>
+    </row>
+    <row r="551" spans="1:4" customFormat="1">
+      <c r="A551" s="2">
+        <v>550</v>
+      </c>
+      <c r="B551" s="5"/>
+      <c r="C551" s="2"/>
+      <c r="D551" s="25"/>
+    </row>
+    <row r="552" spans="1:4" customFormat="1">
+      <c r="A552" s="2">
+        <v>551</v>
+      </c>
+      <c r="B552" s="5"/>
+      <c r="C552" s="2"/>
+      <c r="D552" s="25"/>
+    </row>
+    <row r="553" spans="1:4" customFormat="1">
+      <c r="A553" s="2">
+        <v>552</v>
+      </c>
+      <c r="B553" s="5"/>
+      <c r="C553" s="2"/>
+      <c r="D553" s="25"/>
+    </row>
+    <row r="554" spans="1:4" customFormat="1">
+      <c r="A554" s="2">
+        <v>553</v>
+      </c>
+      <c r="B554" s="5"/>
+      <c r="C554" s="2"/>
+      <c r="D554" s="25"/>
+    </row>
+    <row r="555" spans="1:4" customFormat="1">
+      <c r="A555" s="2">
+        <v>554</v>
+      </c>
+      <c r="B555" s="5"/>
+      <c r="C555" s="2"/>
+      <c r="D555" s="25"/>
+    </row>
+    <row r="556" spans="1:4" customFormat="1">
+      <c r="A556" s="2">
+        <v>555</v>
+      </c>
+      <c r="B556" s="5"/>
+      <c r="C556" s="2"/>
+      <c r="D556" s="25"/>
+    </row>
+    <row r="557" spans="1:4" customFormat="1">
+      <c r="A557" s="2">
+        <v>556</v>
+      </c>
+      <c r="B557" s="5"/>
+      <c r="C557" s="2"/>
+      <c r="D557" s="25"/>
+    </row>
+    <row r="558" spans="1:4" customFormat="1">
+      <c r="A558" s="2">
+        <v>557</v>
+      </c>
+      <c r="B558" s="5"/>
+      <c r="C558" s="2"/>
+      <c r="D558" s="25"/>
+    </row>
+    <row r="559" spans="1:4" customFormat="1">
+      <c r="A559" s="2">
+        <v>558</v>
+      </c>
+      <c r="B559" s="5"/>
+      <c r="C559" s="2"/>
+      <c r="D559" s="25"/>
+    </row>
+    <row r="560" spans="1:4" customFormat="1">
+      <c r="A560" s="2">
+        <v>559</v>
+      </c>
+      <c r="B560" s="5"/>
+      <c r="C560" s="2"/>
+      <c r="D560" s="25"/>
+    </row>
+    <row r="561" spans="1:4" customFormat="1">
+      <c r="A561" s="2">
+        <v>560</v>
+      </c>
+      <c r="B561" s="5"/>
+      <c r="C561" s="2"/>
+      <c r="D561" s="25"/>
+    </row>
+    <row r="562" spans="1:4" customFormat="1">
+      <c r="A562" s="2">
+        <v>561</v>
+      </c>
+      <c r="B562" s="5"/>
+      <c r="C562" s="2"/>
+      <c r="D562" s="25"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F13:G216">
+    <sortCondition descending="1" ref="F13:F216"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2DC070B7-6698-B947-9576-7CA2F79A0267}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2DC070B7-6698-B947-9576-7CA2F79A0267}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G4</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50189AD7-1618-6046-8462-82CF9C61B6BB}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -31463,7 +36367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B6C942-170E-494F-A16B-F3784FD2A9C4}">
   <dimension ref="A1:G562"/>
   <sheetViews>
@@ -31499,7 +36403,7 @@
       </c>
       <c r="F1" s="12" t="str">
         <f ca="1">_xlfn.CONCAT("截至",TEXT(NOW(),"YYYY-mm-dd"))</f>
-        <v>截至2020-09-18</v>
+        <v>截至2020-09-24</v>
       </c>
       <c r="G1" s="12"/>
     </row>
